--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -1016,6 +1016,312 @@
   </si>
   <si>
     <t>17.03.202539</t>
+  </si>
+  <si>
+    <t>17.03.202540</t>
+  </si>
+  <si>
+    <t>17.03.202541</t>
+  </si>
+  <si>
+    <t>17.03.202542</t>
+  </si>
+  <si>
+    <t>17.03.202543</t>
+  </si>
+  <si>
+    <t>17.03.202544</t>
+  </si>
+  <si>
+    <t>17.03.202545</t>
+  </si>
+  <si>
+    <t>17.03.202546</t>
+  </si>
+  <si>
+    <t>17.03.202547</t>
+  </si>
+  <si>
+    <t>17.03.202548</t>
+  </si>
+  <si>
+    <t>17.03.202549</t>
+  </si>
+  <si>
+    <t>17.03.202550</t>
+  </si>
+  <si>
+    <t>17.03.202551</t>
+  </si>
+  <si>
+    <t>17.03.202552</t>
+  </si>
+  <si>
+    <t>17.03.202553</t>
+  </si>
+  <si>
+    <t>17.03.202554</t>
+  </si>
+  <si>
+    <t>17.03.202555</t>
+  </si>
+  <si>
+    <t>17.03.202556</t>
+  </si>
+  <si>
+    <t>17.03.202557</t>
+  </si>
+  <si>
+    <t>17.03.202558</t>
+  </si>
+  <si>
+    <t>17.03.202559</t>
+  </si>
+  <si>
+    <t>17.03.202560</t>
+  </si>
+  <si>
+    <t>17.03.202561</t>
+  </si>
+  <si>
+    <t>17.03.202562</t>
+  </si>
+  <si>
+    <t>17.03.202563</t>
+  </si>
+  <si>
+    <t>17.03.202564</t>
+  </si>
+  <si>
+    <t>17.03.202565</t>
+  </si>
+  <si>
+    <t>17.03.202566</t>
+  </si>
+  <si>
+    <t>17.03.202567</t>
+  </si>
+  <si>
+    <t>17.03.202568</t>
+  </si>
+  <si>
+    <t>17.03.202569</t>
+  </si>
+  <si>
+    <t>17.03.202570</t>
+  </si>
+  <si>
+    <t>17.03.202571</t>
+  </si>
+  <si>
+    <t>17.03.202572</t>
+  </si>
+  <si>
+    <t>17.03.202573</t>
+  </si>
+  <si>
+    <t>17.03.202574</t>
+  </si>
+  <si>
+    <t>17.03.202575</t>
+  </si>
+  <si>
+    <t>17.03.202576</t>
+  </si>
+  <si>
+    <t>17.03.202577</t>
+  </si>
+  <si>
+    <t>17.03.202578</t>
+  </si>
+  <si>
+    <t>17.03.202579</t>
+  </si>
+  <si>
+    <t>17.03.202580</t>
+  </si>
+  <si>
+    <t>17.03.202581</t>
+  </si>
+  <si>
+    <t>17.03.202582</t>
+  </si>
+  <si>
+    <t>17.03.202583</t>
+  </si>
+  <si>
+    <t>17.03.202584</t>
+  </si>
+  <si>
+    <t>17.03.202585</t>
+  </si>
+  <si>
+    <t>17.03.202586</t>
+  </si>
+  <si>
+    <t>17.03.202587</t>
+  </si>
+  <si>
+    <t>17.03.202588</t>
+  </si>
+  <si>
+    <t>17.03.202589</t>
+  </si>
+  <si>
+    <t>17.03.202590</t>
+  </si>
+  <si>
+    <t>17.03.202591</t>
+  </si>
+  <si>
+    <t>17.03.202592</t>
+  </si>
+  <si>
+    <t>17.03.202593</t>
+  </si>
+  <si>
+    <t>17.03.202594</t>
+  </si>
+  <si>
+    <t>17.03.202595</t>
+  </si>
+  <si>
+    <t>17.03.202596</t>
+  </si>
+  <si>
+    <t>18.03.20251</t>
+  </si>
+  <si>
+    <t>18.03.20252</t>
+  </si>
+  <si>
+    <t>18.03.20253</t>
+  </si>
+  <si>
+    <t>18.03.20254</t>
+  </si>
+  <si>
+    <t>18.03.20255</t>
+  </si>
+  <si>
+    <t>18.03.20256</t>
+  </si>
+  <si>
+    <t>18.03.20257</t>
+  </si>
+  <si>
+    <t>18.03.20258</t>
+  </si>
+  <si>
+    <t>18.03.20259</t>
+  </si>
+  <si>
+    <t>18.03.202510</t>
+  </si>
+  <si>
+    <t>18.03.202511</t>
+  </si>
+  <si>
+    <t>18.03.202512</t>
+  </si>
+  <si>
+    <t>18.03.202513</t>
+  </si>
+  <si>
+    <t>18.03.202514</t>
+  </si>
+  <si>
+    <t>18.03.202515</t>
+  </si>
+  <si>
+    <t>18.03.202516</t>
+  </si>
+  <si>
+    <t>18.03.202517</t>
+  </si>
+  <si>
+    <t>18.03.202518</t>
+  </si>
+  <si>
+    <t>18.03.202519</t>
+  </si>
+  <si>
+    <t>18.03.202520</t>
+  </si>
+  <si>
+    <t>18.03.202521</t>
+  </si>
+  <si>
+    <t>18.03.202522</t>
+  </si>
+  <si>
+    <t>18.03.202523</t>
+  </si>
+  <si>
+    <t>18.03.202524</t>
+  </si>
+  <si>
+    <t>18.03.202525</t>
+  </si>
+  <si>
+    <t>18.03.202526</t>
+  </si>
+  <si>
+    <t>18.03.202527</t>
+  </si>
+  <si>
+    <t>18.03.202528</t>
+  </si>
+  <si>
+    <t>18.03.202529</t>
+  </si>
+  <si>
+    <t>18.03.202530</t>
+  </si>
+  <si>
+    <t>18.03.202531</t>
+  </si>
+  <si>
+    <t>18.03.202532</t>
+  </si>
+  <si>
+    <t>18.03.202533</t>
+  </si>
+  <si>
+    <t>18.03.202534</t>
+  </si>
+  <si>
+    <t>18.03.202535</t>
+  </si>
+  <si>
+    <t>18.03.202536</t>
+  </si>
+  <si>
+    <t>18.03.202537</t>
+  </si>
+  <si>
+    <t>18.03.202538</t>
+  </si>
+  <si>
+    <t>18.03.202539</t>
+  </si>
+  <si>
+    <t>18.03.202540</t>
+  </si>
+  <si>
+    <t>18.03.202541</t>
+  </si>
+  <si>
+    <t>18.03.202542</t>
+  </si>
+  <si>
+    <t>18.03.202543</t>
+  </si>
+  <si>
+    <t>18.03.202544</t>
+  </si>
+  <si>
+    <t>18.03.202545</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2357,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>24.256</v>
       </c>
       <c r="D43">
         <v>35.75</v>
@@ -2380,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>13.29</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2403,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>17.211</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2426,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>27.472</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2449,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>11.273</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2469,10 +2775,10 @@
         <v>45730.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2.068</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2492,10 +2798,10 @@
         <v>45730.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>5.125</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2518,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>18.249</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2538,10 +2844,10 @@
         <v>45730.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>13.627</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2561,10 +2867,10 @@
         <v>45730.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2.154</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2584,10 +2890,10 @@
         <v>45730.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.343</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2607,10 +2913,10 @@
         <v>45730.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>6.637</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2630,7 +2936,7 @@
         <v>45730.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>39.34</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2653,7 +2959,7 @@
         <v>45730.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>50.79</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2676,10 +2982,10 @@
         <v>45730.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>17.474</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D57">
         <v>72.25</v>
@@ -2702,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>44.514</v>
       </c>
       <c r="D58">
         <v>75</v>
@@ -2722,10 +3028,10 @@
         <v>45730.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>13.178</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2745,7 +3051,7 @@
         <v>45730.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>32.57</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2768,7 +3074,7 @@
         <v>45730.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>42.906</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -8925,6 +9231,2352 @@
       </c>
       <c r="G328" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="2">
+        <v>45733.40625</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>8.124000000000001</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>40</v>
+      </c>
+      <c r="G329" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="2">
+        <v>45733.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>0.294</v>
+      </c>
+      <c r="C330">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>41</v>
+      </c>
+      <c r="G330" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="2">
+        <v>45733.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>1.3</v>
+      </c>
+      <c r="C331">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>42</v>
+      </c>
+      <c r="G331" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="2">
+        <v>45733.4375</v>
+      </c>
+      <c r="B332">
+        <v>0.603</v>
+      </c>
+      <c r="C332">
+        <v>0.461</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>43</v>
+      </c>
+      <c r="G332" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="2">
+        <v>45733.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>0.426</v>
+      </c>
+      <c r="C333">
+        <v>0.497</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>44</v>
+      </c>
+      <c r="G333" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="2">
+        <v>45733.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>1.29</v>
+      </c>
+      <c r="C334">
+        <v>5.611</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>45</v>
+      </c>
+      <c r="G334" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="2">
+        <v>45733.46875</v>
+      </c>
+      <c r="B335">
+        <v>15.655</v>
+      </c>
+      <c r="C335">
+        <v>0.078</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>46</v>
+      </c>
+      <c r="G335" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="2">
+        <v>45733.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>18.972</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>47</v>
+      </c>
+      <c r="G336" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="2">
+        <v>45733.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>21.484</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>48</v>
+      </c>
+      <c r="G337" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="2">
+        <v>45733.5</v>
+      </c>
+      <c r="B338">
+        <v>26.406</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>49</v>
+      </c>
+      <c r="G338" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="2">
+        <v>45733.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>52.159</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>50</v>
+      </c>
+      <c r="G339" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="2">
+        <v>45733.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>17.886</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>42.5</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>51</v>
+      </c>
+      <c r="G340" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="2">
+        <v>45733.53125</v>
+      </c>
+      <c r="B341">
+        <v>27.615</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>42.5</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>52</v>
+      </c>
+      <c r="G341" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="2">
+        <v>45733.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>29.202</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>42.5</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>53</v>
+      </c>
+      <c r="G342" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="2">
+        <v>45733.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>18.337</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>42.5</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>54</v>
+      </c>
+      <c r="G343" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="2">
+        <v>45733.5625</v>
+      </c>
+      <c r="B344">
+        <v>4.314</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>42.5</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>55</v>
+      </c>
+      <c r="G344" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="2">
+        <v>45733.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>1.461</v>
+      </c>
+      <c r="C345">
+        <v>0.063</v>
+      </c>
+      <c r="D345">
+        <v>42.5</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>56</v>
+      </c>
+      <c r="G345" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="2">
+        <v>45733.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>23.951</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>28.75</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>57</v>
+      </c>
+      <c r="G346" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="2">
+        <v>45733.59375</v>
+      </c>
+      <c r="B347">
+        <v>49.71</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>28.75</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>58</v>
+      </c>
+      <c r="G347" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="2">
+        <v>45733.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>61.807</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>28.75</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>59</v>
+      </c>
+      <c r="G348" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="2">
+        <v>45733.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>59.574</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>28.75</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>60</v>
+      </c>
+      <c r="G349" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="2">
+        <v>45733.625</v>
+      </c>
+      <c r="B350">
+        <v>3.441</v>
+      </c>
+      <c r="C350">
+        <v>10.503</v>
+      </c>
+      <c r="D350">
+        <v>100</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>61</v>
+      </c>
+      <c r="G350" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="2">
+        <v>45733.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>5.961</v>
+      </c>
+      <c r="D351">
+        <v>100</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>62</v>
+      </c>
+      <c r="G351" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="2">
+        <v>45733.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0.279</v>
+      </c>
+      <c r="C352">
+        <v>0.336</v>
+      </c>
+      <c r="D352">
+        <v>100</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>63</v>
+      </c>
+      <c r="G352" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="2">
+        <v>45733.65625</v>
+      </c>
+      <c r="B353">
+        <v>0.554</v>
+      </c>
+      <c r="C353">
+        <v>2.435</v>
+      </c>
+      <c r="D353">
+        <v>100</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>64</v>
+      </c>
+      <c r="G353" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="2">
+        <v>45733.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>19.666</v>
+      </c>
+      <c r="D354">
+        <v>100</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>65</v>
+      </c>
+      <c r="G354" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="2">
+        <v>45733.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>4.266</v>
+      </c>
+      <c r="D355">
+        <v>100</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>66</v>
+      </c>
+      <c r="G355" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="2">
+        <v>45733.6875</v>
+      </c>
+      <c r="B356">
+        <v>0.025</v>
+      </c>
+      <c r="C356">
+        <v>1.354</v>
+      </c>
+      <c r="D356">
+        <v>100</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>67</v>
+      </c>
+      <c r="G356" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="2">
+        <v>45733.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0.453</v>
+      </c>
+      <c r="C357">
+        <v>0.002</v>
+      </c>
+      <c r="D357">
+        <v>100</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>68</v>
+      </c>
+      <c r="G357" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="2">
+        <v>45733.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0.002</v>
+      </c>
+      <c r="C358">
+        <v>21.731</v>
+      </c>
+      <c r="D358">
+        <v>100</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>69</v>
+      </c>
+      <c r="G358" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="2">
+        <v>45733.71875</v>
+      </c>
+      <c r="B359">
+        <v>0.119</v>
+      </c>
+      <c r="C359">
+        <v>0.367</v>
+      </c>
+      <c r="D359">
+        <v>100</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>70</v>
+      </c>
+      <c r="G359" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="2">
+        <v>45733.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>27.261</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>71</v>
+      </c>
+      <c r="G360" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="2">
+        <v>45733.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>44.324</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>72</v>
+      </c>
+      <c r="G361" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="2">
+        <v>45733.75</v>
+      </c>
+      <c r="B362">
+        <v>0.991</v>
+      </c>
+      <c r="C362">
+        <v>3.109</v>
+      </c>
+      <c r="D362">
+        <v>50</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>73</v>
+      </c>
+      <c r="G362" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="2">
+        <v>45733.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0.662</v>
+      </c>
+      <c r="C363">
+        <v>0.163</v>
+      </c>
+      <c r="D363">
+        <v>50</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>74</v>
+      </c>
+      <c r="G363" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="2">
+        <v>45733.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0.245</v>
+      </c>
+      <c r="C364">
+        <v>0.063</v>
+      </c>
+      <c r="D364">
+        <v>50</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>75</v>
+      </c>
+      <c r="G364" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="2">
+        <v>45733.78125</v>
+      </c>
+      <c r="B365">
+        <v>0.169</v>
+      </c>
+      <c r="C365">
+        <v>0.28</v>
+      </c>
+      <c r="D365">
+        <v>50</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>76</v>
+      </c>
+      <c r="G365" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="2">
+        <v>45733.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>14.532</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>50</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>77</v>
+      </c>
+      <c r="G366" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="2">
+        <v>45733.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>24.987</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>50</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>78</v>
+      </c>
+      <c r="G367" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="2">
+        <v>45733.8125</v>
+      </c>
+      <c r="B368">
+        <v>13.424</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>50</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>79</v>
+      </c>
+      <c r="G368" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="2">
+        <v>45733.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0.773</v>
+      </c>
+      <c r="C369">
+        <v>1.743</v>
+      </c>
+      <c r="D369">
+        <v>50</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>80</v>
+      </c>
+      <c r="G369" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="2">
+        <v>45733.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0.025</v>
+      </c>
+      <c r="C370">
+        <v>1.157</v>
+      </c>
+      <c r="D370">
+        <v>50</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>81</v>
+      </c>
+      <c r="G370" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="2">
+        <v>45733.84375</v>
+      </c>
+      <c r="B371">
+        <v>0.005</v>
+      </c>
+      <c r="C371">
+        <v>7.593</v>
+      </c>
+      <c r="D371">
+        <v>50</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>82</v>
+      </c>
+      <c r="G371" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="2">
+        <v>45733.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0.063</v>
+      </c>
+      <c r="C372">
+        <v>4.406</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>83</v>
+      </c>
+      <c r="G372" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="2">
+        <v>45733.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0.223</v>
+      </c>
+      <c r="C373">
+        <v>0.276</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>84</v>
+      </c>
+      <c r="G373" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="2">
+        <v>45733.875</v>
+      </c>
+      <c r="B374">
+        <v>46.7</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>85</v>
+      </c>
+      <c r="G374" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="2">
+        <v>45733.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>31.302</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>86</v>
+      </c>
+      <c r="G375" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="2">
+        <v>45733.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0.04</v>
+      </c>
+      <c r="C376">
+        <v>0.663</v>
+      </c>
+      <c r="D376">
+        <v>51.5</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>87</v>
+      </c>
+      <c r="G376" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="2">
+        <v>45733.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>33.328</v>
+      </c>
+      <c r="D377">
+        <v>53.75</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>88</v>
+      </c>
+      <c r="G377" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="2">
+        <v>45733.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>9.335000000000001</v>
+      </c>
+      <c r="D378">
+        <v>66.75</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>89</v>
+      </c>
+      <c r="G378" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="2">
+        <v>45733.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>1.273</v>
+      </c>
+      <c r="D379">
+        <v>67.5</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>90</v>
+      </c>
+      <c r="G379" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="2">
+        <v>45733.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>16.638</v>
+      </c>
+      <c r="D380">
+        <v>19.75</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>91</v>
+      </c>
+      <c r="G380" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="2">
+        <v>45733.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>35.488</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>92</v>
+      </c>
+      <c r="G381" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="2">
+        <v>45733.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>11.023</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>93</v>
+      </c>
+      <c r="G382" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="2">
+        <v>45733.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>14.156</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>94</v>
+      </c>
+      <c r="G383" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="2">
+        <v>45733.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>19.382</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>95</v>
+      </c>
+      <c r="G384" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="2">
+        <v>45733.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>20.412</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>96</v>
+      </c>
+      <c r="G385" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B386">
+        <v>4.059</v>
+      </c>
+      <c r="C386">
+        <v>0.38</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="2">
+        <v>45734.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>0.582</v>
+      </c>
+      <c r="C387">
+        <v>0.711</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>2</v>
+      </c>
+      <c r="G387" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="2">
+        <v>45734.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>0.172</v>
+      </c>
+      <c r="C388">
+        <v>0.723</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>3</v>
+      </c>
+      <c r="G388" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="2">
+        <v>45734.03125</v>
+      </c>
+      <c r="B389">
+        <v>0.786</v>
+      </c>
+      <c r="C389">
+        <v>0.008</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>4</v>
+      </c>
+      <c r="G389" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="2">
+        <v>45734.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>25.066</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>5</v>
+      </c>
+      <c r="G390" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="2">
+        <v>45734.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>25.227</v>
+      </c>
+      <c r="C391">
+        <v>0.066</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>6</v>
+      </c>
+      <c r="G391" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="2">
+        <v>45734.0625</v>
+      </c>
+      <c r="B392">
+        <v>0.045</v>
+      </c>
+      <c r="C392">
+        <v>3.884</v>
+      </c>
+      <c r="D392">
+        <v>33.5</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>7</v>
+      </c>
+      <c r="G392" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="2">
+        <v>45734.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>0.015</v>
+      </c>
+      <c r="C393">
+        <v>1.282</v>
+      </c>
+      <c r="D393">
+        <v>35</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>8</v>
+      </c>
+      <c r="G393" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="2">
+        <v>45734.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>0.132</v>
+      </c>
+      <c r="C394">
+        <v>0.138</v>
+      </c>
+      <c r="D394">
+        <v>35</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>9</v>
+      </c>
+      <c r="G394" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="2">
+        <v>45734.09375</v>
+      </c>
+      <c r="B395">
+        <v>7.249</v>
+      </c>
+      <c r="C395">
+        <v>0.005</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>10</v>
+      </c>
+      <c r="G395" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="2">
+        <v>45734.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>12.82</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>11</v>
+      </c>
+      <c r="G396" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="2">
+        <v>45734.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>7.867</v>
+      </c>
+      <c r="C397">
+        <v>0.157</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>12</v>
+      </c>
+      <c r="G397" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="2">
+        <v>45734.125</v>
+      </c>
+      <c r="B398">
+        <v>5.582</v>
+      </c>
+      <c r="C398">
+        <v>0.063</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>13</v>
+      </c>
+      <c r="G398" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="2">
+        <v>45734.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>12.048</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>14</v>
+      </c>
+      <c r="G399" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="2">
+        <v>45734.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>16.422</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>15</v>
+      </c>
+      <c r="G400" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="2">
+        <v>45734.15625</v>
+      </c>
+      <c r="B401">
+        <v>9.567</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>16</v>
+      </c>
+      <c r="G401" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="2">
+        <v>45734.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>2.589</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>17</v>
+      </c>
+      <c r="G402" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="2">
+        <v>45734.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>3.493</v>
+      </c>
+      <c r="C403">
+        <v>0.028</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>18</v>
+      </c>
+      <c r="G403" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="2">
+        <v>45734.1875</v>
+      </c>
+      <c r="B404">
+        <v>5.15</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>19</v>
+      </c>
+      <c r="G404" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="2">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>21.159</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>20</v>
+      </c>
+      <c r="G405" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="2">
+        <v>45734.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>0.301</v>
+      </c>
+      <c r="C406">
+        <v>5.412</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>21</v>
+      </c>
+      <c r="G406" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="2">
+        <v>45734.21875</v>
+      </c>
+      <c r="B407">
+        <v>0.955</v>
+      </c>
+      <c r="C407">
+        <v>0.204</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407">
+        <v>22</v>
+      </c>
+      <c r="G407" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="2">
+        <v>45734.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>4.247</v>
+      </c>
+      <c r="C408">
+        <v>0.015</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <v>23</v>
+      </c>
+      <c r="G408" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="2">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>32.997</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>24</v>
+      </c>
+      <c r="G409" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="2">
+        <v>45734.25</v>
+      </c>
+      <c r="B410">
+        <v>9.327999999999999</v>
+      </c>
+      <c r="C410">
+        <v>1.815</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>25</v>
+      </c>
+      <c r="G410" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="2">
+        <v>45734.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>32.949</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>26</v>
+      </c>
+      <c r="G411" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="2">
+        <v>45734.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>28.934</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>27</v>
+      </c>
+      <c r="G412" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="2">
+        <v>45734.28125</v>
+      </c>
+      <c r="B413">
+        <v>24.343</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>28</v>
+      </c>
+      <c r="G413" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="2">
+        <v>45734.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>26.723</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>29</v>
+      </c>
+      <c r="G414" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="2">
+        <v>45734.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>16.458</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>30</v>
+      </c>
+      <c r="G415" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="2">
+        <v>45734.3125</v>
+      </c>
+      <c r="B416">
+        <v>0.08</v>
+      </c>
+      <c r="C416">
+        <v>0.358</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>31</v>
+      </c>
+      <c r="G416" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="2">
+        <v>45734.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>0.055</v>
+      </c>
+      <c r="C417">
+        <v>13.804</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>32</v>
+      </c>
+      <c r="G417" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="2">
+        <v>45734.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>7.967</v>
+      </c>
+      <c r="C418">
+        <v>0.632</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>33</v>
+      </c>
+      <c r="G418" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="2">
+        <v>45734.34375</v>
+      </c>
+      <c r="B419">
+        <v>0.802</v>
+      </c>
+      <c r="C419">
+        <v>0.667</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>34</v>
+      </c>
+      <c r="G419" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="2">
+        <v>45734.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <v>6.355</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>35</v>
+      </c>
+      <c r="G420" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="2">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>39.566</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>36</v>
+      </c>
+      <c r="G421" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="2">
+        <v>45734.375</v>
+      </c>
+      <c r="B422">
+        <v>5.929</v>
+      </c>
+      <c r="C422">
+        <v>0.442</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>37</v>
+      </c>
+      <c r="G422" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="2">
+        <v>45734.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>0.848</v>
+      </c>
+      <c r="C423">
+        <v>0.074</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>38</v>
+      </c>
+      <c r="G423" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="2">
+        <v>45734.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>0.057</v>
+      </c>
+      <c r="C424">
+        <v>22.616</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>39</v>
+      </c>
+      <c r="G424" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="2">
+        <v>45734.40625</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>43.623</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>40</v>
+      </c>
+      <c r="G425" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="2">
+        <v>45734.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>7.777</v>
+      </c>
+      <c r="C426">
+        <v>6.706</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>41</v>
+      </c>
+      <c r="G426" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="2">
+        <v>45734.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>1.227</v>
+      </c>
+      <c r="C427">
+        <v>5.273</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>42</v>
+      </c>
+      <c r="G427" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="2">
+        <v>45734.4375</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>20.934</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>43</v>
+      </c>
+      <c r="G428" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="2">
+        <v>45734.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>28.443</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>44</v>
+      </c>
+      <c r="G429" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="2">
+        <v>45734.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>0.027</v>
+      </c>
+      <c r="C430">
+        <v>8.117000000000001</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>45</v>
+      </c>
+      <c r="G430" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abbcgroup-my.sharepoint.com/personal/andrei_ionita_adrem_ro/Documents/Desktop/ML/forecast_app/data_fetching/Entsoe/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDC6D3CD415165409389E4A14B7BDC5DC2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47010AE1-BA03-49E8-9F3C-8309DCFB938A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,294 +56,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.03.20251</t>
-  </si>
-  <si>
-    <t>23.03.20252</t>
-  </si>
-  <si>
-    <t>23.03.20253</t>
-  </si>
-  <si>
-    <t>23.03.20254</t>
-  </si>
-  <si>
-    <t>23.03.20255</t>
-  </si>
-  <si>
-    <t>23.03.20256</t>
-  </si>
-  <si>
-    <t>23.03.20257</t>
-  </si>
-  <si>
-    <t>23.03.20258</t>
-  </si>
-  <si>
-    <t>23.03.20259</t>
-  </si>
-  <si>
-    <t>23.03.202510</t>
-  </si>
-  <si>
-    <t>23.03.202511</t>
-  </si>
-  <si>
-    <t>23.03.202512</t>
-  </si>
-  <si>
-    <t>23.03.202513</t>
-  </si>
-  <si>
-    <t>23.03.202514</t>
-  </si>
-  <si>
-    <t>23.03.202515</t>
-  </si>
-  <si>
-    <t>23.03.202516</t>
-  </si>
-  <si>
-    <t>23.03.202517</t>
-  </si>
-  <si>
-    <t>23.03.202518</t>
-  </si>
-  <si>
-    <t>23.03.202519</t>
-  </si>
-  <si>
-    <t>23.03.202520</t>
-  </si>
-  <si>
-    <t>23.03.202521</t>
-  </si>
-  <si>
-    <t>23.03.202522</t>
-  </si>
-  <si>
-    <t>23.03.202523</t>
-  </si>
-  <si>
-    <t>23.03.202524</t>
-  </si>
-  <si>
-    <t>23.03.202525</t>
-  </si>
-  <si>
-    <t>23.03.202526</t>
-  </si>
-  <si>
-    <t>23.03.202527</t>
-  </si>
-  <si>
-    <t>23.03.202528</t>
-  </si>
-  <si>
-    <t>23.03.202529</t>
-  </si>
-  <si>
-    <t>23.03.202530</t>
-  </si>
-  <si>
-    <t>23.03.202531</t>
-  </si>
-  <si>
-    <t>23.03.202532</t>
-  </si>
-  <si>
-    <t>23.03.202533</t>
-  </si>
-  <si>
-    <t>23.03.202534</t>
-  </si>
-  <si>
-    <t>23.03.202535</t>
-  </si>
-  <si>
-    <t>23.03.202536</t>
-  </si>
-  <si>
-    <t>23.03.202537</t>
-  </si>
-  <si>
-    <t>23.03.202538</t>
-  </si>
-  <si>
-    <t>23.03.202539</t>
-  </si>
-  <si>
-    <t>23.03.202540</t>
-  </si>
-  <si>
-    <t>23.03.202541</t>
-  </si>
-  <si>
-    <t>23.03.202542</t>
-  </si>
-  <si>
-    <t>23.03.202543</t>
-  </si>
-  <si>
-    <t>23.03.202544</t>
-  </si>
-  <si>
-    <t>23.03.202545</t>
-  </si>
-  <si>
-    <t>23.03.202546</t>
-  </si>
-  <si>
-    <t>23.03.202547</t>
-  </si>
-  <si>
-    <t>23.03.202548</t>
-  </si>
-  <si>
-    <t>23.03.202549</t>
-  </si>
-  <si>
-    <t>23.03.202550</t>
-  </si>
-  <si>
-    <t>23.03.202551</t>
-  </si>
-  <si>
-    <t>23.03.202552</t>
-  </si>
-  <si>
-    <t>23.03.202553</t>
-  </si>
-  <si>
-    <t>23.03.202554</t>
-  </si>
-  <si>
-    <t>23.03.202555</t>
-  </si>
-  <si>
-    <t>23.03.202556</t>
-  </si>
-  <si>
-    <t>23.03.202557</t>
-  </si>
-  <si>
-    <t>23.03.202558</t>
-  </si>
-  <si>
-    <t>23.03.202559</t>
-  </si>
-  <si>
-    <t>23.03.202560</t>
-  </si>
-  <si>
-    <t>23.03.202561</t>
-  </si>
-  <si>
-    <t>23.03.202562</t>
-  </si>
-  <si>
-    <t>23.03.202563</t>
-  </si>
-  <si>
-    <t>23.03.202564</t>
-  </si>
-  <si>
-    <t>23.03.202565</t>
-  </si>
-  <si>
-    <t>23.03.202566</t>
-  </si>
-  <si>
-    <t>23.03.202567</t>
-  </si>
-  <si>
-    <t>23.03.202568</t>
-  </si>
-  <si>
-    <t>23.03.202569</t>
-  </si>
-  <si>
-    <t>23.03.202570</t>
-  </si>
-  <si>
-    <t>23.03.202571</t>
-  </si>
-  <si>
-    <t>23.03.202572</t>
-  </si>
-  <si>
-    <t>23.03.202573</t>
-  </si>
-  <si>
-    <t>23.03.202574</t>
-  </si>
-  <si>
-    <t>23.03.202575</t>
-  </si>
-  <si>
-    <t>23.03.202576</t>
-  </si>
-  <si>
-    <t>23.03.202577</t>
-  </si>
-  <si>
-    <t>23.03.202578</t>
-  </si>
-  <si>
-    <t>23.03.202579</t>
-  </si>
-  <si>
-    <t>23.03.202580</t>
-  </si>
-  <si>
-    <t>23.03.202581</t>
-  </si>
-  <si>
-    <t>23.03.202582</t>
-  </si>
-  <si>
-    <t>23.03.202583</t>
-  </si>
-  <si>
-    <t>23.03.202584</t>
-  </si>
-  <si>
-    <t>23.03.202585</t>
-  </si>
-  <si>
-    <t>23.03.202586</t>
-  </si>
-  <si>
-    <t>23.03.202587</t>
-  </si>
-  <si>
-    <t>23.03.202588</t>
-  </si>
-  <si>
-    <t>23.03.202589</t>
-  </si>
-  <si>
-    <t>23.03.202590</t>
-  </si>
-  <si>
-    <t>23.03.202591</t>
-  </si>
-  <si>
-    <t>23.03.202592</t>
-  </si>
-  <si>
-    <t>23.03.202593</t>
-  </si>
-  <si>
-    <t>23.03.202594</t>
-  </si>
-  <si>
-    <t>23.03.202595</t>
-  </si>
-  <si>
-    <t>23.03.202596</t>
-  </si>
-  <si>
     <t>24.03.20251</t>
   </si>
   <si>
@@ -398,16 +129,358 @@
   </si>
   <si>
     <t>24.03.202525</t>
+  </si>
+  <si>
+    <t>24.03.202526</t>
+  </si>
+  <si>
+    <t>24.03.202527</t>
+  </si>
+  <si>
+    <t>24.03.202528</t>
+  </si>
+  <si>
+    <t>24.03.202529</t>
+  </si>
+  <si>
+    <t>24.03.202530</t>
+  </si>
+  <si>
+    <t>24.03.202531</t>
+  </si>
+  <si>
+    <t>24.03.202532</t>
+  </si>
+  <si>
+    <t>24.03.202533</t>
+  </si>
+  <si>
+    <t>24.03.202534</t>
+  </si>
+  <si>
+    <t>24.03.202535</t>
+  </si>
+  <si>
+    <t>24.03.202536</t>
+  </si>
+  <si>
+    <t>24.03.202537</t>
+  </si>
+  <si>
+    <t>24.03.202538</t>
+  </si>
+  <si>
+    <t>24.03.202539</t>
+  </si>
+  <si>
+    <t>24.03.202540</t>
+  </si>
+  <si>
+    <t>24.03.202541</t>
+  </si>
+  <si>
+    <t>24.03.202542</t>
+  </si>
+  <si>
+    <t>24.03.202543</t>
+  </si>
+  <si>
+    <t>24.03.202544</t>
+  </si>
+  <si>
+    <t>24.03.202545</t>
+  </si>
+  <si>
+    <t>24.03.202546</t>
+  </si>
+  <si>
+    <t>24.03.202547</t>
+  </si>
+  <si>
+    <t>24.03.202548</t>
+  </si>
+  <si>
+    <t>24.03.202549</t>
+  </si>
+  <si>
+    <t>24.03.202550</t>
+  </si>
+  <si>
+    <t>24.03.202551</t>
+  </si>
+  <si>
+    <t>24.03.202552</t>
+  </si>
+  <si>
+    <t>24.03.202553</t>
+  </si>
+  <si>
+    <t>24.03.202554</t>
+  </si>
+  <si>
+    <t>24.03.202555</t>
+  </si>
+  <si>
+    <t>24.03.202556</t>
+  </si>
+  <si>
+    <t>24.03.202557</t>
+  </si>
+  <si>
+    <t>24.03.202558</t>
+  </si>
+  <si>
+    <t>24.03.202559</t>
+  </si>
+  <si>
+    <t>24.03.202560</t>
+  </si>
+  <si>
+    <t>24.03.202561</t>
+  </si>
+  <si>
+    <t>24.03.202562</t>
+  </si>
+  <si>
+    <t>24.03.202563</t>
+  </si>
+  <si>
+    <t>24.03.202564</t>
+  </si>
+  <si>
+    <t>24.03.202565</t>
+  </si>
+  <si>
+    <t>24.03.202566</t>
+  </si>
+  <si>
+    <t>24.03.202567</t>
+  </si>
+  <si>
+    <t>24.03.202568</t>
+  </si>
+  <si>
+    <t>24.03.202569</t>
+  </si>
+  <si>
+    <t>24.03.202570</t>
+  </si>
+  <si>
+    <t>24.03.202571</t>
+  </si>
+  <si>
+    <t>24.03.202572</t>
+  </si>
+  <si>
+    <t>24.03.202573</t>
+  </si>
+  <si>
+    <t>24.03.202574</t>
+  </si>
+  <si>
+    <t>24.03.202575</t>
+  </si>
+  <si>
+    <t>24.03.202576</t>
+  </si>
+  <si>
+    <t>24.03.202577</t>
+  </si>
+  <si>
+    <t>24.03.202578</t>
+  </si>
+  <si>
+    <t>24.03.202579</t>
+  </si>
+  <si>
+    <t>24.03.202580</t>
+  </si>
+  <si>
+    <t>24.03.202581</t>
+  </si>
+  <si>
+    <t>24.03.202582</t>
+  </si>
+  <si>
+    <t>24.03.202583</t>
+  </si>
+  <si>
+    <t>24.03.202584</t>
+  </si>
+  <si>
+    <t>24.03.202585</t>
+  </si>
+  <si>
+    <t>24.03.202586</t>
+  </si>
+  <si>
+    <t>24.03.202587</t>
+  </si>
+  <si>
+    <t>24.03.202588</t>
+  </si>
+  <si>
+    <t>24.03.202589</t>
+  </si>
+  <si>
+    <t>24.03.202590</t>
+  </si>
+  <si>
+    <t>24.03.202591</t>
+  </si>
+  <si>
+    <t>24.03.202592</t>
+  </si>
+  <si>
+    <t>24.03.202593</t>
+  </si>
+  <si>
+    <t>24.03.202594</t>
+  </si>
+  <si>
+    <t>24.03.202595</t>
+  </si>
+  <si>
+    <t>24.03.202596</t>
+  </si>
+  <si>
+    <t>25.03.20251</t>
+  </si>
+  <si>
+    <t>25.03.20252</t>
+  </si>
+  <si>
+    <t>25.03.20253</t>
+  </si>
+  <si>
+    <t>25.03.20254</t>
+  </si>
+  <si>
+    <t>25.03.20255</t>
+  </si>
+  <si>
+    <t>25.03.20256</t>
+  </si>
+  <si>
+    <t>25.03.20257</t>
+  </si>
+  <si>
+    <t>25.03.20258</t>
+  </si>
+  <si>
+    <t>25.03.20259</t>
+  </si>
+  <si>
+    <t>25.03.202510</t>
+  </si>
+  <si>
+    <t>25.03.202511</t>
+  </si>
+  <si>
+    <t>25.03.202512</t>
+  </si>
+  <si>
+    <t>25.03.202513</t>
+  </si>
+  <si>
+    <t>25.03.202514</t>
+  </si>
+  <si>
+    <t>25.03.202515</t>
+  </si>
+  <si>
+    <t>25.03.202516</t>
+  </si>
+  <si>
+    <t>25.03.202517</t>
+  </si>
+  <si>
+    <t>25.03.202518</t>
+  </si>
+  <si>
+    <t>25.03.202519</t>
+  </si>
+  <si>
+    <t>25.03.202520</t>
+  </si>
+  <si>
+    <t>25.03.202521</t>
+  </si>
+  <si>
+    <t>25.03.202522</t>
+  </si>
+  <si>
+    <t>25.03.202523</t>
+  </si>
+  <si>
+    <t>25.03.202524</t>
+  </si>
+  <si>
+    <t>25.03.202525</t>
+  </si>
+  <si>
+    <t>25.03.202526</t>
+  </si>
+  <si>
+    <t>25.03.202527</t>
+  </si>
+  <si>
+    <t>25.03.202528</t>
+  </si>
+  <si>
+    <t>25.03.202529</t>
+  </si>
+  <si>
+    <t>25.03.202530</t>
+  </si>
+  <si>
+    <t>25.03.202531</t>
+  </si>
+  <si>
+    <t>25.03.202532</t>
+  </si>
+  <si>
+    <t>25.03.202533</t>
+  </si>
+  <si>
+    <t>25.03.202534</t>
+  </si>
+  <si>
+    <t>25.03.202535</t>
+  </si>
+  <si>
+    <t>25.03.202536</t>
+  </si>
+  <si>
+    <t>25.03.202537</t>
+  </si>
+  <si>
+    <t>25.03.202538</t>
+  </si>
+  <si>
+    <t>25.03.202539</t>
+  </si>
+  <si>
+    <t>25.03.202540</t>
+  </si>
+  <si>
+    <t>25.03.202541</t>
+  </si>
+  <si>
+    <t>25.03.202542</t>
+  </si>
+  <si>
+    <t>25.03.202543</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,13 +544,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -515,7 +596,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -549,6 +630,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -583,9 +665,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -758,14 +841,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="N131" sqref="N131"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,15 +876,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="B2">
-        <v>9.69</v>
+        <v>0.15</v>
       </c>
       <c r="C2">
-        <v>0.335</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -811,15 +899,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45739.01041666666</v>
+        <v>45740.010416666657</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>0.179</v>
+        <v>6.4089999999999998</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -834,15 +922,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45739.02083333334</v>
+        <v>45740.020833333343</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.292</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -857,15 +945,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45739.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="C5">
-        <v>6.032</v>
+        <v>0.16</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -880,15 +968,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45739.04166666666</v>
+        <v>45740.041666666657</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.575</v>
+        <v>5.8250000000000002</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -903,15 +991,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45739.05208333334</v>
+        <v>45740.052083333343</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C7">
-        <v>6.91</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -926,15 +1014,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45739.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="C8">
-        <v>11.299</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -949,15 +1037,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45739.07291666666</v>
+        <v>45740.072916666657</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.9430000000000001</v>
       </c>
       <c r="C9">
-        <v>3.272</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -972,15 +1060,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45739.08333333334</v>
+        <v>45740.083333333343</v>
       </c>
       <c r="B10">
-        <v>0.273</v>
+        <v>16.609000000000002</v>
       </c>
       <c r="C10">
-        <v>0.044</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -995,15 +1083,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45739.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B11">
-        <v>0.012</v>
+        <v>27.667000000000002</v>
       </c>
       <c r="C11">
-        <v>0.898</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1018,15 +1106,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45739.10416666666</v>
+        <v>45740.104166666657</v>
       </c>
       <c r="B12">
-        <v>0.282</v>
+        <v>21.841000000000001</v>
       </c>
       <c r="C12">
-        <v>0.096</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1041,15 +1129,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45739.11458333334</v>
+        <v>45740.114583333343</v>
       </c>
       <c r="B13">
-        <v>0.093</v>
+        <v>17.373000000000001</v>
       </c>
       <c r="C13">
-        <v>0.123</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1064,15 +1152,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45739.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B14">
-        <v>2.841</v>
+        <v>10.941000000000001</v>
       </c>
       <c r="C14">
-        <v>0.005</v>
+        <v>1E-3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1087,15 +1175,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45739.13541666666</v>
+        <v>45740.135416666657</v>
       </c>
       <c r="B15">
-        <v>0.171</v>
+        <v>26.433</v>
       </c>
       <c r="C15">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1110,15 +1198,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45739.14583333334</v>
+        <v>45740.145833333343</v>
       </c>
       <c r="B16">
-        <v>0.036</v>
+        <v>43.893000000000001</v>
       </c>
       <c r="C16">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1133,15 +1221,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45739.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B17">
-        <v>0.104</v>
+        <v>29.114000000000001</v>
       </c>
       <c r="C17">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1156,15 +1244,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45739.16666666666</v>
+        <v>45740.166666666657</v>
       </c>
       <c r="B18">
-        <v>1.979</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1179,15 +1267,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45739.17708333334</v>
+        <v>45740.177083333343</v>
       </c>
       <c r="B19">
-        <v>1.211</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.017</v>
+        <v>6.6219999999999999</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1202,15 +1290,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45739.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B20">
-        <v>1.033</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.024</v>
+        <v>13.244</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1225,15 +1313,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45739.19791666666</v>
+        <v>45740.197916666657</v>
       </c>
       <c r="B21">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.027</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1248,15 +1336,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45739.20833333334</v>
+        <v>45740.208333333343</v>
       </c>
       <c r="B22">
-        <v>4.93</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>50.039000000000001</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1271,15 +1359,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45739.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B23">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.488</v>
+        <v>41.082999999999998</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1294,15 +1382,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45739.22916666666</v>
+        <v>45740.229166666657</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.356</v>
+        <v>28.574000000000002</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1317,15 +1405,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45739.23958333334</v>
+        <v>45740.239583333343</v>
       </c>
       <c r="B25">
-        <v>0.075</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C25">
-        <v>2.746</v>
+        <v>5.8769999999999998</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1340,15 +1428,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45739.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B26">
-        <v>11.82</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.245</v>
+        <v>14.298999999999999</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1363,15 +1451,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45739.26041666666</v>
+        <v>45740.260416666657</v>
       </c>
       <c r="B27">
-        <v>3.241</v>
+        <v>2.653</v>
       </c>
       <c r="C27">
-        <v>0.055</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1386,15 +1474,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45739.27083333334</v>
+        <v>45740.270833333343</v>
       </c>
       <c r="B28">
-        <v>0.046</v>
+        <v>6.0839999999999996</v>
       </c>
       <c r="C28">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1409,15 +1497,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45739.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B29">
-        <v>0.336</v>
+        <v>20.637</v>
       </c>
       <c r="C29">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1432,15 +1520,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45739.29166666666</v>
+        <v>45740.291666666657</v>
       </c>
       <c r="B30">
-        <v>45.083</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1455,12 +1543,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45739.30208333334</v>
+        <v>45740.302083333343</v>
       </c>
       <c r="B31">
-        <v>38.709</v>
+        <v>17.811</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1478,18 +1566,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45739.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B32">
-        <v>1.019</v>
+        <v>12.143000000000001</v>
       </c>
       <c r="C32">
-        <v>3.917</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1501,15 +1589,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45739.32291666666</v>
+        <v>45740.322916666657</v>
       </c>
       <c r="B33">
-        <v>3.143</v>
+        <v>5.5880000000000001</v>
       </c>
       <c r="C33">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1524,12 +1612,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45739.33333333334</v>
+        <v>45740.333333333343</v>
       </c>
       <c r="B34">
-        <v>40.66</v>
+        <v>5.3579999999999997</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1547,12 +1635,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45739.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B35">
-        <v>14.494</v>
+        <v>3.766</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1570,15 +1658,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45739.35416666666</v>
+        <v>45740.354166666657</v>
       </c>
       <c r="B36">
-        <v>0.367</v>
+        <v>1.147</v>
       </c>
       <c r="C36">
-        <v>0.846</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1593,15 +1681,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45739.36458333334</v>
+        <v>45740.364583333343</v>
       </c>
       <c r="B37">
-        <v>0.329</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C37">
-        <v>2.075</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1616,15 +1704,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45739.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B38">
-        <v>13.202</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1639,15 +1727,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45739.38541666666</v>
+        <v>45740.385416666657</v>
       </c>
       <c r="B39">
-        <v>1.803</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C39">
-        <v>0.748</v>
+        <v>1.518</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1662,15 +1750,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45739.39583333334</v>
+        <v>45740.395833333343</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C40">
-        <v>2.08</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1685,15 +1773,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45739.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C41">
-        <v>7.607</v>
+        <v>2.8980000000000001</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1708,15 +1796,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45739.41666666666</v>
+        <v>45740.416666666657</v>
       </c>
       <c r="B42">
-        <v>0.237</v>
+        <v>0.19</v>
       </c>
       <c r="C42">
-        <v>0.123</v>
+        <v>2.95</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1731,21 +1819,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45739.42708333334</v>
+        <v>45740.427083333343</v>
       </c>
       <c r="B43">
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.042</v>
+        <v>14.603</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1754,21 +1842,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45739.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B44">
-        <v>0.452</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.07099999999999999</v>
+        <v>6.7510000000000003</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1777,21 +1865,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45739.44791666666</v>
+        <v>45740.447916666657</v>
       </c>
       <c r="B45">
-        <v>0.373</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C45">
-        <v>0.11</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1800,21 +1888,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45739.45833333334</v>
+        <v>45740.458333333343</v>
       </c>
       <c r="B46">
-        <v>9.273999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C46">
-        <v>0.016</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1823,21 +1911,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45739.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B47">
-        <v>10.855</v>
+        <v>0.112</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1846,21 +1934,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45739.47916666666</v>
+        <v>45740.479166666657</v>
       </c>
       <c r="B48">
-        <v>5.062</v>
+        <v>0.185</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2.157</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1869,21 +1957,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>45739.48958333334</v>
+        <v>45740.489583333343</v>
       </c>
       <c r="B49">
-        <v>7.559</v>
+        <v>0.151</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1892,21 +1980,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>45739.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B50">
-        <v>0.707</v>
+        <v>0.127</v>
       </c>
       <c r="C50">
-        <v>0.397</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1915,21 +2003,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>45739.51041666666</v>
+        <v>45740.510416666657</v>
       </c>
       <c r="B51">
-        <v>0.023</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C51">
-        <v>0.8110000000000001</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1938,21 +2026,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>45739.52083333334</v>
+        <v>45740.520833333343</v>
       </c>
       <c r="B52">
-        <v>6.481</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="C52">
-        <v>0.004</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -1961,21 +2049,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>45739.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B53">
-        <v>5.29</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C53">
-        <v>0.025</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -1984,21 +2072,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>45739.54166666666</v>
+        <v>45740.541666666657</v>
       </c>
       <c r="B54">
-        <v>0.544</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C54">
-        <v>0.054</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2007,21 +2095,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>45739.55208333334</v>
+        <v>45740.552083333343</v>
       </c>
       <c r="B55">
-        <v>0.311</v>
+        <v>0.158</v>
       </c>
       <c r="C55">
-        <v>0.062</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2030,21 +2118,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>45739.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B56">
-        <v>9.382999999999999</v>
+        <v>1.913</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2053,15 +2141,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>45739.57291666666</v>
+        <v>45740.572916666657</v>
       </c>
       <c r="B57">
-        <v>12.519</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2076,15 +2164,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>45739.58333333334</v>
+        <v>45740.583333333343</v>
       </c>
       <c r="B58">
-        <v>4.833</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>10.096</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2099,15 +2187,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>45739.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B59">
-        <v>8.989000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2122,12 +2210,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>45739.60416666666</v>
+        <v>45740.604166666657</v>
       </c>
       <c r="B60">
-        <v>13.335</v>
+        <v>3.4340000000000002</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2145,12 +2233,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>45739.61458333334</v>
+        <v>45740.614583333343</v>
       </c>
       <c r="B61">
-        <v>14.073</v>
+        <v>16.879000000000001</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2168,15 +2256,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>45739.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B62">
-        <v>1.037</v>
+        <v>17.640999999999998</v>
       </c>
       <c r="C62">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2191,15 +2279,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>45739.63541666666</v>
+        <v>45740.635416666657</v>
       </c>
       <c r="B63">
-        <v>0.005</v>
+        <v>7.2990000000000004</v>
       </c>
       <c r="C63">
-        <v>1.837</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2214,15 +2302,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>45739.64583333334</v>
+        <v>45740.645833333343</v>
       </c>
       <c r="B64">
-        <v>0.02</v>
+        <v>8.5220000000000002</v>
       </c>
       <c r="C64">
-        <v>1.172</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2237,18 +2325,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>45739.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B65">
-        <v>3.918</v>
+        <v>7.6230000000000002</v>
       </c>
       <c r="C65">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2260,18 +2348,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>45739.66666666666</v>
+        <v>45740.666666666657</v>
       </c>
       <c r="B66">
-        <v>0.175</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C66">
-        <v>14.393</v>
+        <v>0.115</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2283,18 +2371,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>45739.67708333334</v>
+        <v>45740.677083333343</v>
       </c>
       <c r="B67">
-        <v>0.003</v>
+        <v>12.85</v>
       </c>
       <c r="C67">
-        <v>17.586</v>
+        <v>1E-3</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2306,18 +2394,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>45739.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B68">
-        <v>7.547</v>
+        <v>7.3970000000000002</v>
       </c>
       <c r="C68">
-        <v>0.498</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2329,18 +2417,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>45739.69791666666</v>
+        <v>45740.697916666657</v>
       </c>
       <c r="B69">
-        <v>28.426</v>
+        <v>17.911000000000001</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2352,18 +2440,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>45739.70833333334</v>
+        <v>45740.708333333343</v>
       </c>
       <c r="B70">
-        <v>4.572</v>
+        <v>2E-3</v>
       </c>
       <c r="C70">
-        <v>0.328</v>
+        <v>15.004</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2375,18 +2463,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>45739.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B71">
-        <v>14.646</v>
+        <v>0.499</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2398,18 +2486,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>45739.72916666666</v>
+        <v>45740.729166666657</v>
       </c>
       <c r="B72">
-        <v>46.94</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2421,18 +2509,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>45739.73958333334</v>
+        <v>45740.739583333343</v>
       </c>
       <c r="B73">
-        <v>54.9</v>
+        <v>15.6</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2444,18 +2532,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>45739.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B74">
-        <v>50.443</v>
+        <v>1.075</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>13.833</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2467,18 +2555,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>45739.76041666666</v>
+        <v>45740.760416666657</v>
       </c>
       <c r="B75">
-        <v>54.9</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D75">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2490,18 +2578,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>45739.77083333334</v>
+        <v>45740.770833333343</v>
       </c>
       <c r="B76">
-        <v>54.9</v>
+        <v>9.0790000000000006</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2513,18 +2601,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>45739.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B77">
-        <v>54.9</v>
+        <v>8.8239999999999998</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2536,18 +2624,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>45739.79166666666</v>
+        <v>45740.791666666657</v>
       </c>
       <c r="B78">
-        <v>28.387</v>
+        <v>6.0869999999999997</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2559,18 +2647,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>45739.80208333334</v>
+        <v>45740.802083333343</v>
       </c>
       <c r="B79">
-        <v>13.482</v>
+        <v>1.401</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D79">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2582,18 +2670,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>45739.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B80">
-        <v>12.487</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="D80">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2605,18 +2693,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>45739.82291666666</v>
+        <v>45740.822916666657</v>
       </c>
       <c r="B81">
-        <v>11.362</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1.117</v>
       </c>
       <c r="D81">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2628,15 +2716,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>45739.83333333334</v>
+        <v>45740.833333333343</v>
       </c>
       <c r="B82">
-        <v>13.62</v>
+        <v>21.125</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2651,15 +2739,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>45739.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B83">
-        <v>5.621</v>
+        <v>4.5919999999999996</v>
       </c>
       <c r="C83">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2674,15 +2762,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>45739.85416666666</v>
+        <v>45740.854166666657</v>
       </c>
       <c r="B84">
-        <v>19.754</v>
+        <v>3.6890000000000001</v>
       </c>
       <c r="C84">
-        <v>0.005</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2697,15 +2785,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>45739.86458333334</v>
+        <v>45740.864583333343</v>
       </c>
       <c r="B85">
-        <v>7.823</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>7.7279999999999998</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2720,15 +2808,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>45739.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B86">
-        <v>25.056</v>
+        <v>6.383</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2743,15 +2831,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>45739.88541666666</v>
+        <v>45740.885416666657</v>
       </c>
       <c r="B87">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0.018</v>
+        <v>9.1690000000000005</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2766,15 +2854,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>45739.89583333334</v>
+        <v>45740.895833333343</v>
       </c>
       <c r="B88">
-        <v>36.844</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>16.157</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2789,15 +2877,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>45739.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B89">
-        <v>10.485</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.004</v>
+        <v>46.613</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2812,15 +2900,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>45739.91666666666</v>
+        <v>45740.916666666657</v>
       </c>
       <c r="B90">
-        <v>21.316</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>13.747999999999999</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2835,15 +2923,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>45739.92708333334</v>
+        <v>45740.927083333343</v>
       </c>
       <c r="B91">
-        <v>9.225</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>15.41</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2858,15 +2946,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>45739.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B92">
-        <v>14.302</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>7.1859999999999999</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2881,15 +2969,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>45739.94791666666</v>
+        <v>45740.947916666657</v>
       </c>
       <c r="B93">
-        <v>6.475</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>11.526</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2904,15 +2992,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>45739.95833333334</v>
+        <v>45740.958333333343</v>
       </c>
       <c r="B94">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0.276</v>
+        <v>2.2509999999999999</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2927,15 +3015,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>45739.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B95">
-        <v>0.099</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C95">
-        <v>0.113</v>
+        <v>5.085</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2950,15 +3038,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>45739.97916666666</v>
+        <v>45740.979166666657</v>
       </c>
       <c r="B96">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0.142</v>
+        <v>9.7889999999999997</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2973,15 +3061,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>45739.98958333334</v>
+        <v>45740.989583333343</v>
       </c>
       <c r="B97">
-        <v>4.91</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0.641</v>
+        <v>24.899000000000001</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2996,15 +3084,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B98">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0.494</v>
+        <v>17.902999999999999</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3019,15 +3107,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.010416666657</v>
       </c>
       <c r="B99">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>6.409</v>
+        <v>27.866</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3042,15 +3130,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.020833333343</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>1.703</v>
+        <v>31.635000000000002</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3065,15 +3153,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B101">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0.16</v>
+        <v>31.395</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3088,15 +3176,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.041666666657</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>5.825</v>
+        <v>20.113</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3111,15 +3199,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.052083333343</v>
       </c>
       <c r="B103">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>1.874</v>
+        <v>43.551000000000002</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3134,15 +3222,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B104">
-        <v>0.753</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>33.543999999999997</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3157,15 +3245,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.072916666657</v>
       </c>
       <c r="B105">
-        <v>1.943</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.036</v>
+        <v>50.780999999999999</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3180,15 +3268,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.083333333343</v>
       </c>
       <c r="B106">
-        <v>16.609</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0.003</v>
+        <v>15.196</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3203,15 +3291,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B107">
-        <v>27.667</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>25.009</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3226,15 +3314,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.104166666657</v>
       </c>
       <c r="B108">
-        <v>21.841</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>51.268999999999998</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3249,15 +3337,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.114583333343</v>
       </c>
       <c r="B109">
-        <v>17.373</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0.011</v>
+        <v>34.015999999999998</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3272,21 +3360,21 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B110">
-        <v>10.941</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.001</v>
+        <v>3.9220000000000002</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F110">
         <v>13</v>
@@ -3295,21 +3383,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.135416666657</v>
       </c>
       <c r="B111">
-        <v>26.433</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>2.419</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F111">
         <v>14</v>
@@ -3318,21 +3406,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.145833333343</v>
       </c>
       <c r="B112">
-        <v>43.893</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F112">
         <v>15</v>
@@ -3341,15 +3429,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B113">
-        <v>29.114</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>9.9019999999999992</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3364,15 +3452,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.166666666657</v>
       </c>
       <c r="B114">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>2.676</v>
+        <v>6.976</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3387,15 +3475,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.177083333343</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>6.622</v>
+        <v>5.5519999999999996</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3410,15 +3498,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>13.244</v>
+        <v>3.556</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3433,15 +3521,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.197916666657</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="C117">
-        <v>17.94</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3456,15 +3544,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.208333333343</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C118">
-        <v>50.039</v>
+        <v>4.218</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3479,15 +3567,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>41.083</v>
+        <v>10.308</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3502,15 +3590,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.229166666657</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>2.0659999999999998</v>
       </c>
       <c r="C120">
-        <v>28.574</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3525,15 +3613,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.239583333343</v>
       </c>
       <c r="B121">
-        <v>0.003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="C121">
-        <v>5.877</v>
+        <v>0.04</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3548,15 +3636,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>14.299</v>
+        <v>11.247999999999999</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3569,6 +3657,420 @@
       </c>
       <c r="G122" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>45741.260416666657</v>
+      </c>
+      <c r="B123">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C123">
+        <v>3.67</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>45741.270833333343</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>20.402999999999999</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>45741.28125</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>10.534000000000001</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>45741.291666666657</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>16.314</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>45741.302083333343</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>2.625</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>45741.3125</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>35.706000000000003</v>
+      </c>
+      <c r="D128">
+        <v>25</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>45741.322916666657</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>61.930999999999997</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>32</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>45741.333333333343</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>26.765999999999998</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>25</v>
+      </c>
+      <c r="F130">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>45741.34375</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>28.207000000000001</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>50</v>
+      </c>
+      <c r="F131">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>45741.354166666657</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>42.091999999999999</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>47.25</v>
+      </c>
+      <c r="F132">
+        <v>35</v>
+      </c>
+      <c r="G132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>45741.364583333343</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>42.04</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>75</v>
+      </c>
+      <c r="F133">
+        <v>36</v>
+      </c>
+      <c r="G133" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>45741.375</v>
+      </c>
+      <c r="B134">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C134">
+        <v>14.807</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>87.5</v>
+      </c>
+      <c r="F134">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>45741.385416666657</v>
+      </c>
+      <c r="B135">
+        <v>1.847</v>
+      </c>
+      <c r="C135">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>87.5</v>
+      </c>
+      <c r="F135">
+        <v>38</v>
+      </c>
+      <c r="G135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>45741.395833333343</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>23.9</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>87.5</v>
+      </c>
+      <c r="F136">
+        <v>39</v>
+      </c>
+      <c r="G136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>45741.40625</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>87.5</v>
+      </c>
+      <c r="F137">
+        <v>40</v>
+      </c>
+      <c r="G137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>45741.416666666657</v>
+      </c>
+      <c r="B138">
+        <v>1.776</v>
+      </c>
+      <c r="C138">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>87.5</v>
+      </c>
+      <c r="F138">
+        <v>41</v>
+      </c>
+      <c r="G138" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>45741.427083333343</v>
+      </c>
+      <c r="B139">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C139">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>62.5</v>
+      </c>
+      <c r="F139">
+        <v>42</v>
+      </c>
+      <c r="G139" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>45741.4375</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>12.224</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>25</v>
+      </c>
+      <c r="F140">
+        <v>43</v>
+      </c>
+      <c r="G140" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abbcgroup-my.sharepoint.com/personal/andrei_ionita_adrem_ro/Documents/Desktop/ML/forecast_app/data_fetching/Entsoe/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDC6D3CD415165409389E4A14B7BDC5DC2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47010AE1-BA03-49E8-9F3C-8309DCFB938A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -56,431 +37,380 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>24.03.20251</t>
-  </si>
-  <si>
-    <t>24.03.20252</t>
-  </si>
-  <si>
-    <t>24.03.20253</t>
-  </si>
-  <si>
-    <t>24.03.20254</t>
-  </si>
-  <si>
-    <t>24.03.20255</t>
-  </si>
-  <si>
-    <t>24.03.20256</t>
-  </si>
-  <si>
-    <t>24.03.20257</t>
-  </si>
-  <si>
-    <t>24.03.20258</t>
-  </si>
-  <si>
-    <t>24.03.20259</t>
-  </si>
-  <si>
-    <t>24.03.202510</t>
-  </si>
-  <si>
-    <t>24.03.202511</t>
-  </si>
-  <si>
-    <t>24.03.202512</t>
-  </si>
-  <si>
-    <t>24.03.202513</t>
-  </si>
-  <si>
-    <t>24.03.202514</t>
-  </si>
-  <si>
-    <t>24.03.202515</t>
-  </si>
-  <si>
-    <t>24.03.202516</t>
-  </si>
-  <si>
-    <t>24.03.202517</t>
-  </si>
-  <si>
-    <t>24.03.202518</t>
-  </si>
-  <si>
-    <t>24.03.202519</t>
-  </si>
-  <si>
-    <t>24.03.202520</t>
-  </si>
-  <si>
-    <t>24.03.202521</t>
-  </si>
-  <si>
-    <t>24.03.202522</t>
-  </si>
-  <si>
-    <t>24.03.202523</t>
-  </si>
-  <si>
-    <t>24.03.202524</t>
-  </si>
-  <si>
-    <t>24.03.202525</t>
-  </si>
-  <si>
-    <t>24.03.202526</t>
-  </si>
-  <si>
-    <t>24.03.202527</t>
-  </si>
-  <si>
-    <t>24.03.202528</t>
-  </si>
-  <si>
-    <t>24.03.202529</t>
-  </si>
-  <si>
-    <t>24.03.202530</t>
-  </si>
-  <si>
-    <t>24.03.202531</t>
-  </si>
-  <si>
-    <t>24.03.202532</t>
-  </si>
-  <si>
-    <t>24.03.202533</t>
-  </si>
-  <si>
-    <t>24.03.202534</t>
-  </si>
-  <si>
-    <t>24.03.202535</t>
-  </si>
-  <si>
-    <t>24.03.202536</t>
-  </si>
-  <si>
-    <t>24.03.202537</t>
-  </si>
-  <si>
-    <t>24.03.202538</t>
-  </si>
-  <si>
-    <t>24.03.202539</t>
-  </si>
-  <si>
-    <t>24.03.202540</t>
-  </si>
-  <si>
-    <t>24.03.202541</t>
-  </si>
-  <si>
-    <t>24.03.202542</t>
-  </si>
-  <si>
-    <t>24.03.202543</t>
-  </si>
-  <si>
-    <t>24.03.202544</t>
-  </si>
-  <si>
-    <t>24.03.202545</t>
-  </si>
-  <si>
-    <t>24.03.202546</t>
-  </si>
-  <si>
-    <t>24.03.202547</t>
-  </si>
-  <si>
-    <t>24.03.202548</t>
-  </si>
-  <si>
-    <t>24.03.202549</t>
-  </si>
-  <si>
-    <t>24.03.202550</t>
-  </si>
-  <si>
-    <t>24.03.202551</t>
-  </si>
-  <si>
-    <t>24.03.202552</t>
-  </si>
-  <si>
-    <t>24.03.202553</t>
-  </si>
-  <si>
-    <t>24.03.202554</t>
-  </si>
-  <si>
-    <t>24.03.202555</t>
-  </si>
-  <si>
-    <t>24.03.202556</t>
-  </si>
-  <si>
-    <t>24.03.202557</t>
-  </si>
-  <si>
-    <t>24.03.202558</t>
-  </si>
-  <si>
-    <t>24.03.202559</t>
-  </si>
-  <si>
-    <t>24.03.202560</t>
-  </si>
-  <si>
-    <t>24.03.202561</t>
-  </si>
-  <si>
-    <t>24.03.202562</t>
-  </si>
-  <si>
-    <t>24.03.202563</t>
-  </si>
-  <si>
-    <t>24.03.202564</t>
-  </si>
-  <si>
-    <t>24.03.202565</t>
-  </si>
-  <si>
-    <t>24.03.202566</t>
-  </si>
-  <si>
-    <t>24.03.202567</t>
-  </si>
-  <si>
-    <t>24.03.202568</t>
-  </si>
-  <si>
-    <t>24.03.202569</t>
-  </si>
-  <si>
-    <t>24.03.202570</t>
-  </si>
-  <si>
-    <t>24.03.202571</t>
-  </si>
-  <si>
-    <t>24.03.202572</t>
-  </si>
-  <si>
-    <t>24.03.202573</t>
-  </si>
-  <si>
-    <t>24.03.202574</t>
-  </si>
-  <si>
-    <t>24.03.202575</t>
-  </si>
-  <si>
-    <t>24.03.202576</t>
-  </si>
-  <si>
-    <t>24.03.202577</t>
-  </si>
-  <si>
-    <t>24.03.202578</t>
-  </si>
-  <si>
-    <t>24.03.202579</t>
-  </si>
-  <si>
-    <t>24.03.202580</t>
-  </si>
-  <si>
-    <t>24.03.202581</t>
-  </si>
-  <si>
-    <t>24.03.202582</t>
-  </si>
-  <si>
-    <t>24.03.202583</t>
-  </si>
-  <si>
-    <t>24.03.202584</t>
-  </si>
-  <si>
-    <t>24.03.202585</t>
-  </si>
-  <si>
-    <t>24.03.202586</t>
-  </si>
-  <si>
-    <t>24.03.202587</t>
-  </si>
-  <si>
-    <t>24.03.202588</t>
-  </si>
-  <si>
-    <t>24.03.202589</t>
-  </si>
-  <si>
-    <t>24.03.202590</t>
-  </si>
-  <si>
-    <t>24.03.202591</t>
-  </si>
-  <si>
-    <t>24.03.202592</t>
-  </si>
-  <si>
-    <t>24.03.202593</t>
-  </si>
-  <si>
-    <t>24.03.202594</t>
-  </si>
-  <si>
-    <t>24.03.202595</t>
-  </si>
-  <si>
-    <t>24.03.202596</t>
-  </si>
-  <si>
-    <t>25.03.20251</t>
-  </si>
-  <si>
-    <t>25.03.20252</t>
-  </si>
-  <si>
-    <t>25.03.20253</t>
-  </si>
-  <si>
-    <t>25.03.20254</t>
-  </si>
-  <si>
-    <t>25.03.20255</t>
-  </si>
-  <si>
-    <t>25.03.20256</t>
-  </si>
-  <si>
-    <t>25.03.20257</t>
-  </si>
-  <si>
-    <t>25.03.20258</t>
-  </si>
-  <si>
-    <t>25.03.20259</t>
-  </si>
-  <si>
-    <t>25.03.202510</t>
-  </si>
-  <si>
-    <t>25.03.202511</t>
-  </si>
-  <si>
-    <t>25.03.202512</t>
-  </si>
-  <si>
-    <t>25.03.202513</t>
-  </si>
-  <si>
-    <t>25.03.202514</t>
-  </si>
-  <si>
-    <t>25.03.202515</t>
-  </si>
-  <si>
-    <t>25.03.202516</t>
-  </si>
-  <si>
-    <t>25.03.202517</t>
-  </si>
-  <si>
-    <t>25.03.202518</t>
-  </si>
-  <si>
-    <t>25.03.202519</t>
-  </si>
-  <si>
-    <t>25.03.202520</t>
-  </si>
-  <si>
-    <t>25.03.202521</t>
-  </si>
-  <si>
-    <t>25.03.202522</t>
-  </si>
-  <si>
-    <t>25.03.202523</t>
-  </si>
-  <si>
-    <t>25.03.202524</t>
-  </si>
-  <si>
-    <t>25.03.202525</t>
-  </si>
-  <si>
-    <t>25.03.202526</t>
-  </si>
-  <si>
-    <t>25.03.202527</t>
-  </si>
-  <si>
-    <t>25.03.202528</t>
-  </si>
-  <si>
-    <t>25.03.202529</t>
-  </si>
-  <si>
-    <t>25.03.202530</t>
-  </si>
-  <si>
-    <t>25.03.202531</t>
-  </si>
-  <si>
-    <t>25.03.202532</t>
-  </si>
-  <si>
-    <t>25.03.202533</t>
-  </si>
-  <si>
-    <t>25.03.202534</t>
-  </si>
-  <si>
-    <t>25.03.202535</t>
-  </si>
-  <si>
-    <t>25.03.202536</t>
-  </si>
-  <si>
-    <t>25.03.202537</t>
-  </si>
-  <si>
-    <t>25.03.202538</t>
-  </si>
-  <si>
-    <t>25.03.202539</t>
-  </si>
-  <si>
-    <t>25.03.202540</t>
-  </si>
-  <si>
-    <t>25.03.202541</t>
-  </si>
-  <si>
-    <t>25.03.202542</t>
-  </si>
-  <si>
-    <t>25.03.202543</t>
+    <t>27.03.20251</t>
+  </si>
+  <si>
+    <t>27.03.20252</t>
+  </si>
+  <si>
+    <t>27.03.20253</t>
+  </si>
+  <si>
+    <t>27.03.20254</t>
+  </si>
+  <si>
+    <t>27.03.20255</t>
+  </si>
+  <si>
+    <t>27.03.20256</t>
+  </si>
+  <si>
+    <t>27.03.20257</t>
+  </si>
+  <si>
+    <t>27.03.20258</t>
+  </si>
+  <si>
+    <t>27.03.20259</t>
+  </si>
+  <si>
+    <t>27.03.202510</t>
+  </si>
+  <si>
+    <t>27.03.202511</t>
+  </si>
+  <si>
+    <t>27.03.202512</t>
+  </si>
+  <si>
+    <t>27.03.202513</t>
+  </si>
+  <si>
+    <t>27.03.202514</t>
+  </si>
+  <si>
+    <t>27.03.202515</t>
+  </si>
+  <si>
+    <t>27.03.202516</t>
+  </si>
+  <si>
+    <t>27.03.202517</t>
+  </si>
+  <si>
+    <t>27.03.202518</t>
+  </si>
+  <si>
+    <t>27.03.202519</t>
+  </si>
+  <si>
+    <t>27.03.202520</t>
+  </si>
+  <si>
+    <t>27.03.202521</t>
+  </si>
+  <si>
+    <t>27.03.202522</t>
+  </si>
+  <si>
+    <t>27.03.202523</t>
+  </si>
+  <si>
+    <t>27.03.202524</t>
+  </si>
+  <si>
+    <t>27.03.202525</t>
+  </si>
+  <si>
+    <t>27.03.202526</t>
+  </si>
+  <si>
+    <t>27.03.202527</t>
+  </si>
+  <si>
+    <t>27.03.202528</t>
+  </si>
+  <si>
+    <t>27.03.202529</t>
+  </si>
+  <si>
+    <t>27.03.202530</t>
+  </si>
+  <si>
+    <t>27.03.202531</t>
+  </si>
+  <si>
+    <t>27.03.202532</t>
+  </si>
+  <si>
+    <t>27.03.202533</t>
+  </si>
+  <si>
+    <t>27.03.202534</t>
+  </si>
+  <si>
+    <t>27.03.202535</t>
+  </si>
+  <si>
+    <t>27.03.202536</t>
+  </si>
+  <si>
+    <t>27.03.202537</t>
+  </si>
+  <si>
+    <t>27.03.202538</t>
+  </si>
+  <si>
+    <t>27.03.202539</t>
+  </si>
+  <si>
+    <t>27.03.202540</t>
+  </si>
+  <si>
+    <t>27.03.202541</t>
+  </si>
+  <si>
+    <t>27.03.202542</t>
+  </si>
+  <si>
+    <t>27.03.202543</t>
+  </si>
+  <si>
+    <t>27.03.202544</t>
+  </si>
+  <si>
+    <t>27.03.202545</t>
+  </si>
+  <si>
+    <t>27.03.202546</t>
+  </si>
+  <si>
+    <t>27.03.202547</t>
+  </si>
+  <si>
+    <t>27.03.202548</t>
+  </si>
+  <si>
+    <t>27.03.202549</t>
+  </si>
+  <si>
+    <t>27.03.202550</t>
+  </si>
+  <si>
+    <t>27.03.202551</t>
+  </si>
+  <si>
+    <t>27.03.202552</t>
+  </si>
+  <si>
+    <t>27.03.202553</t>
+  </si>
+  <si>
+    <t>27.03.202554</t>
+  </si>
+  <si>
+    <t>27.03.202555</t>
+  </si>
+  <si>
+    <t>27.03.202556</t>
+  </si>
+  <si>
+    <t>27.03.202557</t>
+  </si>
+  <si>
+    <t>27.03.202558</t>
+  </si>
+  <si>
+    <t>27.03.202559</t>
+  </si>
+  <si>
+    <t>27.03.202560</t>
+  </si>
+  <si>
+    <t>27.03.202561</t>
+  </si>
+  <si>
+    <t>27.03.202562</t>
+  </si>
+  <si>
+    <t>27.03.202563</t>
+  </si>
+  <si>
+    <t>27.03.202564</t>
+  </si>
+  <si>
+    <t>27.03.202565</t>
+  </si>
+  <si>
+    <t>27.03.202566</t>
+  </si>
+  <si>
+    <t>27.03.202567</t>
+  </si>
+  <si>
+    <t>27.03.202568</t>
+  </si>
+  <si>
+    <t>27.03.202569</t>
+  </si>
+  <si>
+    <t>27.03.202570</t>
+  </si>
+  <si>
+    <t>27.03.202571</t>
+  </si>
+  <si>
+    <t>27.03.202572</t>
+  </si>
+  <si>
+    <t>27.03.202573</t>
+  </si>
+  <si>
+    <t>27.03.202574</t>
+  </si>
+  <si>
+    <t>27.03.202575</t>
+  </si>
+  <si>
+    <t>27.03.202576</t>
+  </si>
+  <si>
+    <t>27.03.202577</t>
+  </si>
+  <si>
+    <t>27.03.202578</t>
+  </si>
+  <si>
+    <t>27.03.202579</t>
+  </si>
+  <si>
+    <t>27.03.202580</t>
+  </si>
+  <si>
+    <t>27.03.202581</t>
+  </si>
+  <si>
+    <t>27.03.202582</t>
+  </si>
+  <si>
+    <t>27.03.202583</t>
+  </si>
+  <si>
+    <t>27.03.202584</t>
+  </si>
+  <si>
+    <t>27.03.202585</t>
+  </si>
+  <si>
+    <t>27.03.202586</t>
+  </si>
+  <si>
+    <t>27.03.202587</t>
+  </si>
+  <si>
+    <t>27.03.202588</t>
+  </si>
+  <si>
+    <t>27.03.202589</t>
+  </si>
+  <si>
+    <t>27.03.202590</t>
+  </si>
+  <si>
+    <t>27.03.202591</t>
+  </si>
+  <si>
+    <t>27.03.202592</t>
+  </si>
+  <si>
+    <t>27.03.202593</t>
+  </si>
+  <si>
+    <t>27.03.202594</t>
+  </si>
+  <si>
+    <t>27.03.202595</t>
+  </si>
+  <si>
+    <t>27.03.202596</t>
+  </si>
+  <si>
+    <t>28.03.20251</t>
+  </si>
+  <si>
+    <t>28.03.20252</t>
+  </si>
+  <si>
+    <t>28.03.20253</t>
+  </si>
+  <si>
+    <t>28.03.20254</t>
+  </si>
+  <si>
+    <t>28.03.20255</t>
+  </si>
+  <si>
+    <t>28.03.20256</t>
+  </si>
+  <si>
+    <t>28.03.20257</t>
+  </si>
+  <si>
+    <t>28.03.20258</t>
+  </si>
+  <si>
+    <t>28.03.20259</t>
+  </si>
+  <si>
+    <t>28.03.202510</t>
+  </si>
+  <si>
+    <t>28.03.202511</t>
+  </si>
+  <si>
+    <t>28.03.202512</t>
+  </si>
+  <si>
+    <t>28.03.202513</t>
+  </si>
+  <si>
+    <t>28.03.202514</t>
+  </si>
+  <si>
+    <t>28.03.202515</t>
+  </si>
+  <si>
+    <t>28.03.202516</t>
+  </si>
+  <si>
+    <t>28.03.202517</t>
+  </si>
+  <si>
+    <t>28.03.202518</t>
+  </si>
+  <si>
+    <t>28.03.202519</t>
+  </si>
+  <si>
+    <t>28.03.202520</t>
+  </si>
+  <si>
+    <t>28.03.202521</t>
+  </si>
+  <si>
+    <t>28.03.202522</t>
+  </si>
+  <si>
+    <t>28.03.202523</t>
+  </si>
+  <si>
+    <t>28.03.202524</t>
+  </si>
+  <si>
+    <t>28.03.202525</t>
+  </si>
+  <si>
+    <t>28.03.202526</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,21 +474,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -596,7 +518,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -630,7 +552,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -665,10 +586,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -841,19 +761,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="N131" sqref="N131"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,21 +791,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="B2">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="C2">
-        <v>0.49399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -899,21 +814,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45740.010416666657</v>
+        <v>45743.01041666666</v>
       </c>
       <c r="B3">
-        <v>1.7999999999999999E-2</v>
+        <v>0.043</v>
       </c>
       <c r="C3">
-        <v>6.4089999999999998</v>
+        <v>2.49</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -922,21 +837,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45740.020833333343</v>
+        <v>45743.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C4">
-        <v>1.7030000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -945,21 +860,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45740.03125</v>
+        <v>45743.03125</v>
       </c>
       <c r="B5">
-        <v>0.108</v>
+        <v>0.138</v>
       </c>
       <c r="C5">
-        <v>0.16</v>
+        <v>0.235</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -968,21 +883,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45740.041666666657</v>
+        <v>45743.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.297</v>
       </c>
       <c r="C6">
-        <v>5.8250000000000002</v>
+        <v>0.025</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -991,21 +906,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45740.052083333343</v>
+        <v>45743.05208333334</v>
       </c>
       <c r="B7">
-        <v>8.9999999999999993E-3</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C7">
-        <v>1.8740000000000001</v>
+        <v>0.508</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1014,21 +929,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45740.0625</v>
+        <v>45743.0625</v>
       </c>
       <c r="B8">
-        <v>0.753</v>
+        <v>0.018</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.836</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -1037,21 +952,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45740.072916666657</v>
+        <v>45743.07291666666</v>
       </c>
       <c r="B9">
-        <v>1.9430000000000001</v>
+        <v>4.809</v>
       </c>
       <c r="C9">
-        <v>3.5999999999999997E-2</v>
+        <v>0.004</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1060,21 +975,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45740.083333333343</v>
+        <v>45743.08333333334</v>
       </c>
       <c r="B10">
-        <v>16.609000000000002</v>
+        <v>7.755</v>
       </c>
       <c r="C10">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1083,21 +998,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45740.09375</v>
+        <v>45743.09375</v>
       </c>
       <c r="B11">
-        <v>27.667000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1106,15 +1021,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45740.104166666657</v>
+        <v>45743.10416666666</v>
       </c>
       <c r="B12">
-        <v>21.841000000000001</v>
+        <v>0.177</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.462</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1129,15 +1044,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45740.114583333343</v>
+        <v>45743.11458333334</v>
       </c>
       <c r="B13">
-        <v>17.373000000000001</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1.0999999999999999E-2</v>
+        <v>18.358</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1152,15 +1067,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45740.125</v>
+        <v>45743.125</v>
       </c>
       <c r="B14">
-        <v>10.941000000000001</v>
+        <v>0.027</v>
       </c>
       <c r="C14">
-        <v>1E-3</v>
+        <v>4.675</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1175,15 +1090,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45740.135416666657</v>
+        <v>45743.13541666666</v>
       </c>
       <c r="B15">
-        <v>26.433</v>
+        <v>0.024</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.265</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1198,15 +1113,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45740.145833333343</v>
+        <v>45743.14583333334</v>
       </c>
       <c r="B16">
-        <v>43.893000000000001</v>
+        <v>2.104</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1221,15 +1136,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45740.15625</v>
+        <v>45743.15625</v>
       </c>
       <c r="B17">
-        <v>29.114000000000001</v>
+        <v>4.282</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.796</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1244,15 +1159,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45740.166666666657</v>
+        <v>45743.16666666666</v>
       </c>
       <c r="B18">
-        <v>6.4000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.6760000000000002</v>
+        <v>13.313</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1267,15 +1182,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45740.177083333343</v>
+        <v>45743.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.6219999999999999</v>
+        <v>15.277</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1290,15 +1205,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45740.1875</v>
+        <v>45743.1875</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.244</v>
+        <v>23.979</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1313,15 +1228,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45740.197916666657</v>
+        <v>45743.19791666666</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>17.940000000000001</v>
+        <v>2.887</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1336,15 +1251,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45740.208333333343</v>
+        <v>45743.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>50.039000000000001</v>
+        <v>22.929</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1359,15 +1274,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45740.21875</v>
+        <v>45743.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>41.082999999999998</v>
+        <v>19.523</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1382,15 +1297,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45740.229166666657</v>
+        <v>45743.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>28.574000000000002</v>
+        <v>28.025</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1405,15 +1320,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45740.239583333343</v>
+        <v>45743.23958333334</v>
       </c>
       <c r="B25">
-        <v>3.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
       <c r="C25">
-        <v>5.8769999999999998</v>
+        <v>0.772</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1428,21 +1343,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45740.25</v>
+        <v>45743.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3.418</v>
       </c>
       <c r="C26">
-        <v>14.298999999999999</v>
+        <v>3.422</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1451,15 +1366,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45740.260416666657</v>
+        <v>45743.26041666666</v>
       </c>
       <c r="B27">
-        <v>2.653</v>
+        <v>2.577</v>
       </c>
       <c r="C27">
-        <v>5.8999999999999997E-2</v>
+        <v>0.007</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1474,15 +1389,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45740.270833333343</v>
+        <v>45743.27083333334</v>
       </c>
       <c r="B28">
-        <v>6.0839999999999996</v>
+        <v>1.236</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1497,15 +1412,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45740.28125</v>
+        <v>45743.28125</v>
       </c>
       <c r="B29">
-        <v>20.637</v>
+        <v>10.718</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1520,15 +1435,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45740.291666666657</v>
+        <v>45743.29166666666</v>
       </c>
       <c r="B30">
-        <v>1.6359999999999999</v>
+        <v>1.395</v>
       </c>
       <c r="C30">
-        <v>7.0000000000000001E-3</v>
+        <v>0.033</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1543,15 +1458,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45740.302083333343</v>
+        <v>45743.30208333334</v>
       </c>
       <c r="B31">
-        <v>17.811</v>
+        <v>0.099</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1.464</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1566,15 +1481,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45740.3125</v>
+        <v>45743.3125</v>
       </c>
       <c r="B32">
-        <v>12.143000000000001</v>
+        <v>0.048</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1.158</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1589,15 +1504,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45740.322916666657</v>
+        <v>45743.32291666666</v>
       </c>
       <c r="B33">
-        <v>5.5880000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>7.356</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1612,15 +1527,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45740.333333333343</v>
+        <v>45743.33333333334</v>
       </c>
       <c r="B34">
-        <v>5.3579999999999997</v>
+        <v>0.078</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1.831</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1635,15 +1550,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45740.34375</v>
+        <v>45743.34375</v>
       </c>
       <c r="B35">
-        <v>3.766</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>13.736</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1658,15 +1573,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45740.354166666657</v>
+        <v>45743.35416666666</v>
       </c>
       <c r="B36">
-        <v>1.147</v>
+        <v>0.047</v>
       </c>
       <c r="C36">
-        <v>7.6999999999999999E-2</v>
+        <v>3.394</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1681,15 +1596,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45740.364583333343</v>
+        <v>45743.36458333334</v>
       </c>
       <c r="B37">
-        <v>1.2E-2</v>
+        <v>0.011</v>
       </c>
       <c r="C37">
-        <v>1.5980000000000001</v>
+        <v>3.051</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1704,15 +1619,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45740.375</v>
+        <v>45743.375</v>
       </c>
       <c r="B38">
-        <v>5.0999999999999997E-2</v>
+        <v>3.091</v>
       </c>
       <c r="C38">
-        <v>1.1319999999999999</v>
+        <v>0.032</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1727,15 +1642,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45740.385416666657</v>
+        <v>45743.38541666666</v>
       </c>
       <c r="B39">
-        <v>3.5000000000000003E-2</v>
+        <v>0.011</v>
       </c>
       <c r="C39">
-        <v>1.518</v>
+        <v>4.699</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1750,15 +1665,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45740.395833333343</v>
+        <v>45743.39583333334</v>
       </c>
       <c r="B40">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.29399999999999998</v>
+        <v>27.599</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1773,15 +1688,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45740.40625</v>
+        <v>45743.40625</v>
       </c>
       <c r="B41">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>2.8980000000000001</v>
+        <v>21.169</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1796,15 +1711,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45740.416666666657</v>
+        <v>45743.41666666666</v>
       </c>
       <c r="B42">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>2.95</v>
+        <v>6.508</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1819,21 +1734,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45740.427083333343</v>
+        <v>45743.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="C43">
-        <v>14.603</v>
+        <v>4.03</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1842,21 +1757,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45740.4375</v>
+        <v>45743.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>6.7510000000000003</v>
+        <v>11.179</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1865,21 +1780,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45740.447916666657</v>
+        <v>45743.44791666666</v>
       </c>
       <c r="B45">
-        <v>2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>2.9929999999999999</v>
+        <v>17.351</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1888,21 +1803,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45740.458333333343</v>
+        <v>45743.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.10100000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="C46">
-        <v>0.80900000000000005</v>
+        <v>9.298</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1911,21 +1826,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45740.46875</v>
+        <v>45743.46875</v>
       </c>
       <c r="B47">
-        <v>0.112</v>
+        <v>2.913</v>
       </c>
       <c r="C47">
-        <v>3.1890000000000001</v>
+        <v>0.119</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1934,21 +1849,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45740.479166666657</v>
+        <v>45743.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.185</v>
+        <v>11.434</v>
       </c>
       <c r="C48">
-        <v>2.157</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1957,21 +1872,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45740.489583333343</v>
+        <v>45743.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.151</v>
+        <v>1.521</v>
       </c>
       <c r="C49">
-        <v>8.6999999999999994E-2</v>
+        <v>0.011</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1980,21 +1895,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45740.5</v>
+        <v>45743.5</v>
       </c>
       <c r="B50">
-        <v>0.127</v>
+        <v>10.097</v>
       </c>
       <c r="C50">
-        <v>0.32100000000000001</v>
+        <v>0.034</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -2003,21 +1918,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45740.510416666657</v>
+        <v>45743.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.38400000000000001</v>
+        <v>29.803</v>
       </c>
       <c r="C51">
-        <v>5.8000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -2026,21 +1941,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45740.520833333343</v>
+        <v>45743.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.32800000000000001</v>
+        <v>22.003</v>
       </c>
       <c r="C52">
-        <v>9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E52">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -2049,21 +1964,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45740.53125</v>
+        <v>45743.53125</v>
       </c>
       <c r="B53">
-        <v>0.21199999999999999</v>
+        <v>1.714</v>
       </c>
       <c r="C53">
-        <v>8.5000000000000006E-2</v>
+        <v>0.217</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E53">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2072,21 +1987,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45740.541666666657</v>
+        <v>45743.54166666666</v>
       </c>
       <c r="B54">
-        <v>1.4E-2</v>
+        <v>0.126</v>
       </c>
       <c r="C54">
-        <v>3.3639999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E54">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2095,21 +2010,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45740.552083333343</v>
+        <v>45743.55208333334</v>
       </c>
       <c r="B55">
-        <v>0.158</v>
+        <v>3.212</v>
       </c>
       <c r="C55">
-        <v>0.57599999999999996</v>
+        <v>0.019</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E55">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2118,21 +2033,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45740.5625</v>
+        <v>45743.5625</v>
       </c>
       <c r="B56">
-        <v>1.913</v>
+        <v>3.381</v>
       </c>
       <c r="C56">
-        <v>0.88600000000000001</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E56">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2141,18 +2056,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45740.572916666657</v>
+        <v>45743.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="C57">
-        <v>5.6749999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2164,18 +2079,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45740.583333333343</v>
+        <v>45743.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="C58">
-        <v>10.096</v>
+        <v>1.295</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2187,18 +2102,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45740.59375</v>
+        <v>45743.59375</v>
       </c>
       <c r="B59">
-        <v>2.6859999999999999</v>
+        <v>2.65</v>
       </c>
       <c r="C59">
-        <v>0.26300000000000001</v>
+        <v>0.136</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2210,18 +2125,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45740.604166666657</v>
+        <v>45743.60416666666</v>
       </c>
       <c r="B60">
-        <v>3.4340000000000002</v>
+        <v>11.443</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2233,18 +2148,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45740.614583333343</v>
+        <v>45743.61458333334</v>
       </c>
       <c r="B61">
-        <v>16.879000000000001</v>
+        <v>3.089</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2256,18 +2171,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45740.625</v>
+        <v>45743.625</v>
       </c>
       <c r="B62">
-        <v>17.640999999999998</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>22.057</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>49.75</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2279,18 +2194,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45740.635416666657</v>
+        <v>45743.63541666666</v>
       </c>
       <c r="B63">
-        <v>7.2990000000000004</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1.612</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>39.25</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2302,18 +2217,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45740.645833333343</v>
+        <v>45743.64583333334</v>
       </c>
       <c r="B64">
-        <v>8.5220000000000002</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>24.354</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2325,18 +2240,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45740.65625</v>
+        <v>45743.65625</v>
       </c>
       <c r="B65">
-        <v>7.6230000000000002</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>27.402</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2348,18 +2263,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45740.666666666657</v>
+        <v>45743.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.38400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.115</v>
+        <v>47.951</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2371,21 +2286,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45740.677083333343</v>
+        <v>45743.67708333334</v>
       </c>
       <c r="B67">
-        <v>12.85</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>1E-3</v>
+        <v>48.058</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F67">
         <v>66</v>
@@ -2394,21 +2309,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45740.6875</v>
+        <v>45743.6875</v>
       </c>
       <c r="B68">
-        <v>7.3970000000000002</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>32.985</v>
       </c>
       <c r="D68">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F68">
         <v>67</v>
@@ -2417,21 +2332,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45740.697916666657</v>
+        <v>45743.69791666666</v>
       </c>
       <c r="B69">
-        <v>17.911000000000001</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>10.257</v>
       </c>
       <c r="D69">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -2440,21 +2355,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45740.708333333343</v>
+        <v>45743.70833333334</v>
       </c>
       <c r="B70">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>15.004</v>
+        <v>22.369</v>
       </c>
       <c r="D70">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2463,21 +2378,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45740.71875</v>
+        <v>45743.71875</v>
       </c>
       <c r="B71">
-        <v>0.499</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0.10199999999999999</v>
+        <v>14.48</v>
       </c>
       <c r="D71">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2486,21 +2401,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45740.729166666657</v>
+        <v>45743.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.24299999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="C72">
-        <v>0.26200000000000001</v>
+        <v>0.404</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2509,21 +2424,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45740.739583333343</v>
+        <v>45743.73958333334</v>
       </c>
       <c r="B73">
-        <v>15.6</v>
+        <v>5.042</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2532,18 +2447,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45740.75</v>
+        <v>45743.75</v>
       </c>
       <c r="B74">
-        <v>1.075</v>
+        <v>0.538</v>
       </c>
       <c r="C74">
-        <v>13.833</v>
+        <v>3.229</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2555,18 +2470,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45740.760416666657</v>
+        <v>45743.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.14499999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="C75">
-        <v>0.33500000000000002</v>
+        <v>0.669</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2578,15 +2493,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45740.770833333343</v>
+        <v>45743.77083333334</v>
       </c>
       <c r="B76">
-        <v>9.0790000000000006</v>
+        <v>0.063</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2601,15 +2516,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45740.78125</v>
+        <v>45743.78125</v>
       </c>
       <c r="B77">
-        <v>8.8239999999999998</v>
+        <v>0.073</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2624,15 +2539,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45740.791666666657</v>
+        <v>45743.79166666666</v>
       </c>
       <c r="B78">
-        <v>6.0869999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2647,21 +2562,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45740.802083333343</v>
+        <v>45743.80208333334</v>
       </c>
       <c r="B79">
-        <v>1.401</v>
+        <v>1.808</v>
       </c>
       <c r="C79">
-        <v>1.9E-2</v>
+        <v>0.052</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -2670,21 +2585,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45740.8125</v>
+        <v>45743.8125</v>
       </c>
       <c r="B80">
-        <v>0.61699999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="C80">
-        <v>0.442</v>
+        <v>0.02</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2693,21 +2608,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45740.822916666657</v>
+        <v>45743.82291666666</v>
       </c>
       <c r="B81">
-        <v>1.7000000000000001E-2</v>
+        <v>0.153</v>
       </c>
       <c r="C81">
-        <v>1.117</v>
+        <v>0.108</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -2716,21 +2631,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45740.833333333343</v>
+        <v>45743.83333333334</v>
       </c>
       <c r="B82">
-        <v>21.125</v>
+        <v>26.595</v>
       </c>
       <c r="C82">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -2739,12 +2654,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45740.84375</v>
+        <v>45743.84375</v>
       </c>
       <c r="B83">
-        <v>4.5919999999999996</v>
+        <v>11.742</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2753,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -2762,21 +2677,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45740.854166666657</v>
+        <v>45743.85416666666</v>
       </c>
       <c r="B84">
-        <v>3.6890000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="C84">
-        <v>0.21299999999999999</v>
+        <v>0.294</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -2785,21 +2700,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45740.864583333343</v>
+        <v>45743.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C85">
-        <v>7.7279999999999998</v>
+        <v>1.393</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -2808,21 +2723,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45740.875</v>
+        <v>45743.875</v>
       </c>
       <c r="B86">
-        <v>6.383</v>
+        <v>28.559</v>
       </c>
       <c r="C86">
-        <v>0.92200000000000004</v>
+        <v>0.059</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>20.75</v>
       </c>
       <c r="F86">
         <v>85</v>
@@ -2831,15 +2746,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45740.885416666657</v>
+        <v>45743.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>4.971</v>
       </c>
       <c r="C87">
-        <v>9.1690000000000005</v>
+        <v>0.039</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2854,15 +2769,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45740.895833333343</v>
+        <v>45743.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C88">
-        <v>16.157</v>
+        <v>15.895</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2877,15 +2792,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45740.90625</v>
+        <v>45743.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>46.613</v>
+        <v>24.482</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2900,15 +2815,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45740.916666666657</v>
+        <v>45743.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>2.821</v>
       </c>
       <c r="C90">
-        <v>13.747999999999999</v>
+        <v>3.517</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2923,15 +2838,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45740.927083333343</v>
+        <v>45743.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="C91">
-        <v>15.41</v>
+        <v>0.184</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2946,15 +2861,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45740.9375</v>
+        <v>45743.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.339</v>
       </c>
       <c r="C92">
-        <v>7.1859999999999999</v>
+        <v>0.164</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2969,15 +2884,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45740.947916666657</v>
+        <v>45743.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>11.526</v>
+        <v>4.962</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2992,15 +2907,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45740.958333333343</v>
+        <v>45743.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>20.474</v>
       </c>
       <c r="C94">
-        <v>2.2509999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3015,15 +2930,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45740.96875</v>
+        <v>45743.96875</v>
       </c>
       <c r="B95">
-        <v>1.7999999999999999E-2</v>
+        <v>0.658</v>
       </c>
       <c r="C95">
-        <v>5.085</v>
+        <v>0.074</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3038,15 +2953,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45740.979166666657</v>
+        <v>45743.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C96">
-        <v>9.7889999999999997</v>
+        <v>0.607</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3061,15 +2976,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45740.989583333343</v>
+        <v>45743.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>24.899000000000001</v>
+        <v>4.618</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3084,15 +2999,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>8.595000000000001</v>
       </c>
       <c r="C98">
-        <v>17.902999999999999</v>
+        <v>0.802</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3107,15 +3022,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45741.010416666657</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>5.97</v>
       </c>
       <c r="C99">
-        <v>27.866</v>
+        <v>0.001</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3130,15 +3045,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45741.020833333343</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="C100">
-        <v>31.635000000000002</v>
+        <v>1.833</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3153,15 +3068,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>31.395</v>
+        <v>8.81</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3176,15 +3091,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45741.041666666657</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>20.113</v>
+        <v>4.228</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3199,15 +3114,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45741.052083333343</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>43.551000000000002</v>
+        <v>7.03</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3222,15 +3137,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>33.543999999999997</v>
+        <v>2.851</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3245,21 +3160,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45741.072916666657</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>50.780999999999999</v>
+        <v>4.094</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F105">
         <v>8</v>
@@ -3268,21 +3183,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45741.083333333343</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="C106">
-        <v>15.196</v>
+        <v>0.202</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F106">
         <v>9</v>
@@ -3291,21 +3206,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="C107">
-        <v>25.009</v>
+        <v>0.29</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -3314,21 +3229,21 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45741.104166666657</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="C108">
-        <v>51.268999999999998</v>
+        <v>0.105</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F108">
         <v>11</v>
@@ -3337,21 +3252,21 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45741.114583333343</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="C109">
-        <v>34.015999999999998</v>
+        <v>1.147</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F109">
         <v>12</v>
@@ -3360,15 +3275,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="C110">
-        <v>3.9220000000000002</v>
+        <v>3.207</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3383,15 +3298,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45741.135416666657</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C111">
-        <v>2.419</v>
+        <v>1.972</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3406,21 +3321,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45741.145833333343</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B112">
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.113</v>
+        <v>4.636</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="F112">
         <v>15</v>
@@ -3429,21 +3344,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="C113">
-        <v>9.9019999999999992</v>
+        <v>0.09</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F113">
         <v>16</v>
@@ -3452,21 +3367,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45741.166666666657</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C114">
-        <v>6.976</v>
+        <v>0.108</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F114">
         <v>17</v>
@@ -3475,21 +3390,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45741.177083333343</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>0.672</v>
       </c>
       <c r="C115">
-        <v>5.5519999999999996</v>
+        <v>0.003</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F115">
         <v>18</v>
@@ -3498,21 +3413,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="C116">
-        <v>3.556</v>
+        <v>0.287</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F116">
         <v>19</v>
@@ -3521,21 +3436,21 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45741.197916666657</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B117">
-        <v>3.1429999999999998</v>
+        <v>0.264</v>
       </c>
       <c r="C117">
-        <v>5.0000000000000001E-3</v>
+        <v>0.026</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F117">
         <v>20</v>
@@ -3544,21 +3459,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45741.208333333343</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B118">
-        <v>8.8999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>4.218</v>
+        <v>13.111</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F118">
         <v>21</v>
@@ -3567,21 +3482,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>10.308</v>
+        <v>10.726</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F119">
         <v>22</v>
@@ -3590,21 +3505,21 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45741.229166666657</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B120">
-        <v>2.0659999999999998</v>
+        <v>0.004</v>
       </c>
       <c r="C120">
-        <v>0.13500000000000001</v>
+        <v>1.522</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F120">
         <v>23</v>
@@ -3613,21 +3528,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45741.239583333343</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B121">
-        <v>0.92400000000000004</v>
+        <v>0.174</v>
       </c>
       <c r="C121">
-        <v>0.04</v>
+        <v>0.244</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F121">
         <v>24</v>
@@ -3636,21 +3551,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>3.833</v>
       </c>
       <c r="C122">
-        <v>11.247999999999999</v>
+        <v>8.629</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F122">
         <v>25</v>
@@ -3659,418 +3574,27 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45741.260416666657</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B123">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F123">
         <v>26</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
-        <v>45741.270833333343</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>20.402999999999999</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>45741.28125</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>10.534000000000001</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>28</v>
-      </c>
-      <c r="G125" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>45741.291666666657</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>16.314</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>29</v>
-      </c>
-      <c r="G126" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>45741.302083333343</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>2.625</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>30</v>
-      </c>
-      <c r="G127" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
-        <v>45741.3125</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>35.706000000000003</v>
-      </c>
-      <c r="D128">
-        <v>25</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>31</v>
-      </c>
-      <c r="G128" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
-        <v>45741.322916666657</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>61.930999999999997</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>32</v>
-      </c>
-      <c r="G129" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
-        <v>45741.333333333343</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>26.765999999999998</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>25</v>
-      </c>
-      <c r="F130">
-        <v>33</v>
-      </c>
-      <c r="G130" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
-        <v>45741.34375</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>28.207000000000001</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>50</v>
-      </c>
-      <c r="F131">
-        <v>34</v>
-      </c>
-      <c r="G131" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
-        <v>45741.354166666657</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132">
-        <v>42.091999999999999</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>47.25</v>
-      </c>
-      <c r="F132">
-        <v>35</v>
-      </c>
-      <c r="G132" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
-        <v>45741.364583333343</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>42.04</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>75</v>
-      </c>
-      <c r="F133">
-        <v>36</v>
-      </c>
-      <c r="G133" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
-        <v>45741.375</v>
-      </c>
-      <c r="B134">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C134">
-        <v>14.807</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>87.5</v>
-      </c>
-      <c r="F134">
-        <v>37</v>
-      </c>
-      <c r="G134" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
-        <v>45741.385416666657</v>
-      </c>
-      <c r="B135">
-        <v>1.847</v>
-      </c>
-      <c r="C135">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>87.5</v>
-      </c>
-      <c r="F135">
-        <v>38</v>
-      </c>
-      <c r="G135" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
-        <v>45741.395833333343</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>23.9</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>87.5</v>
-      </c>
-      <c r="F136">
-        <v>39</v>
-      </c>
-      <c r="G136" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
-        <v>45741.40625</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>87.5</v>
-      </c>
-      <c r="F137">
-        <v>40</v>
-      </c>
-      <c r="G137" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
-        <v>45741.416666666657</v>
-      </c>
-      <c r="B138">
-        <v>1.776</v>
-      </c>
-      <c r="C138">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>87.5</v>
-      </c>
-      <c r="F138">
-        <v>41</v>
-      </c>
-      <c r="G138" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
-        <v>45741.427083333343</v>
-      </c>
-      <c r="B139">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C139">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>62.5</v>
-      </c>
-      <c r="F139">
-        <v>42</v>
-      </c>
-      <c r="G139" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
-        <v>45741.4375</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>12.224</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>25</v>
-      </c>
-      <c r="F140">
-        <v>43</v>
-      </c>
-      <c r="G140" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,294 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>27.03.20251</t>
-  </si>
-  <si>
-    <t>27.03.20252</t>
-  </si>
-  <si>
-    <t>27.03.20253</t>
-  </si>
-  <si>
-    <t>27.03.20254</t>
-  </si>
-  <si>
-    <t>27.03.20255</t>
-  </si>
-  <si>
-    <t>27.03.20256</t>
-  </si>
-  <si>
-    <t>27.03.20257</t>
-  </si>
-  <si>
-    <t>27.03.20258</t>
-  </si>
-  <si>
-    <t>27.03.20259</t>
-  </si>
-  <si>
-    <t>27.03.202510</t>
-  </si>
-  <si>
-    <t>27.03.202511</t>
-  </si>
-  <si>
-    <t>27.03.202512</t>
-  </si>
-  <si>
-    <t>27.03.202513</t>
-  </si>
-  <si>
-    <t>27.03.202514</t>
-  </si>
-  <si>
-    <t>27.03.202515</t>
-  </si>
-  <si>
-    <t>27.03.202516</t>
-  </si>
-  <si>
-    <t>27.03.202517</t>
-  </si>
-  <si>
-    <t>27.03.202518</t>
-  </si>
-  <si>
-    <t>27.03.202519</t>
-  </si>
-  <si>
-    <t>27.03.202520</t>
-  </si>
-  <si>
-    <t>27.03.202521</t>
-  </si>
-  <si>
-    <t>27.03.202522</t>
-  </si>
-  <si>
-    <t>27.03.202523</t>
-  </si>
-  <si>
-    <t>27.03.202524</t>
-  </si>
-  <si>
-    <t>27.03.202525</t>
-  </si>
-  <si>
-    <t>27.03.202526</t>
-  </si>
-  <si>
-    <t>27.03.202527</t>
-  </si>
-  <si>
-    <t>27.03.202528</t>
-  </si>
-  <si>
-    <t>27.03.202529</t>
-  </si>
-  <si>
-    <t>27.03.202530</t>
-  </si>
-  <si>
-    <t>27.03.202531</t>
-  </si>
-  <si>
-    <t>27.03.202532</t>
-  </si>
-  <si>
-    <t>27.03.202533</t>
-  </si>
-  <si>
-    <t>27.03.202534</t>
-  </si>
-  <si>
-    <t>27.03.202535</t>
-  </si>
-  <si>
-    <t>27.03.202536</t>
-  </si>
-  <si>
-    <t>27.03.202537</t>
-  </si>
-  <si>
-    <t>27.03.202538</t>
-  </si>
-  <si>
-    <t>27.03.202539</t>
-  </si>
-  <si>
-    <t>27.03.202540</t>
-  </si>
-  <si>
-    <t>27.03.202541</t>
-  </si>
-  <si>
-    <t>27.03.202542</t>
-  </si>
-  <si>
-    <t>27.03.202543</t>
-  </si>
-  <si>
-    <t>27.03.202544</t>
-  </si>
-  <si>
-    <t>27.03.202545</t>
-  </si>
-  <si>
-    <t>27.03.202546</t>
-  </si>
-  <si>
-    <t>27.03.202547</t>
-  </si>
-  <si>
-    <t>27.03.202548</t>
-  </si>
-  <si>
-    <t>27.03.202549</t>
-  </si>
-  <si>
-    <t>27.03.202550</t>
-  </si>
-  <si>
-    <t>27.03.202551</t>
-  </si>
-  <si>
-    <t>27.03.202552</t>
-  </si>
-  <si>
-    <t>27.03.202553</t>
-  </si>
-  <si>
-    <t>27.03.202554</t>
-  </si>
-  <si>
-    <t>27.03.202555</t>
-  </si>
-  <si>
-    <t>27.03.202556</t>
-  </si>
-  <si>
-    <t>27.03.202557</t>
-  </si>
-  <si>
-    <t>27.03.202558</t>
-  </si>
-  <si>
-    <t>27.03.202559</t>
-  </si>
-  <si>
-    <t>27.03.202560</t>
-  </si>
-  <si>
-    <t>27.03.202561</t>
-  </si>
-  <si>
-    <t>27.03.202562</t>
-  </si>
-  <si>
-    <t>27.03.202563</t>
-  </si>
-  <si>
-    <t>27.03.202564</t>
-  </si>
-  <si>
-    <t>27.03.202565</t>
-  </si>
-  <si>
-    <t>27.03.202566</t>
-  </si>
-  <si>
-    <t>27.03.202567</t>
-  </si>
-  <si>
-    <t>27.03.202568</t>
-  </si>
-  <si>
-    <t>27.03.202569</t>
-  </si>
-  <si>
-    <t>27.03.202570</t>
-  </si>
-  <si>
-    <t>27.03.202571</t>
-  </si>
-  <si>
-    <t>27.03.202572</t>
-  </si>
-  <si>
-    <t>27.03.202573</t>
-  </si>
-  <si>
-    <t>27.03.202574</t>
-  </si>
-  <si>
-    <t>27.03.202575</t>
-  </si>
-  <si>
-    <t>27.03.202576</t>
-  </si>
-  <si>
-    <t>27.03.202577</t>
-  </si>
-  <si>
-    <t>27.03.202578</t>
-  </si>
-  <si>
-    <t>27.03.202579</t>
-  </si>
-  <si>
-    <t>27.03.202580</t>
-  </si>
-  <si>
-    <t>27.03.202581</t>
-  </si>
-  <si>
-    <t>27.03.202582</t>
-  </si>
-  <si>
-    <t>27.03.202583</t>
-  </si>
-  <si>
-    <t>27.03.202584</t>
-  </si>
-  <si>
-    <t>27.03.202585</t>
-  </si>
-  <si>
-    <t>27.03.202586</t>
-  </si>
-  <si>
-    <t>27.03.202587</t>
-  </si>
-  <si>
-    <t>27.03.202588</t>
-  </si>
-  <si>
-    <t>27.03.202589</t>
-  </si>
-  <si>
-    <t>27.03.202590</t>
-  </si>
-  <si>
-    <t>27.03.202591</t>
-  </si>
-  <si>
-    <t>27.03.202592</t>
-  </si>
-  <si>
-    <t>27.03.202593</t>
-  </si>
-  <si>
-    <t>27.03.202594</t>
-  </si>
-  <si>
-    <t>27.03.202595</t>
-  </si>
-  <si>
-    <t>27.03.202596</t>
-  </si>
-  <si>
     <t>28.03.20251</t>
   </si>
   <si>
@@ -401,6 +113,900 @@
   </si>
   <si>
     <t>28.03.202526</t>
+  </si>
+  <si>
+    <t>28.03.202527</t>
+  </si>
+  <si>
+    <t>28.03.202528</t>
+  </si>
+  <si>
+    <t>28.03.202529</t>
+  </si>
+  <si>
+    <t>28.03.202530</t>
+  </si>
+  <si>
+    <t>28.03.202531</t>
+  </si>
+  <si>
+    <t>28.03.202532</t>
+  </si>
+  <si>
+    <t>28.03.202533</t>
+  </si>
+  <si>
+    <t>28.03.202534</t>
+  </si>
+  <si>
+    <t>28.03.202535</t>
+  </si>
+  <si>
+    <t>28.03.202536</t>
+  </si>
+  <si>
+    <t>28.03.202537</t>
+  </si>
+  <si>
+    <t>28.03.202538</t>
+  </si>
+  <si>
+    <t>28.03.202539</t>
+  </si>
+  <si>
+    <t>28.03.202540</t>
+  </si>
+  <si>
+    <t>28.03.202541</t>
+  </si>
+  <si>
+    <t>28.03.202542</t>
+  </si>
+  <si>
+    <t>28.03.202543</t>
+  </si>
+  <si>
+    <t>28.03.202544</t>
+  </si>
+  <si>
+    <t>28.03.202545</t>
+  </si>
+  <si>
+    <t>28.03.202546</t>
+  </si>
+  <si>
+    <t>28.03.202547</t>
+  </si>
+  <si>
+    <t>28.03.202548</t>
+  </si>
+  <si>
+    <t>28.03.202549</t>
+  </si>
+  <si>
+    <t>28.03.202550</t>
+  </si>
+  <si>
+    <t>28.03.202551</t>
+  </si>
+  <si>
+    <t>28.03.202552</t>
+  </si>
+  <si>
+    <t>28.03.202553</t>
+  </si>
+  <si>
+    <t>28.03.202554</t>
+  </si>
+  <si>
+    <t>28.03.202555</t>
+  </si>
+  <si>
+    <t>28.03.202556</t>
+  </si>
+  <si>
+    <t>28.03.202557</t>
+  </si>
+  <si>
+    <t>28.03.202558</t>
+  </si>
+  <si>
+    <t>28.03.202559</t>
+  </si>
+  <si>
+    <t>28.03.202560</t>
+  </si>
+  <si>
+    <t>28.03.202561</t>
+  </si>
+  <si>
+    <t>28.03.202562</t>
+  </si>
+  <si>
+    <t>28.03.202563</t>
+  </si>
+  <si>
+    <t>28.03.202564</t>
+  </si>
+  <si>
+    <t>28.03.202565</t>
+  </si>
+  <si>
+    <t>28.03.202566</t>
+  </si>
+  <si>
+    <t>28.03.202567</t>
+  </si>
+  <si>
+    <t>28.03.202568</t>
+  </si>
+  <si>
+    <t>28.03.202569</t>
+  </si>
+  <si>
+    <t>28.03.202570</t>
+  </si>
+  <si>
+    <t>28.03.202571</t>
+  </si>
+  <si>
+    <t>28.03.202572</t>
+  </si>
+  <si>
+    <t>28.03.202573</t>
+  </si>
+  <si>
+    <t>28.03.202574</t>
+  </si>
+  <si>
+    <t>28.03.202575</t>
+  </si>
+  <si>
+    <t>28.03.202576</t>
+  </si>
+  <si>
+    <t>28.03.202577</t>
+  </si>
+  <si>
+    <t>28.03.202578</t>
+  </si>
+  <si>
+    <t>28.03.202579</t>
+  </si>
+  <si>
+    <t>28.03.202580</t>
+  </si>
+  <si>
+    <t>28.03.202581</t>
+  </si>
+  <si>
+    <t>28.03.202582</t>
+  </si>
+  <si>
+    <t>28.03.202583</t>
+  </si>
+  <si>
+    <t>28.03.202584</t>
+  </si>
+  <si>
+    <t>28.03.202585</t>
+  </si>
+  <si>
+    <t>28.03.202586</t>
+  </si>
+  <si>
+    <t>28.03.202587</t>
+  </si>
+  <si>
+    <t>28.03.202588</t>
+  </si>
+  <si>
+    <t>28.03.202589</t>
+  </si>
+  <si>
+    <t>28.03.202590</t>
+  </si>
+  <si>
+    <t>28.03.202591</t>
+  </si>
+  <si>
+    <t>28.03.202592</t>
+  </si>
+  <si>
+    <t>28.03.202593</t>
+  </si>
+  <si>
+    <t>28.03.202594</t>
+  </si>
+  <si>
+    <t>28.03.202595</t>
+  </si>
+  <si>
+    <t>28.03.202596</t>
+  </si>
+  <si>
+    <t>29.03.20251</t>
+  </si>
+  <si>
+    <t>29.03.20252</t>
+  </si>
+  <si>
+    <t>29.03.20253</t>
+  </si>
+  <si>
+    <t>29.03.20254</t>
+  </si>
+  <si>
+    <t>29.03.20255</t>
+  </si>
+  <si>
+    <t>29.03.20256</t>
+  </si>
+  <si>
+    <t>29.03.20257</t>
+  </si>
+  <si>
+    <t>29.03.20258</t>
+  </si>
+  <si>
+    <t>29.03.20259</t>
+  </si>
+  <si>
+    <t>29.03.202510</t>
+  </si>
+  <si>
+    <t>29.03.202511</t>
+  </si>
+  <si>
+    <t>29.03.202512</t>
+  </si>
+  <si>
+    <t>29.03.202513</t>
+  </si>
+  <si>
+    <t>29.03.202514</t>
+  </si>
+  <si>
+    <t>29.03.202515</t>
+  </si>
+  <si>
+    <t>29.03.202516</t>
+  </si>
+  <si>
+    <t>29.03.202517</t>
+  </si>
+  <si>
+    <t>29.03.202518</t>
+  </si>
+  <si>
+    <t>29.03.202519</t>
+  </si>
+  <si>
+    <t>29.03.202520</t>
+  </si>
+  <si>
+    <t>29.03.202521</t>
+  </si>
+  <si>
+    <t>29.03.202522</t>
+  </si>
+  <si>
+    <t>29.03.202523</t>
+  </si>
+  <si>
+    <t>29.03.202524</t>
+  </si>
+  <si>
+    <t>29.03.202525</t>
+  </si>
+  <si>
+    <t>29.03.202526</t>
+  </si>
+  <si>
+    <t>29.03.202527</t>
+  </si>
+  <si>
+    <t>29.03.202528</t>
+  </si>
+  <si>
+    <t>29.03.202529</t>
+  </si>
+  <si>
+    <t>29.03.202530</t>
+  </si>
+  <si>
+    <t>29.03.202531</t>
+  </si>
+  <si>
+    <t>29.03.202532</t>
+  </si>
+  <si>
+    <t>29.03.202533</t>
+  </si>
+  <si>
+    <t>29.03.202534</t>
+  </si>
+  <si>
+    <t>29.03.202535</t>
+  </si>
+  <si>
+    <t>29.03.202536</t>
+  </si>
+  <si>
+    <t>29.03.202537</t>
+  </si>
+  <si>
+    <t>29.03.202538</t>
+  </si>
+  <si>
+    <t>29.03.202539</t>
+  </si>
+  <si>
+    <t>29.03.202540</t>
+  </si>
+  <si>
+    <t>29.03.202541</t>
+  </si>
+  <si>
+    <t>29.03.202542</t>
+  </si>
+  <si>
+    <t>29.03.202543</t>
+  </si>
+  <si>
+    <t>29.03.202544</t>
+  </si>
+  <si>
+    <t>29.03.202545</t>
+  </si>
+  <si>
+    <t>29.03.202546</t>
+  </si>
+  <si>
+    <t>29.03.202547</t>
+  </si>
+  <si>
+    <t>29.03.202548</t>
+  </si>
+  <si>
+    <t>29.03.202549</t>
+  </si>
+  <si>
+    <t>29.03.202550</t>
+  </si>
+  <si>
+    <t>29.03.202551</t>
+  </si>
+  <si>
+    <t>29.03.202552</t>
+  </si>
+  <si>
+    <t>29.03.202553</t>
+  </si>
+  <si>
+    <t>29.03.202554</t>
+  </si>
+  <si>
+    <t>29.03.202555</t>
+  </si>
+  <si>
+    <t>29.03.202556</t>
+  </si>
+  <si>
+    <t>29.03.202557</t>
+  </si>
+  <si>
+    <t>29.03.202558</t>
+  </si>
+  <si>
+    <t>29.03.202559</t>
+  </si>
+  <si>
+    <t>29.03.202560</t>
+  </si>
+  <si>
+    <t>29.03.202561</t>
+  </si>
+  <si>
+    <t>29.03.202562</t>
+  </si>
+  <si>
+    <t>29.03.202563</t>
+  </si>
+  <si>
+    <t>29.03.202564</t>
+  </si>
+  <si>
+    <t>29.03.202565</t>
+  </si>
+  <si>
+    <t>29.03.202566</t>
+  </si>
+  <si>
+    <t>29.03.202567</t>
+  </si>
+  <si>
+    <t>29.03.202568</t>
+  </si>
+  <si>
+    <t>29.03.202569</t>
+  </si>
+  <si>
+    <t>29.03.202570</t>
+  </si>
+  <si>
+    <t>29.03.202571</t>
+  </si>
+  <si>
+    <t>29.03.202572</t>
+  </si>
+  <si>
+    <t>29.03.202573</t>
+  </si>
+  <si>
+    <t>29.03.202574</t>
+  </si>
+  <si>
+    <t>29.03.202575</t>
+  </si>
+  <si>
+    <t>29.03.202576</t>
+  </si>
+  <si>
+    <t>29.03.202577</t>
+  </si>
+  <si>
+    <t>29.03.202578</t>
+  </si>
+  <si>
+    <t>29.03.202579</t>
+  </si>
+  <si>
+    <t>29.03.202580</t>
+  </si>
+  <si>
+    <t>29.03.202581</t>
+  </si>
+  <si>
+    <t>29.03.202582</t>
+  </si>
+  <si>
+    <t>29.03.202583</t>
+  </si>
+  <si>
+    <t>29.03.202584</t>
+  </si>
+  <si>
+    <t>29.03.202585</t>
+  </si>
+  <si>
+    <t>29.03.202586</t>
+  </si>
+  <si>
+    <t>29.03.202587</t>
+  </si>
+  <si>
+    <t>29.03.202588</t>
+  </si>
+  <si>
+    <t>29.03.202589</t>
+  </si>
+  <si>
+    <t>29.03.202590</t>
+  </si>
+  <si>
+    <t>29.03.202591</t>
+  </si>
+  <si>
+    <t>29.03.202592</t>
+  </si>
+  <si>
+    <t>29.03.202593</t>
+  </si>
+  <si>
+    <t>29.03.202594</t>
+  </si>
+  <si>
+    <t>29.03.202595</t>
+  </si>
+  <si>
+    <t>29.03.202596</t>
+  </si>
+  <si>
+    <t>30.03.20251</t>
+  </si>
+  <si>
+    <t>30.03.20252</t>
+  </si>
+  <si>
+    <t>30.03.20253</t>
+  </si>
+  <si>
+    <t>30.03.20254</t>
+  </si>
+  <si>
+    <t>30.03.20255</t>
+  </si>
+  <si>
+    <t>30.03.20256</t>
+  </si>
+  <si>
+    <t>30.03.20257</t>
+  </si>
+  <si>
+    <t>30.03.20258</t>
+  </si>
+  <si>
+    <t>30.03.20259</t>
+  </si>
+  <si>
+    <t>30.03.202510</t>
+  </si>
+  <si>
+    <t>30.03.202511</t>
+  </si>
+  <si>
+    <t>30.03.202512</t>
+  </si>
+  <si>
+    <t>30.03.202513</t>
+  </si>
+  <si>
+    <t>30.03.202514</t>
+  </si>
+  <si>
+    <t>30.03.202515</t>
+  </si>
+  <si>
+    <t>30.03.202516</t>
+  </si>
+  <si>
+    <t>30.03.202517</t>
+  </si>
+  <si>
+    <t>30.03.202518</t>
+  </si>
+  <si>
+    <t>30.03.202519</t>
+  </si>
+  <si>
+    <t>30.03.202520</t>
+  </si>
+  <si>
+    <t>30.03.202521</t>
+  </si>
+  <si>
+    <t>30.03.202522</t>
+  </si>
+  <si>
+    <t>30.03.202523</t>
+  </si>
+  <si>
+    <t>30.03.202524</t>
+  </si>
+  <si>
+    <t>30.03.202525</t>
+  </si>
+  <si>
+    <t>30.03.202526</t>
+  </si>
+  <si>
+    <t>30.03.202527</t>
+  </si>
+  <si>
+    <t>30.03.202528</t>
+  </si>
+  <si>
+    <t>30.03.202529</t>
+  </si>
+  <si>
+    <t>30.03.202530</t>
+  </si>
+  <si>
+    <t>30.03.202531</t>
+  </si>
+  <si>
+    <t>30.03.202532</t>
+  </si>
+  <si>
+    <t>30.03.202533</t>
+  </si>
+  <si>
+    <t>30.03.202534</t>
+  </si>
+  <si>
+    <t>30.03.202535</t>
+  </si>
+  <si>
+    <t>30.03.202536</t>
+  </si>
+  <si>
+    <t>30.03.202537</t>
+  </si>
+  <si>
+    <t>30.03.202538</t>
+  </si>
+  <si>
+    <t>30.03.202539</t>
+  </si>
+  <si>
+    <t>30.03.202540</t>
+  </si>
+  <si>
+    <t>30.03.202541</t>
+  </si>
+  <si>
+    <t>30.03.202542</t>
+  </si>
+  <si>
+    <t>30.03.202543</t>
+  </si>
+  <si>
+    <t>30.03.202544</t>
+  </si>
+  <si>
+    <t>30.03.202545</t>
+  </si>
+  <si>
+    <t>30.03.202546</t>
+  </si>
+  <si>
+    <t>30.03.202547</t>
+  </si>
+  <si>
+    <t>30.03.202548</t>
+  </si>
+  <si>
+    <t>30.03.202549</t>
+  </si>
+  <si>
+    <t>30.03.202550</t>
+  </si>
+  <si>
+    <t>30.03.202551</t>
+  </si>
+  <si>
+    <t>30.03.202552</t>
+  </si>
+  <si>
+    <t>30.03.202553</t>
+  </si>
+  <si>
+    <t>30.03.202554</t>
+  </si>
+  <si>
+    <t>30.03.202555</t>
+  </si>
+  <si>
+    <t>30.03.202556</t>
+  </si>
+  <si>
+    <t>30.03.202557</t>
+  </si>
+  <si>
+    <t>30.03.202558</t>
+  </si>
+  <si>
+    <t>30.03.202559</t>
+  </si>
+  <si>
+    <t>30.03.202560</t>
+  </si>
+  <si>
+    <t>30.03.202561</t>
+  </si>
+  <si>
+    <t>30.03.202562</t>
+  </si>
+  <si>
+    <t>30.03.202563</t>
+  </si>
+  <si>
+    <t>30.03.202564</t>
+  </si>
+  <si>
+    <t>30.03.202565</t>
+  </si>
+  <si>
+    <t>30.03.202566</t>
+  </si>
+  <si>
+    <t>30.03.202567</t>
+  </si>
+  <si>
+    <t>30.03.202568</t>
+  </si>
+  <si>
+    <t>30.03.202569</t>
+  </si>
+  <si>
+    <t>30.03.202570</t>
+  </si>
+  <si>
+    <t>30.03.202571</t>
+  </si>
+  <si>
+    <t>30.03.202572</t>
+  </si>
+  <si>
+    <t>30.03.202573</t>
+  </si>
+  <si>
+    <t>30.03.202574</t>
+  </si>
+  <si>
+    <t>30.03.202575</t>
+  </si>
+  <si>
+    <t>30.03.202576</t>
+  </si>
+  <si>
+    <t>30.03.202577</t>
+  </si>
+  <si>
+    <t>30.03.202578</t>
+  </si>
+  <si>
+    <t>30.03.202579</t>
+  </si>
+  <si>
+    <t>30.03.202580</t>
+  </si>
+  <si>
+    <t>30.03.202581</t>
+  </si>
+  <si>
+    <t>30.03.202582</t>
+  </si>
+  <si>
+    <t>30.03.202583</t>
+  </si>
+  <si>
+    <t>30.03.202584</t>
+  </si>
+  <si>
+    <t>30.03.202585</t>
+  </si>
+  <si>
+    <t>30.03.202586</t>
+  </si>
+  <si>
+    <t>30.03.202587</t>
+  </si>
+  <si>
+    <t>30.03.202588</t>
+  </si>
+  <si>
+    <t>30.03.202589</t>
+  </si>
+  <si>
+    <t>30.03.202590</t>
+  </si>
+  <si>
+    <t>30.03.202591</t>
+  </si>
+  <si>
+    <t>30.03.202592</t>
+  </si>
+  <si>
+    <t>31.03.202593</t>
+  </si>
+  <si>
+    <t>31.03.202594</t>
+  </si>
+  <si>
+    <t>31.03.202595</t>
+  </si>
+  <si>
+    <t>31.03.202596</t>
+  </si>
+  <si>
+    <t>31.03.20251</t>
+  </si>
+  <si>
+    <t>31.03.20252</t>
+  </si>
+  <si>
+    <t>31.03.20253</t>
+  </si>
+  <si>
+    <t>31.03.20254</t>
+  </si>
+  <si>
+    <t>31.03.20255</t>
+  </si>
+  <si>
+    <t>31.03.20256</t>
+  </si>
+  <si>
+    <t>31.03.20257</t>
+  </si>
+  <si>
+    <t>31.03.20258</t>
+  </si>
+  <si>
+    <t>31.03.20259</t>
+  </si>
+  <si>
+    <t>31.03.202510</t>
+  </si>
+  <si>
+    <t>31.03.202511</t>
+  </si>
+  <si>
+    <t>31.03.202512</t>
+  </si>
+  <si>
+    <t>31.03.202513</t>
+  </si>
+  <si>
+    <t>31.03.202514</t>
+  </si>
+  <si>
+    <t>31.03.202515</t>
+  </si>
+  <si>
+    <t>31.03.202516</t>
+  </si>
+  <si>
+    <t>31.03.202517</t>
+  </si>
+  <si>
+    <t>31.03.202518</t>
+  </si>
+  <si>
+    <t>31.03.202519</t>
+  </si>
+  <si>
+    <t>31.03.202520</t>
+  </si>
+  <si>
+    <t>31.03.202521</t>
+  </si>
+  <si>
+    <t>31.03.202522</t>
+  </si>
+  <si>
+    <t>31.03.202523</t>
+  </si>
+  <si>
+    <t>31.03.202524</t>
+  </si>
+  <si>
+    <t>31.03.202525</t>
+  </si>
+  <si>
+    <t>31.03.202526</t>
+  </si>
+  <si>
+    <t>31.03.202527</t>
+  </si>
+  <si>
+    <t>31.03.202528</t>
+  </si>
+  <si>
+    <t>31.03.202529</t>
+  </si>
+  <si>
+    <t>31.03.202530</t>
+  </si>
+  <si>
+    <t>31.03.202531</t>
+  </si>
+  <si>
+    <t>31.03.202532</t>
+  </si>
+  <si>
+    <t>31.03.202533</t>
+  </si>
+  <si>
+    <t>31.03.202534</t>
+  </si>
+  <si>
+    <t>31.03.202535</t>
+  </si>
+  <si>
+    <t>31.03.202536</t>
   </si>
 </sst>
 </file>
@@ -762,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,19 +1399,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B2">
-        <v>0.51</v>
+        <v>8.595000000000001</v>
       </c>
       <c r="C2">
-        <v>0.68</v>
+        <v>0.802</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -816,19 +1422,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45743.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.043</v>
+        <v>5.97</v>
       </c>
       <c r="C3">
-        <v>2.49</v>
+        <v>0.001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -839,19 +1445,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45743.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.015</v>
+        <v>0.093</v>
       </c>
       <c r="C4">
-        <v>1.68</v>
+        <v>1.833</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -862,19 +1468,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45743.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B5">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.235</v>
+        <v>8.81</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -885,19 +1491,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45743.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.297</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.025</v>
+        <v>4.228</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -908,19 +1514,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45743.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.508</v>
+        <v>7.03</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -931,19 +1537,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45743.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B8">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.836</v>
+        <v>2.851</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -954,13 +1560,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45743.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B9">
-        <v>4.809</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.004</v>
+        <v>4.094</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -977,13 +1583,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45743.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B10">
-        <v>7.755</v>
+        <v>0.159</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.202</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1000,19 +1606,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45743.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B11">
-        <v>0.18</v>
+        <v>0.054</v>
       </c>
       <c r="C11">
-        <v>0.051</v>
+        <v>0.29</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1023,19 +1629,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45743.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.177</v>
+        <v>0.111</v>
       </c>
       <c r="C12">
-        <v>2.462</v>
+        <v>0.105</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1046,19 +1652,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45743.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="C13">
-        <v>18.358</v>
+        <v>1.147</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1069,19 +1675,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45743.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B14">
-        <v>0.027</v>
+        <v>0.039</v>
       </c>
       <c r="C14">
-        <v>4.675</v>
+        <v>3.207</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -1092,19 +1698,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45743.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.024</v>
+        <v>0.003</v>
       </c>
       <c r="C15">
-        <v>0.265</v>
+        <v>1.972</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1115,19 +1721,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45743.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B16">
-        <v>2.104</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.012</v>
+        <v>4.636</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1138,19 +1744,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45743.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B17">
-        <v>4.282</v>
+        <v>0.096</v>
       </c>
       <c r="C17">
-        <v>0.796</v>
+        <v>0.09</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -1161,19 +1767,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45743.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C18">
-        <v>13.313</v>
+        <v>0.108</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -1184,19 +1790,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45743.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.672</v>
       </c>
       <c r="C19">
-        <v>15.277</v>
+        <v>0.003</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -1207,19 +1813,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45743.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="C20">
-        <v>23.979</v>
+        <v>0.287</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -1230,19 +1836,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45743.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.264</v>
       </c>
       <c r="C21">
-        <v>2.887</v>
+        <v>0.026</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -1253,19 +1859,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45743.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>22.929</v>
+        <v>13.111</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1276,19 +1882,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45743.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>19.523</v>
+        <v>10.726</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -1299,19 +1905,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45743.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C24">
-        <v>28.025</v>
+        <v>1.522</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1322,19 +1928,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45743.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.12</v>
+        <v>0.174</v>
       </c>
       <c r="C25">
-        <v>0.772</v>
+        <v>0.244</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1345,19 +1951,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45743.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B26">
-        <v>3.418</v>
+        <v>3.833</v>
       </c>
       <c r="C26">
-        <v>3.422</v>
+        <v>8.629</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1368,19 +1974,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45743.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B27">
-        <v>2.577</v>
+        <v>5.889</v>
       </c>
       <c r="C27">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1391,13 +1997,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45743.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B28">
-        <v>1.236</v>
+        <v>0.079</v>
       </c>
       <c r="C28">
-        <v>0.093</v>
+        <v>2.139</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1414,13 +2020,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45743.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B29">
-        <v>10.718</v>
+        <v>0.027</v>
       </c>
       <c r="C29">
-        <v>0.036</v>
+        <v>1.091</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1437,13 +2043,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45743.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B30">
-        <v>1.395</v>
+        <v>2.684</v>
       </c>
       <c r="C30">
-        <v>0.033</v>
+        <v>0.026</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1460,13 +2066,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45743.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.099</v>
+        <v>9.695</v>
       </c>
       <c r="C31">
-        <v>1.464</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1483,16 +2089,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45743.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B32">
-        <v>0.048</v>
+        <v>11.744</v>
       </c>
       <c r="C32">
-        <v>1.158</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1506,16 +2112,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45743.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.001</v>
+        <v>22.26</v>
       </c>
       <c r="C33">
-        <v>7.356</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1529,16 +2135,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45743.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.078</v>
+        <v>49.093</v>
       </c>
       <c r="C34">
-        <v>1.831</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1552,16 +2158,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45743.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>43.196</v>
       </c>
       <c r="C35">
-        <v>13.736</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>84.25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1575,16 +2181,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45743.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.047</v>
+        <v>25.295</v>
       </c>
       <c r="C36">
-        <v>3.394</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>84.25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1598,16 +2204,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45743.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.011</v>
+        <v>25.972</v>
       </c>
       <c r="C37">
-        <v>3.051</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>84.25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1621,16 +2227,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45743.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B38">
-        <v>3.091</v>
+        <v>39.19</v>
       </c>
       <c r="C38">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1644,16 +2250,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45743.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.011</v>
+        <v>17.448</v>
       </c>
       <c r="C39">
-        <v>4.699</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1667,16 +2273,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45743.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>18.378</v>
       </c>
       <c r="C40">
-        <v>27.599</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1690,16 +2296,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45743.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>8.083</v>
       </c>
       <c r="C41">
-        <v>21.169</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1713,16 +2319,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45743.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>17.391</v>
       </c>
       <c r="C42">
-        <v>6.508</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1736,16 +2342,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45743.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.006</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="C43">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1759,16 +2365,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45743.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>7.016</v>
       </c>
       <c r="C44">
-        <v>11.179</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1782,16 +2388,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45743.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="C45">
-        <v>17.351</v>
+        <v>0.174</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1805,16 +2411,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45743.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>9.298</v>
+        <v>6.072</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1828,16 +2434,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45743.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B47">
-        <v>2.913</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.119</v>
+        <v>17.331</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1851,16 +2457,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45743.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B48">
-        <v>11.434</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>21.063</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1874,16 +2480,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45743.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B49">
-        <v>1.521</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.011</v>
+        <v>4.305</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1897,13 +2503,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45743.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B50">
-        <v>10.097</v>
+        <v>0.159</v>
       </c>
       <c r="C50">
-        <v>0.034</v>
+        <v>2.016</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1920,19 +2526,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45743.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B51">
-        <v>29.803</v>
+        <v>0.852</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1.086</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1943,19 +2549,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45743.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B52">
-        <v>22.003</v>
+        <v>0.273</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1.909</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -1966,19 +2572,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45743.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B53">
-        <v>1.714</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C53">
-        <v>0.217</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -1989,19 +2595,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45743.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.126</v>
+        <v>1.599</v>
       </c>
       <c r="C54">
-        <v>0.302</v>
+        <v>0.312</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2012,19 +2618,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45743.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B55">
-        <v>3.212</v>
+        <v>5.851</v>
       </c>
       <c r="C55">
-        <v>0.019</v>
+        <v>0.003</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2035,16 +2641,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45743.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B56">
-        <v>3.381</v>
+        <v>0.003</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>6.436</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2058,19 +2664,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45743.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.316</v>
+        <v>3.202</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2081,19 +2687,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45743.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B58">
-        <v>0.18</v>
+        <v>0.174</v>
       </c>
       <c r="C58">
-        <v>1.295</v>
+        <v>2.23</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2104,19 +2710,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45743.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B59">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -2127,19 +2733,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45743.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B60">
-        <v>11.443</v>
+        <v>10.172</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -2150,19 +2756,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45743.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B61">
-        <v>3.089</v>
+        <v>9.856</v>
       </c>
       <c r="C61">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -2173,16 +2779,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45743.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1.187</v>
       </c>
       <c r="C62">
-        <v>22.057</v>
+        <v>6.29</v>
       </c>
       <c r="D62">
-        <v>49.75</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2196,16 +2802,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45743.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>2.431</v>
       </c>
       <c r="C63">
-        <v>1.612</v>
+        <v>0.11</v>
       </c>
       <c r="D63">
-        <v>39.25</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2219,16 +2825,16 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45743.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>21.388</v>
       </c>
       <c r="C64">
-        <v>24.354</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2242,13 +2848,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45743.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>21.606</v>
       </c>
       <c r="C65">
-        <v>27.402</v>
+        <v>0.001</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2265,13 +2871,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45743.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.903</v>
       </c>
       <c r="C66">
-        <v>47.951</v>
+        <v>0.825</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2288,19 +2894,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45743.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.374</v>
       </c>
       <c r="C67">
-        <v>48.058</v>
+        <v>0.082</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>66</v>
@@ -2311,19 +2917,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45743.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="C68">
-        <v>32.985</v>
+        <v>0.077</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>67</v>
@@ -2334,19 +2940,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45743.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>2.608</v>
       </c>
       <c r="C69">
-        <v>10.257</v>
+        <v>0.02</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -2357,19 +2963,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45743.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>22.369</v>
+        <v>20.777</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2380,19 +2986,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45743.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="C71">
-        <v>14.48</v>
+        <v>3.049</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2403,19 +3009,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45743.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.178</v>
+        <v>0.24</v>
       </c>
       <c r="C72">
-        <v>0.404</v>
+        <v>0.772</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2426,19 +3032,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45743.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B73">
-        <v>5.042</v>
+        <v>0.368</v>
       </c>
       <c r="C73">
-        <v>0.047</v>
+        <v>0.222</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2449,13 +3055,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45743.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B74">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>3.229</v>
+        <v>41.985</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2472,13 +3078,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45743.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="C75">
-        <v>0.669</v>
+        <v>16.546</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2495,13 +3101,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45743.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.063</v>
+        <v>0.104</v>
       </c>
       <c r="C76">
-        <v>0.212</v>
+        <v>0.119</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2518,13 +3124,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45743.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B77">
-        <v>0.073</v>
+        <v>0.239</v>
       </c>
       <c r="C77">
-        <v>0.156</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2541,13 +3147,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45743.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B78">
-        <v>0.13</v>
+        <v>8.278</v>
       </c>
       <c r="C78">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2564,19 +3170,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45743.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B79">
-        <v>1.808</v>
+        <v>20.155</v>
       </c>
       <c r="C79">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -2587,19 +3193,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45743.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B80">
-        <v>1.37</v>
+        <v>23.281</v>
       </c>
       <c r="C80">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2610,19 +3216,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45743.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B81">
-        <v>0.153</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="C81">
-        <v>0.108</v>
+        <v>0.043</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -2633,10 +3239,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45743.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B82">
-        <v>26.595</v>
+        <v>23.752</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2645,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -2656,19 +3262,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45743.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B83">
-        <v>11.742</v>
+        <v>1.848</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -2679,19 +3285,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45743.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B84">
-        <v>0.139</v>
+        <v>0.194</v>
       </c>
       <c r="C84">
-        <v>0.294</v>
+        <v>0.338</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -2702,19 +3308,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45743.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B85">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>1.393</v>
+        <v>19.665</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -2725,19 +3331,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45743.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B86">
-        <v>28.559</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.059</v>
+        <v>6.469</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>20.75</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>85</v>
@@ -2748,13 +3354,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45743.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B87">
-        <v>4.971</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0.039</v>
+        <v>5.835</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2771,13 +3377,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45743.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B88">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>15.895</v>
+        <v>7.956</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2794,13 +3400,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45743.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>24.482</v>
+        <v>16.039</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2817,13 +3423,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45743.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B90">
-        <v>2.821</v>
+        <v>19.879</v>
       </c>
       <c r="C90">
-        <v>3.517</v>
+        <v>0.948</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2840,13 +3446,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45743.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B91">
-        <v>0.098</v>
+        <v>0.676</v>
       </c>
       <c r="C91">
-        <v>0.184</v>
+        <v>0.337</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2863,13 +3469,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45743.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B92">
-        <v>0.339</v>
+        <v>6.855</v>
       </c>
       <c r="C92">
-        <v>0.164</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2886,13 +3492,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45743.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="C93">
-        <v>4.962</v>
+        <v>6.53</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2909,13 +3515,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45743.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B94">
-        <v>20.474</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0.108</v>
+        <v>3.582</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2932,13 +3538,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45743.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B95">
-        <v>0.658</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0.074</v>
+        <v>2.844</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2955,13 +3561,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45743.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B96">
-        <v>0.06</v>
+        <v>4.833</v>
       </c>
       <c r="C96">
-        <v>0.607</v>
+        <v>0.019</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2978,13 +3584,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45743.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>4.618</v>
+        <v>10.233</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3001,13 +3607,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="B98">
-        <v>8.595000000000001</v>
+        <v>14.006</v>
       </c>
       <c r="C98">
-        <v>0.802</v>
+        <v>0.286</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3024,13 +3630,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45744.01041666666</v>
+        <v>45745.01041666666</v>
       </c>
       <c r="B99">
-        <v>5.97</v>
+        <v>2.991</v>
       </c>
       <c r="C99">
-        <v>0.001</v>
+        <v>0.093</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3047,13 +3653,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45744.02083333334</v>
+        <v>45745.02083333334</v>
       </c>
       <c r="B100">
-        <v>0.093</v>
+        <v>0.147</v>
       </c>
       <c r="C100">
-        <v>1.833</v>
+        <v>0.185</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3070,16 +3676,16 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45744.03125</v>
+        <v>45745.03125</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C101">
-        <v>8.81</v>
+        <v>0.702</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3093,16 +3699,16 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45744.04166666666</v>
+        <v>45745.04166666666</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>0.479</v>
       </c>
       <c r="C102">
-        <v>4.228</v>
+        <v>0.158</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -3116,13 +3722,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45744.05208333334</v>
+        <v>45745.05208333334</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>4.488</v>
       </c>
       <c r="C103">
-        <v>7.03</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3139,13 +3745,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45744.0625</v>
+        <v>45745.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1.639</v>
       </c>
       <c r="C104">
-        <v>2.851</v>
+        <v>0.004</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3162,19 +3768,19 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45744.07291666666</v>
+        <v>45745.07291666666</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>12.577</v>
       </c>
       <c r="C105">
-        <v>4.094</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>8</v>
@@ -3185,19 +3791,19 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45744.08333333334</v>
+        <v>45745.08333333334</v>
       </c>
       <c r="B106">
-        <v>0.159</v>
+        <v>35.37</v>
       </c>
       <c r="C106">
-        <v>0.202</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>9</v>
@@ -3208,19 +3814,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45744.09375</v>
+        <v>45745.09375</v>
       </c>
       <c r="B107">
-        <v>0.054</v>
+        <v>10.243</v>
       </c>
       <c r="C107">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -3231,19 +3837,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45744.10416666666</v>
+        <v>45745.10416666666</v>
       </c>
       <c r="B108">
-        <v>0.111</v>
+        <v>0.485</v>
       </c>
       <c r="C108">
-        <v>0.105</v>
+        <v>0.231</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>11</v>
@@ -3254,19 +3860,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45744.11458333334</v>
+        <v>45745.11458333334</v>
       </c>
       <c r="B109">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>1.147</v>
+        <v>11.236</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E109">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>12</v>
@@ -3277,19 +3883,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45744.125</v>
+        <v>45745.125</v>
       </c>
       <c r="B110">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>3.207</v>
+        <v>7.723</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>13</v>
@@ -3300,19 +3906,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45744.13541666666</v>
+        <v>45745.13541666666</v>
       </c>
       <c r="B111">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>1.972</v>
+        <v>19.008</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>14</v>
@@ -3323,19 +3929,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45744.14583333334</v>
+        <v>45745.14583333334</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>4.636</v>
+        <v>12.933</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>15</v>
@@ -3346,19 +3952,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45744.15625</v>
+        <v>45745.15625</v>
       </c>
       <c r="B113">
-        <v>0.096</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.09</v>
+        <v>6.158</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>16</v>
@@ -3369,19 +3975,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45744.16666666666</v>
+        <v>45745.16666666666</v>
       </c>
       <c r="B114">
-        <v>0.25</v>
+        <v>0.018</v>
       </c>
       <c r="C114">
-        <v>0.108</v>
+        <v>3.283</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>17</v>
@@ -3392,19 +3998,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45744.17708333334</v>
+        <v>45745.17708333334</v>
       </c>
       <c r="B115">
-        <v>0.672</v>
+        <v>0.225</v>
       </c>
       <c r="C115">
-        <v>0.003</v>
+        <v>0.426</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>18</v>
@@ -3415,19 +4021,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45744.1875</v>
+        <v>45745.1875</v>
       </c>
       <c r="B116">
-        <v>0.063</v>
+        <v>0.852</v>
       </c>
       <c r="C116">
-        <v>0.287</v>
+        <v>0.206</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>19</v>
@@ -3438,19 +4044,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45744.19791666666</v>
+        <v>45745.19791666666</v>
       </c>
       <c r="B117">
-        <v>0.264</v>
+        <v>0.391</v>
       </c>
       <c r="C117">
-        <v>0.026</v>
+        <v>0.051</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>20</v>
@@ -3461,19 +4067,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45744.20833333334</v>
+        <v>45745.20833333334</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1.707</v>
       </c>
       <c r="C118">
-        <v>13.111</v>
+        <v>0.133</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>21</v>
@@ -3484,19 +4090,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45744.21875</v>
+        <v>45745.21875</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>0.728</v>
       </c>
       <c r="C119">
-        <v>10.726</v>
+        <v>0.014</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>22</v>
@@ -3507,19 +4113,19 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45744.22916666666</v>
+        <v>45745.22916666666</v>
       </c>
       <c r="B120">
-        <v>0.004</v>
+        <v>0.383</v>
       </c>
       <c r="C120">
-        <v>1.522</v>
+        <v>0.129</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E120">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>23</v>
@@ -3530,19 +4136,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45744.23958333334</v>
+        <v>45745.23958333334</v>
       </c>
       <c r="B121">
-        <v>0.174</v>
+        <v>14.979</v>
       </c>
       <c r="C121">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E121">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>24</v>
@@ -3553,19 +4159,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45744.25</v>
+        <v>45745.25</v>
       </c>
       <c r="B122">
-        <v>3.833</v>
+        <v>24.949</v>
       </c>
       <c r="C122">
-        <v>8.629</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E122">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>25</v>
@@ -3576,25 +4182,4671 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45744.26041666666</v>
+        <v>45745.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>10.87</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E123">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>26</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>45745.27083333334</v>
+      </c>
+      <c r="B124">
+        <v>1.129</v>
+      </c>
+      <c r="C124">
+        <v>0.004</v>
+      </c>
+      <c r="D124">
+        <v>50</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>45745.28125</v>
+      </c>
+      <c r="B125">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="C125">
+        <v>0.227</v>
+      </c>
+      <c r="D125">
+        <v>50</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>45745.29166666666</v>
+      </c>
+      <c r="B126">
+        <v>0.039</v>
+      </c>
+      <c r="C126">
+        <v>0.861</v>
+      </c>
+      <c r="D126">
+        <v>50</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>45745.30208333334</v>
+      </c>
+      <c r="B127">
+        <v>0.279</v>
+      </c>
+      <c r="C127">
+        <v>0.027</v>
+      </c>
+      <c r="D127">
+        <v>50</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="2">
+        <v>45745.3125</v>
+      </c>
+      <c r="B128">
+        <v>0.586</v>
+      </c>
+      <c r="C128">
+        <v>0.008</v>
+      </c>
+      <c r="D128">
+        <v>50</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2">
+        <v>45745.32291666666</v>
+      </c>
+      <c r="B129">
+        <v>0.152</v>
+      </c>
+      <c r="C129">
+        <v>0.25</v>
+      </c>
+      <c r="D129">
+        <v>50</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>32</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="2">
+        <v>45745.33333333334</v>
+      </c>
+      <c r="B130">
+        <v>0.393</v>
+      </c>
+      <c r="C130">
+        <v>0.303</v>
+      </c>
+      <c r="D130">
+        <v>50</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2">
+        <v>45745.34375</v>
+      </c>
+      <c r="B131">
+        <v>0.273</v>
+      </c>
+      <c r="C131">
+        <v>0.049</v>
+      </c>
+      <c r="D131">
+        <v>50</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2">
+        <v>45745.35416666666</v>
+      </c>
+      <c r="B132">
+        <v>0.204</v>
+      </c>
+      <c r="C132">
+        <v>0.163</v>
+      </c>
+      <c r="D132">
+        <v>50</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>35</v>
+      </c>
+      <c r="G132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
+        <v>45745.36458333334</v>
+      </c>
+      <c r="B133">
+        <v>0.078</v>
+      </c>
+      <c r="C133">
+        <v>0.35</v>
+      </c>
+      <c r="D133">
+        <v>50</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>36</v>
+      </c>
+      <c r="G133" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
+        <v>45745.375</v>
+      </c>
+      <c r="B134">
+        <v>0.501</v>
+      </c>
+      <c r="C134">
+        <v>0.028</v>
+      </c>
+      <c r="D134">
+        <v>50</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
+        <v>45745.38541666666</v>
+      </c>
+      <c r="B135">
+        <v>0.147</v>
+      </c>
+      <c r="C135">
+        <v>0.228</v>
+      </c>
+      <c r="D135">
+        <v>50</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>38</v>
+      </c>
+      <c r="G135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>45745.39583333334</v>
+      </c>
+      <c r="B136">
+        <v>0.129</v>
+      </c>
+      <c r="C136">
+        <v>0.287</v>
+      </c>
+      <c r="D136">
+        <v>50</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>39</v>
+      </c>
+      <c r="G136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45745.40625</v>
+      </c>
+      <c r="B137">
+        <v>0.243</v>
+      </c>
+      <c r="C137">
+        <v>0.163</v>
+      </c>
+      <c r="D137">
+        <v>50</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>40</v>
+      </c>
+      <c r="G137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>45745.41666666666</v>
+      </c>
+      <c r="B138">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="C138">
+        <v>0.139</v>
+      </c>
+      <c r="D138">
+        <v>50</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>41</v>
+      </c>
+      <c r="G138" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>45745.42708333334</v>
+      </c>
+      <c r="B139">
+        <v>15.337</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>50</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>42</v>
+      </c>
+      <c r="G139" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>45745.4375</v>
+      </c>
+      <c r="B140">
+        <v>0.366</v>
+      </c>
+      <c r="C140">
+        <v>0.14</v>
+      </c>
+      <c r="D140">
+        <v>50</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>43</v>
+      </c>
+      <c r="G140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>45745.44791666666</v>
+      </c>
+      <c r="B141">
+        <v>0.138</v>
+      </c>
+      <c r="C141">
+        <v>0.121</v>
+      </c>
+      <c r="D141">
+        <v>50</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>44</v>
+      </c>
+      <c r="G141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>45745.45833333334</v>
+      </c>
+      <c r="B142">
+        <v>1.056</v>
+      </c>
+      <c r="C142">
+        <v>0.05</v>
+      </c>
+      <c r="D142">
+        <v>50</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>45</v>
+      </c>
+      <c r="G142" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>45745.46875</v>
+      </c>
+      <c r="B143">
+        <v>2.992</v>
+      </c>
+      <c r="C143">
+        <v>0.01</v>
+      </c>
+      <c r="D143">
+        <v>50</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>46</v>
+      </c>
+      <c r="G143" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45745.47916666666</v>
+      </c>
+      <c r="B144">
+        <v>7.634</v>
+      </c>
+      <c r="C144">
+        <v>0.044</v>
+      </c>
+      <c r="D144">
+        <v>75</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>47</v>
+      </c>
+      <c r="G144" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45745.48958333334</v>
+      </c>
+      <c r="B145">
+        <v>6.444</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>74</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>48</v>
+      </c>
+      <c r="G145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45745.5</v>
+      </c>
+      <c r="B146">
+        <v>0.847</v>
+      </c>
+      <c r="C146">
+        <v>0.057</v>
+      </c>
+      <c r="D146">
+        <v>75</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>49</v>
+      </c>
+      <c r="G146" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45745.51041666666</v>
+      </c>
+      <c r="B147">
+        <v>1.394</v>
+      </c>
+      <c r="C147">
+        <v>0.02</v>
+      </c>
+      <c r="D147">
+        <v>75</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>50</v>
+      </c>
+      <c r="G147" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>45745.52083333334</v>
+      </c>
+      <c r="B148">
+        <v>0.081</v>
+      </c>
+      <c r="C148">
+        <v>0.046</v>
+      </c>
+      <c r="D148">
+        <v>75</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>51</v>
+      </c>
+      <c r="G148" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>45745.53125</v>
+      </c>
+      <c r="B149">
+        <v>0.186</v>
+      </c>
+      <c r="C149">
+        <v>0.12</v>
+      </c>
+      <c r="D149">
+        <v>71.75</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>52</v>
+      </c>
+      <c r="G149" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>45745.54166666666</v>
+      </c>
+      <c r="B150">
+        <v>0.469</v>
+      </c>
+      <c r="C150">
+        <v>0.147</v>
+      </c>
+      <c r="D150">
+        <v>75</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>53</v>
+      </c>
+      <c r="G150" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>45745.55208333334</v>
+      </c>
+      <c r="B151">
+        <v>1.66</v>
+      </c>
+      <c r="C151">
+        <v>0.001</v>
+      </c>
+      <c r="D151">
+        <v>75</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>54</v>
+      </c>
+      <c r="G151" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>45745.5625</v>
+      </c>
+      <c r="B152">
+        <v>0.156</v>
+      </c>
+      <c r="C152">
+        <v>0.063</v>
+      </c>
+      <c r="D152">
+        <v>75</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>55</v>
+      </c>
+      <c r="G152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>45745.57291666666</v>
+      </c>
+      <c r="B153">
+        <v>0.166</v>
+      </c>
+      <c r="C153">
+        <v>0.135</v>
+      </c>
+      <c r="D153">
+        <v>75</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>56</v>
+      </c>
+      <c r="G153" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>45745.58333333334</v>
+      </c>
+      <c r="B154">
+        <v>0.058</v>
+      </c>
+      <c r="C154">
+        <v>0.365</v>
+      </c>
+      <c r="D154">
+        <v>75</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>57</v>
+      </c>
+      <c r="G154" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>45745.59375</v>
+      </c>
+      <c r="B155">
+        <v>0.033</v>
+      </c>
+      <c r="C155">
+        <v>0.906</v>
+      </c>
+      <c r="D155">
+        <v>75</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>58</v>
+      </c>
+      <c r="G155" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>45745.60416666666</v>
+      </c>
+      <c r="B156">
+        <v>12.258</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>50</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>59</v>
+      </c>
+      <c r="G156" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>45745.61458333334</v>
+      </c>
+      <c r="B157">
+        <v>4.716</v>
+      </c>
+      <c r="C157">
+        <v>0.041</v>
+      </c>
+      <c r="D157">
+        <v>50</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>60</v>
+      </c>
+      <c r="G157" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>45745.625</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>7.529</v>
+      </c>
+      <c r="D158">
+        <v>50</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>61</v>
+      </c>
+      <c r="G158" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>45745.63541666666</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>2.097</v>
+      </c>
+      <c r="D159">
+        <v>50</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>62</v>
+      </c>
+      <c r="G159" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>45745.64583333334</v>
+      </c>
+      <c r="B160">
+        <v>2.52</v>
+      </c>
+      <c r="C160">
+        <v>0.189</v>
+      </c>
+      <c r="D160">
+        <v>50</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>63</v>
+      </c>
+      <c r="G160" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>45745.65625</v>
+      </c>
+      <c r="B161">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>50</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>64</v>
+      </c>
+      <c r="G161" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>45745.66666666666</v>
+      </c>
+      <c r="B162">
+        <v>0.117</v>
+      </c>
+      <c r="C162">
+        <v>4.815</v>
+      </c>
+      <c r="D162">
+        <v>50</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>65</v>
+      </c>
+      <c r="G162" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>45745.67708333334</v>
+      </c>
+      <c r="B163">
+        <v>0.36</v>
+      </c>
+      <c r="C163">
+        <v>0.969</v>
+      </c>
+      <c r="D163">
+        <v>50</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>66</v>
+      </c>
+      <c r="G163" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>45745.6875</v>
+      </c>
+      <c r="B164">
+        <v>1.552</v>
+      </c>
+      <c r="C164">
+        <v>0.017</v>
+      </c>
+      <c r="D164">
+        <v>50</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>67</v>
+      </c>
+      <c r="G164" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>45745.69791666666</v>
+      </c>
+      <c r="B165">
+        <v>0.469</v>
+      </c>
+      <c r="C165">
+        <v>0.249</v>
+      </c>
+      <c r="D165">
+        <v>50</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>68</v>
+      </c>
+      <c r="G165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>45745.70833333334</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>31.692</v>
+      </c>
+      <c r="D166">
+        <v>50</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>69</v>
+      </c>
+      <c r="G166" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>45745.71875</v>
+      </c>
+      <c r="B167">
+        <v>0.051</v>
+      </c>
+      <c r="C167">
+        <v>4.912</v>
+      </c>
+      <c r="D167">
+        <v>50</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>70</v>
+      </c>
+      <c r="G167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>45745.72916666666</v>
+      </c>
+      <c r="B168">
+        <v>0.074</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>25</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>71</v>
+      </c>
+      <c r="G168" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>45745.73958333334</v>
+      </c>
+      <c r="B169">
+        <v>7.913</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>72</v>
+      </c>
+      <c r="G169" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>45745.75</v>
+      </c>
+      <c r="B170">
+        <v>0.758</v>
+      </c>
+      <c r="C170">
+        <v>0.101</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>73</v>
+      </c>
+      <c r="G170" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>45745.76041666666</v>
+      </c>
+      <c r="B171">
+        <v>0.145</v>
+      </c>
+      <c r="C171">
+        <v>0.144</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>74</v>
+      </c>
+      <c r="G171" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>45745.77083333334</v>
+      </c>
+      <c r="B172">
+        <v>2.498</v>
+      </c>
+      <c r="C172">
+        <v>0.027</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>75</v>
+      </c>
+      <c r="G172" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>45745.78125</v>
+      </c>
+      <c r="B173">
+        <v>11.602</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>76</v>
+      </c>
+      <c r="G173" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>45745.79166666666</v>
+      </c>
+      <c r="B174">
+        <v>11.875</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>77</v>
+      </c>
+      <c r="G174" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>45745.80208333334</v>
+      </c>
+      <c r="B175">
+        <v>20.137</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>78</v>
+      </c>
+      <c r="G175" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>45745.8125</v>
+      </c>
+      <c r="B176">
+        <v>30.213</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>79</v>
+      </c>
+      <c r="G176" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>45745.82291666666</v>
+      </c>
+      <c r="B177">
+        <v>17.063</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>80</v>
+      </c>
+      <c r="G177" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>45745.83333333334</v>
+      </c>
+      <c r="B178">
+        <v>34.036</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>81</v>
+      </c>
+      <c r="G178" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>45745.84375</v>
+      </c>
+      <c r="B179">
+        <v>1.486</v>
+      </c>
+      <c r="C179">
+        <v>0.048</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>82</v>
+      </c>
+      <c r="G179" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>45745.85416666666</v>
+      </c>
+      <c r="B180">
+        <v>1.532</v>
+      </c>
+      <c r="C180">
+        <v>0.023</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>83</v>
+      </c>
+      <c r="G180" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>45745.86458333334</v>
+      </c>
+      <c r="B181">
+        <v>0.013</v>
+      </c>
+      <c r="C181">
+        <v>4.053</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>84</v>
+      </c>
+      <c r="G181" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>45745.875</v>
+      </c>
+      <c r="B182">
+        <v>5.593</v>
+      </c>
+      <c r="C182">
+        <v>0.2</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>85</v>
+      </c>
+      <c r="G182" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>45745.88541666666</v>
+      </c>
+      <c r="B183">
+        <v>5.062</v>
+      </c>
+      <c r="C183">
+        <v>0.063</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>86</v>
+      </c>
+      <c r="G183" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>45745.89583333334</v>
+      </c>
+      <c r="B184">
+        <v>1.31</v>
+      </c>
+      <c r="C184">
+        <v>0.016</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>87</v>
+      </c>
+      <c r="G184" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>45745.90625</v>
+      </c>
+      <c r="B185">
+        <v>0.093</v>
+      </c>
+      <c r="C185">
+        <v>3.187</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>88</v>
+      </c>
+      <c r="G185" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>45745.91666666666</v>
+      </c>
+      <c r="B186">
+        <v>3.055</v>
+      </c>
+      <c r="C186">
+        <v>1.971</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>89</v>
+      </c>
+      <c r="G186" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>45745.92708333334</v>
+      </c>
+      <c r="B187">
+        <v>3.921</v>
+      </c>
+      <c r="C187">
+        <v>0.024</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>90</v>
+      </c>
+      <c r="G187" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>45745.9375</v>
+      </c>
+      <c r="B188">
+        <v>4.004</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>91</v>
+      </c>
+      <c r="G188" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>45745.94791666666</v>
+      </c>
+      <c r="B189">
+        <v>5.969</v>
+      </c>
+      <c r="C189">
+        <v>0.005</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>92</v>
+      </c>
+      <c r="G189" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>45745.95833333334</v>
+      </c>
+      <c r="B190">
+        <v>25.517</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>93</v>
+      </c>
+      <c r="G190" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>45745.96875</v>
+      </c>
+      <c r="B191">
+        <v>36.457</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>94</v>
+      </c>
+      <c r="G191" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>45745.97916666666</v>
+      </c>
+      <c r="B192">
+        <v>12.657</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>95</v>
+      </c>
+      <c r="G192" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>45745.98958333334</v>
+      </c>
+      <c r="B193">
+        <v>0.189</v>
+      </c>
+      <c r="C193">
+        <v>0.167</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>96</v>
+      </c>
+      <c r="G193" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>45746</v>
+      </c>
+      <c r="B194">
+        <v>21.219</v>
+      </c>
+      <c r="C194">
+        <v>0.004</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>45746.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>16.154</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>45746.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>14.501</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+      <c r="G196" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>45746.03125</v>
+      </c>
+      <c r="B197">
+        <v>15.776</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="G197" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>45746.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>22.504</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>5</v>
+      </c>
+      <c r="G198" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>45746.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>21.863</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>6</v>
+      </c>
+      <c r="G199" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>45746.0625</v>
+      </c>
+      <c r="B200">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>7</v>
+      </c>
+      <c r="G200" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>45746.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>2.584</v>
+      </c>
+      <c r="C201">
+        <v>0.099</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>8</v>
+      </c>
+      <c r="G201" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>45746.125</v>
+      </c>
+      <c r="B202">
+        <v>13.732</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>9</v>
+      </c>
+      <c r="G202" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
+        <v>45746.13541666666</v>
+      </c>
+      <c r="B203">
+        <v>2.926</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
+        <v>45746.14583333334</v>
+      </c>
+      <c r="B204">
+        <v>0.215</v>
+      </c>
+      <c r="C204">
+        <v>0.098</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>11</v>
+      </c>
+      <c r="G204" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
+        <v>45746.15625</v>
+      </c>
+      <c r="B205">
+        <v>0.741</v>
+      </c>
+      <c r="C205">
+        <v>0.06</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
+        <v>45746.16666666666</v>
+      </c>
+      <c r="B206">
+        <v>4.396</v>
+      </c>
+      <c r="C206">
+        <v>0.062</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>13</v>
+      </c>
+      <c r="G206" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
+        <v>45746.17708333334</v>
+      </c>
+      <c r="B207">
+        <v>4.108</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>14</v>
+      </c>
+      <c r="G207" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
+        <v>45746.1875</v>
+      </c>
+      <c r="B208">
+        <v>4.443</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>15</v>
+      </c>
+      <c r="G208" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
+        <v>45746.19791666666</v>
+      </c>
+      <c r="B209">
+        <v>2.158</v>
+      </c>
+      <c r="C209">
+        <v>0.193</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>16</v>
+      </c>
+      <c r="G209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
+        <v>45746.20833333334</v>
+      </c>
+      <c r="B210">
+        <v>0.073</v>
+      </c>
+      <c r="C210">
+        <v>3.525</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>17</v>
+      </c>
+      <c r="G210" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>45746.21875</v>
+      </c>
+      <c r="B211">
+        <v>9.587</v>
+      </c>
+      <c r="C211">
+        <v>0.006</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>18</v>
+      </c>
+      <c r="G211" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
+        <v>45746.22916666666</v>
+      </c>
+      <c r="B212">
+        <v>9.428000000000001</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>19</v>
+      </c>
+      <c r="G212" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
+        <v>45746.23958333334</v>
+      </c>
+      <c r="B213">
+        <v>5.692</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>20</v>
+      </c>
+      <c r="G213" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
+        <v>45746.25</v>
+      </c>
+      <c r="B214">
+        <v>7.012</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>21</v>
+      </c>
+      <c r="G214" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
+        <v>45746.26041666666</v>
+      </c>
+      <c r="B215">
+        <v>16.578</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
+        <v>45746.27083333334</v>
+      </c>
+      <c r="B216">
+        <v>11.214</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>23</v>
+      </c>
+      <c r="G216" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
+        <v>45746.28125</v>
+      </c>
+      <c r="B217">
+        <v>1.203</v>
+      </c>
+      <c r="C217">
+        <v>0.089</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>45746.29166666666</v>
+      </c>
+      <c r="B218">
+        <v>1.236</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>45746.30208333334</v>
+      </c>
+      <c r="B219">
+        <v>0.123</v>
+      </c>
+      <c r="C219">
+        <v>0.093</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>26</v>
+      </c>
+      <c r="G219" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
+        <v>45746.3125</v>
+      </c>
+      <c r="B220">
+        <v>0.196</v>
+      </c>
+      <c r="C220">
+        <v>0.168</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>27</v>
+      </c>
+      <c r="G220" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
+        <v>45746.32291666666</v>
+      </c>
+      <c r="B221">
+        <v>0.16</v>
+      </c>
+      <c r="C221">
+        <v>0.112</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
+        <v>45746.33333333334</v>
+      </c>
+      <c r="B222">
+        <v>11.648</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>29</v>
+      </c>
+      <c r="G222" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
+        <v>45746.34375</v>
+      </c>
+      <c r="B223">
+        <v>11.69</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>30</v>
+      </c>
+      <c r="G223" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
+        <v>45746.35416666666</v>
+      </c>
+      <c r="B224">
+        <v>4.138</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>31</v>
+      </c>
+      <c r="G224" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="2">
+        <v>45746.36458333334</v>
+      </c>
+      <c r="B225">
+        <v>0.241</v>
+      </c>
+      <c r="C225">
+        <v>0.079</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>32</v>
+      </c>
+      <c r="G225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="2">
+        <v>45746.375</v>
+      </c>
+      <c r="B226">
+        <v>7.63</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>33</v>
+      </c>
+      <c r="G226" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
+        <v>45746.38541666666</v>
+      </c>
+      <c r="B227">
+        <v>2.375</v>
+      </c>
+      <c r="C227">
+        <v>0.012</v>
+      </c>
+      <c r="D227">
+        <v>35</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>34</v>
+      </c>
+      <c r="G227" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
+        <v>45746.39583333334</v>
+      </c>
+      <c r="B228">
+        <v>1.784</v>
+      </c>
+      <c r="C228">
+        <v>0.03</v>
+      </c>
+      <c r="D228">
+        <v>52.5</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>35</v>
+      </c>
+      <c r="G228" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
+        <v>45746.40625</v>
+      </c>
+      <c r="B229">
+        <v>0.089</v>
+      </c>
+      <c r="C229">
+        <v>0.299</v>
+      </c>
+      <c r="D229">
+        <v>62.5</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>36</v>
+      </c>
+      <c r="G229" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
+        <v>45746.41666666666</v>
+      </c>
+      <c r="B230">
+        <v>0.463</v>
+      </c>
+      <c r="C230">
+        <v>0.023</v>
+      </c>
+      <c r="D230">
+        <v>62.5</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>37</v>
+      </c>
+      <c r="G230" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="2">
+        <v>45746.42708333334</v>
+      </c>
+      <c r="B231">
+        <v>0.273</v>
+      </c>
+      <c r="C231">
+        <v>0.225</v>
+      </c>
+      <c r="D231">
+        <v>62.5</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>38</v>
+      </c>
+      <c r="G231" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
+        <v>45746.4375</v>
+      </c>
+      <c r="B232">
+        <v>0.024</v>
+      </c>
+      <c r="C232">
+        <v>0.34</v>
+      </c>
+      <c r="D232">
+        <v>79</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>39</v>
+      </c>
+      <c r="G232" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
+        <v>45746.44791666666</v>
+      </c>
+      <c r="B233">
+        <v>0.02</v>
+      </c>
+      <c r="C233">
+        <v>17.056</v>
+      </c>
+      <c r="D233">
+        <v>79</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>40</v>
+      </c>
+      <c r="G233" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="2">
+        <v>45746.45833333334</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>26.553</v>
+      </c>
+      <c r="D234">
+        <v>79</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>41</v>
+      </c>
+      <c r="G234" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="2">
+        <v>45746.46875</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>30.371</v>
+      </c>
+      <c r="D235">
+        <v>75</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>42</v>
+      </c>
+      <c r="G235" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="2">
+        <v>45746.47916666666</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>39.595</v>
+      </c>
+      <c r="D236">
+        <v>35</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>43</v>
+      </c>
+      <c r="G236" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="2">
+        <v>45746.48958333334</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>21.619</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>44</v>
+      </c>
+      <c r="G237" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>45746.5</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>9.038</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>45</v>
+      </c>
+      <c r="G238" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2">
+        <v>45746.51041666666</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>10.568</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>46</v>
+      </c>
+      <c r="G239" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="2">
+        <v>45746.52083333334</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>2.687</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>47</v>
+      </c>
+      <c r="G240" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="2">
+        <v>45746.53125</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>17.936</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>48</v>
+      </c>
+      <c r="G241" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="2">
+        <v>45746.54166666666</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>7.429</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>49</v>
+      </c>
+      <c r="G242" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="2">
+        <v>45746.55208333334</v>
+      </c>
+      <c r="B243">
+        <v>0.015</v>
+      </c>
+      <c r="C243">
+        <v>3.101</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>50</v>
+      </c>
+      <c r="G243" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="2">
+        <v>45746.5625</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>4.54</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>51</v>
+      </c>
+      <c r="G244" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="2">
+        <v>45746.57291666666</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>2.799</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>52</v>
+      </c>
+      <c r="G245" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="2">
+        <v>45746.58333333334</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>16.414</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>53</v>
+      </c>
+      <c r="G246" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="2">
+        <v>45746.59375</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>2.024</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>54</v>
+      </c>
+      <c r="G247" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="2">
+        <v>45746.60416666666</v>
+      </c>
+      <c r="B248">
+        <v>0.109</v>
+      </c>
+      <c r="C248">
+        <v>0.661</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>55</v>
+      </c>
+      <c r="G248" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="2">
+        <v>45746.61458333334</v>
+      </c>
+      <c r="B249">
+        <v>0.098</v>
+      </c>
+      <c r="C249">
+        <v>0.157</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>56</v>
+      </c>
+      <c r="G249" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="2">
+        <v>45746.625</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>18.011</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>57</v>
+      </c>
+      <c r="G250" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="2">
+        <v>45746.63541666666</v>
+      </c>
+      <c r="B251">
+        <v>0.1</v>
+      </c>
+      <c r="C251">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>58</v>
+      </c>
+      <c r="G251" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="2">
+        <v>45746.64583333334</v>
+      </c>
+      <c r="B252">
+        <v>0.452</v>
+      </c>
+      <c r="C252">
+        <v>0.004</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>59</v>
+      </c>
+      <c r="G252" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="2">
+        <v>45746.65625</v>
+      </c>
+      <c r="B253">
+        <v>1.137</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>60</v>
+      </c>
+      <c r="G253" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="2">
+        <v>45746.66666666666</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>20.269</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>61</v>
+      </c>
+      <c r="G254" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="2">
+        <v>45746.67708333334</v>
+      </c>
+      <c r="B255">
+        <v>0.191</v>
+      </c>
+      <c r="C255">
+        <v>4.956</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>62</v>
+      </c>
+      <c r="G255" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="2">
+        <v>45746.6875</v>
+      </c>
+      <c r="B256">
+        <v>7.634</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>63</v>
+      </c>
+      <c r="G256" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="2">
+        <v>45746.69791666666</v>
+      </c>
+      <c r="B257">
+        <v>13.81</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>64</v>
+      </c>
+      <c r="G257" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="2">
+        <v>45746.70833333334</v>
+      </c>
+      <c r="B258">
+        <v>0.065</v>
+      </c>
+      <c r="C258">
+        <v>38.197</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>65</v>
+      </c>
+      <c r="G258" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="2">
+        <v>45746.71875</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>44.656</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>66</v>
+      </c>
+      <c r="G259" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="2">
+        <v>45746.72916666666</v>
+      </c>
+      <c r="B260">
+        <v>0.047</v>
+      </c>
+      <c r="C260">
+        <v>11.195</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>67</v>
+      </c>
+      <c r="G260" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="2">
+        <v>45746.73958333334</v>
+      </c>
+      <c r="B261">
+        <v>1.891</v>
+      </c>
+      <c r="C261">
+        <v>0.04</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>68</v>
+      </c>
+      <c r="G261" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="2">
+        <v>45746.75</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>32.751</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>69</v>
+      </c>
+      <c r="G262" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="2">
+        <v>45746.76041666666</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>13.824</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>70</v>
+      </c>
+      <c r="G263" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="2">
+        <v>45746.77083333334</v>
+      </c>
+      <c r="B264">
+        <v>0.254</v>
+      </c>
+      <c r="C264">
+        <v>1.92</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>71</v>
+      </c>
+      <c r="G264" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="2">
+        <v>45746.78125</v>
+      </c>
+      <c r="B265">
+        <v>1.966</v>
+      </c>
+      <c r="C265">
+        <v>0.038</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>72</v>
+      </c>
+      <c r="G265" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="2">
+        <v>45746.79166666666</v>
+      </c>
+      <c r="B266">
+        <v>3.142</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>73</v>
+      </c>
+      <c r="G266" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="2">
+        <v>45746.80208333334</v>
+      </c>
+      <c r="B267">
+        <v>15.621</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>74</v>
+      </c>
+      <c r="G267" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="2">
+        <v>45746.8125</v>
+      </c>
+      <c r="B268">
+        <v>25.951</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>25</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>75</v>
+      </c>
+      <c r="G268" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="2">
+        <v>45746.82291666666</v>
+      </c>
+      <c r="B269">
+        <v>21.075</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>37.5</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>76</v>
+      </c>
+      <c r="G269" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="2">
+        <v>45746.83333333334</v>
+      </c>
+      <c r="B270">
+        <v>16.449</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>77</v>
+      </c>
+      <c r="G270" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="2">
+        <v>45746.84375</v>
+      </c>
+      <c r="B271">
+        <v>23.654</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>78</v>
+      </c>
+      <c r="G271" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="2">
+        <v>45746.85416666666</v>
+      </c>
+      <c r="B272">
+        <v>27.061</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>79</v>
+      </c>
+      <c r="G272" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="2">
+        <v>45746.86458333334</v>
+      </c>
+      <c r="B273">
+        <v>24.79</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>80</v>
+      </c>
+      <c r="G273" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="2">
+        <v>45746.875</v>
+      </c>
+      <c r="B274">
+        <v>38.753</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>81</v>
+      </c>
+      <c r="G274" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="2">
+        <v>45746.88541666666</v>
+      </c>
+      <c r="B275">
+        <v>3.464</v>
+      </c>
+      <c r="C275">
+        <v>0.095</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>82</v>
+      </c>
+      <c r="G275" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="2">
+        <v>45746.89583333334</v>
+      </c>
+      <c r="B276">
+        <v>0.488</v>
+      </c>
+      <c r="C276">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>83</v>
+      </c>
+      <c r="G276" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="2">
+        <v>45746.90625</v>
+      </c>
+      <c r="B277">
+        <v>0.236</v>
+      </c>
+      <c r="C277">
+        <v>0.143</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>84</v>
+      </c>
+      <c r="G277" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="2">
+        <v>45746.91666666666</v>
+      </c>
+      <c r="B278">
+        <v>21.634</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>85</v>
+      </c>
+      <c r="G278" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="2">
+        <v>45746.92708333334</v>
+      </c>
+      <c r="B279">
+        <v>2.211</v>
+      </c>
+      <c r="C279">
+        <v>0.065</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>86</v>
+      </c>
+      <c r="G279" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="2">
+        <v>45746.9375</v>
+      </c>
+      <c r="B280">
+        <v>0.128</v>
+      </c>
+      <c r="C280">
+        <v>0.143</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>87</v>
+      </c>
+      <c r="G280" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="2">
+        <v>45746.94791666666</v>
+      </c>
+      <c r="B281">
+        <v>0.033</v>
+      </c>
+      <c r="C281">
+        <v>0.219</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>88</v>
+      </c>
+      <c r="G281" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="2">
+        <v>45746.95833333334</v>
+      </c>
+      <c r="B282">
+        <v>9.708</v>
+      </c>
+      <c r="C282">
+        <v>0.005</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>89</v>
+      </c>
+      <c r="G282" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="2">
+        <v>45746.96875</v>
+      </c>
+      <c r="B283">
+        <v>4.898</v>
+      </c>
+      <c r="C283">
+        <v>0.858</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>90</v>
+      </c>
+      <c r="G283" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="2">
+        <v>45746.97916666666</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0.276</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>91</v>
+      </c>
+      <c r="G284" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="2">
+        <v>45746.98958333334</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>6.209</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>92</v>
+      </c>
+      <c r="G285" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B286">
+        <v>0.614</v>
+      </c>
+      <c r="C286">
+        <v>4.72</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>93</v>
+      </c>
+      <c r="G286" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="2">
+        <v>45747.01041666666</v>
+      </c>
+      <c r="B287">
+        <v>0.671</v>
+      </c>
+      <c r="C287">
+        <v>0.152</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>94</v>
+      </c>
+      <c r="G287" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="2">
+        <v>45747.02083333334</v>
+      </c>
+      <c r="B288">
+        <v>0.04</v>
+      </c>
+      <c r="C288">
+        <v>0.527</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>95</v>
+      </c>
+      <c r="G288" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="2">
+        <v>45747.03125</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>4.518</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>96</v>
+      </c>
+      <c r="G289" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="2">
+        <v>45747.04166666666</v>
+      </c>
+      <c r="B290">
+        <v>1.054</v>
+      </c>
+      <c r="C290">
+        <v>0.202</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="2">
+        <v>45747.05208333334</v>
+      </c>
+      <c r="B291">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="C291">
+        <v>0.715</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
+      </c>
+      <c r="G291" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="2">
+        <v>45747.0625</v>
+      </c>
+      <c r="B292">
+        <v>1.156</v>
+      </c>
+      <c r="C292">
+        <v>0.025</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>3</v>
+      </c>
+      <c r="G292" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="2">
+        <v>45747.07291666666</v>
+      </c>
+      <c r="B293">
+        <v>0.3</v>
+      </c>
+      <c r="C293">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>4</v>
+      </c>
+      <c r="G293" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="2">
+        <v>45747.08333333334</v>
+      </c>
+      <c r="B294">
+        <v>0.416</v>
+      </c>
+      <c r="C294">
+        <v>0.059</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>5</v>
+      </c>
+      <c r="G294" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="2">
+        <v>45747.09375</v>
+      </c>
+      <c r="B295">
+        <v>0.021</v>
+      </c>
+      <c r="C295">
+        <v>0.68</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>6</v>
+      </c>
+      <c r="G295" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="2">
+        <v>45747.10416666666</v>
+      </c>
+      <c r="B296">
+        <v>0.114</v>
+      </c>
+      <c r="C296">
+        <v>0.295</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>7</v>
+      </c>
+      <c r="G296" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="2">
+        <v>45747.11458333334</v>
+      </c>
+      <c r="B297">
+        <v>0.111</v>
+      </c>
+      <c r="C297">
+        <v>0.1</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>8</v>
+      </c>
+      <c r="G297" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="2">
+        <v>45747.125</v>
+      </c>
+      <c r="B298">
+        <v>0.134</v>
+      </c>
+      <c r="C298">
+        <v>0.275</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>9</v>
+      </c>
+      <c r="G298" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="2">
+        <v>45747.13541666666</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0.703</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>10</v>
+      </c>
+      <c r="G299" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="2">
+        <v>45747.14583333334</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>9.914</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>11</v>
+      </c>
+      <c r="G300" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="2">
+        <v>45747.15625</v>
+      </c>
+      <c r="B301">
+        <v>0.01</v>
+      </c>
+      <c r="C301">
+        <v>9.432</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>12</v>
+      </c>
+      <c r="G301" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="2">
+        <v>45747.16666666666</v>
+      </c>
+      <c r="B302">
+        <v>0.005</v>
+      </c>
+      <c r="C302">
+        <v>12.389</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>13</v>
+      </c>
+      <c r="G302" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="2">
+        <v>45747.17708333334</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>4.543</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>14</v>
+      </c>
+      <c r="G303" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="2">
+        <v>45747.1875</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>9.473000000000001</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>15</v>
+      </c>
+      <c r="G304" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="2">
+        <v>45747.19791666666</v>
+      </c>
+      <c r="B305">
+        <v>0.081</v>
+      </c>
+      <c r="C305">
+        <v>2.282</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>16</v>
+      </c>
+      <c r="G305" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="2">
+        <v>45747.20833333334</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>18.386</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>17</v>
+      </c>
+      <c r="G306" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="2">
+        <v>45747.21875</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>8.023</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>18</v>
+      </c>
+      <c r="G307" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="2">
+        <v>45747.22916666666</v>
+      </c>
+      <c r="B308">
+        <v>0.76</v>
+      </c>
+      <c r="C308">
+        <v>2.761</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>19</v>
+      </c>
+      <c r="G308" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="2">
+        <v>45747.23958333334</v>
+      </c>
+      <c r="B309">
+        <v>8.532999999999999</v>
+      </c>
+      <c r="C309">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>20</v>
+      </c>
+      <c r="G309" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="2">
+        <v>45747.25</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>29.204</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>21</v>
+      </c>
+      <c r="G310" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="2">
+        <v>45747.26041666666</v>
+      </c>
+      <c r="B311">
+        <v>1.286</v>
+      </c>
+      <c r="C311">
+        <v>0.294</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>22</v>
+      </c>
+      <c r="G311" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="2">
+        <v>45747.27083333334</v>
+      </c>
+      <c r="B312">
+        <v>0.594</v>
+      </c>
+      <c r="C312">
+        <v>0.073</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>23</v>
+      </c>
+      <c r="G312" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="2">
+        <v>45747.28125</v>
+      </c>
+      <c r="B313">
+        <v>7.439</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>24</v>
+      </c>
+      <c r="G313" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="2">
+        <v>45747.29166666666</v>
+      </c>
+      <c r="B314">
+        <v>11.32</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>25</v>
+      </c>
+      <c r="G314" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="2">
+        <v>45747.30208333334</v>
+      </c>
+      <c r="B315">
+        <v>19.646</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>26</v>
+      </c>
+      <c r="G315" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="2">
+        <v>45747.3125</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>27</v>
+      </c>
+      <c r="G316" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="2">
+        <v>45747.32291666666</v>
+      </c>
+      <c r="B317">
+        <v>13.844</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>28</v>
+      </c>
+      <c r="G317" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="2">
+        <v>45747.33333333334</v>
+      </c>
+      <c r="B318">
+        <v>42.397</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>29</v>
+      </c>
+      <c r="G318" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="2">
+        <v>45747.34375</v>
+      </c>
+      <c r="B319">
+        <v>29.254</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>37.5</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>30</v>
+      </c>
+      <c r="G319" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="2">
+        <v>45747.35416666666</v>
+      </c>
+      <c r="B320">
+        <v>10.431</v>
+      </c>
+      <c r="C320">
+        <v>0.216</v>
+      </c>
+      <c r="D320">
+        <v>37.5</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>31</v>
+      </c>
+      <c r="G320" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="2">
+        <v>45747.36458333334</v>
+      </c>
+      <c r="B321">
+        <v>0.015</v>
+      </c>
+      <c r="C321">
+        <v>1.886</v>
+      </c>
+      <c r="D321">
+        <v>37.5</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>32</v>
+      </c>
+      <c r="G321" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="2">
+        <v>45747.375</v>
+      </c>
+      <c r="B322">
+        <v>18.551</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>29</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>33</v>
+      </c>
+      <c r="G322" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="2">
+        <v>45747.38541666666</v>
+      </c>
+      <c r="B323">
+        <v>0.551</v>
+      </c>
+      <c r="C323">
+        <v>0.133</v>
+      </c>
+      <c r="D323">
+        <v>29</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>34</v>
+      </c>
+      <c r="G323" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="2">
+        <v>45747.39583333334</v>
+      </c>
+      <c r="B324">
+        <v>0.006</v>
+      </c>
+      <c r="C324">
+        <v>22.872</v>
+      </c>
+      <c r="D324">
+        <v>29</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>35</v>
+      </c>
+      <c r="G324" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="2">
+        <v>45747.40625</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>44.142</v>
+      </c>
+      <c r="D325">
+        <v>18.75</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>36</v>
+      </c>
+      <c r="G325" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -37,406 +37,406 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>03.04.20251</t>
-  </si>
-  <si>
-    <t>03.04.20252</t>
-  </si>
-  <si>
-    <t>03.04.20253</t>
-  </si>
-  <si>
-    <t>03.04.20254</t>
-  </si>
-  <si>
-    <t>03.04.20255</t>
-  </si>
-  <si>
-    <t>03.04.20256</t>
-  </si>
-  <si>
-    <t>03.04.20257</t>
-  </si>
-  <si>
-    <t>03.04.20258</t>
-  </si>
-  <si>
-    <t>03.04.20259</t>
-  </si>
-  <si>
-    <t>03.04.202510</t>
-  </si>
-  <si>
-    <t>03.04.202511</t>
-  </si>
-  <si>
-    <t>03.04.202512</t>
-  </si>
-  <si>
-    <t>03.04.202513</t>
-  </si>
-  <si>
-    <t>03.04.202514</t>
-  </si>
-  <si>
-    <t>03.04.202515</t>
-  </si>
-  <si>
-    <t>03.04.202516</t>
-  </si>
-  <si>
-    <t>03.04.202517</t>
-  </si>
-  <si>
-    <t>03.04.202518</t>
-  </si>
-  <si>
-    <t>03.04.202519</t>
-  </si>
-  <si>
-    <t>03.04.202520</t>
-  </si>
-  <si>
-    <t>03.04.202521</t>
-  </si>
-  <si>
-    <t>03.04.202522</t>
-  </si>
-  <si>
-    <t>03.04.202523</t>
-  </si>
-  <si>
-    <t>03.04.202524</t>
-  </si>
-  <si>
-    <t>03.04.202525</t>
-  </si>
-  <si>
-    <t>03.04.202526</t>
-  </si>
-  <si>
-    <t>03.04.202527</t>
-  </si>
-  <si>
-    <t>03.04.202528</t>
-  </si>
-  <si>
-    <t>03.04.202529</t>
-  </si>
-  <si>
-    <t>03.04.202530</t>
-  </si>
-  <si>
-    <t>03.04.202531</t>
-  </si>
-  <si>
-    <t>03.04.202532</t>
-  </si>
-  <si>
-    <t>03.04.202533</t>
-  </si>
-  <si>
-    <t>03.04.202534</t>
-  </si>
-  <si>
-    <t>03.04.202535</t>
-  </si>
-  <si>
-    <t>03.04.202536</t>
-  </si>
-  <si>
-    <t>03.04.202537</t>
-  </si>
-  <si>
-    <t>03.04.202538</t>
-  </si>
-  <si>
-    <t>03.04.202539</t>
-  </si>
-  <si>
-    <t>03.04.202540</t>
-  </si>
-  <si>
-    <t>03.04.202541</t>
-  </si>
-  <si>
-    <t>03.04.202542</t>
-  </si>
-  <si>
-    <t>03.04.202543</t>
-  </si>
-  <si>
-    <t>03.04.202544</t>
-  </si>
-  <si>
-    <t>03.04.202545</t>
-  </si>
-  <si>
-    <t>03.04.202546</t>
-  </si>
-  <si>
-    <t>03.04.202547</t>
-  </si>
-  <si>
-    <t>03.04.202548</t>
-  </si>
-  <si>
-    <t>03.04.202549</t>
-  </si>
-  <si>
-    <t>03.04.202550</t>
-  </si>
-  <si>
-    <t>03.04.202551</t>
-  </si>
-  <si>
-    <t>03.04.202552</t>
-  </si>
-  <si>
-    <t>03.04.202553</t>
-  </si>
-  <si>
-    <t>03.04.202554</t>
-  </si>
-  <si>
-    <t>03.04.202555</t>
-  </si>
-  <si>
-    <t>03.04.202556</t>
-  </si>
-  <si>
-    <t>03.04.202557</t>
-  </si>
-  <si>
-    <t>03.04.202558</t>
-  </si>
-  <si>
-    <t>03.04.202559</t>
-  </si>
-  <si>
-    <t>03.04.202560</t>
-  </si>
-  <si>
-    <t>03.04.202561</t>
-  </si>
-  <si>
-    <t>03.04.202562</t>
-  </si>
-  <si>
-    <t>03.04.202563</t>
-  </si>
-  <si>
-    <t>03.04.202564</t>
-  </si>
-  <si>
-    <t>03.04.202565</t>
-  </si>
-  <si>
-    <t>03.04.202566</t>
-  </si>
-  <si>
-    <t>03.04.202567</t>
-  </si>
-  <si>
-    <t>03.04.202568</t>
-  </si>
-  <si>
-    <t>03.04.202569</t>
-  </si>
-  <si>
-    <t>03.04.202570</t>
-  </si>
-  <si>
-    <t>03.04.202571</t>
-  </si>
-  <si>
-    <t>03.04.202572</t>
-  </si>
-  <si>
-    <t>03.04.202573</t>
-  </si>
-  <si>
-    <t>03.04.202574</t>
-  </si>
-  <si>
-    <t>03.04.202575</t>
-  </si>
-  <si>
-    <t>03.04.202576</t>
-  </si>
-  <si>
-    <t>03.04.202577</t>
-  </si>
-  <si>
-    <t>03.04.202578</t>
-  </si>
-  <si>
-    <t>03.04.202579</t>
-  </si>
-  <si>
-    <t>03.04.202580</t>
-  </si>
-  <si>
-    <t>03.04.202581</t>
-  </si>
-  <si>
-    <t>03.04.202582</t>
-  </si>
-  <si>
-    <t>03.04.202583</t>
-  </si>
-  <si>
-    <t>03.04.202584</t>
-  </si>
-  <si>
-    <t>03.04.202585</t>
-  </si>
-  <si>
-    <t>03.04.202586</t>
-  </si>
-  <si>
-    <t>03.04.202587</t>
-  </si>
-  <si>
-    <t>03.04.202588</t>
-  </si>
-  <si>
-    <t>03.04.202589</t>
-  </si>
-  <si>
-    <t>03.04.202590</t>
-  </si>
-  <si>
-    <t>03.04.202591</t>
-  </si>
-  <si>
-    <t>03.04.202592</t>
-  </si>
-  <si>
-    <t>03.04.202593</t>
-  </si>
-  <si>
-    <t>03.04.202594</t>
-  </si>
-  <si>
-    <t>03.04.202595</t>
-  </si>
-  <si>
-    <t>03.04.202596</t>
-  </si>
-  <si>
-    <t>04.04.20251</t>
-  </si>
-  <si>
-    <t>04.04.20252</t>
-  </si>
-  <si>
-    <t>04.04.20253</t>
-  </si>
-  <si>
-    <t>04.04.20254</t>
-  </si>
-  <si>
-    <t>04.04.20255</t>
-  </si>
-  <si>
-    <t>04.04.20256</t>
-  </si>
-  <si>
-    <t>04.04.20257</t>
-  </si>
-  <si>
-    <t>04.04.20258</t>
-  </si>
-  <si>
-    <t>04.04.20259</t>
-  </si>
-  <si>
-    <t>04.04.202510</t>
-  </si>
-  <si>
-    <t>04.04.202511</t>
-  </si>
-  <si>
-    <t>04.04.202512</t>
-  </si>
-  <si>
-    <t>04.04.202513</t>
-  </si>
-  <si>
-    <t>04.04.202514</t>
-  </si>
-  <si>
-    <t>04.04.202515</t>
-  </si>
-  <si>
-    <t>04.04.202516</t>
-  </si>
-  <si>
-    <t>04.04.202517</t>
-  </si>
-  <si>
-    <t>04.04.202518</t>
-  </si>
-  <si>
-    <t>04.04.202519</t>
-  </si>
-  <si>
-    <t>04.04.202520</t>
-  </si>
-  <si>
-    <t>04.04.202521</t>
-  </si>
-  <si>
-    <t>04.04.202522</t>
-  </si>
-  <si>
-    <t>04.04.202523</t>
-  </si>
-  <si>
-    <t>04.04.202524</t>
-  </si>
-  <si>
-    <t>04.04.202525</t>
-  </si>
-  <si>
-    <t>04.04.202526</t>
-  </si>
-  <si>
-    <t>04.04.202527</t>
-  </si>
-  <si>
-    <t>04.04.202528</t>
-  </si>
-  <si>
-    <t>04.04.202529</t>
-  </si>
-  <si>
-    <t>04.04.202530</t>
-  </si>
-  <si>
-    <t>04.04.202531</t>
-  </si>
-  <si>
-    <t>04.04.202532</t>
-  </si>
-  <si>
-    <t>04.04.202533</t>
-  </si>
-  <si>
-    <t>04.04.202534</t>
-  </si>
-  <si>
-    <t>04.04.202535</t>
-  </si>
-  <si>
-    <t>04.04.202536</t>
-  </si>
-  <si>
-    <t>04.04.202537</t>
-  </si>
-  <si>
-    <t>04.04.202538</t>
+    <t>10.04.20251</t>
+  </si>
+  <si>
+    <t>10.04.20252</t>
+  </si>
+  <si>
+    <t>10.04.20253</t>
+  </si>
+  <si>
+    <t>10.04.20254</t>
+  </si>
+  <si>
+    <t>10.04.20255</t>
+  </si>
+  <si>
+    <t>10.04.20256</t>
+  </si>
+  <si>
+    <t>10.04.20257</t>
+  </si>
+  <si>
+    <t>10.04.20258</t>
+  </si>
+  <si>
+    <t>10.04.20259</t>
+  </si>
+  <si>
+    <t>10.04.202510</t>
+  </si>
+  <si>
+    <t>10.04.202511</t>
+  </si>
+  <si>
+    <t>10.04.202512</t>
+  </si>
+  <si>
+    <t>10.04.202513</t>
+  </si>
+  <si>
+    <t>10.04.202514</t>
+  </si>
+  <si>
+    <t>10.04.202515</t>
+  </si>
+  <si>
+    <t>10.04.202516</t>
+  </si>
+  <si>
+    <t>10.04.202517</t>
+  </si>
+  <si>
+    <t>10.04.202518</t>
+  </si>
+  <si>
+    <t>10.04.202519</t>
+  </si>
+  <si>
+    <t>10.04.202520</t>
+  </si>
+  <si>
+    <t>10.04.202521</t>
+  </si>
+  <si>
+    <t>10.04.202522</t>
+  </si>
+  <si>
+    <t>10.04.202523</t>
+  </si>
+  <si>
+    <t>10.04.202524</t>
+  </si>
+  <si>
+    <t>10.04.202525</t>
+  </si>
+  <si>
+    <t>10.04.202526</t>
+  </si>
+  <si>
+    <t>10.04.202527</t>
+  </si>
+  <si>
+    <t>10.04.202528</t>
+  </si>
+  <si>
+    <t>10.04.202529</t>
+  </si>
+  <si>
+    <t>10.04.202530</t>
+  </si>
+  <si>
+    <t>10.04.202531</t>
+  </si>
+  <si>
+    <t>10.04.202532</t>
+  </si>
+  <si>
+    <t>10.04.202533</t>
+  </si>
+  <si>
+    <t>10.04.202534</t>
+  </si>
+  <si>
+    <t>10.04.202535</t>
+  </si>
+  <si>
+    <t>10.04.202536</t>
+  </si>
+  <si>
+    <t>10.04.202537</t>
+  </si>
+  <si>
+    <t>10.04.202538</t>
+  </si>
+  <si>
+    <t>10.04.202539</t>
+  </si>
+  <si>
+    <t>10.04.202540</t>
+  </si>
+  <si>
+    <t>10.04.202541</t>
+  </si>
+  <si>
+    <t>10.04.202542</t>
+  </si>
+  <si>
+    <t>10.04.202543</t>
+  </si>
+  <si>
+    <t>10.04.202544</t>
+  </si>
+  <si>
+    <t>10.04.202545</t>
+  </si>
+  <si>
+    <t>10.04.202546</t>
+  </si>
+  <si>
+    <t>10.04.202547</t>
+  </si>
+  <si>
+    <t>10.04.202548</t>
+  </si>
+  <si>
+    <t>10.04.202549</t>
+  </si>
+  <si>
+    <t>10.04.202550</t>
+  </si>
+  <si>
+    <t>10.04.202551</t>
+  </si>
+  <si>
+    <t>10.04.202552</t>
+  </si>
+  <si>
+    <t>10.04.202553</t>
+  </si>
+  <si>
+    <t>10.04.202554</t>
+  </si>
+  <si>
+    <t>10.04.202555</t>
+  </si>
+  <si>
+    <t>10.04.202556</t>
+  </si>
+  <si>
+    <t>10.04.202557</t>
+  </si>
+  <si>
+    <t>10.04.202558</t>
+  </si>
+  <si>
+    <t>10.04.202559</t>
+  </si>
+  <si>
+    <t>10.04.202560</t>
+  </si>
+  <si>
+    <t>10.04.202561</t>
+  </si>
+  <si>
+    <t>10.04.202562</t>
+  </si>
+  <si>
+    <t>10.04.202563</t>
+  </si>
+  <si>
+    <t>10.04.202564</t>
+  </si>
+  <si>
+    <t>10.04.202565</t>
+  </si>
+  <si>
+    <t>10.04.202566</t>
+  </si>
+  <si>
+    <t>10.04.202567</t>
+  </si>
+  <si>
+    <t>10.04.202568</t>
+  </si>
+  <si>
+    <t>10.04.202569</t>
+  </si>
+  <si>
+    <t>10.04.202570</t>
+  </si>
+  <si>
+    <t>10.04.202571</t>
+  </si>
+  <si>
+    <t>10.04.202572</t>
+  </si>
+  <si>
+    <t>10.04.202573</t>
+  </si>
+  <si>
+    <t>10.04.202574</t>
+  </si>
+  <si>
+    <t>10.04.202575</t>
+  </si>
+  <si>
+    <t>10.04.202576</t>
+  </si>
+  <si>
+    <t>10.04.202577</t>
+  </si>
+  <si>
+    <t>10.04.202578</t>
+  </si>
+  <si>
+    <t>10.04.202579</t>
+  </si>
+  <si>
+    <t>10.04.202580</t>
+  </si>
+  <si>
+    <t>10.04.202581</t>
+  </si>
+  <si>
+    <t>10.04.202582</t>
+  </si>
+  <si>
+    <t>10.04.202583</t>
+  </si>
+  <si>
+    <t>10.04.202584</t>
+  </si>
+  <si>
+    <t>10.04.202585</t>
+  </si>
+  <si>
+    <t>10.04.202586</t>
+  </si>
+  <si>
+    <t>10.04.202587</t>
+  </si>
+  <si>
+    <t>10.04.202588</t>
+  </si>
+  <si>
+    <t>10.04.202589</t>
+  </si>
+  <si>
+    <t>10.04.202590</t>
+  </si>
+  <si>
+    <t>10.04.202591</t>
+  </si>
+  <si>
+    <t>10.04.202592</t>
+  </si>
+  <si>
+    <t>10.04.202593</t>
+  </si>
+  <si>
+    <t>10.04.202594</t>
+  </si>
+  <si>
+    <t>10.04.202595</t>
+  </si>
+  <si>
+    <t>10.04.202596</t>
+  </si>
+  <si>
+    <t>11.04.20251</t>
+  </si>
+  <si>
+    <t>11.04.20252</t>
+  </si>
+  <si>
+    <t>11.04.20253</t>
+  </si>
+  <si>
+    <t>11.04.20254</t>
+  </si>
+  <si>
+    <t>11.04.20255</t>
+  </si>
+  <si>
+    <t>11.04.20256</t>
+  </si>
+  <si>
+    <t>11.04.20257</t>
+  </si>
+  <si>
+    <t>11.04.20258</t>
+  </si>
+  <si>
+    <t>11.04.20259</t>
+  </si>
+  <si>
+    <t>11.04.202510</t>
+  </si>
+  <si>
+    <t>11.04.202511</t>
+  </si>
+  <si>
+    <t>11.04.202512</t>
+  </si>
+  <si>
+    <t>11.04.202513</t>
+  </si>
+  <si>
+    <t>11.04.202514</t>
+  </si>
+  <si>
+    <t>11.04.202515</t>
+  </si>
+  <si>
+    <t>11.04.202516</t>
+  </si>
+  <si>
+    <t>11.04.202517</t>
+  </si>
+  <si>
+    <t>11.04.202518</t>
+  </si>
+  <si>
+    <t>11.04.202519</t>
+  </si>
+  <si>
+    <t>11.04.202520</t>
+  </si>
+  <si>
+    <t>11.04.202521</t>
+  </si>
+  <si>
+    <t>11.04.202522</t>
+  </si>
+  <si>
+    <t>11.04.202523</t>
+  </si>
+  <si>
+    <t>11.04.202524</t>
+  </si>
+  <si>
+    <t>11.04.202525</t>
+  </si>
+  <si>
+    <t>11.04.202526</t>
+  </si>
+  <si>
+    <t>11.04.202527</t>
+  </si>
+  <si>
+    <t>11.04.202528</t>
+  </si>
+  <si>
+    <t>11.04.202529</t>
+  </si>
+  <si>
+    <t>11.04.202530</t>
+  </si>
+  <si>
+    <t>11.04.202531</t>
+  </si>
+  <si>
+    <t>11.04.202532</t>
+  </si>
+  <si>
+    <t>11.04.202533</t>
+  </si>
+  <si>
+    <t>11.04.202534</t>
+  </si>
+  <si>
+    <t>11.04.202535</t>
+  </si>
+  <si>
+    <t>11.04.202536</t>
+  </si>
+  <si>
+    <t>11.04.202537</t>
+  </si>
+  <si>
+    <t>11.04.202538</t>
   </si>
 </sst>
 </file>
@@ -829,13 +829,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45750</v>
+        <v>45757</v>
       </c>
       <c r="B2">
-        <v>38.647</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.006</v>
+        <v>7.47</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45750.01041666666</v>
+        <v>45757.01041666666</v>
       </c>
       <c r="B3">
-        <v>13.105</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>8.039</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -875,13 +875,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45750.02083333334</v>
+        <v>45757.02083333334</v>
       </c>
       <c r="B4">
-        <v>6.085</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5.878</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -898,13 +898,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45750.03125</v>
+        <v>45757.03125</v>
       </c>
       <c r="B5">
-        <v>2.7</v>
+        <v>0.028</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.189</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45750.04166666666</v>
+        <v>45757.04166666666</v>
       </c>
       <c r="B6">
-        <v>27.327</v>
+        <v>0.026</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.347</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -944,13 +944,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45750.05208333334</v>
+        <v>45757.05208333334</v>
       </c>
       <c r="B7">
-        <v>18.793</v>
+        <v>2.914</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45750.0625</v>
+        <v>45757.0625</v>
       </c>
       <c r="B8">
-        <v>9.686</v>
+        <v>0.201</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45750.07291666666</v>
+        <v>45757.07291666666</v>
       </c>
       <c r="B9">
-        <v>16.215</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>12.36</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1013,13 +1013,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45750.08333333334</v>
+        <v>45757.08333333334</v>
       </c>
       <c r="B10">
-        <v>29.478</v>
+        <v>0.013</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.963</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45750.09375</v>
+        <v>45757.09375</v>
       </c>
       <c r="B11">
-        <v>42.282</v>
+        <v>0.014</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.685</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45750.10416666666</v>
+        <v>45757.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.513</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45750.11458333334</v>
+        <v>45757.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45750.125</v>
+        <v>45757.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45750.13541666666</v>
+        <v>45757.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1151,13 +1151,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45750.14583333334</v>
+        <v>45757.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3.786</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45750.15625</v>
+        <v>45757.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>36.144</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45750.16666666666</v>
+        <v>45757.16666666666</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>8.064</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1220,13 +1220,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45750.17708333334</v>
+        <v>45757.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.017</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1243,13 +1243,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45750.1875</v>
+        <v>45757.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.794</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45750.19791666666</v>
+        <v>45757.19791666666</v>
       </c>
       <c r="B21">
-        <v>10.743</v>
+        <v>2.126</v>
       </c>
       <c r="C21">
-        <v>0.004</v>
+        <v>0.02</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45750.20833333334</v>
+        <v>45757.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.002</v>
+        <v>0.326</v>
       </c>
       <c r="C22">
-        <v>4.258</v>
+        <v>2.794</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45750.21875</v>
+        <v>45757.21875</v>
       </c>
       <c r="B23">
-        <v>0.254</v>
+        <v>2.003</v>
       </c>
       <c r="C23">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45750.22916666666</v>
+        <v>45757.22916666666</v>
       </c>
       <c r="B24">
-        <v>9.057</v>
+        <v>1.521</v>
       </c>
       <c r="C24">
-        <v>1.272</v>
+        <v>0.002</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1358,13 +1358,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45750.23958333334</v>
+        <v>45757.23958333334</v>
       </c>
       <c r="B25">
-        <v>42.62</v>
+        <v>10.393</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45750.25</v>
+        <v>45757.25</v>
       </c>
       <c r="B26">
-        <v>6.257</v>
+        <v>2.315</v>
       </c>
       <c r="C26">
-        <v>5.765</v>
+        <v>4.542</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45750.26041666666</v>
+        <v>45757.26041666666</v>
       </c>
       <c r="B27">
-        <v>20.678</v>
+        <v>2.349</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45750.27083333334</v>
+        <v>45757.27083333334</v>
       </c>
       <c r="B28">
-        <v>32.299</v>
+        <v>13.787</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45750.28125</v>
+        <v>45757.28125</v>
       </c>
       <c r="B29">
-        <v>40.946</v>
+        <v>19.455</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45750.29166666666</v>
+        <v>45757.29166666666</v>
       </c>
       <c r="B30">
-        <v>5.911</v>
+        <v>46.064</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1496,16 +1496,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45750.30208333334</v>
+        <v>45757.30208333334</v>
       </c>
       <c r="B31">
-        <v>3.967</v>
+        <v>33.293</v>
       </c>
       <c r="C31">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45750.3125</v>
+        <v>45757.3125</v>
       </c>
       <c r="B32">
-        <v>2.111</v>
+        <v>32.03</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1542,16 +1542,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45750.32291666666</v>
+        <v>45757.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.62</v>
+        <v>29.068</v>
       </c>
       <c r="C33">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1565,16 +1565,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45750.33333333334</v>
+        <v>45757.33333333334</v>
       </c>
       <c r="B34">
-        <v>30.601</v>
+        <v>50.104</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45750.34375</v>
+        <v>45757.34375</v>
       </c>
       <c r="B35">
-        <v>17.434</v>
+        <v>31.476</v>
       </c>
       <c r="C35">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>67.5</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45750.35416666666</v>
+        <v>45757.35416666666</v>
       </c>
       <c r="B36">
-        <v>2.233</v>
+        <v>10.852</v>
       </c>
       <c r="C36">
-        <v>0.041</v>
+        <v>0.001</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>67.5</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1634,16 +1634,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45750.36458333334</v>
+        <v>45757.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.197</v>
+        <v>0.175</v>
       </c>
       <c r="C37">
-        <v>0.364</v>
+        <v>0.947</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>67.5</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45750.375</v>
+        <v>45757.375</v>
       </c>
       <c r="B38">
-        <v>43.639</v>
+        <v>46.939</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45750.38541666666</v>
+        <v>45757.38541666666</v>
       </c>
       <c r="B39">
-        <v>14.559</v>
+        <v>32.942</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1703,16 +1703,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45750.39583333334</v>
+        <v>45757.39583333334</v>
       </c>
       <c r="B40">
-        <v>3.624</v>
+        <v>11.377</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1726,16 +1726,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45750.40625</v>
+        <v>45757.40625</v>
       </c>
       <c r="B41">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.346</v>
+        <v>12.715</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1749,16 +1749,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45750.41666666666</v>
+        <v>45757.41666666666</v>
       </c>
       <c r="B42">
-        <v>35.674</v>
+        <v>35.53</v>
       </c>
       <c r="C42">
-        <v>0.079</v>
+        <v>0.801</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1772,16 +1772,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45750.42708333334</v>
+        <v>45757.42708333334</v>
       </c>
       <c r="B43">
-        <v>35.864</v>
+        <v>20.723</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1795,16 +1795,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45750.4375</v>
+        <v>45757.4375</v>
       </c>
       <c r="B44">
-        <v>1.59</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="C44">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1818,16 +1818,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45750.44791666666</v>
+        <v>45757.44791666666</v>
       </c>
       <c r="B45">
-        <v>3.43</v>
+        <v>4.108</v>
       </c>
       <c r="C45">
-        <v>0.047</v>
+        <v>3.367</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45750.45833333334</v>
+        <v>45757.45833333334</v>
       </c>
       <c r="B46">
-        <v>23.399</v>
+        <v>12.224</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.391</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1864,16 +1864,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45750.46875</v>
+        <v>45757.46875</v>
       </c>
       <c r="B47">
-        <v>14.91</v>
+        <v>2.122</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.867</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1887,16 +1887,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45750.47916666666</v>
+        <v>45757.47916666666</v>
       </c>
       <c r="B48">
-        <v>26.964</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>17.864</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1910,13 +1910,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45750.48958333334</v>
+        <v>45757.48958333334</v>
       </c>
       <c r="B49">
-        <v>9.712999999999999</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>30.996</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1933,19 +1933,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45750.5</v>
+        <v>45757.5</v>
       </c>
       <c r="B50">
-        <v>3.805</v>
+        <v>0.755</v>
       </c>
       <c r="C50">
-        <v>0.011</v>
+        <v>14.034</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1956,19 +1956,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45750.51041666666</v>
+        <v>45757.51041666666</v>
       </c>
       <c r="B51">
-        <v>8.992000000000001</v>
+        <v>0.918</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45750.52083333334</v>
+        <v>45757.52083333334</v>
       </c>
       <c r="B52">
-        <v>26.999</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.285</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45750.53125</v>
+        <v>45757.53125</v>
       </c>
       <c r="B53">
-        <v>22.398</v>
+        <v>0.547</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45750.54166666666</v>
+        <v>45757.54166666666</v>
       </c>
       <c r="B54">
-        <v>18.226</v>
+        <v>1.074</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2048,13 +2048,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45750.55208333334</v>
+        <v>45757.55208333334</v>
       </c>
       <c r="B55">
-        <v>6.647</v>
+        <v>1.332</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45750.5625</v>
+        <v>45757.5625</v>
       </c>
       <c r="B56">
-        <v>0.357</v>
+        <v>0.394</v>
       </c>
       <c r="C56">
-        <v>0.127</v>
+        <v>0.141</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45750.57291666666</v>
+        <v>45757.57291666666</v>
       </c>
       <c r="B57">
-        <v>1.156</v>
+        <v>0.267</v>
       </c>
       <c r="C57">
-        <v>0.111</v>
+        <v>0.444</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2117,13 +2117,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45750.58333333334</v>
+        <v>45757.58333333334</v>
       </c>
       <c r="B58">
-        <v>8.513</v>
+        <v>0.718</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2140,13 +2140,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45750.59375</v>
+        <v>45757.59375</v>
       </c>
       <c r="B59">
-        <v>6.213</v>
+        <v>2.246</v>
       </c>
       <c r="C59">
-        <v>0.033</v>
+        <v>0.08</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45750.60416666666</v>
+        <v>45757.60416666666</v>
       </c>
       <c r="B60">
-        <v>10.572</v>
+        <v>11.189</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45750.61458333334</v>
+        <v>45757.61458333334</v>
       </c>
       <c r="B61">
-        <v>21.684</v>
+        <v>8.903</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2209,16 +2209,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45750.625</v>
+        <v>45757.625</v>
       </c>
       <c r="B62">
-        <v>0.392</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.918</v>
+        <v>13.705</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>49.25</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2232,16 +2232,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45750.63541666666</v>
+        <v>45757.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="C63">
-        <v>6.36</v>
+        <v>7.31</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>49.25</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45750.64583333334</v>
+        <v>45757.64583333334</v>
       </c>
       <c r="B64">
-        <v>0.001</v>
+        <v>0.073</v>
       </c>
       <c r="C64">
-        <v>14.366</v>
+        <v>11.231</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>49.25</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2278,16 +2278,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45750.65625</v>
+        <v>45757.65625</v>
       </c>
       <c r="B65">
-        <v>1.862</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.039</v>
+        <v>44.529</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>49.25</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45750.66666666666</v>
+        <v>45757.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>20.424</v>
+        <v>43.613</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2324,13 +2324,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45750.67708333334</v>
+        <v>45757.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>7.43</v>
+        <v>22.807</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45750.6875</v>
+        <v>45757.6875</v>
       </c>
       <c r="B68">
-        <v>4.254</v>
+        <v>0.012</v>
       </c>
       <c r="C68">
-        <v>1.205</v>
+        <v>26.158</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2370,19 +2370,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45750.69791666666</v>
+        <v>45757.69791666666</v>
       </c>
       <c r="B69">
-        <v>15.646</v>
+        <v>9.037000000000001</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1.173</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -2393,19 +2393,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45750.70833333334</v>
+        <v>45757.70833333334</v>
       </c>
       <c r="B70">
-        <v>0.141</v>
+        <v>0.102</v>
       </c>
       <c r="C70">
-        <v>2.549</v>
+        <v>31.086</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2416,19 +2416,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45750.71875</v>
+        <v>45757.71875</v>
       </c>
       <c r="B71">
-        <v>10.522</v>
+        <v>1.894</v>
       </c>
       <c r="C71">
-        <v>0.058</v>
+        <v>1.463</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45750.72916666666</v>
+        <v>45757.72916666666</v>
       </c>
       <c r="B72">
-        <v>26.651</v>
+        <v>4.1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1.161</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45750.73958333334</v>
+        <v>45757.73958333334</v>
       </c>
       <c r="B73">
-        <v>33.726</v>
+        <v>38.297</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45750.75</v>
+        <v>45757.75</v>
       </c>
       <c r="B74">
-        <v>0.645</v>
+        <v>2.105</v>
       </c>
       <c r="C74">
-        <v>0.72</v>
+        <v>0.105</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45750.76041666666</v>
+        <v>45757.76041666666</v>
       </c>
       <c r="B75">
-        <v>8.390000000000001</v>
+        <v>11.831</v>
       </c>
       <c r="C75">
-        <v>0.091</v>
+        <v>0.018</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45750.77083333334</v>
+        <v>45757.77083333334</v>
       </c>
       <c r="B76">
-        <v>10.938</v>
+        <v>25.127</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45750.78125</v>
+        <v>45757.78125</v>
       </c>
       <c r="B77">
-        <v>20.243</v>
+        <v>41.224</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45750.79166666666</v>
+        <v>45757.79166666666</v>
       </c>
       <c r="B78">
-        <v>5.275</v>
+        <v>10.685</v>
       </c>
       <c r="C78">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45750.80208333334</v>
+        <v>45757.80208333334</v>
       </c>
       <c r="B79">
-        <v>38.817</v>
+        <v>14.342</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45750.8125</v>
+        <v>45757.8125</v>
       </c>
       <c r="B80">
-        <v>49.906</v>
+        <v>48.526</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2646,16 +2646,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45750.82291666666</v>
+        <v>45757.82291666666</v>
       </c>
       <c r="B81">
-        <v>28.137</v>
+        <v>22.502</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>36.25</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2669,16 +2669,16 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45750.83333333334</v>
+        <v>45757.83333333334</v>
       </c>
       <c r="B82">
-        <v>53.165</v>
+        <v>42.183</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45750.84375</v>
+        <v>45757.84375</v>
       </c>
       <c r="B83">
-        <v>45.841</v>
+        <v>31.725</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2715,16 +2715,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45750.85416666666</v>
+        <v>45757.85416666666</v>
       </c>
       <c r="B84">
-        <v>18.42</v>
+        <v>4.56</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1.155</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2738,16 +2738,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45750.86458333334</v>
+        <v>45757.86458333334</v>
       </c>
       <c r="B85">
-        <v>0.65</v>
+        <v>0.003</v>
       </c>
       <c r="C85">
-        <v>0.122</v>
+        <v>2.292</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2761,16 +2761,16 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45750.875</v>
+        <v>45757.875</v>
       </c>
       <c r="B86">
-        <v>24.874</v>
+        <v>26.976</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2784,16 +2784,16 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45750.88541666666</v>
+        <v>45757.88541666666</v>
       </c>
       <c r="B87">
-        <v>3.947</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0.048</v>
+        <v>19.723</v>
       </c>
       <c r="D87">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2807,16 +2807,16 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45750.89583333334</v>
+        <v>45757.89583333334</v>
       </c>
       <c r="B88">
-        <v>1.373</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>1.396</v>
+        <v>38.475</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2830,16 +2830,16 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45750.90625</v>
+        <v>45757.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>9.193</v>
+        <v>47.916</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2853,13 +2853,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45750.91666666666</v>
+        <v>45757.91666666666</v>
       </c>
       <c r="B90">
-        <v>17.044</v>
+        <v>36.015</v>
       </c>
       <c r="C90">
-        <v>0.762</v>
+        <v>2.672</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2876,13 +2876,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45750.92708333334</v>
+        <v>45757.92708333334</v>
       </c>
       <c r="B91">
-        <v>6.182</v>
+        <v>9.744999999999999</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2899,13 +2899,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45750.9375</v>
+        <v>45757.9375</v>
       </c>
       <c r="B92">
-        <v>0.248</v>
+        <v>8.840999999999999</v>
       </c>
       <c r="C92">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2922,13 +2922,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45750.94791666666</v>
+        <v>45757.94791666666</v>
       </c>
       <c r="B93">
-        <v>7.108</v>
+        <v>3.967</v>
       </c>
       <c r="C93">
-        <v>0.031</v>
+        <v>0.012</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45750.95833333334</v>
+        <v>45757.95833333334</v>
       </c>
       <c r="B94">
-        <v>37.076</v>
+        <v>35.158</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45750.96875</v>
+        <v>45757.96875</v>
       </c>
       <c r="B95">
-        <v>20.342</v>
+        <v>25.677</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2991,16 +2991,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45750.97916666666</v>
+        <v>45757.97916666666</v>
       </c>
       <c r="B96">
-        <v>30.411</v>
+        <v>21.271</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3014,16 +3014,16 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45750.98958333334</v>
+        <v>45757.98958333334</v>
       </c>
       <c r="B97">
-        <v>38.133</v>
+        <v>4.029</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="D97">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B98">
-        <v>1.806</v>
+        <v>22.771</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3060,16 +3060,16 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B99">
-        <v>1.806</v>
+        <v>22.771</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3083,10 +3083,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B100">
-        <v>12.215</v>
+        <v>12.16</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3106,10 +3106,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B101">
-        <v>12.215</v>
+        <v>12.16</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B102">
-        <v>10.454</v>
+        <v>6.613</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3152,10 +3152,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B103">
-        <v>10.454</v>
+        <v>6.613</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3175,13 +3175,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B104">
-        <v>2.432</v>
+        <v>1.451</v>
       </c>
       <c r="C104">
-        <v>0.089</v>
+        <v>0.006</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3198,13 +3198,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B105">
-        <v>2.432</v>
+        <v>1.451</v>
       </c>
       <c r="C105">
-        <v>0.089</v>
+        <v>0.006</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3221,10 +3221,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B106">
-        <v>16.429</v>
+        <v>8.528</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3244,10 +3244,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B107">
-        <v>16.429</v>
+        <v>8.528</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3267,10 +3267,10 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B108">
-        <v>24.437</v>
+        <v>3.419</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B109">
-        <v>24.437</v>
+        <v>3.419</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B110">
-        <v>13.443</v>
+        <v>11.551</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3336,10 +3336,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B111">
-        <v>13.443</v>
+        <v>11.551</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B112">
-        <v>16.905</v>
+        <v>5.733</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B113">
-        <v>16.905</v>
+        <v>5.733</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B114">
-        <v>2.467</v>
+        <v>6.964</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3428,13 +3428,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B115">
-        <v>0.871</v>
+        <v>13.878</v>
       </c>
       <c r="C115">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3451,13 +3451,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B116">
-        <v>0.139</v>
+        <v>10.986</v>
       </c>
       <c r="C116">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3474,13 +3474,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B117">
-        <v>0.77</v>
+        <v>19.615</v>
       </c>
       <c r="C117">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B118">
-        <v>10.204</v>
+        <v>20.311</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3520,13 +3520,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B119">
-        <v>5.483</v>
+        <v>8.208</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B120">
-        <v>10.262</v>
+        <v>7.391</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3566,13 +3566,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B121">
-        <v>7.427</v>
+        <v>14.326</v>
       </c>
       <c r="C121">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3589,13 +3589,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B122">
-        <v>1.526</v>
+        <v>0.871</v>
       </c>
       <c r="C122">
-        <v>0.025</v>
+        <v>1.619</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3612,13 +3612,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B123">
-        <v>0.16</v>
+        <v>11.96</v>
       </c>
       <c r="C123">
-        <v>0.189</v>
+        <v>0.011</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3635,13 +3635,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B124">
-        <v>0.095</v>
+        <v>24.559</v>
       </c>
       <c r="C124">
-        <v>0.183</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B125">
-        <v>0.181</v>
+        <v>46.636</v>
       </c>
       <c r="C125">
-        <v>0.119</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B126">
-        <v>0.023</v>
+        <v>5.901</v>
       </c>
       <c r="C126">
-        <v>1.803</v>
+        <v>2.144</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3704,13 +3704,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B127">
-        <v>0.026</v>
+        <v>7.709</v>
       </c>
       <c r="C127">
-        <v>0.546</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3727,13 +3727,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B128">
-        <v>0.318</v>
+        <v>34.033</v>
       </c>
       <c r="C128">
-        <v>0.449</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3750,13 +3750,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B129">
-        <v>4.281</v>
+        <v>49.8</v>
       </c>
       <c r="C129">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3773,13 +3773,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B130">
-        <v>0.013</v>
+        <v>10.778</v>
       </c>
       <c r="C130">
-        <v>24.599</v>
+        <v>0.008</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3796,13 +3796,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B131">
-        <v>1.534</v>
+        <v>36.449</v>
       </c>
       <c r="C131">
-        <v>0.265</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B132">
-        <v>2.254</v>
+        <v>51.28</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3842,16 +3842,16 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B133">
-        <v>1.182</v>
+        <v>18.199</v>
       </c>
       <c r="C133">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B134">
-        <v>0.206</v>
+        <v>34.962</v>
       </c>
       <c r="C134">
-        <v>0.194</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3888,16 +3888,16 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B135">
-        <v>0.217</v>
+        <v>55.35</v>
       </c>
       <c r="C135">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3911,16 +3911,16 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B136">
-        <v>0.242</v>
+        <v>33.727</v>
       </c>
       <c r="C136">
-        <v>0.607</v>
+        <v>0.004</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3934,16 +3934,16 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="C137">
-        <v>8.082000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3957,16 +3957,16 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B138">
-        <v>0.395</v>
+        <v>25.725</v>
       </c>
       <c r="C138">
-        <v>0.525</v>
+        <v>1.472</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3980,16 +3980,16 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B139">
-        <v>2.412</v>
+        <v>10.605</v>
       </c>
       <c r="C139">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4003,16 +4003,16 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B140">
-        <v>0.188</v>
+        <v>2.637</v>
       </c>
       <c r="C140">
-        <v>2.25</v>
+        <v>0.864</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4026,16 +4026,16 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>5.352</v>
+        <v>25.352</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -4049,16 +4049,16 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B142">
-        <v>2.752</v>
+        <v>15.278</v>
       </c>
       <c r="C142">
-        <v>0.424</v>
+        <v>0.903</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -4072,16 +4072,16 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>10.93</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E143">
         <v>0</v>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,406 +37,412 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>10.04.20251</t>
-  </si>
-  <si>
-    <t>10.04.20252</t>
-  </si>
-  <si>
-    <t>10.04.20253</t>
-  </si>
-  <si>
-    <t>10.04.20254</t>
-  </si>
-  <si>
-    <t>10.04.20255</t>
-  </si>
-  <si>
-    <t>10.04.20256</t>
-  </si>
-  <si>
-    <t>10.04.20257</t>
-  </si>
-  <si>
-    <t>10.04.20258</t>
-  </si>
-  <si>
-    <t>10.04.20259</t>
-  </si>
-  <si>
-    <t>10.04.202510</t>
-  </si>
-  <si>
-    <t>10.04.202511</t>
-  </si>
-  <si>
-    <t>10.04.202512</t>
-  </si>
-  <si>
-    <t>10.04.202513</t>
-  </si>
-  <si>
-    <t>10.04.202514</t>
-  </si>
-  <si>
-    <t>10.04.202515</t>
-  </si>
-  <si>
-    <t>10.04.202516</t>
-  </si>
-  <si>
-    <t>10.04.202517</t>
-  </si>
-  <si>
-    <t>10.04.202518</t>
-  </si>
-  <si>
-    <t>10.04.202519</t>
-  </si>
-  <si>
-    <t>10.04.202520</t>
-  </si>
-  <si>
-    <t>10.04.202521</t>
-  </si>
-  <si>
-    <t>10.04.202522</t>
-  </si>
-  <si>
-    <t>10.04.202523</t>
-  </si>
-  <si>
-    <t>10.04.202524</t>
-  </si>
-  <si>
-    <t>10.04.202525</t>
-  </si>
-  <si>
-    <t>10.04.202526</t>
-  </si>
-  <si>
-    <t>10.04.202527</t>
-  </si>
-  <si>
-    <t>10.04.202528</t>
-  </si>
-  <si>
-    <t>10.04.202529</t>
-  </si>
-  <si>
-    <t>10.04.202530</t>
-  </si>
-  <si>
-    <t>10.04.202531</t>
-  </si>
-  <si>
-    <t>10.04.202532</t>
-  </si>
-  <si>
-    <t>10.04.202533</t>
-  </si>
-  <si>
-    <t>10.04.202534</t>
-  </si>
-  <si>
-    <t>10.04.202535</t>
-  </si>
-  <si>
-    <t>10.04.202536</t>
-  </si>
-  <si>
-    <t>10.04.202537</t>
-  </si>
-  <si>
-    <t>10.04.202538</t>
-  </si>
-  <si>
-    <t>10.04.202539</t>
-  </si>
-  <si>
-    <t>10.04.202540</t>
-  </si>
-  <si>
-    <t>10.04.202541</t>
-  </si>
-  <si>
-    <t>10.04.202542</t>
-  </si>
-  <si>
-    <t>10.04.202543</t>
-  </si>
-  <si>
-    <t>10.04.202544</t>
-  </si>
-  <si>
-    <t>10.04.202545</t>
-  </si>
-  <si>
-    <t>10.04.202546</t>
-  </si>
-  <si>
-    <t>10.04.202547</t>
-  </si>
-  <si>
-    <t>10.04.202548</t>
-  </si>
-  <si>
-    <t>10.04.202549</t>
-  </si>
-  <si>
-    <t>10.04.202550</t>
-  </si>
-  <si>
-    <t>10.04.202551</t>
-  </si>
-  <si>
-    <t>10.04.202552</t>
-  </si>
-  <si>
-    <t>10.04.202553</t>
-  </si>
-  <si>
-    <t>10.04.202554</t>
-  </si>
-  <si>
-    <t>10.04.202555</t>
-  </si>
-  <si>
-    <t>10.04.202556</t>
-  </si>
-  <si>
-    <t>10.04.202557</t>
-  </si>
-  <si>
-    <t>10.04.202558</t>
-  </si>
-  <si>
-    <t>10.04.202559</t>
-  </si>
-  <si>
-    <t>10.04.202560</t>
-  </si>
-  <si>
-    <t>10.04.202561</t>
-  </si>
-  <si>
-    <t>10.04.202562</t>
-  </si>
-  <si>
-    <t>10.04.202563</t>
-  </si>
-  <si>
-    <t>10.04.202564</t>
-  </si>
-  <si>
-    <t>10.04.202565</t>
-  </si>
-  <si>
-    <t>10.04.202566</t>
-  </si>
-  <si>
-    <t>10.04.202567</t>
-  </si>
-  <si>
-    <t>10.04.202568</t>
-  </si>
-  <si>
-    <t>10.04.202569</t>
-  </si>
-  <si>
-    <t>10.04.202570</t>
-  </si>
-  <si>
-    <t>10.04.202571</t>
-  </si>
-  <si>
-    <t>10.04.202572</t>
-  </si>
-  <si>
-    <t>10.04.202573</t>
-  </si>
-  <si>
-    <t>10.04.202574</t>
-  </si>
-  <si>
-    <t>10.04.202575</t>
-  </si>
-  <si>
-    <t>10.04.202576</t>
-  </si>
-  <si>
-    <t>10.04.202577</t>
-  </si>
-  <si>
-    <t>10.04.202578</t>
-  </si>
-  <si>
-    <t>10.04.202579</t>
-  </si>
-  <si>
-    <t>10.04.202580</t>
-  </si>
-  <si>
-    <t>10.04.202581</t>
-  </si>
-  <si>
-    <t>10.04.202582</t>
-  </si>
-  <si>
-    <t>10.04.202583</t>
-  </si>
-  <si>
-    <t>10.04.202584</t>
-  </si>
-  <si>
-    <t>10.04.202585</t>
-  </si>
-  <si>
-    <t>10.04.202586</t>
-  </si>
-  <si>
-    <t>10.04.202587</t>
-  </si>
-  <si>
-    <t>10.04.202588</t>
-  </si>
-  <si>
-    <t>10.04.202589</t>
-  </si>
-  <si>
-    <t>10.04.202590</t>
-  </si>
-  <si>
-    <t>10.04.202591</t>
-  </si>
-  <si>
-    <t>10.04.202592</t>
-  </si>
-  <si>
-    <t>10.04.202593</t>
-  </si>
-  <si>
-    <t>10.04.202594</t>
-  </si>
-  <si>
-    <t>10.04.202595</t>
-  </si>
-  <si>
-    <t>10.04.202596</t>
-  </si>
-  <si>
-    <t>11.04.20251</t>
-  </si>
-  <si>
-    <t>11.04.20252</t>
-  </si>
-  <si>
-    <t>11.04.20253</t>
-  </si>
-  <si>
-    <t>11.04.20254</t>
-  </si>
-  <si>
-    <t>11.04.20255</t>
-  </si>
-  <si>
-    <t>11.04.20256</t>
-  </si>
-  <si>
-    <t>11.04.20257</t>
-  </si>
-  <si>
-    <t>11.04.20258</t>
-  </si>
-  <si>
-    <t>11.04.20259</t>
-  </si>
-  <si>
-    <t>11.04.202510</t>
-  </si>
-  <si>
-    <t>11.04.202511</t>
-  </si>
-  <si>
-    <t>11.04.202512</t>
-  </si>
-  <si>
-    <t>11.04.202513</t>
-  </si>
-  <si>
-    <t>11.04.202514</t>
-  </si>
-  <si>
-    <t>11.04.202515</t>
-  </si>
-  <si>
-    <t>11.04.202516</t>
-  </si>
-  <si>
-    <t>11.04.202517</t>
-  </si>
-  <si>
-    <t>11.04.202518</t>
-  </si>
-  <si>
-    <t>11.04.202519</t>
-  </si>
-  <si>
-    <t>11.04.202520</t>
-  </si>
-  <si>
-    <t>11.04.202521</t>
-  </si>
-  <si>
-    <t>11.04.202522</t>
-  </si>
-  <si>
-    <t>11.04.202523</t>
-  </si>
-  <si>
-    <t>11.04.202524</t>
-  </si>
-  <si>
-    <t>11.04.202525</t>
-  </si>
-  <si>
-    <t>11.04.202526</t>
-  </si>
-  <si>
-    <t>11.04.202527</t>
-  </si>
-  <si>
-    <t>11.04.202528</t>
-  </si>
-  <si>
-    <t>11.04.202529</t>
-  </si>
-  <si>
-    <t>11.04.202530</t>
-  </si>
-  <si>
-    <t>11.04.202531</t>
-  </si>
-  <si>
-    <t>11.04.202532</t>
-  </si>
-  <si>
-    <t>11.04.202533</t>
-  </si>
-  <si>
-    <t>11.04.202534</t>
-  </si>
-  <si>
-    <t>11.04.202535</t>
-  </si>
-  <si>
-    <t>11.04.202536</t>
-  </si>
-  <si>
-    <t>11.04.202537</t>
-  </si>
-  <si>
-    <t>11.04.202538</t>
+    <t>28.04.20251</t>
+  </si>
+  <si>
+    <t>28.04.20252</t>
+  </si>
+  <si>
+    <t>28.04.20253</t>
+  </si>
+  <si>
+    <t>28.04.20254</t>
+  </si>
+  <si>
+    <t>28.04.20255</t>
+  </si>
+  <si>
+    <t>28.04.20256</t>
+  </si>
+  <si>
+    <t>28.04.20257</t>
+  </si>
+  <si>
+    <t>28.04.20258</t>
+  </si>
+  <si>
+    <t>28.04.20259</t>
+  </si>
+  <si>
+    <t>28.04.202510</t>
+  </si>
+  <si>
+    <t>28.04.202511</t>
+  </si>
+  <si>
+    <t>28.04.202512</t>
+  </si>
+  <si>
+    <t>28.04.202513</t>
+  </si>
+  <si>
+    <t>28.04.202514</t>
+  </si>
+  <si>
+    <t>28.04.202515</t>
+  </si>
+  <si>
+    <t>28.04.202516</t>
+  </si>
+  <si>
+    <t>28.04.202517</t>
+  </si>
+  <si>
+    <t>28.04.202518</t>
+  </si>
+  <si>
+    <t>28.04.202519</t>
+  </si>
+  <si>
+    <t>28.04.202520</t>
+  </si>
+  <si>
+    <t>28.04.202521</t>
+  </si>
+  <si>
+    <t>28.04.202522</t>
+  </si>
+  <si>
+    <t>28.04.202523</t>
+  </si>
+  <si>
+    <t>28.04.202524</t>
+  </si>
+  <si>
+    <t>28.04.202525</t>
+  </si>
+  <si>
+    <t>28.04.202526</t>
+  </si>
+  <si>
+    <t>28.04.202527</t>
+  </si>
+  <si>
+    <t>28.04.202528</t>
+  </si>
+  <si>
+    <t>28.04.202529</t>
+  </si>
+  <si>
+    <t>28.04.202530</t>
+  </si>
+  <si>
+    <t>28.04.202531</t>
+  </si>
+  <si>
+    <t>28.04.202532</t>
+  </si>
+  <si>
+    <t>28.04.202533</t>
+  </si>
+  <si>
+    <t>28.04.202534</t>
+  </si>
+  <si>
+    <t>28.04.202535</t>
+  </si>
+  <si>
+    <t>28.04.202536</t>
+  </si>
+  <si>
+    <t>28.04.202537</t>
+  </si>
+  <si>
+    <t>28.04.202538</t>
+  </si>
+  <si>
+    <t>28.04.202539</t>
+  </si>
+  <si>
+    <t>28.04.202540</t>
+  </si>
+  <si>
+    <t>28.04.202541</t>
+  </si>
+  <si>
+    <t>28.04.202542</t>
+  </si>
+  <si>
+    <t>28.04.202543</t>
+  </si>
+  <si>
+    <t>28.04.202544</t>
+  </si>
+  <si>
+    <t>28.04.202545</t>
+  </si>
+  <si>
+    <t>28.04.202546</t>
+  </si>
+  <si>
+    <t>28.04.202547</t>
+  </si>
+  <si>
+    <t>28.04.202548</t>
+  </si>
+  <si>
+    <t>28.04.202549</t>
+  </si>
+  <si>
+    <t>28.04.202550</t>
+  </si>
+  <si>
+    <t>28.04.202551</t>
+  </si>
+  <si>
+    <t>28.04.202552</t>
+  </si>
+  <si>
+    <t>28.04.202553</t>
+  </si>
+  <si>
+    <t>28.04.202554</t>
+  </si>
+  <si>
+    <t>28.04.202555</t>
+  </si>
+  <si>
+    <t>28.04.202556</t>
+  </si>
+  <si>
+    <t>28.04.202557</t>
+  </si>
+  <si>
+    <t>28.04.202558</t>
+  </si>
+  <si>
+    <t>28.04.202559</t>
+  </si>
+  <si>
+    <t>28.04.202560</t>
+  </si>
+  <si>
+    <t>28.04.202561</t>
+  </si>
+  <si>
+    <t>28.04.202562</t>
+  </si>
+  <si>
+    <t>28.04.202563</t>
+  </si>
+  <si>
+    <t>28.04.202564</t>
+  </si>
+  <si>
+    <t>28.04.202565</t>
+  </si>
+  <si>
+    <t>28.04.202566</t>
+  </si>
+  <si>
+    <t>28.04.202567</t>
+  </si>
+  <si>
+    <t>28.04.202568</t>
+  </si>
+  <si>
+    <t>28.04.202569</t>
+  </si>
+  <si>
+    <t>28.04.202570</t>
+  </si>
+  <si>
+    <t>28.04.202571</t>
+  </si>
+  <si>
+    <t>28.04.202572</t>
+  </si>
+  <si>
+    <t>28.04.202573</t>
+  </si>
+  <si>
+    <t>28.04.202574</t>
+  </si>
+  <si>
+    <t>28.04.202575</t>
+  </si>
+  <si>
+    <t>28.04.202576</t>
+  </si>
+  <si>
+    <t>28.04.202577</t>
+  </si>
+  <si>
+    <t>28.04.202578</t>
+  </si>
+  <si>
+    <t>28.04.202579</t>
+  </si>
+  <si>
+    <t>28.04.202580</t>
+  </si>
+  <si>
+    <t>28.04.202581</t>
+  </si>
+  <si>
+    <t>28.04.202582</t>
+  </si>
+  <si>
+    <t>28.04.202583</t>
+  </si>
+  <si>
+    <t>28.04.202584</t>
+  </si>
+  <si>
+    <t>28.04.202585</t>
+  </si>
+  <si>
+    <t>28.04.202586</t>
+  </si>
+  <si>
+    <t>28.04.202587</t>
+  </si>
+  <si>
+    <t>28.04.202588</t>
+  </si>
+  <si>
+    <t>28.04.202589</t>
+  </si>
+  <si>
+    <t>28.04.202590</t>
+  </si>
+  <si>
+    <t>28.04.202591</t>
+  </si>
+  <si>
+    <t>28.04.202592</t>
+  </si>
+  <si>
+    <t>28.04.202593</t>
+  </si>
+  <si>
+    <t>28.04.202594</t>
+  </si>
+  <si>
+    <t>28.04.202595</t>
+  </si>
+  <si>
+    <t>28.04.202596</t>
+  </si>
+  <si>
+    <t>29.04.20251</t>
+  </si>
+  <si>
+    <t>29.04.20252</t>
+  </si>
+  <si>
+    <t>29.04.20253</t>
+  </si>
+  <si>
+    <t>29.04.20254</t>
+  </si>
+  <si>
+    <t>29.04.20255</t>
+  </si>
+  <si>
+    <t>29.04.20256</t>
+  </si>
+  <si>
+    <t>29.04.20257</t>
+  </si>
+  <si>
+    <t>29.04.20258</t>
+  </si>
+  <si>
+    <t>29.04.20259</t>
+  </si>
+  <si>
+    <t>29.04.202510</t>
+  </si>
+  <si>
+    <t>29.04.202511</t>
+  </si>
+  <si>
+    <t>29.04.202512</t>
+  </si>
+  <si>
+    <t>29.04.202513</t>
+  </si>
+  <si>
+    <t>29.04.202514</t>
+  </si>
+  <si>
+    <t>29.04.202515</t>
+  </si>
+  <si>
+    <t>29.04.202516</t>
+  </si>
+  <si>
+    <t>29.04.202517</t>
+  </si>
+  <si>
+    <t>29.04.202518</t>
+  </si>
+  <si>
+    <t>29.04.202519</t>
+  </si>
+  <si>
+    <t>29.04.202520</t>
+  </si>
+  <si>
+    <t>29.04.202521</t>
+  </si>
+  <si>
+    <t>29.04.202522</t>
+  </si>
+  <si>
+    <t>29.04.202523</t>
+  </si>
+  <si>
+    <t>29.04.202524</t>
+  </si>
+  <si>
+    <t>29.04.202525</t>
+  </si>
+  <si>
+    <t>29.04.202526</t>
+  </si>
+  <si>
+    <t>29.04.202527</t>
+  </si>
+  <si>
+    <t>29.04.202528</t>
+  </si>
+  <si>
+    <t>29.04.202529</t>
+  </si>
+  <si>
+    <t>29.04.202530</t>
+  </si>
+  <si>
+    <t>29.04.202531</t>
+  </si>
+  <si>
+    <t>29.04.202532</t>
+  </si>
+  <si>
+    <t>29.04.202533</t>
+  </si>
+  <si>
+    <t>29.04.202534</t>
+  </si>
+  <si>
+    <t>29.04.202535</t>
+  </si>
+  <si>
+    <t>29.04.202536</t>
+  </si>
+  <si>
+    <t>29.04.202537</t>
+  </si>
+  <si>
+    <t>29.04.202538</t>
+  </si>
+  <si>
+    <t>29.04.202539</t>
+  </si>
+  <si>
+    <t>29.04.202540</t>
   </si>
 </sst>
 </file>
@@ -798,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,13 +835,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.759</v>
       </c>
       <c r="C2">
-        <v>7.47</v>
+        <v>0.833</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -852,13 +858,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45757.01041666666</v>
+        <v>45775.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.754</v>
       </c>
       <c r="C3">
-        <v>8.039</v>
+        <v>0.002</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -875,13 +881,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45757.02083333334</v>
+        <v>45775.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.806</v>
       </c>
       <c r="C4">
-        <v>5.878</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -898,13 +904,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45757.03125</v>
+        <v>45775.03125</v>
       </c>
       <c r="B5">
-        <v>0.028</v>
+        <v>1.253</v>
       </c>
       <c r="C5">
-        <v>3.189</v>
+        <v>0.284</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -921,13 +927,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45757.04166666666</v>
+        <v>45775.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.026</v>
+        <v>0.131</v>
       </c>
       <c r="C6">
-        <v>3.347</v>
+        <v>0.148</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -944,13 +950,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45757.05208333334</v>
+        <v>45775.05208333334</v>
       </c>
       <c r="B7">
-        <v>2.914</v>
+        <v>8.204000000000001</v>
       </c>
       <c r="C7">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -967,13 +973,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45757.0625</v>
+        <v>45775.0625</v>
       </c>
       <c r="B8">
-        <v>0.201</v>
+        <v>4.34</v>
       </c>
       <c r="C8">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -990,13 +996,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45757.07291666666</v>
+        <v>45775.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.781</v>
       </c>
       <c r="C9">
-        <v>12.36</v>
+        <v>1.006</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1013,13 +1019,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45757.08333333334</v>
+        <v>45775.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.013</v>
+        <v>5.297</v>
       </c>
       <c r="C10">
-        <v>2.963</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1036,13 +1042,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45757.09375</v>
+        <v>45775.09375</v>
       </c>
       <c r="B11">
-        <v>0.014</v>
+        <v>6.324</v>
       </c>
       <c r="C11">
-        <v>1.685</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1059,13 +1065,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45757.10416666666</v>
+        <v>45775.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.049</v>
+        <v>9.090999999999999</v>
       </c>
       <c r="C12">
-        <v>0.513</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1082,13 +1088,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45757.11458333334</v>
+        <v>45775.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.08599999999999999</v>
+        <v>7.413</v>
       </c>
       <c r="C13">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1105,13 +1111,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45757.125</v>
+        <v>45775.125</v>
       </c>
       <c r="B14">
-        <v>0.096</v>
+        <v>0.968</v>
       </c>
       <c r="C14">
-        <v>0.322</v>
+        <v>0.075</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1128,13 +1134,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45757.13541666666</v>
+        <v>45775.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.062</v>
+        <v>4.854</v>
       </c>
       <c r="C15">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1151,13 +1157,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45757.14583333334</v>
+        <v>45775.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.027</v>
+        <v>12.114</v>
       </c>
       <c r="C16">
-        <v>3.786</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1174,13 +1180,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45757.15625</v>
+        <v>45775.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>10.565</v>
       </c>
       <c r="C17">
-        <v>36.144</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1197,13 +1203,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45757.16666666666</v>
+        <v>45775.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.712</v>
       </c>
       <c r="C18">
-        <v>8.064</v>
+        <v>1.004</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1220,13 +1226,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45757.17708333334</v>
+        <v>45775.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.052</v>
+        <v>2.429</v>
       </c>
       <c r="C19">
-        <v>1.017</v>
+        <v>0.004</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1243,13 +1249,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45757.1875</v>
+        <v>45775.1875</v>
       </c>
       <c r="B20">
-        <v>0.794</v>
+        <v>5.195</v>
       </c>
       <c r="C20">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1266,13 +1272,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45757.19791666666</v>
+        <v>45775.19791666666</v>
       </c>
       <c r="B21">
-        <v>2.126</v>
+        <v>2.206</v>
       </c>
       <c r="C21">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1289,13 +1295,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45757.20833333334</v>
+        <v>45775.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.326</v>
+        <v>0.013</v>
       </c>
       <c r="C22">
-        <v>2.794</v>
+        <v>2.568</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1312,13 +1318,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45757.21875</v>
+        <v>45775.21875</v>
       </c>
       <c r="B23">
-        <v>2.003</v>
+        <v>0.113</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>5.569</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1335,13 +1341,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45757.22916666666</v>
+        <v>45775.22916666666</v>
       </c>
       <c r="B24">
-        <v>1.521</v>
+        <v>6.851</v>
       </c>
       <c r="C24">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1358,13 +1364,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45757.23958333334</v>
+        <v>45775.23958333334</v>
       </c>
       <c r="B25">
-        <v>10.393</v>
+        <v>11.022</v>
       </c>
       <c r="C25">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1381,13 +1387,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45757.25</v>
+        <v>45775.25</v>
       </c>
       <c r="B26">
-        <v>2.315</v>
+        <v>12.655</v>
       </c>
       <c r="C26">
-        <v>4.542</v>
+        <v>0.779</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1404,10 +1410,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45757.26041666666</v>
+        <v>45775.26041666666</v>
       </c>
       <c r="B27">
-        <v>2.349</v>
+        <v>18.926</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1427,13 +1433,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45757.27083333334</v>
+        <v>45775.27083333334</v>
       </c>
       <c r="B28">
-        <v>13.787</v>
+        <v>9.41</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1450,13 +1456,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45757.28125</v>
+        <v>45775.28125</v>
       </c>
       <c r="B29">
-        <v>19.455</v>
+        <v>3.407</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1473,13 +1479,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45757.29166666666</v>
+        <v>45775.29166666666</v>
       </c>
       <c r="B30">
-        <v>46.064</v>
+        <v>0.195</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.629</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1496,16 +1502,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45757.30208333334</v>
+        <v>45775.30208333334</v>
       </c>
       <c r="B31">
-        <v>33.293</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>7.808</v>
       </c>
       <c r="D31">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1519,16 +1525,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45757.3125</v>
+        <v>45775.3125</v>
       </c>
       <c r="B32">
-        <v>32.03</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>30.44</v>
       </c>
       <c r="D32">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1542,16 +1548,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45757.32291666666</v>
+        <v>45775.32291666666</v>
       </c>
       <c r="B33">
-        <v>29.068</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>39.271</v>
       </c>
       <c r="D33">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1565,16 +1571,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45757.33333333334</v>
+        <v>45775.33333333334</v>
       </c>
       <c r="B34">
-        <v>50.104</v>
+        <v>5.351</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2.295</v>
       </c>
       <c r="D34">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1588,16 +1594,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45757.34375</v>
+        <v>45775.34375</v>
       </c>
       <c r="B35">
-        <v>31.476</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>9.653</v>
       </c>
       <c r="D35">
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1611,16 +1617,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45757.35416666666</v>
+        <v>45775.35416666666</v>
       </c>
       <c r="B36">
-        <v>10.852</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.001</v>
+        <v>17.194</v>
       </c>
       <c r="D36">
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1634,16 +1640,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45757.36458333334</v>
+        <v>45775.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.947</v>
+        <v>38.766</v>
       </c>
       <c r="D37">
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1657,16 +1663,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45757.375</v>
+        <v>45775.375</v>
       </c>
       <c r="B38">
-        <v>46.939</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D38">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1680,16 +1686,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45757.38541666666</v>
+        <v>45775.38541666666</v>
       </c>
       <c r="B39">
-        <v>32.942</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>31.535</v>
       </c>
       <c r="D39">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1703,16 +1709,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45757.39583333334</v>
+        <v>45775.39583333334</v>
       </c>
       <c r="B40">
-        <v>11.377</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.035</v>
+        <v>48.304</v>
       </c>
       <c r="D40">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1726,16 +1732,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45757.40625</v>
+        <v>45775.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>12.715</v>
+        <v>51.582</v>
       </c>
       <c r="D41">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1749,19 +1755,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45757.41666666666</v>
+        <v>45775.41666666666</v>
       </c>
       <c r="B42">
-        <v>35.53</v>
+        <v>4.641</v>
       </c>
       <c r="C42">
-        <v>0.801</v>
+        <v>4.435</v>
       </c>
       <c r="D42">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45757.42708333334</v>
+        <v>45775.42708333334</v>
       </c>
       <c r="B43">
-        <v>20.723</v>
+        <v>0.108</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>10.181</v>
       </c>
       <c r="D43">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45757.4375</v>
+        <v>45775.4375</v>
       </c>
       <c r="B44">
-        <v>9.420999999999999</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>25.578</v>
       </c>
       <c r="D44">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45757.44791666666</v>
+        <v>45775.44791666666</v>
       </c>
       <c r="B45">
-        <v>4.108</v>
+        <v>0.031</v>
       </c>
       <c r="C45">
-        <v>3.367</v>
+        <v>15.112</v>
       </c>
       <c r="D45">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45757.45833333334</v>
+        <v>45775.45833333334</v>
       </c>
       <c r="B46">
-        <v>12.224</v>
+        <v>4.597</v>
       </c>
       <c r="C46">
-        <v>0.391</v>
+        <v>5.51</v>
       </c>
       <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>50</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1864,19 +1870,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45757.46875</v>
+        <v>45775.46875</v>
       </c>
       <c r="B47">
-        <v>2.122</v>
+        <v>7.878</v>
       </c>
       <c r="C47">
-        <v>0.867</v>
+        <v>0</v>
       </c>
       <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>50</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1887,19 +1893,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45757.47916666666</v>
+        <v>45775.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>2.974</v>
       </c>
       <c r="C48">
-        <v>17.864</v>
+        <v>0.551</v>
       </c>
       <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>50</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45757.48958333334</v>
+        <v>45775.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C49">
-        <v>30.996</v>
+        <v>8.43</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45757.5</v>
+        <v>45775.5</v>
       </c>
       <c r="B50">
-        <v>0.755</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>14.034</v>
+        <v>20.366</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1956,19 +1962,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45757.51041666666</v>
+        <v>45775.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.918</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.08400000000000001</v>
+        <v>16.801</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1979,19 +1985,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45757.52083333334</v>
+        <v>45775.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.9389999999999999</v>
+        <v>0.544</v>
       </c>
       <c r="C52">
-        <v>0.285</v>
+        <v>2.52</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45757.53125</v>
+        <v>45775.53125</v>
       </c>
       <c r="B53">
-        <v>0.547</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.244</v>
+        <v>19.322</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2025,19 +2031,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45757.54166666666</v>
+        <v>45775.54166666666</v>
       </c>
       <c r="B54">
-        <v>1.074</v>
+        <v>0.005</v>
       </c>
       <c r="C54">
-        <v>0.099</v>
+        <v>6.854</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2048,19 +2054,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45757.55208333334</v>
+        <v>45775.55208333334</v>
       </c>
       <c r="B55">
-        <v>1.332</v>
+        <v>0.023</v>
       </c>
       <c r="C55">
-        <v>0.093</v>
+        <v>5.291</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2071,19 +2077,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45757.5625</v>
+        <v>45775.5625</v>
       </c>
       <c r="B56">
-        <v>0.394</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.141</v>
+        <v>13.661</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2094,19 +2100,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45757.57291666666</v>
+        <v>45775.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.267</v>
+        <v>0.156</v>
       </c>
       <c r="C57">
-        <v>0.444</v>
+        <v>16.404</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2117,19 +2123,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45757.58333333334</v>
+        <v>45775.58333333334</v>
       </c>
       <c r="B58">
-        <v>0.718</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0.164</v>
+        <v>15.064</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2140,19 +2146,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45757.59375</v>
+        <v>45775.59375</v>
       </c>
       <c r="B59">
-        <v>2.246</v>
+        <v>0.619</v>
       </c>
       <c r="C59">
-        <v>0.08</v>
+        <v>13.535</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -2163,10 +2169,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45757.60416666666</v>
+        <v>45775.60416666666</v>
       </c>
       <c r="B60">
-        <v>11.189</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2175,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -2186,19 +2192,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45757.61458333334</v>
+        <v>45775.61458333334</v>
       </c>
       <c r="B61">
-        <v>8.903</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.034</v>
+        <v>6.403</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -2209,19 +2215,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45757.625</v>
+        <v>45775.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>13.705</v>
+        <v>45.386</v>
       </c>
       <c r="D62">
-        <v>49.25</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>48.75</v>
       </c>
       <c r="F62">
         <v>61</v>
@@ -2232,16 +2238,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45757.63541666666</v>
+        <v>45775.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>7.31</v>
+        <v>47.112</v>
       </c>
       <c r="D63">
-        <v>49.25</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2255,19 +2261,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45757.64583333334</v>
+        <v>45775.64583333334</v>
       </c>
       <c r="B64">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>11.231</v>
+        <v>27.316</v>
       </c>
       <c r="D64">
-        <v>49.25</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>48.75</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -2278,19 +2284,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45757.65625</v>
+        <v>45775.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="C65">
-        <v>44.529</v>
+        <v>0.743</v>
       </c>
       <c r="D65">
-        <v>49.25</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>48.75</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -2301,19 +2307,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45757.66666666666</v>
+        <v>45775.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>43.613</v>
+        <v>34.001</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F66">
         <v>65</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45757.67708333334</v>
+        <v>45775.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>22.807</v>
+        <v>12.959</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F67">
         <v>66</v>
@@ -2347,19 +2353,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45757.6875</v>
+        <v>45775.6875</v>
       </c>
       <c r="B68">
-        <v>0.012</v>
+        <v>14.356</v>
       </c>
       <c r="C68">
-        <v>26.158</v>
+        <v>0.304</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F68">
         <v>67</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45757.69791666666</v>
+        <v>45775.69791666666</v>
       </c>
       <c r="B69">
-        <v>9.037000000000001</v>
+        <v>27.259</v>
       </c>
       <c r="C69">
-        <v>1.173</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>43.75</v>
+        <v>87.5</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -2393,19 +2399,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45757.70833333334</v>
+        <v>45775.70833333334</v>
       </c>
       <c r="B70">
-        <v>0.102</v>
+        <v>1.399</v>
       </c>
       <c r="C70">
-        <v>31.086</v>
+        <v>1.993</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>48.5</v>
+        <v>50</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2416,19 +2422,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45757.71875</v>
+        <v>45775.71875</v>
       </c>
       <c r="B71">
-        <v>1.894</v>
+        <v>4.317</v>
       </c>
       <c r="C71">
-        <v>1.463</v>
+        <v>2.788</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>48.5</v>
+        <v>50</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2439,13 +2445,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45757.72916666666</v>
+        <v>45775.72916666666</v>
       </c>
       <c r="B72">
-        <v>4.1</v>
+        <v>8.105</v>
       </c>
       <c r="C72">
-        <v>1.161</v>
+        <v>0.004</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2462,13 +2468,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45757.73958333334</v>
+        <v>45775.73958333334</v>
       </c>
       <c r="B73">
-        <v>38.297</v>
+        <v>7.682</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2485,13 +2491,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45757.75</v>
+        <v>45775.75</v>
       </c>
       <c r="B74">
-        <v>2.105</v>
+        <v>0.012</v>
       </c>
       <c r="C74">
-        <v>0.105</v>
+        <v>13.583</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2508,13 +2514,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45757.76041666666</v>
+        <v>45775.76041666666</v>
       </c>
       <c r="B75">
-        <v>11.831</v>
+        <v>4.988</v>
       </c>
       <c r="C75">
-        <v>0.018</v>
+        <v>0.678</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2531,10 +2537,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45757.77083333334</v>
+        <v>45775.77083333334</v>
       </c>
       <c r="B76">
-        <v>25.127</v>
+        <v>13.749</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2554,10 +2560,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45757.78125</v>
+        <v>45775.78125</v>
       </c>
       <c r="B77">
-        <v>41.224</v>
+        <v>33.849</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2577,13 +2583,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45757.79166666666</v>
+        <v>45775.79166666666</v>
       </c>
       <c r="B78">
-        <v>10.685</v>
+        <v>1.725</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1.429</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2600,16 +2606,16 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45757.80208333334</v>
+        <v>45775.80208333334</v>
       </c>
       <c r="B79">
-        <v>14.342</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>14.564</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>20.75</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2623,16 +2629,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45757.8125</v>
+        <v>45775.8125</v>
       </c>
       <c r="B80">
-        <v>48.526</v>
+        <v>0.118</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.247</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>20.75</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2646,16 +2652,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45757.82291666666</v>
+        <v>45775.82291666666</v>
       </c>
       <c r="B81">
-        <v>22.502</v>
+        <v>12.963</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D81">
-        <v>36.25</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2669,16 +2675,16 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45757.83333333334</v>
+        <v>45775.83333333334</v>
       </c>
       <c r="B82">
-        <v>42.183</v>
+        <v>11.982</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="D82">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2692,16 +2698,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45757.84375</v>
+        <v>45775.84375</v>
       </c>
       <c r="B83">
-        <v>31.725</v>
+        <v>2.933</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2715,16 +2721,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45757.85416666666</v>
+        <v>45775.85416666666</v>
       </c>
       <c r="B84">
-        <v>4.56</v>
+        <v>12.133</v>
       </c>
       <c r="C84">
-        <v>1.155</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2738,16 +2744,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45757.86458333334</v>
+        <v>45775.86458333334</v>
       </c>
       <c r="B85">
-        <v>0.003</v>
+        <v>1.84</v>
       </c>
       <c r="C85">
-        <v>2.292</v>
+        <v>0.15</v>
       </c>
       <c r="D85">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2761,16 +2767,16 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45757.875</v>
+        <v>45775.875</v>
       </c>
       <c r="B86">
-        <v>26.976</v>
+        <v>25.084</v>
       </c>
       <c r="C86">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2784,16 +2790,16 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45757.88541666666</v>
+        <v>45775.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.776</v>
       </c>
       <c r="C87">
-        <v>19.723</v>
+        <v>0.949</v>
       </c>
       <c r="D87">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2807,16 +2813,16 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45757.89583333334</v>
+        <v>45775.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>38.475</v>
+        <v>18.674</v>
       </c>
       <c r="D88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2830,16 +2836,16 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45757.90625</v>
+        <v>45775.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>47.916</v>
+        <v>31.125</v>
       </c>
       <c r="D89">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2853,13 +2859,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45757.91666666666</v>
+        <v>45775.91666666666</v>
       </c>
       <c r="B90">
-        <v>36.015</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>2.672</v>
+        <v>9.461</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2876,13 +2882,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45757.92708333334</v>
+        <v>45775.92708333334</v>
       </c>
       <c r="B91">
-        <v>9.744999999999999</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.005</v>
+        <v>6.516</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2899,13 +2905,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45757.9375</v>
+        <v>45775.9375</v>
       </c>
       <c r="B92">
-        <v>8.840999999999999</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>16.209</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2922,13 +2928,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45757.94791666666</v>
+        <v>45775.94791666666</v>
       </c>
       <c r="B93">
-        <v>3.967</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.012</v>
+        <v>9.093</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2945,13 +2951,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45757.95833333334</v>
+        <v>45775.95833333334</v>
       </c>
       <c r="B94">
-        <v>35.158</v>
+        <v>0.017</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2.771</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2968,13 +2974,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45757.96875</v>
+        <v>45775.96875</v>
       </c>
       <c r="B95">
-        <v>25.677</v>
+        <v>0.007</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>4.368</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2991,13 +2997,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45757.97916666666</v>
+        <v>45775.97916666666</v>
       </c>
       <c r="B96">
-        <v>21.271</v>
+        <v>0.003</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>7.067</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3014,13 +3020,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45757.98958333334</v>
+        <v>45775.98958333334</v>
       </c>
       <c r="B97">
-        <v>4.029</v>
+        <v>0.178</v>
       </c>
       <c r="C97">
-        <v>0.076</v>
+        <v>1.049</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3037,13 +3043,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>22.771</v>
+        <v>1.224</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3060,13 +3066,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
       <c r="B99">
-        <v>22.771</v>
+        <v>1.224</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3083,13 +3089,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B100">
-        <v>12.16</v>
+        <v>0.162</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3106,13 +3112,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B101">
-        <v>12.16</v>
+        <v>0.162</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3129,13 +3135,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B102">
-        <v>6.613</v>
+        <v>0.008</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1.854</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3152,13 +3158,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B103">
-        <v>6.613</v>
+        <v>0.008</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1.854</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3175,13 +3181,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B104">
-        <v>1.451</v>
+        <v>1.036</v>
       </c>
       <c r="C104">
-        <v>0.006</v>
+        <v>0.08</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3198,13 +3204,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B105">
-        <v>1.451</v>
+        <v>1.036</v>
       </c>
       <c r="C105">
-        <v>0.006</v>
+        <v>0.08</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3221,13 +3227,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B106">
-        <v>8.528</v>
+        <v>2.73</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.207</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3244,13 +3250,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B107">
-        <v>8.528</v>
+        <v>2.73</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.207</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3267,13 +3273,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B108">
-        <v>3.419</v>
+        <v>0.119</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1.841</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3290,13 +3296,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B109">
-        <v>3.419</v>
+        <v>0.119</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1.841</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3313,13 +3319,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B110">
-        <v>11.551</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>12.587</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3336,13 +3342,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B111">
-        <v>11.551</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>12.587</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3359,13 +3365,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B112">
-        <v>5.733</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>6.814</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3382,13 +3388,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B113">
-        <v>5.733</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>6.814</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3405,13 +3411,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B114">
-        <v>6.964</v>
+        <v>0.021</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3428,13 +3434,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B115">
-        <v>13.878</v>
+        <v>0.065</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.253</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3451,13 +3457,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B116">
-        <v>10.986</v>
+        <v>0.013</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3474,13 +3480,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B117">
-        <v>19.615</v>
+        <v>0.004</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1.741</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3497,13 +3503,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B118">
-        <v>20.311</v>
+        <v>0.018</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3520,13 +3526,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B119">
-        <v>8.208</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0.001</v>
+        <v>1.534</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3543,13 +3549,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B120">
-        <v>7.391</v>
+        <v>0.185</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3566,13 +3572,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B121">
-        <v>14.326</v>
+        <v>0.915</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3589,13 +3595,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B122">
-        <v>0.871</v>
+        <v>0.068</v>
       </c>
       <c r="C122">
-        <v>1.619</v>
+        <v>0.148</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3612,13 +3618,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B123">
-        <v>11.96</v>
+        <v>0.102</v>
       </c>
       <c r="C123">
-        <v>0.011</v>
+        <v>0.224</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3635,13 +3641,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B124">
-        <v>24.559</v>
+        <v>0.955</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3658,10 +3664,10 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B125">
-        <v>46.636</v>
+        <v>6.317</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3681,13 +3687,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B126">
-        <v>5.901</v>
+        <v>0.632</v>
       </c>
       <c r="C126">
-        <v>2.144</v>
+        <v>0.906</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3704,13 +3710,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B127">
-        <v>7.709</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>20.583</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3727,13 +3733,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B128">
-        <v>34.033</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>3.127</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3750,13 +3756,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B129">
-        <v>49.8</v>
+        <v>0.004</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3773,13 +3779,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B130">
-        <v>10.778</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>0.008</v>
+        <v>10.089</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3796,13 +3802,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B131">
-        <v>36.449</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>5.395</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3819,13 +3825,13 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B132">
-        <v>51.28</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>15.074</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3842,16 +3848,16 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B133">
-        <v>18.199</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>16.121</v>
       </c>
       <c r="D133">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3865,16 +3871,16 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B134">
-        <v>34.962</v>
+        <v>0.097</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1.572</v>
       </c>
       <c r="D134">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3888,16 +3894,16 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B135">
-        <v>55.35</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>0.655</v>
       </c>
       <c r="D135">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3911,16 +3917,16 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B136">
-        <v>33.727</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.004</v>
+        <v>17.638</v>
       </c>
       <c r="D136">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3934,16 +3940,16 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B137">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>13.4</v>
+        <v>45.925</v>
       </c>
       <c r="D137">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3957,16 +3963,16 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B138">
-        <v>25.725</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>1.472</v>
+        <v>4.233</v>
       </c>
       <c r="D138">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3980,16 +3986,16 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B139">
-        <v>10.605</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>5.229</v>
       </c>
       <c r="D139">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4003,16 +4009,16 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B140">
-        <v>2.637</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>0.864</v>
+        <v>23.439</v>
       </c>
       <c r="D140">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4026,19 +4032,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>25.352</v>
+        <v>37.68</v>
       </c>
       <c r="D141">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F141">
         <v>36</v>
@@ -4049,19 +4055,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B142">
-        <v>15.278</v>
+        <v>9.169</v>
       </c>
       <c r="C142">
-        <v>0.903</v>
+        <v>3.184</v>
       </c>
       <c r="D142">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F142">
         <v>37</v>
@@ -4072,25 +4078,71 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1.961</v>
       </c>
       <c r="D143">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F143">
         <v>38</v>
       </c>
       <c r="G143" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45776.39583333334</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>25</v>
+      </c>
+      <c r="F144">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45776.40625</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>25</v>
+      </c>
+      <c r="F145">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,412 +37,373 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>28.04.20251</t>
-  </si>
-  <si>
-    <t>28.04.20252</t>
-  </si>
-  <si>
-    <t>28.04.20253</t>
-  </si>
-  <si>
-    <t>28.04.20254</t>
-  </si>
-  <si>
-    <t>28.04.20255</t>
-  </si>
-  <si>
-    <t>28.04.20256</t>
-  </si>
-  <si>
-    <t>28.04.20257</t>
-  </si>
-  <si>
-    <t>28.04.20258</t>
-  </si>
-  <si>
-    <t>28.04.20259</t>
-  </si>
-  <si>
-    <t>28.04.202510</t>
-  </si>
-  <si>
-    <t>28.04.202511</t>
-  </si>
-  <si>
-    <t>28.04.202512</t>
-  </si>
-  <si>
-    <t>28.04.202513</t>
-  </si>
-  <si>
-    <t>28.04.202514</t>
-  </si>
-  <si>
-    <t>28.04.202515</t>
-  </si>
-  <si>
-    <t>28.04.202516</t>
-  </si>
-  <si>
-    <t>28.04.202517</t>
-  </si>
-  <si>
-    <t>28.04.202518</t>
-  </si>
-  <si>
-    <t>28.04.202519</t>
-  </si>
-  <si>
-    <t>28.04.202520</t>
-  </si>
-  <si>
-    <t>28.04.202521</t>
-  </si>
-  <si>
-    <t>28.04.202522</t>
-  </si>
-  <si>
-    <t>28.04.202523</t>
-  </si>
-  <si>
-    <t>28.04.202524</t>
-  </si>
-  <si>
-    <t>28.04.202525</t>
-  </si>
-  <si>
-    <t>28.04.202526</t>
-  </si>
-  <si>
-    <t>28.04.202527</t>
-  </si>
-  <si>
-    <t>28.04.202528</t>
-  </si>
-  <si>
-    <t>28.04.202529</t>
-  </si>
-  <si>
-    <t>28.04.202530</t>
-  </si>
-  <si>
-    <t>28.04.202531</t>
-  </si>
-  <si>
-    <t>28.04.202532</t>
-  </si>
-  <si>
-    <t>28.04.202533</t>
-  </si>
-  <si>
-    <t>28.04.202534</t>
-  </si>
-  <si>
-    <t>28.04.202535</t>
-  </si>
-  <si>
-    <t>28.04.202536</t>
-  </si>
-  <si>
-    <t>28.04.202537</t>
-  </si>
-  <si>
-    <t>28.04.202538</t>
-  </si>
-  <si>
-    <t>28.04.202539</t>
-  </si>
-  <si>
-    <t>28.04.202540</t>
-  </si>
-  <si>
-    <t>28.04.202541</t>
-  </si>
-  <si>
-    <t>28.04.202542</t>
-  </si>
-  <si>
-    <t>28.04.202543</t>
-  </si>
-  <si>
-    <t>28.04.202544</t>
-  </si>
-  <si>
-    <t>28.04.202545</t>
-  </si>
-  <si>
-    <t>28.04.202546</t>
-  </si>
-  <si>
-    <t>28.04.202547</t>
-  </si>
-  <si>
-    <t>28.04.202548</t>
-  </si>
-  <si>
-    <t>28.04.202549</t>
-  </si>
-  <si>
-    <t>28.04.202550</t>
-  </si>
-  <si>
-    <t>28.04.202551</t>
-  </si>
-  <si>
-    <t>28.04.202552</t>
-  </si>
-  <si>
-    <t>28.04.202553</t>
-  </si>
-  <si>
-    <t>28.04.202554</t>
-  </si>
-  <si>
-    <t>28.04.202555</t>
-  </si>
-  <si>
-    <t>28.04.202556</t>
-  </si>
-  <si>
-    <t>28.04.202557</t>
-  </si>
-  <si>
-    <t>28.04.202558</t>
-  </si>
-  <si>
-    <t>28.04.202559</t>
-  </si>
-  <si>
-    <t>28.04.202560</t>
-  </si>
-  <si>
-    <t>28.04.202561</t>
-  </si>
-  <si>
-    <t>28.04.202562</t>
-  </si>
-  <si>
-    <t>28.04.202563</t>
-  </si>
-  <si>
-    <t>28.04.202564</t>
-  </si>
-  <si>
-    <t>28.04.202565</t>
-  </si>
-  <si>
-    <t>28.04.202566</t>
-  </si>
-  <si>
-    <t>28.04.202567</t>
-  </si>
-  <si>
-    <t>28.04.202568</t>
-  </si>
-  <si>
-    <t>28.04.202569</t>
-  </si>
-  <si>
-    <t>28.04.202570</t>
-  </si>
-  <si>
-    <t>28.04.202571</t>
-  </si>
-  <si>
-    <t>28.04.202572</t>
-  </si>
-  <si>
-    <t>28.04.202573</t>
-  </si>
-  <si>
-    <t>28.04.202574</t>
-  </si>
-  <si>
-    <t>28.04.202575</t>
-  </si>
-  <si>
-    <t>28.04.202576</t>
-  </si>
-  <si>
-    <t>28.04.202577</t>
-  </si>
-  <si>
-    <t>28.04.202578</t>
-  </si>
-  <si>
-    <t>28.04.202579</t>
-  </si>
-  <si>
-    <t>28.04.202580</t>
-  </si>
-  <si>
-    <t>28.04.202581</t>
-  </si>
-  <si>
-    <t>28.04.202582</t>
-  </si>
-  <si>
-    <t>28.04.202583</t>
-  </si>
-  <si>
-    <t>28.04.202584</t>
-  </si>
-  <si>
-    <t>28.04.202585</t>
-  </si>
-  <si>
-    <t>28.04.202586</t>
-  </si>
-  <si>
-    <t>28.04.202587</t>
-  </si>
-  <si>
-    <t>28.04.202588</t>
-  </si>
-  <si>
-    <t>28.04.202589</t>
-  </si>
-  <si>
-    <t>28.04.202590</t>
-  </si>
-  <si>
-    <t>28.04.202591</t>
-  </si>
-  <si>
-    <t>28.04.202592</t>
-  </si>
-  <si>
-    <t>28.04.202593</t>
-  </si>
-  <si>
-    <t>28.04.202594</t>
-  </si>
-  <si>
-    <t>28.04.202595</t>
-  </si>
-  <si>
-    <t>28.04.202596</t>
-  </si>
-  <si>
-    <t>29.04.20251</t>
-  </si>
-  <si>
-    <t>29.04.20252</t>
-  </si>
-  <si>
-    <t>29.04.20253</t>
-  </si>
-  <si>
-    <t>29.04.20254</t>
-  </si>
-  <si>
-    <t>29.04.20255</t>
-  </si>
-  <si>
-    <t>29.04.20256</t>
-  </si>
-  <si>
-    <t>29.04.20257</t>
-  </si>
-  <si>
-    <t>29.04.20258</t>
-  </si>
-  <si>
-    <t>29.04.20259</t>
-  </si>
-  <si>
-    <t>29.04.202510</t>
-  </si>
-  <si>
-    <t>29.04.202511</t>
-  </si>
-  <si>
-    <t>29.04.202512</t>
-  </si>
-  <si>
-    <t>29.04.202513</t>
-  </si>
-  <si>
-    <t>29.04.202514</t>
-  </si>
-  <si>
-    <t>29.04.202515</t>
-  </si>
-  <si>
-    <t>29.04.202516</t>
-  </si>
-  <si>
-    <t>29.04.202517</t>
-  </si>
-  <si>
-    <t>29.04.202518</t>
-  </si>
-  <si>
-    <t>29.04.202519</t>
-  </si>
-  <si>
-    <t>29.04.202520</t>
-  </si>
-  <si>
-    <t>29.04.202521</t>
-  </si>
-  <si>
-    <t>29.04.202522</t>
-  </si>
-  <si>
-    <t>29.04.202523</t>
-  </si>
-  <si>
-    <t>29.04.202524</t>
-  </si>
-  <si>
-    <t>29.04.202525</t>
-  </si>
-  <si>
-    <t>29.04.202526</t>
-  </si>
-  <si>
-    <t>29.04.202527</t>
-  </si>
-  <si>
-    <t>29.04.202528</t>
-  </si>
-  <si>
-    <t>29.04.202529</t>
-  </si>
-  <si>
-    <t>29.04.202530</t>
-  </si>
-  <si>
-    <t>29.04.202531</t>
-  </si>
-  <si>
-    <t>29.04.202532</t>
-  </si>
-  <si>
-    <t>29.04.202533</t>
-  </si>
-  <si>
-    <t>29.04.202534</t>
-  </si>
-  <si>
-    <t>29.04.202535</t>
-  </si>
-  <si>
-    <t>29.04.202536</t>
-  </si>
-  <si>
-    <t>29.04.202537</t>
-  </si>
-  <si>
-    <t>29.04.202538</t>
-  </si>
-  <si>
-    <t>29.04.202539</t>
-  </si>
-  <si>
-    <t>29.04.202540</t>
+    <t>08.05.20251</t>
+  </si>
+  <si>
+    <t>08.05.20252</t>
+  </si>
+  <si>
+    <t>08.05.20253</t>
+  </si>
+  <si>
+    <t>08.05.20254</t>
+  </si>
+  <si>
+    <t>08.05.20255</t>
+  </si>
+  <si>
+    <t>08.05.20256</t>
+  </si>
+  <si>
+    <t>08.05.20257</t>
+  </si>
+  <si>
+    <t>08.05.20258</t>
+  </si>
+  <si>
+    <t>08.05.20259</t>
+  </si>
+  <si>
+    <t>08.05.202510</t>
+  </si>
+  <si>
+    <t>08.05.202511</t>
+  </si>
+  <si>
+    <t>08.05.202512</t>
+  </si>
+  <si>
+    <t>08.05.202513</t>
+  </si>
+  <si>
+    <t>08.05.202514</t>
+  </si>
+  <si>
+    <t>08.05.202515</t>
+  </si>
+  <si>
+    <t>08.05.202516</t>
+  </si>
+  <si>
+    <t>08.05.202517</t>
+  </si>
+  <si>
+    <t>08.05.202518</t>
+  </si>
+  <si>
+    <t>08.05.202519</t>
+  </si>
+  <si>
+    <t>08.05.202520</t>
+  </si>
+  <si>
+    <t>08.05.202521</t>
+  </si>
+  <si>
+    <t>08.05.202522</t>
+  </si>
+  <si>
+    <t>08.05.202523</t>
+  </si>
+  <si>
+    <t>08.05.202524</t>
+  </si>
+  <si>
+    <t>08.05.202525</t>
+  </si>
+  <si>
+    <t>08.05.202526</t>
+  </si>
+  <si>
+    <t>08.05.202527</t>
+  </si>
+  <si>
+    <t>08.05.202528</t>
+  </si>
+  <si>
+    <t>08.05.202529</t>
+  </si>
+  <si>
+    <t>08.05.202530</t>
+  </si>
+  <si>
+    <t>08.05.202531</t>
+  </si>
+  <si>
+    <t>08.05.202532</t>
+  </si>
+  <si>
+    <t>08.05.202533</t>
+  </si>
+  <si>
+    <t>08.05.202534</t>
+  </si>
+  <si>
+    <t>08.05.202535</t>
+  </si>
+  <si>
+    <t>08.05.202536</t>
+  </si>
+  <si>
+    <t>08.05.202537</t>
+  </si>
+  <si>
+    <t>08.05.202538</t>
+  </si>
+  <si>
+    <t>08.05.202539</t>
+  </si>
+  <si>
+    <t>08.05.202540</t>
+  </si>
+  <si>
+    <t>08.05.202541</t>
+  </si>
+  <si>
+    <t>08.05.202542</t>
+  </si>
+  <si>
+    <t>08.05.202543</t>
+  </si>
+  <si>
+    <t>08.05.202544</t>
+  </si>
+  <si>
+    <t>08.05.202545</t>
+  </si>
+  <si>
+    <t>08.05.202546</t>
+  </si>
+  <si>
+    <t>08.05.202547</t>
+  </si>
+  <si>
+    <t>08.05.202548</t>
+  </si>
+  <si>
+    <t>08.05.202549</t>
+  </si>
+  <si>
+    <t>08.05.202550</t>
+  </si>
+  <si>
+    <t>08.05.202551</t>
+  </si>
+  <si>
+    <t>08.05.202552</t>
+  </si>
+  <si>
+    <t>08.05.202553</t>
+  </si>
+  <si>
+    <t>08.05.202554</t>
+  </si>
+  <si>
+    <t>08.05.202555</t>
+  </si>
+  <si>
+    <t>08.05.202556</t>
+  </si>
+  <si>
+    <t>08.05.202557</t>
+  </si>
+  <si>
+    <t>08.05.202558</t>
+  </si>
+  <si>
+    <t>08.05.202559</t>
+  </si>
+  <si>
+    <t>08.05.202560</t>
+  </si>
+  <si>
+    <t>08.05.202561</t>
+  </si>
+  <si>
+    <t>08.05.202562</t>
+  </si>
+  <si>
+    <t>08.05.202563</t>
+  </si>
+  <si>
+    <t>08.05.202564</t>
+  </si>
+  <si>
+    <t>08.05.202565</t>
+  </si>
+  <si>
+    <t>08.05.202566</t>
+  </si>
+  <si>
+    <t>08.05.202567</t>
+  </si>
+  <si>
+    <t>08.05.202568</t>
+  </si>
+  <si>
+    <t>08.05.202569</t>
+  </si>
+  <si>
+    <t>08.05.202570</t>
+  </si>
+  <si>
+    <t>08.05.202571</t>
+  </si>
+  <si>
+    <t>08.05.202572</t>
+  </si>
+  <si>
+    <t>08.05.202573</t>
+  </si>
+  <si>
+    <t>08.05.202574</t>
+  </si>
+  <si>
+    <t>08.05.202575</t>
+  </si>
+  <si>
+    <t>08.05.202576</t>
+  </si>
+  <si>
+    <t>08.05.202577</t>
+  </si>
+  <si>
+    <t>08.05.202578</t>
+  </si>
+  <si>
+    <t>08.05.202579</t>
+  </si>
+  <si>
+    <t>08.05.202580</t>
+  </si>
+  <si>
+    <t>08.05.202581</t>
+  </si>
+  <si>
+    <t>08.05.202582</t>
+  </si>
+  <si>
+    <t>08.05.202583</t>
+  </si>
+  <si>
+    <t>08.05.202584</t>
+  </si>
+  <si>
+    <t>08.05.202585</t>
+  </si>
+  <si>
+    <t>08.05.202586</t>
+  </si>
+  <si>
+    <t>08.05.202587</t>
+  </si>
+  <si>
+    <t>08.05.202588</t>
+  </si>
+  <si>
+    <t>08.05.202589</t>
+  </si>
+  <si>
+    <t>08.05.202590</t>
+  </si>
+  <si>
+    <t>08.05.202591</t>
+  </si>
+  <si>
+    <t>08.05.202592</t>
+  </si>
+  <si>
+    <t>08.05.202593</t>
+  </si>
+  <si>
+    <t>08.05.202594</t>
+  </si>
+  <si>
+    <t>08.05.202595</t>
+  </si>
+  <si>
+    <t>08.05.202596</t>
+  </si>
+  <si>
+    <t>09.05.20251</t>
+  </si>
+  <si>
+    <t>09.05.20252</t>
+  </si>
+  <si>
+    <t>09.05.20253</t>
+  </si>
+  <si>
+    <t>09.05.20254</t>
+  </si>
+  <si>
+    <t>09.05.20255</t>
+  </si>
+  <si>
+    <t>09.05.20256</t>
+  </si>
+  <si>
+    <t>09.05.20257</t>
+  </si>
+  <si>
+    <t>09.05.20258</t>
+  </si>
+  <si>
+    <t>09.05.20259</t>
+  </si>
+  <si>
+    <t>09.05.202510</t>
+  </si>
+  <si>
+    <t>09.05.202511</t>
+  </si>
+  <si>
+    <t>09.05.202512</t>
+  </si>
+  <si>
+    <t>09.05.202513</t>
+  </si>
+  <si>
+    <t>09.05.202514</t>
+  </si>
+  <si>
+    <t>09.05.202515</t>
+  </si>
+  <si>
+    <t>09.05.202516</t>
+  </si>
+  <si>
+    <t>09.05.202517</t>
+  </si>
+  <si>
+    <t>09.05.202518</t>
+  </si>
+  <si>
+    <t>09.05.202519</t>
+  </si>
+  <si>
+    <t>09.05.202520</t>
+  </si>
+  <si>
+    <t>09.05.202521</t>
+  </si>
+  <si>
+    <t>09.05.202522</t>
+  </si>
+  <si>
+    <t>09.05.202523</t>
+  </si>
+  <si>
+    <t>09.05.202524</t>
+  </si>
+  <si>
+    <t>09.05.202525</t>
+  </si>
+  <si>
+    <t>09.05.202526</t>
+  </si>
+  <si>
+    <t>09.05.202527</t>
   </si>
 </sst>
 </file>
@@ -804,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,13 +796,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45775</v>
+        <v>45785</v>
       </c>
       <c r="B2">
-        <v>0.759</v>
+        <v>0.106</v>
       </c>
       <c r="C2">
-        <v>0.833</v>
+        <v>4.347</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -858,13 +819,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45775.01041666666</v>
+        <v>45785.01041666666</v>
       </c>
       <c r="B3">
-        <v>5.754</v>
+        <v>2.944</v>
       </c>
       <c r="C3">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -881,13 +842,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45775.02083333334</v>
+        <v>45785.02083333334</v>
       </c>
       <c r="B4">
-        <v>1.806</v>
+        <v>0.311</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>1.268</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -904,13 +865,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45775.03125</v>
+        <v>45785.03125</v>
       </c>
       <c r="B5">
-        <v>1.253</v>
+        <v>0.048</v>
       </c>
       <c r="C5">
-        <v>0.284</v>
+        <v>3.242</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -927,13 +888,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45775.04166666666</v>
+        <v>45785.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.131</v>
+        <v>0.043</v>
       </c>
       <c r="C6">
-        <v>0.148</v>
+        <v>0.426</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -950,13 +911,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45775.05208333334</v>
+        <v>45785.05208333334</v>
       </c>
       <c r="B7">
-        <v>8.204000000000001</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5.984</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -973,13 +934,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45775.0625</v>
+        <v>45785.0625</v>
       </c>
       <c r="B8">
-        <v>4.34</v>
+        <v>0.012</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -996,13 +957,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45775.07291666666</v>
+        <v>45785.07291666666</v>
       </c>
       <c r="B9">
-        <v>1.781</v>
+        <v>0.014</v>
       </c>
       <c r="C9">
-        <v>1.006</v>
+        <v>1.365</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1019,13 +980,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45775.08333333334</v>
+        <v>45785.08333333334</v>
       </c>
       <c r="B10">
-        <v>5.297</v>
+        <v>0.004</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.539</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1042,13 +1003,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45775.09375</v>
+        <v>45785.09375</v>
       </c>
       <c r="B11">
-        <v>6.324</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>12.554</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1065,13 +1026,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45775.10416666666</v>
+        <v>45785.10416666666</v>
       </c>
       <c r="B12">
-        <v>9.090999999999999</v>
+        <v>0.017</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4.446</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1088,13 +1049,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45775.11458333334</v>
+        <v>45785.11458333334</v>
       </c>
       <c r="B13">
-        <v>7.413</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1111,13 +1072,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45775.125</v>
+        <v>45785.125</v>
       </c>
       <c r="B14">
-        <v>0.968</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C14">
-        <v>0.075</v>
+        <v>1.96</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1134,13 +1095,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45775.13541666666</v>
+        <v>45785.13541666666</v>
       </c>
       <c r="B15">
-        <v>4.854</v>
+        <v>0.584</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1157,13 +1118,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45775.14583333334</v>
+        <v>45785.14583333334</v>
       </c>
       <c r="B16">
-        <v>12.114</v>
+        <v>3.817</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.972</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1180,10 +1141,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45775.15625</v>
+        <v>45785.15625</v>
       </c>
       <c r="B17">
-        <v>10.565</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1203,13 +1164,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45775.16666666666</v>
+        <v>45785.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.712</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.004</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1226,13 +1187,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45775.17708333334</v>
+        <v>45785.17708333334</v>
       </c>
       <c r="B19">
-        <v>2.429</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1249,13 +1210,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45775.1875</v>
+        <v>45785.1875</v>
       </c>
       <c r="B20">
-        <v>5.195</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4.358</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1272,13 +1233,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45775.19791666666</v>
+        <v>45785.19791666666</v>
       </c>
       <c r="B21">
-        <v>2.206</v>
+        <v>0.008</v>
       </c>
       <c r="C21">
-        <v>0.005</v>
+        <v>3.315</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1295,13 +1256,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45775.20833333334</v>
+        <v>45785.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2.568</v>
+        <v>13.138</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1318,13 +1279,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45775.21875</v>
+        <v>45785.21875</v>
       </c>
       <c r="B23">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>5.569</v>
+        <v>1.266</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1341,13 +1302,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45775.22916666666</v>
+        <v>45785.22916666666</v>
       </c>
       <c r="B24">
-        <v>6.851</v>
+        <v>0.206</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1364,10 +1325,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45775.23958333334</v>
+        <v>45785.23958333334</v>
       </c>
       <c r="B25">
-        <v>11.022</v>
+        <v>12.712</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1387,13 +1348,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45775.25</v>
+        <v>45785.25</v>
       </c>
       <c r="B26">
-        <v>12.655</v>
+        <v>0.064</v>
       </c>
       <c r="C26">
-        <v>0.779</v>
+        <v>4.848</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1410,13 +1371,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45775.26041666666</v>
+        <v>45785.26041666666</v>
       </c>
       <c r="B27">
-        <v>18.926</v>
+        <v>0.098</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1433,19 +1394,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45775.27083333334</v>
+        <v>45785.27083333334</v>
       </c>
       <c r="B28">
-        <v>9.41</v>
+        <v>5.16</v>
       </c>
       <c r="C28">
-        <v>0.052</v>
+        <v>0.022</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1456,19 +1417,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45775.28125</v>
+        <v>45785.28125</v>
       </c>
       <c r="B29">
-        <v>3.407</v>
+        <v>2.891</v>
       </c>
       <c r="C29">
-        <v>0.003</v>
+        <v>0.013</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1479,13 +1440,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45775.29166666666</v>
+        <v>45785.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.195</v>
+        <v>0.024</v>
       </c>
       <c r="C30">
-        <v>1.629</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1502,13 +1463,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45775.30208333334</v>
+        <v>45785.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="C31">
-        <v>7.808</v>
+        <v>0.317</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1525,13 +1486,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45775.3125</v>
+        <v>45785.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="C32">
-        <v>30.44</v>
+        <v>0.241</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1548,13 +1509,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45775.32291666666</v>
+        <v>45785.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>39.271</v>
+        <v>1.618</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1571,13 +1532,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45775.33333333334</v>
+        <v>45785.33333333334</v>
       </c>
       <c r="B34">
-        <v>5.351</v>
+        <v>0.219</v>
       </c>
       <c r="C34">
-        <v>2.295</v>
+        <v>0.207</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1594,19 +1555,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45775.34375</v>
+        <v>45785.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="C35">
-        <v>9.653</v>
+        <v>1.883</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1617,19 +1578,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45775.35416666666</v>
+        <v>45785.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>17.194</v>
+        <v>5.468</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1640,19 +1601,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45775.36458333334</v>
+        <v>45785.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>38.766</v>
+        <v>33.621</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1663,19 +1624,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45775.375</v>
+        <v>45785.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>5.511</v>
       </c>
       <c r="C38">
-        <v>9.300000000000001</v>
+        <v>7.645</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1686,19 +1647,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45775.38541666666</v>
+        <v>45785.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>5.763</v>
       </c>
       <c r="C39">
-        <v>31.535</v>
+        <v>2.336</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1709,13 +1670,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45775.39583333334</v>
+        <v>45785.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>48.304</v>
+        <v>12.54</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1732,13 +1693,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45775.40625</v>
+        <v>45785.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>51.582</v>
+        <v>27.116</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1755,19 +1716,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45775.41666666666</v>
+        <v>45785.41666666666</v>
       </c>
       <c r="B42">
-        <v>4.641</v>
+        <v>0.018</v>
       </c>
       <c r="C42">
-        <v>4.435</v>
+        <v>1.425</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1778,19 +1739,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45775.42708333334</v>
+        <v>45785.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>10.181</v>
+        <v>5.079</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1801,19 +1762,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45775.4375</v>
+        <v>45785.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>2.212</v>
       </c>
       <c r="C44">
-        <v>25.578</v>
+        <v>0.267</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1824,19 +1785,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45775.44791666666</v>
+        <v>45785.44791666666</v>
       </c>
       <c r="B45">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>15.112</v>
+        <v>7.028</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1847,19 +1808,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45775.45833333334</v>
+        <v>45785.45833333334</v>
       </c>
       <c r="B46">
-        <v>4.597</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>5.51</v>
+        <v>11.322</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1870,19 +1831,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45775.46875</v>
+        <v>45785.46875</v>
       </c>
       <c r="B47">
-        <v>7.878</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>13.838</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1893,19 +1854,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45775.47916666666</v>
+        <v>45785.47916666666</v>
       </c>
       <c r="B48">
-        <v>2.974</v>
+        <v>0.018</v>
       </c>
       <c r="C48">
-        <v>0.551</v>
+        <v>1.046</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1916,19 +1877,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45775.48958333334</v>
+        <v>45785.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.04</v>
+        <v>0.105</v>
       </c>
       <c r="C49">
-        <v>8.43</v>
+        <v>0.738</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1939,19 +1900,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45775.5</v>
+        <v>45785.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="C50">
-        <v>20.366</v>
+        <v>0.184</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1962,19 +1923,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45775.51041666666</v>
+        <v>45785.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C51">
-        <v>16.801</v>
+        <v>1.086</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1985,19 +1946,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45775.52083333334</v>
+        <v>45785.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.544</v>
+        <v>4.747</v>
       </c>
       <c r="C52">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -2008,19 +1969,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45775.53125</v>
+        <v>45785.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>10.205</v>
       </c>
       <c r="C53">
-        <v>19.322</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2031,19 +1992,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45775.54166666666</v>
+        <v>45785.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.005</v>
+        <v>31.947</v>
       </c>
       <c r="C54">
-        <v>6.854</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2054,19 +2015,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45775.55208333334</v>
+        <v>45785.55208333334</v>
       </c>
       <c r="B55">
-        <v>0.023</v>
+        <v>18.869</v>
       </c>
       <c r="C55">
-        <v>5.291</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2077,19 +2038,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45775.5625</v>
+        <v>45785.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>2.496</v>
       </c>
       <c r="C56">
-        <v>13.661</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2100,19 +2061,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45775.57291666666</v>
+        <v>45785.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.156</v>
+        <v>2.152</v>
       </c>
       <c r="C57">
-        <v>16.404</v>
+        <v>0.097</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2123,19 +2084,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45775.58333333334</v>
+        <v>45785.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>15.064</v>
+        <v>1.599</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2146,19 +2107,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45775.59375</v>
+        <v>45785.59375</v>
       </c>
       <c r="B59">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>13.535</v>
+        <v>0.505</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -2169,19 +2130,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45775.60416666666</v>
+        <v>45785.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -2192,19 +2153,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45775.61458333334</v>
+        <v>45785.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="C61">
-        <v>6.403</v>
+        <v>0.355</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -2215,19 +2176,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45775.625</v>
+        <v>45785.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="C62">
-        <v>45.386</v>
+        <v>0.344</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>48.75</v>
+        <v>50</v>
       </c>
       <c r="F62">
         <v>61</v>
@@ -2238,19 +2199,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45775.63541666666</v>
+        <v>45785.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.446</v>
       </c>
       <c r="C63">
-        <v>47.112</v>
+        <v>1.754</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -2261,19 +2222,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45775.64583333334</v>
+        <v>45785.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>21.931</v>
       </c>
       <c r="C64">
-        <v>27.316</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>48.75</v>
+        <v>50</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -2284,19 +2245,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45775.65625</v>
+        <v>45785.65625</v>
       </c>
       <c r="B65">
-        <v>0.017</v>
+        <v>23.673</v>
       </c>
       <c r="C65">
-        <v>0.743</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>48.75</v>
+        <v>50</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -2307,19 +2268,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45775.66666666666</v>
+        <v>45785.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>3.067</v>
       </c>
       <c r="C66">
-        <v>34.001</v>
+        <v>0.21</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>65</v>
@@ -2330,19 +2291,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45775.67708333334</v>
+        <v>45785.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="C67">
-        <v>12.959</v>
+        <v>0.171</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>66</v>
@@ -2353,19 +2314,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45775.6875</v>
+        <v>45785.6875</v>
       </c>
       <c r="B68">
-        <v>14.356</v>
+        <v>22.264</v>
       </c>
       <c r="C68">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>67</v>
@@ -2376,10 +2337,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45775.69791666666</v>
+        <v>45785.69791666666</v>
       </c>
       <c r="B69">
-        <v>27.259</v>
+        <v>37.467</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2388,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -2399,19 +2360,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45775.70833333334</v>
+        <v>45785.70833333334</v>
       </c>
       <c r="B70">
-        <v>1.399</v>
+        <v>28.441</v>
       </c>
       <c r="C70">
-        <v>1.993</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2422,19 +2383,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45775.71875</v>
+        <v>45785.71875</v>
       </c>
       <c r="B71">
-        <v>4.317</v>
+        <v>30.716</v>
       </c>
       <c r="C71">
-        <v>2.788</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2445,16 +2406,16 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45775.72916666666</v>
+        <v>45785.72916666666</v>
       </c>
       <c r="B72">
-        <v>8.105</v>
+        <v>19.624</v>
       </c>
       <c r="C72">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2468,16 +2429,16 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45775.73958333334</v>
+        <v>45785.73958333334</v>
       </c>
       <c r="B73">
-        <v>7.682</v>
+        <v>8.157</v>
       </c>
       <c r="C73">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2491,16 +2452,16 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45775.75</v>
+        <v>45785.75</v>
       </c>
       <c r="B74">
-        <v>0.012</v>
+        <v>0.023</v>
       </c>
       <c r="C74">
-        <v>13.583</v>
+        <v>9.932</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2514,16 +2475,16 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45775.76041666666</v>
+        <v>45785.76041666666</v>
       </c>
       <c r="B75">
-        <v>4.988</v>
+        <v>0.013</v>
       </c>
       <c r="C75">
-        <v>0.678</v>
+        <v>3.622</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2537,16 +2498,16 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45775.77083333334</v>
+        <v>45785.77083333334</v>
       </c>
       <c r="B76">
-        <v>13.749</v>
+        <v>0.223</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2560,10 +2521,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45775.78125</v>
+        <v>45785.78125</v>
       </c>
       <c r="B77">
-        <v>33.849</v>
+        <v>19.393</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2583,13 +2544,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45775.79166666666</v>
+        <v>45785.79166666666</v>
       </c>
       <c r="B78">
-        <v>1.725</v>
+        <v>2.553</v>
       </c>
       <c r="C78">
-        <v>1.429</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2606,16 +2567,16 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45775.80208333334</v>
+        <v>45785.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="C79">
-        <v>14.564</v>
+        <v>0.054</v>
       </c>
       <c r="D79">
-        <v>20.75</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2629,16 +2590,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45775.8125</v>
+        <v>45785.8125</v>
       </c>
       <c r="B80">
-        <v>0.118</v>
+        <v>1.287</v>
       </c>
       <c r="C80">
-        <v>0.247</v>
+        <v>0.066</v>
       </c>
       <c r="D80">
-        <v>20.75</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2652,16 +2613,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45775.82291666666</v>
+        <v>45785.82291666666</v>
       </c>
       <c r="B81">
-        <v>12.963</v>
+        <v>0.045</v>
       </c>
       <c r="C81">
-        <v>0.012</v>
+        <v>0.251</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2675,13 +2636,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45775.83333333334</v>
+        <v>45785.83333333334</v>
       </c>
       <c r="B82">
-        <v>11.982</v>
+        <v>0.233</v>
       </c>
       <c r="C82">
-        <v>0.004</v>
+        <v>0.064</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2698,13 +2659,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45775.84375</v>
+        <v>45785.84375</v>
       </c>
       <c r="B83">
-        <v>2.933</v>
+        <v>2.756</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2721,13 +2682,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45775.85416666666</v>
+        <v>45785.85416666666</v>
       </c>
       <c r="B84">
-        <v>12.133</v>
+        <v>0.275</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.258</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2744,13 +2705,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45775.86458333334</v>
+        <v>45785.86458333334</v>
       </c>
       <c r="B85">
-        <v>1.84</v>
+        <v>0.092</v>
       </c>
       <c r="C85">
-        <v>0.15</v>
+        <v>1.046</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2767,13 +2728,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45775.875</v>
+        <v>45785.875</v>
       </c>
       <c r="B86">
-        <v>25.084</v>
+        <v>6.823</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2790,13 +2751,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45775.88541666666</v>
+        <v>45785.88541666666</v>
       </c>
       <c r="B87">
-        <v>0.776</v>
+        <v>2.833</v>
       </c>
       <c r="C87">
-        <v>0.949</v>
+        <v>5.776</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2813,13 +2774,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45775.89583333334</v>
+        <v>45785.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>18.674</v>
+        <v>8.436999999999999</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2836,13 +2797,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45775.90625</v>
+        <v>45785.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>31.125</v>
+        <v>47.957</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2859,13 +2820,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45775.91666666666</v>
+        <v>45785.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1.799</v>
       </c>
       <c r="C90">
-        <v>9.461</v>
+        <v>3.848</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2882,19 +2843,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45775.92708333334</v>
+        <v>45785.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>33.349</v>
       </c>
       <c r="C91">
-        <v>6.516</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F91">
         <v>90</v>
@@ -2905,19 +2866,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45775.9375</v>
+        <v>45785.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>16.092</v>
       </c>
       <c r="C92">
-        <v>16.209</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F92">
         <v>91</v>
@@ -2928,19 +2889,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45775.94791666666</v>
+        <v>45785.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>12.338</v>
       </c>
       <c r="C93">
-        <v>9.093</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F93">
         <v>92</v>
@@ -2951,19 +2912,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45775.95833333334</v>
+        <v>45785.95833333334</v>
       </c>
       <c r="B94">
-        <v>0.017</v>
+        <v>29.144</v>
       </c>
       <c r="C94">
-        <v>2.771</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F94">
         <v>93</v>
@@ -2974,19 +2935,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45775.96875</v>
+        <v>45785.96875</v>
       </c>
       <c r="B95">
-        <v>0.007</v>
+        <v>48.453</v>
       </c>
       <c r="C95">
-        <v>4.368</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F95">
         <v>94</v>
@@ -2997,19 +2958,19 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45775.97916666666</v>
+        <v>45785.97916666666</v>
       </c>
       <c r="B96">
-        <v>0.003</v>
+        <v>30.602</v>
       </c>
       <c r="C96">
-        <v>7.067</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F96">
         <v>95</v>
@@ -3020,13 +2981,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45775.98958333334</v>
+        <v>45785.98958333334</v>
       </c>
       <c r="B97">
-        <v>0.178</v>
+        <v>3.974</v>
       </c>
       <c r="C97">
-        <v>1.049</v>
+        <v>3.14</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3043,13 +3004,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B98">
-        <v>1.224</v>
+        <v>8.911</v>
       </c>
       <c r="C98">
-        <v>0.156</v>
+        <v>1.292</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3066,13 +3027,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B99">
-        <v>1.224</v>
+        <v>8.911</v>
       </c>
       <c r="C99">
-        <v>0.156</v>
+        <v>1.292</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3089,13 +3050,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B100">
-        <v>0.162</v>
+        <v>22.022</v>
       </c>
       <c r="C100">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3112,13 +3073,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B101">
-        <v>0.162</v>
+        <v>22.022</v>
       </c>
       <c r="C101">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3135,13 +3096,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B102">
-        <v>0.008</v>
+        <v>15.108</v>
       </c>
       <c r="C102">
-        <v>1.854</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3158,13 +3119,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B103">
-        <v>0.008</v>
+        <v>15.108</v>
       </c>
       <c r="C103">
-        <v>1.854</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3181,13 +3142,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B104">
-        <v>1.036</v>
+        <v>1.506</v>
       </c>
       <c r="C104">
-        <v>0.08</v>
+        <v>2.683</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3204,13 +3165,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B105">
-        <v>1.036</v>
+        <v>1.506</v>
       </c>
       <c r="C105">
-        <v>0.08</v>
+        <v>2.683</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3227,13 +3188,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B106">
-        <v>2.73</v>
+        <v>0.034</v>
       </c>
       <c r="C106">
-        <v>0.207</v>
+        <v>2.739</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3250,13 +3211,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B107">
-        <v>2.73</v>
+        <v>0.034</v>
       </c>
       <c r="C107">
-        <v>0.207</v>
+        <v>2.739</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3273,19 +3234,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B108">
-        <v>0.119</v>
+        <v>0.227</v>
       </c>
       <c r="C108">
-        <v>1.841</v>
+        <v>0.09</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F108">
         <v>6</v>
@@ -3296,19 +3257,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B109">
-        <v>0.119</v>
+        <v>0.227</v>
       </c>
       <c r="C109">
-        <v>1.841</v>
+        <v>0.09</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F109">
         <v>6</v>
@@ -3319,19 +3280,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>0.285</v>
       </c>
       <c r="C110">
-        <v>12.587</v>
+        <v>0.006</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F110">
         <v>7</v>
@@ -3342,19 +3303,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>0.285</v>
       </c>
       <c r="C111">
-        <v>12.587</v>
+        <v>0.006</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F111">
         <v>7</v>
@@ -3365,19 +3326,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>0.319</v>
       </c>
       <c r="C112">
-        <v>6.814</v>
+        <v>1.088</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F112">
         <v>8</v>
@@ -3388,19 +3349,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.319</v>
       </c>
       <c r="C113">
-        <v>6.814</v>
+        <v>1.088</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F113">
         <v>8</v>
@@ -3411,19 +3372,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B114">
-        <v>0.021</v>
+        <v>0.043</v>
       </c>
       <c r="C114">
-        <v>0.66</v>
+        <v>1.902</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F114">
         <v>9</v>
@@ -3434,19 +3395,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B115">
-        <v>0.065</v>
+        <v>0.435</v>
       </c>
       <c r="C115">
-        <v>0.253</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -3457,19 +3418,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B116">
-        <v>0.013</v>
+        <v>32.658</v>
       </c>
       <c r="C116">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F116">
         <v>11</v>
@@ -3480,13 +3441,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B117">
-        <v>0.004</v>
+        <v>14.045</v>
       </c>
       <c r="C117">
-        <v>1.741</v>
+        <v>0.133</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3503,13 +3464,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B118">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>2.97</v>
+        <v>8.936999999999999</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3526,13 +3487,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>1.534</v>
+        <v>15.276</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3549,13 +3510,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B120">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0.098</v>
+        <v>21.554</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3572,13 +3533,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B121">
-        <v>0.915</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0.007</v>
+        <v>17.381</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3595,13 +3556,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B122">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0.148</v>
+        <v>42.17</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3618,13 +3579,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B123">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>0.224</v>
+        <v>56.065</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3641,19 +3602,19 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B124">
-        <v>0.955</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>0.011</v>
+        <v>31.155</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F124">
         <v>19</v>
@@ -3664,19 +3625,19 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B125">
-        <v>6.317</v>
+        <v>0.013</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>11.81</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F125">
         <v>20</v>
@@ -3687,19 +3648,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B126">
-        <v>0.632</v>
+        <v>0.178</v>
       </c>
       <c r="C126">
-        <v>0.906</v>
+        <v>0.165</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="F126">
         <v>21</v>
@@ -3710,19 +3671,19 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>0.127</v>
       </c>
       <c r="C127">
-        <v>20.583</v>
+        <v>0.135</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="F127">
         <v>22</v>
@@ -3733,19 +3694,19 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.964</v>
       </c>
       <c r="C128">
-        <v>3.127</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="F128">
         <v>23</v>
@@ -3756,19 +3717,19 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B129">
-        <v>0.004</v>
+        <v>12.194</v>
       </c>
       <c r="C129">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="F129">
         <v>24</v>
@@ -3779,19 +3740,19 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1.451</v>
       </c>
       <c r="C130">
-        <v>10.089</v>
+        <v>3.638</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F130">
         <v>25</v>
@@ -3802,19 +3763,19 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>4.892</v>
       </c>
       <c r="C131">
-        <v>5.395</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F131">
         <v>26</v>
@@ -3825,324 +3786,25 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>15.074</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F132">
         <v>27</v>
       </c>
       <c r="G132" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="2">
-        <v>45776.28125</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>16.121</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>28</v>
-      </c>
-      <c r="G133" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="2">
-        <v>45776.29166666666</v>
-      </c>
-      <c r="B134">
-        <v>0.097</v>
-      </c>
-      <c r="C134">
-        <v>1.572</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>29</v>
-      </c>
-      <c r="G134" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="2">
-        <v>45776.30208333334</v>
-      </c>
-      <c r="B135">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C135">
-        <v>0.655</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>30</v>
-      </c>
-      <c r="G135" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="2">
-        <v>45776.3125</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>17.638</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>31</v>
-      </c>
-      <c r="G136" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="2">
-        <v>45776.32291666666</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>45.925</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>32</v>
-      </c>
-      <c r="G137" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="2">
-        <v>45776.33333333334</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>4.233</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>33</v>
-      </c>
-      <c r="G138" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="2">
-        <v>45776.34375</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>5.229</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>34</v>
-      </c>
-      <c r="G139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="2">
-        <v>45776.35416666666</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>23.439</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>35</v>
-      </c>
-      <c r="G140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="2">
-        <v>45776.36458333334</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>37.68</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>25</v>
-      </c>
-      <c r="F141">
-        <v>36</v>
-      </c>
-      <c r="G141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="2">
-        <v>45776.375</v>
-      </c>
-      <c r="B142">
-        <v>9.169</v>
-      </c>
-      <c r="C142">
-        <v>3.184</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>25</v>
-      </c>
-      <c r="F142">
-        <v>37</v>
-      </c>
-      <c r="G142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="2">
-        <v>45776.38541666666</v>
-      </c>
-      <c r="B143">
-        <v>0.417</v>
-      </c>
-      <c r="C143">
-        <v>1.961</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>25</v>
-      </c>
-      <c r="F143">
-        <v>38</v>
-      </c>
-      <c r="G143" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="2">
-        <v>45776.39583333334</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>25</v>
-      </c>
-      <c r="F144">
-        <v>39</v>
-      </c>
-      <c r="G144" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="2">
-        <v>45776.40625</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>25</v>
-      </c>
-      <c r="F145">
-        <v>40</v>
-      </c>
-      <c r="G145" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,373 +37,418 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.05.20251</t>
-  </si>
-  <si>
-    <t>08.05.20252</t>
-  </si>
-  <si>
-    <t>08.05.20253</t>
-  </si>
-  <si>
-    <t>08.05.20254</t>
-  </si>
-  <si>
-    <t>08.05.20255</t>
-  </si>
-  <si>
-    <t>08.05.20256</t>
-  </si>
-  <si>
-    <t>08.05.20257</t>
-  </si>
-  <si>
-    <t>08.05.20258</t>
-  </si>
-  <si>
-    <t>08.05.20259</t>
-  </si>
-  <si>
-    <t>08.05.202510</t>
-  </si>
-  <si>
-    <t>08.05.202511</t>
-  </si>
-  <si>
-    <t>08.05.202512</t>
-  </si>
-  <si>
-    <t>08.05.202513</t>
-  </si>
-  <si>
-    <t>08.05.202514</t>
-  </si>
-  <si>
-    <t>08.05.202515</t>
-  </si>
-  <si>
-    <t>08.05.202516</t>
-  </si>
-  <si>
-    <t>08.05.202517</t>
-  </si>
-  <si>
-    <t>08.05.202518</t>
-  </si>
-  <si>
-    <t>08.05.202519</t>
-  </si>
-  <si>
-    <t>08.05.202520</t>
-  </si>
-  <si>
-    <t>08.05.202521</t>
-  </si>
-  <si>
-    <t>08.05.202522</t>
-  </si>
-  <si>
-    <t>08.05.202523</t>
-  </si>
-  <si>
-    <t>08.05.202524</t>
-  </si>
-  <si>
-    <t>08.05.202525</t>
-  </si>
-  <si>
-    <t>08.05.202526</t>
-  </si>
-  <si>
-    <t>08.05.202527</t>
-  </si>
-  <si>
-    <t>08.05.202528</t>
-  </si>
-  <si>
-    <t>08.05.202529</t>
-  </si>
-  <si>
-    <t>08.05.202530</t>
-  </si>
-  <si>
-    <t>08.05.202531</t>
-  </si>
-  <si>
-    <t>08.05.202532</t>
-  </si>
-  <si>
-    <t>08.05.202533</t>
-  </si>
-  <si>
-    <t>08.05.202534</t>
-  </si>
-  <si>
-    <t>08.05.202535</t>
-  </si>
-  <si>
-    <t>08.05.202536</t>
-  </si>
-  <si>
-    <t>08.05.202537</t>
-  </si>
-  <si>
-    <t>08.05.202538</t>
-  </si>
-  <si>
-    <t>08.05.202539</t>
-  </si>
-  <si>
-    <t>08.05.202540</t>
-  </si>
-  <si>
-    <t>08.05.202541</t>
-  </si>
-  <si>
-    <t>08.05.202542</t>
-  </si>
-  <si>
-    <t>08.05.202543</t>
-  </si>
-  <si>
-    <t>08.05.202544</t>
-  </si>
-  <si>
-    <t>08.05.202545</t>
-  </si>
-  <si>
-    <t>08.05.202546</t>
-  </si>
-  <si>
-    <t>08.05.202547</t>
-  </si>
-  <si>
-    <t>08.05.202548</t>
-  </si>
-  <si>
-    <t>08.05.202549</t>
-  </si>
-  <si>
-    <t>08.05.202550</t>
-  </si>
-  <si>
-    <t>08.05.202551</t>
-  </si>
-  <si>
-    <t>08.05.202552</t>
-  </si>
-  <si>
-    <t>08.05.202553</t>
-  </si>
-  <si>
-    <t>08.05.202554</t>
-  </si>
-  <si>
-    <t>08.05.202555</t>
-  </si>
-  <si>
-    <t>08.05.202556</t>
-  </si>
-  <si>
-    <t>08.05.202557</t>
-  </si>
-  <si>
-    <t>08.05.202558</t>
-  </si>
-  <si>
-    <t>08.05.202559</t>
-  </si>
-  <si>
-    <t>08.05.202560</t>
-  </si>
-  <si>
-    <t>08.05.202561</t>
-  </si>
-  <si>
-    <t>08.05.202562</t>
-  </si>
-  <si>
-    <t>08.05.202563</t>
-  </si>
-  <si>
-    <t>08.05.202564</t>
-  </si>
-  <si>
-    <t>08.05.202565</t>
-  </si>
-  <si>
-    <t>08.05.202566</t>
-  </si>
-  <si>
-    <t>08.05.202567</t>
-  </si>
-  <si>
-    <t>08.05.202568</t>
-  </si>
-  <si>
-    <t>08.05.202569</t>
-  </si>
-  <si>
-    <t>08.05.202570</t>
-  </si>
-  <si>
-    <t>08.05.202571</t>
-  </si>
-  <si>
-    <t>08.05.202572</t>
-  </si>
-  <si>
-    <t>08.05.202573</t>
-  </si>
-  <si>
-    <t>08.05.202574</t>
-  </si>
-  <si>
-    <t>08.05.202575</t>
-  </si>
-  <si>
-    <t>08.05.202576</t>
-  </si>
-  <si>
-    <t>08.05.202577</t>
-  </si>
-  <si>
-    <t>08.05.202578</t>
-  </si>
-  <si>
-    <t>08.05.202579</t>
-  </si>
-  <si>
-    <t>08.05.202580</t>
-  </si>
-  <si>
-    <t>08.05.202581</t>
-  </si>
-  <si>
-    <t>08.05.202582</t>
-  </si>
-  <si>
-    <t>08.05.202583</t>
-  </si>
-  <si>
-    <t>08.05.202584</t>
-  </si>
-  <si>
-    <t>08.05.202585</t>
-  </si>
-  <si>
-    <t>08.05.202586</t>
-  </si>
-  <si>
-    <t>08.05.202587</t>
-  </si>
-  <si>
-    <t>08.05.202588</t>
-  </si>
-  <si>
-    <t>08.05.202589</t>
-  </si>
-  <si>
-    <t>08.05.202590</t>
-  </si>
-  <si>
-    <t>08.05.202591</t>
-  </si>
-  <si>
-    <t>08.05.202592</t>
-  </si>
-  <si>
-    <t>08.05.202593</t>
-  </si>
-  <si>
-    <t>08.05.202594</t>
-  </si>
-  <si>
-    <t>08.05.202595</t>
-  </si>
-  <si>
-    <t>08.05.202596</t>
-  </si>
-  <si>
-    <t>09.05.20251</t>
-  </si>
-  <si>
-    <t>09.05.20252</t>
-  </si>
-  <si>
-    <t>09.05.20253</t>
-  </si>
-  <si>
-    <t>09.05.20254</t>
-  </si>
-  <si>
-    <t>09.05.20255</t>
-  </si>
-  <si>
-    <t>09.05.20256</t>
-  </si>
-  <si>
-    <t>09.05.20257</t>
-  </si>
-  <si>
-    <t>09.05.20258</t>
-  </si>
-  <si>
-    <t>09.05.20259</t>
-  </si>
-  <si>
-    <t>09.05.202510</t>
-  </si>
-  <si>
-    <t>09.05.202511</t>
-  </si>
-  <si>
-    <t>09.05.202512</t>
-  </si>
-  <si>
-    <t>09.05.202513</t>
-  </si>
-  <si>
-    <t>09.05.202514</t>
-  </si>
-  <si>
-    <t>09.05.202515</t>
-  </si>
-  <si>
-    <t>09.05.202516</t>
-  </si>
-  <si>
-    <t>09.05.202517</t>
-  </si>
-  <si>
-    <t>09.05.202518</t>
-  </si>
-  <si>
-    <t>09.05.202519</t>
-  </si>
-  <si>
-    <t>09.05.202520</t>
-  </si>
-  <si>
-    <t>09.05.202521</t>
-  </si>
-  <si>
-    <t>09.05.202522</t>
-  </si>
-  <si>
-    <t>09.05.202523</t>
-  </si>
-  <si>
-    <t>09.05.202524</t>
-  </si>
-  <si>
-    <t>09.05.202525</t>
-  </si>
-  <si>
-    <t>09.05.202526</t>
-  </si>
-  <si>
-    <t>09.05.202527</t>
+    <t>19.05.20251</t>
+  </si>
+  <si>
+    <t>19.05.20252</t>
+  </si>
+  <si>
+    <t>19.05.20253</t>
+  </si>
+  <si>
+    <t>19.05.20254</t>
+  </si>
+  <si>
+    <t>19.05.20255</t>
+  </si>
+  <si>
+    <t>19.05.20256</t>
+  </si>
+  <si>
+    <t>19.05.20257</t>
+  </si>
+  <si>
+    <t>19.05.20258</t>
+  </si>
+  <si>
+    <t>19.05.20259</t>
+  </si>
+  <si>
+    <t>19.05.202510</t>
+  </si>
+  <si>
+    <t>19.05.202511</t>
+  </si>
+  <si>
+    <t>19.05.202512</t>
+  </si>
+  <si>
+    <t>19.05.202513</t>
+  </si>
+  <si>
+    <t>19.05.202514</t>
+  </si>
+  <si>
+    <t>19.05.202515</t>
+  </si>
+  <si>
+    <t>19.05.202516</t>
+  </si>
+  <si>
+    <t>19.05.202517</t>
+  </si>
+  <si>
+    <t>19.05.202518</t>
+  </si>
+  <si>
+    <t>19.05.202519</t>
+  </si>
+  <si>
+    <t>19.05.202520</t>
+  </si>
+  <si>
+    <t>19.05.202521</t>
+  </si>
+  <si>
+    <t>19.05.202522</t>
+  </si>
+  <si>
+    <t>19.05.202523</t>
+  </si>
+  <si>
+    <t>19.05.202524</t>
+  </si>
+  <si>
+    <t>19.05.202525</t>
+  </si>
+  <si>
+    <t>19.05.202526</t>
+  </si>
+  <si>
+    <t>19.05.202527</t>
+  </si>
+  <si>
+    <t>19.05.202528</t>
+  </si>
+  <si>
+    <t>19.05.202529</t>
+  </si>
+  <si>
+    <t>19.05.202530</t>
+  </si>
+  <si>
+    <t>19.05.202531</t>
+  </si>
+  <si>
+    <t>19.05.202532</t>
+  </si>
+  <si>
+    <t>19.05.202533</t>
+  </si>
+  <si>
+    <t>19.05.202534</t>
+  </si>
+  <si>
+    <t>19.05.202535</t>
+  </si>
+  <si>
+    <t>19.05.202536</t>
+  </si>
+  <si>
+    <t>19.05.202537</t>
+  </si>
+  <si>
+    <t>19.05.202538</t>
+  </si>
+  <si>
+    <t>19.05.202539</t>
+  </si>
+  <si>
+    <t>19.05.202540</t>
+  </si>
+  <si>
+    <t>19.05.202541</t>
+  </si>
+  <si>
+    <t>19.05.202542</t>
+  </si>
+  <si>
+    <t>19.05.202543</t>
+  </si>
+  <si>
+    <t>19.05.202544</t>
+  </si>
+  <si>
+    <t>19.05.202545</t>
+  </si>
+  <si>
+    <t>19.05.202546</t>
+  </si>
+  <si>
+    <t>19.05.202547</t>
+  </si>
+  <si>
+    <t>19.05.202548</t>
+  </si>
+  <si>
+    <t>19.05.202549</t>
+  </si>
+  <si>
+    <t>19.05.202550</t>
+  </si>
+  <si>
+    <t>19.05.202551</t>
+  </si>
+  <si>
+    <t>19.05.202552</t>
+  </si>
+  <si>
+    <t>19.05.202553</t>
+  </si>
+  <si>
+    <t>19.05.202554</t>
+  </si>
+  <si>
+    <t>19.05.202555</t>
+  </si>
+  <si>
+    <t>19.05.202556</t>
+  </si>
+  <si>
+    <t>19.05.202557</t>
+  </si>
+  <si>
+    <t>19.05.202558</t>
+  </si>
+  <si>
+    <t>19.05.202559</t>
+  </si>
+  <si>
+    <t>19.05.202560</t>
+  </si>
+  <si>
+    <t>19.05.202561</t>
+  </si>
+  <si>
+    <t>19.05.202562</t>
+  </si>
+  <si>
+    <t>19.05.202563</t>
+  </si>
+  <si>
+    <t>19.05.202564</t>
+  </si>
+  <si>
+    <t>19.05.202565</t>
+  </si>
+  <si>
+    <t>19.05.202566</t>
+  </si>
+  <si>
+    <t>19.05.202567</t>
+  </si>
+  <si>
+    <t>19.05.202568</t>
+  </si>
+  <si>
+    <t>19.05.202569</t>
+  </si>
+  <si>
+    <t>19.05.202570</t>
+  </si>
+  <si>
+    <t>19.05.202571</t>
+  </si>
+  <si>
+    <t>19.05.202572</t>
+  </si>
+  <si>
+    <t>19.05.202573</t>
+  </si>
+  <si>
+    <t>19.05.202574</t>
+  </si>
+  <si>
+    <t>19.05.202575</t>
+  </si>
+  <si>
+    <t>19.05.202576</t>
+  </si>
+  <si>
+    <t>19.05.202577</t>
+  </si>
+  <si>
+    <t>19.05.202578</t>
+  </si>
+  <si>
+    <t>19.05.202579</t>
+  </si>
+  <si>
+    <t>19.05.202580</t>
+  </si>
+  <si>
+    <t>19.05.202581</t>
+  </si>
+  <si>
+    <t>19.05.202582</t>
+  </si>
+  <si>
+    <t>19.05.202583</t>
+  </si>
+  <si>
+    <t>19.05.202584</t>
+  </si>
+  <si>
+    <t>19.05.202585</t>
+  </si>
+  <si>
+    <t>19.05.202586</t>
+  </si>
+  <si>
+    <t>19.05.202587</t>
+  </si>
+  <si>
+    <t>19.05.202588</t>
+  </si>
+  <si>
+    <t>19.05.202589</t>
+  </si>
+  <si>
+    <t>19.05.202590</t>
+  </si>
+  <si>
+    <t>19.05.202591</t>
+  </si>
+  <si>
+    <t>19.05.202592</t>
+  </si>
+  <si>
+    <t>19.05.202593</t>
+  </si>
+  <si>
+    <t>19.05.202594</t>
+  </si>
+  <si>
+    <t>19.05.202595</t>
+  </si>
+  <si>
+    <t>19.05.202596</t>
+  </si>
+  <si>
+    <t>20.05.20251</t>
+  </si>
+  <si>
+    <t>20.05.20252</t>
+  </si>
+  <si>
+    <t>20.05.20253</t>
+  </si>
+  <si>
+    <t>20.05.20254</t>
+  </si>
+  <si>
+    <t>20.05.20255</t>
+  </si>
+  <si>
+    <t>20.05.20256</t>
+  </si>
+  <si>
+    <t>20.05.20257</t>
+  </si>
+  <si>
+    <t>20.05.20258</t>
+  </si>
+  <si>
+    <t>20.05.20259</t>
+  </si>
+  <si>
+    <t>20.05.202510</t>
+  </si>
+  <si>
+    <t>20.05.202511</t>
+  </si>
+  <si>
+    <t>20.05.202512</t>
+  </si>
+  <si>
+    <t>20.05.202513</t>
+  </si>
+  <si>
+    <t>20.05.202514</t>
+  </si>
+  <si>
+    <t>20.05.202515</t>
+  </si>
+  <si>
+    <t>20.05.202516</t>
+  </si>
+  <si>
+    <t>20.05.202517</t>
+  </si>
+  <si>
+    <t>20.05.202518</t>
+  </si>
+  <si>
+    <t>20.05.202519</t>
+  </si>
+  <si>
+    <t>20.05.202520</t>
+  </si>
+  <si>
+    <t>20.05.202521</t>
+  </si>
+  <si>
+    <t>20.05.202522</t>
+  </si>
+  <si>
+    <t>20.05.202523</t>
+  </si>
+  <si>
+    <t>20.05.202524</t>
+  </si>
+  <si>
+    <t>20.05.202525</t>
+  </si>
+  <si>
+    <t>20.05.202526</t>
+  </si>
+  <si>
+    <t>20.05.202527</t>
+  </si>
+  <si>
+    <t>20.05.202528</t>
+  </si>
+  <si>
+    <t>20.05.202529</t>
+  </si>
+  <si>
+    <t>20.05.202530</t>
+  </si>
+  <si>
+    <t>20.05.202531</t>
+  </si>
+  <si>
+    <t>20.05.202532</t>
+  </si>
+  <si>
+    <t>20.05.202533</t>
+  </si>
+  <si>
+    <t>20.05.202534</t>
+  </si>
+  <si>
+    <t>20.05.202535</t>
+  </si>
+  <si>
+    <t>20.05.202536</t>
+  </si>
+  <si>
+    <t>20.05.202537</t>
+  </si>
+  <si>
+    <t>20.05.202538</t>
+  </si>
+  <si>
+    <t>20.05.202539</t>
+  </si>
+  <si>
+    <t>20.05.202540</t>
+  </si>
+  <si>
+    <t>20.05.202541</t>
+  </si>
+  <si>
+    <t>20.05.202542</t>
   </si>
 </sst>
 </file>
@@ -765,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,16 +841,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45785</v>
+        <v>45796</v>
       </c>
       <c r="B2">
-        <v>0.106</v>
+        <v>11.663</v>
       </c>
       <c r="C2">
-        <v>4.347</v>
+        <v>0.174</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -819,16 +864,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45785.01041666666</v>
+        <v>45796.01041666666</v>
       </c>
       <c r="B3">
-        <v>2.944</v>
+        <v>0.176</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -842,16 +887,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45785.02083333334</v>
+        <v>45796.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.311</v>
+        <v>0.01</v>
       </c>
       <c r="C4">
-        <v>1.268</v>
+        <v>1.174</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -865,16 +910,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45785.03125</v>
+        <v>45796.03125</v>
       </c>
       <c r="B5">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.242</v>
+        <v>35.737</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,16 +933,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45785.04166666666</v>
+        <v>45796.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.426</v>
+        <v>2.534</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>41.25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,16 +956,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45785.05208333334</v>
+        <v>45796.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="C7">
-        <v>5.984</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>41.25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,16 +979,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45785.0625</v>
+        <v>45796.0625</v>
       </c>
       <c r="B8">
-        <v>0.012</v>
+        <v>0.057</v>
       </c>
       <c r="C8">
-        <v>1.28</v>
+        <v>4.214</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>41.25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,16 +1002,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45785.07291666666</v>
+        <v>45796.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.365</v>
+        <v>9.654</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>41.25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -980,16 +1025,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45785.08333333334</v>
+        <v>45796.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.539</v>
+        <v>5.229</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>41.75</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,13 +1048,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45785.09375</v>
+        <v>45796.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.554</v>
+        <v>2.026</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1026,13 +1071,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45785.10416666666</v>
+        <v>45796.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4.446</v>
+        <v>7.11</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1049,13 +1094,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45785.11458333334</v>
+        <v>45796.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.78</v>
+        <v>12.501</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1072,13 +1117,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45785.125</v>
+        <v>45796.125</v>
       </c>
       <c r="B14">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.96</v>
+        <v>1.276</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1095,13 +1140,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45785.13541666666</v>
+        <v>45796.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.584</v>
+        <v>0.283</v>
       </c>
       <c r="C15">
-        <v>0.059</v>
+        <v>2.148</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1118,13 +1163,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45785.14583333334</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="B16">
-        <v>3.817</v>
+        <v>12.729</v>
       </c>
       <c r="C16">
-        <v>2.972</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1141,10 +1186,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45785.15625</v>
+        <v>45796.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>20.277</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1164,10 +1209,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45785.16666666666</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>7.395</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1187,10 +1232,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45785.17708333334</v>
+        <v>45796.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>24.196</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1210,13 +1255,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45785.1875</v>
+        <v>45796.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.965</v>
       </c>
       <c r="C20">
-        <v>4.358</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1233,13 +1278,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45785.19791666666</v>
+        <v>45796.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.008</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C21">
-        <v>3.315</v>
+        <v>1.63</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1256,13 +1301,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45785.20833333334</v>
+        <v>45796.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.138</v>
+        <v>12.919</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1279,13 +1324,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45785.21875</v>
+        <v>45796.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C23">
-        <v>1.266</v>
+        <v>0.878</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1302,13 +1347,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45785.22916666666</v>
+        <v>45796.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.206</v>
+        <v>0.045</v>
       </c>
       <c r="C24">
-        <v>0.34</v>
+        <v>3.043</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1325,13 +1370,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45785.23958333334</v>
+        <v>45796.23958333334</v>
       </c>
       <c r="B25">
-        <v>12.712</v>
+        <v>0.011</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4.117</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1348,13 +1393,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45785.25</v>
+        <v>45796.25</v>
       </c>
       <c r="B26">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>4.848</v>
+        <v>15.736</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1371,13 +1416,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45785.26041666666</v>
+        <v>45796.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.098</v>
+        <v>0.127</v>
       </c>
       <c r="C27">
-        <v>0.27</v>
+        <v>0.296</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1394,19 +1439,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45785.27083333334</v>
+        <v>45796.27083333334</v>
       </c>
       <c r="B28">
-        <v>5.16</v>
+        <v>0.004</v>
       </c>
       <c r="C28">
-        <v>0.022</v>
+        <v>10.536</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1417,13 +1462,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45785.28125</v>
+        <v>45796.28125</v>
       </c>
       <c r="B29">
-        <v>2.891</v>
+        <v>0.023</v>
       </c>
       <c r="C29">
-        <v>0.013</v>
+        <v>1.414</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1440,19 +1485,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45785.29166666666</v>
+        <v>45796.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.024</v>
+        <v>2.183</v>
       </c>
       <c r="C30">
-        <v>0.9320000000000001</v>
+        <v>3.457</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1463,19 +1508,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45785.30208333334</v>
+        <v>45796.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.101</v>
+        <v>4.68</v>
       </c>
       <c r="C31">
-        <v>0.317</v>
+        <v>0.28</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1486,19 +1531,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45785.3125</v>
+        <v>45796.3125</v>
       </c>
       <c r="B32">
-        <v>0.172</v>
+        <v>0.208</v>
       </c>
       <c r="C32">
-        <v>0.241</v>
+        <v>1.858</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1509,19 +1554,19 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45785.32291666666</v>
+        <v>45796.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1.618</v>
+        <v>12.641</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1532,19 +1577,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45785.33333333334</v>
+        <v>45796.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.219</v>
+        <v>0.036</v>
       </c>
       <c r="C34">
-        <v>0.207</v>
+        <v>2.31</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1555,13 +1600,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45785.34375</v>
+        <v>45796.34375</v>
       </c>
       <c r="B35">
-        <v>0.108</v>
+        <v>1.738</v>
       </c>
       <c r="C35">
-        <v>1.883</v>
+        <v>1.318</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1578,13 +1623,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45785.35416666666</v>
+        <v>45796.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>5.468</v>
+        <v>12.005</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1601,13 +1646,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45785.36458333334</v>
+        <v>45796.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>33.621</v>
+        <v>31.848</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1624,19 +1669,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45785.375</v>
+        <v>45796.375</v>
       </c>
       <c r="B38">
-        <v>5.511</v>
+        <v>39.613</v>
       </c>
       <c r="C38">
-        <v>7.645</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1647,19 +1692,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45785.38541666666</v>
+        <v>45796.38541666666</v>
       </c>
       <c r="B39">
-        <v>5.763</v>
+        <v>43.34</v>
       </c>
       <c r="C39">
-        <v>2.336</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1670,13 +1715,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45785.39583333334</v>
+        <v>45796.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>26.171</v>
       </c>
       <c r="C40">
-        <v>12.54</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1693,13 +1738,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45785.40625</v>
+        <v>45796.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>6.435</v>
       </c>
       <c r="C41">
-        <v>27.116</v>
+        <v>0.01</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1716,13 +1761,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45785.41666666666</v>
+        <v>45796.41666666666</v>
       </c>
       <c r="B42">
-        <v>0.018</v>
+        <v>25.739</v>
       </c>
       <c r="C42">
-        <v>1.425</v>
+        <v>0.004</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1739,16 +1784,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45785.42708333334</v>
+        <v>45796.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>5.329</v>
       </c>
       <c r="C43">
-        <v>5.079</v>
+        <v>0.169</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1762,16 +1807,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45785.4375</v>
+        <v>45796.4375</v>
       </c>
       <c r="B44">
-        <v>2.212</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.267</v>
+        <v>21.365</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1785,16 +1830,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45785.44791666666</v>
+        <v>45796.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>7.028</v>
+        <v>50.364</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1808,16 +1853,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45785.45833333334</v>
+        <v>45796.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>11.322</v>
+        <v>51.094</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1831,16 +1876,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45785.46875</v>
+        <v>45796.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>13.838</v>
+        <v>51.075</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1854,13 +1899,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45785.47916666666</v>
+        <v>45796.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1.046</v>
+        <v>25.126</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1877,13 +1922,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45785.48958333334</v>
+        <v>45796.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.738</v>
+        <v>45.527</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1900,13 +1945,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45785.5</v>
+        <v>45796.5</v>
       </c>
       <c r="B50">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.184</v>
+        <v>49.231</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1923,13 +1968,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45785.51041666666</v>
+        <v>45796.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.015</v>
+        <v>0.035</v>
       </c>
       <c r="C51">
-        <v>1.086</v>
+        <v>8.209</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1946,13 +1991,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45785.52083333334</v>
+        <v>45796.52083333334</v>
       </c>
       <c r="B52">
-        <v>4.747</v>
+        <v>0.101</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2.012</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1969,13 +2014,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45785.53125</v>
+        <v>45796.53125</v>
       </c>
       <c r="B53">
-        <v>10.205</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.898</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1992,10 +2037,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45785.54166666666</v>
+        <v>45796.54166666666</v>
       </c>
       <c r="B54">
-        <v>31.947</v>
+        <v>11.217</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2015,13 +2060,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45785.55208333334</v>
+        <v>45796.55208333334</v>
       </c>
       <c r="B55">
-        <v>18.869</v>
+        <v>3.881</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2038,13 +2083,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45785.5625</v>
+        <v>45796.5625</v>
       </c>
       <c r="B56">
-        <v>2.496</v>
+        <v>0.01</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2.994</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2061,13 +2106,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45785.57291666666</v>
+        <v>45796.57291666666</v>
       </c>
       <c r="B57">
-        <v>2.152</v>
+        <v>0.021</v>
       </c>
       <c r="C57">
-        <v>0.097</v>
+        <v>8.818</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2084,13 +2129,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45785.58333333334</v>
+        <v>45796.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="C58">
-        <v>1.599</v>
+        <v>3.801</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2107,13 +2152,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45785.59375</v>
+        <v>45796.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1.189</v>
       </c>
       <c r="C59">
-        <v>0.505</v>
+        <v>0.002</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2130,13 +2175,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45785.60416666666</v>
+        <v>45796.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.036</v>
+        <v>1.231</v>
       </c>
       <c r="C60">
-        <v>0.6850000000000001</v>
+        <v>0.142</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2153,13 +2198,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45785.61458333334</v>
+        <v>45796.61458333334</v>
       </c>
       <c r="B61">
-        <v>0.107</v>
+        <v>5.828</v>
       </c>
       <c r="C61">
-        <v>0.355</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2176,19 +2221,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45785.625</v>
+        <v>45796.625</v>
       </c>
       <c r="B62">
-        <v>0.66</v>
+        <v>7.103</v>
       </c>
       <c r="C62">
-        <v>0.344</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>61</v>
@@ -2199,19 +2244,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45785.63541666666</v>
+        <v>45796.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.446</v>
+        <v>22.639</v>
       </c>
       <c r="C63">
-        <v>1.754</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="E63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -2222,19 +2267,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45785.64583333334</v>
+        <v>45796.64583333334</v>
       </c>
       <c r="B64">
-        <v>21.931</v>
+        <v>5.411</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -2245,19 +2290,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45785.65625</v>
+        <v>45796.65625</v>
       </c>
       <c r="B65">
-        <v>23.673</v>
+        <v>2.525</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -2268,16 +2313,16 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45785.66666666666</v>
+        <v>45796.66666666666</v>
       </c>
       <c r="B66">
-        <v>3.067</v>
+        <v>0.003</v>
       </c>
       <c r="C66">
-        <v>0.21</v>
+        <v>22.106</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>44.75</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2291,13 +2336,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45785.67708333334</v>
+        <v>45796.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.425</v>
+        <v>0.213</v>
       </c>
       <c r="C67">
-        <v>0.171</v>
+        <v>7.6</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2314,13 +2359,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45785.6875</v>
+        <v>45796.6875</v>
       </c>
       <c r="B68">
-        <v>22.264</v>
+        <v>0.337</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2337,13 +2382,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45785.69791666666</v>
+        <v>45796.69791666666</v>
       </c>
       <c r="B69">
-        <v>37.467</v>
+        <v>4.235</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.207</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2360,13 +2405,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45785.70833333334</v>
+        <v>45796.70833333334</v>
       </c>
       <c r="B70">
-        <v>28.441</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>20.314</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2383,13 +2428,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45785.71875</v>
+        <v>45796.71875</v>
       </c>
       <c r="B71">
-        <v>30.716</v>
+        <v>0.741</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>4.456</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2406,19 +2451,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45785.72916666666</v>
+        <v>45796.72916666666</v>
       </c>
       <c r="B72">
-        <v>19.624</v>
+        <v>19.314</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2429,16 +2474,16 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45785.73958333334</v>
+        <v>45796.73958333334</v>
       </c>
       <c r="B73">
-        <v>8.157</v>
+        <v>14.301</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2452,16 +2497,16 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45785.75</v>
+        <v>45796.75</v>
       </c>
       <c r="B74">
-        <v>0.023</v>
+        <v>0.044</v>
       </c>
       <c r="C74">
-        <v>9.932</v>
+        <v>30.101</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2475,16 +2520,16 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45785.76041666666</v>
+        <v>45796.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.013</v>
+        <v>0.002</v>
       </c>
       <c r="C75">
-        <v>3.622</v>
+        <v>17.725</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2498,16 +2543,16 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45785.77083333334</v>
+        <v>45796.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.223</v>
+        <v>11.709</v>
       </c>
       <c r="C76">
-        <v>0.17</v>
+        <v>4.745</v>
       </c>
       <c r="D76">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2521,10 +2566,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45785.78125</v>
+        <v>45796.78125</v>
       </c>
       <c r="B77">
-        <v>19.393</v>
+        <v>49.028</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2544,16 +2589,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45785.79166666666</v>
+        <v>45796.79166666666</v>
       </c>
       <c r="B78">
-        <v>2.553</v>
+        <v>12.058</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2567,16 +2612,16 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45785.80208333334</v>
+        <v>45796.80208333334</v>
       </c>
       <c r="B79">
-        <v>0.85</v>
+        <v>29.012</v>
       </c>
       <c r="C79">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>95.25</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2590,16 +2635,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45785.8125</v>
+        <v>45796.8125</v>
       </c>
       <c r="B80">
-        <v>1.287</v>
+        <v>35.525</v>
       </c>
       <c r="C80">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>119.75</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2613,16 +2658,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45785.82291666666</v>
+        <v>45796.82291666666</v>
       </c>
       <c r="B81">
-        <v>0.045</v>
+        <v>35.306</v>
       </c>
       <c r="C81">
-        <v>0.251</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>152.25</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2636,16 +2681,16 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45785.83333333334</v>
+        <v>45796.83333333334</v>
       </c>
       <c r="B82">
-        <v>0.233</v>
+        <v>7.432</v>
       </c>
       <c r="C82">
-        <v>0.064</v>
+        <v>5.813</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2659,16 +2704,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45785.84375</v>
+        <v>45796.84375</v>
       </c>
       <c r="B83">
-        <v>2.756</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.08500000000000001</v>
+        <v>27.933</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2682,16 +2727,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45785.85416666666</v>
+        <v>45796.85416666666</v>
       </c>
       <c r="B84">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0.258</v>
+        <v>13.403</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>23.25</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2705,13 +2750,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45785.86458333334</v>
+        <v>45796.86458333334</v>
       </c>
       <c r="B85">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>1.046</v>
+        <v>23.15</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2728,13 +2773,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45785.875</v>
+        <v>45796.875</v>
       </c>
       <c r="B86">
-        <v>6.823</v>
+        <v>0.029</v>
       </c>
       <c r="C86">
-        <v>0.032</v>
+        <v>3.627</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2751,13 +2796,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45785.88541666666</v>
+        <v>45796.88541666666</v>
       </c>
       <c r="B87">
-        <v>2.833</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C87">
-        <v>5.776</v>
+        <v>2.498</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2774,13 +2819,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45785.89583333334</v>
+        <v>45796.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2.281</v>
       </c>
       <c r="C88">
-        <v>8.436999999999999</v>
+        <v>0.067</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2797,13 +2842,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45785.90625</v>
+        <v>45796.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="C89">
-        <v>47.957</v>
+        <v>2.257</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2820,13 +2865,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45785.91666666666</v>
+        <v>45796.91666666666</v>
       </c>
       <c r="B90">
-        <v>1.799</v>
+        <v>13.3</v>
       </c>
       <c r="C90">
-        <v>3.848</v>
+        <v>0.017</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2843,19 +2888,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45785.92708333334</v>
+        <v>45796.92708333334</v>
       </c>
       <c r="B91">
-        <v>33.349</v>
+        <v>0.062</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>7.072</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>90</v>
@@ -2866,19 +2911,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45785.9375</v>
+        <v>45796.9375</v>
       </c>
       <c r="B92">
-        <v>16.092</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>33.76</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>91</v>
@@ -2889,19 +2934,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45785.94791666666</v>
+        <v>45796.94791666666</v>
       </c>
       <c r="B93">
-        <v>12.338</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>15.894</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>92</v>
@@ -2912,19 +2957,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45785.95833333334</v>
+        <v>45796.95833333334</v>
       </c>
       <c r="B94">
-        <v>29.144</v>
+        <v>0.093</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2.668</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>93</v>
@@ -2935,19 +2980,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45785.96875</v>
+        <v>45796.96875</v>
       </c>
       <c r="B95">
-        <v>48.453</v>
+        <v>0.321</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>2.388</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>94</v>
@@ -2958,19 +3003,19 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45785.97916666666</v>
+        <v>45796.97916666666</v>
       </c>
       <c r="B96">
-        <v>30.602</v>
+        <v>0.626</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1.955</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>95</v>
@@ -2981,13 +3026,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45785.98958333334</v>
+        <v>45796.98958333334</v>
       </c>
       <c r="B97">
-        <v>3.974</v>
+        <v>6.96</v>
       </c>
       <c r="C97">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3004,13 +3049,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B98">
-        <v>8.911</v>
+        <v>5.468</v>
       </c>
       <c r="C98">
-        <v>1.292</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3027,13 +3072,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B99">
-        <v>8.911</v>
+        <v>5.468</v>
       </c>
       <c r="C99">
-        <v>1.292</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3050,10 +3095,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B100">
-        <v>22.022</v>
+        <v>5.705</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3073,10 +3118,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B101">
-        <v>22.022</v>
+        <v>5.705</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3096,10 +3141,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B102">
-        <v>15.108</v>
+        <v>12.1</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3119,10 +3164,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B103">
-        <v>15.108</v>
+        <v>12.1</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3142,13 +3187,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B104">
-        <v>1.506</v>
+        <v>0.881</v>
       </c>
       <c r="C104">
-        <v>2.683</v>
+        <v>0.034</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3165,13 +3210,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B105">
-        <v>1.506</v>
+        <v>0.881</v>
       </c>
       <c r="C105">
-        <v>2.683</v>
+        <v>0.034</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3188,13 +3233,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B106">
-        <v>0.034</v>
+        <v>0.052</v>
       </c>
       <c r="C106">
-        <v>2.739</v>
+        <v>0.325</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3211,13 +3256,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B107">
-        <v>0.034</v>
+        <v>0.052</v>
       </c>
       <c r="C107">
-        <v>2.739</v>
+        <v>0.325</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3234,19 +3279,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B108">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0.09</v>
+        <v>18.724</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>6</v>
@@ -3257,19 +3302,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B109">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0.09</v>
+        <v>18.724</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>6</v>
@@ -3280,19 +3325,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B110">
-        <v>0.285</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.006</v>
+        <v>37.91</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>7</v>
@@ -3303,19 +3348,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B111">
-        <v>0.285</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0.006</v>
+        <v>37.91</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>7</v>
@@ -3326,19 +3371,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B112">
-        <v>0.319</v>
+        <v>0.06</v>
       </c>
       <c r="C112">
-        <v>1.088</v>
+        <v>4.269</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F112">
         <v>8</v>
@@ -3349,19 +3394,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B113">
-        <v>0.319</v>
+        <v>0.06</v>
       </c>
       <c r="C113">
-        <v>1.088</v>
+        <v>4.269</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F113">
         <v>8</v>
@@ -3372,19 +3417,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B114">
-        <v>0.043</v>
+        <v>1.001</v>
       </c>
       <c r="C114">
-        <v>1.902</v>
+        <v>0.038</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F114">
         <v>9</v>
@@ -3395,19 +3440,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B115">
-        <v>0.435</v>
+        <v>0.047</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1.979</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -3418,19 +3463,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B116">
-        <v>32.658</v>
+        <v>1.428</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F116">
         <v>11</v>
@@ -3441,19 +3486,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B117">
-        <v>14.045</v>
+        <v>0.003</v>
       </c>
       <c r="C117">
-        <v>0.133</v>
+        <v>3.507</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F117">
         <v>12</v>
@@ -3464,19 +3509,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="C118">
-        <v>8.936999999999999</v>
+        <v>3.072</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F118">
         <v>13</v>
@@ -3487,19 +3532,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>0.821</v>
       </c>
       <c r="C119">
-        <v>15.276</v>
+        <v>0.174</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F119">
         <v>14</v>
@@ -3510,19 +3555,19 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>17.072</v>
       </c>
       <c r="C120">
-        <v>21.554</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F120">
         <v>15</v>
@@ -3533,19 +3578,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>17.765</v>
       </c>
       <c r="C121">
-        <v>17.381</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F121">
         <v>16</v>
@@ -3556,19 +3601,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="C122">
-        <v>42.17</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F122">
         <v>17</v>
@@ -3579,13 +3624,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>10.388</v>
       </c>
       <c r="C123">
-        <v>56.065</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3602,19 +3647,19 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>8.481999999999999</v>
       </c>
       <c r="C124">
-        <v>31.155</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <v>19</v>
@@ -3625,19 +3670,19 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B125">
-        <v>0.013</v>
+        <v>2.966</v>
       </c>
       <c r="C125">
-        <v>11.81</v>
+        <v>0.002</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <v>20</v>
@@ -3648,19 +3693,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B126">
-        <v>0.178</v>
+        <v>0.743</v>
       </c>
       <c r="C126">
-        <v>0.165</v>
+        <v>0.037</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>21</v>
@@ -3671,19 +3716,19 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B127">
-        <v>0.127</v>
+        <v>9.625999999999999</v>
       </c>
       <c r="C127">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>22</v>
@@ -3694,19 +3739,19 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B128">
-        <v>0.964</v>
+        <v>23.446</v>
       </c>
       <c r="C128">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>23</v>
@@ -3717,10 +3762,10 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B129">
-        <v>12.194</v>
+        <v>9.952</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3729,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>24</v>
@@ -3740,19 +3785,19 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B130">
-        <v>1.451</v>
+        <v>18.127</v>
       </c>
       <c r="C130">
-        <v>3.638</v>
+        <v>0.116</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>25</v>
@@ -3763,19 +3808,19 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B131">
-        <v>4.892</v>
+        <v>24.336</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E131">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>26</v>
@@ -3786,25 +3831,370 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>7.301</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E132">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>27</v>
       </c>
       <c r="G132" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
+        <v>45797.28125</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>2.72</v>
+      </c>
+      <c r="D133">
+        <v>50</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
+        <v>45797.29166666666</v>
+      </c>
+      <c r="B134">
+        <v>12.382</v>
+      </c>
+      <c r="C134">
+        <v>0.21</v>
+      </c>
+      <c r="D134">
+        <v>50</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
+        <v>45797.30208333334</v>
+      </c>
+      <c r="B135">
+        <v>9.718</v>
+      </c>
+      <c r="C135">
+        <v>0.006</v>
+      </c>
+      <c r="D135">
+        <v>50</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>30</v>
+      </c>
+      <c r="G135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>45797.3125</v>
+      </c>
+      <c r="B136">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C136">
+        <v>20.922</v>
+      </c>
+      <c r="D136">
+        <v>62.25</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45797.32291666666</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>31.712</v>
+      </c>
+      <c r="D137">
+        <v>62.25</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>45797.33333333334</v>
+      </c>
+      <c r="B138">
+        <v>0.011</v>
+      </c>
+      <c r="C138">
+        <v>5.343</v>
+      </c>
+      <c r="D138">
+        <v>62.5</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>45797.34375</v>
+      </c>
+      <c r="B139">
+        <v>0.002</v>
+      </c>
+      <c r="C139">
+        <v>1.848</v>
+      </c>
+      <c r="D139">
+        <v>62.5</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>45797.35416666666</v>
+      </c>
+      <c r="B140">
+        <v>0.005</v>
+      </c>
+      <c r="C140">
+        <v>3.373</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>45797.36458333334</v>
+      </c>
+      <c r="B141">
+        <v>0.038</v>
+      </c>
+      <c r="C141">
+        <v>2.041</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>50</v>
+      </c>
+      <c r="F141">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>45797.375</v>
+      </c>
+      <c r="B142">
+        <v>1.88</v>
+      </c>
+      <c r="C142">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>75</v>
+      </c>
+      <c r="F142">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>45797.38541666666</v>
+      </c>
+      <c r="B143">
+        <v>0.006</v>
+      </c>
+      <c r="C143">
+        <v>6.511</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>100</v>
+      </c>
+      <c r="F143">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45797.39583333334</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>19.005</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>100</v>
+      </c>
+      <c r="F144">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45797.40625</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>26.318</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>125</v>
+      </c>
+      <c r="F145">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45797.41666666666</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>125</v>
+      </c>
+      <c r="F146">
+        <v>41</v>
+      </c>
+      <c r="G146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45797.42708333334</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>125</v>
+      </c>
+      <c r="F147">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="243">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,294 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.05.20251</t>
-  </si>
-  <si>
-    <t>19.05.20252</t>
-  </si>
-  <si>
-    <t>19.05.20253</t>
-  </si>
-  <si>
-    <t>19.05.20254</t>
-  </si>
-  <si>
-    <t>19.05.20255</t>
-  </si>
-  <si>
-    <t>19.05.20256</t>
-  </si>
-  <si>
-    <t>19.05.20257</t>
-  </si>
-  <si>
-    <t>19.05.20258</t>
-  </si>
-  <si>
-    <t>19.05.20259</t>
-  </si>
-  <si>
-    <t>19.05.202510</t>
-  </si>
-  <si>
-    <t>19.05.202511</t>
-  </si>
-  <si>
-    <t>19.05.202512</t>
-  </si>
-  <si>
-    <t>19.05.202513</t>
-  </si>
-  <si>
-    <t>19.05.202514</t>
-  </si>
-  <si>
-    <t>19.05.202515</t>
-  </si>
-  <si>
-    <t>19.05.202516</t>
-  </si>
-  <si>
-    <t>19.05.202517</t>
-  </si>
-  <si>
-    <t>19.05.202518</t>
-  </si>
-  <si>
-    <t>19.05.202519</t>
-  </si>
-  <si>
-    <t>19.05.202520</t>
-  </si>
-  <si>
-    <t>19.05.202521</t>
-  </si>
-  <si>
-    <t>19.05.202522</t>
-  </si>
-  <si>
-    <t>19.05.202523</t>
-  </si>
-  <si>
-    <t>19.05.202524</t>
-  </si>
-  <si>
-    <t>19.05.202525</t>
-  </si>
-  <si>
-    <t>19.05.202526</t>
-  </si>
-  <si>
-    <t>19.05.202527</t>
-  </si>
-  <si>
-    <t>19.05.202528</t>
-  </si>
-  <si>
-    <t>19.05.202529</t>
-  </si>
-  <si>
-    <t>19.05.202530</t>
-  </si>
-  <si>
-    <t>19.05.202531</t>
-  </si>
-  <si>
-    <t>19.05.202532</t>
-  </si>
-  <si>
-    <t>19.05.202533</t>
-  </si>
-  <si>
-    <t>19.05.202534</t>
-  </si>
-  <si>
-    <t>19.05.202535</t>
-  </si>
-  <si>
-    <t>19.05.202536</t>
-  </si>
-  <si>
-    <t>19.05.202537</t>
-  </si>
-  <si>
-    <t>19.05.202538</t>
-  </si>
-  <si>
-    <t>19.05.202539</t>
-  </si>
-  <si>
-    <t>19.05.202540</t>
-  </si>
-  <si>
-    <t>19.05.202541</t>
-  </si>
-  <si>
-    <t>19.05.202542</t>
-  </si>
-  <si>
-    <t>19.05.202543</t>
-  </si>
-  <si>
-    <t>19.05.202544</t>
-  </si>
-  <si>
-    <t>19.05.202545</t>
-  </si>
-  <si>
-    <t>19.05.202546</t>
-  </si>
-  <si>
-    <t>19.05.202547</t>
-  </si>
-  <si>
-    <t>19.05.202548</t>
-  </si>
-  <si>
-    <t>19.05.202549</t>
-  </si>
-  <si>
-    <t>19.05.202550</t>
-  </si>
-  <si>
-    <t>19.05.202551</t>
-  </si>
-  <si>
-    <t>19.05.202552</t>
-  </si>
-  <si>
-    <t>19.05.202553</t>
-  </si>
-  <si>
-    <t>19.05.202554</t>
-  </si>
-  <si>
-    <t>19.05.202555</t>
-  </si>
-  <si>
-    <t>19.05.202556</t>
-  </si>
-  <si>
-    <t>19.05.202557</t>
-  </si>
-  <si>
-    <t>19.05.202558</t>
-  </si>
-  <si>
-    <t>19.05.202559</t>
-  </si>
-  <si>
-    <t>19.05.202560</t>
-  </si>
-  <si>
-    <t>19.05.202561</t>
-  </si>
-  <si>
-    <t>19.05.202562</t>
-  </si>
-  <si>
-    <t>19.05.202563</t>
-  </si>
-  <si>
-    <t>19.05.202564</t>
-  </si>
-  <si>
-    <t>19.05.202565</t>
-  </si>
-  <si>
-    <t>19.05.202566</t>
-  </si>
-  <si>
-    <t>19.05.202567</t>
-  </si>
-  <si>
-    <t>19.05.202568</t>
-  </si>
-  <si>
-    <t>19.05.202569</t>
-  </si>
-  <si>
-    <t>19.05.202570</t>
-  </si>
-  <si>
-    <t>19.05.202571</t>
-  </si>
-  <si>
-    <t>19.05.202572</t>
-  </si>
-  <si>
-    <t>19.05.202573</t>
-  </si>
-  <si>
-    <t>19.05.202574</t>
-  </si>
-  <si>
-    <t>19.05.202575</t>
-  </si>
-  <si>
-    <t>19.05.202576</t>
-  </si>
-  <si>
-    <t>19.05.202577</t>
-  </si>
-  <si>
-    <t>19.05.202578</t>
-  </si>
-  <si>
-    <t>19.05.202579</t>
-  </si>
-  <si>
-    <t>19.05.202580</t>
-  </si>
-  <si>
-    <t>19.05.202581</t>
-  </si>
-  <si>
-    <t>19.05.202582</t>
-  </si>
-  <si>
-    <t>19.05.202583</t>
-  </si>
-  <si>
-    <t>19.05.202584</t>
-  </si>
-  <si>
-    <t>19.05.202585</t>
-  </si>
-  <si>
-    <t>19.05.202586</t>
-  </si>
-  <si>
-    <t>19.05.202587</t>
-  </si>
-  <si>
-    <t>19.05.202588</t>
-  </si>
-  <si>
-    <t>19.05.202589</t>
-  </si>
-  <si>
-    <t>19.05.202590</t>
-  </si>
-  <si>
-    <t>19.05.202591</t>
-  </si>
-  <si>
-    <t>19.05.202592</t>
-  </si>
-  <si>
-    <t>19.05.202593</t>
-  </si>
-  <si>
-    <t>19.05.202594</t>
-  </si>
-  <si>
-    <t>19.05.202595</t>
-  </si>
-  <si>
-    <t>19.05.202596</t>
-  </si>
-  <si>
     <t>20.05.20251</t>
   </si>
   <si>
@@ -449,6 +161,588 @@
   </si>
   <si>
     <t>20.05.202542</t>
+  </si>
+  <si>
+    <t>20.05.202543</t>
+  </si>
+  <si>
+    <t>20.05.202544</t>
+  </si>
+  <si>
+    <t>20.05.202545</t>
+  </si>
+  <si>
+    <t>20.05.202546</t>
+  </si>
+  <si>
+    <t>20.05.202547</t>
+  </si>
+  <si>
+    <t>20.05.202548</t>
+  </si>
+  <si>
+    <t>20.05.202549</t>
+  </si>
+  <si>
+    <t>20.05.202550</t>
+  </si>
+  <si>
+    <t>20.05.202551</t>
+  </si>
+  <si>
+    <t>20.05.202552</t>
+  </si>
+  <si>
+    <t>20.05.202553</t>
+  </si>
+  <si>
+    <t>20.05.202554</t>
+  </si>
+  <si>
+    <t>20.05.202555</t>
+  </si>
+  <si>
+    <t>20.05.202556</t>
+  </si>
+  <si>
+    <t>20.05.202557</t>
+  </si>
+  <si>
+    <t>20.05.202558</t>
+  </si>
+  <si>
+    <t>20.05.202559</t>
+  </si>
+  <si>
+    <t>20.05.202560</t>
+  </si>
+  <si>
+    <t>20.05.202561</t>
+  </si>
+  <si>
+    <t>20.05.202562</t>
+  </si>
+  <si>
+    <t>20.05.202563</t>
+  </si>
+  <si>
+    <t>20.05.202564</t>
+  </si>
+  <si>
+    <t>20.05.202565</t>
+  </si>
+  <si>
+    <t>20.05.202566</t>
+  </si>
+  <si>
+    <t>20.05.202567</t>
+  </si>
+  <si>
+    <t>20.05.202568</t>
+  </si>
+  <si>
+    <t>20.05.202569</t>
+  </si>
+  <si>
+    <t>20.05.202570</t>
+  </si>
+  <si>
+    <t>20.05.202571</t>
+  </si>
+  <si>
+    <t>20.05.202572</t>
+  </si>
+  <si>
+    <t>20.05.202573</t>
+  </si>
+  <si>
+    <t>20.05.202574</t>
+  </si>
+  <si>
+    <t>20.05.202575</t>
+  </si>
+  <si>
+    <t>20.05.202576</t>
+  </si>
+  <si>
+    <t>20.05.202577</t>
+  </si>
+  <si>
+    <t>20.05.202578</t>
+  </si>
+  <si>
+    <t>20.05.202579</t>
+  </si>
+  <si>
+    <t>20.05.202580</t>
+  </si>
+  <si>
+    <t>20.05.202581</t>
+  </si>
+  <si>
+    <t>20.05.202582</t>
+  </si>
+  <si>
+    <t>20.05.202583</t>
+  </si>
+  <si>
+    <t>20.05.202584</t>
+  </si>
+  <si>
+    <t>20.05.202585</t>
+  </si>
+  <si>
+    <t>20.05.202586</t>
+  </si>
+  <si>
+    <t>20.05.202587</t>
+  </si>
+  <si>
+    <t>20.05.202588</t>
+  </si>
+  <si>
+    <t>20.05.202589</t>
+  </si>
+  <si>
+    <t>20.05.202590</t>
+  </si>
+  <si>
+    <t>20.05.202591</t>
+  </si>
+  <si>
+    <t>20.05.202592</t>
+  </si>
+  <si>
+    <t>20.05.202593</t>
+  </si>
+  <si>
+    <t>20.05.202594</t>
+  </si>
+  <si>
+    <t>20.05.202595</t>
+  </si>
+  <si>
+    <t>20.05.202596</t>
+  </si>
+  <si>
+    <t>21.05.20251</t>
+  </si>
+  <si>
+    <t>21.05.20252</t>
+  </si>
+  <si>
+    <t>21.05.20253</t>
+  </si>
+  <si>
+    <t>21.05.20254</t>
+  </si>
+  <si>
+    <t>21.05.20255</t>
+  </si>
+  <si>
+    <t>21.05.20256</t>
+  </si>
+  <si>
+    <t>21.05.20257</t>
+  </si>
+  <si>
+    <t>21.05.20258</t>
+  </si>
+  <si>
+    <t>21.05.20259</t>
+  </si>
+  <si>
+    <t>21.05.202510</t>
+  </si>
+  <si>
+    <t>21.05.202511</t>
+  </si>
+  <si>
+    <t>21.05.202512</t>
+  </si>
+  <si>
+    <t>21.05.202513</t>
+  </si>
+  <si>
+    <t>21.05.202514</t>
+  </si>
+  <si>
+    <t>21.05.202515</t>
+  </si>
+  <si>
+    <t>21.05.202516</t>
+  </si>
+  <si>
+    <t>21.05.202517</t>
+  </si>
+  <si>
+    <t>21.05.202518</t>
+  </si>
+  <si>
+    <t>21.05.202519</t>
+  </si>
+  <si>
+    <t>21.05.202520</t>
+  </si>
+  <si>
+    <t>21.05.202521</t>
+  </si>
+  <si>
+    <t>21.05.202522</t>
+  </si>
+  <si>
+    <t>21.05.202523</t>
+  </si>
+  <si>
+    <t>21.05.202524</t>
+  </si>
+  <si>
+    <t>21.05.202525</t>
+  </si>
+  <si>
+    <t>21.05.202526</t>
+  </si>
+  <si>
+    <t>21.05.202527</t>
+  </si>
+  <si>
+    <t>21.05.202528</t>
+  </si>
+  <si>
+    <t>21.05.202529</t>
+  </si>
+  <si>
+    <t>21.05.202530</t>
+  </si>
+  <si>
+    <t>21.05.202531</t>
+  </si>
+  <si>
+    <t>21.05.202532</t>
+  </si>
+  <si>
+    <t>21.05.202533</t>
+  </si>
+  <si>
+    <t>21.05.202534</t>
+  </si>
+  <si>
+    <t>21.05.202535</t>
+  </si>
+  <si>
+    <t>21.05.202536</t>
+  </si>
+  <si>
+    <t>21.05.202537</t>
+  </si>
+  <si>
+    <t>21.05.202538</t>
+  </si>
+  <si>
+    <t>21.05.202539</t>
+  </si>
+  <si>
+    <t>21.05.202540</t>
+  </si>
+  <si>
+    <t>21.05.202541</t>
+  </si>
+  <si>
+    <t>21.05.202542</t>
+  </si>
+  <si>
+    <t>21.05.202543</t>
+  </si>
+  <si>
+    <t>21.05.202544</t>
+  </si>
+  <si>
+    <t>21.05.202545</t>
+  </si>
+  <si>
+    <t>21.05.202546</t>
+  </si>
+  <si>
+    <t>21.05.202547</t>
+  </si>
+  <si>
+    <t>21.05.202548</t>
+  </si>
+  <si>
+    <t>21.05.202549</t>
+  </si>
+  <si>
+    <t>21.05.202550</t>
+  </si>
+  <si>
+    <t>21.05.202551</t>
+  </si>
+  <si>
+    <t>21.05.202552</t>
+  </si>
+  <si>
+    <t>21.05.202553</t>
+  </si>
+  <si>
+    <t>21.05.202554</t>
+  </si>
+  <si>
+    <t>21.05.202555</t>
+  </si>
+  <si>
+    <t>21.05.202556</t>
+  </si>
+  <si>
+    <t>21.05.202557</t>
+  </si>
+  <si>
+    <t>21.05.202558</t>
+  </si>
+  <si>
+    <t>21.05.202559</t>
+  </si>
+  <si>
+    <t>21.05.202560</t>
+  </si>
+  <si>
+    <t>21.05.202561</t>
+  </si>
+  <si>
+    <t>21.05.202562</t>
+  </si>
+  <si>
+    <t>21.05.202563</t>
+  </si>
+  <si>
+    <t>21.05.202564</t>
+  </si>
+  <si>
+    <t>21.05.202565</t>
+  </si>
+  <si>
+    <t>21.05.202566</t>
+  </si>
+  <si>
+    <t>21.05.202567</t>
+  </si>
+  <si>
+    <t>21.05.202568</t>
+  </si>
+  <si>
+    <t>21.05.202569</t>
+  </si>
+  <si>
+    <t>21.05.202570</t>
+  </si>
+  <si>
+    <t>21.05.202571</t>
+  </si>
+  <si>
+    <t>21.05.202572</t>
+  </si>
+  <si>
+    <t>21.05.202573</t>
+  </si>
+  <si>
+    <t>21.05.202574</t>
+  </si>
+  <si>
+    <t>21.05.202575</t>
+  </si>
+  <si>
+    <t>21.05.202576</t>
+  </si>
+  <si>
+    <t>21.05.202577</t>
+  </si>
+  <si>
+    <t>21.05.202578</t>
+  </si>
+  <si>
+    <t>21.05.202579</t>
+  </si>
+  <si>
+    <t>21.05.202580</t>
+  </si>
+  <si>
+    <t>21.05.202581</t>
+  </si>
+  <si>
+    <t>21.05.202582</t>
+  </si>
+  <si>
+    <t>21.05.202583</t>
+  </si>
+  <si>
+    <t>21.05.202584</t>
+  </si>
+  <si>
+    <t>21.05.202585</t>
+  </si>
+  <si>
+    <t>21.05.202586</t>
+  </si>
+  <si>
+    <t>21.05.202587</t>
+  </si>
+  <si>
+    <t>21.05.202588</t>
+  </si>
+  <si>
+    <t>21.05.202589</t>
+  </si>
+  <si>
+    <t>21.05.202590</t>
+  </si>
+  <si>
+    <t>21.05.202591</t>
+  </si>
+  <si>
+    <t>21.05.202592</t>
+  </si>
+  <si>
+    <t>21.05.202593</t>
+  </si>
+  <si>
+    <t>21.05.202594</t>
+  </si>
+  <si>
+    <t>21.05.202595</t>
+  </si>
+  <si>
+    <t>21.05.202596</t>
+  </si>
+  <si>
+    <t>22.05.20251</t>
+  </si>
+  <si>
+    <t>22.05.20252</t>
+  </si>
+  <si>
+    <t>22.05.20253</t>
+  </si>
+  <si>
+    <t>22.05.20254</t>
+  </si>
+  <si>
+    <t>22.05.20255</t>
+  </si>
+  <si>
+    <t>22.05.20256</t>
+  </si>
+  <si>
+    <t>22.05.20257</t>
+  </si>
+  <si>
+    <t>22.05.20258</t>
+  </si>
+  <si>
+    <t>22.05.20259</t>
+  </si>
+  <si>
+    <t>22.05.202510</t>
+  </si>
+  <si>
+    <t>22.05.202511</t>
+  </si>
+  <si>
+    <t>22.05.202512</t>
+  </si>
+  <si>
+    <t>22.05.202513</t>
+  </si>
+  <si>
+    <t>22.05.202514</t>
+  </si>
+  <si>
+    <t>22.05.202515</t>
+  </si>
+  <si>
+    <t>22.05.202516</t>
+  </si>
+  <si>
+    <t>22.05.202517</t>
+  </si>
+  <si>
+    <t>22.05.202518</t>
+  </si>
+  <si>
+    <t>22.05.202519</t>
+  </si>
+  <si>
+    <t>22.05.202520</t>
+  </si>
+  <si>
+    <t>22.05.202521</t>
+  </si>
+  <si>
+    <t>22.05.202522</t>
+  </si>
+  <si>
+    <t>22.05.202523</t>
+  </si>
+  <si>
+    <t>22.05.202524</t>
+  </si>
+  <si>
+    <t>22.05.202525</t>
+  </si>
+  <si>
+    <t>22.05.202526</t>
+  </si>
+  <si>
+    <t>22.05.202527</t>
+  </si>
+  <si>
+    <t>22.05.202528</t>
+  </si>
+  <si>
+    <t>22.05.202529</t>
+  </si>
+  <si>
+    <t>22.05.202530</t>
+  </si>
+  <si>
+    <t>22.05.202531</t>
+  </si>
+  <si>
+    <t>22.05.202532</t>
+  </si>
+  <si>
+    <t>22.05.202533</t>
+  </si>
+  <si>
+    <t>22.05.202534</t>
+  </si>
+  <si>
+    <t>22.05.202535</t>
+  </si>
+  <si>
+    <t>22.05.202536</t>
+  </si>
+  <si>
+    <t>22.05.202537</t>
+  </si>
+  <si>
+    <t>22.05.202538</t>
+  </si>
+  <si>
+    <t>22.05.202539</t>
+  </si>
+  <si>
+    <t>22.05.202540</t>
+  </si>
+  <si>
+    <t>22.05.202541</t>
+  </si>
+  <si>
+    <t>22.05.202542</t>
+  </si>
+  <si>
+    <t>22.05.202543</t>
+  </si>
+  <si>
+    <t>22.05.202544</t>
   </si>
 </sst>
 </file>
@@ -810,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,16 +1135,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B2">
-        <v>11.663</v>
+        <v>5.468</v>
       </c>
       <c r="C2">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -864,16 +1158,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45796.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.176</v>
+        <v>5.705</v>
       </c>
       <c r="C3">
-        <v>0.6820000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -887,16 +1181,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45796.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>12.1</v>
       </c>
       <c r="C4">
-        <v>1.174</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -910,16 +1204,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45796.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.881</v>
       </c>
       <c r="C5">
-        <v>35.737</v>
+        <v>0.034</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,16 +1227,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45796.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="C6">
-        <v>2.534</v>
+        <v>0.325</v>
       </c>
       <c r="D6">
-        <v>41.25</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -956,16 +1250,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45796.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.6899999999999999</v>
+        <v>18.724</v>
       </c>
       <c r="D7">
-        <v>41.25</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -979,16 +1273,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45796.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B8">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.214</v>
+        <v>37.91</v>
       </c>
       <c r="D8">
-        <v>41.25</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1002,19 +1296,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45796.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C9">
-        <v>9.654</v>
+        <v>4.269</v>
       </c>
       <c r="D9">
-        <v>41.25</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1025,19 +1319,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45796.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.001</v>
       </c>
       <c r="C10">
-        <v>5.229</v>
+        <v>0.038</v>
       </c>
       <c r="D10">
-        <v>41.75</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1048,19 +1342,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45796.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="C11">
-        <v>2.026</v>
+        <v>1.979</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1071,19 +1365,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45796.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.428</v>
       </c>
       <c r="C12">
-        <v>7.11</v>
+        <v>0.21</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1094,19 +1388,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45796.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C13">
-        <v>12.501</v>
+        <v>3.507</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1117,19 +1411,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45796.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="C14">
-        <v>1.276</v>
+        <v>3.072</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -1140,19 +1434,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45796.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.283</v>
+        <v>0.821</v>
       </c>
       <c r="C15">
-        <v>2.148</v>
+        <v>0.174</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1163,10 +1457,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45796.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B16">
-        <v>12.729</v>
+        <v>17.072</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1175,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1186,10 +1480,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45796.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B17">
-        <v>20.277</v>
+        <v>17.765</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1198,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -1209,10 +1503,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45796.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B18">
-        <v>7.395</v>
+        <v>25.6</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1221,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -1232,10 +1526,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45796.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B19">
-        <v>24.196</v>
+        <v>10.388</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1255,10 +1549,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45796.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B20">
-        <v>2.965</v>
+        <v>8.481999999999999</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1278,13 +1572,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45796.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.5649999999999999</v>
+        <v>2.966</v>
       </c>
       <c r="C21">
-        <v>1.63</v>
+        <v>0.002</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1301,13 +1595,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45796.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.743</v>
       </c>
       <c r="C22">
-        <v>12.919</v>
+        <v>0.037</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1324,13 +1618,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45796.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B23">
-        <v>0.008999999999999999</v>
+        <v>9.625999999999999</v>
       </c>
       <c r="C23">
-        <v>0.878</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1347,13 +1641,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45796.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.045</v>
+        <v>23.446</v>
       </c>
       <c r="C24">
-        <v>3.043</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1370,13 +1664,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45796.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.011</v>
+        <v>9.952</v>
       </c>
       <c r="C25">
-        <v>4.117</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1393,13 +1687,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45796.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>18.127</v>
       </c>
       <c r="C26">
-        <v>15.736</v>
+        <v>0.116</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1416,16 +1710,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45796.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.127</v>
+        <v>24.336</v>
       </c>
       <c r="C27">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1439,16 +1733,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45796.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.004</v>
+        <v>7.301</v>
       </c>
       <c r="C28">
-        <v>10.536</v>
+        <v>0.021</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1462,19 +1756,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45796.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B29">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1.414</v>
+        <v>2.72</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1485,19 +1779,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45796.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B30">
-        <v>2.183</v>
+        <v>12.382</v>
       </c>
       <c r="C30">
-        <v>3.457</v>
+        <v>0.21</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1508,19 +1802,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45796.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B31">
-        <v>4.68</v>
+        <v>9.718</v>
       </c>
       <c r="C31">
-        <v>0.28</v>
+        <v>0.006</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1531,19 +1825,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45796.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B32">
-        <v>0.208</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C32">
-        <v>1.858</v>
+        <v>20.922</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>62.25</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1554,19 +1848,19 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45796.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>12.641</v>
+        <v>31.712</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>62.25</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1577,19 +1871,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45796.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.036</v>
+        <v>0.011</v>
       </c>
       <c r="C34">
-        <v>2.31</v>
+        <v>5.343</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E34">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1600,19 +1894,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45796.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B35">
-        <v>1.738</v>
+        <v>0.002</v>
       </c>
       <c r="C35">
-        <v>1.318</v>
+        <v>1.848</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1623,19 +1917,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45796.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C36">
-        <v>12.005</v>
+        <v>3.373</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1646,19 +1940,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45796.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="C37">
-        <v>31.848</v>
+        <v>2.041</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1669,19 +1963,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45796.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B38">
-        <v>39.613</v>
+        <v>1.88</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1692,19 +1986,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45796.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B39">
-        <v>43.34</v>
+        <v>0.006</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>6.511</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1715,19 +2009,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45796.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B40">
-        <v>26.171</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>19.005</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1738,19 +2032,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45796.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B41">
-        <v>6.435</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.01</v>
+        <v>26.318</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1761,19 +2055,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45796.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B42">
-        <v>25.739</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.004</v>
+        <v>11.964</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1784,19 +2078,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45796.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B43">
-        <v>5.329</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.169</v>
+        <v>26.532</v>
       </c>
       <c r="D43">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1807,19 +2101,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45796.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.202</v>
       </c>
       <c r="C44">
-        <v>21.365</v>
+        <v>3.863</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1830,19 +2124,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45796.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="C45">
-        <v>50.364</v>
+        <v>2.113</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1853,19 +2147,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45796.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>51.094</v>
+        <v>15.247</v>
       </c>
       <c r="D46">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1876,19 +2170,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45796.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>51.075</v>
+        <v>24.817</v>
       </c>
       <c r="D47">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1899,19 +2193,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45796.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="C48">
-        <v>25.126</v>
+        <v>7.542</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1922,19 +2216,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45796.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="C49">
-        <v>45.527</v>
+        <v>0.825</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1945,19 +2239,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45796.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>49.231</v>
+        <v>21.945</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1968,19 +2262,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45796.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>8.209</v>
+        <v>13.369</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1991,19 +2285,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45796.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.101</v>
+        <v>0.457</v>
       </c>
       <c r="C52">
-        <v>2.012</v>
+        <v>0.837</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -2014,19 +2308,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45796.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B53">
-        <v>0.5649999999999999</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.898</v>
+        <v>8.272</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2037,19 +2331,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45796.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B54">
-        <v>11.217</v>
+        <v>0.033</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>5.084</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2060,19 +2354,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45796.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B55">
-        <v>3.881</v>
+        <v>0.001</v>
       </c>
       <c r="C55">
-        <v>0.037</v>
+        <v>3.421</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2083,19 +2377,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45796.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B56">
-        <v>0.01</v>
+        <v>2.521</v>
       </c>
       <c r="C56">
-        <v>2.994</v>
+        <v>0.6</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2106,19 +2400,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45796.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.021</v>
+        <v>18.222</v>
       </c>
       <c r="C57">
-        <v>8.818</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2129,19 +2423,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45796.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B58">
-        <v>0.203</v>
+        <v>0.123</v>
       </c>
       <c r="C58">
-        <v>3.801</v>
+        <v>19.037</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2152,19 +2446,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45796.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B59">
-        <v>1.189</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C59">
-        <v>0.002</v>
+        <v>19.593</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -2175,19 +2469,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45796.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B60">
-        <v>1.231</v>
+        <v>4.762</v>
       </c>
       <c r="C60">
-        <v>0.142</v>
+        <v>2.331</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -2198,19 +2492,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45796.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B61">
-        <v>5.828</v>
+        <v>20.159</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -2221,19 +2515,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45796.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B62">
-        <v>7.103</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>3.865</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F62">
         <v>61</v>
@@ -2244,19 +2538,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45796.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B63">
-        <v>22.639</v>
+        <v>0.032</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>13.59</v>
       </c>
       <c r="D63">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -2267,19 +2561,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45796.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B64">
-        <v>5.411</v>
+        <v>0.021</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>7.688</v>
       </c>
       <c r="D64">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -2290,16 +2584,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45796.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B65">
-        <v>2.525</v>
+        <v>0.015</v>
       </c>
       <c r="C65">
-        <v>0.075</v>
+        <v>6.842</v>
       </c>
       <c r="D65">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2313,16 +2607,16 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45796.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>22.106</v>
+        <v>48.548</v>
       </c>
       <c r="D66">
-        <v>44.75</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2336,19 +2630,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45796.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>7.6</v>
+        <v>12.626</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F67">
         <v>66</v>
@@ -2359,19 +2653,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45796.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B68">
-        <v>0.337</v>
+        <v>0.006</v>
       </c>
       <c r="C68">
-        <v>0.159</v>
+        <v>4.986</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F68">
         <v>67</v>
@@ -2382,13 +2676,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45796.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B69">
-        <v>4.235</v>
+        <v>1.524</v>
       </c>
       <c r="C69">
-        <v>0.207</v>
+        <v>0.141</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2405,19 +2699,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45796.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2.029</v>
       </c>
       <c r="C70">
-        <v>20.314</v>
+        <v>0.004</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>34.75</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2428,13 +2722,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45796.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B71">
-        <v>0.741</v>
+        <v>0.114</v>
       </c>
       <c r="C71">
-        <v>4.456</v>
+        <v>0.549</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2451,19 +2745,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45796.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B72">
-        <v>19.314</v>
+        <v>6.474</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2474,13 +2768,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45796.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B73">
-        <v>14.301</v>
+        <v>21.94</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2497,13 +2791,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45796.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B74">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>30.101</v>
+        <v>14.367</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2520,13 +2814,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45796.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.002</v>
+        <v>11.311</v>
       </c>
       <c r="C75">
-        <v>17.725</v>
+        <v>0.449</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2543,13 +2837,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45796.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B76">
-        <v>11.709</v>
+        <v>33.93</v>
       </c>
       <c r="C76">
-        <v>4.745</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2566,16 +2860,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45796.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B77">
-        <v>49.028</v>
+        <v>31.173</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2589,16 +2883,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45796.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B78">
-        <v>12.058</v>
+        <v>6.536</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="D78">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2612,16 +2906,16 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45796.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B79">
-        <v>29.012</v>
+        <v>24.616</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>95.25</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2635,16 +2929,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45796.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B80">
-        <v>35.525</v>
+        <v>32.505</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>119.75</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2658,16 +2952,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45796.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B81">
-        <v>35.306</v>
+        <v>50.625</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>152.25</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2681,16 +2975,16 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45796.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B82">
-        <v>7.432</v>
+        <v>15.19</v>
       </c>
       <c r="C82">
-        <v>5.813</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2704,16 +2998,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45796.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>32.02</v>
       </c>
       <c r="C83">
-        <v>27.933</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2727,16 +3021,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45796.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>45.827</v>
       </c>
       <c r="C84">
-        <v>13.403</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>23.25</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2750,13 +3044,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45796.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>43.68</v>
       </c>
       <c r="C85">
-        <v>23.15</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2773,13 +3067,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45796.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B86">
-        <v>0.029</v>
+        <v>49.57</v>
       </c>
       <c r="C86">
-        <v>3.627</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2796,13 +3090,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45796.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B87">
-        <v>0.008999999999999999</v>
+        <v>42.5</v>
       </c>
       <c r="C87">
-        <v>2.498</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2819,13 +3113,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45796.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B88">
-        <v>2.281</v>
+        <v>17.613</v>
       </c>
       <c r="C88">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2842,13 +3136,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45796.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B89">
-        <v>0.101</v>
+        <v>1.921</v>
       </c>
       <c r="C89">
-        <v>2.257</v>
+        <v>2.925</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2865,13 +3159,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45796.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B90">
-        <v>13.3</v>
+        <v>30.118</v>
       </c>
       <c r="C90">
-        <v>0.017</v>
+        <v>0.202</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2888,13 +3182,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45796.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B91">
-        <v>0.062</v>
+        <v>2.65</v>
       </c>
       <c r="C91">
-        <v>7.072</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2911,13 +3205,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45796.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>7.724</v>
       </c>
       <c r="C92">
-        <v>33.76</v>
+        <v>0.107</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2934,13 +3228,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45796.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.376</v>
       </c>
       <c r="C93">
-        <v>15.894</v>
+        <v>0.28</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2957,13 +3251,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45796.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B94">
-        <v>0.093</v>
+        <v>7.865</v>
       </c>
       <c r="C94">
-        <v>2.668</v>
+        <v>0.102</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2980,13 +3274,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45796.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B95">
-        <v>0.321</v>
+        <v>13.918</v>
       </c>
       <c r="C95">
-        <v>2.388</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3003,13 +3297,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45796.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B96">
-        <v>0.626</v>
+        <v>0.144</v>
       </c>
       <c r="C96">
-        <v>1.955</v>
+        <v>0.16</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3026,13 +3320,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45796.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B97">
-        <v>6.96</v>
+        <v>0.068</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1.328</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3049,13 +3343,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B98">
-        <v>5.468</v>
+        <v>5.778</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1.876</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3072,13 +3366,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B99">
-        <v>5.468</v>
+        <v>5.778</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1.876</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3095,10 +3389,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45797.01041666666</v>
+        <v>45798.01041666666</v>
       </c>
       <c r="B100">
-        <v>5.705</v>
+        <v>5.261</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3118,10 +3412,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45797.01041666666</v>
+        <v>45798.01041666666</v>
       </c>
       <c r="B101">
-        <v>5.705</v>
+        <v>5.261</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3141,10 +3435,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45797.02083333334</v>
+        <v>45798.02083333334</v>
       </c>
       <c r="B102">
-        <v>12.1</v>
+        <v>11.795</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3164,10 +3458,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45797.02083333334</v>
+        <v>45798.02083333334</v>
       </c>
       <c r="B103">
-        <v>12.1</v>
+        <v>11.795</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3187,13 +3481,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45797.03125</v>
+        <v>45798.03125</v>
       </c>
       <c r="B104">
-        <v>0.881</v>
+        <v>2.054</v>
       </c>
       <c r="C104">
-        <v>0.034</v>
+        <v>0.019</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3210,13 +3504,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45797.03125</v>
+        <v>45798.03125</v>
       </c>
       <c r="B105">
-        <v>0.881</v>
+        <v>2.054</v>
       </c>
       <c r="C105">
-        <v>0.034</v>
+        <v>0.019</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3233,13 +3527,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45797.04166666666</v>
+        <v>45798.04166666666</v>
       </c>
       <c r="B106">
-        <v>0.052</v>
+        <v>0.234</v>
       </c>
       <c r="C106">
-        <v>0.325</v>
+        <v>0.183</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3256,13 +3550,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45797.04166666666</v>
+        <v>45798.04166666666</v>
       </c>
       <c r="B107">
-        <v>0.052</v>
+        <v>0.234</v>
       </c>
       <c r="C107">
-        <v>0.325</v>
+        <v>0.183</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3279,13 +3573,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45797.05208333334</v>
+        <v>45798.05208333334</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>18.724</v>
+        <v>1.153</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3302,13 +3596,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45797.05208333334</v>
+        <v>45798.05208333334</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>18.724</v>
+        <v>1.153</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3325,13 +3619,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45797.0625</v>
+        <v>45798.0625</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>37.91</v>
+        <v>0.702</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3348,13 +3642,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45797.0625</v>
+        <v>45798.0625</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>37.91</v>
+        <v>0.702</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3371,19 +3665,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45797.07291666666</v>
+        <v>45798.07291666666</v>
       </c>
       <c r="B112">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>4.269</v>
+        <v>1.956</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>8</v>
@@ -3394,19 +3688,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45797.07291666666</v>
+        <v>45798.07291666666</v>
       </c>
       <c r="B113">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>4.269</v>
+        <v>1.956</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>8</v>
@@ -3417,19 +3711,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45797.08333333334</v>
+        <v>45798.08333333334</v>
       </c>
       <c r="B114">
-        <v>1.001</v>
+        <v>0.016</v>
       </c>
       <c r="C114">
-        <v>0.038</v>
+        <v>0.838</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>9</v>
@@ -3440,19 +3734,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45797.09375</v>
+        <v>45798.09375</v>
       </c>
       <c r="B115">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>1.979</v>
+        <v>17.589</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -3463,19 +3757,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45797.10416666666</v>
+        <v>45798.10416666666</v>
       </c>
       <c r="B116">
-        <v>1.428</v>
+        <v>0.004</v>
       </c>
       <c r="C116">
-        <v>0.21</v>
+        <v>4.182</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>11</v>
@@ -3486,19 +3780,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45797.11458333334</v>
+        <v>45798.11458333334</v>
       </c>
       <c r="B117">
-        <v>0.003</v>
+        <v>0.03</v>
       </c>
       <c r="C117">
-        <v>3.507</v>
+        <v>0.186</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>12</v>
@@ -3509,19 +3803,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45797.125</v>
+        <v>45798.125</v>
       </c>
       <c r="B118">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="C118">
-        <v>3.072</v>
+        <v>0.153</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>13</v>
@@ -3532,19 +3826,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45797.13541666666</v>
+        <v>45798.13541666666</v>
       </c>
       <c r="B119">
-        <v>0.821</v>
+        <v>0.049</v>
       </c>
       <c r="C119">
-        <v>0.174</v>
+        <v>0.117</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>14</v>
@@ -3555,19 +3849,19 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45797.14583333334</v>
+        <v>45798.14583333334</v>
       </c>
       <c r="B120">
-        <v>17.072</v>
+        <v>0.047</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>15</v>
@@ -3578,19 +3872,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45797.15625</v>
+        <v>45798.15625</v>
       </c>
       <c r="B121">
-        <v>17.765</v>
+        <v>0.058</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.129</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>16</v>
@@ -3601,19 +3895,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45797.16666666666</v>
+        <v>45798.16666666666</v>
       </c>
       <c r="B122">
-        <v>25.6</v>
+        <v>0.056</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>17</v>
@@ -3624,13 +3918,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45797.17708333334</v>
+        <v>45798.17708333334</v>
       </c>
       <c r="B123">
-        <v>10.388</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>7.756</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3647,13 +3941,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45797.1875</v>
+        <v>45798.1875</v>
       </c>
       <c r="B124">
-        <v>8.481999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3670,13 +3964,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45797.19791666666</v>
+        <v>45798.19791666666</v>
       </c>
       <c r="B125">
-        <v>2.966</v>
+        <v>0.056</v>
       </c>
       <c r="C125">
-        <v>0.002</v>
+        <v>0.314</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3693,13 +3987,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45797.20833333334</v>
+        <v>45798.20833333334</v>
       </c>
       <c r="B126">
-        <v>0.743</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0.037</v>
+        <v>16</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3716,13 +4010,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45797.21875</v>
+        <v>45798.21875</v>
       </c>
       <c r="B127">
-        <v>9.625999999999999</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>7.085</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3739,13 +4033,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45797.22916666666</v>
+        <v>45798.22916666666</v>
       </c>
       <c r="B128">
-        <v>23.446</v>
+        <v>0.029</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.619</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3762,13 +4056,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45797.23958333334</v>
+        <v>45798.23958333334</v>
       </c>
       <c r="B129">
-        <v>9.952</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>33.486</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3785,19 +4079,19 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45797.25</v>
+        <v>45798.25</v>
       </c>
       <c r="B130">
-        <v>18.127</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>0.116</v>
+        <v>30.627</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F130">
         <v>25</v>
@@ -3808,19 +4102,19 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45797.26041666666</v>
+        <v>45798.26041666666</v>
       </c>
       <c r="B131">
-        <v>24.336</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>10.927</v>
       </c>
       <c r="D131">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F131">
         <v>26</v>
@@ -3831,19 +4125,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45797.27083333334</v>
+        <v>45798.27083333334</v>
       </c>
       <c r="B132">
-        <v>7.301</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>0.021</v>
+        <v>12.836</v>
       </c>
       <c r="D132">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F132">
         <v>27</v>
@@ -3854,19 +4148,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45797.28125</v>
+        <v>45798.28125</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>2.72</v>
+        <v>22.04</v>
       </c>
       <c r="D133">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F133">
         <v>28</v>
@@ -3877,19 +4171,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45797.29166666666</v>
+        <v>45798.29166666666</v>
       </c>
       <c r="B134">
-        <v>12.382</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>0.21</v>
+        <v>8.398</v>
       </c>
       <c r="D134">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>36.25</v>
       </c>
       <c r="F134">
         <v>29</v>
@@ -3900,19 +4194,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45797.30208333334</v>
+        <v>45798.30208333334</v>
       </c>
       <c r="B135">
-        <v>9.718</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>0.006</v>
+        <v>11.482</v>
       </c>
       <c r="D135">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F135">
         <v>30</v>
@@ -3923,19 +4217,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45797.3125</v>
+        <v>45798.3125</v>
       </c>
       <c r="B136">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>20.922</v>
+        <v>13.433</v>
       </c>
       <c r="D136">
-        <v>62.25</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F136">
         <v>31</v>
@@ -3946,19 +4240,19 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45797.32291666666</v>
+        <v>45798.32291666666</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>31.712</v>
+        <v>38.974</v>
       </c>
       <c r="D137">
-        <v>62.25</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F137">
         <v>32</v>
@@ -3969,19 +4263,19 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45797.33333333334</v>
+        <v>45798.33333333334</v>
       </c>
       <c r="B138">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>5.343</v>
+        <v>17.163</v>
       </c>
       <c r="D138">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>35.25</v>
       </c>
       <c r="F138">
         <v>33</v>
@@ -3992,19 +4286,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45797.34375</v>
+        <v>45798.34375</v>
       </c>
       <c r="B139">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>1.848</v>
+        <v>31.379</v>
       </c>
       <c r="D139">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>35.25</v>
       </c>
       <c r="F139">
         <v>34</v>
@@ -4015,19 +4309,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45797.35416666666</v>
+        <v>45798.35416666666</v>
       </c>
       <c r="B140">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>3.373</v>
+        <v>28.239</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F140">
         <v>35</v>
@@ -4038,19 +4332,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45797.36458333334</v>
+        <v>45798.36458333334</v>
       </c>
       <c r="B141">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>2.041</v>
+        <v>55.605</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="F141">
         <v>36</v>
@@ -4061,19 +4355,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45797.375</v>
+        <v>45798.375</v>
       </c>
       <c r="B142">
-        <v>1.88</v>
+        <v>0.03</v>
       </c>
       <c r="C142">
-        <v>0.08799999999999999</v>
+        <v>9.016999999999999</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="F142">
         <v>37</v>
@@ -4084,19 +4378,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45797.38541666666</v>
+        <v>45798.38541666666</v>
       </c>
       <c r="B143">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>6.511</v>
+        <v>21.773</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="F143">
         <v>38</v>
@@ -4107,19 +4401,19 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45797.39583333334</v>
+        <v>45798.39583333334</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>19.005</v>
+        <v>20.997</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="F144">
         <v>39</v>
@@ -4130,19 +4424,19 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45797.40625</v>
+        <v>45798.40625</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>26.318</v>
+        <v>36.916</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F145">
         <v>40</v>
@@ -4153,19 +4447,19 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45797.41666666666</v>
+        <v>45798.41666666666</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>7.635</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F146">
         <v>41</v>
@@ -4176,25 +4470,2463 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45797.42708333334</v>
+        <v>45798.42708333334</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>9.304</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F147">
         <v>42</v>
       </c>
       <c r="G147" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>45798.4375</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>30.675</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>32</v>
+      </c>
+      <c r="F148">
+        <v>43</v>
+      </c>
+      <c r="G148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>45798.44791666666</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>35.392</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>32</v>
+      </c>
+      <c r="F149">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>45798.45833333334</v>
+      </c>
+      <c r="B150">
+        <v>0.006</v>
+      </c>
+      <c r="C150">
+        <v>10.002</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>27.75</v>
+      </c>
+      <c r="F150">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>45798.46875</v>
+      </c>
+      <c r="B151">
+        <v>0.292</v>
+      </c>
+      <c r="C151">
+        <v>0.244</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>27.75</v>
+      </c>
+      <c r="F151">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="B152">
+        <v>0.212</v>
+      </c>
+      <c r="C152">
+        <v>0.212</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>27.75</v>
+      </c>
+      <c r="F152">
+        <v>47</v>
+      </c>
+      <c r="G152" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>45798.48958333334</v>
+      </c>
+      <c r="B153">
+        <v>0.357</v>
+      </c>
+      <c r="C153">
+        <v>0.286</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>27.75</v>
+      </c>
+      <c r="F153">
+        <v>48</v>
+      </c>
+      <c r="G153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>45798.5</v>
+      </c>
+      <c r="B154">
+        <v>0.038</v>
+      </c>
+      <c r="C154">
+        <v>12.366</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>28.75</v>
+      </c>
+      <c r="F154">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>45798.51041666666</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>12.493</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>50</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>45798.52083333334</v>
+      </c>
+      <c r="B156">
+        <v>0.005</v>
+      </c>
+      <c r="C156">
+        <v>18.703</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>28.75</v>
+      </c>
+      <c r="F156">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>45798.53125</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>17.65</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>28.75</v>
+      </c>
+      <c r="F157">
+        <v>52</v>
+      </c>
+      <c r="G157" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>45798.54166666666</v>
+      </c>
+      <c r="B158">
+        <v>0.016</v>
+      </c>
+      <c r="C158">
+        <v>8.202999999999999</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>50</v>
+      </c>
+      <c r="F158">
+        <v>53</v>
+      </c>
+      <c r="G158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>45798.55208333334</v>
+      </c>
+      <c r="B159">
+        <v>0.06</v>
+      </c>
+      <c r="C159">
+        <v>4.652</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>49.25</v>
+      </c>
+      <c r="F159">
+        <v>54</v>
+      </c>
+      <c r="G159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>45798.5625</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>14.205</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>50</v>
+      </c>
+      <c r="F160">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>45798.57291666666</v>
+      </c>
+      <c r="B161">
+        <v>0.089</v>
+      </c>
+      <c r="C161">
+        <v>1.959</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>50</v>
+      </c>
+      <c r="F161">
+        <v>56</v>
+      </c>
+      <c r="G161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>45798.58333333334</v>
+      </c>
+      <c r="B162">
+        <v>2.301</v>
+      </c>
+      <c r="C162">
+        <v>2.449</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>50</v>
+      </c>
+      <c r="F162">
+        <v>57</v>
+      </c>
+      <c r="G162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>45798.59375</v>
+      </c>
+      <c r="B163">
+        <v>0.955</v>
+      </c>
+      <c r="C163">
+        <v>0.015</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>50</v>
+      </c>
+      <c r="F163">
+        <v>58</v>
+      </c>
+      <c r="G163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>45798.60416666666</v>
+      </c>
+      <c r="B164">
+        <v>7.016</v>
+      </c>
+      <c r="C164">
+        <v>0.116</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>22.5</v>
+      </c>
+      <c r="F164">
+        <v>59</v>
+      </c>
+      <c r="G164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>45798.61458333334</v>
+      </c>
+      <c r="B165">
+        <v>4.475</v>
+      </c>
+      <c r="C165">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>60</v>
+      </c>
+      <c r="G165" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>45798.625</v>
+      </c>
+      <c r="B166">
+        <v>0.015</v>
+      </c>
+      <c r="C166">
+        <v>11.651</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>61</v>
+      </c>
+      <c r="G166" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>45798.63541666666</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>7.947</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>62</v>
+      </c>
+      <c r="G167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>45798.64583333334</v>
+      </c>
+      <c r="B168">
+        <v>0.051</v>
+      </c>
+      <c r="C168">
+        <v>3.652</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>63</v>
+      </c>
+      <c r="G168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>45798.65625</v>
+      </c>
+      <c r="B169">
+        <v>0.04</v>
+      </c>
+      <c r="C169">
+        <v>7.393</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>64</v>
+      </c>
+      <c r="G169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>45798.66666666666</v>
+      </c>
+      <c r="B170">
+        <v>1.935</v>
+      </c>
+      <c r="C170">
+        <v>3.753</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>37.5</v>
+      </c>
+      <c r="F170">
+        <v>65</v>
+      </c>
+      <c r="G170" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>45798.67708333334</v>
+      </c>
+      <c r="B171">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="C171">
+        <v>2.753</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>12.5</v>
+      </c>
+      <c r="F171">
+        <v>66</v>
+      </c>
+      <c r="G171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>45798.6875</v>
+      </c>
+      <c r="B172">
+        <v>0.068</v>
+      </c>
+      <c r="C172">
+        <v>1.044</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>67</v>
+      </c>
+      <c r="G172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>45798.69791666666</v>
+      </c>
+      <c r="B173">
+        <v>0.359</v>
+      </c>
+      <c r="C173">
+        <v>0.176</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>68</v>
+      </c>
+      <c r="G173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>45798.70833333334</v>
+      </c>
+      <c r="B174">
+        <v>1.193</v>
+      </c>
+      <c r="C174">
+        <v>0.077</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>25</v>
+      </c>
+      <c r="F174">
+        <v>69</v>
+      </c>
+      <c r="G174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>45798.71875</v>
+      </c>
+      <c r="B175">
+        <v>0.08</v>
+      </c>
+      <c r="C175">
+        <v>0.154</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>70</v>
+      </c>
+      <c r="G175" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>45798.72916666666</v>
+      </c>
+      <c r="B176">
+        <v>0.181</v>
+      </c>
+      <c r="C176">
+        <v>0.196</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>71</v>
+      </c>
+      <c r="G176" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>45798.73958333334</v>
+      </c>
+      <c r="B177">
+        <v>0.447</v>
+      </c>
+      <c r="C177">
+        <v>0.263</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>72</v>
+      </c>
+      <c r="G177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>45798.75</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>35.856</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>73</v>
+      </c>
+      <c r="G178" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>45798.76041666666</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>13.485</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>74</v>
+      </c>
+      <c r="G179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>45798.77083333334</v>
+      </c>
+      <c r="B180">
+        <v>0.035</v>
+      </c>
+      <c r="C180">
+        <v>0.543</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>75</v>
+      </c>
+      <c r="G180" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>45798.78125</v>
+      </c>
+      <c r="B181">
+        <v>0.214</v>
+      </c>
+      <c r="C181">
+        <v>0.279</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>76</v>
+      </c>
+      <c r="G181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>45798.79166666666</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>9.491</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>37.5</v>
+      </c>
+      <c r="F182">
+        <v>77</v>
+      </c>
+      <c r="G182" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>45798.80208333334</v>
+      </c>
+      <c r="B183">
+        <v>0.01</v>
+      </c>
+      <c r="C183">
+        <v>5.568</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>25</v>
+      </c>
+      <c r="F183">
+        <v>78</v>
+      </c>
+      <c r="G183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>45798.8125</v>
+      </c>
+      <c r="B184">
+        <v>0.017</v>
+      </c>
+      <c r="C184">
+        <v>0.844</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>25</v>
+      </c>
+      <c r="F184">
+        <v>79</v>
+      </c>
+      <c r="G184" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>45798.82291666666</v>
+      </c>
+      <c r="B185">
+        <v>0.051</v>
+      </c>
+      <c r="C185">
+        <v>2.28</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>25</v>
+      </c>
+      <c r="F185">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>45798.83333333334</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>17.891</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>81</v>
+      </c>
+      <c r="G186" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>45798.84375</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>2.428</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>82</v>
+      </c>
+      <c r="G187" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>45798.85416666666</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>8.132999999999999</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>83</v>
+      </c>
+      <c r="G188" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>45798.86458333334</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>18.457</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>84</v>
+      </c>
+      <c r="G189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>45798.875</v>
+      </c>
+      <c r="B190">
+        <v>5.949</v>
+      </c>
+      <c r="C190">
+        <v>1.065</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>85</v>
+      </c>
+      <c r="G190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>45798.88541666666</v>
+      </c>
+      <c r="B191">
+        <v>3.404</v>
+      </c>
+      <c r="C191">
+        <v>0.041</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>86</v>
+      </c>
+      <c r="G191" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>45798.89583333334</v>
+      </c>
+      <c r="B192">
+        <v>4.692</v>
+      </c>
+      <c r="C192">
+        <v>2.958</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>87</v>
+      </c>
+      <c r="G192" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>45798.90625</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>5.544</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>88</v>
+      </c>
+      <c r="G193" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>45798.91666666666</v>
+      </c>
+      <c r="B194">
+        <v>24.606</v>
+      </c>
+      <c r="C194">
+        <v>0.358</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>89</v>
+      </c>
+      <c r="G194" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>45798.92708333334</v>
+      </c>
+      <c r="B195">
+        <v>1.938</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>90</v>
+      </c>
+      <c r="G195" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>45798.9375</v>
+      </c>
+      <c r="B196">
+        <v>7.385</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>91</v>
+      </c>
+      <c r="G196" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>45798.94791666666</v>
+      </c>
+      <c r="B197">
+        <v>1.291</v>
+      </c>
+      <c r="C197">
+        <v>2.782</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>92</v>
+      </c>
+      <c r="G197" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>45798.95833333334</v>
+      </c>
+      <c r="B198">
+        <v>5.963</v>
+      </c>
+      <c r="C198">
+        <v>0.134</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>93</v>
+      </c>
+      <c r="G198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>45798.96875</v>
+      </c>
+      <c r="B199">
+        <v>0.115</v>
+      </c>
+      <c r="C199">
+        <v>0.101</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>94</v>
+      </c>
+      <c r="G199" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>45798.97916666666</v>
+      </c>
+      <c r="B200">
+        <v>0.002</v>
+      </c>
+      <c r="C200">
+        <v>1.192</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>95</v>
+      </c>
+      <c r="G200" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>45798.98958333334</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>6.308</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>96</v>
+      </c>
+      <c r="G201" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B202">
+        <v>0.018</v>
+      </c>
+      <c r="C202">
+        <v>2.518</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B203">
+        <v>0.018</v>
+      </c>
+      <c r="C203">
+        <v>2.518</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
+        <v>45799.01041666666</v>
+      </c>
+      <c r="B204">
+        <v>0.015</v>
+      </c>
+      <c r="C204">
+        <v>0.448</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
+        <v>45799.01041666666</v>
+      </c>
+      <c r="B205">
+        <v>0.015</v>
+      </c>
+      <c r="C205">
+        <v>0.448</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
+        <v>45799.02083333334</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>10.566</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>3</v>
+      </c>
+      <c r="G206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
+        <v>45799.02083333334</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>10.566</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>3</v>
+      </c>
+      <c r="G207" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
+        <v>45799.03125</v>
+      </c>
+      <c r="B208">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C208">
+        <v>9.984</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
+        <v>45799.03125</v>
+      </c>
+      <c r="B209">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C209">
+        <v>9.984</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
+        <v>45799.04166666666</v>
+      </c>
+      <c r="B210">
+        <v>7.572</v>
+      </c>
+      <c r="C210">
+        <v>0.216</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>45799.04166666666</v>
+      </c>
+      <c r="B211">
+        <v>7.572</v>
+      </c>
+      <c r="C211">
+        <v>0.216</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+      <c r="G211" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
+        <v>45799.05208333334</v>
+      </c>
+      <c r="B212">
+        <v>0.006</v>
+      </c>
+      <c r="C212">
+        <v>1.478</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>6</v>
+      </c>
+      <c r="G212" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
+        <v>45799.05208333334</v>
+      </c>
+      <c r="B213">
+        <v>0.006</v>
+      </c>
+      <c r="C213">
+        <v>1.478</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>6</v>
+      </c>
+      <c r="G213" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
+        <v>45799.0625</v>
+      </c>
+      <c r="B214">
+        <v>0.099</v>
+      </c>
+      <c r="C214">
+        <v>0.906</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>7</v>
+      </c>
+      <c r="G214" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
+        <v>45799.0625</v>
+      </c>
+      <c r="B215">
+        <v>0.099</v>
+      </c>
+      <c r="C215">
+        <v>0.906</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>7</v>
+      </c>
+      <c r="G215" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
+        <v>45799.07291666666</v>
+      </c>
+      <c r="B216">
+        <v>0.017</v>
+      </c>
+      <c r="C216">
+        <v>3.803</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
+        <v>45799.07291666666</v>
+      </c>
+      <c r="B217">
+        <v>0.017</v>
+      </c>
+      <c r="C217">
+        <v>3.803</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>45799.08333333334</v>
+      </c>
+      <c r="B218">
+        <v>1.323</v>
+      </c>
+      <c r="C218">
+        <v>0.262</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>9</v>
+      </c>
+      <c r="G218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>45799.09375</v>
+      </c>
+      <c r="B219">
+        <v>1.223</v>
+      </c>
+      <c r="C219">
+        <v>0.054</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
+        <v>45799.10416666666</v>
+      </c>
+      <c r="B220">
+        <v>7.413</v>
+      </c>
+      <c r="C220">
+        <v>0.005</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>11</v>
+      </c>
+      <c r="G220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
+        <v>45799.11458333334</v>
+      </c>
+      <c r="B221">
+        <v>28.607</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
+        <v>45799.125</v>
+      </c>
+      <c r="B222">
+        <v>40.21</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
+        <v>45799.13541666666</v>
+      </c>
+      <c r="B223">
+        <v>39.519</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
+        <v>45799.14583333334</v>
+      </c>
+      <c r="B224">
+        <v>24.218</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>33</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="2">
+        <v>45799.15625</v>
+      </c>
+      <c r="B225">
+        <v>10.463</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>33</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>16</v>
+      </c>
+      <c r="G225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="2">
+        <v>45799.16666666666</v>
+      </c>
+      <c r="B226">
+        <v>47.487</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>17</v>
+      </c>
+      <c r="G226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
+        <v>45799.17708333334</v>
+      </c>
+      <c r="B227">
+        <v>10.449</v>
+      </c>
+      <c r="C227">
+        <v>0.006</v>
+      </c>
+      <c r="D227">
+        <v>83.5</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>18</v>
+      </c>
+      <c r="G227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
+        <v>45799.1875</v>
+      </c>
+      <c r="B228">
+        <v>6.875</v>
+      </c>
+      <c r="C228">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D228">
+        <v>83.5</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>19</v>
+      </c>
+      <c r="G228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
+        <v>45799.19791666666</v>
+      </c>
+      <c r="B229">
+        <v>16.984</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>83.5</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
+        <v>45799.20833333334</v>
+      </c>
+      <c r="B230">
+        <v>13.775</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>62.5</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>21</v>
+      </c>
+      <c r="G230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="2">
+        <v>45799.21875</v>
+      </c>
+      <c r="B231">
+        <v>13.001</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>62.5</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>22</v>
+      </c>
+      <c r="G231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
+        <v>45799.22916666666</v>
+      </c>
+      <c r="B232">
+        <v>6.676</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>100</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>23</v>
+      </c>
+      <c r="G232" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
+        <v>45799.23958333334</v>
+      </c>
+      <c r="B233">
+        <v>33.096</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>100</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="2">
+        <v>45799.25</v>
+      </c>
+      <c r="B234">
+        <v>9.054</v>
+      </c>
+      <c r="C234">
+        <v>0.008</v>
+      </c>
+      <c r="D234">
+        <v>93.75</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>25</v>
+      </c>
+      <c r="G234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="2">
+        <v>45799.26041666666</v>
+      </c>
+      <c r="B235">
+        <v>16.55</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>93.75</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>26</v>
+      </c>
+      <c r="G235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="2">
+        <v>45799.27083333334</v>
+      </c>
+      <c r="B236">
+        <v>44.601</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>93.75</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>27</v>
+      </c>
+      <c r="G236" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="2">
+        <v>45799.28125</v>
+      </c>
+      <c r="B237">
+        <v>51.081</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>93.75</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>28</v>
+      </c>
+      <c r="G237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>45799.29166666666</v>
+      </c>
+      <c r="B238">
+        <v>46.662</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>106.25</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>29</v>
+      </c>
+      <c r="G238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2">
+        <v>45799.30208333334</v>
+      </c>
+      <c r="B239">
+        <v>49.275</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>106.25</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="2">
+        <v>45799.3125</v>
+      </c>
+      <c r="B240">
+        <v>16.285</v>
+      </c>
+      <c r="C240">
+        <v>0.093</v>
+      </c>
+      <c r="D240">
+        <v>125</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>31</v>
+      </c>
+      <c r="G240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="2">
+        <v>45799.32291666666</v>
+      </c>
+      <c r="B241">
+        <v>0.395</v>
+      </c>
+      <c r="C241">
+        <v>4.589</v>
+      </c>
+      <c r="D241">
+        <v>125</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>32</v>
+      </c>
+      <c r="G241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="2">
+        <v>45799.33333333334</v>
+      </c>
+      <c r="B242">
+        <v>4.386</v>
+      </c>
+      <c r="C242">
+        <v>0.75</v>
+      </c>
+      <c r="D242">
+        <v>125</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>33</v>
+      </c>
+      <c r="G242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="2">
+        <v>45799.34375</v>
+      </c>
+      <c r="B243">
+        <v>4.386</v>
+      </c>
+      <c r="C243">
+        <v>0.12</v>
+      </c>
+      <c r="D243">
+        <v>125</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>34</v>
+      </c>
+      <c r="G243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="2">
+        <v>45799.35416666666</v>
+      </c>
+      <c r="B244">
+        <v>0.274</v>
+      </c>
+      <c r="C244">
+        <v>1.607</v>
+      </c>
+      <c r="D244">
+        <v>125</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>35</v>
+      </c>
+      <c r="G244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="2">
+        <v>45799.36458333334</v>
+      </c>
+      <c r="B245">
+        <v>0.004</v>
+      </c>
+      <c r="C245">
+        <v>2.075</v>
+      </c>
+      <c r="D245">
+        <v>125</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>36</v>
+      </c>
+      <c r="G245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="2">
+        <v>45799.375</v>
+      </c>
+      <c r="B246">
+        <v>0.384</v>
+      </c>
+      <c r="C246">
+        <v>0.093</v>
+      </c>
+      <c r="D246">
+        <v>125</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>37</v>
+      </c>
+      <c r="G246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="2">
+        <v>45799.38541666666</v>
+      </c>
+      <c r="B247">
+        <v>6.795</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>25</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>38</v>
+      </c>
+      <c r="G247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="2">
+        <v>45799.39583333334</v>
+      </c>
+      <c r="B248">
+        <v>0.162</v>
+      </c>
+      <c r="C248">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>39</v>
+      </c>
+      <c r="G248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="2">
+        <v>45799.40625</v>
+      </c>
+      <c r="B249">
+        <v>0.006</v>
+      </c>
+      <c r="C249">
+        <v>19.125</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>40</v>
+      </c>
+      <c r="G249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="2">
+        <v>45799.41666666666</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>10.411</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>41</v>
+      </c>
+      <c r="G250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="2">
+        <v>45799.42708333334</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>9.487</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>42</v>
+      </c>
+      <c r="G251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="2">
+        <v>45799.4375</v>
+      </c>
+      <c r="B252">
+        <v>0.039</v>
+      </c>
+      <c r="C252">
+        <v>4.137</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>50</v>
+      </c>
+      <c r="F252">
+        <v>43</v>
+      </c>
+      <c r="G252" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="2">
+        <v>45799.44791666666</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>50</v>
+      </c>
+      <c r="F253">
+        <v>44</v>
+      </c>
+      <c r="G253" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="335">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,294 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.05.20251</t>
-  </si>
-  <si>
-    <t>29.05.20252</t>
-  </si>
-  <si>
-    <t>29.05.20253</t>
-  </si>
-  <si>
-    <t>29.05.20254</t>
-  </si>
-  <si>
-    <t>29.05.20255</t>
-  </si>
-  <si>
-    <t>29.05.20256</t>
-  </si>
-  <si>
-    <t>29.05.20257</t>
-  </si>
-  <si>
-    <t>29.05.20258</t>
-  </si>
-  <si>
-    <t>29.05.20259</t>
-  </si>
-  <si>
-    <t>29.05.202510</t>
-  </si>
-  <si>
-    <t>29.05.202511</t>
-  </si>
-  <si>
-    <t>29.05.202512</t>
-  </si>
-  <si>
-    <t>29.05.202513</t>
-  </si>
-  <si>
-    <t>29.05.202514</t>
-  </si>
-  <si>
-    <t>29.05.202515</t>
-  </si>
-  <si>
-    <t>29.05.202516</t>
-  </si>
-  <si>
-    <t>29.05.202517</t>
-  </si>
-  <si>
-    <t>29.05.202518</t>
-  </si>
-  <si>
-    <t>29.05.202519</t>
-  </si>
-  <si>
-    <t>29.05.202520</t>
-  </si>
-  <si>
-    <t>29.05.202521</t>
-  </si>
-  <si>
-    <t>29.05.202522</t>
-  </si>
-  <si>
-    <t>29.05.202523</t>
-  </si>
-  <si>
-    <t>29.05.202524</t>
-  </si>
-  <si>
-    <t>29.05.202525</t>
-  </si>
-  <si>
-    <t>29.05.202526</t>
-  </si>
-  <si>
-    <t>29.05.202527</t>
-  </si>
-  <si>
-    <t>29.05.202528</t>
-  </si>
-  <si>
-    <t>29.05.202529</t>
-  </si>
-  <si>
-    <t>29.05.202530</t>
-  </si>
-  <si>
-    <t>29.05.202531</t>
-  </si>
-  <si>
-    <t>29.05.202532</t>
-  </si>
-  <si>
-    <t>29.05.202533</t>
-  </si>
-  <si>
-    <t>29.05.202534</t>
-  </si>
-  <si>
-    <t>29.05.202535</t>
-  </si>
-  <si>
-    <t>29.05.202536</t>
-  </si>
-  <si>
-    <t>29.05.202537</t>
-  </si>
-  <si>
-    <t>29.05.202538</t>
-  </si>
-  <si>
-    <t>29.05.202539</t>
-  </si>
-  <si>
-    <t>29.05.202540</t>
-  </si>
-  <si>
-    <t>29.05.202541</t>
-  </si>
-  <si>
-    <t>29.05.202542</t>
-  </si>
-  <si>
-    <t>29.05.202543</t>
-  </si>
-  <si>
-    <t>29.05.202544</t>
-  </si>
-  <si>
-    <t>29.05.202545</t>
-  </si>
-  <si>
-    <t>29.05.202546</t>
-  </si>
-  <si>
-    <t>29.05.202547</t>
-  </si>
-  <si>
-    <t>29.05.202548</t>
-  </si>
-  <si>
-    <t>29.05.202549</t>
-  </si>
-  <si>
-    <t>29.05.202550</t>
-  </si>
-  <si>
-    <t>29.05.202551</t>
-  </si>
-  <si>
-    <t>29.05.202552</t>
-  </si>
-  <si>
-    <t>29.05.202553</t>
-  </si>
-  <si>
-    <t>29.05.202554</t>
-  </si>
-  <si>
-    <t>29.05.202555</t>
-  </si>
-  <si>
-    <t>29.05.202556</t>
-  </si>
-  <si>
-    <t>29.05.202557</t>
-  </si>
-  <si>
-    <t>29.05.202558</t>
-  </si>
-  <si>
-    <t>29.05.202559</t>
-  </si>
-  <si>
-    <t>29.05.202560</t>
-  </si>
-  <si>
-    <t>29.05.202561</t>
-  </si>
-  <si>
-    <t>29.05.202562</t>
-  </si>
-  <si>
-    <t>29.05.202563</t>
-  </si>
-  <si>
-    <t>29.05.202564</t>
-  </si>
-  <si>
-    <t>29.05.202565</t>
-  </si>
-  <si>
-    <t>29.05.202566</t>
-  </si>
-  <si>
-    <t>29.05.202567</t>
-  </si>
-  <si>
-    <t>29.05.202568</t>
-  </si>
-  <si>
-    <t>29.05.202569</t>
-  </si>
-  <si>
-    <t>29.05.202570</t>
-  </si>
-  <si>
-    <t>29.05.202571</t>
-  </si>
-  <si>
-    <t>29.05.202572</t>
-  </si>
-  <si>
-    <t>29.05.202573</t>
-  </si>
-  <si>
-    <t>29.05.202574</t>
-  </si>
-  <si>
-    <t>29.05.202575</t>
-  </si>
-  <si>
-    <t>29.05.202576</t>
-  </si>
-  <si>
-    <t>29.05.202577</t>
-  </si>
-  <si>
-    <t>29.05.202578</t>
-  </si>
-  <si>
-    <t>29.05.202579</t>
-  </si>
-  <si>
-    <t>29.05.202580</t>
-  </si>
-  <si>
-    <t>29.05.202581</t>
-  </si>
-  <si>
-    <t>29.05.202582</t>
-  </si>
-  <si>
-    <t>29.05.202583</t>
-  </si>
-  <si>
-    <t>29.05.202584</t>
-  </si>
-  <si>
-    <t>29.05.202585</t>
-  </si>
-  <si>
-    <t>29.05.202586</t>
-  </si>
-  <si>
-    <t>29.05.202587</t>
-  </si>
-  <si>
-    <t>29.05.202588</t>
-  </si>
-  <si>
-    <t>29.05.202589</t>
-  </si>
-  <si>
-    <t>29.05.202590</t>
-  </si>
-  <si>
-    <t>29.05.202591</t>
-  </si>
-  <si>
-    <t>29.05.202592</t>
-  </si>
-  <si>
-    <t>29.05.202593</t>
-  </si>
-  <si>
-    <t>29.05.202594</t>
-  </si>
-  <si>
-    <t>29.05.202595</t>
-  </si>
-  <si>
-    <t>29.05.202596</t>
-  </si>
-  <si>
     <t>30.05.20251</t>
   </si>
   <si>
@@ -404,6 +116,909 @@
   </si>
   <si>
     <t>30.05.202527</t>
+  </si>
+  <si>
+    <t>30.05.202528</t>
+  </si>
+  <si>
+    <t>30.05.202529</t>
+  </si>
+  <si>
+    <t>30.05.202530</t>
+  </si>
+  <si>
+    <t>30.05.202531</t>
+  </si>
+  <si>
+    <t>30.05.202532</t>
+  </si>
+  <si>
+    <t>30.05.202533</t>
+  </si>
+  <si>
+    <t>30.05.202534</t>
+  </si>
+  <si>
+    <t>30.05.202535</t>
+  </si>
+  <si>
+    <t>30.05.202536</t>
+  </si>
+  <si>
+    <t>30.05.202537</t>
+  </si>
+  <si>
+    <t>30.05.202538</t>
+  </si>
+  <si>
+    <t>30.05.202539</t>
+  </si>
+  <si>
+    <t>30.05.202540</t>
+  </si>
+  <si>
+    <t>30.05.202541</t>
+  </si>
+  <si>
+    <t>30.05.202542</t>
+  </si>
+  <si>
+    <t>30.05.202543</t>
+  </si>
+  <si>
+    <t>30.05.202544</t>
+  </si>
+  <si>
+    <t>30.05.202545</t>
+  </si>
+  <si>
+    <t>30.05.202546</t>
+  </si>
+  <si>
+    <t>30.05.202547</t>
+  </si>
+  <si>
+    <t>30.05.202548</t>
+  </si>
+  <si>
+    <t>30.05.202549</t>
+  </si>
+  <si>
+    <t>30.05.202550</t>
+  </si>
+  <si>
+    <t>30.05.202551</t>
+  </si>
+  <si>
+    <t>30.05.202552</t>
+  </si>
+  <si>
+    <t>30.05.202553</t>
+  </si>
+  <si>
+    <t>30.05.202554</t>
+  </si>
+  <si>
+    <t>30.05.202555</t>
+  </si>
+  <si>
+    <t>30.05.202556</t>
+  </si>
+  <si>
+    <t>30.05.202557</t>
+  </si>
+  <si>
+    <t>30.05.202558</t>
+  </si>
+  <si>
+    <t>30.05.202559</t>
+  </si>
+  <si>
+    <t>30.05.202560</t>
+  </si>
+  <si>
+    <t>30.05.202561</t>
+  </si>
+  <si>
+    <t>30.05.202562</t>
+  </si>
+  <si>
+    <t>30.05.202563</t>
+  </si>
+  <si>
+    <t>30.05.202564</t>
+  </si>
+  <si>
+    <t>30.05.202565</t>
+  </si>
+  <si>
+    <t>30.05.202566</t>
+  </si>
+  <si>
+    <t>30.05.202567</t>
+  </si>
+  <si>
+    <t>30.05.202568</t>
+  </si>
+  <si>
+    <t>30.05.202569</t>
+  </si>
+  <si>
+    <t>30.05.202570</t>
+  </si>
+  <si>
+    <t>30.05.202571</t>
+  </si>
+  <si>
+    <t>30.05.202572</t>
+  </si>
+  <si>
+    <t>30.05.202573</t>
+  </si>
+  <si>
+    <t>30.05.202574</t>
+  </si>
+  <si>
+    <t>30.05.202575</t>
+  </si>
+  <si>
+    <t>30.05.202576</t>
+  </si>
+  <si>
+    <t>30.05.202577</t>
+  </si>
+  <si>
+    <t>30.05.202578</t>
+  </si>
+  <si>
+    <t>30.05.202579</t>
+  </si>
+  <si>
+    <t>30.05.202580</t>
+  </si>
+  <si>
+    <t>30.05.202581</t>
+  </si>
+  <si>
+    <t>30.05.202582</t>
+  </si>
+  <si>
+    <t>30.05.202583</t>
+  </si>
+  <si>
+    <t>30.05.202584</t>
+  </si>
+  <si>
+    <t>30.05.202585</t>
+  </si>
+  <si>
+    <t>30.05.202586</t>
+  </si>
+  <si>
+    <t>30.05.202587</t>
+  </si>
+  <si>
+    <t>30.05.202588</t>
+  </si>
+  <si>
+    <t>30.05.202589</t>
+  </si>
+  <si>
+    <t>30.05.202590</t>
+  </si>
+  <si>
+    <t>30.05.202591</t>
+  </si>
+  <si>
+    <t>30.05.202592</t>
+  </si>
+  <si>
+    <t>30.05.202593</t>
+  </si>
+  <si>
+    <t>30.05.202594</t>
+  </si>
+  <si>
+    <t>30.05.202595</t>
+  </si>
+  <si>
+    <t>30.05.202596</t>
+  </si>
+  <si>
+    <t>31.05.20251</t>
+  </si>
+  <si>
+    <t>31.05.20252</t>
+  </si>
+  <si>
+    <t>31.05.20253</t>
+  </si>
+  <si>
+    <t>31.05.20254</t>
+  </si>
+  <si>
+    <t>31.05.20255</t>
+  </si>
+  <si>
+    <t>31.05.20256</t>
+  </si>
+  <si>
+    <t>31.05.20257</t>
+  </si>
+  <si>
+    <t>31.05.20258</t>
+  </si>
+  <si>
+    <t>31.05.20259</t>
+  </si>
+  <si>
+    <t>31.05.202510</t>
+  </si>
+  <si>
+    <t>31.05.202511</t>
+  </si>
+  <si>
+    <t>31.05.202512</t>
+  </si>
+  <si>
+    <t>31.05.202513</t>
+  </si>
+  <si>
+    <t>31.05.202514</t>
+  </si>
+  <si>
+    <t>31.05.202515</t>
+  </si>
+  <si>
+    <t>31.05.202516</t>
+  </si>
+  <si>
+    <t>31.05.202517</t>
+  </si>
+  <si>
+    <t>31.05.202518</t>
+  </si>
+  <si>
+    <t>31.05.202519</t>
+  </si>
+  <si>
+    <t>31.05.202520</t>
+  </si>
+  <si>
+    <t>31.05.202521</t>
+  </si>
+  <si>
+    <t>31.05.202522</t>
+  </si>
+  <si>
+    <t>31.05.202523</t>
+  </si>
+  <si>
+    <t>31.05.202524</t>
+  </si>
+  <si>
+    <t>31.05.202525</t>
+  </si>
+  <si>
+    <t>31.05.202526</t>
+  </si>
+  <si>
+    <t>31.05.202527</t>
+  </si>
+  <si>
+    <t>31.05.202528</t>
+  </si>
+  <si>
+    <t>31.05.202529</t>
+  </si>
+  <si>
+    <t>31.05.202530</t>
+  </si>
+  <si>
+    <t>31.05.202531</t>
+  </si>
+  <si>
+    <t>31.05.202532</t>
+  </si>
+  <si>
+    <t>31.05.202533</t>
+  </si>
+  <si>
+    <t>31.05.202534</t>
+  </si>
+  <si>
+    <t>31.05.202535</t>
+  </si>
+  <si>
+    <t>31.05.202536</t>
+  </si>
+  <si>
+    <t>31.05.202537</t>
+  </si>
+  <si>
+    <t>31.05.202538</t>
+  </si>
+  <si>
+    <t>31.05.202539</t>
+  </si>
+  <si>
+    <t>31.05.202540</t>
+  </si>
+  <si>
+    <t>31.05.202541</t>
+  </si>
+  <si>
+    <t>31.05.202542</t>
+  </si>
+  <si>
+    <t>31.05.202543</t>
+  </si>
+  <si>
+    <t>31.05.202544</t>
+  </si>
+  <si>
+    <t>31.05.202545</t>
+  </si>
+  <si>
+    <t>31.05.202546</t>
+  </si>
+  <si>
+    <t>31.05.202547</t>
+  </si>
+  <si>
+    <t>31.05.202548</t>
+  </si>
+  <si>
+    <t>31.05.202549</t>
+  </si>
+  <si>
+    <t>31.05.202550</t>
+  </si>
+  <si>
+    <t>31.05.202551</t>
+  </si>
+  <si>
+    <t>31.05.202552</t>
+  </si>
+  <si>
+    <t>31.05.202553</t>
+  </si>
+  <si>
+    <t>31.05.202554</t>
+  </si>
+  <si>
+    <t>31.05.202555</t>
+  </si>
+  <si>
+    <t>31.05.202556</t>
+  </si>
+  <si>
+    <t>31.05.202557</t>
+  </si>
+  <si>
+    <t>31.05.202558</t>
+  </si>
+  <si>
+    <t>31.05.202559</t>
+  </si>
+  <si>
+    <t>31.05.202560</t>
+  </si>
+  <si>
+    <t>31.05.202561</t>
+  </si>
+  <si>
+    <t>31.05.202562</t>
+  </si>
+  <si>
+    <t>31.05.202563</t>
+  </si>
+  <si>
+    <t>31.05.202564</t>
+  </si>
+  <si>
+    <t>31.05.202565</t>
+  </si>
+  <si>
+    <t>31.05.202566</t>
+  </si>
+  <si>
+    <t>31.05.202567</t>
+  </si>
+  <si>
+    <t>31.05.202568</t>
+  </si>
+  <si>
+    <t>31.05.202569</t>
+  </si>
+  <si>
+    <t>31.05.202570</t>
+  </si>
+  <si>
+    <t>31.05.202571</t>
+  </si>
+  <si>
+    <t>31.05.202572</t>
+  </si>
+  <si>
+    <t>31.05.202573</t>
+  </si>
+  <si>
+    <t>31.05.202574</t>
+  </si>
+  <si>
+    <t>31.05.202575</t>
+  </si>
+  <si>
+    <t>31.05.202576</t>
+  </si>
+  <si>
+    <t>31.05.202577</t>
+  </si>
+  <si>
+    <t>31.05.202578</t>
+  </si>
+  <si>
+    <t>31.05.202579</t>
+  </si>
+  <si>
+    <t>31.05.202580</t>
+  </si>
+  <si>
+    <t>31.05.202581</t>
+  </si>
+  <si>
+    <t>31.05.202582</t>
+  </si>
+  <si>
+    <t>31.05.202583</t>
+  </si>
+  <si>
+    <t>31.05.202584</t>
+  </si>
+  <si>
+    <t>31.05.202585</t>
+  </si>
+  <si>
+    <t>31.05.202586</t>
+  </si>
+  <si>
+    <t>31.05.202587</t>
+  </si>
+  <si>
+    <t>31.05.202588</t>
+  </si>
+  <si>
+    <t>31.05.202589</t>
+  </si>
+  <si>
+    <t>31.05.202590</t>
+  </si>
+  <si>
+    <t>31.05.202591</t>
+  </si>
+  <si>
+    <t>31.05.202592</t>
+  </si>
+  <si>
+    <t>31.05.202593</t>
+  </si>
+  <si>
+    <t>31.05.202594</t>
+  </si>
+  <si>
+    <t>31.05.202595</t>
+  </si>
+  <si>
+    <t>31.05.202596</t>
+  </si>
+  <si>
+    <t>01.06.20251</t>
+  </si>
+  <si>
+    <t>01.06.20252</t>
+  </si>
+  <si>
+    <t>01.06.20253</t>
+  </si>
+  <si>
+    <t>01.06.20254</t>
+  </si>
+  <si>
+    <t>01.06.20255</t>
+  </si>
+  <si>
+    <t>01.06.20256</t>
+  </si>
+  <si>
+    <t>01.06.20257</t>
+  </si>
+  <si>
+    <t>01.06.20258</t>
+  </si>
+  <si>
+    <t>01.06.20259</t>
+  </si>
+  <si>
+    <t>01.06.202510</t>
+  </si>
+  <si>
+    <t>01.06.202511</t>
+  </si>
+  <si>
+    <t>01.06.202512</t>
+  </si>
+  <si>
+    <t>01.06.202513</t>
+  </si>
+  <si>
+    <t>01.06.202514</t>
+  </si>
+  <si>
+    <t>01.06.202515</t>
+  </si>
+  <si>
+    <t>01.06.202516</t>
+  </si>
+  <si>
+    <t>01.06.202517</t>
+  </si>
+  <si>
+    <t>01.06.202518</t>
+  </si>
+  <si>
+    <t>01.06.202519</t>
+  </si>
+  <si>
+    <t>01.06.202520</t>
+  </si>
+  <si>
+    <t>01.06.202521</t>
+  </si>
+  <si>
+    <t>01.06.202522</t>
+  </si>
+  <si>
+    <t>01.06.202523</t>
+  </si>
+  <si>
+    <t>01.06.202524</t>
+  </si>
+  <si>
+    <t>01.06.202525</t>
+  </si>
+  <si>
+    <t>01.06.202526</t>
+  </si>
+  <si>
+    <t>01.06.202527</t>
+  </si>
+  <si>
+    <t>01.06.202528</t>
+  </si>
+  <si>
+    <t>01.06.202529</t>
+  </si>
+  <si>
+    <t>01.06.202530</t>
+  </si>
+  <si>
+    <t>01.06.202531</t>
+  </si>
+  <si>
+    <t>01.06.202532</t>
+  </si>
+  <si>
+    <t>01.06.202533</t>
+  </si>
+  <si>
+    <t>01.06.202534</t>
+  </si>
+  <si>
+    <t>01.06.202535</t>
+  </si>
+  <si>
+    <t>01.06.202536</t>
+  </si>
+  <si>
+    <t>01.06.202537</t>
+  </si>
+  <si>
+    <t>01.06.202538</t>
+  </si>
+  <si>
+    <t>01.06.202539</t>
+  </si>
+  <si>
+    <t>01.06.202540</t>
+  </si>
+  <si>
+    <t>01.06.202541</t>
+  </si>
+  <si>
+    <t>01.06.202542</t>
+  </si>
+  <si>
+    <t>01.06.202543</t>
+  </si>
+  <si>
+    <t>01.06.202544</t>
+  </si>
+  <si>
+    <t>01.06.202545</t>
+  </si>
+  <si>
+    <t>01.06.202546</t>
+  </si>
+  <si>
+    <t>01.06.202547</t>
+  </si>
+  <si>
+    <t>01.06.202548</t>
+  </si>
+  <si>
+    <t>01.06.202549</t>
+  </si>
+  <si>
+    <t>01.06.202550</t>
+  </si>
+  <si>
+    <t>01.06.202551</t>
+  </si>
+  <si>
+    <t>01.06.202552</t>
+  </si>
+  <si>
+    <t>01.06.202553</t>
+  </si>
+  <si>
+    <t>01.06.202554</t>
+  </si>
+  <si>
+    <t>01.06.202555</t>
+  </si>
+  <si>
+    <t>01.06.202556</t>
+  </si>
+  <si>
+    <t>01.06.202557</t>
+  </si>
+  <si>
+    <t>01.06.202558</t>
+  </si>
+  <si>
+    <t>01.06.202559</t>
+  </si>
+  <si>
+    <t>01.06.202560</t>
+  </si>
+  <si>
+    <t>01.06.202561</t>
+  </si>
+  <si>
+    <t>01.06.202562</t>
+  </si>
+  <si>
+    <t>01.06.202563</t>
+  </si>
+  <si>
+    <t>01.06.202564</t>
+  </si>
+  <si>
+    <t>01.06.202565</t>
+  </si>
+  <si>
+    <t>01.06.202566</t>
+  </si>
+  <si>
+    <t>01.06.202567</t>
+  </si>
+  <si>
+    <t>01.06.202568</t>
+  </si>
+  <si>
+    <t>01.06.202569</t>
+  </si>
+  <si>
+    <t>01.06.202570</t>
+  </si>
+  <si>
+    <t>01.06.202571</t>
+  </si>
+  <si>
+    <t>01.06.202572</t>
+  </si>
+  <si>
+    <t>01.06.202573</t>
+  </si>
+  <si>
+    <t>01.06.202574</t>
+  </si>
+  <si>
+    <t>01.06.202575</t>
+  </si>
+  <si>
+    <t>01.06.202576</t>
+  </si>
+  <si>
+    <t>01.06.202577</t>
+  </si>
+  <si>
+    <t>01.06.202578</t>
+  </si>
+  <si>
+    <t>01.06.202579</t>
+  </si>
+  <si>
+    <t>01.06.202580</t>
+  </si>
+  <si>
+    <t>01.06.202581</t>
+  </si>
+  <si>
+    <t>01.06.202582</t>
+  </si>
+  <si>
+    <t>01.06.202583</t>
+  </si>
+  <si>
+    <t>01.06.202584</t>
+  </si>
+  <si>
+    <t>01.06.202585</t>
+  </si>
+  <si>
+    <t>01.06.202586</t>
+  </si>
+  <si>
+    <t>01.06.202587</t>
+  </si>
+  <si>
+    <t>01.06.202588</t>
+  </si>
+  <si>
+    <t>01.06.202589</t>
+  </si>
+  <si>
+    <t>01.06.202590</t>
+  </si>
+  <si>
+    <t>01.06.202591</t>
+  </si>
+  <si>
+    <t>01.06.202592</t>
+  </si>
+  <si>
+    <t>01.06.202593</t>
+  </si>
+  <si>
+    <t>01.06.202594</t>
+  </si>
+  <si>
+    <t>01.06.202595</t>
+  </si>
+  <si>
+    <t>01.06.202596</t>
+  </si>
+  <si>
+    <t>02.06.20251</t>
+  </si>
+  <si>
+    <t>02.06.20252</t>
+  </si>
+  <si>
+    <t>02.06.20253</t>
+  </si>
+  <si>
+    <t>02.06.20254</t>
+  </si>
+  <si>
+    <t>02.06.20255</t>
+  </si>
+  <si>
+    <t>02.06.20256</t>
+  </si>
+  <si>
+    <t>02.06.20257</t>
+  </si>
+  <si>
+    <t>02.06.20258</t>
+  </si>
+  <si>
+    <t>02.06.20259</t>
+  </si>
+  <si>
+    <t>02.06.202510</t>
+  </si>
+  <si>
+    <t>02.06.202511</t>
+  </si>
+  <si>
+    <t>02.06.202512</t>
+  </si>
+  <si>
+    <t>02.06.202513</t>
+  </si>
+  <si>
+    <t>02.06.202514</t>
+  </si>
+  <si>
+    <t>02.06.202515</t>
+  </si>
+  <si>
+    <t>02.06.202516</t>
+  </si>
+  <si>
+    <t>02.06.202517</t>
+  </si>
+  <si>
+    <t>02.06.202518</t>
+  </si>
+  <si>
+    <t>02.06.202519</t>
+  </si>
+  <si>
+    <t>02.06.202520</t>
+  </si>
+  <si>
+    <t>02.06.202521</t>
+  </si>
+  <si>
+    <t>02.06.202522</t>
+  </si>
+  <si>
+    <t>02.06.202523</t>
+  </si>
+  <si>
+    <t>02.06.202524</t>
+  </si>
+  <si>
+    <t>02.06.202525</t>
+  </si>
+  <si>
+    <t>02.06.202526</t>
+  </si>
+  <si>
+    <t>02.06.202527</t>
+  </si>
+  <si>
+    <t>02.06.202528</t>
+  </si>
+  <si>
+    <t>02.06.202529</t>
+  </si>
+  <si>
+    <t>02.06.202530</t>
+  </si>
+  <si>
+    <t>02.06.202531</t>
+  </si>
+  <si>
+    <t>02.06.202532</t>
+  </si>
+  <si>
+    <t>02.06.202533</t>
+  </si>
+  <si>
+    <t>02.06.202534</t>
+  </si>
+  <si>
+    <t>02.06.202535</t>
+  </si>
+  <si>
+    <t>02.06.202536</t>
+  </si>
+  <si>
+    <t>02.06.202537</t>
+  </si>
+  <si>
+    <t>02.06.202538</t>
+  </si>
+  <si>
+    <t>02.06.202539</t>
+  </si>
+  <si>
+    <t>02.06.202540</t>
   </si>
 </sst>
 </file>
@@ -765,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,13 +1411,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B2">
-        <v>0.003</v>
+        <v>14.981</v>
       </c>
       <c r="C2">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -819,13 +1434,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45806.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B3">
-        <v>3.767</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C3">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -842,13 +1457,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45806.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B4">
-        <v>9.651</v>
+        <v>0.516</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -865,13 +1480,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45806.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B5">
-        <v>20.167</v>
+        <v>0.027</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.974</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -888,13 +1503,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45806.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B6">
-        <v>14.467</v>
+        <v>12.373</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -911,13 +1526,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45806.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B7">
-        <v>12.961</v>
+        <v>4.454</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -934,13 +1549,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45806.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B8">
-        <v>1.204</v>
+        <v>0.012</v>
       </c>
       <c r="C8">
-        <v>0.033</v>
+        <v>6.863</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -957,13 +1572,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45806.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B9">
-        <v>1.195</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.89</v>
+        <v>34.459</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -980,13 +1595,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45806.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.117</v>
+        <v>28.378</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1003,19 +1618,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45806.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B11">
-        <v>0.543</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07099999999999999</v>
+        <v>38.119</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1026,13 +1641,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45806.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.159</v>
+        <v>58.395</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1049,19 +1664,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45806.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.489</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.049</v>
+        <v>59.526</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1072,19 +1687,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45806.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B14">
-        <v>13.181</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>37.159</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -1095,19 +1710,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45806.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B15">
-        <v>7.894</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>24.995</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1118,19 +1733,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45806.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B16">
-        <v>22.54</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>13.364</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1141,19 +1756,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45806.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B17">
-        <v>5.498</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>18.364</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -1164,19 +1779,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45806.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B18">
-        <v>9.233000000000001</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -1187,19 +1802,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45806.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B19">
-        <v>6.601</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.083</v>
+        <v>26.297</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -1210,19 +1825,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45806.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B20">
-        <v>1.035</v>
+        <v>0.003</v>
       </c>
       <c r="C20">
-        <v>0.053</v>
+        <v>14.699</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -1233,19 +1848,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45806.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.377</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.38</v>
+        <v>9.657999999999999</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -1256,19 +1871,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45806.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.057</v>
+        <v>0.01</v>
       </c>
       <c r="C22">
-        <v>1.143</v>
+        <v>6.578</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1279,13 +1894,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45806.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B23">
-        <v>0.041</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C23">
-        <v>1.036</v>
+        <v>0.757</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1302,13 +1917,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45806.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.07199999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="C24">
-        <v>1.547</v>
+        <v>2.638</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1325,13 +1940,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45806.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="C25">
-        <v>11.191</v>
+        <v>2.282</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1348,13 +1963,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45806.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1.318</v>
       </c>
       <c r="C26">
-        <v>17.183</v>
+        <v>0.327</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1371,13 +1986,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45806.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>11.166</v>
       </c>
       <c r="C27">
-        <v>7.405</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1394,13 +2009,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45806.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>4.139</v>
       </c>
       <c r="C28">
-        <v>6.987</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1417,13 +2032,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45806.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.148</v>
       </c>
       <c r="C29">
-        <v>12.224</v>
+        <v>0.15</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1440,13 +2055,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45806.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.239</v>
+        <v>0.876</v>
       </c>
       <c r="C30">
-        <v>0.882</v>
+        <v>0.029</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1463,13 +2078,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45806.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.043</v>
+        <v>3.882</v>
       </c>
       <c r="C31">
-        <v>12.607</v>
+        <v>0.039</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1486,16 +2101,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45806.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="C32">
-        <v>8.959</v>
+        <v>1.896</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1509,16 +2124,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45806.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>7.322</v>
+        <v>28.487</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1532,19 +2147,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45806.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.142</v>
+        <v>1.455</v>
       </c>
       <c r="C34">
-        <v>1.898</v>
+        <v>1.294</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>44.75</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1555,19 +2170,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45806.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B35">
-        <v>0.438</v>
+        <v>0.787</v>
       </c>
       <c r="C35">
-        <v>0.047</v>
+        <v>0.128</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>44.75</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1578,16 +2193,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45806.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B36">
-        <v>1.062</v>
+        <v>0.038</v>
       </c>
       <c r="C36">
-        <v>0.9419999999999999</v>
+        <v>13.087</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1601,16 +2216,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45806.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.297</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.08799999999999999</v>
+        <v>50.198</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1624,13 +2239,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45806.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B38">
-        <v>1.789</v>
+        <v>1.718</v>
       </c>
       <c r="C38">
-        <v>0.016</v>
+        <v>3.561</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1647,16 +2262,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45806.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B39">
-        <v>2.624</v>
+        <v>0.145</v>
       </c>
       <c r="C39">
-        <v>0.476</v>
+        <v>1.693</v>
       </c>
       <c r="D39">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1670,16 +2285,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45806.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B40">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>3.158</v>
+        <v>6.016</v>
       </c>
       <c r="D40">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1693,16 +2308,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45806.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>18.617</v>
+        <v>35.673</v>
       </c>
       <c r="D41">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1716,16 +2331,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45806.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B42">
-        <v>7.154</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.421</v>
+        <v>24.867</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1739,16 +2354,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45806.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>3.27</v>
+        <v>48.135</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1762,19 +2377,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45806.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5.597</v>
+        <v>52.689</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1785,19 +2400,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45806.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>8.157</v>
+        <v>54.207</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1808,19 +2423,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45806.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C46">
-        <v>8.958</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1831,19 +2446,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45806.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>2.038</v>
+        <v>6.993</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1854,19 +2469,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45806.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>2.704</v>
+        <v>17.408</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1877,19 +2492,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45806.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.254</v>
+        <v>0.034</v>
       </c>
       <c r="C49">
-        <v>0.144</v>
+        <v>24.026</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1900,19 +2515,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45806.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B50">
-        <v>0.114</v>
+        <v>0.332</v>
       </c>
       <c r="C50">
-        <v>2.98</v>
+        <v>1.06</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1923,19 +2538,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45806.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.012</v>
+        <v>3.375</v>
       </c>
       <c r="C51">
-        <v>0.618</v>
+        <v>0.056</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1946,19 +2561,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45806.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.385</v>
+        <v>0.391</v>
       </c>
       <c r="C52">
-        <v>0.117</v>
+        <v>0.346</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -1969,19 +2584,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45806.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B53">
-        <v>0.501</v>
+        <v>0.442</v>
       </c>
       <c r="C53">
-        <v>0.075</v>
+        <v>0.194</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -1992,19 +2607,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45806.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B54">
-        <v>8.922000000000001</v>
+        <v>0.598</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2015,19 +2630,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45806.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B55">
-        <v>8.210000000000001</v>
+        <v>0.778</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2038,19 +2653,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45806.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B56">
-        <v>0.45</v>
+        <v>0.016</v>
       </c>
       <c r="C56">
-        <v>0.756</v>
+        <v>8.907</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2061,19 +2676,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45806.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.279</v>
+        <v>0.287</v>
       </c>
       <c r="C57">
-        <v>0.356</v>
+        <v>1.96</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2084,19 +2699,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45806.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B58">
-        <v>4.028</v>
+        <v>0.011</v>
       </c>
       <c r="C58">
-        <v>0.06</v>
+        <v>6.466</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2107,13 +2722,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45806.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B59">
-        <v>0.649</v>
+        <v>0.007</v>
       </c>
       <c r="C59">
-        <v>1.92</v>
+        <v>8.795</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2130,13 +2745,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45806.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.661</v>
       </c>
       <c r="C60">
-        <v>9.692</v>
+        <v>0.193</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2153,13 +2768,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45806.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1.322</v>
       </c>
       <c r="C61">
-        <v>19.393</v>
+        <v>0.035</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2176,13 +2791,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45806.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="C62">
-        <v>40.454</v>
+        <v>6.486</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2199,19 +2814,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45806.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>13.945</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -2222,19 +2837,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45806.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C64">
-        <v>10.577</v>
+        <v>0.203</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -2245,19 +2860,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45806.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B65">
-        <v>0.671</v>
+        <v>0.191</v>
       </c>
       <c r="C65">
-        <v>0.293</v>
+        <v>1.384</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -2268,19 +2883,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45806.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B66">
-        <v>1.288</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.469</v>
+        <v>4.249</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>65</v>
@@ -2291,19 +2906,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45806.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B67">
-        <v>25.124</v>
+        <v>0.099</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>74.5</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>66</v>
@@ -2314,13 +2929,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45806.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B68">
-        <v>10.348</v>
+        <v>0.205</v>
       </c>
       <c r="C68">
-        <v>0.035</v>
+        <v>3.73</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2337,13 +2952,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45806.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B69">
-        <v>10.739</v>
+        <v>3.689</v>
       </c>
       <c r="C69">
-        <v>0.013</v>
+        <v>0.108</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2360,13 +2975,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45806.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B70">
-        <v>1.128</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>12.592</v>
+        <v>35.342</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2383,19 +2998,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45806.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B71">
-        <v>0.423</v>
+        <v>0.489</v>
       </c>
       <c r="C71">
-        <v>3.932</v>
+        <v>12.552</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2406,10 +3021,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45806.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B72">
-        <v>5.886</v>
+        <v>17.206</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2418,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2429,10 +3044,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45806.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B73">
-        <v>28.686</v>
+        <v>23.828</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2441,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2452,19 +3067,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45806.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B74">
-        <v>0.102</v>
+        <v>1.274</v>
       </c>
       <c r="C74">
-        <v>5.552</v>
+        <v>0.837</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F74">
         <v>73</v>
@@ -2475,19 +3090,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45806.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.031</v>
+        <v>13.036</v>
       </c>
       <c r="C75">
-        <v>0.463</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F75">
         <v>74</v>
@@ -2498,13 +3113,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45806.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B76">
-        <v>1.549</v>
+        <v>22.701</v>
       </c>
       <c r="C76">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2521,13 +3136,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45806.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B77">
-        <v>0.228</v>
+        <v>5.418</v>
       </c>
       <c r="C77">
-        <v>0.23</v>
+        <v>0.001</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2544,13 +3159,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45806.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.486</v>
       </c>
       <c r="C78">
-        <v>27.355</v>
+        <v>0.113</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2567,13 +3182,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45806.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B79">
-        <v>0.068</v>
+        <v>8.137</v>
       </c>
       <c r="C79">
-        <v>0.608</v>
+        <v>0.02</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2590,13 +3205,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45806.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B80">
-        <v>0.547</v>
+        <v>7.522</v>
       </c>
       <c r="C80">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2613,13 +3228,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45806.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B81">
-        <v>1.918</v>
+        <v>18.367</v>
       </c>
       <c r="C81">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2636,13 +3251,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45806.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B82">
-        <v>4.402</v>
+        <v>4.272</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2659,13 +3274,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45806.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B83">
-        <v>12.237</v>
+        <v>0.304</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2682,13 +3297,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45806.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B84">
-        <v>15.254</v>
+        <v>5.302</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2705,13 +3320,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45806.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B85">
-        <v>3.65</v>
+        <v>14.115</v>
       </c>
       <c r="C85">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2728,16 +3343,16 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45806.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B86">
-        <v>46.079</v>
+        <v>36.785</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2751,16 +3366,16 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45806.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B87">
-        <v>23.529</v>
+        <v>21.632</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2774,10 +3389,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45806.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B88">
-        <v>8.4</v>
+        <v>22.817</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2797,16 +3412,16 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45806.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B89">
-        <v>0.735</v>
+        <v>0.228</v>
       </c>
       <c r="C89">
-        <v>0.038</v>
+        <v>3.508</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2820,16 +3435,16 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45806.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B90">
-        <v>25.607</v>
+        <v>9.583</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="D90">
-        <v>14.75</v>
+        <v>31</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2843,16 +3458,16 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45806.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B91">
-        <v>6.979</v>
+        <v>3.496</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2866,16 +3481,16 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45806.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B92">
-        <v>5.61</v>
+        <v>0.834</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2889,13 +3504,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45806.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B93">
-        <v>3.088</v>
+        <v>1.66</v>
       </c>
       <c r="C93">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2912,10 +3527,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45806.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B94">
-        <v>18.554</v>
+        <v>26.234</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2935,10 +3550,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45806.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B95">
-        <v>21.214</v>
+        <v>19.903</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2958,10 +3573,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45806.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B96">
-        <v>11.698</v>
+        <v>13.503</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2981,13 +3596,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45806.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B97">
-        <v>2.214</v>
+        <v>20.006</v>
       </c>
       <c r="C97">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3004,10 +3619,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B98">
-        <v>14.981</v>
+        <v>28.146</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3027,10 +3642,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B99">
-        <v>14.981</v>
+        <v>28.146</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3050,10 +3665,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45807.01041666666</v>
+        <v>45808.01041666666</v>
       </c>
       <c r="B100">
-        <v>8.821999999999999</v>
+        <v>27.712</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3073,10 +3688,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45807.01041666666</v>
+        <v>45808.01041666666</v>
       </c>
       <c r="B101">
-        <v>8.821999999999999</v>
+        <v>27.712</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3096,13 +3711,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45807.02083333334</v>
+        <v>45808.02083333334</v>
       </c>
       <c r="B102">
-        <v>0.516</v>
+        <v>3.702</v>
       </c>
       <c r="C102">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3119,13 +3734,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45807.02083333334</v>
+        <v>45808.02083333334</v>
       </c>
       <c r="B103">
-        <v>0.516</v>
+        <v>3.702</v>
       </c>
       <c r="C103">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3142,13 +3757,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45807.03125</v>
+        <v>45808.03125</v>
       </c>
       <c r="B104">
-        <v>0.027</v>
+        <v>0.519</v>
       </c>
       <c r="C104">
-        <v>2.974</v>
+        <v>0.125</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3165,13 +3780,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45807.03125</v>
+        <v>45808.03125</v>
       </c>
       <c r="B105">
-        <v>0.027</v>
+        <v>0.519</v>
       </c>
       <c r="C105">
-        <v>2.974</v>
+        <v>0.125</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3188,13 +3803,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45807.04166666666</v>
+        <v>45808.04166666666</v>
       </c>
       <c r="B106">
-        <v>12.373</v>
+        <v>18.025</v>
       </c>
       <c r="C106">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3211,13 +3826,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45807.04166666666</v>
+        <v>45808.04166666666</v>
       </c>
       <c r="B107">
-        <v>12.373</v>
+        <v>18.025</v>
       </c>
       <c r="C107">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3234,13 +3849,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45807.05208333334</v>
+        <v>45808.05208333334</v>
       </c>
       <c r="B108">
-        <v>4.454</v>
+        <v>14.584</v>
       </c>
       <c r="C108">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3257,13 +3872,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45807.05208333334</v>
+        <v>45808.05208333334</v>
       </c>
       <c r="B109">
-        <v>4.454</v>
+        <v>14.584</v>
       </c>
       <c r="C109">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3280,13 +3895,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45807.0625</v>
+        <v>45808.0625</v>
       </c>
       <c r="B110">
-        <v>0.012</v>
+        <v>16.791</v>
       </c>
       <c r="C110">
-        <v>6.863</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3303,13 +3918,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45807.0625</v>
+        <v>45808.0625</v>
       </c>
       <c r="B111">
-        <v>0.012</v>
+        <v>16.791</v>
       </c>
       <c r="C111">
-        <v>6.863</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3326,13 +3941,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45807.07291666666</v>
+        <v>45808.07291666666</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>14.823</v>
       </c>
       <c r="C112">
-        <v>34.459</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3349,13 +3964,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45807.07291666666</v>
+        <v>45808.07291666666</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>14.823</v>
       </c>
       <c r="C113">
-        <v>34.459</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3372,13 +3987,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45807.08333333334</v>
+        <v>45808.08333333334</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>22.385</v>
       </c>
       <c r="C114">
-        <v>28.378</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3395,19 +4010,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45807.09375</v>
+        <v>45808.09375</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>30.598</v>
       </c>
       <c r="C115">
-        <v>38.119</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -3418,13 +4033,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45807.10416666666</v>
+        <v>45808.10416666666</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="C116">
-        <v>58.395</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3441,19 +4056,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45807.11458333334</v>
+        <v>45808.11458333334</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="C117">
-        <v>59.526</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>12</v>
@@ -3464,19 +4079,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45807.125</v>
+        <v>45808.125</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>11.699</v>
       </c>
       <c r="C118">
-        <v>37.159</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>13</v>
@@ -3487,19 +4102,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45807.13541666666</v>
+        <v>45808.13541666666</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>5.388</v>
       </c>
       <c r="C119">
-        <v>24.995</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>14</v>
@@ -3510,19 +4125,19 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45807.14583333334</v>
+        <v>45808.14583333334</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1.541</v>
       </c>
       <c r="C120">
-        <v>13.364</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>15</v>
@@ -3533,19 +4148,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45807.15625</v>
+        <v>45808.15625</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>2.792</v>
       </c>
       <c r="C121">
-        <v>18.364</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>16</v>
@@ -3556,19 +4171,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45807.16666666666</v>
+        <v>45808.16666666666</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="C122">
-        <v>16.29</v>
+        <v>0.025</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>17</v>
@@ -3579,19 +4194,19 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45807.17708333334</v>
+        <v>45808.17708333334</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>8.891</v>
       </c>
       <c r="C123">
-        <v>26.297</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>18</v>
@@ -3602,19 +4217,19 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45807.1875</v>
+        <v>45808.1875</v>
       </c>
       <c r="B124">
-        <v>0.003</v>
+        <v>2.999</v>
       </c>
       <c r="C124">
-        <v>14.699</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <v>19</v>
@@ -3625,19 +4240,19 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45807.19791666666</v>
+        <v>45808.19791666666</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>7.285</v>
       </c>
       <c r="C125">
-        <v>9.657999999999999</v>
+        <v>2.027</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <v>20</v>
@@ -3648,19 +4263,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45807.20833333334</v>
+        <v>45808.20833333334</v>
       </c>
       <c r="B126">
-        <v>0.01</v>
+        <v>0.054</v>
       </c>
       <c r="C126">
-        <v>6.578</v>
+        <v>3.756</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>21</v>
@@ -3671,13 +4286,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45807.21875</v>
+        <v>45808.21875</v>
       </c>
       <c r="B127">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0.757</v>
+        <v>9.643000000000001</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3694,13 +4309,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45807.22916666666</v>
+        <v>45808.22916666666</v>
       </c>
       <c r="B128">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>2.638</v>
+        <v>9.263</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3717,13 +4332,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45807.23958333334</v>
+        <v>45808.23958333334</v>
       </c>
       <c r="B129">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>2.282</v>
+        <v>20.553</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3740,13 +4355,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45807.25</v>
+        <v>45808.25</v>
       </c>
       <c r="B130">
-        <v>1.318</v>
+        <v>2.148</v>
       </c>
       <c r="C130">
-        <v>0.327</v>
+        <v>1.474</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3763,10 +4378,10 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45807.26041666666</v>
+        <v>45808.26041666666</v>
       </c>
       <c r="B131">
-        <v>11.166</v>
+        <v>3.034</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3786,10 +4401,10 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45807.27083333334</v>
+        <v>45808.27083333334</v>
       </c>
       <c r="B132">
-        <v>4.139</v>
+        <v>14.516</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3805,6 +4420,5089 @@
       </c>
       <c r="G132" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
+        <v>45808.28125</v>
+      </c>
+      <c r="B133">
+        <v>3.065</v>
+      </c>
+      <c r="C133">
+        <v>0.004</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="B134">
+        <v>44.129</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
+        <v>45808.30208333334</v>
+      </c>
+      <c r="B135">
+        <v>1.707</v>
+      </c>
+      <c r="C135">
+        <v>0.023</v>
+      </c>
+      <c r="D135">
+        <v>39</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>30</v>
+      </c>
+      <c r="G135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>45808.3125</v>
+      </c>
+      <c r="B136">
+        <v>0.16</v>
+      </c>
+      <c r="C136">
+        <v>5.47</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45808.32291666666</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>19.662</v>
+      </c>
+      <c r="D137">
+        <v>39</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>45808.33333333334</v>
+      </c>
+      <c r="B138">
+        <v>22.345</v>
+      </c>
+      <c r="C138">
+        <v>0.022</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>45808.34375</v>
+      </c>
+      <c r="B139">
+        <v>11.253</v>
+      </c>
+      <c r="C139">
+        <v>0.025</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>45808.35416666666</v>
+      </c>
+      <c r="B140">
+        <v>0.236</v>
+      </c>
+      <c r="C140">
+        <v>0.164</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>45808.36458333334</v>
+      </c>
+      <c r="B141">
+        <v>0.303</v>
+      </c>
+      <c r="C141">
+        <v>20.181</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>45808.375</v>
+      </c>
+      <c r="B142">
+        <v>6.56</v>
+      </c>
+      <c r="C142">
+        <v>8.613</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>45808.38541666666</v>
+      </c>
+      <c r="B143">
+        <v>0.285</v>
+      </c>
+      <c r="C143">
+        <v>9.048999999999999</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45808.39583333334</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>26.357</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45808.40625</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>50.065</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="B146">
+        <v>0.003</v>
+      </c>
+      <c r="C146">
+        <v>18.976</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>41</v>
+      </c>
+      <c r="G146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45808.42708333334</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>19.107</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>45808.4375</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>11.907</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>43</v>
+      </c>
+      <c r="G148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>45808.44791666666</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>4.394</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>45808.45833333334</v>
+      </c>
+      <c r="B150">
+        <v>3.557</v>
+      </c>
+      <c r="C150">
+        <v>0.208</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>45808.46875</v>
+      </c>
+      <c r="B151">
+        <v>4.758</v>
+      </c>
+      <c r="C151">
+        <v>0.025</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>45808.47916666666</v>
+      </c>
+      <c r="B152">
+        <v>0.277</v>
+      </c>
+      <c r="C152">
+        <v>0.063</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>47</v>
+      </c>
+      <c r="G152" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>45808.48958333334</v>
+      </c>
+      <c r="B153">
+        <v>0.204</v>
+      </c>
+      <c r="C153">
+        <v>0.112</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>48</v>
+      </c>
+      <c r="G153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>45808.5</v>
+      </c>
+      <c r="B154">
+        <v>0.414</v>
+      </c>
+      <c r="C154">
+        <v>0.042</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>45808.51041666666</v>
+      </c>
+      <c r="B155">
+        <v>0.025</v>
+      </c>
+      <c r="C155">
+        <v>3.157</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>45808.52083333334</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>13.475</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>45808.53125</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>12.441</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>52</v>
+      </c>
+      <c r="G157" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>45808.54166666666</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>20.938</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>53</v>
+      </c>
+      <c r="G158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>45808.55208333334</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>21.277</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>54</v>
+      </c>
+      <c r="G159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>45808.5625</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>38.407</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>45808.57291666666</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>34.387</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>56</v>
+      </c>
+      <c r="G161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>45808.58333333334</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>29.596</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>57</v>
+      </c>
+      <c r="G162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>45808.59375</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>19.403</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>58</v>
+      </c>
+      <c r="G163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>45808.60416666666</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>14.873</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>59</v>
+      </c>
+      <c r="G164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>45808.61458333334</v>
+      </c>
+      <c r="B165">
+        <v>0.857</v>
+      </c>
+      <c r="C165">
+        <v>1.639</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>60</v>
+      </c>
+      <c r="G165" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>45808.625</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>24.063</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>61</v>
+      </c>
+      <c r="G166" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>45808.63541666666</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>13.043</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>62</v>
+      </c>
+      <c r="G167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>45808.64583333334</v>
+      </c>
+      <c r="B168">
+        <v>0.006</v>
+      </c>
+      <c r="C168">
+        <v>0.594</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>63</v>
+      </c>
+      <c r="G168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>45808.65625</v>
+      </c>
+      <c r="B169">
+        <v>0.175</v>
+      </c>
+      <c r="C169">
+        <v>0.122</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>64</v>
+      </c>
+      <c r="G169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>45808.66666666666</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>26.598</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>65</v>
+      </c>
+      <c r="G170" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>45808.67708333334</v>
+      </c>
+      <c r="B171">
+        <v>0.002</v>
+      </c>
+      <c r="C171">
+        <v>40.729</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>66</v>
+      </c>
+      <c r="G171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>45808.6875</v>
+      </c>
+      <c r="B172">
+        <v>6.956</v>
+      </c>
+      <c r="C172">
+        <v>0.029</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>62.5</v>
+      </c>
+      <c r="F172">
+        <v>67</v>
+      </c>
+      <c r="G172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>45808.69791666666</v>
+      </c>
+      <c r="B173">
+        <v>9.025</v>
+      </c>
+      <c r="C173">
+        <v>0.09</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>25</v>
+      </c>
+      <c r="F173">
+        <v>68</v>
+      </c>
+      <c r="G173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>45808.70833333334</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>27.917</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>25</v>
+      </c>
+      <c r="F174">
+        <v>69</v>
+      </c>
+      <c r="G174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>45808.71875</v>
+      </c>
+      <c r="B175">
+        <v>0.256</v>
+      </c>
+      <c r="C175">
+        <v>11.385</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>37.5</v>
+      </c>
+      <c r="F175">
+        <v>70</v>
+      </c>
+      <c r="G175" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>45808.72916666666</v>
+      </c>
+      <c r="B176">
+        <v>24.724</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>37.5</v>
+      </c>
+      <c r="F176">
+        <v>71</v>
+      </c>
+      <c r="G176" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>45808.73958333334</v>
+      </c>
+      <c r="B177">
+        <v>47.403</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>25</v>
+      </c>
+      <c r="F177">
+        <v>72</v>
+      </c>
+      <c r="G177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>45808.75</v>
+      </c>
+      <c r="B178">
+        <v>1.953</v>
+      </c>
+      <c r="C178">
+        <v>4.583</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>73</v>
+      </c>
+      <c r="G178" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>45808.76041666666</v>
+      </c>
+      <c r="B179">
+        <v>0.052</v>
+      </c>
+      <c r="C179">
+        <v>4.98</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>74</v>
+      </c>
+      <c r="G179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>45808.77083333334</v>
+      </c>
+      <c r="B180">
+        <v>1.013</v>
+      </c>
+      <c r="C180">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>75</v>
+      </c>
+      <c r="G180" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>45808.78125</v>
+      </c>
+      <c r="B181">
+        <v>15.916</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>76</v>
+      </c>
+      <c r="G181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>45808.79166666666</v>
+      </c>
+      <c r="B182">
+        <v>0.72</v>
+      </c>
+      <c r="C182">
+        <v>11.873</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>77</v>
+      </c>
+      <c r="G182" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>45808.80208333334</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>15.318</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>78</v>
+      </c>
+      <c r="G183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>45808.8125</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>8.105</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>79</v>
+      </c>
+      <c r="G184" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>45808.82291666666</v>
+      </c>
+      <c r="B185">
+        <v>4.421</v>
+      </c>
+      <c r="C185">
+        <v>0.735</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>45808.83333333334</v>
+      </c>
+      <c r="B186">
+        <v>0.012</v>
+      </c>
+      <c r="C186">
+        <v>7.064</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>81</v>
+      </c>
+      <c r="G186" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>45808.84375</v>
+      </c>
+      <c r="B187">
+        <v>1.559</v>
+      </c>
+      <c r="C187">
+        <v>0.144</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>82</v>
+      </c>
+      <c r="G187" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="B188">
+        <v>12.191</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>83</v>
+      </c>
+      <c r="G188" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>45808.86458333334</v>
+      </c>
+      <c r="B189">
+        <v>6.48</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>84</v>
+      </c>
+      <c r="G189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>45808.875</v>
+      </c>
+      <c r="B190">
+        <v>37.243</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>85</v>
+      </c>
+      <c r="G190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>45808.88541666666</v>
+      </c>
+      <c r="B191">
+        <v>17.113</v>
+      </c>
+      <c r="C191">
+        <v>0.003</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>86</v>
+      </c>
+      <c r="G191" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>45808.89583333334</v>
+      </c>
+      <c r="B192">
+        <v>0.017</v>
+      </c>
+      <c r="C192">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="D192">
+        <v>25</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>87</v>
+      </c>
+      <c r="G192" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>45808.90625</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>7.19</v>
+      </c>
+      <c r="D193">
+        <v>25</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>88</v>
+      </c>
+      <c r="G193" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>45808.91666666666</v>
+      </c>
+      <c r="B194">
+        <v>21.256</v>
+      </c>
+      <c r="C194">
+        <v>0.598</v>
+      </c>
+      <c r="D194">
+        <v>18.25</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>89</v>
+      </c>
+      <c r="G194" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>45808.92708333334</v>
+      </c>
+      <c r="B195">
+        <v>0.694</v>
+      </c>
+      <c r="C195">
+        <v>0.273</v>
+      </c>
+      <c r="D195">
+        <v>18.25</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>90</v>
+      </c>
+      <c r="G195" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>45808.9375</v>
+      </c>
+      <c r="B196">
+        <v>0.051</v>
+      </c>
+      <c r="C196">
+        <v>0.532</v>
+      </c>
+      <c r="D196">
+        <v>15.5</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>91</v>
+      </c>
+      <c r="G196" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>45808.94791666666</v>
+      </c>
+      <c r="B197">
+        <v>0.02</v>
+      </c>
+      <c r="C197">
+        <v>3.332</v>
+      </c>
+      <c r="D197">
+        <v>15.5</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>92</v>
+      </c>
+      <c r="G197" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>45808.95833333334</v>
+      </c>
+      <c r="B198">
+        <v>21.27</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>93</v>
+      </c>
+      <c r="G198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>45808.96875</v>
+      </c>
+      <c r="B199">
+        <v>7.34</v>
+      </c>
+      <c r="C199">
+        <v>0.397</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>94</v>
+      </c>
+      <c r="G199" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>45808.97916666666</v>
+      </c>
+      <c r="B200">
+        <v>5.038</v>
+      </c>
+      <c r="C200">
+        <v>0.879</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>95</v>
+      </c>
+      <c r="G200" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>45808.98958333334</v>
+      </c>
+      <c r="B201">
+        <v>0.033</v>
+      </c>
+      <c r="C201">
+        <v>1.901</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>96</v>
+      </c>
+      <c r="G201" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B202">
+        <v>27.309</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B203">
+        <v>27.309</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B204">
+        <v>9.023</v>
+      </c>
+      <c r="C204">
+        <v>2.919</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B205">
+        <v>9.023</v>
+      </c>
+      <c r="C205">
+        <v>2.919</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>7.26</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>3</v>
+      </c>
+      <c r="G206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>7.26</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>3</v>
+      </c>
+      <c r="G207" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
+        <v>45809.03125</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>1.834</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
+        <v>45809.03125</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1.834</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
+        <v>45809.04166666666</v>
+      </c>
+      <c r="B210">
+        <v>3.807</v>
+      </c>
+      <c r="C210">
+        <v>0.185</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>45809.04166666666</v>
+      </c>
+      <c r="B211">
+        <v>3.807</v>
+      </c>
+      <c r="C211">
+        <v>0.185</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+      <c r="G211" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
+        <v>45809.05208333334</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>2.287</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>6</v>
+      </c>
+      <c r="G212" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
+        <v>45809.05208333334</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>2.287</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>6</v>
+      </c>
+      <c r="G213" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
+        <v>45809.0625</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>17.307</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>7</v>
+      </c>
+      <c r="G214" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
+        <v>45809.0625</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>17.307</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>7</v>
+      </c>
+      <c r="G215" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
+        <v>45809.07291666666</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>12.318</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
+        <v>45809.07291666666</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>12.318</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>16.175</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>9</v>
+      </c>
+      <c r="G218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>45809.09375</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>21.177</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
+        <v>45809.10416666666</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>19.033</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>11</v>
+      </c>
+      <c r="G220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
+        <v>45809.11458333334</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>19.284</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>22.148</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
+        <v>45809.13541666666</v>
+      </c>
+      <c r="B223">
+        <v>3.186</v>
+      </c>
+      <c r="C223">
+        <v>18.855</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
+        <v>45809.14583333334</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>28.274</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="2">
+        <v>45809.15625</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>32.093</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>16</v>
+      </c>
+      <c r="G225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="2">
+        <v>45809.16666666666</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>7.89</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>17</v>
+      </c>
+      <c r="G226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
+        <v>45809.17708333334</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>24.919</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>18</v>
+      </c>
+      <c r="G227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
+        <v>45809.1875</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>45.141</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>19</v>
+      </c>
+      <c r="G228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
+        <v>45809.19791666666</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>37.563</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>22.75</v>
+      </c>
+      <c r="F229">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
+        <v>45809.20833333334</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>20.426</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>22.75</v>
+      </c>
+      <c r="F230">
+        <v>21</v>
+      </c>
+      <c r="G230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="2">
+        <v>45809.21875</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>26.788</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>22.75</v>
+      </c>
+      <c r="F231">
+        <v>22</v>
+      </c>
+      <c r="G231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
+        <v>45809.22916666666</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>41.516</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>22.75</v>
+      </c>
+      <c r="F232">
+        <v>23</v>
+      </c>
+      <c r="G232" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
+        <v>45809.23958333334</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>35.668</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>22.75</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="2">
+        <v>45809.25</v>
+      </c>
+      <c r="B234">
+        <v>0.005</v>
+      </c>
+      <c r="C234">
+        <v>3.77</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>25</v>
+      </c>
+      <c r="F234">
+        <v>25</v>
+      </c>
+      <c r="G234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="2">
+        <v>45809.26041666666</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>39.692</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>25</v>
+      </c>
+      <c r="F235">
+        <v>26</v>
+      </c>
+      <c r="G235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="2">
+        <v>45809.27083333334</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>14.149</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>61.5</v>
+      </c>
+      <c r="F236">
+        <v>27</v>
+      </c>
+      <c r="G236" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="2">
+        <v>45809.28125</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>31.018</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>61.5</v>
+      </c>
+      <c r="F237">
+        <v>28</v>
+      </c>
+      <c r="G237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>29.827</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>29</v>
+      </c>
+      <c r="G238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2">
+        <v>45809.30208333334</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>22.062</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>53.5</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="2">
+        <v>45809.3125</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>24.817</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>53.5</v>
+      </c>
+      <c r="F240">
+        <v>31</v>
+      </c>
+      <c r="G240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="2">
+        <v>45809.32291666666</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>22.434</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>53.5</v>
+      </c>
+      <c r="F241">
+        <v>32</v>
+      </c>
+      <c r="G241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="2">
+        <v>45809.33333333334</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>25.693</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>47</v>
+      </c>
+      <c r="F242">
+        <v>33</v>
+      </c>
+      <c r="G242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="2">
+        <v>45809.34375</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>18.521</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>47</v>
+      </c>
+      <c r="F243">
+        <v>34</v>
+      </c>
+      <c r="G243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="2">
+        <v>45809.35416666666</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>29.775</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>47</v>
+      </c>
+      <c r="F244">
+        <v>35</v>
+      </c>
+      <c r="G244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="2">
+        <v>45809.36458333334</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>26.398</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>47</v>
+      </c>
+      <c r="F245">
+        <v>36</v>
+      </c>
+      <c r="G245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="B246">
+        <v>0.13</v>
+      </c>
+      <c r="C246">
+        <v>3.85</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>49</v>
+      </c>
+      <c r="F246">
+        <v>37</v>
+      </c>
+      <c r="G246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="2">
+        <v>45809.38541666666</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>12.257</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>49</v>
+      </c>
+      <c r="F247">
+        <v>38</v>
+      </c>
+      <c r="G247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="2">
+        <v>45809.39583333334</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>11.79</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>49</v>
+      </c>
+      <c r="F248">
+        <v>39</v>
+      </c>
+      <c r="G248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="2">
+        <v>45809.40625</v>
+      </c>
+      <c r="B249">
+        <v>0.02</v>
+      </c>
+      <c r="C249">
+        <v>3.12</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>49</v>
+      </c>
+      <c r="F249">
+        <v>40</v>
+      </c>
+      <c r="G249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="B250">
+        <v>3.34</v>
+      </c>
+      <c r="C250">
+        <v>0.022</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>52</v>
+      </c>
+      <c r="F250">
+        <v>41</v>
+      </c>
+      <c r="G250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="2">
+        <v>45809.42708333334</v>
+      </c>
+      <c r="B251">
+        <v>0.894</v>
+      </c>
+      <c r="C251">
+        <v>0.031</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>52</v>
+      </c>
+      <c r="F251">
+        <v>42</v>
+      </c>
+      <c r="G251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="2">
+        <v>45809.4375</v>
+      </c>
+      <c r="B252">
+        <v>0.206</v>
+      </c>
+      <c r="C252">
+        <v>0.132</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>52</v>
+      </c>
+      <c r="F252">
+        <v>43</v>
+      </c>
+      <c r="G252" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="2">
+        <v>45809.44791666666</v>
+      </c>
+      <c r="B253">
+        <v>0.012</v>
+      </c>
+      <c r="C253">
+        <v>1.709</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>25</v>
+      </c>
+      <c r="F253">
+        <v>44</v>
+      </c>
+      <c r="G253" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="2">
+        <v>45809.45833333334</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>1.74</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>45</v>
+      </c>
+      <c r="G254" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="2">
+        <v>45809.46875</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>5.96</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>46</v>
+      </c>
+      <c r="G255" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="2">
+        <v>45809.47916666666</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>3.409</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>47</v>
+      </c>
+      <c r="G256" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="2">
+        <v>45809.48958333334</v>
+      </c>
+      <c r="B257">
+        <v>0.005</v>
+      </c>
+      <c r="C257">
+        <v>4.794</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>48</v>
+      </c>
+      <c r="G257" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="B258">
+        <v>0.016</v>
+      </c>
+      <c r="C258">
+        <v>5.319</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>49</v>
+      </c>
+      <c r="G258" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="2">
+        <v>45809.51041666666</v>
+      </c>
+      <c r="B259">
+        <v>0.187</v>
+      </c>
+      <c r="C259">
+        <v>0.106</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>50</v>
+      </c>
+      <c r="G259" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="2">
+        <v>45809.52083333334</v>
+      </c>
+      <c r="B260">
+        <v>1.272</v>
+      </c>
+      <c r="C260">
+        <v>0.121</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>50</v>
+      </c>
+      <c r="F260">
+        <v>51</v>
+      </c>
+      <c r="G260" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="2">
+        <v>45809.53125</v>
+      </c>
+      <c r="B261">
+        <v>0.041</v>
+      </c>
+      <c r="C261">
+        <v>0.536</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>50</v>
+      </c>
+      <c r="F261">
+        <v>52</v>
+      </c>
+      <c r="G261" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="2">
+        <v>45809.54166666666</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>19.935</v>
+      </c>
+      <c r="D262">
+        <v>50</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>53</v>
+      </c>
+      <c r="G262" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="2">
+        <v>45809.55208333334</v>
+      </c>
+      <c r="B263">
+        <v>2.039</v>
+      </c>
+      <c r="C263">
+        <v>2.513</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>50</v>
+      </c>
+      <c r="F263">
+        <v>54</v>
+      </c>
+      <c r="G263" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="2">
+        <v>45809.5625</v>
+      </c>
+      <c r="B264">
+        <v>4.271</v>
+      </c>
+      <c r="C264">
+        <v>0.045</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>37.5</v>
+      </c>
+      <c r="F264">
+        <v>55</v>
+      </c>
+      <c r="G264" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="2">
+        <v>45809.57291666666</v>
+      </c>
+      <c r="B265">
+        <v>2.677</v>
+      </c>
+      <c r="C265">
+        <v>0.153</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>25</v>
+      </c>
+      <c r="F265">
+        <v>56</v>
+      </c>
+      <c r="G265" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="2">
+        <v>45809.58333333334</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>4.529</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>57</v>
+      </c>
+      <c r="G266" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="2">
+        <v>45809.59375</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>20.837</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>58</v>
+      </c>
+      <c r="G267" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="2">
+        <v>45809.60416666666</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>10.253</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>59</v>
+      </c>
+      <c r="G268" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="2">
+        <v>45809.61458333334</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>10.732</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>60</v>
+      </c>
+      <c r="G269" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="2">
+        <v>45809.625</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>3.499</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>61</v>
+      </c>
+      <c r="G270" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="2">
+        <v>45809.63541666666</v>
+      </c>
+      <c r="B271">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C271">
+        <v>2.298</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>62</v>
+      </c>
+      <c r="G271" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="2">
+        <v>45809.64583333334</v>
+      </c>
+      <c r="B272">
+        <v>0.745</v>
+      </c>
+      <c r="C272">
+        <v>1.379</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>63</v>
+      </c>
+      <c r="G272" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="2">
+        <v>45809.65625</v>
+      </c>
+      <c r="B273">
+        <v>1.348</v>
+      </c>
+      <c r="C273">
+        <v>0.061</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>64</v>
+      </c>
+      <c r="G273" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="B274">
+        <v>0.28</v>
+      </c>
+      <c r="C274">
+        <v>1.671</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>65</v>
+      </c>
+      <c r="G274" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="2">
+        <v>45809.67708333334</v>
+      </c>
+      <c r="B275">
+        <v>0.08</v>
+      </c>
+      <c r="C275">
+        <v>5.602</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>66</v>
+      </c>
+      <c r="G275" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="2">
+        <v>45809.6875</v>
+      </c>
+      <c r="B276">
+        <v>4.011</v>
+      </c>
+      <c r="C276">
+        <v>0.77</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>67</v>
+      </c>
+      <c r="G276" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="2">
+        <v>45809.69791666666</v>
+      </c>
+      <c r="B277">
+        <v>39.264</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>68</v>
+      </c>
+      <c r="G277" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="2">
+        <v>45809.70833333334</v>
+      </c>
+      <c r="B278">
+        <v>4.823</v>
+      </c>
+      <c r="C278">
+        <v>6.92</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>12.5</v>
+      </c>
+      <c r="F278">
+        <v>69</v>
+      </c>
+      <c r="G278" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="2">
+        <v>45809.71875</v>
+      </c>
+      <c r="B279">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="C279">
+        <v>2.639</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>12.5</v>
+      </c>
+      <c r="F279">
+        <v>70</v>
+      </c>
+      <c r="G279" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="2">
+        <v>45809.72916666666</v>
+      </c>
+      <c r="B280">
+        <v>0.711</v>
+      </c>
+      <c r="C280">
+        <v>0.22</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>71</v>
+      </c>
+      <c r="G280" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="2">
+        <v>45809.73958333334</v>
+      </c>
+      <c r="B281">
+        <v>5.049</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>72</v>
+      </c>
+      <c r="G281" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="2">
+        <v>45809.75</v>
+      </c>
+      <c r="B282">
+        <v>0.058</v>
+      </c>
+      <c r="C282">
+        <v>20.444</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>25</v>
+      </c>
+      <c r="F282">
+        <v>73</v>
+      </c>
+      <c r="G282" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="2">
+        <v>45809.76041666666</v>
+      </c>
+      <c r="B283">
+        <v>0.002</v>
+      </c>
+      <c r="C283">
+        <v>8.957000000000001</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>12.5</v>
+      </c>
+      <c r="F283">
+        <v>74</v>
+      </c>
+      <c r="G283" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="B284">
+        <v>0.041</v>
+      </c>
+      <c r="C284">
+        <v>3.985</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>75</v>
+      </c>
+      <c r="G284" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="2">
+        <v>45809.78125</v>
+      </c>
+      <c r="B285">
+        <v>0.126</v>
+      </c>
+      <c r="C285">
+        <v>0.161</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>76</v>
+      </c>
+      <c r="G285" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="2">
+        <v>45809.79166666666</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>1.631</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>25</v>
+      </c>
+      <c r="F286">
+        <v>77</v>
+      </c>
+      <c r="G286" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="2">
+        <v>45809.80208333334</v>
+      </c>
+      <c r="B287">
+        <v>0.202</v>
+      </c>
+      <c r="C287">
+        <v>0.134</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>12.5</v>
+      </c>
+      <c r="F287">
+        <v>78</v>
+      </c>
+      <c r="G287" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="2">
+        <v>45809.8125</v>
+      </c>
+      <c r="B288">
+        <v>0.31</v>
+      </c>
+      <c r="C288">
+        <v>0.026</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>12.5</v>
+      </c>
+      <c r="F288">
+        <v>79</v>
+      </c>
+      <c r="G288" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="2">
+        <v>45809.82291666666</v>
+      </c>
+      <c r="B289">
+        <v>0.173</v>
+      </c>
+      <c r="C289">
+        <v>0.694</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>12.5</v>
+      </c>
+      <c r="F289">
+        <v>80</v>
+      </c>
+      <c r="G289" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="2">
+        <v>45809.83333333334</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>6.096</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>12.5</v>
+      </c>
+      <c r="F290">
+        <v>81</v>
+      </c>
+      <c r="G290" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="2">
+        <v>45809.84375</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>11.407</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>82</v>
+      </c>
+      <c r="G291" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="2">
+        <v>45809.85416666666</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>10.904</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>20</v>
+      </c>
+      <c r="F292">
+        <v>83</v>
+      </c>
+      <c r="G292" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="2">
+        <v>45809.86458333334</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>13.046</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>20</v>
+      </c>
+      <c r="F293">
+        <v>84</v>
+      </c>
+      <c r="G293" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="2">
+        <v>45809.875</v>
+      </c>
+      <c r="B294">
+        <v>0.041</v>
+      </c>
+      <c r="C294">
+        <v>1.378</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>85</v>
+      </c>
+      <c r="G294" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="2">
+        <v>45809.88541666666</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>10.555</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>86</v>
+      </c>
+      <c r="G295" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="2">
+        <v>45809.89583333334</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>4.918</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>87</v>
+      </c>
+      <c r="G296" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="2">
+        <v>45809.90625</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>8.074</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>88</v>
+      </c>
+      <c r="G297" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="2">
+        <v>45809.91666666666</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>8.711</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>89</v>
+      </c>
+      <c r="G298" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="2">
+        <v>45809.92708333334</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>11.106</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>90</v>
+      </c>
+      <c r="G299" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="2">
+        <v>45809.9375</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>10.925</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>91</v>
+      </c>
+      <c r="G300" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="2">
+        <v>45809.94791666666</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>25.368</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>92</v>
+      </c>
+      <c r="G301" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="2">
+        <v>45809.95833333334</v>
+      </c>
+      <c r="B302">
+        <v>0.057</v>
+      </c>
+      <c r="C302">
+        <v>3.365</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>93</v>
+      </c>
+      <c r="G302" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="2">
+        <v>45809.96875</v>
+      </c>
+      <c r="B303">
+        <v>0.042</v>
+      </c>
+      <c r="C303">
+        <v>0.305</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>94</v>
+      </c>
+      <c r="G303" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="2">
+        <v>45809.97916666666</v>
+      </c>
+      <c r="B304">
+        <v>0.057</v>
+      </c>
+      <c r="C304">
+        <v>0.289</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>95</v>
+      </c>
+      <c r="G304" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="2">
+        <v>45809.98958333334</v>
+      </c>
+      <c r="B305">
+        <v>0.123</v>
+      </c>
+      <c r="C305">
+        <v>0.226</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>96</v>
+      </c>
+      <c r="G305" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B306">
+        <v>0.489</v>
+      </c>
+      <c r="C306">
+        <v>0.196</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B307">
+        <v>0.489</v>
+      </c>
+      <c r="C307">
+        <v>0.196</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+      <c r="G307" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="2">
+        <v>45810.01041666666</v>
+      </c>
+      <c r="B308">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C308">
+        <v>0.355</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>2</v>
+      </c>
+      <c r="G308" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="2">
+        <v>45810.01041666666</v>
+      </c>
+      <c r="B309">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C309">
+        <v>0.355</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+      <c r="G309" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="2">
+        <v>45810.02083333334</v>
+      </c>
+      <c r="B310">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C310">
+        <v>1.058</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>3</v>
+      </c>
+      <c r="G310" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="2">
+        <v>45810.02083333334</v>
+      </c>
+      <c r="B311">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C311">
+        <v>1.058</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>3</v>
+      </c>
+      <c r="G311" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="2">
+        <v>45810.03125</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>24.227</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>4</v>
+      </c>
+      <c r="G312" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="2">
+        <v>45810.03125</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>24.227</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>4</v>
+      </c>
+      <c r="G313" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="2">
+        <v>45810.04166666666</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>33.455</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>5</v>
+      </c>
+      <c r="G314" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="2">
+        <v>45810.04166666666</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>33.455</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>5</v>
+      </c>
+      <c r="G315" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="2">
+        <v>45810.05208333334</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>24.139</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>6</v>
+      </c>
+      <c r="G316" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="2">
+        <v>45810.05208333334</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>24.139</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>6</v>
+      </c>
+      <c r="G317" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="2">
+        <v>45810.0625</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>23.55</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>7</v>
+      </c>
+      <c r="G318" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="2">
+        <v>45810.0625</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>23.55</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>7</v>
+      </c>
+      <c r="G319" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="2">
+        <v>45810.07291666666</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>36.654</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>8</v>
+      </c>
+      <c r="G320" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="2">
+        <v>45810.07291666666</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>36.654</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>8</v>
+      </c>
+      <c r="G321" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="2">
+        <v>45810.08333333334</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>16.73</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>9</v>
+      </c>
+      <c r="G322" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="2">
+        <v>45810.09375</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>25.795</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>10</v>
+      </c>
+      <c r="G323" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="2">
+        <v>45810.10416666666</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>23.807</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>11</v>
+      </c>
+      <c r="G324" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="2">
+        <v>45810.11458333334</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>13.441</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>12</v>
+      </c>
+      <c r="G325" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="2">
+        <v>45810.125</v>
+      </c>
+      <c r="B326">
+        <v>0.006</v>
+      </c>
+      <c r="C326">
+        <v>1.75</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>13</v>
+      </c>
+      <c r="G326" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="2">
+        <v>45810.13541666666</v>
+      </c>
+      <c r="B327">
+        <v>0.279</v>
+      </c>
+      <c r="C327">
+        <v>0.198</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>14</v>
+      </c>
+      <c r="G327" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="2">
+        <v>45810.14583333334</v>
+      </c>
+      <c r="B328">
+        <v>0.162</v>
+      </c>
+      <c r="C328">
+        <v>0.058</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>15</v>
+      </c>
+      <c r="G328" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="2">
+        <v>45810.15625</v>
+      </c>
+      <c r="B329">
+        <v>0.015</v>
+      </c>
+      <c r="C329">
+        <v>3.862</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>16</v>
+      </c>
+      <c r="G329" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="2">
+        <v>45810.16666666666</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>6.671</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>17</v>
+      </c>
+      <c r="G330" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="2">
+        <v>45810.17708333334</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>2.641</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>18</v>
+      </c>
+      <c r="G331" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="2">
+        <v>45810.1875</v>
+      </c>
+      <c r="B332">
+        <v>0.36</v>
+      </c>
+      <c r="C332">
+        <v>12.662</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>19</v>
+      </c>
+      <c r="G332" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="2">
+        <v>45810.19791666666</v>
+      </c>
+      <c r="B333">
+        <v>0.1</v>
+      </c>
+      <c r="C333">
+        <v>0.491</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>20</v>
+      </c>
+      <c r="G333" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="2">
+        <v>45810.20833333334</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>20.364</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>21</v>
+      </c>
+      <c r="G334" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="2">
+        <v>45810.21875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>17.377</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>22</v>
+      </c>
+      <c r="G335" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="2">
+        <v>45810.22916666666</v>
+      </c>
+      <c r="B336">
+        <v>0.012</v>
+      </c>
+      <c r="C336">
+        <v>9.023999999999999</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>23</v>
+      </c>
+      <c r="G336" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="2">
+        <v>45810.23958333334</v>
+      </c>
+      <c r="B337">
+        <v>0.207</v>
+      </c>
+      <c r="C337">
+        <v>0.4</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>24</v>
+      </c>
+      <c r="G337" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="2">
+        <v>45810.25</v>
+      </c>
+      <c r="B338">
+        <v>0.301</v>
+      </c>
+      <c r="C338">
+        <v>6.341</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>25</v>
+      </c>
+      <c r="G338" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="2">
+        <v>45810.26041666666</v>
+      </c>
+      <c r="B339">
+        <v>0.2</v>
+      </c>
+      <c r="C339">
+        <v>1.875</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>26</v>
+      </c>
+      <c r="G339" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="2">
+        <v>45810.27083333334</v>
+      </c>
+      <c r="B340">
+        <v>0.11</v>
+      </c>
+      <c r="C340">
+        <v>2.899</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>27</v>
+      </c>
+      <c r="G340" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="2">
+        <v>45810.28125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>9.718</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>28</v>
+      </c>
+      <c r="G341" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="2">
+        <v>45810.29166666666</v>
+      </c>
+      <c r="B342">
+        <v>0.52</v>
+      </c>
+      <c r="C342">
+        <v>1.418</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>29</v>
+      </c>
+      <c r="G342" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="2">
+        <v>45810.30208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>13.177</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>30</v>
+      </c>
+      <c r="G343" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="2">
+        <v>45810.3125</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>8.827999999999999</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>31</v>
+      </c>
+      <c r="G344" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="2">
+        <v>45810.32291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>22.358</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>32</v>
+      </c>
+      <c r="G345" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="2">
+        <v>45810.33333333334</v>
+      </c>
+      <c r="B346">
+        <v>0.124</v>
+      </c>
+      <c r="C346">
+        <v>0.833</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>33</v>
+      </c>
+      <c r="G346" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="2">
+        <v>45810.34375</v>
+      </c>
+      <c r="B347">
+        <v>0.034</v>
+      </c>
+      <c r="C347">
+        <v>4.82</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>34</v>
+      </c>
+      <c r="G347" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="2">
+        <v>45810.35416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>18.694</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>35</v>
+      </c>
+      <c r="G348" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="2">
+        <v>45810.36458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>19.674</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>36</v>
+      </c>
+      <c r="G349" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="2">
+        <v>45810.375</v>
+      </c>
+      <c r="B350">
+        <v>1.064</v>
+      </c>
+      <c r="C350">
+        <v>2.709</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>37</v>
+      </c>
+      <c r="G350" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="2">
+        <v>45810.38541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>13.58</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>38</v>
+      </c>
+      <c r="G351" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="2">
+        <v>45810.39583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>12.24</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>39</v>
+      </c>
+      <c r="G352" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="2">
+        <v>45810.40625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>32.522</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>40</v>
+      </c>
+      <c r="G353" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,367 +37,421 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>12.06.20251</t>
-  </si>
-  <si>
-    <t>12.06.20252</t>
-  </si>
-  <si>
-    <t>12.06.20253</t>
-  </si>
-  <si>
-    <t>12.06.20254</t>
-  </si>
-  <si>
-    <t>12.06.20255</t>
-  </si>
-  <si>
-    <t>12.06.20256</t>
-  </si>
-  <si>
-    <t>12.06.20257</t>
-  </si>
-  <si>
-    <t>12.06.20258</t>
-  </si>
-  <si>
-    <t>12.06.20259</t>
-  </si>
-  <si>
-    <t>12.06.202510</t>
-  </si>
-  <si>
-    <t>12.06.202511</t>
-  </si>
-  <si>
-    <t>12.06.202512</t>
-  </si>
-  <si>
-    <t>12.06.202513</t>
-  </si>
-  <si>
-    <t>12.06.202514</t>
-  </si>
-  <si>
-    <t>12.06.202515</t>
-  </si>
-  <si>
-    <t>12.06.202516</t>
-  </si>
-  <si>
-    <t>12.06.202517</t>
-  </si>
-  <si>
-    <t>12.06.202518</t>
-  </si>
-  <si>
-    <t>12.06.202519</t>
-  </si>
-  <si>
-    <t>12.06.202520</t>
-  </si>
-  <si>
-    <t>12.06.202521</t>
-  </si>
-  <si>
-    <t>12.06.202522</t>
-  </si>
-  <si>
-    <t>12.06.202523</t>
-  </si>
-  <si>
-    <t>12.06.202524</t>
-  </si>
-  <si>
-    <t>12.06.202525</t>
-  </si>
-  <si>
-    <t>12.06.202526</t>
-  </si>
-  <si>
-    <t>12.06.202527</t>
-  </si>
-  <si>
-    <t>12.06.202528</t>
-  </si>
-  <si>
-    <t>12.06.202529</t>
-  </si>
-  <si>
-    <t>12.06.202530</t>
-  </si>
-  <si>
-    <t>12.06.202531</t>
-  </si>
-  <si>
-    <t>12.06.202532</t>
-  </si>
-  <si>
-    <t>12.06.202533</t>
-  </si>
-  <si>
-    <t>12.06.202534</t>
-  </si>
-  <si>
-    <t>12.06.202535</t>
-  </si>
-  <si>
-    <t>12.06.202536</t>
-  </si>
-  <si>
-    <t>12.06.202537</t>
-  </si>
-  <si>
-    <t>12.06.202538</t>
-  </si>
-  <si>
-    <t>12.06.202539</t>
-  </si>
-  <si>
-    <t>12.06.202540</t>
-  </si>
-  <si>
-    <t>12.06.202541</t>
-  </si>
-  <si>
-    <t>12.06.202542</t>
-  </si>
-  <si>
-    <t>12.06.202543</t>
-  </si>
-  <si>
-    <t>12.06.202544</t>
-  </si>
-  <si>
-    <t>12.06.202545</t>
-  </si>
-  <si>
-    <t>12.06.202546</t>
-  </si>
-  <si>
-    <t>12.06.202547</t>
-  </si>
-  <si>
-    <t>12.06.202548</t>
-  </si>
-  <si>
-    <t>12.06.202549</t>
-  </si>
-  <si>
-    <t>12.06.202550</t>
-  </si>
-  <si>
-    <t>12.06.202551</t>
-  </si>
-  <si>
-    <t>12.06.202552</t>
-  </si>
-  <si>
-    <t>12.06.202553</t>
-  </si>
-  <si>
-    <t>12.06.202554</t>
-  </si>
-  <si>
-    <t>12.06.202555</t>
-  </si>
-  <si>
-    <t>12.06.202556</t>
-  </si>
-  <si>
-    <t>12.06.202557</t>
-  </si>
-  <si>
-    <t>12.06.202558</t>
-  </si>
-  <si>
-    <t>12.06.202559</t>
-  </si>
-  <si>
-    <t>12.06.202560</t>
-  </si>
-  <si>
-    <t>12.06.202561</t>
-  </si>
-  <si>
-    <t>12.06.202562</t>
-  </si>
-  <si>
-    <t>12.06.202563</t>
-  </si>
-  <si>
-    <t>12.06.202564</t>
-  </si>
-  <si>
-    <t>12.06.202565</t>
-  </si>
-  <si>
-    <t>12.06.202566</t>
-  </si>
-  <si>
-    <t>12.06.202567</t>
-  </si>
-  <si>
-    <t>12.06.202568</t>
-  </si>
-  <si>
-    <t>12.06.202569</t>
-  </si>
-  <si>
-    <t>12.06.202570</t>
-  </si>
-  <si>
-    <t>12.06.202571</t>
-  </si>
-  <si>
-    <t>12.06.202572</t>
-  </si>
-  <si>
-    <t>12.06.202573</t>
-  </si>
-  <si>
-    <t>12.06.202574</t>
-  </si>
-  <si>
-    <t>12.06.202575</t>
-  </si>
-  <si>
-    <t>12.06.202576</t>
-  </si>
-  <si>
-    <t>12.06.202577</t>
-  </si>
-  <si>
-    <t>12.06.202578</t>
-  </si>
-  <si>
-    <t>12.06.202579</t>
-  </si>
-  <si>
-    <t>12.06.202580</t>
-  </si>
-  <si>
-    <t>12.06.202581</t>
-  </si>
-  <si>
-    <t>12.06.202582</t>
-  </si>
-  <si>
-    <t>12.06.202583</t>
-  </si>
-  <si>
-    <t>12.06.202584</t>
-  </si>
-  <si>
-    <t>12.06.202585</t>
-  </si>
-  <si>
-    <t>12.06.202586</t>
-  </si>
-  <si>
-    <t>12.06.202587</t>
-  </si>
-  <si>
-    <t>12.06.202588</t>
-  </si>
-  <si>
-    <t>12.06.202589</t>
-  </si>
-  <si>
-    <t>12.06.202590</t>
-  </si>
-  <si>
-    <t>12.06.202591</t>
-  </si>
-  <si>
-    <t>12.06.202592</t>
-  </si>
-  <si>
-    <t>12.06.202593</t>
-  </si>
-  <si>
-    <t>12.06.202594</t>
-  </si>
-  <si>
-    <t>12.06.202595</t>
-  </si>
-  <si>
-    <t>12.06.202596</t>
-  </si>
-  <si>
-    <t>13.06.20251</t>
-  </si>
-  <si>
-    <t>13.06.20252</t>
-  </si>
-  <si>
-    <t>13.06.20253</t>
-  </si>
-  <si>
-    <t>13.06.20254</t>
-  </si>
-  <si>
-    <t>13.06.20255</t>
-  </si>
-  <si>
-    <t>13.06.20256</t>
-  </si>
-  <si>
-    <t>13.06.20257</t>
-  </si>
-  <si>
-    <t>13.06.20258</t>
-  </si>
-  <si>
-    <t>13.06.20259</t>
-  </si>
-  <si>
-    <t>13.06.202510</t>
-  </si>
-  <si>
-    <t>13.06.202511</t>
-  </si>
-  <si>
-    <t>13.06.202512</t>
-  </si>
-  <si>
-    <t>13.06.202513</t>
-  </si>
-  <si>
-    <t>13.06.202514</t>
-  </si>
-  <si>
-    <t>13.06.202515</t>
-  </si>
-  <si>
-    <t>13.06.202516</t>
-  </si>
-  <si>
-    <t>13.06.202517</t>
-  </si>
-  <si>
-    <t>13.06.202518</t>
-  </si>
-  <si>
-    <t>13.06.202519</t>
-  </si>
-  <si>
-    <t>13.06.202520</t>
-  </si>
-  <si>
-    <t>13.06.202521</t>
-  </si>
-  <si>
-    <t>13.06.202522</t>
-  </si>
-  <si>
-    <t>13.06.202523</t>
-  </si>
-  <si>
-    <t>13.06.202524</t>
-  </si>
-  <si>
-    <t>13.06.202525</t>
+    <t>16.06.20251</t>
+  </si>
+  <si>
+    <t>16.06.20252</t>
+  </si>
+  <si>
+    <t>16.06.20253</t>
+  </si>
+  <si>
+    <t>16.06.20254</t>
+  </si>
+  <si>
+    <t>16.06.20255</t>
+  </si>
+  <si>
+    <t>16.06.20256</t>
+  </si>
+  <si>
+    <t>16.06.20257</t>
+  </si>
+  <si>
+    <t>16.06.20258</t>
+  </si>
+  <si>
+    <t>16.06.20259</t>
+  </si>
+  <si>
+    <t>16.06.202510</t>
+  </si>
+  <si>
+    <t>16.06.202511</t>
+  </si>
+  <si>
+    <t>16.06.202512</t>
+  </si>
+  <si>
+    <t>16.06.202513</t>
+  </si>
+  <si>
+    <t>16.06.202514</t>
+  </si>
+  <si>
+    <t>16.06.202515</t>
+  </si>
+  <si>
+    <t>16.06.202516</t>
+  </si>
+  <si>
+    <t>16.06.202517</t>
+  </si>
+  <si>
+    <t>16.06.202518</t>
+  </si>
+  <si>
+    <t>16.06.202519</t>
+  </si>
+  <si>
+    <t>16.06.202520</t>
+  </si>
+  <si>
+    <t>16.06.202521</t>
+  </si>
+  <si>
+    <t>16.06.202522</t>
+  </si>
+  <si>
+    <t>16.06.202523</t>
+  </si>
+  <si>
+    <t>16.06.202524</t>
+  </si>
+  <si>
+    <t>16.06.202525</t>
+  </si>
+  <si>
+    <t>16.06.202526</t>
+  </si>
+  <si>
+    <t>16.06.202527</t>
+  </si>
+  <si>
+    <t>16.06.202528</t>
+  </si>
+  <si>
+    <t>16.06.202529</t>
+  </si>
+  <si>
+    <t>16.06.202530</t>
+  </si>
+  <si>
+    <t>16.06.202531</t>
+  </si>
+  <si>
+    <t>16.06.202532</t>
+  </si>
+  <si>
+    <t>16.06.202533</t>
+  </si>
+  <si>
+    <t>16.06.202534</t>
+  </si>
+  <si>
+    <t>16.06.202535</t>
+  </si>
+  <si>
+    <t>16.06.202536</t>
+  </si>
+  <si>
+    <t>16.06.202537</t>
+  </si>
+  <si>
+    <t>16.06.202538</t>
+  </si>
+  <si>
+    <t>16.06.202539</t>
+  </si>
+  <si>
+    <t>16.06.202540</t>
+  </si>
+  <si>
+    <t>16.06.202541</t>
+  </si>
+  <si>
+    <t>16.06.202542</t>
+  </si>
+  <si>
+    <t>16.06.202543</t>
+  </si>
+  <si>
+    <t>16.06.202544</t>
+  </si>
+  <si>
+    <t>16.06.202545</t>
+  </si>
+  <si>
+    <t>16.06.202546</t>
+  </si>
+  <si>
+    <t>16.06.202547</t>
+  </si>
+  <si>
+    <t>16.06.202548</t>
+  </si>
+  <si>
+    <t>16.06.202549</t>
+  </si>
+  <si>
+    <t>16.06.202550</t>
+  </si>
+  <si>
+    <t>16.06.202551</t>
+  </si>
+  <si>
+    <t>16.06.202552</t>
+  </si>
+  <si>
+    <t>16.06.202553</t>
+  </si>
+  <si>
+    <t>16.06.202554</t>
+  </si>
+  <si>
+    <t>16.06.202555</t>
+  </si>
+  <si>
+    <t>16.06.202556</t>
+  </si>
+  <si>
+    <t>16.06.202557</t>
+  </si>
+  <si>
+    <t>16.06.202558</t>
+  </si>
+  <si>
+    <t>16.06.202559</t>
+  </si>
+  <si>
+    <t>16.06.202560</t>
+  </si>
+  <si>
+    <t>16.06.202561</t>
+  </si>
+  <si>
+    <t>16.06.202562</t>
+  </si>
+  <si>
+    <t>16.06.202563</t>
+  </si>
+  <si>
+    <t>16.06.202564</t>
+  </si>
+  <si>
+    <t>16.06.202565</t>
+  </si>
+  <si>
+    <t>16.06.202566</t>
+  </si>
+  <si>
+    <t>16.06.202567</t>
+  </si>
+  <si>
+    <t>16.06.202568</t>
+  </si>
+  <si>
+    <t>16.06.202569</t>
+  </si>
+  <si>
+    <t>16.06.202570</t>
+  </si>
+  <si>
+    <t>16.06.202571</t>
+  </si>
+  <si>
+    <t>16.06.202572</t>
+  </si>
+  <si>
+    <t>16.06.202573</t>
+  </si>
+  <si>
+    <t>16.06.202574</t>
+  </si>
+  <si>
+    <t>16.06.202575</t>
+  </si>
+  <si>
+    <t>16.06.202576</t>
+  </si>
+  <si>
+    <t>16.06.202577</t>
+  </si>
+  <si>
+    <t>16.06.202578</t>
+  </si>
+  <si>
+    <t>16.06.202579</t>
+  </si>
+  <si>
+    <t>16.06.202580</t>
+  </si>
+  <si>
+    <t>16.06.202581</t>
+  </si>
+  <si>
+    <t>16.06.202582</t>
+  </si>
+  <si>
+    <t>16.06.202583</t>
+  </si>
+  <si>
+    <t>16.06.202584</t>
+  </si>
+  <si>
+    <t>16.06.202585</t>
+  </si>
+  <si>
+    <t>16.06.202586</t>
+  </si>
+  <si>
+    <t>16.06.202587</t>
+  </si>
+  <si>
+    <t>16.06.202588</t>
+  </si>
+  <si>
+    <t>16.06.202589</t>
+  </si>
+  <si>
+    <t>16.06.202590</t>
+  </si>
+  <si>
+    <t>16.06.202591</t>
+  </si>
+  <si>
+    <t>16.06.202592</t>
+  </si>
+  <si>
+    <t>16.06.202593</t>
+  </si>
+  <si>
+    <t>16.06.202594</t>
+  </si>
+  <si>
+    <t>16.06.202595</t>
+  </si>
+  <si>
+    <t>16.06.202596</t>
+  </si>
+  <si>
+    <t>17.06.20251</t>
+  </si>
+  <si>
+    <t>17.06.20252</t>
+  </si>
+  <si>
+    <t>17.06.20253</t>
+  </si>
+  <si>
+    <t>17.06.20254</t>
+  </si>
+  <si>
+    <t>17.06.20255</t>
+  </si>
+  <si>
+    <t>17.06.20256</t>
+  </si>
+  <si>
+    <t>17.06.20257</t>
+  </si>
+  <si>
+    <t>17.06.20258</t>
+  </si>
+  <si>
+    <t>17.06.20259</t>
+  </si>
+  <si>
+    <t>17.06.202510</t>
+  </si>
+  <si>
+    <t>17.06.202511</t>
+  </si>
+  <si>
+    <t>17.06.202512</t>
+  </si>
+  <si>
+    <t>17.06.202513</t>
+  </si>
+  <si>
+    <t>17.06.202514</t>
+  </si>
+  <si>
+    <t>17.06.202515</t>
+  </si>
+  <si>
+    <t>17.06.202516</t>
+  </si>
+  <si>
+    <t>17.06.202517</t>
+  </si>
+  <si>
+    <t>17.06.202518</t>
+  </si>
+  <si>
+    <t>17.06.202519</t>
+  </si>
+  <si>
+    <t>17.06.202520</t>
+  </si>
+  <si>
+    <t>17.06.202521</t>
+  </si>
+  <si>
+    <t>17.06.202522</t>
+  </si>
+  <si>
+    <t>17.06.202523</t>
+  </si>
+  <si>
+    <t>17.06.202524</t>
+  </si>
+  <si>
+    <t>17.06.202525</t>
+  </si>
+  <si>
+    <t>17.06.202526</t>
+  </si>
+  <si>
+    <t>17.06.202527</t>
+  </si>
+  <si>
+    <t>17.06.202528</t>
+  </si>
+  <si>
+    <t>17.06.202529</t>
+  </si>
+  <si>
+    <t>17.06.202530</t>
+  </si>
+  <si>
+    <t>17.06.202531</t>
+  </si>
+  <si>
+    <t>17.06.202532</t>
+  </si>
+  <si>
+    <t>17.06.202533</t>
+  </si>
+  <si>
+    <t>17.06.202534</t>
+  </si>
+  <si>
+    <t>17.06.202535</t>
+  </si>
+  <si>
+    <t>17.06.202536</t>
+  </si>
+  <si>
+    <t>17.06.202537</t>
+  </si>
+  <si>
+    <t>17.06.202538</t>
+  </si>
+  <si>
+    <t>17.06.202539</t>
+  </si>
+  <si>
+    <t>17.06.202540</t>
+  </si>
+  <si>
+    <t>17.06.202541</t>
+  </si>
+  <si>
+    <t>17.06.202542</t>
+  </si>
+  <si>
+    <t>17.06.202543</t>
   </si>
 </sst>
 </file>
@@ -759,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,13 +844,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B2">
-        <v>31.768</v>
+        <v>21.575</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -813,13 +867,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45820.01041666666</v>
+        <v>45824.01041666666</v>
       </c>
       <c r="B3">
-        <v>10.066</v>
+        <v>12.287</v>
       </c>
       <c r="C3">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -836,13 +890,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45820.02083333334</v>
+        <v>45824.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.19</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C4">
-        <v>0.516</v>
+        <v>5.529</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -859,16 +913,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45820.03125</v>
+        <v>45824.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.889</v>
+        <v>15.971</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,16 +936,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45820.04166666666</v>
+        <v>45824.04166666666</v>
       </c>
       <c r="B6">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.76</v>
+        <v>2.045</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,16 +959,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45820.05208333334</v>
+        <v>45824.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.038</v>
+        <v>7.947</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,16 +982,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45820.0625</v>
+        <v>45824.0625</v>
       </c>
       <c r="B8">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.62</v>
+        <v>31.699</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,16 +1005,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45820.07291666666</v>
+        <v>45824.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>18.415</v>
+        <v>28.611</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,16 +1028,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45820.08333333334</v>
+        <v>45824.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.443</v>
+        <v>30.953</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,16 +1051,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45820.09375</v>
+        <v>45824.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>30.082</v>
+        <v>37.612</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,16 +1074,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45820.10416666666</v>
+        <v>45824.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>72.035</v>
+        <v>35.167</v>
       </c>
       <c r="D12">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1043,13 +1097,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45820.11458333334</v>
+        <v>45824.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>49.814</v>
+        <v>25.511</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1066,13 +1120,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45820.125</v>
+        <v>45824.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>17.207</v>
+        <v>13.225</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1089,13 +1143,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45820.13541666666</v>
+        <v>45824.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.381</v>
+        <v>9.154</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1112,13 +1166,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45820.14583333334</v>
+        <v>45824.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4.376</v>
+        <v>20.599</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1135,13 +1189,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45820.15625</v>
+        <v>45824.15625</v>
       </c>
       <c r="B17">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.281</v>
+        <v>2.847</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1158,13 +1212,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45820.16666666666</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.158</v>
+        <v>0.362</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1181,13 +1235,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45820.17708333334</v>
+        <v>45824.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.101</v>
+        <v>0.052</v>
       </c>
       <c r="C19">
-        <v>0.439</v>
+        <v>0.178</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1204,13 +1258,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45820.1875</v>
+        <v>45824.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="C20">
-        <v>11.622</v>
+        <v>0.054</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1227,13 +1281,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45820.19791666666</v>
+        <v>45824.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.144</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C21">
-        <v>0.513</v>
+        <v>0.192</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1250,13 +1304,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45820.20833333334</v>
+        <v>45824.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.024</v>
+        <v>0.108</v>
       </c>
       <c r="C22">
-        <v>11.648</v>
+        <v>0.76</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1273,13 +1327,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45820.21875</v>
+        <v>45824.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>22.456</v>
+        <v>3.445</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1296,13 +1350,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45820.22916666666</v>
+        <v>45824.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.012</v>
+        <v>0.48</v>
       </c>
       <c r="C24">
-        <v>7.345</v>
+        <v>0.589</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1319,13 +1373,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45820.23958333334</v>
+        <v>45824.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.844</v>
+        <v>2.224</v>
       </c>
       <c r="C25">
-        <v>0.07199999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1342,19 +1396,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45820.25</v>
+        <v>45824.25</v>
       </c>
       <c r="B26">
-        <v>0.975</v>
+        <v>0.146</v>
       </c>
       <c r="C26">
-        <v>0.119</v>
+        <v>1.626</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1365,19 +1419,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45820.26041666666</v>
+        <v>45824.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.8120000000000001</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.01</v>
+        <v>10.678</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1388,19 +1442,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45820.27083333334</v>
+        <v>45824.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.772</v>
+        <v>13.178</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1411,19 +1465,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45820.28125</v>
+        <v>45824.28125</v>
       </c>
       <c r="B29">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>5.907</v>
+        <v>10.953</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1434,19 +1488,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45820.29166666666</v>
+        <v>45824.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.016</v>
+        <v>0.48</v>
       </c>
       <c r="C30">
-        <v>11.354</v>
+        <v>6.732</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1457,19 +1511,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45820.30208333334</v>
+        <v>45824.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.192</v>
+        <v>0.728</v>
       </c>
       <c r="C31">
-        <v>0.801</v>
+        <v>0.652</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1480,19 +1534,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45820.3125</v>
+        <v>45824.3125</v>
       </c>
       <c r="B32">
-        <v>0.048</v>
+        <v>0.032</v>
       </c>
       <c r="C32">
-        <v>0.891</v>
+        <v>0.575</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1503,19 +1557,19 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45820.32291666666</v>
+        <v>45824.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1.716</v>
+        <v>2.219</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1526,19 +1580,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45820.33333333334</v>
+        <v>45824.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.636</v>
+        <v>0.016</v>
       </c>
       <c r="C34">
-        <v>0.164</v>
+        <v>0.215</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1549,13 +1603,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45820.34375</v>
+        <v>45824.34375</v>
       </c>
       <c r="B35">
-        <v>0.023</v>
+        <v>0.28</v>
       </c>
       <c r="C35">
-        <v>4.791</v>
+        <v>0.711</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1572,19 +1626,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45820.35416666666</v>
+        <v>45824.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.014</v>
+        <v>4.191</v>
       </c>
       <c r="C36">
-        <v>3.995</v>
+        <v>0.667</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>46.25</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1595,19 +1649,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45820.36458333334</v>
+        <v>45824.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>5.84</v>
+        <v>13.3</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>46.25</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1618,19 +1672,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45820.375</v>
+        <v>45824.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2.286</v>
       </c>
       <c r="C38">
-        <v>5.854</v>
+        <v>6.273</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1641,19 +1695,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45820.38541666666</v>
+        <v>45824.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>5.139</v>
+        <v>11.874</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1664,19 +1718,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45820.39583333334</v>
+        <v>45824.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>25.353</v>
+        <v>15.038</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1687,19 +1741,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45820.40625</v>
+        <v>45824.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>40.83</v>
+        <v>14.587</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1710,13 +1764,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45820.41666666666</v>
+        <v>45824.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>8.579000000000001</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1733,13 +1787,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45820.42708333334</v>
+        <v>45824.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.074</v>
+        <v>0.007</v>
       </c>
       <c r="C43">
-        <v>4.982</v>
+        <v>1.298</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1756,13 +1810,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45820.4375</v>
+        <v>45824.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>18.519</v>
+        <v>6.135</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1779,13 +1833,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45820.44791666666</v>
+        <v>45824.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="C45">
-        <v>23.901</v>
+        <v>3.065</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1802,13 +1856,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45820.45833333334</v>
+        <v>45824.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>5.043</v>
+        <v>12.548</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1825,13 +1879,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45820.46875</v>
+        <v>45824.46875</v>
       </c>
       <c r="B47">
-        <v>0.013</v>
+        <v>0.018</v>
       </c>
       <c r="C47">
-        <v>4.998</v>
+        <v>0.381</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1848,13 +1902,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45820.47916666666</v>
+        <v>45824.47916666666</v>
       </c>
       <c r="B48">
-        <v>1.962</v>
+        <v>0.144</v>
       </c>
       <c r="C48">
-        <v>3.731</v>
+        <v>1.879</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1871,10 +1925,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45820.48958333334</v>
+        <v>45824.48958333334</v>
       </c>
       <c r="B49">
-        <v>5.209</v>
+        <v>6.372</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1894,19 +1948,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45820.5</v>
+        <v>45824.5</v>
       </c>
       <c r="B50">
-        <v>0.535</v>
+        <v>0.711</v>
       </c>
       <c r="C50">
-        <v>1.463</v>
+        <v>8.465</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1917,19 +1971,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45820.51041666666</v>
+        <v>45824.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.007</v>
+        <v>16.68</v>
       </c>
       <c r="C51">
-        <v>6.375</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1940,19 +1994,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45820.52083333334</v>
+        <v>45824.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.377</v>
+        <v>3.483</v>
       </c>
       <c r="C52">
-        <v>6.788</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -1963,19 +2017,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45820.53125</v>
+        <v>45824.53125</v>
       </c>
       <c r="B53">
-        <v>2.267</v>
+        <v>0.067</v>
       </c>
       <c r="C53">
-        <v>4.203</v>
+        <v>3.341</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -1986,19 +2040,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45820.54166666666</v>
+        <v>45824.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="C54">
-        <v>4.977</v>
+        <v>2.61</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2009,19 +2063,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45820.55208333334</v>
+        <v>45824.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C55">
-        <v>22.147</v>
+        <v>0.211</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2032,19 +2086,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45820.5625</v>
+        <v>45824.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C56">
-        <v>25.656</v>
+        <v>0.953</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2055,19 +2109,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45820.57291666666</v>
+        <v>45824.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>35.871</v>
+        <v>18.185</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2078,19 +2132,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45820.58333333334</v>
+        <v>45824.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="C58">
-        <v>26.791</v>
+        <v>1.861</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2101,13 +2155,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45820.59375</v>
+        <v>45824.59375</v>
       </c>
       <c r="B59">
-        <v>0.063</v>
+        <v>0.384</v>
       </c>
       <c r="C59">
-        <v>1.466</v>
+        <v>0.068</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2124,19 +2178,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45820.60416666666</v>
+        <v>45824.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.275</v>
+        <v>0.018</v>
       </c>
       <c r="C60">
-        <v>0.192</v>
+        <v>3.038</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -2147,19 +2201,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45820.61458333334</v>
+        <v>45824.61458333334</v>
       </c>
       <c r="B61">
-        <v>0.173</v>
+        <v>11.684</v>
       </c>
       <c r="C61">
-        <v>0.532</v>
+        <v>0.11</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -2170,19 +2224,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45820.625</v>
+        <v>45824.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>23.168</v>
+        <v>12.314</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>61</v>
@@ -2193,19 +2247,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45820.63541666666</v>
+        <v>45824.63541666666</v>
       </c>
       <c r="B63">
-        <v>5.861</v>
+        <v>0.52</v>
       </c>
       <c r="C63">
-        <v>2.522</v>
+        <v>4.435</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -2216,19 +2270,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45820.64583333334</v>
+        <v>45824.64583333334</v>
       </c>
       <c r="B64">
-        <v>19.472</v>
+        <v>0.378</v>
       </c>
       <c r="C64">
-        <v>0.226</v>
+        <v>0.09</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -2239,19 +2293,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45820.65625</v>
+        <v>45824.65625</v>
       </c>
       <c r="B65">
-        <v>34.191</v>
+        <v>0.17</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1.759</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -2262,13 +2316,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45820.66666666666</v>
+        <v>45824.66666666666</v>
       </c>
       <c r="B66">
-        <v>1.341</v>
+        <v>0.013</v>
       </c>
       <c r="C66">
-        <v>15.127</v>
+        <v>3.225</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2285,13 +2339,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45820.67708333334</v>
+        <v>45824.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>6.132</v>
+        <v>11.092</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2308,13 +2362,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45820.6875</v>
+        <v>45824.6875</v>
       </c>
       <c r="B68">
-        <v>2.588</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>8.372</v>
+        <v>26.825</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2331,16 +2385,16 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45820.69791666666</v>
+        <v>45824.69791666666</v>
       </c>
       <c r="B69">
-        <v>9.387</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>38.684</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>19.75</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2354,19 +2408,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45820.70833333334</v>
+        <v>45824.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>36.215</v>
+        <v>18.06</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2377,19 +2431,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45820.71875</v>
+        <v>45824.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C71">
-        <v>27.323</v>
+        <v>7.471</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2400,19 +2454,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45820.72916666666</v>
+        <v>45824.72916666666</v>
       </c>
       <c r="B72">
-        <v>15.006</v>
+        <v>5.06</v>
       </c>
       <c r="C72">
-        <v>0.165</v>
+        <v>0.045</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2423,10 +2477,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45820.73958333334</v>
+        <v>45824.73958333334</v>
       </c>
       <c r="B73">
-        <v>25.581</v>
+        <v>25.885</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2435,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2446,19 +2500,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45820.75</v>
+        <v>45824.75</v>
       </c>
       <c r="B74">
-        <v>1.234</v>
+        <v>0.014</v>
       </c>
       <c r="C74">
-        <v>3.677</v>
+        <v>4.348</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="F74">
         <v>73</v>
@@ -2469,19 +2523,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45820.76041666666</v>
+        <v>45824.76041666666</v>
       </c>
       <c r="B75">
-        <v>4.132</v>
+        <v>6.997</v>
       </c>
       <c r="C75">
-        <v>0.771</v>
+        <v>0.021</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="F75">
         <v>74</v>
@@ -2492,10 +2546,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45820.77083333334</v>
+        <v>45824.77083333334</v>
       </c>
       <c r="B76">
-        <v>25.25</v>
+        <v>8.648</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2504,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>75</v>
@@ -2515,10 +2569,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45820.78125</v>
+        <v>45824.78125</v>
       </c>
       <c r="B77">
-        <v>47.131</v>
+        <v>41.177</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2527,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>76</v>
@@ -2538,19 +2592,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45820.79166666666</v>
+        <v>45824.79166666666</v>
       </c>
       <c r="B78">
-        <v>9.516999999999999</v>
+        <v>1.845</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>23.092</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E78">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>77</v>
@@ -2561,19 +2615,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45820.80208333334</v>
+        <v>45824.80208333334</v>
       </c>
       <c r="B79">
-        <v>12.514</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>25.945</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E79">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -2584,19 +2638,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45820.8125</v>
+        <v>45824.8125</v>
       </c>
       <c r="B80">
-        <v>33.433</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>20.639</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E80">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2607,16 +2661,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45820.82291666666</v>
+        <v>45824.82291666666</v>
       </c>
       <c r="B81">
-        <v>41.818</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>17.646</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2630,13 +2684,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45820.83333333334</v>
+        <v>45824.83333333334</v>
       </c>
       <c r="B82">
-        <v>16.113</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>2.439</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2653,13 +2707,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45820.84375</v>
+        <v>45824.84375</v>
       </c>
       <c r="B83">
-        <v>14.945</v>
+        <v>0.78</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.299</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2676,13 +2730,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45820.85416666666</v>
+        <v>45824.85416666666</v>
       </c>
       <c r="B84">
-        <v>18.084</v>
+        <v>0.23</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2699,13 +2753,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45820.86458333334</v>
+        <v>45824.86458333334</v>
       </c>
       <c r="B85">
-        <v>1.2</v>
+        <v>0.165</v>
       </c>
       <c r="C85">
-        <v>0.063</v>
+        <v>0.271</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2722,10 +2776,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45820.875</v>
+        <v>45824.875</v>
       </c>
       <c r="B86">
-        <v>49.188</v>
+        <v>14.526</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2745,10 +2799,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45820.88541666666</v>
+        <v>45824.88541666666</v>
       </c>
       <c r="B87">
-        <v>23.695</v>
+        <v>18.358</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2768,13 +2822,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45820.89583333334</v>
+        <v>45824.89583333334</v>
       </c>
       <c r="B88">
-        <v>5.753</v>
+        <v>0.509</v>
       </c>
       <c r="C88">
-        <v>6.477</v>
+        <v>8.779</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2791,13 +2845,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45820.90625</v>
+        <v>45824.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>13.185</v>
+        <v>36.217</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2814,13 +2868,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45820.91666666666</v>
+        <v>45824.91666666666</v>
       </c>
       <c r="B90">
-        <v>31.979</v>
+        <v>14.08</v>
       </c>
       <c r="C90">
-        <v>0.832</v>
+        <v>4.186</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2837,13 +2891,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45820.92708333334</v>
+        <v>45824.92708333334</v>
       </c>
       <c r="B91">
-        <v>36.594</v>
+        <v>6.621</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2860,13 +2914,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45820.9375</v>
+        <v>45824.9375</v>
       </c>
       <c r="B92">
-        <v>5.54</v>
+        <v>0.056</v>
       </c>
       <c r="C92">
-        <v>0.005</v>
+        <v>0.381</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2883,13 +2937,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45820.94791666666</v>
+        <v>45824.94791666666</v>
       </c>
       <c r="B93">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>4.874</v>
+        <v>12.854</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2906,13 +2960,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45820.95833333334</v>
+        <v>45824.95833333334</v>
       </c>
       <c r="B94">
-        <v>17.311</v>
+        <v>1.773</v>
       </c>
       <c r="C94">
-        <v>0.479</v>
+        <v>0.605</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2929,13 +2983,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45820.96875</v>
+        <v>45824.96875</v>
       </c>
       <c r="B95">
-        <v>6.87</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>2.243</v>
+        <v>0.266</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2952,13 +3006,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45820.97916666666</v>
+        <v>45824.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>7.841</v>
+        <v>5.771</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2975,13 +3029,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45820.98958333334</v>
+        <v>45824.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>27.447</v>
+        <v>16.337</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2998,13 +3052,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B98">
-        <v>0.008</v>
+        <v>0.996</v>
       </c>
       <c r="C98">
-        <v>5.04</v>
+        <v>13.346</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3021,13 +3075,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B99">
-        <v>0.008</v>
+        <v>0.996</v>
       </c>
       <c r="C99">
-        <v>5.04</v>
+        <v>13.346</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3044,13 +3098,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B100">
-        <v>0.992</v>
+        <v>2.638</v>
       </c>
       <c r="C100">
-        <v>0.008999999999999999</v>
+        <v>0.351</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3067,13 +3121,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B101">
-        <v>0.992</v>
+        <v>2.638</v>
       </c>
       <c r="C101">
-        <v>0.008999999999999999</v>
+        <v>0.351</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3090,13 +3144,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B102">
-        <v>0.504</v>
+        <v>0.004</v>
       </c>
       <c r="C102">
-        <v>0.115</v>
+        <v>0.188</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3113,13 +3167,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B103">
-        <v>0.504</v>
+        <v>0.004</v>
       </c>
       <c r="C103">
-        <v>0.115</v>
+        <v>0.188</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3136,13 +3190,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="C104">
-        <v>0.532</v>
+        <v>0.954</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3159,13 +3213,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="C105">
-        <v>0.532</v>
+        <v>0.954</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3182,10 +3236,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B106">
-        <v>14.178</v>
+        <v>17.931</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3205,10 +3259,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B107">
-        <v>14.178</v>
+        <v>17.931</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3228,10 +3282,10 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B108">
-        <v>10.067</v>
+        <v>22.926</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3251,10 +3305,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B109">
-        <v>10.067</v>
+        <v>22.926</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3274,10 +3328,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B110">
-        <v>7.007</v>
+        <v>14.74</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3297,10 +3351,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B111">
-        <v>7.007</v>
+        <v>14.74</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3320,13 +3374,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B112">
-        <v>3.199</v>
+        <v>6.53</v>
       </c>
       <c r="C112">
-        <v>0.055</v>
+        <v>0.005</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3343,13 +3397,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B113">
-        <v>3.199</v>
+        <v>6.53</v>
       </c>
       <c r="C113">
-        <v>0.055</v>
+        <v>0.005</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3366,13 +3420,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B114">
-        <v>2.623</v>
+        <v>22.223</v>
       </c>
       <c r="C114">
-        <v>0.316</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3389,13 +3443,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B115">
-        <v>5.656</v>
+        <v>36.314</v>
       </c>
       <c r="C115">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3412,13 +3466,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B116">
-        <v>0.944</v>
+        <v>28.288</v>
       </c>
       <c r="C116">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3435,13 +3489,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B117">
-        <v>0.08</v>
+        <v>6.595</v>
       </c>
       <c r="C117">
-        <v>0.788</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3458,13 +3512,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B118">
-        <v>1.265</v>
+        <v>6.08</v>
       </c>
       <c r="C118">
-        <v>1.417</v>
+        <v>0.049</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3481,13 +3535,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B119">
-        <v>1.659</v>
+        <v>0.068</v>
       </c>
       <c r="C119">
-        <v>0.112</v>
+        <v>0.058</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3504,10 +3558,10 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B120">
-        <v>9.869</v>
+        <v>2.599</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3527,10 +3581,10 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B121">
-        <v>1.829</v>
+        <v>6.658</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3550,10 +3604,10 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B122">
-        <v>4.845</v>
+        <v>3.082</v>
       </c>
       <c r="C122">
         <v>0.006</v>
@@ -3573,13 +3627,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B123">
-        <v>9.103</v>
+        <v>1.287</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3596,13 +3650,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B124">
-        <v>0.716</v>
+        <v>0.367</v>
       </c>
       <c r="C124">
-        <v>0.053</v>
+        <v>0.028</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3619,13 +3673,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B125">
-        <v>1.588</v>
+        <v>8.552</v>
       </c>
       <c r="C125">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3642,13 +3696,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B126">
-        <v>13.298</v>
+        <v>26.247</v>
       </c>
       <c r="C126">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3665,13 +3719,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B127">
-        <v>0.432</v>
+        <v>21.614</v>
       </c>
       <c r="C127">
-        <v>2.747</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3688,13 +3742,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B128">
-        <v>3.484</v>
+        <v>9.31</v>
       </c>
       <c r="C128">
-        <v>0.616</v>
+        <v>0.024</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3711,13 +3765,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B129">
-        <v>2.889</v>
+        <v>0.096</v>
       </c>
       <c r="C129">
-        <v>0.099</v>
+        <v>1.578</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3734,13 +3788,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B130">
-        <v>0.02</v>
+        <v>1.354</v>
       </c>
       <c r="C130">
-        <v>8.782</v>
+        <v>1.122</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3753,6 +3807,420 @@
       </c>
       <c r="G130" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2">
+        <v>45825.26041666666</v>
+      </c>
+      <c r="B131">
+        <v>0.756</v>
+      </c>
+      <c r="C131">
+        <v>1.697</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2">
+        <v>45825.27083333334</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>5.716</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
+        <v>45825.28125</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>13.172</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
+        <v>45825.29166666666</v>
+      </c>
+      <c r="B134">
+        <v>0.013</v>
+      </c>
+      <c r="C134">
+        <v>7.084</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
+        <v>45825.30208333334</v>
+      </c>
+      <c r="B135">
+        <v>0.032</v>
+      </c>
+      <c r="C135">
+        <v>1.957</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>30</v>
+      </c>
+      <c r="G135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>45825.3125</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>12.12</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45825.32291666666</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>18.498</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>45825.33333333334</v>
+      </c>
+      <c r="B138">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="C138">
+        <v>0.887</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>45825.34375</v>
+      </c>
+      <c r="B139">
+        <v>1.405</v>
+      </c>
+      <c r="C139">
+        <v>2.423</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>45825.35416666666</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>7.036</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>45825.36458333334</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>26.945</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>45825.375</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>12.903</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>45825.38541666666</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>26.154</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45825.39583333334</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>44.753</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45825.40625</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>35.166</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>28</v>
+      </c>
+      <c r="F145">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45825.41666666666</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>17.657</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>34.75</v>
+      </c>
+      <c r="F146">
+        <v>41</v>
+      </c>
+      <c r="G146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45825.42708333334</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>50</v>
+      </c>
+      <c r="F147">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>45825.4375</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>50</v>
+      </c>
+      <c r="F148">
+        <v>43</v>
+      </c>
+      <c r="G148" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="343">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,294 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>16.06.20251</t>
-  </si>
-  <si>
-    <t>16.06.20252</t>
-  </si>
-  <si>
-    <t>16.06.20253</t>
-  </si>
-  <si>
-    <t>16.06.20254</t>
-  </si>
-  <si>
-    <t>16.06.20255</t>
-  </si>
-  <si>
-    <t>16.06.20256</t>
-  </si>
-  <si>
-    <t>16.06.20257</t>
-  </si>
-  <si>
-    <t>16.06.20258</t>
-  </si>
-  <si>
-    <t>16.06.20259</t>
-  </si>
-  <si>
-    <t>16.06.202510</t>
-  </si>
-  <si>
-    <t>16.06.202511</t>
-  </si>
-  <si>
-    <t>16.06.202512</t>
-  </si>
-  <si>
-    <t>16.06.202513</t>
-  </si>
-  <si>
-    <t>16.06.202514</t>
-  </si>
-  <si>
-    <t>16.06.202515</t>
-  </si>
-  <si>
-    <t>16.06.202516</t>
-  </si>
-  <si>
-    <t>16.06.202517</t>
-  </si>
-  <si>
-    <t>16.06.202518</t>
-  </si>
-  <si>
-    <t>16.06.202519</t>
-  </si>
-  <si>
-    <t>16.06.202520</t>
-  </si>
-  <si>
-    <t>16.06.202521</t>
-  </si>
-  <si>
-    <t>16.06.202522</t>
-  </si>
-  <si>
-    <t>16.06.202523</t>
-  </si>
-  <si>
-    <t>16.06.202524</t>
-  </si>
-  <si>
-    <t>16.06.202525</t>
-  </si>
-  <si>
-    <t>16.06.202526</t>
-  </si>
-  <si>
-    <t>16.06.202527</t>
-  </si>
-  <si>
-    <t>16.06.202528</t>
-  </si>
-  <si>
-    <t>16.06.202529</t>
-  </si>
-  <si>
-    <t>16.06.202530</t>
-  </si>
-  <si>
-    <t>16.06.202531</t>
-  </si>
-  <si>
-    <t>16.06.202532</t>
-  </si>
-  <si>
-    <t>16.06.202533</t>
-  </si>
-  <si>
-    <t>16.06.202534</t>
-  </si>
-  <si>
-    <t>16.06.202535</t>
-  </si>
-  <si>
-    <t>16.06.202536</t>
-  </si>
-  <si>
-    <t>16.06.202537</t>
-  </si>
-  <si>
-    <t>16.06.202538</t>
-  </si>
-  <si>
-    <t>16.06.202539</t>
-  </si>
-  <si>
-    <t>16.06.202540</t>
-  </si>
-  <si>
-    <t>16.06.202541</t>
-  </si>
-  <si>
-    <t>16.06.202542</t>
-  </si>
-  <si>
-    <t>16.06.202543</t>
-  </si>
-  <si>
-    <t>16.06.202544</t>
-  </si>
-  <si>
-    <t>16.06.202545</t>
-  </si>
-  <si>
-    <t>16.06.202546</t>
-  </si>
-  <si>
-    <t>16.06.202547</t>
-  </si>
-  <si>
-    <t>16.06.202548</t>
-  </si>
-  <si>
-    <t>16.06.202549</t>
-  </si>
-  <si>
-    <t>16.06.202550</t>
-  </si>
-  <si>
-    <t>16.06.202551</t>
-  </si>
-  <si>
-    <t>16.06.202552</t>
-  </si>
-  <si>
-    <t>16.06.202553</t>
-  </si>
-  <si>
-    <t>16.06.202554</t>
-  </si>
-  <si>
-    <t>16.06.202555</t>
-  </si>
-  <si>
-    <t>16.06.202556</t>
-  </si>
-  <si>
-    <t>16.06.202557</t>
-  </si>
-  <si>
-    <t>16.06.202558</t>
-  </si>
-  <si>
-    <t>16.06.202559</t>
-  </si>
-  <si>
-    <t>16.06.202560</t>
-  </si>
-  <si>
-    <t>16.06.202561</t>
-  </si>
-  <si>
-    <t>16.06.202562</t>
-  </si>
-  <si>
-    <t>16.06.202563</t>
-  </si>
-  <si>
-    <t>16.06.202564</t>
-  </si>
-  <si>
-    <t>16.06.202565</t>
-  </si>
-  <si>
-    <t>16.06.202566</t>
-  </si>
-  <si>
-    <t>16.06.202567</t>
-  </si>
-  <si>
-    <t>16.06.202568</t>
-  </si>
-  <si>
-    <t>16.06.202569</t>
-  </si>
-  <si>
-    <t>16.06.202570</t>
-  </si>
-  <si>
-    <t>16.06.202571</t>
-  </si>
-  <si>
-    <t>16.06.202572</t>
-  </si>
-  <si>
-    <t>16.06.202573</t>
-  </si>
-  <si>
-    <t>16.06.202574</t>
-  </si>
-  <si>
-    <t>16.06.202575</t>
-  </si>
-  <si>
-    <t>16.06.202576</t>
-  </si>
-  <si>
-    <t>16.06.202577</t>
-  </si>
-  <si>
-    <t>16.06.202578</t>
-  </si>
-  <si>
-    <t>16.06.202579</t>
-  </si>
-  <si>
-    <t>16.06.202580</t>
-  </si>
-  <si>
-    <t>16.06.202581</t>
-  </si>
-  <si>
-    <t>16.06.202582</t>
-  </si>
-  <si>
-    <t>16.06.202583</t>
-  </si>
-  <si>
-    <t>16.06.202584</t>
-  </si>
-  <si>
-    <t>16.06.202585</t>
-  </si>
-  <si>
-    <t>16.06.202586</t>
-  </si>
-  <si>
-    <t>16.06.202587</t>
-  </si>
-  <si>
-    <t>16.06.202588</t>
-  </si>
-  <si>
-    <t>16.06.202589</t>
-  </si>
-  <si>
-    <t>16.06.202590</t>
-  </si>
-  <si>
-    <t>16.06.202591</t>
-  </si>
-  <si>
-    <t>16.06.202592</t>
-  </si>
-  <si>
-    <t>16.06.202593</t>
-  </si>
-  <si>
-    <t>16.06.202594</t>
-  </si>
-  <si>
-    <t>16.06.202595</t>
-  </si>
-  <si>
-    <t>16.06.202596</t>
-  </si>
-  <si>
     <t>17.06.20251</t>
   </si>
   <si>
@@ -452,6 +164,885 @@
   </si>
   <si>
     <t>17.06.202543</t>
+  </si>
+  <si>
+    <t>17.06.202544</t>
+  </si>
+  <si>
+    <t>17.06.202545</t>
+  </si>
+  <si>
+    <t>17.06.202546</t>
+  </si>
+  <si>
+    <t>17.06.202547</t>
+  </si>
+  <si>
+    <t>17.06.202548</t>
+  </si>
+  <si>
+    <t>17.06.202549</t>
+  </si>
+  <si>
+    <t>17.06.202550</t>
+  </si>
+  <si>
+    <t>17.06.202551</t>
+  </si>
+  <si>
+    <t>17.06.202552</t>
+  </si>
+  <si>
+    <t>17.06.202553</t>
+  </si>
+  <si>
+    <t>17.06.202554</t>
+  </si>
+  <si>
+    <t>17.06.202555</t>
+  </si>
+  <si>
+    <t>17.06.202556</t>
+  </si>
+  <si>
+    <t>17.06.202557</t>
+  </si>
+  <si>
+    <t>17.06.202558</t>
+  </si>
+  <si>
+    <t>17.06.202559</t>
+  </si>
+  <si>
+    <t>17.06.202560</t>
+  </si>
+  <si>
+    <t>17.06.202561</t>
+  </si>
+  <si>
+    <t>17.06.202562</t>
+  </si>
+  <si>
+    <t>17.06.202563</t>
+  </si>
+  <si>
+    <t>17.06.202564</t>
+  </si>
+  <si>
+    <t>17.06.202565</t>
+  </si>
+  <si>
+    <t>17.06.202566</t>
+  </si>
+  <si>
+    <t>17.06.202567</t>
+  </si>
+  <si>
+    <t>17.06.202568</t>
+  </si>
+  <si>
+    <t>17.06.202569</t>
+  </si>
+  <si>
+    <t>17.06.202570</t>
+  </si>
+  <si>
+    <t>17.06.202571</t>
+  </si>
+  <si>
+    <t>17.06.202572</t>
+  </si>
+  <si>
+    <t>17.06.202573</t>
+  </si>
+  <si>
+    <t>17.06.202574</t>
+  </si>
+  <si>
+    <t>17.06.202575</t>
+  </si>
+  <si>
+    <t>17.06.202576</t>
+  </si>
+  <si>
+    <t>17.06.202577</t>
+  </si>
+  <si>
+    <t>17.06.202578</t>
+  </si>
+  <si>
+    <t>17.06.202579</t>
+  </si>
+  <si>
+    <t>17.06.202580</t>
+  </si>
+  <si>
+    <t>17.06.202581</t>
+  </si>
+  <si>
+    <t>17.06.202582</t>
+  </si>
+  <si>
+    <t>17.06.202583</t>
+  </si>
+  <si>
+    <t>17.06.202584</t>
+  </si>
+  <si>
+    <t>17.06.202585</t>
+  </si>
+  <si>
+    <t>17.06.202586</t>
+  </si>
+  <si>
+    <t>17.06.202587</t>
+  </si>
+  <si>
+    <t>17.06.202588</t>
+  </si>
+  <si>
+    <t>17.06.202589</t>
+  </si>
+  <si>
+    <t>17.06.202590</t>
+  </si>
+  <si>
+    <t>17.06.202591</t>
+  </si>
+  <si>
+    <t>17.06.202592</t>
+  </si>
+  <si>
+    <t>17.06.202593</t>
+  </si>
+  <si>
+    <t>17.06.202594</t>
+  </si>
+  <si>
+    <t>17.06.202595</t>
+  </si>
+  <si>
+    <t>17.06.202596</t>
+  </si>
+  <si>
+    <t>18.06.20251</t>
+  </si>
+  <si>
+    <t>18.06.20252</t>
+  </si>
+  <si>
+    <t>18.06.20253</t>
+  </si>
+  <si>
+    <t>18.06.20254</t>
+  </si>
+  <si>
+    <t>18.06.20255</t>
+  </si>
+  <si>
+    <t>18.06.20256</t>
+  </si>
+  <si>
+    <t>18.06.20257</t>
+  </si>
+  <si>
+    <t>18.06.20258</t>
+  </si>
+  <si>
+    <t>18.06.20259</t>
+  </si>
+  <si>
+    <t>18.06.202510</t>
+  </si>
+  <si>
+    <t>18.06.202511</t>
+  </si>
+  <si>
+    <t>18.06.202512</t>
+  </si>
+  <si>
+    <t>18.06.202513</t>
+  </si>
+  <si>
+    <t>18.06.202514</t>
+  </si>
+  <si>
+    <t>18.06.202515</t>
+  </si>
+  <si>
+    <t>18.06.202516</t>
+  </si>
+  <si>
+    <t>18.06.202517</t>
+  </si>
+  <si>
+    <t>18.06.202518</t>
+  </si>
+  <si>
+    <t>18.06.202519</t>
+  </si>
+  <si>
+    <t>18.06.202520</t>
+  </si>
+  <si>
+    <t>18.06.202521</t>
+  </si>
+  <si>
+    <t>18.06.202522</t>
+  </si>
+  <si>
+    <t>18.06.202523</t>
+  </si>
+  <si>
+    <t>18.06.202524</t>
+  </si>
+  <si>
+    <t>18.06.202525</t>
+  </si>
+  <si>
+    <t>18.06.202526</t>
+  </si>
+  <si>
+    <t>18.06.202527</t>
+  </si>
+  <si>
+    <t>18.06.202528</t>
+  </si>
+  <si>
+    <t>18.06.202529</t>
+  </si>
+  <si>
+    <t>18.06.202530</t>
+  </si>
+  <si>
+    <t>18.06.202531</t>
+  </si>
+  <si>
+    <t>18.06.202532</t>
+  </si>
+  <si>
+    <t>18.06.202533</t>
+  </si>
+  <si>
+    <t>18.06.202534</t>
+  </si>
+  <si>
+    <t>18.06.202535</t>
+  </si>
+  <si>
+    <t>18.06.202536</t>
+  </si>
+  <si>
+    <t>18.06.202537</t>
+  </si>
+  <si>
+    <t>18.06.202538</t>
+  </si>
+  <si>
+    <t>18.06.202539</t>
+  </si>
+  <si>
+    <t>18.06.202540</t>
+  </si>
+  <si>
+    <t>18.06.202541</t>
+  </si>
+  <si>
+    <t>18.06.202542</t>
+  </si>
+  <si>
+    <t>18.06.202543</t>
+  </si>
+  <si>
+    <t>18.06.202544</t>
+  </si>
+  <si>
+    <t>18.06.202545</t>
+  </si>
+  <si>
+    <t>18.06.202546</t>
+  </si>
+  <si>
+    <t>18.06.202547</t>
+  </si>
+  <si>
+    <t>18.06.202548</t>
+  </si>
+  <si>
+    <t>18.06.202549</t>
+  </si>
+  <si>
+    <t>18.06.202550</t>
+  </si>
+  <si>
+    <t>18.06.202551</t>
+  </si>
+  <si>
+    <t>18.06.202552</t>
+  </si>
+  <si>
+    <t>18.06.202553</t>
+  </si>
+  <si>
+    <t>18.06.202554</t>
+  </si>
+  <si>
+    <t>18.06.202555</t>
+  </si>
+  <si>
+    <t>18.06.202556</t>
+  </si>
+  <si>
+    <t>18.06.202557</t>
+  </si>
+  <si>
+    <t>18.06.202558</t>
+  </si>
+  <si>
+    <t>18.06.202559</t>
+  </si>
+  <si>
+    <t>18.06.202560</t>
+  </si>
+  <si>
+    <t>18.06.202561</t>
+  </si>
+  <si>
+    <t>18.06.202562</t>
+  </si>
+  <si>
+    <t>18.06.202563</t>
+  </si>
+  <si>
+    <t>18.06.202564</t>
+  </si>
+  <si>
+    <t>18.06.202565</t>
+  </si>
+  <si>
+    <t>18.06.202566</t>
+  </si>
+  <si>
+    <t>18.06.202567</t>
+  </si>
+  <si>
+    <t>18.06.202568</t>
+  </si>
+  <si>
+    <t>18.06.202569</t>
+  </si>
+  <si>
+    <t>18.06.202570</t>
+  </si>
+  <si>
+    <t>18.06.202571</t>
+  </si>
+  <si>
+    <t>18.06.202572</t>
+  </si>
+  <si>
+    <t>18.06.202573</t>
+  </si>
+  <si>
+    <t>18.06.202574</t>
+  </si>
+  <si>
+    <t>18.06.202575</t>
+  </si>
+  <si>
+    <t>18.06.202576</t>
+  </si>
+  <si>
+    <t>18.06.202577</t>
+  </si>
+  <si>
+    <t>18.06.202578</t>
+  </si>
+  <si>
+    <t>18.06.202579</t>
+  </si>
+  <si>
+    <t>18.06.202580</t>
+  </si>
+  <si>
+    <t>18.06.202581</t>
+  </si>
+  <si>
+    <t>18.06.202582</t>
+  </si>
+  <si>
+    <t>18.06.202583</t>
+  </si>
+  <si>
+    <t>18.06.202584</t>
+  </si>
+  <si>
+    <t>18.06.202585</t>
+  </si>
+  <si>
+    <t>18.06.202586</t>
+  </si>
+  <si>
+    <t>18.06.202587</t>
+  </si>
+  <si>
+    <t>18.06.202588</t>
+  </si>
+  <si>
+    <t>18.06.202589</t>
+  </si>
+  <si>
+    <t>18.06.202590</t>
+  </si>
+  <si>
+    <t>18.06.202591</t>
+  </si>
+  <si>
+    <t>18.06.202592</t>
+  </si>
+  <si>
+    <t>18.06.202593</t>
+  </si>
+  <si>
+    <t>18.06.202594</t>
+  </si>
+  <si>
+    <t>18.06.202595</t>
+  </si>
+  <si>
+    <t>18.06.202596</t>
+  </si>
+  <si>
+    <t>19.06.20251</t>
+  </si>
+  <si>
+    <t>19.06.20252</t>
+  </si>
+  <si>
+    <t>19.06.20253</t>
+  </si>
+  <si>
+    <t>19.06.20254</t>
+  </si>
+  <si>
+    <t>19.06.20255</t>
+  </si>
+  <si>
+    <t>19.06.20256</t>
+  </si>
+  <si>
+    <t>19.06.20257</t>
+  </si>
+  <si>
+    <t>19.06.20258</t>
+  </si>
+  <si>
+    <t>19.06.20259</t>
+  </si>
+  <si>
+    <t>19.06.202510</t>
+  </si>
+  <si>
+    <t>19.06.202511</t>
+  </si>
+  <si>
+    <t>19.06.202512</t>
+  </si>
+  <si>
+    <t>19.06.202513</t>
+  </si>
+  <si>
+    <t>19.06.202514</t>
+  </si>
+  <si>
+    <t>19.06.202515</t>
+  </si>
+  <si>
+    <t>19.06.202516</t>
+  </si>
+  <si>
+    <t>19.06.202517</t>
+  </si>
+  <si>
+    <t>19.06.202518</t>
+  </si>
+  <si>
+    <t>19.06.202519</t>
+  </si>
+  <si>
+    <t>19.06.202520</t>
+  </si>
+  <si>
+    <t>19.06.202521</t>
+  </si>
+  <si>
+    <t>19.06.202522</t>
+  </si>
+  <si>
+    <t>19.06.202523</t>
+  </si>
+  <si>
+    <t>19.06.202524</t>
+  </si>
+  <si>
+    <t>19.06.202525</t>
+  </si>
+  <si>
+    <t>19.06.202526</t>
+  </si>
+  <si>
+    <t>19.06.202527</t>
+  </si>
+  <si>
+    <t>19.06.202528</t>
+  </si>
+  <si>
+    <t>19.06.202529</t>
+  </si>
+  <si>
+    <t>19.06.202530</t>
+  </si>
+  <si>
+    <t>19.06.202531</t>
+  </si>
+  <si>
+    <t>19.06.202532</t>
+  </si>
+  <si>
+    <t>19.06.202533</t>
+  </si>
+  <si>
+    <t>19.06.202534</t>
+  </si>
+  <si>
+    <t>19.06.202535</t>
+  </si>
+  <si>
+    <t>19.06.202536</t>
+  </si>
+  <si>
+    <t>19.06.202537</t>
+  </si>
+  <si>
+    <t>19.06.202538</t>
+  </si>
+  <si>
+    <t>19.06.202539</t>
+  </si>
+  <si>
+    <t>19.06.202540</t>
+  </si>
+  <si>
+    <t>19.06.202541</t>
+  </si>
+  <si>
+    <t>19.06.202542</t>
+  </si>
+  <si>
+    <t>19.06.202543</t>
+  </si>
+  <si>
+    <t>19.06.202544</t>
+  </si>
+  <si>
+    <t>19.06.202545</t>
+  </si>
+  <si>
+    <t>19.06.202546</t>
+  </si>
+  <si>
+    <t>19.06.202547</t>
+  </si>
+  <si>
+    <t>19.06.202548</t>
+  </si>
+  <si>
+    <t>19.06.202549</t>
+  </si>
+  <si>
+    <t>19.06.202550</t>
+  </si>
+  <si>
+    <t>19.06.202551</t>
+  </si>
+  <si>
+    <t>19.06.202552</t>
+  </si>
+  <si>
+    <t>19.06.202553</t>
+  </si>
+  <si>
+    <t>19.06.202554</t>
+  </si>
+  <si>
+    <t>19.06.202555</t>
+  </si>
+  <si>
+    <t>19.06.202556</t>
+  </si>
+  <si>
+    <t>19.06.202557</t>
+  </si>
+  <si>
+    <t>19.06.202558</t>
+  </si>
+  <si>
+    <t>19.06.202559</t>
+  </si>
+  <si>
+    <t>19.06.202560</t>
+  </si>
+  <si>
+    <t>19.06.202561</t>
+  </si>
+  <si>
+    <t>19.06.202562</t>
+  </si>
+  <si>
+    <t>19.06.202563</t>
+  </si>
+  <si>
+    <t>19.06.202564</t>
+  </si>
+  <si>
+    <t>19.06.202565</t>
+  </si>
+  <si>
+    <t>19.06.202566</t>
+  </si>
+  <si>
+    <t>19.06.202567</t>
+  </si>
+  <si>
+    <t>19.06.202568</t>
+  </si>
+  <si>
+    <t>19.06.202569</t>
+  </si>
+  <si>
+    <t>19.06.202570</t>
+  </si>
+  <si>
+    <t>19.06.202571</t>
+  </si>
+  <si>
+    <t>19.06.202572</t>
+  </si>
+  <si>
+    <t>19.06.202573</t>
+  </si>
+  <si>
+    <t>19.06.202574</t>
+  </si>
+  <si>
+    <t>19.06.202575</t>
+  </si>
+  <si>
+    <t>19.06.202576</t>
+  </si>
+  <si>
+    <t>19.06.202577</t>
+  </si>
+  <si>
+    <t>19.06.202578</t>
+  </si>
+  <si>
+    <t>19.06.202579</t>
+  </si>
+  <si>
+    <t>19.06.202580</t>
+  </si>
+  <si>
+    <t>19.06.202581</t>
+  </si>
+  <si>
+    <t>19.06.202582</t>
+  </si>
+  <si>
+    <t>19.06.202583</t>
+  </si>
+  <si>
+    <t>19.06.202584</t>
+  </si>
+  <si>
+    <t>19.06.202585</t>
+  </si>
+  <si>
+    <t>19.06.202586</t>
+  </si>
+  <si>
+    <t>19.06.202587</t>
+  </si>
+  <si>
+    <t>19.06.202588</t>
+  </si>
+  <si>
+    <t>19.06.202589</t>
+  </si>
+  <si>
+    <t>19.06.202590</t>
+  </si>
+  <si>
+    <t>19.06.202591</t>
+  </si>
+  <si>
+    <t>19.06.202592</t>
+  </si>
+  <si>
+    <t>19.06.202593</t>
+  </si>
+  <si>
+    <t>19.06.202594</t>
+  </si>
+  <si>
+    <t>19.06.202595</t>
+  </si>
+  <si>
+    <t>19.06.202596</t>
+  </si>
+  <si>
+    <t>20.06.20251</t>
+  </si>
+  <si>
+    <t>20.06.20252</t>
+  </si>
+  <si>
+    <t>20.06.20253</t>
+  </si>
+  <si>
+    <t>20.06.20254</t>
+  </si>
+  <si>
+    <t>20.06.20255</t>
+  </si>
+  <si>
+    <t>20.06.20256</t>
+  </si>
+  <si>
+    <t>20.06.20257</t>
+  </si>
+  <si>
+    <t>20.06.20258</t>
+  </si>
+  <si>
+    <t>20.06.20259</t>
+  </si>
+  <si>
+    <t>20.06.202510</t>
+  </si>
+  <si>
+    <t>20.06.202511</t>
+  </si>
+  <si>
+    <t>20.06.202512</t>
+  </si>
+  <si>
+    <t>20.06.202513</t>
+  </si>
+  <si>
+    <t>20.06.202514</t>
+  </si>
+  <si>
+    <t>20.06.202515</t>
+  </si>
+  <si>
+    <t>20.06.202516</t>
+  </si>
+  <si>
+    <t>20.06.202517</t>
+  </si>
+  <si>
+    <t>20.06.202518</t>
+  </si>
+  <si>
+    <t>20.06.202519</t>
+  </si>
+  <si>
+    <t>20.06.202520</t>
+  </si>
+  <si>
+    <t>20.06.202521</t>
+  </si>
+  <si>
+    <t>20.06.202522</t>
+  </si>
+  <si>
+    <t>20.06.202523</t>
+  </si>
+  <si>
+    <t>20.06.202524</t>
+  </si>
+  <si>
+    <t>20.06.202525</t>
+  </si>
+  <si>
+    <t>20.06.202526</t>
+  </si>
+  <si>
+    <t>20.06.202527</t>
+  </si>
+  <si>
+    <t>20.06.202528</t>
+  </si>
+  <si>
+    <t>20.06.202529</t>
+  </si>
+  <si>
+    <t>20.06.202530</t>
+  </si>
+  <si>
+    <t>20.06.202531</t>
+  </si>
+  <si>
+    <t>20.06.202532</t>
+  </si>
+  <si>
+    <t>20.06.202533</t>
+  </si>
+  <si>
+    <t>20.06.202534</t>
+  </si>
+  <si>
+    <t>20.06.202535</t>
+  </si>
+  <si>
+    <t>20.06.202536</t>
+  </si>
+  <si>
+    <t>20.06.202537</t>
+  </si>
+  <si>
+    <t>20.06.202538</t>
+  </si>
+  <si>
+    <t>20.06.202539</t>
+  </si>
+  <si>
+    <t>20.06.202540</t>
+  </si>
+  <si>
+    <t>20.06.202541</t>
+  </si>
+  <si>
+    <t>20.06.202542</t>
+  </si>
+  <si>
+    <t>20.06.202543</t>
+  </si>
+  <si>
+    <t>20.06.202544</t>
+  </si>
+  <si>
+    <t>20.06.202545</t>
+  </si>
+  <si>
+    <t>20.06.202546</t>
+  </si>
+  <si>
+    <t>20.06.202547</t>
+  </si>
+  <si>
+    <t>20.06.202548</t>
   </si>
 </sst>
 </file>
@@ -813,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,13 +1435,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B2">
-        <v>21.575</v>
+        <v>0.996</v>
       </c>
       <c r="C2">
-        <v>0.108</v>
+        <v>13.346</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -867,13 +1458,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45824.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B3">
-        <v>12.287</v>
+        <v>2.638</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.351</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -890,13 +1481,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45824.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.07199999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="C4">
-        <v>5.529</v>
+        <v>0.188</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -913,13 +1504,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45824.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="C5">
-        <v>15.971</v>
+        <v>0.954</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -936,13 +1527,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45824.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>17.931</v>
       </c>
       <c r="C6">
-        <v>2.045</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -959,13 +1550,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45824.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>22.926</v>
       </c>
       <c r="C7">
-        <v>7.947</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -982,13 +1573,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45824.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>14.74</v>
       </c>
       <c r="C8">
-        <v>31.699</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1005,13 +1596,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45824.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6.53</v>
       </c>
       <c r="C9">
-        <v>28.611</v>
+        <v>0.005</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1028,13 +1619,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45824.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>22.223</v>
       </c>
       <c r="C10">
-        <v>30.953</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1051,13 +1642,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45824.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>36.314</v>
       </c>
       <c r="C11">
-        <v>37.612</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1074,13 +1665,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45824.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>28.288</v>
       </c>
       <c r="C12">
-        <v>35.167</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1097,13 +1688,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45824.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6.595</v>
       </c>
       <c r="C13">
-        <v>25.511</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1120,13 +1711,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45824.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="C14">
-        <v>13.225</v>
+        <v>0.049</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1143,13 +1734,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45824.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="C15">
-        <v>9.154</v>
+        <v>0.058</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1166,13 +1757,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45824.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.599</v>
       </c>
       <c r="C16">
-        <v>20.599</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1189,13 +1780,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45824.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6.658</v>
       </c>
       <c r="C17">
-        <v>2.847</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1212,13 +1803,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45824.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.082</v>
       </c>
       <c r="C18">
-        <v>0.362</v>
+        <v>0.006</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1235,13 +1826,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45824.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.052</v>
+        <v>1.287</v>
       </c>
       <c r="C19">
-        <v>0.178</v>
+        <v>0.007</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1258,13 +1849,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45824.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B20">
-        <v>0.18</v>
+        <v>0.367</v>
       </c>
       <c r="C20">
-        <v>0.054</v>
+        <v>0.028</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1281,13 +1872,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45824.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.08799999999999999</v>
+        <v>8.552</v>
       </c>
       <c r="C21">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1304,13 +1895,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45824.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.108</v>
+        <v>26.247</v>
       </c>
       <c r="C22">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1327,13 +1918,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45824.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>21.614</v>
       </c>
       <c r="C23">
-        <v>3.445</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1350,13 +1941,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45824.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.48</v>
+        <v>9.31</v>
       </c>
       <c r="C24">
-        <v>0.589</v>
+        <v>0.024</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1373,13 +1964,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45824.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B25">
-        <v>2.224</v>
+        <v>0.096</v>
       </c>
       <c r="C25">
-        <v>0.014</v>
+        <v>1.578</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1396,13 +1987,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45824.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B26">
-        <v>0.146</v>
+        <v>1.354</v>
       </c>
       <c r="C26">
-        <v>1.626</v>
+        <v>1.122</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1419,13 +2010,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45824.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.756</v>
       </c>
       <c r="C27">
-        <v>10.678</v>
+        <v>1.697</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1442,13 +2033,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45824.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>13.178</v>
+        <v>5.716</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1465,13 +2056,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45824.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>10.953</v>
+        <v>13.172</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1488,13 +2079,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45824.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.48</v>
+        <v>0.013</v>
       </c>
       <c r="C30">
-        <v>6.732</v>
+        <v>7.084</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1511,13 +2102,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45824.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.728</v>
+        <v>0.032</v>
       </c>
       <c r="C31">
-        <v>0.652</v>
+        <v>1.957</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1534,13 +2125,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45824.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B32">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.575</v>
+        <v>12.12</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1557,13 +2148,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45824.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2.219</v>
+        <v>18.498</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1580,13 +2171,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45824.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.016</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C34">
-        <v>0.215</v>
+        <v>0.887</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1603,19 +2194,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45824.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B35">
-        <v>0.28</v>
+        <v>1.405</v>
       </c>
       <c r="C35">
-        <v>0.711</v>
+        <v>2.423</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1626,19 +2217,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45824.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B36">
-        <v>4.191</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.667</v>
+        <v>7.036</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1649,19 +2240,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45824.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>13.3</v>
+        <v>26.945</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1672,19 +2263,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45824.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B38">
-        <v>2.286</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>6.273</v>
+        <v>12.903</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1695,19 +2286,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45824.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>11.874</v>
+        <v>26.154</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1718,19 +2309,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45824.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>15.038</v>
+        <v>44.753</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1741,19 +2332,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45824.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>14.587</v>
+        <v>35.166</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1764,19 +2355,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45824.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>8.579000000000001</v>
+        <v>17.657</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>34.75</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1787,13 +2378,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45824.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1.298</v>
+        <v>28.595</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1810,13 +2401,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45824.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>6.135</v>
+        <v>22.692</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1833,13 +2424,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45824.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B45">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>3.065</v>
+        <v>18.108</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1856,13 +2447,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45824.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>12.548</v>
+        <v>11.042</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1879,13 +2470,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45824.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B47">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="C47">
-        <v>0.381</v>
+        <v>2.799</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1902,13 +2493,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45824.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.144</v>
+        <v>0.063</v>
       </c>
       <c r="C48">
-        <v>1.879</v>
+        <v>0.668</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1925,13 +2516,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45824.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B49">
-        <v>6.372</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3.299</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1948,19 +2539,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B50">
-        <v>0.711</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>8.465</v>
+        <v>20.297</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1971,19 +2562,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45824.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B51">
-        <v>16.68</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>9.971</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1994,19 +2585,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45824.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B52">
-        <v>3.483</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -2017,19 +2608,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45824.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B53">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>3.341</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2040,19 +2631,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45824.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2063,19 +2654,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45824.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B55">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2086,19 +2677,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45824.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B56">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.953</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2109,19 +2700,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45824.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>18.185</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2132,19 +2723,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45824.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B58">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1.861</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2155,19 +2746,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45824.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B59">
-        <v>0.384</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -2178,19 +2769,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45824.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>3.038</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -2201,19 +2792,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45824.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B61">
-        <v>11.684</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -2224,13 +2815,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45824.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>12.314</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2247,13 +2838,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45824.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>4.435</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2270,13 +2861,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45824.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B64">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2293,13 +2884,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45824.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B65">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>1.759</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2316,13 +2907,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45824.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>3.225</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2339,13 +2930,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45824.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>11.092</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2362,13 +2953,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45824.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>26.825</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2385,16 +2976,16 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45824.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>4.209</v>
       </c>
       <c r="C69">
-        <v>38.684</v>
+        <v>1.563</v>
       </c>
       <c r="D69">
-        <v>19.75</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2408,19 +2999,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45824.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="C70">
-        <v>18.06</v>
+        <v>0.16</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2431,19 +3022,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45824.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B71">
-        <v>0.003</v>
+        <v>2.798</v>
       </c>
       <c r="C71">
-        <v>7.471</v>
+        <v>0.006</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2454,19 +3045,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45824.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B72">
-        <v>5.06</v>
+        <v>3.215</v>
       </c>
       <c r="C72">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2477,10 +3068,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45824.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B73">
-        <v>25.885</v>
+        <v>20.877</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2489,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2500,19 +3091,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45824.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B74">
-        <v>0.014</v>
+        <v>0.06</v>
       </c>
       <c r="C74">
-        <v>4.348</v>
+        <v>18.995</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>73</v>
@@ -2523,19 +3114,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45824.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B75">
-        <v>6.997</v>
+        <v>6.368</v>
       </c>
       <c r="C75">
-        <v>0.021</v>
+        <v>0.184</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>74</v>
@@ -2546,10 +3137,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45824.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B76">
-        <v>8.648</v>
+        <v>10.956</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2569,10 +3160,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45824.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B77">
-        <v>41.177</v>
+        <v>25.257</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2592,16 +3183,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45824.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B78">
-        <v>1.845</v>
+        <v>14.128</v>
       </c>
       <c r="C78">
-        <v>23.092</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2615,16 +3206,16 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45824.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>37.481</v>
       </c>
       <c r="C79">
-        <v>25.945</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2638,16 +3229,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45824.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>5.654</v>
       </c>
       <c r="C80">
-        <v>20.639</v>
+        <v>0.55</v>
       </c>
       <c r="D80">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2661,16 +3252,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45824.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>14.459</v>
       </c>
       <c r="C81">
-        <v>17.646</v>
+        <v>0.044</v>
       </c>
       <c r="D81">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2684,13 +3275,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45824.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="C82">
-        <v>2.439</v>
+        <v>0.027</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2707,13 +3298,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45824.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B83">
-        <v>0.78</v>
+        <v>8.881</v>
       </c>
       <c r="C83">
-        <v>0.299</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2730,13 +3321,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45824.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B84">
-        <v>0.23</v>
+        <v>14.935</v>
       </c>
       <c r="C84">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2753,13 +3344,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45824.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B85">
-        <v>0.165</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="C85">
-        <v>0.271</v>
+        <v>0.888</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2776,10 +3367,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45824.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B86">
-        <v>14.526</v>
+        <v>59.731</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2799,13 +3390,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45824.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B87">
-        <v>18.358</v>
+        <v>9.725</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2822,13 +3413,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45824.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B88">
-        <v>0.509</v>
+        <v>0.033</v>
       </c>
       <c r="C88">
-        <v>8.779</v>
+        <v>1.359</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2845,13 +3436,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45824.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>36.217</v>
+        <v>53.785</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2868,13 +3459,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45824.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B90">
-        <v>14.08</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>4.186</v>
+        <v>10.109</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2891,13 +3482,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45824.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B91">
-        <v>6.621</v>
+        <v>0.297</v>
       </c>
       <c r="C91">
-        <v>0.008</v>
+        <v>0.503</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2914,13 +3505,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45824.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B92">
-        <v>0.056</v>
+        <v>0.024</v>
       </c>
       <c r="C92">
-        <v>0.381</v>
+        <v>7.444</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2937,13 +3528,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45824.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>12.854</v>
+        <v>36.307</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2960,13 +3551,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45824.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B94">
-        <v>1.773</v>
+        <v>14.981</v>
       </c>
       <c r="C94">
-        <v>0.605</v>
+        <v>3.315</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2983,13 +3574,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45824.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>28.114</v>
       </c>
       <c r="C95">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3006,13 +3597,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45824.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>25.977</v>
       </c>
       <c r="C96">
-        <v>5.771</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3029,13 +3620,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45824.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.548</v>
       </c>
       <c r="C97">
-        <v>16.337</v>
+        <v>0.13</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3052,13 +3643,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B98">
-        <v>0.996</v>
+        <v>31.967</v>
       </c>
       <c r="C98">
-        <v>13.346</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3075,13 +3666,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B99">
-        <v>0.996</v>
+        <v>31.967</v>
       </c>
       <c r="C99">
-        <v>13.346</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3098,13 +3689,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45825.01041666666</v>
+        <v>45826.01041666666</v>
       </c>
       <c r="B100">
-        <v>2.638</v>
+        <v>28.775</v>
       </c>
       <c r="C100">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3121,13 +3712,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45825.01041666666</v>
+        <v>45826.01041666666</v>
       </c>
       <c r="B101">
-        <v>2.638</v>
+        <v>28.775</v>
       </c>
       <c r="C101">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3144,13 +3735,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45825.02083333334</v>
+        <v>45826.02083333334</v>
       </c>
       <c r="B102">
-        <v>0.004</v>
+        <v>1.18</v>
       </c>
       <c r="C102">
-        <v>0.188</v>
+        <v>0.532</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3167,13 +3758,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45825.02083333334</v>
+        <v>45826.02083333334</v>
       </c>
       <c r="B103">
-        <v>0.004</v>
+        <v>1.18</v>
       </c>
       <c r="C103">
-        <v>0.188</v>
+        <v>0.532</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3190,13 +3781,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45825.03125</v>
+        <v>45826.03125</v>
       </c>
       <c r="B104">
-        <v>0.016</v>
+        <v>0.041</v>
       </c>
       <c r="C104">
-        <v>0.954</v>
+        <v>2.07</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3213,13 +3804,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45825.03125</v>
+        <v>45826.03125</v>
       </c>
       <c r="B105">
-        <v>0.016</v>
+        <v>0.041</v>
       </c>
       <c r="C105">
-        <v>0.954</v>
+        <v>2.07</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3236,13 +3827,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45825.04166666666</v>
+        <v>45826.04166666666</v>
       </c>
       <c r="B106">
-        <v>17.931</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>2.133</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3259,13 +3850,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45825.04166666666</v>
+        <v>45826.04166666666</v>
       </c>
       <c r="B107">
-        <v>17.931</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>2.133</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3282,13 +3873,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45825.05208333334</v>
+        <v>45826.05208333334</v>
       </c>
       <c r="B108">
-        <v>22.926</v>
+        <v>0.196</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3305,13 +3896,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45825.05208333334</v>
+        <v>45826.05208333334</v>
       </c>
       <c r="B109">
-        <v>22.926</v>
+        <v>0.196</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3328,13 +3919,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45825.0625</v>
+        <v>45826.0625</v>
       </c>
       <c r="B110">
-        <v>14.74</v>
+        <v>1.75</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3351,13 +3942,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45825.0625</v>
+        <v>45826.0625</v>
       </c>
       <c r="B111">
-        <v>14.74</v>
+        <v>1.75</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3374,13 +3965,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45825.07291666666</v>
+        <v>45826.07291666666</v>
       </c>
       <c r="B112">
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.005</v>
+        <v>2.707</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3397,13 +3988,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45825.07291666666</v>
+        <v>45826.07291666666</v>
       </c>
       <c r="B113">
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.005</v>
+        <v>2.707</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3420,13 +4011,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45825.08333333334</v>
+        <v>45826.08333333334</v>
       </c>
       <c r="B114">
-        <v>22.223</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1.091</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3443,13 +4034,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45825.09375</v>
+        <v>45826.09375</v>
       </c>
       <c r="B115">
-        <v>36.314</v>
+        <v>0.476</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3466,10 +4057,10 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45825.10416666666</v>
+        <v>45826.10416666666</v>
       </c>
       <c r="B116">
-        <v>28.288</v>
+        <v>2.059</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3489,13 +4080,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45825.11458333334</v>
+        <v>45826.11458333334</v>
       </c>
       <c r="B117">
-        <v>6.595</v>
+        <v>0.924</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3512,13 +4103,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45825.125</v>
+        <v>45826.125</v>
       </c>
       <c r="B118">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0.049</v>
+        <v>3.108</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3535,13 +4126,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45825.13541666666</v>
+        <v>45826.13541666666</v>
       </c>
       <c r="B119">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0.058</v>
+        <v>6.359</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3558,13 +4149,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45825.14583333334</v>
+        <v>45826.14583333334</v>
       </c>
       <c r="B120">
-        <v>2.599</v>
+        <v>0.911</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3581,13 +4172,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45825.15625</v>
+        <v>45826.15625</v>
       </c>
       <c r="B121">
-        <v>6.658</v>
+        <v>0.104</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.569</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3604,13 +4195,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45825.16666666666</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B122">
-        <v>3.082</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0.006</v>
+        <v>3.182</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3627,13 +4218,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45825.17708333334</v>
+        <v>45826.17708333334</v>
       </c>
       <c r="B123">
-        <v>1.287</v>
+        <v>0.044</v>
       </c>
       <c r="C123">
-        <v>0.007</v>
+        <v>0.83</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3650,13 +4241,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45825.1875</v>
+        <v>45826.1875</v>
       </c>
       <c r="B124">
-        <v>0.367</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>0.028</v>
+        <v>1.393</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3673,13 +4264,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45825.19791666666</v>
+        <v>45826.19791666666</v>
       </c>
       <c r="B125">
-        <v>8.552</v>
+        <v>1.176</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3696,10 +4287,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45825.20833333334</v>
+        <v>45826.20833333334</v>
       </c>
       <c r="B126">
-        <v>26.247</v>
+        <v>8.48</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3719,10 +4310,10 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45825.21875</v>
+        <v>45826.21875</v>
       </c>
       <c r="B127">
-        <v>21.614</v>
+        <v>8.942</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3742,13 +4333,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45825.22916666666</v>
+        <v>45826.22916666666</v>
       </c>
       <c r="B128">
-        <v>9.31</v>
+        <v>8.488</v>
       </c>
       <c r="C128">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3765,13 +4356,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45825.23958333334</v>
+        <v>45826.23958333334</v>
       </c>
       <c r="B129">
-        <v>0.096</v>
+        <v>34.19</v>
       </c>
       <c r="C129">
-        <v>1.578</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3788,13 +4379,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45825.25</v>
+        <v>45826.25</v>
       </c>
       <c r="B130">
-        <v>1.354</v>
+        <v>14.57</v>
       </c>
       <c r="C130">
-        <v>1.122</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3811,16 +4402,16 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45825.26041666666</v>
+        <v>45826.26041666666</v>
       </c>
       <c r="B131">
-        <v>0.756</v>
+        <v>23.203</v>
       </c>
       <c r="C131">
-        <v>1.697</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3834,16 +4425,16 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45825.27083333334</v>
+        <v>45826.27083333334</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>34.176</v>
       </c>
       <c r="C132">
-        <v>5.716</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3857,16 +4448,16 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45825.28125</v>
+        <v>45826.28125</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>2.268</v>
       </c>
       <c r="C133">
-        <v>13.172</v>
+        <v>0.005</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3880,16 +4471,16 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45825.29166666666</v>
+        <v>45826.29166666666</v>
       </c>
       <c r="B134">
-        <v>0.013</v>
+        <v>0.048</v>
       </c>
       <c r="C134">
-        <v>7.084</v>
+        <v>1.492</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3903,16 +4494,16 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45825.30208333334</v>
+        <v>45826.30208333334</v>
       </c>
       <c r="B135">
-        <v>0.032</v>
+        <v>0.044</v>
       </c>
       <c r="C135">
-        <v>1.957</v>
+        <v>5.344</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3926,16 +4517,16 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45825.3125</v>
+        <v>45826.3125</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>12.12</v>
+        <v>26.128</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3949,16 +4540,16 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45825.32291666666</v>
+        <v>45826.32291666666</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>18.498</v>
+        <v>69.048</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3972,13 +4563,13 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45825.33333333334</v>
+        <v>45826.33333333334</v>
       </c>
       <c r="B138">
-        <v>0.5639999999999999</v>
+        <v>1.128</v>
       </c>
       <c r="C138">
-        <v>0.887</v>
+        <v>10.596</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -3995,19 +4586,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45825.34375</v>
+        <v>45826.34375</v>
       </c>
       <c r="B139">
-        <v>1.405</v>
+        <v>12.985</v>
       </c>
       <c r="C139">
-        <v>2.423</v>
+        <v>0.189</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F139">
         <v>34</v>
@@ -4018,19 +4609,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45825.35416666666</v>
+        <v>45826.35416666666</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C140">
-        <v>7.036</v>
+        <v>5.066</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F140">
         <v>35</v>
@@ -4041,19 +4632,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45825.36458333334</v>
+        <v>45826.36458333334</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C141">
-        <v>26.945</v>
+        <v>0.436</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F141">
         <v>36</v>
@@ -4064,13 +4655,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45825.375</v>
+        <v>45826.375</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1.352</v>
       </c>
       <c r="C142">
-        <v>12.903</v>
+        <v>0.533</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4087,13 +4678,13 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45825.38541666666</v>
+        <v>45826.38541666666</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>26.154</v>
+        <v>10.471</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -4110,13 +4701,13 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45825.39583333334</v>
+        <v>45826.39583333334</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>44.753</v>
+        <v>11.668</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -4133,19 +4724,19 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45825.40625</v>
+        <v>45826.40625</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>35.166</v>
+        <v>28.201</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>40</v>
@@ -4156,19 +4747,19 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45825.41666666666</v>
+        <v>45826.41666666666</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>17.657</v>
+        <v>7.982</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>34.75</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>41</v>
@@ -4179,19 +4770,19 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45825.42708333334</v>
+        <v>45826.42708333334</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>31.237</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>42</v>
@@ -4202,25 +4793,4924 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45825.4375</v>
+        <v>45826.4375</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>43.325</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>43</v>
       </c>
       <c r="G148" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>45826.44791666666</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>29.614</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="B150">
+        <v>0.001</v>
+      </c>
+      <c r="C150">
+        <v>24.698</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>45826.46875</v>
+      </c>
+      <c r="B151">
+        <v>0.128</v>
+      </c>
+      <c r="C151">
+        <v>2.387</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>45826.47916666666</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>9.44</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>47</v>
+      </c>
+      <c r="G152" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>45826.48958333334</v>
+      </c>
+      <c r="B153">
+        <v>0.047</v>
+      </c>
+      <c r="C153">
+        <v>5.727</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>48</v>
+      </c>
+      <c r="G153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>45826.5</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>21.816</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>25</v>
+      </c>
+      <c r="F154">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>45826.51041666666</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>13.382</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>25</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>45826.52083333334</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>4.538</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>25</v>
+      </c>
+      <c r="F156">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>45826.53125</v>
+      </c>
+      <c r="B157">
+        <v>0.108</v>
+      </c>
+      <c r="C157">
+        <v>3.524</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>25</v>
+      </c>
+      <c r="F157">
+        <v>52</v>
+      </c>
+      <c r="G157" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>45826.54166666666</v>
+      </c>
+      <c r="B158">
+        <v>10.033</v>
+      </c>
+      <c r="C158">
+        <v>0.034</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>25</v>
+      </c>
+      <c r="F158">
+        <v>53</v>
+      </c>
+      <c r="G158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>45826.55208333334</v>
+      </c>
+      <c r="B159">
+        <v>19.046</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>25</v>
+      </c>
+      <c r="F159">
+        <v>54</v>
+      </c>
+      <c r="G159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>45826.5625</v>
+      </c>
+      <c r="B160">
+        <v>15.508</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>25</v>
+      </c>
+      <c r="F160">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>45826.57291666666</v>
+      </c>
+      <c r="B161">
+        <v>1.236</v>
+      </c>
+      <c r="C161">
+        <v>0.457</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>25</v>
+      </c>
+      <c r="F161">
+        <v>56</v>
+      </c>
+      <c r="G161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>45826.58333333334</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>23.067</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>57</v>
+      </c>
+      <c r="G162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>45826.59375</v>
+      </c>
+      <c r="B163">
+        <v>0.007</v>
+      </c>
+      <c r="C163">
+        <v>16.824</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>58</v>
+      </c>
+      <c r="G163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>45826.60416666666</v>
+      </c>
+      <c r="B164">
+        <v>0.137</v>
+      </c>
+      <c r="C164">
+        <v>0.58</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>59</v>
+      </c>
+      <c r="G164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>45826.61458333334</v>
+      </c>
+      <c r="B165">
+        <v>0.056</v>
+      </c>
+      <c r="C165">
+        <v>0.61</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>60</v>
+      </c>
+      <c r="G165" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>45826.625</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>6.204</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>61</v>
+      </c>
+      <c r="G166" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>45826.63541666666</v>
+      </c>
+      <c r="B167">
+        <v>0.205</v>
+      </c>
+      <c r="C167">
+        <v>0.424</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>62</v>
+      </c>
+      <c r="G167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>45826.64583333334</v>
+      </c>
+      <c r="B168">
+        <v>0.359</v>
+      </c>
+      <c r="C168">
+        <v>0.105</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>63</v>
+      </c>
+      <c r="G168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>45826.65625</v>
+      </c>
+      <c r="B169">
+        <v>0.308</v>
+      </c>
+      <c r="C169">
+        <v>0.207</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>64</v>
+      </c>
+      <c r="G169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>45826.66666666666</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>21.828</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>65</v>
+      </c>
+      <c r="G170" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>45826.67708333334</v>
+      </c>
+      <c r="B171">
+        <v>0.213</v>
+      </c>
+      <c r="C171">
+        <v>1.48</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>66</v>
+      </c>
+      <c r="G171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>45826.6875</v>
+      </c>
+      <c r="B172">
+        <v>2.474</v>
+      </c>
+      <c r="C172">
+        <v>0.063</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>67</v>
+      </c>
+      <c r="G172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>45826.69791666666</v>
+      </c>
+      <c r="B173">
+        <v>13.704</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>68</v>
+      </c>
+      <c r="G173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>45826.70833333334</v>
+      </c>
+      <c r="B174">
+        <v>1.445</v>
+      </c>
+      <c r="C174">
+        <v>21.348</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>69</v>
+      </c>
+      <c r="G174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>45826.71875</v>
+      </c>
+      <c r="B175">
+        <v>0.17</v>
+      </c>
+      <c r="C175">
+        <v>9.054</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>70</v>
+      </c>
+      <c r="G175" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>45826.72916666666</v>
+      </c>
+      <c r="B176">
+        <v>2.102</v>
+      </c>
+      <c r="C176">
+        <v>0.106</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>71</v>
+      </c>
+      <c r="G176" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>45826.73958333334</v>
+      </c>
+      <c r="B177">
+        <v>13.424</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>72</v>
+      </c>
+      <c r="G177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>45826.75</v>
+      </c>
+      <c r="B178">
+        <v>0.581</v>
+      </c>
+      <c r="C178">
+        <v>24.574</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>73</v>
+      </c>
+      <c r="G178" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>45826.76041666666</v>
+      </c>
+      <c r="B179">
+        <v>7.357</v>
+      </c>
+      <c r="C179">
+        <v>5.174</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>74</v>
+      </c>
+      <c r="G179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>45826.77083333334</v>
+      </c>
+      <c r="B180">
+        <v>40.993</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>75</v>
+      </c>
+      <c r="G180" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>45826.78125</v>
+      </c>
+      <c r="B181">
+        <v>56.929</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>76</v>
+      </c>
+      <c r="G181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>45826.79166666666</v>
+      </c>
+      <c r="B182">
+        <v>4.303</v>
+      </c>
+      <c r="C182">
+        <v>0.378</v>
+      </c>
+      <c r="D182">
+        <v>37.5</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>77</v>
+      </c>
+      <c r="G182" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>45826.80208333334</v>
+      </c>
+      <c r="B183">
+        <v>2.199</v>
+      </c>
+      <c r="C183">
+        <v>0.046</v>
+      </c>
+      <c r="D183">
+        <v>37.5</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>78</v>
+      </c>
+      <c r="G183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>45826.8125</v>
+      </c>
+      <c r="B184">
+        <v>7.057</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>37.5</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>79</v>
+      </c>
+      <c r="G184" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>45826.82291666666</v>
+      </c>
+      <c r="B185">
+        <v>12.077</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>37.5</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>45826.83333333334</v>
+      </c>
+      <c r="B186">
+        <v>0.649</v>
+      </c>
+      <c r="C186">
+        <v>0.101</v>
+      </c>
+      <c r="D186">
+        <v>37.5</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>81</v>
+      </c>
+      <c r="G186" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>45826.84375</v>
+      </c>
+      <c r="B187">
+        <v>6.445</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>37.5</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>82</v>
+      </c>
+      <c r="G187" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>45826.85416666666</v>
+      </c>
+      <c r="B188">
+        <v>27.622</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>25</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>83</v>
+      </c>
+      <c r="G188" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>45826.86458333334</v>
+      </c>
+      <c r="B189">
+        <v>9.34</v>
+      </c>
+      <c r="C189">
+        <v>0.004</v>
+      </c>
+      <c r="D189">
+        <v>25</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>84</v>
+      </c>
+      <c r="G189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>45826.875</v>
+      </c>
+      <c r="B190">
+        <v>75.265</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>11</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>85</v>
+      </c>
+      <c r="G190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>45826.88541666666</v>
+      </c>
+      <c r="B191">
+        <v>72.986</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>75</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>86</v>
+      </c>
+      <c r="G191" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>45826.89583333334</v>
+      </c>
+      <c r="B192">
+        <v>16.96</v>
+      </c>
+      <c r="C192">
+        <v>0.255</v>
+      </c>
+      <c r="D192">
+        <v>75</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>87</v>
+      </c>
+      <c r="G192" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>45826.90625</v>
+      </c>
+      <c r="B193">
+        <v>0.006</v>
+      </c>
+      <c r="C193">
+        <v>3.028</v>
+      </c>
+      <c r="D193">
+        <v>75</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>88</v>
+      </c>
+      <c r="G193" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>45826.91666666666</v>
+      </c>
+      <c r="B194">
+        <v>7.204</v>
+      </c>
+      <c r="C194">
+        <v>0.387</v>
+      </c>
+      <c r="D194">
+        <v>70.75</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>89</v>
+      </c>
+      <c r="G194" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>45826.92708333334</v>
+      </c>
+      <c r="B195">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C195">
+        <v>12.636</v>
+      </c>
+      <c r="D195">
+        <v>70.75</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>90</v>
+      </c>
+      <c r="G195" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>45826.9375</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>6.902</v>
+      </c>
+      <c r="D196">
+        <v>34.75</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>91</v>
+      </c>
+      <c r="G196" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>45826.94791666666</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>19.834</v>
+      </c>
+      <c r="D197">
+        <v>34.75</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>92</v>
+      </c>
+      <c r="G197" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>45826.95833333334</v>
+      </c>
+      <c r="B198">
+        <v>0.054</v>
+      </c>
+      <c r="C198">
+        <v>2.271</v>
+      </c>
+      <c r="D198">
+        <v>34.5</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>93</v>
+      </c>
+      <c r="G198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>45826.96875</v>
+      </c>
+      <c r="B199">
+        <v>0.017</v>
+      </c>
+      <c r="C199">
+        <v>5.767</v>
+      </c>
+      <c r="D199">
+        <v>28.25</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>94</v>
+      </c>
+      <c r="G199" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>45826.97916666666</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>16.617</v>
+      </c>
+      <c r="D200">
+        <v>28.25</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>95</v>
+      </c>
+      <c r="G200" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>45826.98958333334</v>
+      </c>
+      <c r="B201">
+        <v>5.364</v>
+      </c>
+      <c r="C201">
+        <v>2.515</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>96</v>
+      </c>
+      <c r="G201" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B202">
+        <v>4.364</v>
+      </c>
+      <c r="C202">
+        <v>0.003</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B203">
+        <v>4.364</v>
+      </c>
+      <c r="C203">
+        <v>0.003</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
+        <v>45827.01041666666</v>
+      </c>
+      <c r="B204">
+        <v>0.75</v>
+      </c>
+      <c r="C204">
+        <v>0.002</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
+        <v>45827.01041666666</v>
+      </c>
+      <c r="B205">
+        <v>0.75</v>
+      </c>
+      <c r="C205">
+        <v>0.002</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
+        <v>45827.02083333334</v>
+      </c>
+      <c r="B206">
+        <v>0.293</v>
+      </c>
+      <c r="C206">
+        <v>2.836</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>3</v>
+      </c>
+      <c r="G206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
+        <v>45827.02083333334</v>
+      </c>
+      <c r="B207">
+        <v>0.293</v>
+      </c>
+      <c r="C207">
+        <v>2.836</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>3</v>
+      </c>
+      <c r="G207" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
+        <v>45827.03125</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>15.51</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
+        <v>45827.03125</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>15.51</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
+        <v>45827.04166666666</v>
+      </c>
+      <c r="B210">
+        <v>0.626</v>
+      </c>
+      <c r="C210">
+        <v>0.978</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>45827.04166666666</v>
+      </c>
+      <c r="B211">
+        <v>0.626</v>
+      </c>
+      <c r="C211">
+        <v>0.978</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+      <c r="G211" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
+        <v>45827.05208333334</v>
+      </c>
+      <c r="B212">
+        <v>0.024</v>
+      </c>
+      <c r="C212">
+        <v>0.715</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>6</v>
+      </c>
+      <c r="G212" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
+        <v>45827.05208333334</v>
+      </c>
+      <c r="B213">
+        <v>0.024</v>
+      </c>
+      <c r="C213">
+        <v>0.715</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>6</v>
+      </c>
+      <c r="G213" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
+        <v>45827.0625</v>
+      </c>
+      <c r="B214">
+        <v>2.271</v>
+      </c>
+      <c r="C214">
+        <v>0.108</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>7</v>
+      </c>
+      <c r="G214" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
+        <v>45827.0625</v>
+      </c>
+      <c r="B215">
+        <v>2.271</v>
+      </c>
+      <c r="C215">
+        <v>0.108</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>7</v>
+      </c>
+      <c r="G215" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
+        <v>45827.07291666666</v>
+      </c>
+      <c r="B216">
+        <v>0.278</v>
+      </c>
+      <c r="C216">
+        <v>0.509</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
+        <v>45827.07291666666</v>
+      </c>
+      <c r="B217">
+        <v>0.278</v>
+      </c>
+      <c r="C217">
+        <v>0.509</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>45827.08333333334</v>
+      </c>
+      <c r="B218">
+        <v>2.252</v>
+      </c>
+      <c r="C218">
+        <v>0.277</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>9</v>
+      </c>
+      <c r="G218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>45827.09375</v>
+      </c>
+      <c r="B219">
+        <v>10.752</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
+        <v>45827.10416666666</v>
+      </c>
+      <c r="B220">
+        <v>1.074</v>
+      </c>
+      <c r="C220">
+        <v>0.03</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>11</v>
+      </c>
+      <c r="G220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
+        <v>45827.11458333334</v>
+      </c>
+      <c r="B221">
+        <v>1.363</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
+        <v>45827.125</v>
+      </c>
+      <c r="B222">
+        <v>12.639</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
+        <v>45827.13541666666</v>
+      </c>
+      <c r="B223">
+        <v>1.221</v>
+      </c>
+      <c r="C223">
+        <v>0.005</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
+        <v>45827.14583333334</v>
+      </c>
+      <c r="B224">
+        <v>1.853</v>
+      </c>
+      <c r="C224">
+        <v>0.005</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="2">
+        <v>45827.15625</v>
+      </c>
+      <c r="B225">
+        <v>0.05</v>
+      </c>
+      <c r="C225">
+        <v>1.355</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>16</v>
+      </c>
+      <c r="G225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="2">
+        <v>45827.16666666666</v>
+      </c>
+      <c r="B226">
+        <v>0.154</v>
+      </c>
+      <c r="C226">
+        <v>0.227</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>17</v>
+      </c>
+      <c r="G226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
+        <v>45827.17708333334</v>
+      </c>
+      <c r="B227">
+        <v>0.11</v>
+      </c>
+      <c r="C227">
+        <v>2.998</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>18</v>
+      </c>
+      <c r="G227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
+        <v>45827.1875</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>24.965</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>19</v>
+      </c>
+      <c r="G228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
+        <v>45827.19791666666</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>11.059</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
+        <v>45827.20833333334</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>17.646</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>21</v>
+      </c>
+      <c r="G230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="2">
+        <v>45827.21875</v>
+      </c>
+      <c r="B231">
+        <v>0.003</v>
+      </c>
+      <c r="C231">
+        <v>1.956</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>25</v>
+      </c>
+      <c r="F231">
+        <v>22</v>
+      </c>
+      <c r="G231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
+        <v>45827.22916666666</v>
+      </c>
+      <c r="B232">
+        <v>0.035</v>
+      </c>
+      <c r="C232">
+        <v>2.193</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>25</v>
+      </c>
+      <c r="F232">
+        <v>23</v>
+      </c>
+      <c r="G232" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
+        <v>45827.23958333334</v>
+      </c>
+      <c r="B233">
+        <v>0.004</v>
+      </c>
+      <c r="C233">
+        <v>5.913</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>25</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="2">
+        <v>45827.25</v>
+      </c>
+      <c r="B234">
+        <v>0.133</v>
+      </c>
+      <c r="C234">
+        <v>0.248</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>25</v>
+      </c>
+      <c r="G234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="2">
+        <v>45827.26041666666</v>
+      </c>
+      <c r="B235">
+        <v>0.17</v>
+      </c>
+      <c r="C235">
+        <v>0.469</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>26</v>
+      </c>
+      <c r="G235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="2">
+        <v>45827.27083333334</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>2.32</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>27</v>
+      </c>
+      <c r="G236" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="2">
+        <v>45827.28125</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>8.542999999999999</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>28</v>
+      </c>
+      <c r="G237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>45827.29166666666</v>
+      </c>
+      <c r="B238">
+        <v>9.936</v>
+      </c>
+      <c r="C238">
+        <v>1.653</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>29</v>
+      </c>
+      <c r="G238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2">
+        <v>45827.30208333334</v>
+      </c>
+      <c r="B239">
+        <v>16.56</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="2">
+        <v>45827.3125</v>
+      </c>
+      <c r="B240">
+        <v>7.196</v>
+      </c>
+      <c r="C240">
+        <v>0.39</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>31</v>
+      </c>
+      <c r="G240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="2">
+        <v>45827.32291666666</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>27.125</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>32</v>
+      </c>
+      <c r="G241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="2">
+        <v>45827.33333333334</v>
+      </c>
+      <c r="B242">
+        <v>4.434</v>
+      </c>
+      <c r="C242">
+        <v>1.839</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>33</v>
+      </c>
+      <c r="G242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="2">
+        <v>45827.34375</v>
+      </c>
+      <c r="B243">
+        <v>3.497</v>
+      </c>
+      <c r="C243">
+        <v>1.388</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>34</v>
+      </c>
+      <c r="G243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="2">
+        <v>45827.35416666666</v>
+      </c>
+      <c r="B244">
+        <v>2.371</v>
+      </c>
+      <c r="C244">
+        <v>0.263</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>35</v>
+      </c>
+      <c r="G244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="2">
+        <v>45827.36458333334</v>
+      </c>
+      <c r="B245">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C245">
+        <v>9.627000000000001</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>36</v>
+      </c>
+      <c r="G245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="2">
+        <v>45827.375</v>
+      </c>
+      <c r="B246">
+        <v>0.067</v>
+      </c>
+      <c r="C246">
+        <v>4.749</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>37</v>
+      </c>
+      <c r="G246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="2">
+        <v>45827.38541666666</v>
+      </c>
+      <c r="B247">
+        <v>0.189</v>
+      </c>
+      <c r="C247">
+        <v>0.327</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>38</v>
+      </c>
+      <c r="G247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="2">
+        <v>45827.39583333334</v>
+      </c>
+      <c r="B248">
+        <v>0.004</v>
+      </c>
+      <c r="C248">
+        <v>3.079</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>39</v>
+      </c>
+      <c r="G248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="2">
+        <v>45827.40625</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>15.567</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>40</v>
+      </c>
+      <c r="G249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="2">
+        <v>45827.41666666666</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>11.501</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>41</v>
+      </c>
+      <c r="G250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="2">
+        <v>45827.42708333334</v>
+      </c>
+      <c r="B251">
+        <v>0.012</v>
+      </c>
+      <c r="C251">
+        <v>1.797</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>42</v>
+      </c>
+      <c r="G251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="2">
+        <v>45827.4375</v>
+      </c>
+      <c r="B252">
+        <v>0.089</v>
+      </c>
+      <c r="C252">
+        <v>0.883</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>43</v>
+      </c>
+      <c r="G252" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="2">
+        <v>45827.44791666666</v>
+      </c>
+      <c r="B253">
+        <v>4.06</v>
+      </c>
+      <c r="C253">
+        <v>0.001</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>44</v>
+      </c>
+      <c r="G253" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="2">
+        <v>45827.45833333334</v>
+      </c>
+      <c r="B254">
+        <v>1.215</v>
+      </c>
+      <c r="C254">
+        <v>0.057</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>45</v>
+      </c>
+      <c r="G254" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="2">
+        <v>45827.46875</v>
+      </c>
+      <c r="B255">
+        <v>1.778</v>
+      </c>
+      <c r="C255">
+        <v>0.118</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>46</v>
+      </c>
+      <c r="G255" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="2">
+        <v>45827.47916666666</v>
+      </c>
+      <c r="B256">
+        <v>2.275</v>
+      </c>
+      <c r="C256">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>47</v>
+      </c>
+      <c r="G256" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="2">
+        <v>45827.48958333334</v>
+      </c>
+      <c r="B257">
+        <v>14.317</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>48</v>
+      </c>
+      <c r="G257" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="2">
+        <v>45827.5</v>
+      </c>
+      <c r="B258">
+        <v>0.164</v>
+      </c>
+      <c r="C258">
+        <v>1.911</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>49</v>
+      </c>
+      <c r="G258" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="2">
+        <v>45827.51041666666</v>
+      </c>
+      <c r="B259">
+        <v>0.048</v>
+      </c>
+      <c r="C259">
+        <v>1.628</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>50</v>
+      </c>
+      <c r="G259" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="2">
+        <v>45827.52083333334</v>
+      </c>
+      <c r="B260">
+        <v>0.2</v>
+      </c>
+      <c r="C260">
+        <v>0.758</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>51</v>
+      </c>
+      <c r="G260" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="2">
+        <v>45827.53125</v>
+      </c>
+      <c r="B261">
+        <v>0.2</v>
+      </c>
+      <c r="C261">
+        <v>0.256</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>52</v>
+      </c>
+      <c r="G261" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="2">
+        <v>45827.54166666666</v>
+      </c>
+      <c r="B262">
+        <v>0.002</v>
+      </c>
+      <c r="C262">
+        <v>7.228</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>53</v>
+      </c>
+      <c r="G262" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="2">
+        <v>45827.55208333334</v>
+      </c>
+      <c r="B263">
+        <v>0.02</v>
+      </c>
+      <c r="C263">
+        <v>0.959</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>54</v>
+      </c>
+      <c r="G263" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="2">
+        <v>45827.5625</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>12.519</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>55</v>
+      </c>
+      <c r="G264" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="2">
+        <v>45827.57291666666</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>19.565</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>56</v>
+      </c>
+      <c r="G265" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="2">
+        <v>45827.58333333334</v>
+      </c>
+      <c r="B266">
+        <v>0.008</v>
+      </c>
+      <c r="C266">
+        <v>8.035</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>57</v>
+      </c>
+      <c r="G266" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="2">
+        <v>45827.59375</v>
+      </c>
+      <c r="B267">
+        <v>0.143</v>
+      </c>
+      <c r="C267">
+        <v>0.401</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>58</v>
+      </c>
+      <c r="G267" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="2">
+        <v>45827.60416666666</v>
+      </c>
+      <c r="B268">
+        <v>0.192</v>
+      </c>
+      <c r="C268">
+        <v>0.182</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>59</v>
+      </c>
+      <c r="G268" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="2">
+        <v>45827.61458333334</v>
+      </c>
+      <c r="B269">
+        <v>0.106</v>
+      </c>
+      <c r="C269">
+        <v>1.236</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>60</v>
+      </c>
+      <c r="G269" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="2">
+        <v>45827.625</v>
+      </c>
+      <c r="B270">
+        <v>0.015</v>
+      </c>
+      <c r="C270">
+        <v>14.153</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>61</v>
+      </c>
+      <c r="G270" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="2">
+        <v>45827.63541666666</v>
+      </c>
+      <c r="B271">
+        <v>0.026</v>
+      </c>
+      <c r="C271">
+        <v>8.257</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>62</v>
+      </c>
+      <c r="G271" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="2">
+        <v>45827.64583333334</v>
+      </c>
+      <c r="B272">
+        <v>0.016</v>
+      </c>
+      <c r="C272">
+        <v>10.998</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>63</v>
+      </c>
+      <c r="G272" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="2">
+        <v>45827.65625</v>
+      </c>
+      <c r="B273">
+        <v>0.021</v>
+      </c>
+      <c r="C273">
+        <v>1.363</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>64</v>
+      </c>
+      <c r="G273" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="2">
+        <v>45827.66666666666</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>26.208</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>65</v>
+      </c>
+      <c r="G274" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="2">
+        <v>45827.67708333334</v>
+      </c>
+      <c r="B275">
+        <v>0.097</v>
+      </c>
+      <c r="C275">
+        <v>19.854</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>66</v>
+      </c>
+      <c r="G275" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="2">
+        <v>45827.6875</v>
+      </c>
+      <c r="B276">
+        <v>3.489</v>
+      </c>
+      <c r="C276">
+        <v>0.648</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>67</v>
+      </c>
+      <c r="G276" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="2">
+        <v>45827.69791666666</v>
+      </c>
+      <c r="B277">
+        <v>14.678</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>68</v>
+      </c>
+      <c r="G277" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="2">
+        <v>45827.70833333334</v>
+      </c>
+      <c r="B278">
+        <v>2.434</v>
+      </c>
+      <c r="C278">
+        <v>7.207</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>69</v>
+      </c>
+      <c r="G278" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="2">
+        <v>45827.71875</v>
+      </c>
+      <c r="B279">
+        <v>0.156</v>
+      </c>
+      <c r="C279">
+        <v>1.502</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>70</v>
+      </c>
+      <c r="G279" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="2">
+        <v>45827.72916666666</v>
+      </c>
+      <c r="B280">
+        <v>0.801</v>
+      </c>
+      <c r="C280">
+        <v>0.053</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>71</v>
+      </c>
+      <c r="G280" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="2">
+        <v>45827.73958333334</v>
+      </c>
+      <c r="B281">
+        <v>25.204</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>72</v>
+      </c>
+      <c r="G281" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="2">
+        <v>45827.75</v>
+      </c>
+      <c r="B282">
+        <v>0.231</v>
+      </c>
+      <c r="C282">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>73</v>
+      </c>
+      <c r="G282" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="2">
+        <v>45827.76041666666</v>
+      </c>
+      <c r="B283">
+        <v>0.1</v>
+      </c>
+      <c r="C283">
+        <v>1.624</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>74</v>
+      </c>
+      <c r="G283" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="2">
+        <v>45827.77083333334</v>
+      </c>
+      <c r="B284">
+        <v>6.473</v>
+      </c>
+      <c r="C284">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>75</v>
+      </c>
+      <c r="G284" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="2">
+        <v>45827.78125</v>
+      </c>
+      <c r="B285">
+        <v>23.42</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>76</v>
+      </c>
+      <c r="G285" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="2">
+        <v>45827.79166666666</v>
+      </c>
+      <c r="B286">
+        <v>12.943</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>77</v>
+      </c>
+      <c r="G286" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="2">
+        <v>45827.80208333334</v>
+      </c>
+      <c r="B287">
+        <v>10.27</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>78</v>
+      </c>
+      <c r="G287" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="2">
+        <v>45827.8125</v>
+      </c>
+      <c r="B288">
+        <v>7.382</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>79</v>
+      </c>
+      <c r="G288" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="2">
+        <v>45827.82291666666</v>
+      </c>
+      <c r="B289">
+        <v>23.601</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>80</v>
+      </c>
+      <c r="G289" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="2">
+        <v>45827.83333333334</v>
+      </c>
+      <c r="B290">
+        <v>3.909</v>
+      </c>
+      <c r="C290">
+        <v>3.75</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>81</v>
+      </c>
+      <c r="G290" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="2">
+        <v>45827.84375</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>2.609</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>82</v>
+      </c>
+      <c r="G291" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="2">
+        <v>45827.85416666666</v>
+      </c>
+      <c r="B292">
+        <v>0.056</v>
+      </c>
+      <c r="C292">
+        <v>0.78</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>83</v>
+      </c>
+      <c r="G292" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="2">
+        <v>45827.86458333334</v>
+      </c>
+      <c r="B293">
+        <v>0.447</v>
+      </c>
+      <c r="C293">
+        <v>0.171</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>84</v>
+      </c>
+      <c r="G293" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="2">
+        <v>45827.875</v>
+      </c>
+      <c r="B294">
+        <v>38.667</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>85</v>
+      </c>
+      <c r="G294" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="2">
+        <v>45827.88541666666</v>
+      </c>
+      <c r="B295">
+        <v>23.15</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>86</v>
+      </c>
+      <c r="G295" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="2">
+        <v>45827.89583333334</v>
+      </c>
+      <c r="B296">
+        <v>3.532</v>
+      </c>
+      <c r="C296">
+        <v>0.034</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>87</v>
+      </c>
+      <c r="G296" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="2">
+        <v>45827.90625</v>
+      </c>
+      <c r="B297">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="C297">
+        <v>2.302</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>88</v>
+      </c>
+      <c r="G297" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="2">
+        <v>45827.91666666666</v>
+      </c>
+      <c r="B298">
+        <v>38.268</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>89</v>
+      </c>
+      <c r="G298" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="2">
+        <v>45827.92708333334</v>
+      </c>
+      <c r="B299">
+        <v>31.094</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>90</v>
+      </c>
+      <c r="G299" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="2">
+        <v>45827.9375</v>
+      </c>
+      <c r="B300">
+        <v>20.171</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>91</v>
+      </c>
+      <c r="G300" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="2">
+        <v>45827.94791666666</v>
+      </c>
+      <c r="B301">
+        <v>8.134</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>92</v>
+      </c>
+      <c r="G301" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="2">
+        <v>45827.95833333334</v>
+      </c>
+      <c r="B302">
+        <v>38.669</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>93</v>
+      </c>
+      <c r="G302" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="2">
+        <v>45827.96875</v>
+      </c>
+      <c r="B303">
+        <v>31.792</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>94</v>
+      </c>
+      <c r="G303" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="2">
+        <v>45827.97916666666</v>
+      </c>
+      <c r="B304">
+        <v>1.12</v>
+      </c>
+      <c r="C304">
+        <v>0.194</v>
+      </c>
+      <c r="D304">
+        <v>25</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>95</v>
+      </c>
+      <c r="G304" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="2">
+        <v>45827.98958333334</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>15.37</v>
+      </c>
+      <c r="D305">
+        <v>25.25</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>96</v>
+      </c>
+      <c r="G305" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B306">
+        <v>0.032</v>
+      </c>
+      <c r="C306">
+        <v>2.908</v>
+      </c>
+      <c r="D306">
+        <v>27.5</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B307">
+        <v>0.032</v>
+      </c>
+      <c r="C307">
+        <v>2.908</v>
+      </c>
+      <c r="D307">
+        <v>27.5</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+      <c r="G307" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="2">
+        <v>45828.01041666666</v>
+      </c>
+      <c r="B308">
+        <v>6.143</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>2</v>
+      </c>
+      <c r="G308" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="2">
+        <v>45828.01041666666</v>
+      </c>
+      <c r="B309">
+        <v>6.143</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+      <c r="G309" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="2">
+        <v>45828.02083333334</v>
+      </c>
+      <c r="B310">
+        <v>0.048</v>
+      </c>
+      <c r="C310">
+        <v>0.258</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>3</v>
+      </c>
+      <c r="G310" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="2">
+        <v>45828.02083333334</v>
+      </c>
+      <c r="B311">
+        <v>0.048</v>
+      </c>
+      <c r="C311">
+        <v>0.258</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>3</v>
+      </c>
+      <c r="G311" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="2">
+        <v>45828.03125</v>
+      </c>
+      <c r="B312">
+        <v>0.256</v>
+      </c>
+      <c r="C312">
+        <v>0.248</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>4</v>
+      </c>
+      <c r="G312" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="2">
+        <v>45828.03125</v>
+      </c>
+      <c r="B313">
+        <v>0.256</v>
+      </c>
+      <c r="C313">
+        <v>0.248</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>4</v>
+      </c>
+      <c r="G313" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="2">
+        <v>45828.04166666666</v>
+      </c>
+      <c r="B314">
+        <v>33.822</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>5</v>
+      </c>
+      <c r="G314" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="2">
+        <v>45828.04166666666</v>
+      </c>
+      <c r="B315">
+        <v>33.822</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>5</v>
+      </c>
+      <c r="G315" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="2">
+        <v>45828.05208333334</v>
+      </c>
+      <c r="B316">
+        <v>5.424</v>
+      </c>
+      <c r="C316">
+        <v>0.139</v>
+      </c>
+      <c r="D316">
+        <v>37.5</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>6</v>
+      </c>
+      <c r="G316" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="2">
+        <v>45828.05208333334</v>
+      </c>
+      <c r="B317">
+        <v>5.424</v>
+      </c>
+      <c r="C317">
+        <v>0.139</v>
+      </c>
+      <c r="D317">
+        <v>37.5</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>6</v>
+      </c>
+      <c r="G317" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="2">
+        <v>45828.0625</v>
+      </c>
+      <c r="B318">
+        <v>0.132</v>
+      </c>
+      <c r="C318">
+        <v>0.32</v>
+      </c>
+      <c r="D318">
+        <v>37.5</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>7</v>
+      </c>
+      <c r="G318" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="2">
+        <v>45828.0625</v>
+      </c>
+      <c r="B319">
+        <v>0.132</v>
+      </c>
+      <c r="C319">
+        <v>0.32</v>
+      </c>
+      <c r="D319">
+        <v>37.5</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>7</v>
+      </c>
+      <c r="G319" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="2">
+        <v>45828.07291666666</v>
+      </c>
+      <c r="B320">
+        <v>2.982</v>
+      </c>
+      <c r="C320">
+        <v>4.042</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>8</v>
+      </c>
+      <c r="G320" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="2">
+        <v>45828.07291666666</v>
+      </c>
+      <c r="B321">
+        <v>2.982</v>
+      </c>
+      <c r="C321">
+        <v>4.042</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>8</v>
+      </c>
+      <c r="G321" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="2">
+        <v>45828.08333333334</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>0.963</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>9</v>
+      </c>
+      <c r="G322" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="2">
+        <v>45828.09375</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>38.72</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>10</v>
+      </c>
+      <c r="G323" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="2">
+        <v>45828.10416666666</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>27.781</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>11</v>
+      </c>
+      <c r="G324" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="2">
+        <v>45828.11458333334</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>47.024</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>12</v>
+      </c>
+      <c r="G325" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="2">
+        <v>45828.125</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>25.617</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>75</v>
+      </c>
+      <c r="F326">
+        <v>13</v>
+      </c>
+      <c r="G326" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="2">
+        <v>45828.13541666666</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>10.26</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>75</v>
+      </c>
+      <c r="F327">
+        <v>14</v>
+      </c>
+      <c r="G327" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="2">
+        <v>45828.14583333334</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>9.081</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>75</v>
+      </c>
+      <c r="F328">
+        <v>15</v>
+      </c>
+      <c r="G328" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="2">
+        <v>45828.15625</v>
+      </c>
+      <c r="B329">
+        <v>0.108</v>
+      </c>
+      <c r="C329">
+        <v>2.424</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>75</v>
+      </c>
+      <c r="F329">
+        <v>16</v>
+      </c>
+      <c r="G329" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="2">
+        <v>45828.16666666666</v>
+      </c>
+      <c r="B330">
+        <v>1.161</v>
+      </c>
+      <c r="C330">
+        <v>0.18</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>75</v>
+      </c>
+      <c r="F330">
+        <v>17</v>
+      </c>
+      <c r="G330" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="2">
+        <v>45828.17708333334</v>
+      </c>
+      <c r="B331">
+        <v>0.032</v>
+      </c>
+      <c r="C331">
+        <v>29.542</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>18</v>
+      </c>
+      <c r="G331" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="2">
+        <v>45828.1875</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>29.253</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>19</v>
+      </c>
+      <c r="G332" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="2">
+        <v>45828.19791666666</v>
+      </c>
+      <c r="B333">
+        <v>0.472</v>
+      </c>
+      <c r="C333">
+        <v>4.131</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>50</v>
+      </c>
+      <c r="F333">
+        <v>20</v>
+      </c>
+      <c r="G333" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="2">
+        <v>45828.20833333334</v>
+      </c>
+      <c r="B334">
+        <v>5.486</v>
+      </c>
+      <c r="C334">
+        <v>0.28</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>48.5</v>
+      </c>
+      <c r="F334">
+        <v>21</v>
+      </c>
+      <c r="G334" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="2">
+        <v>45828.21875</v>
+      </c>
+      <c r="B335">
+        <v>5.835</v>
+      </c>
+      <c r="C335">
+        <v>0.921</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>22</v>
+      </c>
+      <c r="G335" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="2">
+        <v>45828.22916666666</v>
+      </c>
+      <c r="B336">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C336">
+        <v>1.679</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>23</v>
+      </c>
+      <c r="G336" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="2">
+        <v>45828.23958333334</v>
+      </c>
+      <c r="B337">
+        <v>2.517</v>
+      </c>
+      <c r="C337">
+        <v>0.029</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>24</v>
+      </c>
+      <c r="G337" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="2">
+        <v>45828.25</v>
+      </c>
+      <c r="B338">
+        <v>19.111</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>25</v>
+      </c>
+      <c r="G338" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="2">
+        <v>45828.26041666666</v>
+      </c>
+      <c r="B339">
+        <v>17.057</v>
+      </c>
+      <c r="C339">
+        <v>0.005</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>26</v>
+      </c>
+      <c r="G339" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="2">
+        <v>45828.27083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>4.292</v>
+      </c>
+      <c r="D340">
+        <v>26.25</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>27</v>
+      </c>
+      <c r="G340" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="2">
+        <v>45828.28125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>21.186</v>
+      </c>
+      <c r="D341">
+        <v>26.25</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>28</v>
+      </c>
+      <c r="G341" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="2">
+        <v>45828.29166666666</v>
+      </c>
+      <c r="B342">
+        <v>17.98</v>
+      </c>
+      <c r="C342">
+        <v>2.305</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>29</v>
+      </c>
+      <c r="G342" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="2">
+        <v>45828.30208333334</v>
+      </c>
+      <c r="B343">
+        <v>15.013</v>
+      </c>
+      <c r="C343">
+        <v>0.013</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>30</v>
+      </c>
+      <c r="G343" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="2">
+        <v>45828.3125</v>
+      </c>
+      <c r="B344">
+        <v>0.576</v>
+      </c>
+      <c r="C344">
+        <v>1.92</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>31</v>
+      </c>
+      <c r="G344" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="2">
+        <v>45828.32291666666</v>
+      </c>
+      <c r="B345">
+        <v>0.014</v>
+      </c>
+      <c r="C345">
+        <v>18.244</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>32</v>
+      </c>
+      <c r="G345" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="2">
+        <v>45828.33333333334</v>
+      </c>
+      <c r="B346">
+        <v>0.014</v>
+      </c>
+      <c r="C346">
+        <v>11.373</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>33</v>
+      </c>
+      <c r="G346" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="2">
+        <v>45828.34375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>20.432</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>34</v>
+      </c>
+      <c r="G347" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="2">
+        <v>45828.35416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>8.699</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>35</v>
+      </c>
+      <c r="G348" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="2">
+        <v>45828.36458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>44.725</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>36</v>
+      </c>
+      <c r="G349" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="2">
+        <v>45828.375</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>11.438</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>37</v>
+      </c>
+      <c r="G350" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="2">
+        <v>45828.38541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>4.281</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>38</v>
+      </c>
+      <c r="G351" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="2">
+        <v>45828.39583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>29.374</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>39</v>
+      </c>
+      <c r="G352" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="2">
+        <v>45828.40625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>65.05</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>40</v>
+      </c>
+      <c r="G353" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="2">
+        <v>45828.41666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>12.205</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>37.5</v>
+      </c>
+      <c r="F354">
+        <v>41</v>
+      </c>
+      <c r="G354" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="2">
+        <v>45828.42708333334</v>
+      </c>
+      <c r="B355">
+        <v>0.033</v>
+      </c>
+      <c r="C355">
+        <v>16.356</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>37.5</v>
+      </c>
+      <c r="F355">
+        <v>42</v>
+      </c>
+      <c r="G355" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="2">
+        <v>45828.4375</v>
+      </c>
+      <c r="B356">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C356">
+        <v>9.493</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>37.5</v>
+      </c>
+      <c r="F356">
+        <v>43</v>
+      </c>
+      <c r="G356" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="2">
+        <v>45828.44791666666</v>
+      </c>
+      <c r="B357">
+        <v>0.097</v>
+      </c>
+      <c r="C357">
+        <v>3.407</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>37.5</v>
+      </c>
+      <c r="F357">
+        <v>44</v>
+      </c>
+      <c r="G357" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="2">
+        <v>45828.45833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>14.496</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>37.5</v>
+      </c>
+      <c r="F358">
+        <v>45</v>
+      </c>
+      <c r="G358" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="2">
+        <v>45828.46875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>15.637</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>37.5</v>
+      </c>
+      <c r="F359">
+        <v>46</v>
+      </c>
+      <c r="G359" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="2">
+        <v>45828.47916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>37.5</v>
+      </c>
+      <c r="F360">
+        <v>47</v>
+      </c>
+      <c r="G360" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="2">
+        <v>45828.48958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>37.5</v>
+      </c>
+      <c r="F361">
+        <v>48</v>
+      </c>
+      <c r="G361" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,412 +37,418 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.08.20251</t>
-  </si>
-  <si>
-    <t>20.08.20252</t>
-  </si>
-  <si>
-    <t>20.08.20253</t>
-  </si>
-  <si>
-    <t>20.08.20254</t>
-  </si>
-  <si>
-    <t>20.08.20255</t>
-  </si>
-  <si>
-    <t>20.08.20256</t>
-  </si>
-  <si>
-    <t>20.08.20257</t>
-  </si>
-  <si>
-    <t>20.08.20258</t>
-  </si>
-  <si>
-    <t>20.08.20259</t>
-  </si>
-  <si>
-    <t>20.08.202510</t>
-  </si>
-  <si>
-    <t>20.08.202511</t>
-  </si>
-  <si>
-    <t>20.08.202512</t>
-  </si>
-  <si>
-    <t>20.08.202513</t>
-  </si>
-  <si>
-    <t>20.08.202514</t>
-  </si>
-  <si>
-    <t>20.08.202515</t>
-  </si>
-  <si>
-    <t>20.08.202516</t>
-  </si>
-  <si>
-    <t>20.08.202517</t>
-  </si>
-  <si>
-    <t>20.08.202518</t>
-  </si>
-  <si>
-    <t>20.08.202519</t>
-  </si>
-  <si>
-    <t>20.08.202520</t>
-  </si>
-  <si>
-    <t>20.08.202521</t>
-  </si>
-  <si>
-    <t>20.08.202522</t>
-  </si>
-  <si>
-    <t>20.08.202523</t>
-  </si>
-  <si>
-    <t>20.08.202524</t>
-  </si>
-  <si>
-    <t>20.08.202525</t>
-  </si>
-  <si>
-    <t>20.08.202526</t>
-  </si>
-  <si>
-    <t>20.08.202527</t>
-  </si>
-  <si>
-    <t>20.08.202528</t>
-  </si>
-  <si>
-    <t>20.08.202529</t>
-  </si>
-  <si>
-    <t>20.08.202530</t>
-  </si>
-  <si>
-    <t>20.08.202531</t>
-  </si>
-  <si>
-    <t>20.08.202532</t>
-  </si>
-  <si>
-    <t>20.08.202533</t>
-  </si>
-  <si>
-    <t>20.08.202534</t>
-  </si>
-  <si>
-    <t>20.08.202535</t>
-  </si>
-  <si>
-    <t>20.08.202536</t>
-  </si>
-  <si>
-    <t>20.08.202537</t>
-  </si>
-  <si>
-    <t>20.08.202538</t>
-  </si>
-  <si>
-    <t>20.08.202539</t>
-  </si>
-  <si>
-    <t>20.08.202540</t>
-  </si>
-  <si>
-    <t>20.08.202541</t>
-  </si>
-  <si>
-    <t>20.08.202542</t>
-  </si>
-  <si>
-    <t>20.08.202543</t>
-  </si>
-  <si>
-    <t>20.08.202544</t>
-  </si>
-  <si>
-    <t>20.08.202545</t>
-  </si>
-  <si>
-    <t>20.08.202546</t>
-  </si>
-  <si>
-    <t>20.08.202547</t>
-  </si>
-  <si>
-    <t>20.08.202548</t>
-  </si>
-  <si>
-    <t>20.08.202549</t>
-  </si>
-  <si>
-    <t>20.08.202550</t>
-  </si>
-  <si>
-    <t>20.08.202551</t>
-  </si>
-  <si>
-    <t>20.08.202552</t>
-  </si>
-  <si>
-    <t>20.08.202553</t>
-  </si>
-  <si>
-    <t>20.08.202554</t>
-  </si>
-  <si>
-    <t>20.08.202555</t>
-  </si>
-  <si>
-    <t>20.08.202556</t>
-  </si>
-  <si>
-    <t>20.08.202557</t>
-  </si>
-  <si>
-    <t>20.08.202558</t>
-  </si>
-  <si>
-    <t>20.08.202559</t>
-  </si>
-  <si>
-    <t>20.08.202560</t>
-  </si>
-  <si>
-    <t>20.08.202561</t>
-  </si>
-  <si>
-    <t>20.08.202562</t>
-  </si>
-  <si>
-    <t>20.08.202563</t>
-  </si>
-  <si>
-    <t>20.08.202564</t>
-  </si>
-  <si>
-    <t>20.08.202565</t>
-  </si>
-  <si>
-    <t>20.08.202566</t>
-  </si>
-  <si>
-    <t>20.08.202567</t>
-  </si>
-  <si>
-    <t>20.08.202568</t>
-  </si>
-  <si>
-    <t>20.08.202569</t>
-  </si>
-  <si>
-    <t>20.08.202570</t>
-  </si>
-  <si>
-    <t>20.08.202571</t>
-  </si>
-  <si>
-    <t>20.08.202572</t>
-  </si>
-  <si>
-    <t>20.08.202573</t>
-  </si>
-  <si>
-    <t>20.08.202574</t>
-  </si>
-  <si>
-    <t>20.08.202575</t>
-  </si>
-  <si>
-    <t>20.08.202576</t>
-  </si>
-  <si>
-    <t>20.08.202577</t>
-  </si>
-  <si>
-    <t>20.08.202578</t>
-  </si>
-  <si>
-    <t>20.08.202579</t>
-  </si>
-  <si>
-    <t>20.08.202580</t>
-  </si>
-  <si>
-    <t>20.08.202581</t>
-  </si>
-  <si>
-    <t>20.08.202582</t>
-  </si>
-  <si>
-    <t>20.08.202583</t>
-  </si>
-  <si>
-    <t>20.08.202584</t>
-  </si>
-  <si>
-    <t>20.08.202585</t>
-  </si>
-  <si>
-    <t>20.08.202586</t>
-  </si>
-  <si>
-    <t>20.08.202587</t>
-  </si>
-  <si>
-    <t>20.08.202588</t>
-  </si>
-  <si>
-    <t>20.08.202589</t>
-  </si>
-  <si>
-    <t>20.08.202590</t>
-  </si>
-  <si>
-    <t>20.08.202591</t>
-  </si>
-  <si>
-    <t>20.08.202592</t>
-  </si>
-  <si>
-    <t>20.08.202593</t>
-  </si>
-  <si>
-    <t>20.08.202594</t>
-  </si>
-  <si>
-    <t>20.08.202595</t>
-  </si>
-  <si>
-    <t>20.08.202596</t>
-  </si>
-  <si>
-    <t>21.08.20251</t>
-  </si>
-  <si>
-    <t>21.08.20252</t>
-  </si>
-  <si>
-    <t>21.08.20253</t>
-  </si>
-  <si>
-    <t>21.08.20254</t>
-  </si>
-  <si>
-    <t>21.08.20255</t>
-  </si>
-  <si>
-    <t>21.08.20256</t>
-  </si>
-  <si>
-    <t>21.08.20257</t>
-  </si>
-  <si>
-    <t>21.08.20258</t>
-  </si>
-  <si>
-    <t>21.08.20259</t>
-  </si>
-  <si>
-    <t>21.08.202510</t>
-  </si>
-  <si>
-    <t>21.08.202511</t>
-  </si>
-  <si>
-    <t>21.08.202512</t>
-  </si>
-  <si>
-    <t>21.08.202513</t>
-  </si>
-  <si>
-    <t>21.08.202514</t>
-  </si>
-  <si>
-    <t>21.08.202515</t>
-  </si>
-  <si>
-    <t>21.08.202516</t>
-  </si>
-  <si>
-    <t>21.08.202517</t>
-  </si>
-  <si>
-    <t>21.08.202518</t>
-  </si>
-  <si>
-    <t>21.08.202519</t>
-  </si>
-  <si>
-    <t>21.08.202520</t>
-  </si>
-  <si>
-    <t>21.08.202521</t>
-  </si>
-  <si>
-    <t>21.08.202522</t>
-  </si>
-  <si>
-    <t>21.08.202523</t>
-  </si>
-  <si>
-    <t>21.08.202524</t>
-  </si>
-  <si>
-    <t>21.08.202525</t>
-  </si>
-  <si>
-    <t>21.08.202526</t>
-  </si>
-  <si>
-    <t>21.08.202527</t>
-  </si>
-  <si>
-    <t>21.08.202528</t>
-  </si>
-  <si>
-    <t>21.08.202529</t>
-  </si>
-  <si>
-    <t>21.08.202530</t>
-  </si>
-  <si>
-    <t>21.08.202531</t>
-  </si>
-  <si>
-    <t>21.08.202532</t>
-  </si>
-  <si>
-    <t>21.08.202533</t>
-  </si>
-  <si>
-    <t>21.08.202534</t>
-  </si>
-  <si>
-    <t>21.08.202535</t>
-  </si>
-  <si>
-    <t>21.08.202536</t>
-  </si>
-  <si>
-    <t>21.08.202537</t>
-  </si>
-  <si>
-    <t>21.08.202538</t>
-  </si>
-  <si>
-    <t>21.08.202539</t>
-  </si>
-  <si>
-    <t>21.08.202540</t>
+    <t>17.09.20251</t>
+  </si>
+  <si>
+    <t>17.09.20252</t>
+  </si>
+  <si>
+    <t>17.09.20253</t>
+  </si>
+  <si>
+    <t>17.09.20254</t>
+  </si>
+  <si>
+    <t>17.09.20255</t>
+  </si>
+  <si>
+    <t>17.09.20256</t>
+  </si>
+  <si>
+    <t>17.09.20257</t>
+  </si>
+  <si>
+    <t>17.09.20258</t>
+  </si>
+  <si>
+    <t>17.09.20259</t>
+  </si>
+  <si>
+    <t>17.09.202510</t>
+  </si>
+  <si>
+    <t>17.09.202511</t>
+  </si>
+  <si>
+    <t>17.09.202512</t>
+  </si>
+  <si>
+    <t>17.09.202513</t>
+  </si>
+  <si>
+    <t>17.09.202514</t>
+  </si>
+  <si>
+    <t>17.09.202515</t>
+  </si>
+  <si>
+    <t>17.09.202516</t>
+  </si>
+  <si>
+    <t>17.09.202517</t>
+  </si>
+  <si>
+    <t>17.09.202518</t>
+  </si>
+  <si>
+    <t>17.09.202519</t>
+  </si>
+  <si>
+    <t>17.09.202520</t>
+  </si>
+  <si>
+    <t>17.09.202521</t>
+  </si>
+  <si>
+    <t>17.09.202522</t>
+  </si>
+  <si>
+    <t>17.09.202523</t>
+  </si>
+  <si>
+    <t>17.09.202524</t>
+  </si>
+  <si>
+    <t>17.09.202525</t>
+  </si>
+  <si>
+    <t>17.09.202526</t>
+  </si>
+  <si>
+    <t>17.09.202527</t>
+  </si>
+  <si>
+    <t>17.09.202528</t>
+  </si>
+  <si>
+    <t>17.09.202529</t>
+  </si>
+  <si>
+    <t>17.09.202530</t>
+  </si>
+  <si>
+    <t>17.09.202531</t>
+  </si>
+  <si>
+    <t>17.09.202532</t>
+  </si>
+  <si>
+    <t>17.09.202533</t>
+  </si>
+  <si>
+    <t>17.09.202534</t>
+  </si>
+  <si>
+    <t>17.09.202535</t>
+  </si>
+  <si>
+    <t>17.09.202536</t>
+  </si>
+  <si>
+    <t>17.09.202537</t>
+  </si>
+  <si>
+    <t>17.09.202538</t>
+  </si>
+  <si>
+    <t>17.09.202539</t>
+  </si>
+  <si>
+    <t>17.09.202540</t>
+  </si>
+  <si>
+    <t>17.09.202541</t>
+  </si>
+  <si>
+    <t>17.09.202542</t>
+  </si>
+  <si>
+    <t>17.09.202543</t>
+  </si>
+  <si>
+    <t>17.09.202544</t>
+  </si>
+  <si>
+    <t>17.09.202545</t>
+  </si>
+  <si>
+    <t>17.09.202546</t>
+  </si>
+  <si>
+    <t>17.09.202547</t>
+  </si>
+  <si>
+    <t>17.09.202548</t>
+  </si>
+  <si>
+    <t>17.09.202549</t>
+  </si>
+  <si>
+    <t>17.09.202550</t>
+  </si>
+  <si>
+    <t>17.09.202551</t>
+  </si>
+  <si>
+    <t>17.09.202552</t>
+  </si>
+  <si>
+    <t>17.09.202553</t>
+  </si>
+  <si>
+    <t>17.09.202554</t>
+  </si>
+  <si>
+    <t>17.09.202555</t>
+  </si>
+  <si>
+    <t>17.09.202556</t>
+  </si>
+  <si>
+    <t>17.09.202557</t>
+  </si>
+  <si>
+    <t>17.09.202558</t>
+  </si>
+  <si>
+    <t>17.09.202559</t>
+  </si>
+  <si>
+    <t>17.09.202560</t>
+  </si>
+  <si>
+    <t>17.09.202561</t>
+  </si>
+  <si>
+    <t>17.09.202562</t>
+  </si>
+  <si>
+    <t>17.09.202563</t>
+  </si>
+  <si>
+    <t>17.09.202564</t>
+  </si>
+  <si>
+    <t>17.09.202565</t>
+  </si>
+  <si>
+    <t>17.09.202566</t>
+  </si>
+  <si>
+    <t>17.09.202567</t>
+  </si>
+  <si>
+    <t>17.09.202568</t>
+  </si>
+  <si>
+    <t>17.09.202569</t>
+  </si>
+  <si>
+    <t>17.09.202570</t>
+  </si>
+  <si>
+    <t>17.09.202571</t>
+  </si>
+  <si>
+    <t>17.09.202572</t>
+  </si>
+  <si>
+    <t>17.09.202573</t>
+  </si>
+  <si>
+    <t>17.09.202574</t>
+  </si>
+  <si>
+    <t>17.09.202575</t>
+  </si>
+  <si>
+    <t>17.09.202576</t>
+  </si>
+  <si>
+    <t>17.09.202577</t>
+  </si>
+  <si>
+    <t>17.09.202578</t>
+  </si>
+  <si>
+    <t>17.09.202579</t>
+  </si>
+  <si>
+    <t>17.09.202580</t>
+  </si>
+  <si>
+    <t>17.09.202581</t>
+  </si>
+  <si>
+    <t>17.09.202582</t>
+  </si>
+  <si>
+    <t>17.09.202583</t>
+  </si>
+  <si>
+    <t>17.09.202584</t>
+  </si>
+  <si>
+    <t>17.09.202585</t>
+  </si>
+  <si>
+    <t>17.09.202586</t>
+  </si>
+  <si>
+    <t>17.09.202587</t>
+  </si>
+  <si>
+    <t>17.09.202588</t>
+  </si>
+  <si>
+    <t>17.09.202589</t>
+  </si>
+  <si>
+    <t>17.09.202590</t>
+  </si>
+  <si>
+    <t>17.09.202591</t>
+  </si>
+  <si>
+    <t>17.09.202592</t>
+  </si>
+  <si>
+    <t>17.09.202593</t>
+  </si>
+  <si>
+    <t>17.09.202594</t>
+  </si>
+  <si>
+    <t>17.09.202595</t>
+  </si>
+  <si>
+    <t>17.09.202596</t>
+  </si>
+  <si>
+    <t>18.09.20251</t>
+  </si>
+  <si>
+    <t>18.09.20252</t>
+  </si>
+  <si>
+    <t>18.09.20253</t>
+  </si>
+  <si>
+    <t>18.09.20254</t>
+  </si>
+  <si>
+    <t>18.09.20255</t>
+  </si>
+  <si>
+    <t>18.09.20256</t>
+  </si>
+  <si>
+    <t>18.09.20257</t>
+  </si>
+  <si>
+    <t>18.09.20258</t>
+  </si>
+  <si>
+    <t>18.09.20259</t>
+  </si>
+  <si>
+    <t>18.09.202510</t>
+  </si>
+  <si>
+    <t>18.09.202511</t>
+  </si>
+  <si>
+    <t>18.09.202512</t>
+  </si>
+  <si>
+    <t>18.09.202513</t>
+  </si>
+  <si>
+    <t>18.09.202514</t>
+  </si>
+  <si>
+    <t>18.09.202515</t>
+  </si>
+  <si>
+    <t>18.09.202516</t>
+  </si>
+  <si>
+    <t>18.09.202517</t>
+  </si>
+  <si>
+    <t>18.09.202518</t>
+  </si>
+  <si>
+    <t>18.09.202519</t>
+  </si>
+  <si>
+    <t>18.09.202520</t>
+  </si>
+  <si>
+    <t>18.09.202521</t>
+  </si>
+  <si>
+    <t>18.09.202522</t>
+  </si>
+  <si>
+    <t>18.09.202523</t>
+  </si>
+  <si>
+    <t>18.09.202524</t>
+  </si>
+  <si>
+    <t>18.09.202525</t>
+  </si>
+  <si>
+    <t>18.09.202526</t>
+  </si>
+  <si>
+    <t>18.09.202527</t>
+  </si>
+  <si>
+    <t>18.09.202528</t>
+  </si>
+  <si>
+    <t>18.09.202529</t>
+  </si>
+  <si>
+    <t>18.09.202530</t>
+  </si>
+  <si>
+    <t>18.09.202531</t>
+  </si>
+  <si>
+    <t>18.09.202532</t>
+  </si>
+  <si>
+    <t>18.09.202533</t>
+  </si>
+  <si>
+    <t>18.09.202534</t>
+  </si>
+  <si>
+    <t>18.09.202535</t>
+  </si>
+  <si>
+    <t>18.09.202536</t>
+  </si>
+  <si>
+    <t>18.09.202537</t>
+  </si>
+  <si>
+    <t>18.09.202538</t>
+  </si>
+  <si>
+    <t>18.09.202539</t>
+  </si>
+  <si>
+    <t>18.09.202540</t>
+  </si>
+  <si>
+    <t>18.09.202541</t>
+  </si>
+  <si>
+    <t>18.09.202542</t>
   </si>
 </sst>
 </file>
@@ -804,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,13 +841,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45889</v>
+        <v>45917</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C2">
-        <v>6.079</v>
+        <v>5.693</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -858,13 +864,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45889.01041666666</v>
+        <v>45917.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="C3">
-        <v>0.5600000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -881,13 +887,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45889.02083333334</v>
+        <v>45917.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.008</v>
+        <v>0.123</v>
       </c>
       <c r="C4">
-        <v>1.249</v>
+        <v>0.414</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -904,13 +910,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45889.03125</v>
+        <v>45917.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>23.774</v>
+        <v>7.83</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -927,13 +933,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45889.04166666666</v>
+        <v>45917.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.053000000000001</v>
+        <v>3.181</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -950,13 +956,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45889.05208333334</v>
+        <v>45917.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>3.068</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -973,13 +979,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45889.0625</v>
+        <v>45917.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.747</v>
+        <v>13.118</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -996,13 +1002,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45889.07291666666</v>
+        <v>45917.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>31.978</v>
+        <v>10.847</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1019,19 +1025,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45889.08333333334</v>
+        <v>45917.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.006</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
-        <v>9.271000000000001</v>
+        <v>3.372</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1042,19 +1048,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45889.09375</v>
+        <v>45917.09375</v>
       </c>
       <c r="B11">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C11">
-        <v>0.403</v>
+        <v>0.625</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1065,19 +1071,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45889.10416666666</v>
+        <v>45917.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.018</v>
+        <v>0.116</v>
       </c>
       <c r="C12">
-        <v>0.147</v>
+        <v>0.778</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1088,19 +1094,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45889.11458333334</v>
+        <v>45917.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.08799999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="C13">
-        <v>0.08400000000000001</v>
+        <v>0.655</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1111,19 +1117,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45889.125</v>
+        <v>45917.125</v>
       </c>
       <c r="B14">
-        <v>3.775</v>
+        <v>0.189</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -1134,19 +1140,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45889.13541666666</v>
+        <v>45917.13541666666</v>
       </c>
       <c r="B15">
-        <v>3.81</v>
+        <v>0.044</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.669</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1157,19 +1163,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45889.14583333334</v>
+        <v>45917.14583333334</v>
       </c>
       <c r="B16">
-        <v>8.353</v>
+        <v>0.094</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.323</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1180,19 +1186,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45889.15625</v>
+        <v>45917.15625</v>
       </c>
       <c r="B17">
-        <v>6.624</v>
+        <v>0.188</v>
       </c>
       <c r="C17">
-        <v>0.003</v>
+        <v>0.139</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -1203,19 +1209,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45889.16666666666</v>
+        <v>45917.16666666666</v>
       </c>
       <c r="B18">
-        <v>11.915</v>
+        <v>0.123</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.202</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -1226,13 +1232,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45889.17708333334</v>
+        <v>45917.17708333334</v>
       </c>
       <c r="B19">
-        <v>3.659</v>
+        <v>0.244</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1249,13 +1255,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45889.1875</v>
+        <v>45917.1875</v>
       </c>
       <c r="B20">
-        <v>0.647</v>
+        <v>2.025</v>
       </c>
       <c r="C20">
-        <v>0.005</v>
+        <v>0.065</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1272,13 +1278,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45889.19791666666</v>
+        <v>45917.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.659</v>
+        <v>1.183</v>
       </c>
       <c r="C21">
-        <v>0.024</v>
+        <v>0.059</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1295,13 +1301,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45889.20833333334</v>
+        <v>45917.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.031</v>
+        <v>3.864</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1318,13 +1324,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45889.21875</v>
+        <v>45917.21875</v>
       </c>
       <c r="B23">
-        <v>1.151</v>
+        <v>4.229</v>
       </c>
       <c r="C23">
-        <v>0.018</v>
+        <v>0.049</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1341,13 +1347,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45889.22916666666</v>
+        <v>45917.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.149</v>
+        <v>18.336</v>
       </c>
       <c r="C24">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1364,13 +1370,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45889.23958333334</v>
+        <v>45917.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.065</v>
+        <v>37.437</v>
       </c>
       <c r="C25">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1387,13 +1393,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45889.25</v>
+        <v>45917.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>17.098</v>
       </c>
       <c r="C26">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1410,13 +1416,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45889.26041666666</v>
+        <v>45917.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.02</v>
+        <v>40.798</v>
       </c>
       <c r="C27">
-        <v>1.628</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1433,16 +1439,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45889.27083333334</v>
+        <v>45917.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>51.023</v>
       </c>
       <c r="C28">
-        <v>9.583</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1456,16 +1462,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45889.28125</v>
+        <v>45917.28125</v>
       </c>
       <c r="B29">
-        <v>0.003</v>
+        <v>27.205</v>
       </c>
       <c r="C29">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1479,16 +1485,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45889.29166666666</v>
+        <v>45917.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>35.705</v>
       </c>
       <c r="C30">
-        <v>11.484</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1502,16 +1508,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45889.30208333334</v>
+        <v>45917.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>68.56</v>
       </c>
       <c r="C31">
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1525,16 +1531,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45889.3125</v>
+        <v>45917.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>56.074</v>
       </c>
       <c r="C32">
-        <v>7.835</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1548,16 +1554,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45889.32291666666</v>
+        <v>45917.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4.334</v>
       </c>
       <c r="C33">
-        <v>32.272</v>
+        <v>1.257</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1571,16 +1577,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45889.33333333334</v>
+        <v>45917.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>25.868</v>
       </c>
       <c r="C34">
-        <v>2.535</v>
+        <v>0.021</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1594,16 +1600,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45889.34375</v>
+        <v>45917.34375</v>
       </c>
       <c r="B35">
-        <v>0.192</v>
+        <v>36.52</v>
       </c>
       <c r="C35">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1617,16 +1623,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45889.35416666666</v>
+        <v>45917.35416666666</v>
       </c>
       <c r="B36">
-        <v>2.797</v>
+        <v>15.659</v>
       </c>
       <c r="C36">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1640,16 +1646,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45889.36458333334</v>
+        <v>45917.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.024</v>
+        <v>5.385</v>
       </c>
       <c r="C37">
-        <v>0.571</v>
+        <v>3.76</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1663,16 +1669,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45889.375</v>
+        <v>45917.375</v>
       </c>
       <c r="B38">
-        <v>0.315</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2.037</v>
+        <v>16.222</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45889.38541666666</v>
+        <v>45917.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>7.238</v>
+        <v>13.877</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45889.39583333334</v>
+        <v>45917.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>8.848000000000001</v>
+        <v>20.608</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45889.40625</v>
+        <v>45917.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>37.294</v>
+        <v>56.224</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1755,13 +1761,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45889.41666666666</v>
+        <v>45917.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>19.576</v>
+        <v>20.609</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1778,13 +1784,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45889.42708333334</v>
+        <v>45917.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>27.742</v>
+        <v>33.701</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45889.4375</v>
+        <v>45917.4375</v>
       </c>
       <c r="B44">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>6.778</v>
+        <v>50.599</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45889.44791666666</v>
+        <v>45917.44791666666</v>
       </c>
       <c r="B45">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>2.437</v>
+        <v>49.975</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45889.45833333334</v>
+        <v>45917.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="C46">
-        <v>7.197</v>
+        <v>6.912</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45889.46875</v>
+        <v>45917.46875</v>
       </c>
       <c r="B47">
-        <v>0.603</v>
+        <v>0.003</v>
       </c>
       <c r="C47">
-        <v>0.073</v>
+        <v>6.991</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45889.47916666666</v>
+        <v>45917.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.023</v>
+        <v>14.468</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45889.48958333334</v>
+        <v>45917.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.2</v>
+        <v>29.737</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45889.5</v>
+        <v>45917.5</v>
       </c>
       <c r="B50">
-        <v>6.441</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>15.103</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1962,13 +1968,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45889.51041666666</v>
+        <v>45917.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.881</v>
+        <v>0.014</v>
       </c>
       <c r="C51">
-        <v>0.041</v>
+        <v>18.324</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45889.52083333334</v>
+        <v>45917.52083333334</v>
       </c>
       <c r="B52">
-        <v>2.378</v>
+        <v>0.309</v>
       </c>
       <c r="C52">
-        <v>0.007</v>
+        <v>0.276</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45889.53125</v>
+        <v>45917.53125</v>
       </c>
       <c r="B53">
-        <v>3.442</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.015</v>
+        <v>7.704</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45889.54166666666</v>
+        <v>45917.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.251</v>
+        <v>0.142</v>
       </c>
       <c r="C54">
-        <v>0.27</v>
+        <v>0.398</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45889.55208333334</v>
+        <v>45917.55208333334</v>
       </c>
       <c r="B55">
-        <v>0.056</v>
+        <v>0.093</v>
       </c>
       <c r="C55">
-        <v>7.969</v>
+        <v>0.398</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45889.5625</v>
+        <v>45917.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C56">
-        <v>35.822</v>
+        <v>0.358</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45889.57291666666</v>
+        <v>45917.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="C57">
-        <v>14.881</v>
+        <v>17.061</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45889.58333333334</v>
+        <v>45917.58333333334</v>
       </c>
       <c r="B58">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>21.549</v>
+        <v>29.475</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45889.59375</v>
+        <v>45917.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="C59">
-        <v>30.026</v>
+        <v>6.607</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45889.60416666666</v>
+        <v>45917.60416666666</v>
       </c>
       <c r="B60">
-        <v>1.463</v>
+        <v>3.446</v>
       </c>
       <c r="C60">
-        <v>15.731</v>
+        <v>0.778</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45889.61458333334</v>
+        <v>45917.61458333334</v>
       </c>
       <c r="B61">
-        <v>8.487</v>
+        <v>3.676</v>
       </c>
       <c r="C61">
-        <v>0.06</v>
+        <v>0.052</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -2215,13 +2221,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45889.625</v>
+        <v>45917.625</v>
       </c>
       <c r="B62">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>19.968</v>
+        <v>21.869</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45889.63541666666</v>
+        <v>45917.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.581</v>
+        <v>0.019</v>
       </c>
       <c r="C63">
-        <v>0.159</v>
+        <v>4.314</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45889.64583333334</v>
+        <v>45917.64583333334</v>
       </c>
       <c r="B64">
-        <v>1.199</v>
+        <v>3.589</v>
       </c>
       <c r="C64">
-        <v>0.063</v>
+        <v>0.032</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45889.65625</v>
+        <v>45917.65625</v>
       </c>
       <c r="B65">
-        <v>3.062</v>
+        <v>3.042</v>
       </c>
       <c r="C65">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -2307,13 +2313,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45889.66666666666</v>
+        <v>45917.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1.047</v>
       </c>
       <c r="C66">
-        <v>17.001</v>
+        <v>3.904</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2330,13 +2336,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45889.67708333334</v>
+        <v>45917.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.209</v>
       </c>
       <c r="C67">
-        <v>13.162</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2353,13 +2359,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45889.6875</v>
+        <v>45917.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C68">
-        <v>9.608000000000001</v>
+        <v>0.207</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2376,13 +2382,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45889.69791666666</v>
+        <v>45917.69791666666</v>
       </c>
       <c r="B69">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="C69">
-        <v>1.245</v>
+        <v>0.232</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2399,13 +2405,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45889.70833333334</v>
+        <v>45917.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>36.468</v>
+        <v>28.217</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2422,13 +2428,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45889.71875</v>
+        <v>45917.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>5.409</v>
       </c>
       <c r="C71">
-        <v>16.584</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2445,13 +2451,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45889.72916666666</v>
+        <v>45917.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.487</v>
       </c>
       <c r="C72">
-        <v>15.337</v>
+        <v>0.044</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2468,13 +2474,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45889.73958333334</v>
+        <v>45917.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.733</v>
+        <v>0.031</v>
       </c>
       <c r="C73">
-        <v>0.146</v>
+        <v>0.839</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2491,13 +2497,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45889.75</v>
+        <v>45917.75</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>7.198</v>
+        <v>39.587</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2514,13 +2520,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45889.76041666666</v>
+        <v>45917.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.041</v>
+        <v>0.024</v>
       </c>
       <c r="C75">
-        <v>2.598</v>
+        <v>11.194</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2537,13 +2543,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45889.77083333334</v>
+        <v>45917.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.179</v>
+        <v>0.318</v>
       </c>
       <c r="C76">
-        <v>0.164</v>
+        <v>0.184</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2560,13 +2566,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45889.78125</v>
+        <v>45917.78125</v>
       </c>
       <c r="B77">
-        <v>2.933</v>
+        <v>1.743</v>
       </c>
       <c r="C77">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2583,10 +2589,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45889.79166666666</v>
+        <v>45917.79166666666</v>
       </c>
       <c r="B78">
-        <v>12.033</v>
+        <v>12.794</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2606,10 +2612,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45889.80208333334</v>
+        <v>45917.80208333334</v>
       </c>
       <c r="B79">
-        <v>5.58</v>
+        <v>36.167</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2629,13 +2635,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45889.8125</v>
+        <v>45917.8125</v>
       </c>
       <c r="B80">
-        <v>1.38</v>
+        <v>41.921</v>
       </c>
       <c r="C80">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2652,13 +2658,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45889.82291666666</v>
+        <v>45917.82291666666</v>
       </c>
       <c r="B81">
-        <v>0.151</v>
+        <v>41.323</v>
       </c>
       <c r="C81">
-        <v>0.207</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2675,13 +2681,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45889.83333333334</v>
+        <v>45917.83333333334</v>
       </c>
       <c r="B82">
-        <v>0.435</v>
+        <v>45.623</v>
       </c>
       <c r="C82">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2698,16 +2704,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45889.84375</v>
+        <v>45917.84375</v>
       </c>
       <c r="B83">
-        <v>0.012</v>
+        <v>5.082</v>
       </c>
       <c r="C83">
-        <v>9.065</v>
+        <v>0.046</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>48.25</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2721,16 +2727,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45889.85416666666</v>
+        <v>45917.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>20.829</v>
+        <v>22.766</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>48.25</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2744,13 +2750,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45889.86458333334</v>
+        <v>45917.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>39.505</v>
+        <v>42.502</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2767,13 +2773,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45889.875</v>
+        <v>45917.875</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.729</v>
       </c>
       <c r="C86">
-        <v>5.523</v>
+        <v>8.823</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2790,13 +2796,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45889.88541666666</v>
+        <v>45917.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>22.611</v>
+        <v>16.946</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2813,13 +2819,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45889.89583333334</v>
+        <v>45917.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>53.501</v>
+        <v>29.265</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2836,13 +2842,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45889.90625</v>
+        <v>45917.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>67.651</v>
+        <v>53.604</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2859,13 +2865,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45889.91666666666</v>
+        <v>45917.91666666666</v>
       </c>
       <c r="B90">
-        <v>0.054</v>
+        <v>0.003</v>
       </c>
       <c r="C90">
-        <v>8.795</v>
+        <v>15.944</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2882,13 +2888,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45889.92708333334</v>
+        <v>45917.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>4.562</v>
+        <v>16.642</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2905,13 +2911,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45889.9375</v>
+        <v>45917.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>6.044</v>
+        <v>21.47</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2928,13 +2934,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45889.94791666666</v>
+        <v>45917.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>14.094</v>
+        <v>27.019</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2951,13 +2957,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45889.95833333334</v>
+        <v>45917.95833333334</v>
       </c>
       <c r="B94">
-        <v>0.001</v>
+        <v>0.112</v>
       </c>
       <c r="C94">
-        <v>3.604</v>
+        <v>3.426</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2974,13 +2980,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45889.96875</v>
+        <v>45917.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C95">
-        <v>3.74</v>
+        <v>0.276</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2997,13 +3003,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45889.97916666666</v>
+        <v>45917.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>7.002</v>
+        <v>15.447</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3020,13 +3026,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45889.98958333334</v>
+        <v>45917.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>5.766</v>
+        <v>50.938</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3043,13 +3049,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B98">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>1.982</v>
+        <v>6.924</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3066,13 +3072,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B99">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>1.982</v>
+        <v>6.924</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3089,13 +3095,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B100">
-        <v>1.836</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>6.386</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3112,13 +3118,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B101">
-        <v>1.836</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>6.386</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3135,13 +3141,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B102">
-        <v>6.733</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>20.396</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3158,13 +3164,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B103">
-        <v>6.733</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>20.396</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3181,13 +3187,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B104">
-        <v>1.331</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.013</v>
+        <v>26.501</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3204,13 +3210,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B105">
-        <v>1.331</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.013</v>
+        <v>26.501</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3227,13 +3233,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B106">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0.093</v>
+        <v>24.222</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3250,13 +3256,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B107">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.093</v>
+        <v>24.222</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3273,13 +3279,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B108">
-        <v>4.19</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>19.788</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3296,13 +3302,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B109">
-        <v>4.19</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>19.788</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3319,13 +3325,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B110">
-        <v>1.153</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>36.503</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3342,13 +3348,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B111">
-        <v>1.153</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>36.503</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3365,13 +3371,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B112">
-        <v>2.208</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.002</v>
+        <v>30.799</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3388,13 +3394,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B113">
-        <v>2.208</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.002</v>
+        <v>30.799</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3411,13 +3417,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B114">
-        <v>3.587</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>27.876</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3434,13 +3440,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B115">
-        <v>9.561999999999999</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>18.105</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3457,13 +3463,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B116">
-        <v>13.039</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>5.994</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3480,13 +3486,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B117">
-        <v>24.116</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>17.033</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3503,13 +3509,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B118">
-        <v>9.121</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3526,13 +3532,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B119">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>21.19</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3549,13 +3555,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B120">
-        <v>32.952</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1.987</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3572,13 +3578,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B121">
-        <v>25.793</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>10.698</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3595,13 +3601,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B122">
-        <v>5.709</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>8.102</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3618,13 +3624,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B123">
-        <v>0.5659999999999999</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>0.047</v>
+        <v>4.928</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3641,13 +3647,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B124">
-        <v>0.09</v>
+        <v>0.948</v>
       </c>
       <c r="C124">
-        <v>0.109</v>
+        <v>0.046</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3664,13 +3670,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B125">
-        <v>2.424</v>
+        <v>0.949</v>
       </c>
       <c r="C125">
-        <v>0.014</v>
+        <v>0.118</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3687,13 +3693,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B126">
-        <v>0.104</v>
+        <v>0.047</v>
       </c>
       <c r="C126">
-        <v>0.735</v>
+        <v>5.68</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3710,13 +3716,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B127">
-        <v>0.04</v>
+        <v>0.001</v>
       </c>
       <c r="C127">
-        <v>0.845</v>
+        <v>8.303000000000001</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3733,13 +3739,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B128">
-        <v>1.148</v>
+        <v>0.386</v>
       </c>
       <c r="C128">
-        <v>0.012</v>
+        <v>5.629</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3756,13 +3762,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B129">
-        <v>3.493</v>
+        <v>0.115</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1.607</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3779,13 +3785,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B130">
-        <v>9.176</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>0.35</v>
+        <v>21.02</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3802,13 +3808,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B131">
-        <v>4.125</v>
+        <v>0.554</v>
       </c>
       <c r="C131">
-        <v>0.021</v>
+        <v>1.932</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3825,13 +3831,13 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B132">
-        <v>0.02</v>
+        <v>1.259</v>
       </c>
       <c r="C132">
-        <v>0.524</v>
+        <v>0.133</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3848,13 +3854,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B133">
-        <v>0.135</v>
+        <v>0.915</v>
       </c>
       <c r="C133">
-        <v>0.182</v>
+        <v>0.138</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3871,13 +3877,13 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B134">
-        <v>0.906</v>
+        <v>6.339</v>
       </c>
       <c r="C134">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3894,13 +3900,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B135">
         <v>0.017</v>
       </c>
       <c r="C135">
-        <v>2.349</v>
+        <v>15.522</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3917,13 +3923,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B136">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.586</v>
+        <v>50.923</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -3940,13 +3946,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>5.844</v>
+        <v>85.378</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -3963,13 +3969,13 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B138">
-        <v>2.529</v>
+        <v>5.822</v>
       </c>
       <c r="C138">
-        <v>1.071</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -3986,13 +3992,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B139">
-        <v>8.127000000000001</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>36.821</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -4009,13 +4015,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B140">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>0.138</v>
+        <v>78.59399999999999</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4032,13 +4038,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B141">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>5.566</v>
+        <v>78.91800000000001</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4055,13 +4061,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B142">
-        <v>5.615</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>0.166</v>
+        <v>13.21</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4078,19 +4084,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B143">
-        <v>6.776</v>
+        <v>0.016</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>10.335</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F143">
         <v>38</v>
@@ -4101,19 +4107,19 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B144">
-        <v>3.477</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>0.017</v>
+        <v>18.445</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F144">
         <v>39</v>
@@ -4124,25 +4130,71 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B145">
-        <v>0.588</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>0.034</v>
+        <v>29.688</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F145">
         <v>40</v>
       </c>
       <c r="G145" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45918.41666666666</v>
+      </c>
+      <c r="B146">
+        <v>2.249</v>
+      </c>
+      <c r="C146">
+        <v>4.29</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+      <c r="F146">
+        <v>41</v>
+      </c>
+      <c r="G146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45918.42708333334</v>
+      </c>
+      <c r="B147">
+        <v>0.18</v>
+      </c>
+      <c r="C147">
+        <v>0.908</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>25</v>
+      </c>
+      <c r="F147">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,294 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>17.09.20251</t>
-  </si>
-  <si>
-    <t>17.09.20252</t>
-  </si>
-  <si>
-    <t>17.09.20253</t>
-  </si>
-  <si>
-    <t>17.09.20254</t>
-  </si>
-  <si>
-    <t>17.09.20255</t>
-  </si>
-  <si>
-    <t>17.09.20256</t>
-  </si>
-  <si>
-    <t>17.09.20257</t>
-  </si>
-  <si>
-    <t>17.09.20258</t>
-  </si>
-  <si>
-    <t>17.09.20259</t>
-  </si>
-  <si>
-    <t>17.09.202510</t>
-  </si>
-  <si>
-    <t>17.09.202511</t>
-  </si>
-  <si>
-    <t>17.09.202512</t>
-  </si>
-  <si>
-    <t>17.09.202513</t>
-  </si>
-  <si>
-    <t>17.09.202514</t>
-  </si>
-  <si>
-    <t>17.09.202515</t>
-  </si>
-  <si>
-    <t>17.09.202516</t>
-  </si>
-  <si>
-    <t>17.09.202517</t>
-  </si>
-  <si>
-    <t>17.09.202518</t>
-  </si>
-  <si>
-    <t>17.09.202519</t>
-  </si>
-  <si>
-    <t>17.09.202520</t>
-  </si>
-  <si>
-    <t>17.09.202521</t>
-  </si>
-  <si>
-    <t>17.09.202522</t>
-  </si>
-  <si>
-    <t>17.09.202523</t>
-  </si>
-  <si>
-    <t>17.09.202524</t>
-  </si>
-  <si>
-    <t>17.09.202525</t>
-  </si>
-  <si>
-    <t>17.09.202526</t>
-  </si>
-  <si>
-    <t>17.09.202527</t>
-  </si>
-  <si>
-    <t>17.09.202528</t>
-  </si>
-  <si>
-    <t>17.09.202529</t>
-  </si>
-  <si>
-    <t>17.09.202530</t>
-  </si>
-  <si>
-    <t>17.09.202531</t>
-  </si>
-  <si>
-    <t>17.09.202532</t>
-  </si>
-  <si>
-    <t>17.09.202533</t>
-  </si>
-  <si>
-    <t>17.09.202534</t>
-  </si>
-  <si>
-    <t>17.09.202535</t>
-  </si>
-  <si>
-    <t>17.09.202536</t>
-  </si>
-  <si>
-    <t>17.09.202537</t>
-  </si>
-  <si>
-    <t>17.09.202538</t>
-  </si>
-  <si>
-    <t>17.09.202539</t>
-  </si>
-  <si>
-    <t>17.09.202540</t>
-  </si>
-  <si>
-    <t>17.09.202541</t>
-  </si>
-  <si>
-    <t>17.09.202542</t>
-  </si>
-  <si>
-    <t>17.09.202543</t>
-  </si>
-  <si>
-    <t>17.09.202544</t>
-  </si>
-  <si>
-    <t>17.09.202545</t>
-  </si>
-  <si>
-    <t>17.09.202546</t>
-  </si>
-  <si>
-    <t>17.09.202547</t>
-  </si>
-  <si>
-    <t>17.09.202548</t>
-  </si>
-  <si>
-    <t>17.09.202549</t>
-  </si>
-  <si>
-    <t>17.09.202550</t>
-  </si>
-  <si>
-    <t>17.09.202551</t>
-  </si>
-  <si>
-    <t>17.09.202552</t>
-  </si>
-  <si>
-    <t>17.09.202553</t>
-  </si>
-  <si>
-    <t>17.09.202554</t>
-  </si>
-  <si>
-    <t>17.09.202555</t>
-  </si>
-  <si>
-    <t>17.09.202556</t>
-  </si>
-  <si>
-    <t>17.09.202557</t>
-  </si>
-  <si>
-    <t>17.09.202558</t>
-  </si>
-  <si>
-    <t>17.09.202559</t>
-  </si>
-  <si>
-    <t>17.09.202560</t>
-  </si>
-  <si>
-    <t>17.09.202561</t>
-  </si>
-  <si>
-    <t>17.09.202562</t>
-  </si>
-  <si>
-    <t>17.09.202563</t>
-  </si>
-  <si>
-    <t>17.09.202564</t>
-  </si>
-  <si>
-    <t>17.09.202565</t>
-  </si>
-  <si>
-    <t>17.09.202566</t>
-  </si>
-  <si>
-    <t>17.09.202567</t>
-  </si>
-  <si>
-    <t>17.09.202568</t>
-  </si>
-  <si>
-    <t>17.09.202569</t>
-  </si>
-  <si>
-    <t>17.09.202570</t>
-  </si>
-  <si>
-    <t>17.09.202571</t>
-  </si>
-  <si>
-    <t>17.09.202572</t>
-  </si>
-  <si>
-    <t>17.09.202573</t>
-  </si>
-  <si>
-    <t>17.09.202574</t>
-  </si>
-  <si>
-    <t>17.09.202575</t>
-  </si>
-  <si>
-    <t>17.09.202576</t>
-  </si>
-  <si>
-    <t>17.09.202577</t>
-  </si>
-  <si>
-    <t>17.09.202578</t>
-  </si>
-  <si>
-    <t>17.09.202579</t>
-  </si>
-  <si>
-    <t>17.09.202580</t>
-  </si>
-  <si>
-    <t>17.09.202581</t>
-  </si>
-  <si>
-    <t>17.09.202582</t>
-  </si>
-  <si>
-    <t>17.09.202583</t>
-  </si>
-  <si>
-    <t>17.09.202584</t>
-  </si>
-  <si>
-    <t>17.09.202585</t>
-  </si>
-  <si>
-    <t>17.09.202586</t>
-  </si>
-  <si>
-    <t>17.09.202587</t>
-  </si>
-  <si>
-    <t>17.09.202588</t>
-  </si>
-  <si>
-    <t>17.09.202589</t>
-  </si>
-  <si>
-    <t>17.09.202590</t>
-  </si>
-  <si>
-    <t>17.09.202591</t>
-  </si>
-  <si>
-    <t>17.09.202592</t>
-  </si>
-  <si>
-    <t>17.09.202593</t>
-  </si>
-  <si>
-    <t>17.09.202594</t>
-  </si>
-  <si>
-    <t>17.09.202595</t>
-  </si>
-  <si>
-    <t>17.09.202596</t>
-  </si>
-  <si>
     <t>18.09.20251</t>
   </si>
   <si>
@@ -449,6 +161,288 @@
   </si>
   <si>
     <t>18.09.202542</t>
+  </si>
+  <si>
+    <t>18.09.202543</t>
+  </si>
+  <si>
+    <t>18.09.202544</t>
+  </si>
+  <si>
+    <t>18.09.202545</t>
+  </si>
+  <si>
+    <t>18.09.202546</t>
+  </si>
+  <si>
+    <t>18.09.202547</t>
+  </si>
+  <si>
+    <t>18.09.202548</t>
+  </si>
+  <si>
+    <t>18.09.202549</t>
+  </si>
+  <si>
+    <t>18.09.202550</t>
+  </si>
+  <si>
+    <t>18.09.202551</t>
+  </si>
+  <si>
+    <t>18.09.202552</t>
+  </si>
+  <si>
+    <t>18.09.202553</t>
+  </si>
+  <si>
+    <t>18.09.202554</t>
+  </si>
+  <si>
+    <t>18.09.202555</t>
+  </si>
+  <si>
+    <t>18.09.202556</t>
+  </si>
+  <si>
+    <t>18.09.202557</t>
+  </si>
+  <si>
+    <t>18.09.202558</t>
+  </si>
+  <si>
+    <t>18.09.202559</t>
+  </si>
+  <si>
+    <t>18.09.202560</t>
+  </si>
+  <si>
+    <t>18.09.202561</t>
+  </si>
+  <si>
+    <t>18.09.202562</t>
+  </si>
+  <si>
+    <t>18.09.202563</t>
+  </si>
+  <si>
+    <t>18.09.202564</t>
+  </si>
+  <si>
+    <t>18.09.202565</t>
+  </si>
+  <si>
+    <t>18.09.202566</t>
+  </si>
+  <si>
+    <t>18.09.202567</t>
+  </si>
+  <si>
+    <t>18.09.202568</t>
+  </si>
+  <si>
+    <t>18.09.202569</t>
+  </si>
+  <si>
+    <t>18.09.202570</t>
+  </si>
+  <si>
+    <t>18.09.202571</t>
+  </si>
+  <si>
+    <t>18.09.202572</t>
+  </si>
+  <si>
+    <t>18.09.202573</t>
+  </si>
+  <si>
+    <t>18.09.202574</t>
+  </si>
+  <si>
+    <t>18.09.202575</t>
+  </si>
+  <si>
+    <t>18.09.202576</t>
+  </si>
+  <si>
+    <t>18.09.202577</t>
+  </si>
+  <si>
+    <t>18.09.202578</t>
+  </si>
+  <si>
+    <t>18.09.202579</t>
+  </si>
+  <si>
+    <t>18.09.202580</t>
+  </si>
+  <si>
+    <t>18.09.202581</t>
+  </si>
+  <si>
+    <t>18.09.202582</t>
+  </si>
+  <si>
+    <t>18.09.202583</t>
+  </si>
+  <si>
+    <t>18.09.202584</t>
+  </si>
+  <si>
+    <t>18.09.202585</t>
+  </si>
+  <si>
+    <t>18.09.202586</t>
+  </si>
+  <si>
+    <t>18.09.202587</t>
+  </si>
+  <si>
+    <t>18.09.202588</t>
+  </si>
+  <si>
+    <t>18.09.202589</t>
+  </si>
+  <si>
+    <t>18.09.202590</t>
+  </si>
+  <si>
+    <t>18.09.202591</t>
+  </si>
+  <si>
+    <t>18.09.202592</t>
+  </si>
+  <si>
+    <t>18.09.202593</t>
+  </si>
+  <si>
+    <t>18.09.202594</t>
+  </si>
+  <si>
+    <t>18.09.202595</t>
+  </si>
+  <si>
+    <t>18.09.202596</t>
+  </si>
+  <si>
+    <t>19.09.20251</t>
+  </si>
+  <si>
+    <t>19.09.20252</t>
+  </si>
+  <si>
+    <t>19.09.20253</t>
+  </si>
+  <si>
+    <t>19.09.20254</t>
+  </si>
+  <si>
+    <t>19.09.20255</t>
+  </si>
+  <si>
+    <t>19.09.20256</t>
+  </si>
+  <si>
+    <t>19.09.20257</t>
+  </si>
+  <si>
+    <t>19.09.20258</t>
+  </si>
+  <si>
+    <t>19.09.20259</t>
+  </si>
+  <si>
+    <t>19.09.202510</t>
+  </si>
+  <si>
+    <t>19.09.202511</t>
+  </si>
+  <si>
+    <t>19.09.202512</t>
+  </si>
+  <si>
+    <t>19.09.202513</t>
+  </si>
+  <si>
+    <t>19.09.202514</t>
+  </si>
+  <si>
+    <t>19.09.202515</t>
+  </si>
+  <si>
+    <t>19.09.202516</t>
+  </si>
+  <si>
+    <t>19.09.202517</t>
+  </si>
+  <si>
+    <t>19.09.202518</t>
+  </si>
+  <si>
+    <t>19.09.202519</t>
+  </si>
+  <si>
+    <t>19.09.202520</t>
+  </si>
+  <si>
+    <t>19.09.202521</t>
+  </si>
+  <si>
+    <t>19.09.202522</t>
+  </si>
+  <si>
+    <t>19.09.202523</t>
+  </si>
+  <si>
+    <t>19.09.202524</t>
+  </si>
+  <si>
+    <t>19.09.202525</t>
+  </si>
+  <si>
+    <t>19.09.202526</t>
+  </si>
+  <si>
+    <t>19.09.202527</t>
+  </si>
+  <si>
+    <t>19.09.202528</t>
+  </si>
+  <si>
+    <t>19.09.202529</t>
+  </si>
+  <si>
+    <t>19.09.202530</t>
+  </si>
+  <si>
+    <t>19.09.202531</t>
+  </si>
+  <si>
+    <t>19.09.202532</t>
+  </si>
+  <si>
+    <t>19.09.202533</t>
+  </si>
+  <si>
+    <t>19.09.202534</t>
+  </si>
+  <si>
+    <t>19.09.202535</t>
+  </si>
+  <si>
+    <t>19.09.202536</t>
+  </si>
+  <si>
+    <t>19.09.202537</t>
+  </si>
+  <si>
+    <t>19.09.202538</t>
+  </si>
+  <si>
+    <t>19.09.202539</t>
+  </si>
+  <si>
+    <t>19.09.202540</t>
   </si>
 </sst>
 </file>
@@ -810,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,13 +835,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B2">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.693</v>
+        <v>6.924</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -864,13 +858,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45917.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.129</v>
+        <v>6.386</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -887,13 +881,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45917.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.414</v>
+        <v>20.396</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -910,13 +904,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45917.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.83</v>
+        <v>26.501</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -933,13 +927,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45917.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.181</v>
+        <v>24.222</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -956,13 +950,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45917.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.068</v>
+        <v>19.788</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -979,13 +973,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45917.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.118</v>
+        <v>36.503</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1002,13 +996,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45917.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.847</v>
+        <v>30.799</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1025,13 +1019,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45917.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.372</v>
+        <v>27.876</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1048,13 +1042,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45917.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B11">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.625</v>
+        <v>18.105</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1071,13 +1065,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45917.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.778</v>
+        <v>5.994</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1094,13 +1088,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45917.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.655</v>
+        <v>17.033</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1117,13 +1111,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45917.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B14">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.28</v>
+        <v>20.9</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1140,13 +1134,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45917.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1.669</v>
+        <v>21.19</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1163,13 +1157,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45917.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.323</v>
+        <v>1.987</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1186,13 +1180,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45917.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B17">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.139</v>
+        <v>10.698</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1209,13 +1203,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45917.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.202</v>
+        <v>8.102</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1232,13 +1226,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45917.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06900000000000001</v>
+        <v>4.928</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1255,13 +1249,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45917.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B20">
-        <v>2.025</v>
+        <v>0.948</v>
       </c>
       <c r="C20">
-        <v>0.065</v>
+        <v>0.046</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1278,13 +1272,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45917.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B21">
-        <v>1.183</v>
+        <v>0.949</v>
       </c>
       <c r="C21">
-        <v>0.059</v>
+        <v>0.118</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1301,13 +1295,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45917.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="C22">
-        <v>3.864</v>
+        <v>5.68</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1324,13 +1318,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45917.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B23">
-        <v>4.229</v>
+        <v>0.001</v>
       </c>
       <c r="C23">
-        <v>0.049</v>
+        <v>8.303000000000001</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1347,13 +1341,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45917.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B24">
-        <v>18.336</v>
+        <v>0.386</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>5.629</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1370,13 +1364,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45917.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B25">
-        <v>37.437</v>
+        <v>0.115</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.607</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1393,13 +1387,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45917.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B26">
-        <v>17.098</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>21.02</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1416,13 +1410,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45917.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B27">
-        <v>40.798</v>
+        <v>0.554</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1.932</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1439,16 +1433,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45917.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B28">
-        <v>51.023</v>
+        <v>1.259</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="D28">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1462,16 +1456,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45917.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B29">
-        <v>27.205</v>
+        <v>0.915</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="D29">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1485,16 +1479,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45917.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B30">
-        <v>35.705</v>
+        <v>6.339</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1508,16 +1502,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45917.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B31">
-        <v>68.56</v>
+        <v>0.017</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>15.522</v>
       </c>
       <c r="D31">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1531,16 +1525,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45917.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B32">
-        <v>56.074</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>50.923</v>
       </c>
       <c r="D32">
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1554,16 +1548,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45917.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B33">
-        <v>4.334</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1.257</v>
+        <v>85.378</v>
       </c>
       <c r="D33">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1577,16 +1571,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45917.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B34">
-        <v>25.868</v>
+        <v>5.822</v>
       </c>
       <c r="C34">
-        <v>0.021</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="D34">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1600,16 +1594,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45917.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B35">
-        <v>36.52</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>36.821</v>
       </c>
       <c r="D35">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1623,16 +1617,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45917.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B36">
-        <v>15.659</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>78.59399999999999</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1646,16 +1640,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45917.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B37">
-        <v>5.385</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>3.76</v>
+        <v>78.91800000000001</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1669,16 +1663,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45917.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>16.222</v>
+        <v>13.21</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1692,19 +1686,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45917.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="C39">
-        <v>13.877</v>
+        <v>10.335</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1715,19 +1709,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45917.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>20.608</v>
+        <v>18.445</v>
       </c>
       <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>25</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1738,19 +1732,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45917.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>56.224</v>
+        <v>29.688</v>
       </c>
       <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>25</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1761,19 +1755,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45917.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2.249</v>
       </c>
       <c r="C42">
-        <v>20.609</v>
+        <v>4.29</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1784,19 +1778,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45917.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="C43">
-        <v>33.701</v>
+        <v>0.908</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1807,13 +1801,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45917.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="C44">
-        <v>50.599</v>
+        <v>5.535</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1830,13 +1824,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45917.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>49.975</v>
+        <v>33.405</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1853,13 +1847,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45917.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>6.912</v>
+        <v>26.24</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1876,19 +1870,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45917.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B47">
-        <v>0.003</v>
+        <v>2.807</v>
       </c>
       <c r="C47">
-        <v>6.991</v>
+        <v>2.934</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1899,19 +1893,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45917.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="C48">
-        <v>14.468</v>
+        <v>0.311</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1922,13 +1916,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45917.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C49">
-        <v>29.737</v>
+        <v>1.197</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1945,13 +1939,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45917.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>15.103</v>
+        <v>8.504</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1968,13 +1962,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45917.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>18.324</v>
+        <v>17.544</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1991,19 +1985,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45917.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.309</v>
+        <v>6.399</v>
       </c>
       <c r="C52">
-        <v>0.276</v>
+        <v>11.796</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -2014,19 +2008,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45917.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="C53">
-        <v>7.704</v>
+        <v>15.184</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2037,19 +2031,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45917.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.142</v>
+        <v>0.091</v>
       </c>
       <c r="C54">
-        <v>0.398</v>
+        <v>11.684</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2060,19 +2054,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45917.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B55">
-        <v>0.093</v>
+        <v>0.01</v>
       </c>
       <c r="C55">
-        <v>0.398</v>
+        <v>8.061</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2083,19 +2077,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45917.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B56">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.358</v>
+        <v>12.184</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2106,19 +2100,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45917.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>17.061</v>
+        <v>39.784</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2129,19 +2123,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45917.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>29.475</v>
+        <v>64.983</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2152,19 +2146,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45917.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B59">
-        <v>0.006</v>
+        <v>0.021</v>
       </c>
       <c r="C59">
-        <v>6.607</v>
+        <v>16.731</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -2175,13 +2169,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45917.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B60">
-        <v>3.446</v>
+        <v>0.068</v>
       </c>
       <c r="C60">
-        <v>0.778</v>
+        <v>0.641</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2198,13 +2192,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45917.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B61">
-        <v>3.676</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.052</v>
+        <v>43.636</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2221,13 +2215,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45917.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>21.869</v>
+        <v>63.03</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2244,19 +2238,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45917.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>4.314</v>
+        <v>47.455</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -2267,19 +2261,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45917.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B64">
-        <v>3.589</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.032</v>
+        <v>65.919</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -2290,19 +2284,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45917.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B65">
-        <v>3.042</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>24.493</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -2313,13 +2307,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45917.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B66">
-        <v>1.047</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>3.904</v>
+        <v>57.029</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2336,13 +2330,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45917.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.9330000000000001</v>
+        <v>45.506</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2359,13 +2353,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45917.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B68">
-        <v>0.2</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C68">
-        <v>0.207</v>
+        <v>11.009</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2382,13 +2376,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45917.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B69">
-        <v>0.21</v>
+        <v>0.132</v>
       </c>
       <c r="C69">
-        <v>0.232</v>
+        <v>5.861</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2405,13 +2399,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45917.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>28.217</v>
+        <v>15.356</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2428,13 +2422,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45917.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B71">
-        <v>5.409</v>
+        <v>0.032</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2451,13 +2445,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45917.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.487</v>
+        <v>0.131</v>
       </c>
       <c r="C72">
-        <v>0.044</v>
+        <v>3.132</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2474,13 +2468,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45917.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.031</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C73">
-        <v>0.839</v>
+        <v>0.288</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2497,13 +2491,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45917.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>39.587</v>
+        <v>45.359</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2520,13 +2514,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45917.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.024</v>
+        <v>0.188</v>
       </c>
       <c r="C75">
-        <v>11.194</v>
+        <v>1.503</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2543,13 +2537,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45917.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.318</v>
+        <v>0.203</v>
       </c>
       <c r="C76">
-        <v>0.184</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2566,13 +2560,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45917.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B77">
-        <v>1.743</v>
+        <v>0.554</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2589,13 +2583,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45917.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B78">
-        <v>12.794</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>19.342</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2612,13 +2606,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45917.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B79">
-        <v>36.167</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>3.517</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2635,13 +2629,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45917.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B80">
-        <v>41.921</v>
+        <v>0.003</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>3.982</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2658,13 +2652,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45917.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B81">
-        <v>41.323</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>22.501</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2681,13 +2675,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45917.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B82">
-        <v>45.623</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>38.996</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2704,16 +2698,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45917.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B83">
-        <v>5.082</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.046</v>
+        <v>50.295</v>
       </c>
       <c r="D83">
-        <v>48.25</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2727,16 +2721,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45917.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>22.766</v>
+        <v>49.121</v>
       </c>
       <c r="D84">
-        <v>48.25</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2750,13 +2744,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45917.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>42.502</v>
+        <v>51.964</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2773,13 +2767,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45917.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B86">
-        <v>0.729</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>8.823</v>
+        <v>8.363</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2796,13 +2790,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45917.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>16.946</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2819,13 +2813,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45917.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>29.265</v>
+        <v>23.022</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2842,13 +2836,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45917.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>53.604</v>
+        <v>35.388</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2865,13 +2859,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45917.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B90">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>15.944</v>
+        <v>13.406</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2888,13 +2882,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45917.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>16.642</v>
+        <v>22.071</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2911,13 +2905,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45917.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>21.47</v>
+        <v>25.366</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2934,13 +2928,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45917.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>27.019</v>
+        <v>38.391</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2957,13 +2951,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45917.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B94">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>3.426</v>
+        <v>16.044</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2980,13 +2974,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45917.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B95">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0.276</v>
+        <v>14.41</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3003,13 +2997,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45917.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>15.447</v>
+        <v>13.664</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3026,13 +3020,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45917.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>50.938</v>
+        <v>20.391</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3049,13 +3043,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>6.924</v>
+        <v>17.771</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3072,13 +3066,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>6.924</v>
+        <v>17.771</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3095,13 +3089,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>6.386</v>
+        <v>20.265</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3118,13 +3112,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>6.386</v>
+        <v>20.265</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3141,13 +3135,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>20.396</v>
+        <v>30.937</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3164,13 +3158,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>20.396</v>
+        <v>30.937</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3187,13 +3181,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>26.501</v>
+        <v>47.04</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3210,13 +3204,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>26.501</v>
+        <v>47.04</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3233,13 +3227,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>24.222</v>
+        <v>18.82</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3256,13 +3250,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>24.222</v>
+        <v>18.82</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3279,13 +3273,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>19.788</v>
+        <v>30.979</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3302,13 +3296,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>19.788</v>
+        <v>30.979</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3325,13 +3319,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>36.503</v>
+        <v>43.476</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3348,13 +3342,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>36.503</v>
+        <v>43.476</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3371,13 +3365,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>30.799</v>
+        <v>62.192</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3394,13 +3388,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>30.799</v>
+        <v>62.192</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3417,13 +3411,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>27.876</v>
+        <v>54.897</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3440,13 +3434,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>18.105</v>
+        <v>37.997</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3463,13 +3457,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>5.994</v>
+        <v>36.975</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3486,13 +3480,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>17.033</v>
+        <v>35.914</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3509,13 +3503,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>20.9</v>
+        <v>36.594</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3532,13 +3526,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>21.19</v>
+        <v>7.957</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3555,13 +3549,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1.987</v>
+        <v>10.205</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3578,13 +3572,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>10.698</v>
+        <v>12.594</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3601,13 +3595,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>8.102</v>
+        <v>30.254</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3624,13 +3618,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>4.928</v>
+        <v>22.093</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3647,13 +3641,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B124">
-        <v>0.948</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>0.046</v>
+        <v>27.12</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3670,13 +3664,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B125">
-        <v>0.949</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0.118</v>
+        <v>16.792</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3693,13 +3687,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B126">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>5.68</v>
+        <v>55.86</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3716,13 +3710,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B127">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>8.303000000000001</v>
+        <v>28.334</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3739,13 +3733,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B128">
-        <v>0.386</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>5.629</v>
+        <v>9.036</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3762,13 +3756,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B129">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>1.607</v>
+        <v>19.411</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3785,13 +3779,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="C130">
-        <v>21.02</v>
+        <v>13.23</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3808,13 +3802,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B131">
-        <v>0.554</v>
+        <v>0.02</v>
       </c>
       <c r="C131">
-        <v>1.932</v>
+        <v>3.715</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3831,13 +3825,13 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B132">
-        <v>1.259</v>
+        <v>0.026</v>
       </c>
       <c r="C132">
-        <v>0.133</v>
+        <v>0.271</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3854,13 +3848,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B133">
-        <v>0.915</v>
+        <v>1.052</v>
       </c>
       <c r="C133">
-        <v>0.138</v>
+        <v>0.044</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3877,10 +3871,10 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B134">
-        <v>6.339</v>
+        <v>17.822</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3900,13 +3894,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B135">
-        <v>0.017</v>
+        <v>13.029</v>
       </c>
       <c r="C135">
-        <v>15.522</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3923,13 +3917,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>26.968</v>
       </c>
       <c r="C136">
-        <v>50.923</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -3946,13 +3940,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>10.464</v>
       </c>
       <c r="C137">
-        <v>85.378</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -3969,13 +3963,13 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B138">
-        <v>5.822</v>
+        <v>54.682</v>
       </c>
       <c r="C138">
-        <v>8.662000000000001</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -3992,13 +3986,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>26.288</v>
       </c>
       <c r="C139">
-        <v>36.821</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -4015,13 +4009,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>21.935</v>
       </c>
       <c r="C140">
-        <v>78.59399999999999</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4038,13 +4032,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1.857</v>
       </c>
       <c r="C141">
-        <v>78.91800000000001</v>
+        <v>0.005</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4061,13 +4055,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>47.719</v>
       </c>
       <c r="C142">
-        <v>13.21</v>
+        <v>0.025</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4084,19 +4078,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B143">
-        <v>0.016</v>
+        <v>23.533</v>
       </c>
       <c r="C143">
-        <v>10.335</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>38</v>
@@ -4107,19 +4101,19 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>5.432</v>
       </c>
       <c r="C144">
-        <v>18.445</v>
+        <v>0.111</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <v>39</v>
@@ -4130,71 +4124,25 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C145">
-        <v>29.688</v>
+        <v>12.402</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>40</v>
       </c>
       <c r="G145" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="2">
-        <v>45918.41666666666</v>
-      </c>
-      <c r="B146">
-        <v>2.249</v>
-      </c>
-      <c r="C146">
-        <v>4.29</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>25</v>
-      </c>
-      <c r="F146">
-        <v>41</v>
-      </c>
-      <c r="G146" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="2">
-        <v>45918.42708333334</v>
-      </c>
-      <c r="B147">
-        <v>0.18</v>
-      </c>
-      <c r="C147">
-        <v>0.908</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>25</v>
-      </c>
-      <c r="F147">
-        <v>42</v>
-      </c>
-      <c r="G147" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,412 +37,376 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>18.09.20251</t>
-  </si>
-  <si>
-    <t>18.09.20252</t>
-  </si>
-  <si>
-    <t>18.09.20253</t>
-  </si>
-  <si>
-    <t>18.09.20254</t>
-  </si>
-  <si>
-    <t>18.09.20255</t>
-  </si>
-  <si>
-    <t>18.09.20256</t>
-  </si>
-  <si>
-    <t>18.09.20257</t>
-  </si>
-  <si>
-    <t>18.09.20258</t>
-  </si>
-  <si>
-    <t>18.09.20259</t>
-  </si>
-  <si>
-    <t>18.09.202510</t>
-  </si>
-  <si>
-    <t>18.09.202511</t>
-  </si>
-  <si>
-    <t>18.09.202512</t>
-  </si>
-  <si>
-    <t>18.09.202513</t>
-  </si>
-  <si>
-    <t>18.09.202514</t>
-  </si>
-  <si>
-    <t>18.09.202515</t>
-  </si>
-  <si>
-    <t>18.09.202516</t>
-  </si>
-  <si>
-    <t>18.09.202517</t>
-  </si>
-  <si>
-    <t>18.09.202518</t>
-  </si>
-  <si>
-    <t>18.09.202519</t>
-  </si>
-  <si>
-    <t>18.09.202520</t>
-  </si>
-  <si>
-    <t>18.09.202521</t>
-  </si>
-  <si>
-    <t>18.09.202522</t>
-  </si>
-  <si>
-    <t>18.09.202523</t>
-  </si>
-  <si>
-    <t>18.09.202524</t>
-  </si>
-  <si>
-    <t>18.09.202525</t>
-  </si>
-  <si>
-    <t>18.09.202526</t>
-  </si>
-  <si>
-    <t>18.09.202527</t>
-  </si>
-  <si>
-    <t>18.09.202528</t>
-  </si>
-  <si>
-    <t>18.09.202529</t>
-  </si>
-  <si>
-    <t>18.09.202530</t>
-  </si>
-  <si>
-    <t>18.09.202531</t>
-  </si>
-  <si>
-    <t>18.09.202532</t>
-  </si>
-  <si>
-    <t>18.09.202533</t>
-  </si>
-  <si>
-    <t>18.09.202534</t>
-  </si>
-  <si>
-    <t>18.09.202535</t>
-  </si>
-  <si>
-    <t>18.09.202536</t>
-  </si>
-  <si>
-    <t>18.09.202537</t>
-  </si>
-  <si>
-    <t>18.09.202538</t>
-  </si>
-  <si>
-    <t>18.09.202539</t>
-  </si>
-  <si>
-    <t>18.09.202540</t>
-  </si>
-  <si>
-    <t>18.09.202541</t>
-  </si>
-  <si>
-    <t>18.09.202542</t>
-  </si>
-  <si>
-    <t>18.09.202543</t>
-  </si>
-  <si>
-    <t>18.09.202544</t>
-  </si>
-  <si>
-    <t>18.09.202545</t>
-  </si>
-  <si>
-    <t>18.09.202546</t>
-  </si>
-  <si>
-    <t>18.09.202547</t>
-  </si>
-  <si>
-    <t>18.09.202548</t>
-  </si>
-  <si>
-    <t>18.09.202549</t>
-  </si>
-  <si>
-    <t>18.09.202550</t>
-  </si>
-  <si>
-    <t>18.09.202551</t>
-  </si>
-  <si>
-    <t>18.09.202552</t>
-  </si>
-  <si>
-    <t>18.09.202553</t>
-  </si>
-  <si>
-    <t>18.09.202554</t>
-  </si>
-  <si>
-    <t>18.09.202555</t>
-  </si>
-  <si>
-    <t>18.09.202556</t>
-  </si>
-  <si>
-    <t>18.09.202557</t>
-  </si>
-  <si>
-    <t>18.09.202558</t>
-  </si>
-  <si>
-    <t>18.09.202559</t>
-  </si>
-  <si>
-    <t>18.09.202560</t>
-  </si>
-  <si>
-    <t>18.09.202561</t>
-  </si>
-  <si>
-    <t>18.09.202562</t>
-  </si>
-  <si>
-    <t>18.09.202563</t>
-  </si>
-  <si>
-    <t>18.09.202564</t>
-  </si>
-  <si>
-    <t>18.09.202565</t>
-  </si>
-  <si>
-    <t>18.09.202566</t>
-  </si>
-  <si>
-    <t>18.09.202567</t>
-  </si>
-  <si>
-    <t>18.09.202568</t>
-  </si>
-  <si>
-    <t>18.09.202569</t>
-  </si>
-  <si>
-    <t>18.09.202570</t>
-  </si>
-  <si>
-    <t>18.09.202571</t>
-  </si>
-  <si>
-    <t>18.09.202572</t>
-  </si>
-  <si>
-    <t>18.09.202573</t>
-  </si>
-  <si>
-    <t>18.09.202574</t>
-  </si>
-  <si>
-    <t>18.09.202575</t>
-  </si>
-  <si>
-    <t>18.09.202576</t>
-  </si>
-  <si>
-    <t>18.09.202577</t>
-  </si>
-  <si>
-    <t>18.09.202578</t>
-  </si>
-  <si>
-    <t>18.09.202579</t>
-  </si>
-  <si>
-    <t>18.09.202580</t>
-  </si>
-  <si>
-    <t>18.09.202581</t>
-  </si>
-  <si>
-    <t>18.09.202582</t>
-  </si>
-  <si>
-    <t>18.09.202583</t>
-  </si>
-  <si>
-    <t>18.09.202584</t>
-  </si>
-  <si>
-    <t>18.09.202585</t>
-  </si>
-  <si>
-    <t>18.09.202586</t>
-  </si>
-  <si>
-    <t>18.09.202587</t>
-  </si>
-  <si>
-    <t>18.09.202588</t>
-  </si>
-  <si>
-    <t>18.09.202589</t>
-  </si>
-  <si>
-    <t>18.09.202590</t>
-  </si>
-  <si>
-    <t>18.09.202591</t>
-  </si>
-  <si>
-    <t>18.09.202592</t>
-  </si>
-  <si>
-    <t>18.09.202593</t>
-  </si>
-  <si>
-    <t>18.09.202594</t>
-  </si>
-  <si>
-    <t>18.09.202595</t>
-  </si>
-  <si>
-    <t>18.09.202596</t>
-  </si>
-  <si>
-    <t>19.09.20251</t>
-  </si>
-  <si>
-    <t>19.09.20252</t>
-  </si>
-  <si>
-    <t>19.09.20253</t>
-  </si>
-  <si>
-    <t>19.09.20254</t>
-  </si>
-  <si>
-    <t>19.09.20255</t>
-  </si>
-  <si>
-    <t>19.09.20256</t>
-  </si>
-  <si>
-    <t>19.09.20257</t>
-  </si>
-  <si>
-    <t>19.09.20258</t>
-  </si>
-  <si>
-    <t>19.09.20259</t>
-  </si>
-  <si>
-    <t>19.09.202510</t>
-  </si>
-  <si>
-    <t>19.09.202511</t>
-  </si>
-  <si>
-    <t>19.09.202512</t>
-  </si>
-  <si>
-    <t>19.09.202513</t>
-  </si>
-  <si>
-    <t>19.09.202514</t>
-  </si>
-  <si>
-    <t>19.09.202515</t>
-  </si>
-  <si>
-    <t>19.09.202516</t>
-  </si>
-  <si>
-    <t>19.09.202517</t>
-  </si>
-  <si>
-    <t>19.09.202518</t>
-  </si>
-  <si>
-    <t>19.09.202519</t>
-  </si>
-  <si>
-    <t>19.09.202520</t>
-  </si>
-  <si>
-    <t>19.09.202521</t>
-  </si>
-  <si>
-    <t>19.09.202522</t>
-  </si>
-  <si>
-    <t>19.09.202523</t>
-  </si>
-  <si>
-    <t>19.09.202524</t>
-  </si>
-  <si>
-    <t>19.09.202525</t>
-  </si>
-  <si>
-    <t>19.09.202526</t>
-  </si>
-  <si>
-    <t>19.09.202527</t>
-  </si>
-  <si>
-    <t>19.09.202528</t>
-  </si>
-  <si>
-    <t>19.09.202529</t>
-  </si>
-  <si>
-    <t>19.09.202530</t>
-  </si>
-  <si>
-    <t>19.09.202531</t>
-  </si>
-  <si>
-    <t>19.09.202532</t>
-  </si>
-  <si>
-    <t>19.09.202533</t>
-  </si>
-  <si>
-    <t>19.09.202534</t>
-  </si>
-  <si>
-    <t>19.09.202535</t>
-  </si>
-  <si>
-    <t>19.09.202536</t>
-  </si>
-  <si>
-    <t>19.09.202537</t>
-  </si>
-  <si>
-    <t>19.09.202538</t>
-  </si>
-  <si>
-    <t>19.09.202539</t>
-  </si>
-  <si>
-    <t>19.09.202540</t>
+    <t>22.09.20251</t>
+  </si>
+  <si>
+    <t>22.09.20252</t>
+  </si>
+  <si>
+    <t>22.09.20253</t>
+  </si>
+  <si>
+    <t>22.09.20254</t>
+  </si>
+  <si>
+    <t>22.09.20255</t>
+  </si>
+  <si>
+    <t>22.09.20256</t>
+  </si>
+  <si>
+    <t>22.09.20257</t>
+  </si>
+  <si>
+    <t>22.09.20258</t>
+  </si>
+  <si>
+    <t>22.09.20259</t>
+  </si>
+  <si>
+    <t>22.09.202510</t>
+  </si>
+  <si>
+    <t>22.09.202511</t>
+  </si>
+  <si>
+    <t>22.09.202512</t>
+  </si>
+  <si>
+    <t>22.09.202513</t>
+  </si>
+  <si>
+    <t>22.09.202514</t>
+  </si>
+  <si>
+    <t>22.09.202515</t>
+  </si>
+  <si>
+    <t>22.09.202516</t>
+  </si>
+  <si>
+    <t>22.09.202517</t>
+  </si>
+  <si>
+    <t>22.09.202518</t>
+  </si>
+  <si>
+    <t>22.09.202519</t>
+  </si>
+  <si>
+    <t>22.09.202520</t>
+  </si>
+  <si>
+    <t>22.09.202521</t>
+  </si>
+  <si>
+    <t>22.09.202522</t>
+  </si>
+  <si>
+    <t>22.09.202523</t>
+  </si>
+  <si>
+    <t>22.09.202524</t>
+  </si>
+  <si>
+    <t>22.09.202525</t>
+  </si>
+  <si>
+    <t>22.09.202526</t>
+  </si>
+  <si>
+    <t>22.09.202527</t>
+  </si>
+  <si>
+    <t>22.09.202528</t>
+  </si>
+  <si>
+    <t>22.09.202529</t>
+  </si>
+  <si>
+    <t>22.09.202530</t>
+  </si>
+  <si>
+    <t>22.09.202531</t>
+  </si>
+  <si>
+    <t>22.09.202532</t>
+  </si>
+  <si>
+    <t>22.09.202533</t>
+  </si>
+  <si>
+    <t>22.09.202534</t>
+  </si>
+  <si>
+    <t>22.09.202535</t>
+  </si>
+  <si>
+    <t>22.09.202536</t>
+  </si>
+  <si>
+    <t>22.09.202537</t>
+  </si>
+  <si>
+    <t>22.09.202538</t>
+  </si>
+  <si>
+    <t>22.09.202539</t>
+  </si>
+  <si>
+    <t>22.09.202540</t>
+  </si>
+  <si>
+    <t>22.09.202541</t>
+  </si>
+  <si>
+    <t>22.09.202542</t>
+  </si>
+  <si>
+    <t>22.09.202543</t>
+  </si>
+  <si>
+    <t>22.09.202544</t>
+  </si>
+  <si>
+    <t>22.09.202545</t>
+  </si>
+  <si>
+    <t>22.09.202546</t>
+  </si>
+  <si>
+    <t>22.09.202547</t>
+  </si>
+  <si>
+    <t>22.09.202548</t>
+  </si>
+  <si>
+    <t>22.09.202549</t>
+  </si>
+  <si>
+    <t>22.09.202550</t>
+  </si>
+  <si>
+    <t>22.09.202551</t>
+  </si>
+  <si>
+    <t>22.09.202552</t>
+  </si>
+  <si>
+    <t>22.09.202553</t>
+  </si>
+  <si>
+    <t>22.09.202554</t>
+  </si>
+  <si>
+    <t>22.09.202555</t>
+  </si>
+  <si>
+    <t>22.09.202556</t>
+  </si>
+  <si>
+    <t>22.09.202557</t>
+  </si>
+  <si>
+    <t>22.09.202558</t>
+  </si>
+  <si>
+    <t>22.09.202559</t>
+  </si>
+  <si>
+    <t>22.09.202560</t>
+  </si>
+  <si>
+    <t>22.09.202561</t>
+  </si>
+  <si>
+    <t>22.09.202562</t>
+  </si>
+  <si>
+    <t>22.09.202563</t>
+  </si>
+  <si>
+    <t>22.09.202564</t>
+  </si>
+  <si>
+    <t>22.09.202565</t>
+  </si>
+  <si>
+    <t>22.09.202566</t>
+  </si>
+  <si>
+    <t>22.09.202567</t>
+  </si>
+  <si>
+    <t>22.09.202568</t>
+  </si>
+  <si>
+    <t>22.09.202569</t>
+  </si>
+  <si>
+    <t>22.09.202570</t>
+  </si>
+  <si>
+    <t>22.09.202571</t>
+  </si>
+  <si>
+    <t>22.09.202572</t>
+  </si>
+  <si>
+    <t>22.09.202573</t>
+  </si>
+  <si>
+    <t>22.09.202574</t>
+  </si>
+  <si>
+    <t>22.09.202575</t>
+  </si>
+  <si>
+    <t>22.09.202576</t>
+  </si>
+  <si>
+    <t>22.09.202577</t>
+  </si>
+  <si>
+    <t>22.09.202578</t>
+  </si>
+  <si>
+    <t>22.09.202579</t>
+  </si>
+  <si>
+    <t>22.09.202580</t>
+  </si>
+  <si>
+    <t>22.09.202581</t>
+  </si>
+  <si>
+    <t>22.09.202582</t>
+  </si>
+  <si>
+    <t>22.09.202583</t>
+  </si>
+  <si>
+    <t>22.09.202584</t>
+  </si>
+  <si>
+    <t>22.09.202585</t>
+  </si>
+  <si>
+    <t>22.09.202586</t>
+  </si>
+  <si>
+    <t>22.09.202587</t>
+  </si>
+  <si>
+    <t>22.09.202588</t>
+  </si>
+  <si>
+    <t>22.09.202589</t>
+  </si>
+  <si>
+    <t>22.09.202590</t>
+  </si>
+  <si>
+    <t>22.09.202591</t>
+  </si>
+  <si>
+    <t>22.09.202592</t>
+  </si>
+  <si>
+    <t>22.09.202593</t>
+  </si>
+  <si>
+    <t>22.09.202594</t>
+  </si>
+  <si>
+    <t>22.09.202595</t>
+  </si>
+  <si>
+    <t>22.09.202596</t>
+  </si>
+  <si>
+    <t>23.09.20251</t>
+  </si>
+  <si>
+    <t>23.09.20252</t>
+  </si>
+  <si>
+    <t>23.09.20253</t>
+  </si>
+  <si>
+    <t>23.09.20254</t>
+  </si>
+  <si>
+    <t>23.09.20255</t>
+  </si>
+  <si>
+    <t>23.09.20256</t>
+  </si>
+  <si>
+    <t>23.09.20257</t>
+  </si>
+  <si>
+    <t>23.09.20258</t>
+  </si>
+  <si>
+    <t>23.09.20259</t>
+  </si>
+  <si>
+    <t>23.09.202510</t>
+  </si>
+  <si>
+    <t>23.09.202511</t>
+  </si>
+  <si>
+    <t>23.09.202512</t>
+  </si>
+  <si>
+    <t>23.09.202513</t>
+  </si>
+  <si>
+    <t>23.09.202514</t>
+  </si>
+  <si>
+    <t>23.09.202515</t>
+  </si>
+  <si>
+    <t>23.09.202516</t>
+  </si>
+  <si>
+    <t>23.09.202517</t>
+  </si>
+  <si>
+    <t>23.09.202518</t>
+  </si>
+  <si>
+    <t>23.09.202519</t>
+  </si>
+  <si>
+    <t>23.09.202520</t>
+  </si>
+  <si>
+    <t>23.09.202521</t>
+  </si>
+  <si>
+    <t>23.09.202522</t>
+  </si>
+  <si>
+    <t>23.09.202523</t>
+  </si>
+  <si>
+    <t>23.09.202524</t>
+  </si>
+  <si>
+    <t>23.09.202525</t>
+  </si>
+  <si>
+    <t>23.09.202526</t>
+  </si>
+  <si>
+    <t>23.09.202527</t>
+  </si>
+  <si>
+    <t>23.09.202528</t>
   </si>
 </sst>
 </file>
@@ -804,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,13 +799,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C2">
-        <v>6.924</v>
+        <v>8.951000000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -858,13 +822,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45918.01041666666</v>
+        <v>45922.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="C3">
-        <v>6.386</v>
+        <v>1.843</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -881,13 +845,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45918.02083333334</v>
+        <v>45922.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>20.396</v>
+        <v>4.514</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -904,13 +868,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45918.03125</v>
+        <v>45922.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>26.501</v>
+        <v>8.714</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -927,13 +891,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45918.04166666666</v>
+        <v>45922.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>24.222</v>
+        <v>9.493</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -950,13 +914,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45918.05208333334</v>
+        <v>45922.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>19.788</v>
+        <v>12.045</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -973,13 +937,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45918.0625</v>
+        <v>45922.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>36.503</v>
+        <v>2.642</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -996,13 +960,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45918.07291666666</v>
+        <v>45922.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>30.799</v>
+        <v>9.837999999999999</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1019,13 +983,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45918.08333333334</v>
+        <v>45922.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="C10">
-        <v>27.876</v>
+        <v>1.416</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1042,13 +1006,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45918.09375</v>
+        <v>45922.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>18.105</v>
+        <v>19.579</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1065,13 +1029,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45918.10416666666</v>
+        <v>45922.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.994</v>
+        <v>7.226</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1088,13 +1052,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45918.11458333334</v>
+        <v>45922.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>17.033</v>
+        <v>3.693</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1111,13 +1075,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45918.125</v>
+        <v>45922.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>20.9</v>
+        <v>8.037000000000001</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1134,13 +1098,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45918.13541666666</v>
+        <v>45922.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>21.19</v>
+        <v>13.317</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1157,13 +1121,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45918.14583333334</v>
+        <v>45922.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="C16">
-        <v>1.987</v>
+        <v>3.336</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1180,13 +1144,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45918.15625</v>
+        <v>45922.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="C17">
-        <v>10.698</v>
+        <v>0.643</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1203,13 +1167,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45918.16666666666</v>
+        <v>45922.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="C18">
-        <v>8.102</v>
+        <v>2.177</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1226,13 +1190,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45918.17708333334</v>
+        <v>45922.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.928</v>
+        <v>19.315</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1249,13 +1213,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45918.1875</v>
+        <v>45922.1875</v>
       </c>
       <c r="B20">
-        <v>0.948</v>
+        <v>0.2</v>
       </c>
       <c r="C20">
-        <v>0.046</v>
+        <v>1.667</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1272,13 +1236,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45918.19791666666</v>
+        <v>45922.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.949</v>
+        <v>5.693</v>
       </c>
       <c r="C21">
-        <v>0.118</v>
+        <v>0.001</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1295,13 +1259,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45918.20833333334</v>
+        <v>45922.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.047</v>
+        <v>0.229</v>
       </c>
       <c r="C22">
-        <v>5.68</v>
+        <v>0.157</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1318,13 +1282,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45918.21875</v>
+        <v>45922.21875</v>
       </c>
       <c r="B23">
-        <v>0.001</v>
+        <v>0.034</v>
       </c>
       <c r="C23">
-        <v>8.303000000000001</v>
+        <v>2.611</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1341,13 +1305,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45918.22916666666</v>
+        <v>45922.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.386</v>
+        <v>13.363</v>
       </c>
       <c r="C24">
-        <v>5.629</v>
+        <v>0.027</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1364,13 +1328,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45918.23958333334</v>
+        <v>45922.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.115</v>
+        <v>13.281</v>
       </c>
       <c r="C25">
-        <v>1.607</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1387,13 +1351,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45918.25</v>
+        <v>45922.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>10.262</v>
       </c>
       <c r="C26">
-        <v>21.02</v>
+        <v>0.061</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1410,16 +1374,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45918.26041666666</v>
+        <v>45922.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.554</v>
+        <v>14.615</v>
       </c>
       <c r="C27">
-        <v>1.932</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1433,16 +1397,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45918.27083333334</v>
+        <v>45922.27083333334</v>
       </c>
       <c r="B28">
-        <v>1.259</v>
+        <v>16.63</v>
       </c>
       <c r="C28">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1456,16 +1420,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45918.28125</v>
+        <v>45922.28125</v>
       </c>
       <c r="B29">
-        <v>0.915</v>
+        <v>3.071</v>
       </c>
       <c r="C29">
-        <v>0.138</v>
+        <v>0.02</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1479,16 +1443,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45918.29166666666</v>
+        <v>45922.29166666666</v>
       </c>
       <c r="B30">
-        <v>6.339</v>
+        <v>0.172</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1502,16 +1466,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45918.30208333334</v>
+        <v>45922.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>15.522</v>
+        <v>3.465</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1525,16 +1489,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45918.3125</v>
+        <v>45922.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>50.923</v>
+        <v>16.459</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1548,13 +1512,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45918.32291666666</v>
+        <v>45922.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>85.378</v>
+        <v>18.164</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1571,13 +1535,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45918.33333333334</v>
+        <v>45922.33333333334</v>
       </c>
       <c r="B34">
-        <v>5.822</v>
+        <v>10.309</v>
       </c>
       <c r="C34">
-        <v>8.662000000000001</v>
+        <v>1.497</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1594,13 +1558,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45918.34375</v>
+        <v>45922.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.525</v>
       </c>
       <c r="C35">
-        <v>36.821</v>
+        <v>0.519</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1617,13 +1581,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45918.35416666666</v>
+        <v>45922.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>78.59399999999999</v>
+        <v>32.2</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1640,13 +1604,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45918.36458333334</v>
+        <v>45922.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>78.91800000000001</v>
+        <v>71.009</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1663,13 +1627,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45918.375</v>
+        <v>45922.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="C38">
-        <v>13.21</v>
+        <v>7.222</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1686,19 +1650,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45918.38541666666</v>
+        <v>45922.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>10.335</v>
+        <v>3.521</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1709,19 +1673,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45918.39583333334</v>
+        <v>45922.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>18.445</v>
+        <v>12.614</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1732,19 +1696,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45918.40625</v>
+        <v>45922.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.492</v>
       </c>
       <c r="C41">
-        <v>29.688</v>
+        <v>4.083</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1755,19 +1719,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45918.41666666666</v>
+        <v>45922.41666666666</v>
       </c>
       <c r="B42">
-        <v>2.249</v>
+        <v>0.002</v>
       </c>
       <c r="C42">
-        <v>4.29</v>
+        <v>7.928</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1778,19 +1742,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45918.42708333334</v>
+        <v>45922.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.908</v>
+        <v>2.125</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1801,13 +1765,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45918.4375</v>
+        <v>45922.4375</v>
       </c>
       <c r="B44">
-        <v>0.041</v>
+        <v>0.01</v>
       </c>
       <c r="C44">
-        <v>5.535</v>
+        <v>6.503</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1824,13 +1788,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45918.44791666666</v>
+        <v>45922.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>33.405</v>
+        <v>23.516</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1847,13 +1811,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45918.45833333334</v>
+        <v>45922.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>26.24</v>
+        <v>21.495</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1870,19 +1834,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45918.46875</v>
+        <v>45922.46875</v>
       </c>
       <c r="B47">
-        <v>2.807</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2.934</v>
+        <v>9.557</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1893,19 +1857,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45918.47916666666</v>
+        <v>45922.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.311</v>
+        <v>16.393</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1916,13 +1880,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45918.48958333334</v>
+        <v>45922.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>1.197</v>
+        <v>3.601</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1939,13 +1903,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45918.5</v>
+        <v>45922.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>8.504</v>
+        <v>12.38</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1962,13 +1926,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45918.51041666666</v>
+        <v>45922.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>17.544</v>
+        <v>6.467</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1985,13 +1949,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45918.52083333334</v>
+        <v>45922.52083333334</v>
       </c>
       <c r="B52">
-        <v>6.399</v>
+        <v>0.002</v>
       </c>
       <c r="C52">
-        <v>11.796</v>
+        <v>6.857</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2008,13 +1972,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45918.53125</v>
+        <v>45922.53125</v>
       </c>
       <c r="B53">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>15.184</v>
+        <v>7.991</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2031,13 +1995,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45918.54166666666</v>
+        <v>45922.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>11.684</v>
+        <v>28.253</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2054,13 +2018,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45918.55208333334</v>
+        <v>45922.55208333334</v>
       </c>
       <c r="B55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>8.061</v>
+        <v>12.413</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2077,13 +2041,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45918.5625</v>
+        <v>45922.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C56">
-        <v>12.184</v>
+        <v>2.756</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2100,13 +2064,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45918.57291666666</v>
+        <v>45922.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="C57">
-        <v>39.784</v>
+        <v>5.237</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2123,13 +2087,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45918.58333333334</v>
+        <v>45922.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="C58">
-        <v>64.983</v>
+        <v>7.389</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2146,13 +2110,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45918.59375</v>
+        <v>45922.59375</v>
       </c>
       <c r="B59">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="C59">
-        <v>16.731</v>
+        <v>1.241</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2169,19 +2133,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45918.60416666666</v>
+        <v>45922.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.068</v>
+        <v>0.041</v>
       </c>
       <c r="C60">
-        <v>0.641</v>
+        <v>9.814</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -2192,19 +2156,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45918.61458333334</v>
+        <v>45922.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.983</v>
       </c>
       <c r="C61">
-        <v>43.636</v>
+        <v>0.06</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -2215,13 +2179,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45918.625</v>
+        <v>45922.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>63.03</v>
+        <v>29.529</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2238,13 +2202,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45918.63541666666</v>
+        <v>45922.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C63">
-        <v>47.455</v>
+        <v>8.884</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2261,13 +2225,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45918.64583333334</v>
+        <v>45922.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="C64">
-        <v>65.919</v>
+        <v>3.002</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2284,13 +2248,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45918.65625</v>
+        <v>45922.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>7.005</v>
       </c>
       <c r="C65">
-        <v>24.493</v>
+        <v>0.109</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2307,13 +2271,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45918.66666666666</v>
+        <v>45922.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>57.029</v>
+        <v>32.908</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2330,13 +2294,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45918.67708333334</v>
+        <v>45922.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="C67">
-        <v>45.506</v>
+        <v>10.824</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2353,13 +2317,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45918.6875</v>
+        <v>45922.6875</v>
       </c>
       <c r="B68">
-        <v>0.008999999999999999</v>
+        <v>3.222</v>
       </c>
       <c r="C68">
-        <v>11.009</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2376,13 +2340,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45918.69791666666</v>
+        <v>45922.69791666666</v>
       </c>
       <c r="B69">
-        <v>0.132</v>
+        <v>39.461</v>
       </c>
       <c r="C69">
-        <v>5.861</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2399,13 +2363,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45918.70833333334</v>
+        <v>45922.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2.168</v>
       </c>
       <c r="C70">
-        <v>15.356</v>
+        <v>15.564</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2422,13 +2386,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45918.71875</v>
+        <v>45922.71875</v>
       </c>
       <c r="B71">
-        <v>0.032</v>
+        <v>1.88</v>
       </c>
       <c r="C71">
-        <v>2.38</v>
+        <v>7.269</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2445,13 +2409,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45918.72916666666</v>
+        <v>45922.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.131</v>
+        <v>11.279</v>
       </c>
       <c r="C72">
-        <v>3.132</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2468,13 +2432,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45918.73958333334</v>
+        <v>45922.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.9340000000000001</v>
+        <v>46.769</v>
       </c>
       <c r="C73">
-        <v>0.288</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2491,13 +2455,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45918.75</v>
+        <v>45922.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>8.481999999999999</v>
       </c>
       <c r="C74">
-        <v>45.359</v>
+        <v>0.008</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2514,13 +2478,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45918.76041666666</v>
+        <v>45922.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.188</v>
+        <v>20.185</v>
       </c>
       <c r="C75">
-        <v>1.503</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2537,13 +2501,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45918.77083333334</v>
+        <v>45922.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.203</v>
+        <v>26.5</v>
       </c>
       <c r="C76">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2560,16 +2524,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45918.78125</v>
+        <v>45922.78125</v>
       </c>
       <c r="B77">
-        <v>0.554</v>
+        <v>32.723</v>
       </c>
       <c r="C77">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2583,16 +2547,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45918.79166666666</v>
+        <v>45922.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>4.783</v>
       </c>
       <c r="C78">
-        <v>19.342</v>
+        <v>0.004</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2606,13 +2570,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45918.80208333334</v>
+        <v>45922.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>5.662</v>
       </c>
       <c r="C79">
-        <v>3.517</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2629,13 +2593,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45918.8125</v>
+        <v>45922.8125</v>
       </c>
       <c r="B80">
-        <v>0.003</v>
+        <v>1.831</v>
       </c>
       <c r="C80">
-        <v>3.982</v>
+        <v>0.029</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2652,13 +2616,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45918.82291666666</v>
+        <v>45922.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="C81">
-        <v>22.501</v>
+        <v>0.317</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2675,13 +2639,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45918.83333333334</v>
+        <v>45922.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1.849</v>
       </c>
       <c r="C82">
-        <v>38.996</v>
+        <v>2.266</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2698,13 +2662,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45918.84375</v>
+        <v>45922.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>50.295</v>
+        <v>7.411</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2721,13 +2685,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45918.85416666666</v>
+        <v>45922.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>49.121</v>
+        <v>20.421</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2744,13 +2708,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45918.86458333334</v>
+        <v>45922.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>51.964</v>
+        <v>12.859</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2767,13 +2731,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45918.875</v>
+        <v>45922.875</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>3.257</v>
       </c>
       <c r="C86">
-        <v>8.363</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2790,13 +2754,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45918.88541666666</v>
+        <v>45922.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="C87">
-        <v>9.784000000000001</v>
+        <v>2.827</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2813,13 +2777,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45918.89583333334</v>
+        <v>45922.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>23.022</v>
+        <v>15.015</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2836,13 +2800,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45918.90625</v>
+        <v>45922.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>35.388</v>
+        <v>23.511</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2859,13 +2823,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45918.91666666666</v>
+        <v>45922.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1.274</v>
       </c>
       <c r="C90">
-        <v>13.406</v>
+        <v>1.714</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2882,13 +2846,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45918.92708333334</v>
+        <v>45922.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="C91">
-        <v>22.071</v>
+        <v>1.767</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2905,13 +2869,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45918.9375</v>
+        <v>45922.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>25.366</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2928,13 +2892,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45918.94791666666</v>
+        <v>45922.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>38.391</v>
+        <v>39.601</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2951,13 +2915,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45918.95833333334</v>
+        <v>45922.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>16.044</v>
+        <v>15.793</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2974,13 +2938,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45918.96875</v>
+        <v>45922.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C95">
-        <v>14.41</v>
+        <v>3.222</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2997,13 +2961,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45918.97916666666</v>
+        <v>45922.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C96">
-        <v>13.664</v>
+        <v>2.352</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3020,13 +2984,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45918.98958333334</v>
+        <v>45922.98958333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C97">
-        <v>20.391</v>
+        <v>2.438</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3043,13 +3007,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>6.244</v>
       </c>
       <c r="C98">
-        <v>17.771</v>
+        <v>0.29</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3066,13 +3030,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>6.244</v>
       </c>
       <c r="C99">
-        <v>17.771</v>
+        <v>0.29</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3089,13 +3053,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.498</v>
       </c>
       <c r="C100">
-        <v>20.265</v>
+        <v>0.031</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3112,13 +3076,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.498</v>
       </c>
       <c r="C101">
-        <v>20.265</v>
+        <v>0.031</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3135,13 +3099,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="C102">
-        <v>30.937</v>
+        <v>0.161</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3158,13 +3122,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="C103">
-        <v>30.937</v>
+        <v>0.161</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3181,13 +3145,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="C104">
-        <v>47.04</v>
+        <v>0.123</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3204,13 +3168,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="C105">
-        <v>47.04</v>
+        <v>0.123</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3227,13 +3191,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>18.82</v>
+        <v>2.846</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3250,13 +3214,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>18.82</v>
+        <v>2.846</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3273,13 +3237,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="C108">
-        <v>30.979</v>
+        <v>1.735</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3296,13 +3260,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="C109">
-        <v>30.979</v>
+        <v>1.735</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3319,13 +3283,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>0.357</v>
       </c>
       <c r="C110">
-        <v>43.476</v>
+        <v>0.2</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3342,13 +3306,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>0.357</v>
       </c>
       <c r="C111">
-        <v>43.476</v>
+        <v>0.2</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3365,13 +3329,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>0.906</v>
       </c>
       <c r="C112">
-        <v>62.192</v>
+        <v>0.257</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3388,13 +3352,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.906</v>
       </c>
       <c r="C113">
-        <v>62.192</v>
+        <v>0.257</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3411,13 +3375,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>54.897</v>
+        <v>2.423</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3434,13 +3398,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>37.997</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3457,13 +3421,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>36.975</v>
+        <v>4.696</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3480,13 +3444,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="C117">
-        <v>35.914</v>
+        <v>0.587</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3503,13 +3467,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>2.476</v>
       </c>
       <c r="C118">
-        <v>36.594</v>
+        <v>0.04</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3526,13 +3490,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>4.203</v>
       </c>
       <c r="C119">
-        <v>7.957</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3549,13 +3513,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>0.721</v>
       </c>
       <c r="C120">
-        <v>10.205</v>
+        <v>0.02</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3572,13 +3536,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C121">
-        <v>12.594</v>
+        <v>0.875</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3595,13 +3559,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="C122">
-        <v>30.254</v>
+        <v>0.628</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3618,13 +3582,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C123">
-        <v>22.093</v>
+        <v>2.466</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3641,13 +3605,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="C124">
-        <v>27.12</v>
+        <v>0.053</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3664,13 +3628,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>2.426</v>
       </c>
       <c r="C125">
-        <v>16.792</v>
+        <v>0.103</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3687,13 +3651,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>4.545</v>
       </c>
       <c r="C126">
-        <v>55.86</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3710,13 +3674,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>7.634</v>
       </c>
       <c r="C127">
-        <v>28.334</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3733,13 +3697,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>15.913</v>
       </c>
       <c r="C128">
-        <v>9.036</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3756,13 +3720,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>19.479</v>
       </c>
       <c r="C129">
-        <v>19.411</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3779,13 +3743,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B130">
-        <v>0.049</v>
+        <v>8.147</v>
       </c>
       <c r="C130">
-        <v>13.23</v>
+        <v>2.996</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3802,13 +3766,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B131">
-        <v>0.02</v>
+        <v>26.061</v>
       </c>
       <c r="C131">
-        <v>3.715</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3825,13 +3789,13 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B132">
-        <v>0.026</v>
+        <v>23.033</v>
       </c>
       <c r="C132">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3848,13 +3812,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B133">
-        <v>1.052</v>
+        <v>3.457</v>
       </c>
       <c r="C133">
-        <v>0.044</v>
+        <v>0.002</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3867,282 +3831,6 @@
       </c>
       <c r="G133" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="2">
-        <v>45919.29166666666</v>
-      </c>
-      <c r="B134">
-        <v>17.822</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>29</v>
-      </c>
-      <c r="G134" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="2">
-        <v>45919.30208333334</v>
-      </c>
-      <c r="B135">
-        <v>13.029</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>30</v>
-      </c>
-      <c r="G135" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="2">
-        <v>45919.3125</v>
-      </c>
-      <c r="B136">
-        <v>26.968</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>31</v>
-      </c>
-      <c r="G136" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="2">
-        <v>45919.32291666666</v>
-      </c>
-      <c r="B137">
-        <v>10.464</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>32</v>
-      </c>
-      <c r="G137" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="2">
-        <v>45919.33333333334</v>
-      </c>
-      <c r="B138">
-        <v>54.682</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>33</v>
-      </c>
-      <c r="G138" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="2">
-        <v>45919.34375</v>
-      </c>
-      <c r="B139">
-        <v>26.288</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>34</v>
-      </c>
-      <c r="G139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="2">
-        <v>45919.35416666666</v>
-      </c>
-      <c r="B140">
-        <v>21.935</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>35</v>
-      </c>
-      <c r="G140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="2">
-        <v>45919.36458333334</v>
-      </c>
-      <c r="B141">
-        <v>1.857</v>
-      </c>
-      <c r="C141">
-        <v>0.005</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>36</v>
-      </c>
-      <c r="G141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="2">
-        <v>45919.375</v>
-      </c>
-      <c r="B142">
-        <v>47.719</v>
-      </c>
-      <c r="C142">
-        <v>0.025</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>37</v>
-      </c>
-      <c r="G142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="2">
-        <v>45919.38541666666</v>
-      </c>
-      <c r="B143">
-        <v>23.533</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>38</v>
-      </c>
-      <c r="G143" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="2">
-        <v>45919.39583333334</v>
-      </c>
-      <c r="B144">
-        <v>5.432</v>
-      </c>
-      <c r="C144">
-        <v>0.111</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>39</v>
-      </c>
-      <c r="G144" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="2">
-        <v>45919.40625</v>
-      </c>
-      <c r="B145">
-        <v>0.005</v>
-      </c>
-      <c r="C145">
-        <v>12.402</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>40</v>
-      </c>
-      <c r="G145" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,376 +37,415 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>22.09.20251</t>
-  </si>
-  <si>
-    <t>22.09.20252</t>
-  </si>
-  <si>
-    <t>22.09.20253</t>
-  </si>
-  <si>
-    <t>22.09.20254</t>
-  </si>
-  <si>
-    <t>22.09.20255</t>
-  </si>
-  <si>
-    <t>22.09.20256</t>
-  </si>
-  <si>
-    <t>22.09.20257</t>
-  </si>
-  <si>
-    <t>22.09.20258</t>
-  </si>
-  <si>
-    <t>22.09.20259</t>
-  </si>
-  <si>
-    <t>22.09.202510</t>
-  </si>
-  <si>
-    <t>22.09.202511</t>
-  </si>
-  <si>
-    <t>22.09.202512</t>
-  </si>
-  <si>
-    <t>22.09.202513</t>
-  </si>
-  <si>
-    <t>22.09.202514</t>
-  </si>
-  <si>
-    <t>22.09.202515</t>
-  </si>
-  <si>
-    <t>22.09.202516</t>
-  </si>
-  <si>
-    <t>22.09.202517</t>
-  </si>
-  <si>
-    <t>22.09.202518</t>
-  </si>
-  <si>
-    <t>22.09.202519</t>
-  </si>
-  <si>
-    <t>22.09.202520</t>
-  </si>
-  <si>
-    <t>22.09.202521</t>
-  </si>
-  <si>
-    <t>22.09.202522</t>
-  </si>
-  <si>
-    <t>22.09.202523</t>
-  </si>
-  <si>
-    <t>22.09.202524</t>
-  </si>
-  <si>
-    <t>22.09.202525</t>
-  </si>
-  <si>
-    <t>22.09.202526</t>
-  </si>
-  <si>
-    <t>22.09.202527</t>
-  </si>
-  <si>
-    <t>22.09.202528</t>
-  </si>
-  <si>
-    <t>22.09.202529</t>
-  </si>
-  <si>
-    <t>22.09.202530</t>
-  </si>
-  <si>
-    <t>22.09.202531</t>
-  </si>
-  <si>
-    <t>22.09.202532</t>
-  </si>
-  <si>
-    <t>22.09.202533</t>
-  </si>
-  <si>
-    <t>22.09.202534</t>
-  </si>
-  <si>
-    <t>22.09.202535</t>
-  </si>
-  <si>
-    <t>22.09.202536</t>
-  </si>
-  <si>
-    <t>22.09.202537</t>
-  </si>
-  <si>
-    <t>22.09.202538</t>
-  </si>
-  <si>
-    <t>22.09.202539</t>
-  </si>
-  <si>
-    <t>22.09.202540</t>
-  </si>
-  <si>
-    <t>22.09.202541</t>
-  </si>
-  <si>
-    <t>22.09.202542</t>
-  </si>
-  <si>
-    <t>22.09.202543</t>
-  </si>
-  <si>
-    <t>22.09.202544</t>
-  </si>
-  <si>
-    <t>22.09.202545</t>
-  </si>
-  <si>
-    <t>22.09.202546</t>
-  </si>
-  <si>
-    <t>22.09.202547</t>
-  </si>
-  <si>
-    <t>22.09.202548</t>
-  </si>
-  <si>
-    <t>22.09.202549</t>
-  </si>
-  <si>
-    <t>22.09.202550</t>
-  </si>
-  <si>
-    <t>22.09.202551</t>
-  </si>
-  <si>
-    <t>22.09.202552</t>
-  </si>
-  <si>
-    <t>22.09.202553</t>
-  </si>
-  <si>
-    <t>22.09.202554</t>
-  </si>
-  <si>
-    <t>22.09.202555</t>
-  </si>
-  <si>
-    <t>22.09.202556</t>
-  </si>
-  <si>
-    <t>22.09.202557</t>
-  </si>
-  <si>
-    <t>22.09.202558</t>
-  </si>
-  <si>
-    <t>22.09.202559</t>
-  </si>
-  <si>
-    <t>22.09.202560</t>
-  </si>
-  <si>
-    <t>22.09.202561</t>
-  </si>
-  <si>
-    <t>22.09.202562</t>
-  </si>
-  <si>
-    <t>22.09.202563</t>
-  </si>
-  <si>
-    <t>22.09.202564</t>
-  </si>
-  <si>
-    <t>22.09.202565</t>
-  </si>
-  <si>
-    <t>22.09.202566</t>
-  </si>
-  <si>
-    <t>22.09.202567</t>
-  </si>
-  <si>
-    <t>22.09.202568</t>
-  </si>
-  <si>
-    <t>22.09.202569</t>
-  </si>
-  <si>
-    <t>22.09.202570</t>
-  </si>
-  <si>
-    <t>22.09.202571</t>
-  </si>
-  <si>
-    <t>22.09.202572</t>
-  </si>
-  <si>
-    <t>22.09.202573</t>
-  </si>
-  <si>
-    <t>22.09.202574</t>
-  </si>
-  <si>
-    <t>22.09.202575</t>
-  </si>
-  <si>
-    <t>22.09.202576</t>
-  </si>
-  <si>
-    <t>22.09.202577</t>
-  </si>
-  <si>
-    <t>22.09.202578</t>
-  </si>
-  <si>
-    <t>22.09.202579</t>
-  </si>
-  <si>
-    <t>22.09.202580</t>
-  </si>
-  <si>
-    <t>22.09.202581</t>
-  </si>
-  <si>
-    <t>22.09.202582</t>
-  </si>
-  <si>
-    <t>22.09.202583</t>
-  </si>
-  <si>
-    <t>22.09.202584</t>
-  </si>
-  <si>
-    <t>22.09.202585</t>
-  </si>
-  <si>
-    <t>22.09.202586</t>
-  </si>
-  <si>
-    <t>22.09.202587</t>
-  </si>
-  <si>
-    <t>22.09.202588</t>
-  </si>
-  <si>
-    <t>22.09.202589</t>
-  </si>
-  <si>
-    <t>22.09.202590</t>
-  </si>
-  <si>
-    <t>22.09.202591</t>
-  </si>
-  <si>
-    <t>22.09.202592</t>
-  </si>
-  <si>
-    <t>22.09.202593</t>
-  </si>
-  <si>
-    <t>22.09.202594</t>
-  </si>
-  <si>
-    <t>22.09.202595</t>
-  </si>
-  <si>
-    <t>22.09.202596</t>
-  </si>
-  <si>
-    <t>23.09.20251</t>
-  </si>
-  <si>
-    <t>23.09.20252</t>
-  </si>
-  <si>
-    <t>23.09.20253</t>
-  </si>
-  <si>
-    <t>23.09.20254</t>
-  </si>
-  <si>
-    <t>23.09.20255</t>
-  </si>
-  <si>
-    <t>23.09.20256</t>
-  </si>
-  <si>
-    <t>23.09.20257</t>
-  </si>
-  <si>
-    <t>23.09.20258</t>
-  </si>
-  <si>
-    <t>23.09.20259</t>
-  </si>
-  <si>
-    <t>23.09.202510</t>
-  </si>
-  <si>
-    <t>23.09.202511</t>
-  </si>
-  <si>
-    <t>23.09.202512</t>
-  </si>
-  <si>
-    <t>23.09.202513</t>
-  </si>
-  <si>
-    <t>23.09.202514</t>
-  </si>
-  <si>
-    <t>23.09.202515</t>
-  </si>
-  <si>
-    <t>23.09.202516</t>
-  </si>
-  <si>
-    <t>23.09.202517</t>
-  </si>
-  <si>
-    <t>23.09.202518</t>
-  </si>
-  <si>
-    <t>23.09.202519</t>
-  </si>
-  <si>
-    <t>23.09.202520</t>
-  </si>
-  <si>
-    <t>23.09.202521</t>
-  </si>
-  <si>
-    <t>23.09.202522</t>
-  </si>
-  <si>
-    <t>23.09.202523</t>
-  </si>
-  <si>
-    <t>23.09.202524</t>
-  </si>
-  <si>
-    <t>23.09.202525</t>
-  </si>
-  <si>
-    <t>23.09.202526</t>
-  </si>
-  <si>
-    <t>23.09.202527</t>
-  </si>
-  <si>
-    <t>23.09.202528</t>
+    <t>01.10.20251</t>
+  </si>
+  <si>
+    <t>01.10.20252</t>
+  </si>
+  <si>
+    <t>01.10.20253</t>
+  </si>
+  <si>
+    <t>01.10.20254</t>
+  </si>
+  <si>
+    <t>01.10.20255</t>
+  </si>
+  <si>
+    <t>01.10.20256</t>
+  </si>
+  <si>
+    <t>01.10.20257</t>
+  </si>
+  <si>
+    <t>01.10.20258</t>
+  </si>
+  <si>
+    <t>01.10.20259</t>
+  </si>
+  <si>
+    <t>01.10.202510</t>
+  </si>
+  <si>
+    <t>01.10.202511</t>
+  </si>
+  <si>
+    <t>01.10.202512</t>
+  </si>
+  <si>
+    <t>01.10.202513</t>
+  </si>
+  <si>
+    <t>01.10.202514</t>
+  </si>
+  <si>
+    <t>01.10.202515</t>
+  </si>
+  <si>
+    <t>01.10.202516</t>
+  </si>
+  <si>
+    <t>01.10.202517</t>
+  </si>
+  <si>
+    <t>01.10.202518</t>
+  </si>
+  <si>
+    <t>01.10.202519</t>
+  </si>
+  <si>
+    <t>01.10.202520</t>
+  </si>
+  <si>
+    <t>01.10.202521</t>
+  </si>
+  <si>
+    <t>01.10.202522</t>
+  </si>
+  <si>
+    <t>01.10.202523</t>
+  </si>
+  <si>
+    <t>01.10.202524</t>
+  </si>
+  <si>
+    <t>01.10.202525</t>
+  </si>
+  <si>
+    <t>01.10.202526</t>
+  </si>
+  <si>
+    <t>01.10.202527</t>
+  </si>
+  <si>
+    <t>01.10.202528</t>
+  </si>
+  <si>
+    <t>01.10.202529</t>
+  </si>
+  <si>
+    <t>01.10.202530</t>
+  </si>
+  <si>
+    <t>01.10.202531</t>
+  </si>
+  <si>
+    <t>01.10.202532</t>
+  </si>
+  <si>
+    <t>01.10.202533</t>
+  </si>
+  <si>
+    <t>01.10.202534</t>
+  </si>
+  <si>
+    <t>01.10.202535</t>
+  </si>
+  <si>
+    <t>01.10.202536</t>
+  </si>
+  <si>
+    <t>01.10.202537</t>
+  </si>
+  <si>
+    <t>01.10.202538</t>
+  </si>
+  <si>
+    <t>01.10.202539</t>
+  </si>
+  <si>
+    <t>01.10.202540</t>
+  </si>
+  <si>
+    <t>01.10.202541</t>
+  </si>
+  <si>
+    <t>01.10.202542</t>
+  </si>
+  <si>
+    <t>01.10.202543</t>
+  </si>
+  <si>
+    <t>01.10.202544</t>
+  </si>
+  <si>
+    <t>01.10.202545</t>
+  </si>
+  <si>
+    <t>01.10.202546</t>
+  </si>
+  <si>
+    <t>01.10.202547</t>
+  </si>
+  <si>
+    <t>01.10.202548</t>
+  </si>
+  <si>
+    <t>01.10.202549</t>
+  </si>
+  <si>
+    <t>01.10.202550</t>
+  </si>
+  <si>
+    <t>01.10.202551</t>
+  </si>
+  <si>
+    <t>01.10.202552</t>
+  </si>
+  <si>
+    <t>01.10.202553</t>
+  </si>
+  <si>
+    <t>01.10.202554</t>
+  </si>
+  <si>
+    <t>01.10.202555</t>
+  </si>
+  <si>
+    <t>01.10.202556</t>
+  </si>
+  <si>
+    <t>01.10.202557</t>
+  </si>
+  <si>
+    <t>01.10.202558</t>
+  </si>
+  <si>
+    <t>01.10.202559</t>
+  </si>
+  <si>
+    <t>01.10.202560</t>
+  </si>
+  <si>
+    <t>01.10.202561</t>
+  </si>
+  <si>
+    <t>01.10.202562</t>
+  </si>
+  <si>
+    <t>01.10.202563</t>
+  </si>
+  <si>
+    <t>01.10.202564</t>
+  </si>
+  <si>
+    <t>01.10.202565</t>
+  </si>
+  <si>
+    <t>01.10.202566</t>
+  </si>
+  <si>
+    <t>01.10.202567</t>
+  </si>
+  <si>
+    <t>01.10.202568</t>
+  </si>
+  <si>
+    <t>01.10.202569</t>
+  </si>
+  <si>
+    <t>01.10.202570</t>
+  </si>
+  <si>
+    <t>01.10.202571</t>
+  </si>
+  <si>
+    <t>01.10.202572</t>
+  </si>
+  <si>
+    <t>01.10.202573</t>
+  </si>
+  <si>
+    <t>01.10.202574</t>
+  </si>
+  <si>
+    <t>01.10.202575</t>
+  </si>
+  <si>
+    <t>01.10.202576</t>
+  </si>
+  <si>
+    <t>01.10.202577</t>
+  </si>
+  <si>
+    <t>01.10.202578</t>
+  </si>
+  <si>
+    <t>01.10.202579</t>
+  </si>
+  <si>
+    <t>01.10.202580</t>
+  </si>
+  <si>
+    <t>01.10.202581</t>
+  </si>
+  <si>
+    <t>01.10.202582</t>
+  </si>
+  <si>
+    <t>01.10.202583</t>
+  </si>
+  <si>
+    <t>01.10.202584</t>
+  </si>
+  <si>
+    <t>01.10.202585</t>
+  </si>
+  <si>
+    <t>01.10.202586</t>
+  </si>
+  <si>
+    <t>01.10.202587</t>
+  </si>
+  <si>
+    <t>01.10.202588</t>
+  </si>
+  <si>
+    <t>01.10.202589</t>
+  </si>
+  <si>
+    <t>01.10.202590</t>
+  </si>
+  <si>
+    <t>01.10.202591</t>
+  </si>
+  <si>
+    <t>01.10.202592</t>
+  </si>
+  <si>
+    <t>01.10.202593</t>
+  </si>
+  <si>
+    <t>01.10.202594</t>
+  </si>
+  <si>
+    <t>01.10.202595</t>
+  </si>
+  <si>
+    <t>01.10.202596</t>
+  </si>
+  <si>
+    <t>02.10.20251</t>
+  </si>
+  <si>
+    <t>02.10.20252</t>
+  </si>
+  <si>
+    <t>02.10.20253</t>
+  </si>
+  <si>
+    <t>02.10.20254</t>
+  </si>
+  <si>
+    <t>02.10.20255</t>
+  </si>
+  <si>
+    <t>02.10.20256</t>
+  </si>
+  <si>
+    <t>02.10.20257</t>
+  </si>
+  <si>
+    <t>02.10.20258</t>
+  </si>
+  <si>
+    <t>02.10.20259</t>
+  </si>
+  <si>
+    <t>02.10.202510</t>
+  </si>
+  <si>
+    <t>02.10.202511</t>
+  </si>
+  <si>
+    <t>02.10.202512</t>
+  </si>
+  <si>
+    <t>02.10.202513</t>
+  </si>
+  <si>
+    <t>02.10.202514</t>
+  </si>
+  <si>
+    <t>02.10.202515</t>
+  </si>
+  <si>
+    <t>02.10.202516</t>
+  </si>
+  <si>
+    <t>02.10.202517</t>
+  </si>
+  <si>
+    <t>02.10.202518</t>
+  </si>
+  <si>
+    <t>02.10.202519</t>
+  </si>
+  <si>
+    <t>02.10.202520</t>
+  </si>
+  <si>
+    <t>02.10.202521</t>
+  </si>
+  <si>
+    <t>02.10.202522</t>
+  </si>
+  <si>
+    <t>02.10.202523</t>
+  </si>
+  <si>
+    <t>02.10.202524</t>
+  </si>
+  <si>
+    <t>02.10.202525</t>
+  </si>
+  <si>
+    <t>02.10.202526</t>
+  </si>
+  <si>
+    <t>02.10.202527</t>
+  </si>
+  <si>
+    <t>02.10.202528</t>
+  </si>
+  <si>
+    <t>02.10.202529</t>
+  </si>
+  <si>
+    <t>02.10.202530</t>
+  </si>
+  <si>
+    <t>02.10.202531</t>
+  </si>
+  <si>
+    <t>02.10.202532</t>
+  </si>
+  <si>
+    <t>02.10.202533</t>
+  </si>
+  <si>
+    <t>02.10.202534</t>
+  </si>
+  <si>
+    <t>02.10.202535</t>
+  </si>
+  <si>
+    <t>02.10.202536</t>
+  </si>
+  <si>
+    <t>02.10.202537</t>
+  </si>
+  <si>
+    <t>02.10.202538</t>
+  </si>
+  <si>
+    <t>02.10.202539</t>
+  </si>
+  <si>
+    <t>02.10.202540</t>
+  </si>
+  <si>
+    <t>02.10.202542</t>
   </si>
 </sst>
 </file>
@@ -768,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,13 +838,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45922</v>
+        <v>45931</v>
       </c>
       <c r="B2">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="C2">
-        <v>8.951000000000001</v>
+        <v>2.099</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -822,13 +861,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45922.01041666666</v>
+        <v>45931.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.006</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C3">
-        <v>1.843</v>
+        <v>1.343</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -845,13 +884,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45922.02083333334</v>
+        <v>45931.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="C4">
-        <v>4.514</v>
+        <v>2.967</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -868,13 +907,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45922.03125</v>
+        <v>45931.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="C5">
-        <v>8.714</v>
+        <v>6.195</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -891,13 +930,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45922.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.493</v>
+        <v>1.388</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -914,13 +953,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45922.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="C7">
-        <v>12.045</v>
+        <v>2.756</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -937,13 +976,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45922.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.642</v>
+        <v>4.665</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -960,13 +999,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45922.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.837999999999999</v>
+        <v>12.601</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -983,13 +1022,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45922.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.416</v>
+        <v>18.553</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1006,13 +1045,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45922.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>19.579</v>
+        <v>13.939</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1029,13 +1068,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45922.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.226</v>
+        <v>21.859</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1052,13 +1091,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45922.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.693</v>
+        <v>15.319</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1075,13 +1114,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45922.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.037000000000001</v>
+        <v>8.343999999999999</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1098,13 +1137,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45922.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.317</v>
+        <v>8.818</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1121,13 +1160,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45922.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.241</v>
+        <v>0.013</v>
       </c>
       <c r="C16">
-        <v>3.336</v>
+        <v>4.677</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1144,13 +1183,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45922.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B17">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.643</v>
+        <v>3.812</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1167,13 +1206,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45922.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.081</v>
+        <v>4.493</v>
       </c>
       <c r="C18">
-        <v>2.177</v>
+        <v>0.362</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1190,13 +1229,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45922.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4.433</v>
       </c>
       <c r="C19">
-        <v>19.315</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1213,13 +1252,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45922.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>9.034000000000001</v>
       </c>
       <c r="C20">
-        <v>1.667</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1236,13 +1275,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45922.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B21">
-        <v>5.693</v>
+        <v>1.039</v>
       </c>
       <c r="C21">
-        <v>0.001</v>
+        <v>0.597</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1259,13 +1298,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45922.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.229</v>
+        <v>0.021</v>
       </c>
       <c r="C22">
-        <v>0.157</v>
+        <v>1.178</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1282,13 +1321,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45922.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B23">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.611</v>
+        <v>10.938</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1305,13 +1344,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45922.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B24">
-        <v>13.363</v>
+        <v>0.37</v>
       </c>
       <c r="C24">
-        <v>0.027</v>
+        <v>2.106</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1328,13 +1367,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45922.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B25">
-        <v>13.281</v>
+        <v>0.585</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4.713</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1351,13 +1390,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45922.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B26">
-        <v>10.262</v>
+        <v>1.101</v>
       </c>
       <c r="C26">
-        <v>0.061</v>
+        <v>1.79</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1374,16 +1413,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45922.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B27">
-        <v>14.615</v>
+        <v>0.722</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1397,16 +1436,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45922.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B28">
-        <v>16.63</v>
+        <v>0.607</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1420,16 +1459,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45922.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B29">
-        <v>3.071</v>
+        <v>0.283</v>
       </c>
       <c r="C29">
-        <v>0.02</v>
+        <v>0.054</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1443,16 +1482,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45922.29166666666</v>
+        <v>45931.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.172</v>
+        <v>5.397</v>
       </c>
       <c r="C30">
-        <v>0.43</v>
+        <v>0.026</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1466,16 +1505,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45922.30208333334</v>
+        <v>45931.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1.248</v>
       </c>
       <c r="C31">
-        <v>3.465</v>
+        <v>0.016</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1489,16 +1528,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45922.3125</v>
+        <v>45931.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1.411</v>
       </c>
       <c r="C32">
-        <v>16.459</v>
+        <v>1.302</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1512,13 +1551,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45922.32291666666</v>
+        <v>45931.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>18.164</v>
+        <v>3.204</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1535,13 +1574,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45922.33333333334</v>
+        <v>45931.33333333334</v>
       </c>
       <c r="B34">
-        <v>10.309</v>
+        <v>3.726</v>
       </c>
       <c r="C34">
-        <v>1.497</v>
+        <v>0.401</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1558,13 +1597,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45922.34375</v>
+        <v>45931.34375</v>
       </c>
       <c r="B35">
-        <v>0.525</v>
+        <v>0.09</v>
       </c>
       <c r="C35">
-        <v>0.519</v>
+        <v>0.125</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1581,13 +1620,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45922.35416666666</v>
+        <v>45931.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="C36">
-        <v>32.2</v>
+        <v>7.242</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1604,13 +1643,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45922.36458333334</v>
+        <v>45931.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>71.009</v>
+        <v>20.918</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1627,13 +1666,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45922.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B38">
-        <v>0.314</v>
+        <v>0.004</v>
       </c>
       <c r="C38">
-        <v>7.222</v>
+        <v>10.637</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1650,13 +1689,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45922.38541666666</v>
+        <v>45931.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>3.521</v>
+        <v>17.613</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1673,13 +1712,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45922.39583333334</v>
+        <v>45931.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>12.614</v>
+        <v>9.992000000000001</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1696,13 +1735,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45922.40625</v>
+        <v>45931.40625</v>
       </c>
       <c r="B41">
-        <v>0.492</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>4.083</v>
+        <v>21.155</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1719,13 +1758,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45922.41666666666</v>
+        <v>45931.41666666666</v>
       </c>
       <c r="B42">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>7.928</v>
+        <v>26.094</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1742,13 +1781,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45922.42708333334</v>
+        <v>45931.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2.125</v>
+        <v>39.129</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1765,13 +1804,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45922.4375</v>
+        <v>45931.4375</v>
       </c>
       <c r="B44">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>6.503</v>
+        <v>36.674</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1788,19 +1827,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45922.44791666666</v>
+        <v>45931.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>23.516</v>
+        <v>27.657</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1811,19 +1850,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45922.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>21.495</v>
+        <v>38.035</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1834,19 +1873,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45922.46875</v>
+        <v>45931.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>9.557</v>
+        <v>23.227</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1857,19 +1896,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45922.47916666666</v>
+        <v>45931.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>16.393</v>
+        <v>8.281000000000001</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>44.75</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1880,19 +1919,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45922.48958333334</v>
+        <v>45931.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>3.601</v>
+        <v>9.685</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>44.75</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1903,19 +1942,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45922.5</v>
+        <v>45931.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>12.38</v>
+        <v>32.053</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>44.75</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1926,19 +1965,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45922.51041666666</v>
+        <v>45931.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>6.467</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>44.75</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1949,19 +1988,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45922.52083333334</v>
+        <v>45931.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>6.857</v>
+        <v>6.841</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>44.75</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -1972,19 +2011,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45922.53125</v>
+        <v>45931.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="C53">
-        <v>7.991</v>
+        <v>2.735</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -1995,19 +2034,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45922.54166666666</v>
+        <v>45931.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="C54">
-        <v>28.253</v>
+        <v>2.942</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2018,19 +2057,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45922.55208333334</v>
+        <v>45931.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1.323</v>
       </c>
       <c r="C55">
-        <v>12.413</v>
+        <v>0.043</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2041,19 +2080,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45922.5625</v>
+        <v>45931.5625</v>
       </c>
       <c r="B56">
-        <v>0.03</v>
+        <v>2.173</v>
       </c>
       <c r="C56">
-        <v>2.756</v>
+        <v>0.119</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2064,19 +2103,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45922.57291666666</v>
+        <v>45931.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.022</v>
+        <v>0.445</v>
       </c>
       <c r="C57">
-        <v>5.237</v>
+        <v>1.805</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2087,13 +2126,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45922.58333333334</v>
+        <v>45931.58333333334</v>
       </c>
       <c r="B58">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>7.389</v>
+        <v>3.862</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2110,13 +2149,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45922.59375</v>
+        <v>45931.59375</v>
       </c>
       <c r="B59">
-        <v>0.019</v>
+        <v>1.02</v>
       </c>
       <c r="C59">
-        <v>1.241</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2133,13 +2172,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45922.60416666666</v>
+        <v>45931.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.041</v>
+        <v>0.134</v>
       </c>
       <c r="C60">
-        <v>9.814</v>
+        <v>1.433</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2156,13 +2195,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45922.61458333334</v>
+        <v>45931.61458333334</v>
       </c>
       <c r="B61">
-        <v>0.983</v>
+        <v>0.09</v>
       </c>
       <c r="C61">
-        <v>0.06</v>
+        <v>0.503</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2179,13 +2218,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45922.625</v>
+        <v>45931.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="C62">
-        <v>29.529</v>
+        <v>1.594</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2202,13 +2241,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45922.63541666666</v>
+        <v>45931.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.005</v>
+        <v>0.202</v>
       </c>
       <c r="C63">
-        <v>8.884</v>
+        <v>0.093</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2225,13 +2264,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45922.64583333334</v>
+        <v>45931.64583333334</v>
       </c>
       <c r="B64">
-        <v>0.029</v>
+        <v>2.398</v>
       </c>
       <c r="C64">
-        <v>3.002</v>
+        <v>0.089</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2248,13 +2287,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45922.65625</v>
+        <v>45931.65625</v>
       </c>
       <c r="B65">
-        <v>7.005</v>
+        <v>2.265</v>
       </c>
       <c r="C65">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2271,13 +2310,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45922.66666666666</v>
+        <v>45931.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="C66">
-        <v>32.908</v>
+        <v>0.216</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2294,13 +2333,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45922.67708333334</v>
+        <v>45931.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.011</v>
+        <v>0.105</v>
       </c>
       <c r="C67">
-        <v>10.824</v>
+        <v>0.303</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2317,13 +2356,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45922.6875</v>
+        <v>45931.6875</v>
       </c>
       <c r="B68">
-        <v>3.222</v>
+        <v>0.007</v>
       </c>
       <c r="C68">
-        <v>0.08400000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2340,13 +2379,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45922.69791666666</v>
+        <v>45931.69791666666</v>
       </c>
       <c r="B69">
-        <v>39.461</v>
+        <v>0.006</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2.989</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2363,13 +2402,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45922.70833333334</v>
+        <v>45931.70833333334</v>
       </c>
       <c r="B70">
-        <v>2.168</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>15.564</v>
+        <v>12.056</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2386,19 +2425,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45922.71875</v>
+        <v>45931.71875</v>
       </c>
       <c r="B71">
-        <v>1.88</v>
+        <v>0.195</v>
       </c>
       <c r="C71">
-        <v>7.269</v>
+        <v>8.686</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2409,19 +2448,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45922.72916666666</v>
+        <v>45931.72916666666</v>
       </c>
       <c r="B72">
-        <v>11.279</v>
+        <v>0.886</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.283</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2432,19 +2471,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45922.73958333334</v>
+        <v>45931.73958333334</v>
       </c>
       <c r="B73">
-        <v>46.769</v>
+        <v>0.105</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>2.079</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2455,19 +2494,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45922.75</v>
+        <v>45931.75</v>
       </c>
       <c r="B74">
-        <v>8.481999999999999</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.008</v>
+        <v>8.77</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F74">
         <v>73</v>
@@ -2478,19 +2517,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45922.76041666666</v>
+        <v>45931.76041666666</v>
       </c>
       <c r="B75">
-        <v>20.185</v>
+        <v>0.198</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F75">
         <v>74</v>
@@ -2501,19 +2540,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45922.77083333334</v>
+        <v>45931.77083333334</v>
       </c>
       <c r="B76">
-        <v>26.5</v>
+        <v>0.15</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F76">
         <v>75</v>
@@ -2524,19 +2563,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45922.78125</v>
+        <v>45931.78125</v>
       </c>
       <c r="B77">
-        <v>32.723</v>
+        <v>0.224</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F77">
         <v>76</v>
@@ -2547,19 +2586,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45922.79166666666</v>
+        <v>45931.79166666666</v>
       </c>
       <c r="B78">
-        <v>4.783</v>
+        <v>0.255</v>
       </c>
       <c r="C78">
-        <v>0.004</v>
+        <v>0.427</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F78">
         <v>77</v>
@@ -2570,19 +2609,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45922.80208333334</v>
+        <v>45931.80208333334</v>
       </c>
       <c r="B79">
-        <v>5.662</v>
+        <v>0.109</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -2593,19 +2632,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45922.8125</v>
+        <v>45931.8125</v>
       </c>
       <c r="B80">
-        <v>1.831</v>
+        <v>0.033</v>
       </c>
       <c r="C80">
-        <v>0.029</v>
+        <v>7.878</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2616,19 +2655,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45922.82291666666</v>
+        <v>45931.82291666666</v>
       </c>
       <c r="B81">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.317</v>
+        <v>5.211</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -2639,19 +2678,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45922.83333333334</v>
+        <v>45931.83333333334</v>
       </c>
       <c r="B82">
-        <v>1.849</v>
+        <v>1.609</v>
       </c>
       <c r="C82">
-        <v>2.266</v>
+        <v>2.557</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -2662,19 +2701,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45922.84375</v>
+        <v>45931.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>7.411</v>
+        <v>5.151</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -2685,19 +2724,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45922.85416666666</v>
+        <v>45931.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>4.137</v>
       </c>
       <c r="C84">
-        <v>20.421</v>
+        <v>0.212</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>65.75</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -2708,19 +2747,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45922.86458333334</v>
+        <v>45931.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>14.197</v>
       </c>
       <c r="C85">
-        <v>12.859</v>
+        <v>0.026</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>65.75</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -2731,19 +2770,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45922.875</v>
+        <v>45931.875</v>
       </c>
       <c r="B86">
-        <v>3.257</v>
+        <v>8.375</v>
       </c>
       <c r="C86">
-        <v>0.9330000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="F86">
         <v>85</v>
@@ -2754,19 +2793,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45922.88541666666</v>
+        <v>45931.88541666666</v>
       </c>
       <c r="B87">
-        <v>0.363</v>
+        <v>2.006</v>
       </c>
       <c r="C87">
-        <v>2.827</v>
+        <v>0.167</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F87">
         <v>86</v>
@@ -2777,19 +2816,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45922.89583333334</v>
+        <v>45931.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.669</v>
       </c>
       <c r="C88">
-        <v>15.015</v>
+        <v>0.019</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F88">
         <v>87</v>
@@ -2800,19 +2839,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45922.90625</v>
+        <v>45931.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>10.063</v>
       </c>
       <c r="C89">
-        <v>23.511</v>
+        <v>0.014</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F89">
         <v>88</v>
@@ -2823,13 +2862,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45922.91666666666</v>
+        <v>45931.91666666666</v>
       </c>
       <c r="B90">
-        <v>1.274</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>1.714</v>
+        <v>16.812</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2846,13 +2885,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45922.92708333334</v>
+        <v>45931.92708333334</v>
       </c>
       <c r="B91">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>1.767</v>
+        <v>17.914</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2869,13 +2908,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45922.9375</v>
+        <v>45931.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="C92">
-        <v>8.710000000000001</v>
+        <v>1.479</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2892,13 +2931,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45922.94791666666</v>
+        <v>45931.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="C93">
-        <v>39.601</v>
+        <v>0.042</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2915,13 +2954,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45922.95833333334</v>
+        <v>45931.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="C94">
-        <v>15.793</v>
+        <v>0.216</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2938,13 +2977,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45922.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B95">
         <v>0.005</v>
       </c>
       <c r="C95">
-        <v>3.222</v>
+        <v>1.736</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2961,13 +3000,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45922.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B96">
-        <v>0.004</v>
+        <v>0.214</v>
       </c>
       <c r="C96">
-        <v>2.352</v>
+        <v>1.206</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2984,13 +3023,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45922.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B97">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>2.438</v>
+        <v>5.447</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3007,13 +3046,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="B98">
-        <v>6.244</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0.29</v>
+        <v>23.253</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3030,13 +3069,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="B99">
-        <v>6.244</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0.29</v>
+        <v>23.253</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3053,13 +3092,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B100">
-        <v>0.498</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0.031</v>
+        <v>2.779</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3076,13 +3115,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B101">
-        <v>0.498</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0.031</v>
+        <v>2.779</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3099,13 +3138,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B102">
-        <v>0.123</v>
+        <v>3.262</v>
       </c>
       <c r="C102">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3122,13 +3161,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B103">
-        <v>0.123</v>
+        <v>3.262</v>
       </c>
       <c r="C103">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3145,13 +3184,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B104">
-        <v>0.101</v>
+        <v>5.774</v>
       </c>
       <c r="C104">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3168,13 +3207,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B105">
-        <v>0.101</v>
+        <v>5.774</v>
       </c>
       <c r="C105">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3191,13 +3230,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1.892</v>
       </c>
       <c r="C106">
-        <v>2.846</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3214,13 +3253,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1.892</v>
       </c>
       <c r="C107">
-        <v>2.846</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3237,13 +3276,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B108">
-        <v>0.074</v>
+        <v>0.147</v>
       </c>
       <c r="C108">
-        <v>1.735</v>
+        <v>0.23</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3260,13 +3299,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B109">
-        <v>0.074</v>
+        <v>0.147</v>
       </c>
       <c r="C109">
-        <v>1.735</v>
+        <v>0.23</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3283,13 +3322,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B110">
-        <v>0.357</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.2</v>
+        <v>5.198</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3306,13 +3345,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B111">
-        <v>0.357</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0.2</v>
+        <v>5.198</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3329,13 +3368,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B112">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.257</v>
+        <v>2.686</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3352,13 +3391,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B113">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.257</v>
+        <v>2.686</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3375,13 +3414,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>2.423</v>
+        <v>2.145</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3398,13 +3437,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="C115">
-        <v>9.888999999999999</v>
+        <v>1.152</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3421,13 +3460,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>4.696</v>
+        <v>10.985</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3444,13 +3483,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
       <c r="B117">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="C117">
-        <v>0.587</v>
+        <v>2.873</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3467,13 +3506,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
       <c r="B118">
-        <v>2.476</v>
+        <v>1.723</v>
       </c>
       <c r="C118">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3490,10 +3529,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
       <c r="B119">
-        <v>4.203</v>
+        <v>12.738</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3513,13 +3552,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
       <c r="B120">
-        <v>0.721</v>
+        <v>1.541</v>
       </c>
       <c r="C120">
-        <v>0.02</v>
+        <v>0.125</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3536,13 +3575,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
       <c r="B121">
-        <v>0.048</v>
+        <v>22.776</v>
       </c>
       <c r="C121">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3559,13 +3598,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
       <c r="B122">
-        <v>0.038</v>
+        <v>10.996</v>
       </c>
       <c r="C122">
-        <v>0.628</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3582,13 +3621,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
       <c r="B123">
-        <v>0.002</v>
+        <v>8.347</v>
       </c>
       <c r="C123">
-        <v>2.466</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3605,13 +3644,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
       <c r="B124">
-        <v>0.165</v>
+        <v>9.102</v>
       </c>
       <c r="C124">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3628,13 +3667,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
       <c r="B125">
-        <v>2.426</v>
+        <v>4.434</v>
       </c>
       <c r="C125">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3651,10 +3690,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
       <c r="B126">
-        <v>4.545</v>
+        <v>12.237</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3674,13 +3713,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
       <c r="B127">
-        <v>7.634</v>
+        <v>1.511</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3697,13 +3736,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
       <c r="B128">
-        <v>15.913</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>18.05</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3720,13 +3759,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
       <c r="B129">
-        <v>19.479</v>
+        <v>0.333</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>3.134</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3743,13 +3782,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
       <c r="B130">
-        <v>8.147</v>
+        <v>27.551</v>
       </c>
       <c r="C130">
-        <v>2.996</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3766,10 +3805,10 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
       <c r="B131">
-        <v>26.061</v>
+        <v>41.72</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3789,10 +3828,10 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
       <c r="B132">
-        <v>23.033</v>
+        <v>27.496</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3812,13 +3851,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
       <c r="B133">
-        <v>3.457</v>
+        <v>27.566</v>
       </c>
       <c r="C133">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3831,6 +3870,305 @@
       </c>
       <c r="G133" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
+        <v>45932.29166666666</v>
+      </c>
+      <c r="B134">
+        <v>50.987</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
+        <v>45932.30208333334</v>
+      </c>
+      <c r="B135">
+        <v>47.114</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>14.5</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>30</v>
+      </c>
+      <c r="G135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>45932.3125</v>
+      </c>
+      <c r="B136">
+        <v>37.56</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45932.32291666666</v>
+      </c>
+      <c r="B137">
+        <v>18.966</v>
+      </c>
+      <c r="C137">
+        <v>0.021</v>
+      </c>
+      <c r="D137">
+        <v>50</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>45932.33333333334</v>
+      </c>
+      <c r="B138">
+        <v>20.81</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>50</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>45932.34375</v>
+      </c>
+      <c r="B139">
+        <v>10.298</v>
+      </c>
+      <c r="C139">
+        <v>0.001</v>
+      </c>
+      <c r="D139">
+        <v>41</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>45932.35416666666</v>
+      </c>
+      <c r="B140">
+        <v>13.979</v>
+      </c>
+      <c r="C140">
+        <v>0.001</v>
+      </c>
+      <c r="D140">
+        <v>41.75</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>45932.36458333334</v>
+      </c>
+      <c r="B141">
+        <v>0.522</v>
+      </c>
+      <c r="C141">
+        <v>0.268</v>
+      </c>
+      <c r="D141">
+        <v>41.75</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>45932.375</v>
+      </c>
+      <c r="B142">
+        <v>0.887</v>
+      </c>
+      <c r="C142">
+        <v>0.176</v>
+      </c>
+      <c r="D142">
+        <v>50</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>45932.38541666666</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>8.837999999999999</v>
+      </c>
+      <c r="D143">
+        <v>75</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45932.39583333334</v>
+      </c>
+      <c r="B144">
+        <v>0.026</v>
+      </c>
+      <c r="C144">
+        <v>5.754</v>
+      </c>
+      <c r="D144">
+        <v>64.5</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45932.40625</v>
+      </c>
+      <c r="B145">
+        <v>0.226</v>
+      </c>
+      <c r="C145">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="D145">
+        <v>75</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45932.42708333334</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>87.5</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>42</v>
+      </c>
+      <c r="G146" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="243">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,415 +37,712 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>01.10.20251</t>
-  </si>
-  <si>
-    <t>01.10.20252</t>
-  </si>
-  <si>
-    <t>01.10.20253</t>
-  </si>
-  <si>
-    <t>01.10.20254</t>
-  </si>
-  <si>
-    <t>01.10.20255</t>
-  </si>
-  <si>
-    <t>01.10.20256</t>
-  </si>
-  <si>
-    <t>01.10.20257</t>
-  </si>
-  <si>
-    <t>01.10.20258</t>
-  </si>
-  <si>
-    <t>01.10.20259</t>
-  </si>
-  <si>
-    <t>01.10.202510</t>
-  </si>
-  <si>
-    <t>01.10.202511</t>
-  </si>
-  <si>
-    <t>01.10.202512</t>
-  </si>
-  <si>
-    <t>01.10.202513</t>
-  </si>
-  <si>
-    <t>01.10.202514</t>
-  </si>
-  <si>
-    <t>01.10.202515</t>
-  </si>
-  <si>
-    <t>01.10.202516</t>
-  </si>
-  <si>
-    <t>01.10.202517</t>
-  </si>
-  <si>
-    <t>01.10.202518</t>
-  </si>
-  <si>
-    <t>01.10.202519</t>
-  </si>
-  <si>
-    <t>01.10.202520</t>
-  </si>
-  <si>
-    <t>01.10.202521</t>
-  </si>
-  <si>
-    <t>01.10.202522</t>
-  </si>
-  <si>
-    <t>01.10.202523</t>
-  </si>
-  <si>
-    <t>01.10.202524</t>
-  </si>
-  <si>
-    <t>01.10.202525</t>
-  </si>
-  <si>
-    <t>01.10.202526</t>
-  </si>
-  <si>
-    <t>01.10.202527</t>
-  </si>
-  <si>
-    <t>01.10.202528</t>
-  </si>
-  <si>
-    <t>01.10.202529</t>
-  </si>
-  <si>
-    <t>01.10.202530</t>
-  </si>
-  <si>
-    <t>01.10.202531</t>
-  </si>
-  <si>
-    <t>01.10.202532</t>
-  </si>
-  <si>
-    <t>01.10.202533</t>
-  </si>
-  <si>
-    <t>01.10.202534</t>
-  </si>
-  <si>
-    <t>01.10.202535</t>
-  </si>
-  <si>
-    <t>01.10.202536</t>
-  </si>
-  <si>
-    <t>01.10.202537</t>
-  </si>
-  <si>
-    <t>01.10.202538</t>
-  </si>
-  <si>
-    <t>01.10.202539</t>
-  </si>
-  <si>
-    <t>01.10.202540</t>
-  </si>
-  <si>
-    <t>01.10.202541</t>
-  </si>
-  <si>
-    <t>01.10.202542</t>
-  </si>
-  <si>
-    <t>01.10.202543</t>
-  </si>
-  <si>
-    <t>01.10.202544</t>
-  </si>
-  <si>
-    <t>01.10.202545</t>
-  </si>
-  <si>
-    <t>01.10.202546</t>
-  </si>
-  <si>
-    <t>01.10.202547</t>
-  </si>
-  <si>
-    <t>01.10.202548</t>
-  </si>
-  <si>
-    <t>01.10.202549</t>
-  </si>
-  <si>
-    <t>01.10.202550</t>
-  </si>
-  <si>
-    <t>01.10.202551</t>
-  </si>
-  <si>
-    <t>01.10.202552</t>
-  </si>
-  <si>
-    <t>01.10.202553</t>
-  </si>
-  <si>
-    <t>01.10.202554</t>
-  </si>
-  <si>
-    <t>01.10.202555</t>
-  </si>
-  <si>
-    <t>01.10.202556</t>
-  </si>
-  <si>
-    <t>01.10.202557</t>
-  </si>
-  <si>
-    <t>01.10.202558</t>
-  </si>
-  <si>
-    <t>01.10.202559</t>
-  </si>
-  <si>
-    <t>01.10.202560</t>
-  </si>
-  <si>
-    <t>01.10.202561</t>
-  </si>
-  <si>
-    <t>01.10.202562</t>
-  </si>
-  <si>
-    <t>01.10.202563</t>
-  </si>
-  <si>
-    <t>01.10.202564</t>
-  </si>
-  <si>
-    <t>01.10.202565</t>
-  </si>
-  <si>
-    <t>01.10.202566</t>
-  </si>
-  <si>
-    <t>01.10.202567</t>
-  </si>
-  <si>
-    <t>01.10.202568</t>
-  </si>
-  <si>
-    <t>01.10.202569</t>
-  </si>
-  <si>
-    <t>01.10.202570</t>
-  </si>
-  <si>
-    <t>01.10.202571</t>
-  </si>
-  <si>
-    <t>01.10.202572</t>
-  </si>
-  <si>
-    <t>01.10.202573</t>
-  </si>
-  <si>
-    <t>01.10.202574</t>
-  </si>
-  <si>
-    <t>01.10.202575</t>
-  </si>
-  <si>
-    <t>01.10.202576</t>
-  </si>
-  <si>
-    <t>01.10.202577</t>
-  </si>
-  <si>
-    <t>01.10.202578</t>
-  </si>
-  <si>
-    <t>01.10.202579</t>
-  </si>
-  <si>
-    <t>01.10.202580</t>
-  </si>
-  <si>
-    <t>01.10.202581</t>
-  </si>
-  <si>
-    <t>01.10.202582</t>
-  </si>
-  <si>
-    <t>01.10.202583</t>
-  </si>
-  <si>
-    <t>01.10.202584</t>
-  </si>
-  <si>
-    <t>01.10.202585</t>
-  </si>
-  <si>
-    <t>01.10.202586</t>
-  </si>
-  <si>
-    <t>01.10.202587</t>
-  </si>
-  <si>
-    <t>01.10.202588</t>
-  </si>
-  <si>
-    <t>01.10.202589</t>
-  </si>
-  <si>
-    <t>01.10.202590</t>
-  </si>
-  <si>
-    <t>01.10.202591</t>
-  </si>
-  <si>
-    <t>01.10.202592</t>
-  </si>
-  <si>
-    <t>01.10.202593</t>
-  </si>
-  <si>
-    <t>01.10.202594</t>
-  </si>
-  <si>
-    <t>01.10.202595</t>
-  </si>
-  <si>
-    <t>01.10.202596</t>
-  </si>
-  <si>
-    <t>02.10.20251</t>
-  </si>
-  <si>
-    <t>02.10.20252</t>
-  </si>
-  <si>
-    <t>02.10.20253</t>
-  </si>
-  <si>
-    <t>02.10.20254</t>
-  </si>
-  <si>
-    <t>02.10.20255</t>
-  </si>
-  <si>
-    <t>02.10.20256</t>
-  </si>
-  <si>
-    <t>02.10.20257</t>
-  </si>
-  <si>
-    <t>02.10.20258</t>
-  </si>
-  <si>
-    <t>02.10.20259</t>
-  </si>
-  <si>
-    <t>02.10.202510</t>
-  </si>
-  <si>
-    <t>02.10.202511</t>
-  </si>
-  <si>
-    <t>02.10.202512</t>
-  </si>
-  <si>
-    <t>02.10.202513</t>
-  </si>
-  <si>
-    <t>02.10.202514</t>
-  </si>
-  <si>
-    <t>02.10.202515</t>
-  </si>
-  <si>
-    <t>02.10.202516</t>
-  </si>
-  <si>
-    <t>02.10.202517</t>
-  </si>
-  <si>
-    <t>02.10.202518</t>
-  </si>
-  <si>
-    <t>02.10.202519</t>
-  </si>
-  <si>
-    <t>02.10.202520</t>
-  </si>
-  <si>
-    <t>02.10.202521</t>
-  </si>
-  <si>
-    <t>02.10.202522</t>
-  </si>
-  <si>
-    <t>02.10.202523</t>
-  </si>
-  <si>
-    <t>02.10.202524</t>
-  </si>
-  <si>
-    <t>02.10.202525</t>
-  </si>
-  <si>
-    <t>02.10.202526</t>
-  </si>
-  <si>
-    <t>02.10.202527</t>
-  </si>
-  <si>
-    <t>02.10.202528</t>
-  </si>
-  <si>
-    <t>02.10.202529</t>
-  </si>
-  <si>
-    <t>02.10.202530</t>
-  </si>
-  <si>
-    <t>02.10.202531</t>
-  </si>
-  <si>
-    <t>02.10.202532</t>
-  </si>
-  <si>
-    <t>02.10.202533</t>
-  </si>
-  <si>
-    <t>02.10.202534</t>
-  </si>
-  <si>
-    <t>02.10.202535</t>
-  </si>
-  <si>
-    <t>02.10.202536</t>
-  </si>
-  <si>
-    <t>02.10.202537</t>
-  </si>
-  <si>
-    <t>02.10.202538</t>
-  </si>
-  <si>
-    <t>02.10.202539</t>
-  </si>
-  <si>
-    <t>02.10.202540</t>
-  </si>
-  <si>
-    <t>02.10.202542</t>
+    <t>14.10.20251</t>
+  </si>
+  <si>
+    <t>14.10.20252</t>
+  </si>
+  <si>
+    <t>14.10.20253</t>
+  </si>
+  <si>
+    <t>14.10.20254</t>
+  </si>
+  <si>
+    <t>14.10.20255</t>
+  </si>
+  <si>
+    <t>14.10.20256</t>
+  </si>
+  <si>
+    <t>14.10.20257</t>
+  </si>
+  <si>
+    <t>14.10.20258</t>
+  </si>
+  <si>
+    <t>14.10.20259</t>
+  </si>
+  <si>
+    <t>14.10.202510</t>
+  </si>
+  <si>
+    <t>14.10.202511</t>
+  </si>
+  <si>
+    <t>14.10.202512</t>
+  </si>
+  <si>
+    <t>14.10.202513</t>
+  </si>
+  <si>
+    <t>14.10.202514</t>
+  </si>
+  <si>
+    <t>14.10.202515</t>
+  </si>
+  <si>
+    <t>14.10.202516</t>
+  </si>
+  <si>
+    <t>14.10.202517</t>
+  </si>
+  <si>
+    <t>14.10.202518</t>
+  </si>
+  <si>
+    <t>14.10.202519</t>
+  </si>
+  <si>
+    <t>14.10.202520</t>
+  </si>
+  <si>
+    <t>14.10.202521</t>
+  </si>
+  <si>
+    <t>14.10.202522</t>
+  </si>
+  <si>
+    <t>14.10.202523</t>
+  </si>
+  <si>
+    <t>14.10.202524</t>
+  </si>
+  <si>
+    <t>14.10.202525</t>
+  </si>
+  <si>
+    <t>14.10.202526</t>
+  </si>
+  <si>
+    <t>14.10.202527</t>
+  </si>
+  <si>
+    <t>14.10.202528</t>
+  </si>
+  <si>
+    <t>14.10.202529</t>
+  </si>
+  <si>
+    <t>14.10.202530</t>
+  </si>
+  <si>
+    <t>14.10.202531</t>
+  </si>
+  <si>
+    <t>14.10.202532</t>
+  </si>
+  <si>
+    <t>14.10.202533</t>
+  </si>
+  <si>
+    <t>14.10.202534</t>
+  </si>
+  <si>
+    <t>14.10.202535</t>
+  </si>
+  <si>
+    <t>14.10.202536</t>
+  </si>
+  <si>
+    <t>14.10.202537</t>
+  </si>
+  <si>
+    <t>14.10.202538</t>
+  </si>
+  <si>
+    <t>14.10.202539</t>
+  </si>
+  <si>
+    <t>14.10.202540</t>
+  </si>
+  <si>
+    <t>14.10.202541</t>
+  </si>
+  <si>
+    <t>14.10.202542</t>
+  </si>
+  <si>
+    <t>14.10.202543</t>
+  </si>
+  <si>
+    <t>14.10.202544</t>
+  </si>
+  <si>
+    <t>14.10.202545</t>
+  </si>
+  <si>
+    <t>14.10.202546</t>
+  </si>
+  <si>
+    <t>14.10.202547</t>
+  </si>
+  <si>
+    <t>14.10.202548</t>
+  </si>
+  <si>
+    <t>14.10.202549</t>
+  </si>
+  <si>
+    <t>14.10.202550</t>
+  </si>
+  <si>
+    <t>14.10.202551</t>
+  </si>
+  <si>
+    <t>14.10.202552</t>
+  </si>
+  <si>
+    <t>14.10.202553</t>
+  </si>
+  <si>
+    <t>14.10.202554</t>
+  </si>
+  <si>
+    <t>14.10.202555</t>
+  </si>
+  <si>
+    <t>14.10.202556</t>
+  </si>
+  <si>
+    <t>14.10.202557</t>
+  </si>
+  <si>
+    <t>14.10.202558</t>
+  </si>
+  <si>
+    <t>14.10.202559</t>
+  </si>
+  <si>
+    <t>14.10.202560</t>
+  </si>
+  <si>
+    <t>14.10.202561</t>
+  </si>
+  <si>
+    <t>14.10.202562</t>
+  </si>
+  <si>
+    <t>14.10.202563</t>
+  </si>
+  <si>
+    <t>14.10.202564</t>
+  </si>
+  <si>
+    <t>14.10.202565</t>
+  </si>
+  <si>
+    <t>14.10.202566</t>
+  </si>
+  <si>
+    <t>14.10.202567</t>
+  </si>
+  <si>
+    <t>14.10.202568</t>
+  </si>
+  <si>
+    <t>14.10.202569</t>
+  </si>
+  <si>
+    <t>14.10.202570</t>
+  </si>
+  <si>
+    <t>14.10.202571</t>
+  </si>
+  <si>
+    <t>14.10.202572</t>
+  </si>
+  <si>
+    <t>14.10.202573</t>
+  </si>
+  <si>
+    <t>14.10.202574</t>
+  </si>
+  <si>
+    <t>14.10.202575</t>
+  </si>
+  <si>
+    <t>14.10.202576</t>
+  </si>
+  <si>
+    <t>14.10.202577</t>
+  </si>
+  <si>
+    <t>14.10.202578</t>
+  </si>
+  <si>
+    <t>14.10.202579</t>
+  </si>
+  <si>
+    <t>14.10.202580</t>
+  </si>
+  <si>
+    <t>14.10.202581</t>
+  </si>
+  <si>
+    <t>14.10.202582</t>
+  </si>
+  <si>
+    <t>14.10.202583</t>
+  </si>
+  <si>
+    <t>14.10.202584</t>
+  </si>
+  <si>
+    <t>14.10.202585</t>
+  </si>
+  <si>
+    <t>14.10.202586</t>
+  </si>
+  <si>
+    <t>14.10.202587</t>
+  </si>
+  <si>
+    <t>14.10.202588</t>
+  </si>
+  <si>
+    <t>14.10.202589</t>
+  </si>
+  <si>
+    <t>14.10.202590</t>
+  </si>
+  <si>
+    <t>14.10.202591</t>
+  </si>
+  <si>
+    <t>14.10.202592</t>
+  </si>
+  <si>
+    <t>14.10.202593</t>
+  </si>
+  <si>
+    <t>14.10.202594</t>
+  </si>
+  <si>
+    <t>14.10.202595</t>
+  </si>
+  <si>
+    <t>14.10.202596</t>
+  </si>
+  <si>
+    <t>15.10.20251</t>
+  </si>
+  <si>
+    <t>15.10.20252</t>
+  </si>
+  <si>
+    <t>15.10.20253</t>
+  </si>
+  <si>
+    <t>15.10.20254</t>
+  </si>
+  <si>
+    <t>15.10.20255</t>
+  </si>
+  <si>
+    <t>15.10.20256</t>
+  </si>
+  <si>
+    <t>15.10.20257</t>
+  </si>
+  <si>
+    <t>15.10.20258</t>
+  </si>
+  <si>
+    <t>15.10.20259</t>
+  </si>
+  <si>
+    <t>15.10.202510</t>
+  </si>
+  <si>
+    <t>15.10.202511</t>
+  </si>
+  <si>
+    <t>15.10.202512</t>
+  </si>
+  <si>
+    <t>15.10.202513</t>
+  </si>
+  <si>
+    <t>15.10.202514</t>
+  </si>
+  <si>
+    <t>15.10.202515</t>
+  </si>
+  <si>
+    <t>15.10.202516</t>
+  </si>
+  <si>
+    <t>15.10.202517</t>
+  </si>
+  <si>
+    <t>15.10.202518</t>
+  </si>
+  <si>
+    <t>15.10.202519</t>
+  </si>
+  <si>
+    <t>15.10.202520</t>
+  </si>
+  <si>
+    <t>15.10.202521</t>
+  </si>
+  <si>
+    <t>15.10.202522</t>
+  </si>
+  <si>
+    <t>15.10.202523</t>
+  </si>
+  <si>
+    <t>15.10.202524</t>
+  </si>
+  <si>
+    <t>15.10.202525</t>
+  </si>
+  <si>
+    <t>15.10.202526</t>
+  </si>
+  <si>
+    <t>15.10.202527</t>
+  </si>
+  <si>
+    <t>15.10.202528</t>
+  </si>
+  <si>
+    <t>15.10.202529</t>
+  </si>
+  <si>
+    <t>15.10.202530</t>
+  </si>
+  <si>
+    <t>15.10.202531</t>
+  </si>
+  <si>
+    <t>15.10.202532</t>
+  </si>
+  <si>
+    <t>15.10.202533</t>
+  </si>
+  <si>
+    <t>15.10.202534</t>
+  </si>
+  <si>
+    <t>15.10.202535</t>
+  </si>
+  <si>
+    <t>15.10.202536</t>
+  </si>
+  <si>
+    <t>15.10.202537</t>
+  </si>
+  <si>
+    <t>15.10.202538</t>
+  </si>
+  <si>
+    <t>15.10.202539</t>
+  </si>
+  <si>
+    <t>15.10.202540</t>
+  </si>
+  <si>
+    <t>15.10.202541</t>
+  </si>
+  <si>
+    <t>15.10.202542</t>
+  </si>
+  <si>
+    <t>15.10.202543</t>
+  </si>
+  <si>
+    <t>15.10.202544</t>
+  </si>
+  <si>
+    <t>15.10.202545</t>
+  </si>
+  <si>
+    <t>15.10.202546</t>
+  </si>
+  <si>
+    <t>15.10.202547</t>
+  </si>
+  <si>
+    <t>15.10.202548</t>
+  </si>
+  <si>
+    <t>15.10.202549</t>
+  </si>
+  <si>
+    <t>15.10.202550</t>
+  </si>
+  <si>
+    <t>15.10.202551</t>
+  </si>
+  <si>
+    <t>15.10.202552</t>
+  </si>
+  <si>
+    <t>15.10.202553</t>
+  </si>
+  <si>
+    <t>15.10.202554</t>
+  </si>
+  <si>
+    <t>15.10.202555</t>
+  </si>
+  <si>
+    <t>15.10.202556</t>
+  </si>
+  <si>
+    <t>15.10.202557</t>
+  </si>
+  <si>
+    <t>15.10.202558</t>
+  </si>
+  <si>
+    <t>15.10.202559</t>
+  </si>
+  <si>
+    <t>15.10.202560</t>
+  </si>
+  <si>
+    <t>15.10.202561</t>
+  </si>
+  <si>
+    <t>15.10.202562</t>
+  </si>
+  <si>
+    <t>15.10.202563</t>
+  </si>
+  <si>
+    <t>15.10.202564</t>
+  </si>
+  <si>
+    <t>15.10.202565</t>
+  </si>
+  <si>
+    <t>15.10.202566</t>
+  </si>
+  <si>
+    <t>15.10.202567</t>
+  </si>
+  <si>
+    <t>15.10.202568</t>
+  </si>
+  <si>
+    <t>15.10.202569</t>
+  </si>
+  <si>
+    <t>15.10.202570</t>
+  </si>
+  <si>
+    <t>15.10.202571</t>
+  </si>
+  <si>
+    <t>15.10.202572</t>
+  </si>
+  <si>
+    <t>15.10.202573</t>
+  </si>
+  <si>
+    <t>15.10.202574</t>
+  </si>
+  <si>
+    <t>15.10.202575</t>
+  </si>
+  <si>
+    <t>15.10.202576</t>
+  </si>
+  <si>
+    <t>15.10.202577</t>
+  </si>
+  <si>
+    <t>15.10.202578</t>
+  </si>
+  <si>
+    <t>15.10.202579</t>
+  </si>
+  <si>
+    <t>15.10.202580</t>
+  </si>
+  <si>
+    <t>15.10.202581</t>
+  </si>
+  <si>
+    <t>15.10.202582</t>
+  </si>
+  <si>
+    <t>15.10.202583</t>
+  </si>
+  <si>
+    <t>15.10.202584</t>
+  </si>
+  <si>
+    <t>15.10.202585</t>
+  </si>
+  <si>
+    <t>15.10.202586</t>
+  </si>
+  <si>
+    <t>15.10.202587</t>
+  </si>
+  <si>
+    <t>15.10.202588</t>
+  </si>
+  <si>
+    <t>15.10.202589</t>
+  </si>
+  <si>
+    <t>15.10.202590</t>
+  </si>
+  <si>
+    <t>15.10.202591</t>
+  </si>
+  <si>
+    <t>15.10.202592</t>
+  </si>
+  <si>
+    <t>15.10.202593</t>
+  </si>
+  <si>
+    <t>15.10.202594</t>
+  </si>
+  <si>
+    <t>15.10.202595</t>
+  </si>
+  <si>
+    <t>15.10.202596</t>
+  </si>
+  <si>
+    <t>16.10.20251</t>
+  </si>
+  <si>
+    <t>16.10.20252</t>
+  </si>
+  <si>
+    <t>16.10.20253</t>
+  </si>
+  <si>
+    <t>16.10.20254</t>
+  </si>
+  <si>
+    <t>16.10.20255</t>
+  </si>
+  <si>
+    <t>16.10.20256</t>
+  </si>
+  <si>
+    <t>16.10.20257</t>
+  </si>
+  <si>
+    <t>16.10.20258</t>
+  </si>
+  <si>
+    <t>16.10.20259</t>
+  </si>
+  <si>
+    <t>16.10.202510</t>
+  </si>
+  <si>
+    <t>16.10.202511</t>
+  </si>
+  <si>
+    <t>16.10.202512</t>
+  </si>
+  <si>
+    <t>16.10.202513</t>
+  </si>
+  <si>
+    <t>16.10.202514</t>
+  </si>
+  <si>
+    <t>16.10.202515</t>
+  </si>
+  <si>
+    <t>16.10.202516</t>
+  </si>
+  <si>
+    <t>16.10.202517</t>
+  </si>
+  <si>
+    <t>16.10.202518</t>
+  </si>
+  <si>
+    <t>16.10.202519</t>
+  </si>
+  <si>
+    <t>16.10.202520</t>
+  </si>
+  <si>
+    <t>16.10.202521</t>
+  </si>
+  <si>
+    <t>16.10.202522</t>
+  </si>
+  <si>
+    <t>16.10.202523</t>
+  </si>
+  <si>
+    <t>16.10.202524</t>
+  </si>
+  <si>
+    <t>16.10.202525</t>
+  </si>
+  <si>
+    <t>16.10.202526</t>
+  </si>
+  <si>
+    <t>16.10.202527</t>
+  </si>
+  <si>
+    <t>16.10.202528</t>
+  </si>
+  <si>
+    <t>16.10.202529</t>
+  </si>
+  <si>
+    <t>16.10.202530</t>
+  </si>
+  <si>
+    <t>16.10.202531</t>
+  </si>
+  <si>
+    <t>16.10.202532</t>
+  </si>
+  <si>
+    <t>16.10.202533</t>
+  </si>
+  <si>
+    <t>16.10.202534</t>
+  </si>
+  <si>
+    <t>16.10.202535</t>
+  </si>
+  <si>
+    <t>16.10.202536</t>
+  </si>
+  <si>
+    <t>16.10.202537</t>
+  </si>
+  <si>
+    <t>16.10.202538</t>
+  </si>
+  <si>
+    <t>16.10.202539</t>
+  </si>
+  <si>
+    <t>16.10.202540</t>
+  </si>
+  <si>
+    <t>16.10.202541</t>
+  </si>
+  <si>
+    <t>16.10.202542</t>
+  </si>
+  <si>
+    <t>16.10.202543</t>
+  </si>
+  <si>
+    <t>16.10.202544</t>
   </si>
 </sst>
 </file>
@@ -807,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -838,13 +1135,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45931</v>
+        <v>45944</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>4.489</v>
       </c>
       <c r="C2">
-        <v>2.099</v>
+        <v>0.391</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -861,13 +1158,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45931.01041666666</v>
+        <v>45944.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.08699999999999999</v>
+        <v>0.332</v>
       </c>
       <c r="C3">
-        <v>1.343</v>
+        <v>0.012</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -884,13 +1181,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45931.02083333334</v>
+        <v>45944.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.082</v>
+        <v>1.089</v>
       </c>
       <c r="C4">
-        <v>2.967</v>
+        <v>0.38</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -907,13 +1204,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45931.03125</v>
+        <v>45944.03125</v>
       </c>
       <c r="B5">
-        <v>0.149</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>6.195</v>
+        <v>0.672</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -930,13 +1227,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.537</v>
       </c>
       <c r="C6">
-        <v>1.388</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -953,13 +1250,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.017</v>
+        <v>1.171</v>
       </c>
       <c r="C7">
-        <v>2.756</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -976,13 +1273,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="C8">
-        <v>4.665</v>
+        <v>0.517</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -999,13 +1296,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="C9">
-        <v>12.601</v>
+        <v>0.434</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1022,13 +1319,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C10">
-        <v>18.553</v>
+        <v>1.426</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1045,13 +1342,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C11">
-        <v>13.939</v>
+        <v>1.062</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1068,13 +1365,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.058</v>
       </c>
       <c r="C12">
-        <v>21.859</v>
+        <v>0.136</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1091,13 +1388,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="C13">
-        <v>15.319</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1114,13 +1411,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.904</v>
       </c>
       <c r="C14">
-        <v>8.343999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1137,13 +1434,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C15">
-        <v>8.818</v>
+        <v>2.816</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1160,13 +1457,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="C16">
-        <v>4.677</v>
+        <v>1.204</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1183,13 +1480,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.812</v>
+        <v>1.456</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1206,13 +1503,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B18">
-        <v>4.493</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.362</v>
+        <v>17.164</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1229,13 +1526,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B19">
-        <v>4.433</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>7.106</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1252,13 +1549,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B20">
-        <v>9.034000000000001</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4.646</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1275,13 +1572,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B21">
-        <v>1.039</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.597</v>
+        <v>14.808</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1298,13 +1595,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1.178</v>
+        <v>11.839</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1321,13 +1618,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="C23">
-        <v>10.938</v>
+        <v>0.573</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1344,13 +1641,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.37</v>
+        <v>3.268</v>
       </c>
       <c r="C24">
-        <v>2.106</v>
+        <v>0.575</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1367,13 +1664,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.585</v>
+        <v>24.916</v>
       </c>
       <c r="C25">
-        <v>4.713</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1390,13 +1687,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B26">
-        <v>1.101</v>
+        <v>12.565</v>
       </c>
       <c r="C26">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1413,13 +1710,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.722</v>
+        <v>33.55</v>
       </c>
       <c r="C27">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1436,13 +1733,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.607</v>
+        <v>36.625</v>
       </c>
       <c r="C28">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1459,16 +1756,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B29">
-        <v>0.283</v>
+        <v>29.68</v>
       </c>
       <c r="C29">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1482,16 +1779,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B30">
-        <v>5.397</v>
+        <v>13.487</v>
       </c>
       <c r="C30">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1505,16 +1802,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B31">
-        <v>1.248</v>
+        <v>0.197</v>
       </c>
       <c r="C31">
-        <v>0.016</v>
+        <v>0.083</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1528,16 +1825,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B32">
-        <v>1.411</v>
+        <v>0.129</v>
       </c>
       <c r="C32">
-        <v>1.302</v>
+        <v>0.224</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1551,16 +1848,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C33">
-        <v>3.204</v>
+        <v>2.862</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1574,13 +1871,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B34">
-        <v>3.726</v>
+        <v>7.542</v>
       </c>
       <c r="C34">
-        <v>0.401</v>
+        <v>0.077</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1597,13 +1894,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B35">
-        <v>0.09</v>
+        <v>0.081</v>
       </c>
       <c r="C35">
-        <v>0.125</v>
+        <v>6.244</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1620,13 +1917,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>7.242</v>
+        <v>10.423</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1643,13 +1940,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>20.918</v>
+        <v>35.557</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1666,13 +1963,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B38">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>10.637</v>
+        <v>9.053000000000001</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1689,13 +1986,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>17.613</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1712,13 +2009,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>9.992000000000001</v>
+        <v>14.751</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1735,13 +2032,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>21.155</v>
+        <v>14.648</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1758,13 +2055,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>26.094</v>
+        <v>26.69</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1781,13 +2078,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>39.129</v>
+        <v>46.064</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1804,13 +2101,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45931.4375</v>
+        <v>45944.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>36.674</v>
+        <v>41.195</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1827,19 +2124,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45931.44791666666</v>
+        <v>45944.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>27.657</v>
+        <v>56.496</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1850,19 +2147,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45931.45833333334</v>
+        <v>45944.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>38.035</v>
+        <v>72.657</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1873,13 +2170,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45931.46875</v>
+        <v>45944.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>23.227</v>
+        <v>42.034</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1896,19 +2193,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45931.47916666666</v>
+        <v>45944.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>8.281000000000001</v>
+        <v>30.711</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>44.75</v>
+        <v>32.5</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1919,19 +2216,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45931.48958333334</v>
+        <v>45944.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>9.685</v>
+        <v>30.201</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>44.75</v>
+        <v>32.5</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1942,19 +2239,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45931.5</v>
+        <v>45944.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>32.053</v>
+        <v>19.348</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>44.75</v>
+        <v>32.5</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1965,19 +2262,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45931.51041666666</v>
+        <v>45944.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>8.106999999999999</v>
+        <v>24.368</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>44.75</v>
+        <v>32.5</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1988,19 +2285,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45931.52083333334</v>
+        <v>45944.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="C52">
-        <v>6.841</v>
+        <v>4.725</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>44.75</v>
+        <v>57.5</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -2011,19 +2308,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45931.53125</v>
+        <v>45944.53125</v>
       </c>
       <c r="B53">
-        <v>0.113</v>
+        <v>1.859</v>
       </c>
       <c r="C53">
-        <v>2.735</v>
+        <v>1.715</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>75</v>
+        <v>57.5</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2034,19 +2331,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45931.54166666666</v>
+        <v>45944.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.121</v>
+        <v>0.008</v>
       </c>
       <c r="C54">
-        <v>2.942</v>
+        <v>4.602</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2057,19 +2354,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45931.55208333334</v>
+        <v>45944.55208333334</v>
       </c>
       <c r="B55">
-        <v>1.323</v>
+        <v>0.449</v>
       </c>
       <c r="C55">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2080,13 +2377,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45931.5625</v>
+        <v>45944.5625</v>
       </c>
       <c r="B56">
-        <v>2.173</v>
+        <v>5.623</v>
       </c>
       <c r="C56">
-        <v>0.119</v>
+        <v>0.002</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2103,19 +2400,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45931.57291666666</v>
+        <v>45944.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.445</v>
+        <v>6.097</v>
       </c>
       <c r="C57">
-        <v>1.805</v>
+        <v>0.001</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2126,19 +2423,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45931.58333333334</v>
+        <v>45944.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1.822</v>
       </c>
       <c r="C58">
-        <v>3.862</v>
+        <v>2.845</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2149,19 +2446,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45931.59375</v>
+        <v>45944.59375</v>
       </c>
       <c r="B59">
-        <v>1.02</v>
+        <v>3.678</v>
       </c>
       <c r="C59">
-        <v>0.8139999999999999</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -2172,13 +2469,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45931.60416666666</v>
+        <v>45944.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.134</v>
+        <v>0.01</v>
       </c>
       <c r="C60">
-        <v>1.433</v>
+        <v>13.584</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2195,13 +2492,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45931.61458333334</v>
+        <v>45944.61458333334</v>
       </c>
       <c r="B61">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.503</v>
+        <v>11.767</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2218,13 +2515,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45931.625</v>
+        <v>45944.625</v>
       </c>
       <c r="B62">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>1.594</v>
+        <v>21.062</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2241,13 +2538,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45931.63541666666</v>
+        <v>45944.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.202</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.093</v>
+        <v>16.983</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2264,13 +2561,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45931.64583333334</v>
+        <v>45944.64583333334</v>
       </c>
       <c r="B64">
-        <v>2.398</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.089</v>
+        <v>19.23</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2287,13 +2584,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45931.65625</v>
+        <v>45944.65625</v>
       </c>
       <c r="B65">
-        <v>2.265</v>
+        <v>0.095</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2310,13 +2607,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45931.66666666666</v>
+        <v>45944.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.179</v>
+        <v>0.03</v>
       </c>
       <c r="C66">
-        <v>0.216</v>
+        <v>2.633</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2333,13 +2630,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45931.67708333334</v>
+        <v>45944.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.105</v>
+        <v>0.218</v>
       </c>
       <c r="C67">
-        <v>0.303</v>
+        <v>0.294</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2356,13 +2653,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45931.6875</v>
+        <v>45944.6875</v>
       </c>
       <c r="B68">
-        <v>0.007</v>
+        <v>0.34</v>
       </c>
       <c r="C68">
-        <v>0.66</v>
+        <v>0.093</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2379,13 +2676,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45931.69791666666</v>
+        <v>45944.69791666666</v>
       </c>
       <c r="B69">
-        <v>0.006</v>
+        <v>10.903</v>
       </c>
       <c r="C69">
-        <v>2.989</v>
+        <v>0.03</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2402,13 +2699,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45931.70833333334</v>
+        <v>45944.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>4.992</v>
       </c>
       <c r="C70">
-        <v>12.056</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2425,19 +2722,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45931.71875</v>
+        <v>45944.71875</v>
       </c>
       <c r="B71">
-        <v>0.195</v>
+        <v>0.744</v>
       </c>
       <c r="C71">
-        <v>8.686</v>
+        <v>0.03</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2448,19 +2745,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45931.72916666666</v>
+        <v>45944.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.886</v>
+        <v>1.608</v>
       </c>
       <c r="C72">
-        <v>0.283</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>68.5</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2471,19 +2768,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45931.73958333334</v>
+        <v>45944.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.105</v>
+        <v>4.401</v>
       </c>
       <c r="C73">
-        <v>2.079</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>68.5</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2494,19 +2791,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45931.75</v>
+        <v>45944.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.856</v>
       </c>
       <c r="C74">
-        <v>8.77</v>
+        <v>0.374</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>73</v>
@@ -2517,19 +2814,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45931.76041666666</v>
+        <v>45944.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.198</v>
+        <v>0.19</v>
       </c>
       <c r="C75">
-        <v>0.312</v>
+        <v>0.18</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>74</v>
@@ -2540,19 +2837,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45931.77083333334</v>
+        <v>45944.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.15</v>
+        <v>0.327</v>
       </c>
       <c r="C76">
-        <v>0.27</v>
+        <v>0.042</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>75</v>
@@ -2563,19 +2860,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45931.78125</v>
+        <v>45944.78125</v>
       </c>
       <c r="B77">
-        <v>0.224</v>
+        <v>0.083</v>
       </c>
       <c r="C77">
-        <v>0.1</v>
+        <v>0.374</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>76</v>
@@ -2586,19 +2883,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45931.79166666666</v>
+        <v>45944.79166666666</v>
       </c>
       <c r="B78">
-        <v>0.255</v>
+        <v>0.347</v>
       </c>
       <c r="C78">
-        <v>0.427</v>
+        <v>0.101</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>77</v>
@@ -2609,19 +2906,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45931.80208333334</v>
+        <v>45944.80208333334</v>
       </c>
       <c r="B79">
-        <v>0.109</v>
+        <v>1.202</v>
       </c>
       <c r="C79">
-        <v>0.125</v>
+        <v>0.037</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -2632,19 +2929,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45931.8125</v>
+        <v>45944.8125</v>
       </c>
       <c r="B80">
-        <v>0.033</v>
+        <v>6.505</v>
       </c>
       <c r="C80">
-        <v>7.878</v>
+        <v>0.1</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2655,19 +2952,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45931.82291666666</v>
+        <v>45944.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="C81">
-        <v>5.211</v>
+        <v>6.415</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -2678,19 +2975,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45931.83333333334</v>
+        <v>45944.83333333334</v>
       </c>
       <c r="B82">
-        <v>1.609</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>2.557</v>
+        <v>7.241</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -2701,19 +2998,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45931.84375</v>
+        <v>45944.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>5.151</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -2724,19 +3021,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45931.85416666666</v>
+        <v>45944.85416666666</v>
       </c>
       <c r="B84">
-        <v>4.137</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0.212</v>
+        <v>9.427</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>65.75</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -2747,19 +3044,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45931.86458333334</v>
+        <v>45944.86458333334</v>
       </c>
       <c r="B85">
-        <v>14.197</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0.026</v>
+        <v>7.197</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>65.75</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -2770,19 +3067,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45931.875</v>
+        <v>45944.875</v>
       </c>
       <c r="B86">
-        <v>8.375</v>
+        <v>0.152</v>
       </c>
       <c r="C86">
-        <v>0.002</v>
+        <v>0.93</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>56.25</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>85</v>
@@ -2793,19 +3090,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45931.88541666666</v>
+        <v>45944.88541666666</v>
       </c>
       <c r="B87">
-        <v>2.006</v>
+        <v>0.199</v>
       </c>
       <c r="C87">
-        <v>0.167</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>86</v>
@@ -2816,19 +3113,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45931.89583333334</v>
+        <v>45944.89583333334</v>
       </c>
       <c r="B88">
-        <v>0.669</v>
+        <v>6.922</v>
       </c>
       <c r="C88">
-        <v>0.019</v>
+        <v>2.334</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>87</v>
@@ -2839,19 +3136,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45931.90625</v>
+        <v>45944.90625</v>
       </c>
       <c r="B89">
-        <v>10.063</v>
+        <v>3.54</v>
       </c>
       <c r="C89">
-        <v>0.014</v>
+        <v>2.253</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>88</v>
@@ -2862,13 +3159,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45931.91666666666</v>
+        <v>45944.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>6.049</v>
       </c>
       <c r="C90">
-        <v>16.812</v>
+        <v>0.716</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2885,13 +3182,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45931.92708333334</v>
+        <v>45944.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="C91">
-        <v>17.914</v>
+        <v>0.624</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2908,13 +3205,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45931.9375</v>
+        <v>45944.9375</v>
       </c>
       <c r="B92">
-        <v>0.007</v>
+        <v>1.851</v>
       </c>
       <c r="C92">
-        <v>1.479</v>
+        <v>0.294</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2931,13 +3228,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45931.94791666666</v>
+        <v>45944.94791666666</v>
       </c>
       <c r="B93">
-        <v>0.39</v>
+        <v>0.045</v>
       </c>
       <c r="C93">
-        <v>0.042</v>
+        <v>3.037</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2954,13 +3251,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45931.95833333334</v>
+        <v>45944.95833333334</v>
       </c>
       <c r="B94">
-        <v>0.161</v>
+        <v>0.121</v>
       </c>
       <c r="C94">
-        <v>0.216</v>
+        <v>4.718</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2977,13 +3274,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B95">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>1.736</v>
+        <v>11.217</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3000,13 +3297,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B96">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>1.206</v>
+        <v>14.726</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3023,13 +3320,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>5.447</v>
+        <v>4.183</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3046,13 +3343,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>23.253</v>
+        <v>6.791</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3069,13 +3366,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>23.253</v>
+        <v>6.791</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3092,13 +3389,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45932.01041666666</v>
+        <v>45945.01041666666</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="C100">
-        <v>2.779</v>
+        <v>0.767</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3115,13 +3412,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45932.01041666666</v>
+        <v>45945.01041666666</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="C101">
-        <v>2.779</v>
+        <v>0.767</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3138,13 +3435,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45932.02083333334</v>
+        <v>45945.02083333334</v>
       </c>
       <c r="B102">
-        <v>3.262</v>
+        <v>0.011</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.915</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3161,13 +3458,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45932.02083333334</v>
+        <v>45945.02083333334</v>
       </c>
       <c r="B103">
-        <v>3.262</v>
+        <v>0.011</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.915</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3184,13 +3481,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45932.03125</v>
+        <v>45945.03125</v>
       </c>
       <c r="B104">
-        <v>5.774</v>
+        <v>0.044</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>2.225</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3207,13 +3504,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45932.03125</v>
+        <v>45945.03125</v>
       </c>
       <c r="B105">
-        <v>5.774</v>
+        <v>0.044</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>2.225</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3230,13 +3527,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45932.04166666666</v>
+        <v>45945.04166666666</v>
       </c>
       <c r="B106">
-        <v>1.892</v>
+        <v>0.053</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3253,13 +3550,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45932.04166666666</v>
+        <v>45945.04166666666</v>
       </c>
       <c r="B107">
-        <v>1.892</v>
+        <v>0.053</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3276,13 +3573,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45932.05208333334</v>
+        <v>45945.05208333334</v>
       </c>
       <c r="B108">
-        <v>0.147</v>
+        <v>0.194</v>
       </c>
       <c r="C108">
-        <v>0.23</v>
+        <v>0.706</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3299,13 +3596,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45932.05208333334</v>
+        <v>45945.05208333334</v>
       </c>
       <c r="B109">
-        <v>0.147</v>
+        <v>0.194</v>
       </c>
       <c r="C109">
-        <v>0.23</v>
+        <v>0.706</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3322,13 +3619,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45932.0625</v>
+        <v>45945.0625</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>5.198</v>
+        <v>2.404</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3345,13 +3642,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45932.0625</v>
+        <v>45945.0625</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>5.198</v>
+        <v>2.404</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3368,13 +3665,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45932.07291666666</v>
+        <v>45945.07291666666</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>2.686</v>
+        <v>10.696</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3391,13 +3688,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45932.07291666666</v>
+        <v>45945.07291666666</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>2.686</v>
+        <v>10.696</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3414,13 +3711,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45932.08333333334</v>
+        <v>45945.08333333334</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="C114">
-        <v>2.145</v>
+        <v>1.801</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3437,13 +3734,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45932.09375</v>
+        <v>45945.09375</v>
       </c>
       <c r="B115">
-        <v>0.036</v>
+        <v>0.019</v>
       </c>
       <c r="C115">
-        <v>1.152</v>
+        <v>1.459</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3460,13 +3757,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45932.10416666666</v>
+        <v>45945.10416666666</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="C116">
-        <v>10.985</v>
+        <v>0.788</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3483,13 +3780,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45932.11458333334</v>
+        <v>45945.11458333334</v>
       </c>
       <c r="B117">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="C117">
-        <v>2.873</v>
+        <v>0.058</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3506,13 +3803,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45932.125</v>
+        <v>45945.125</v>
       </c>
       <c r="B118">
-        <v>1.723</v>
+        <v>0.039</v>
       </c>
       <c r="C118">
-        <v>0.43</v>
+        <v>0.466</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3529,13 +3826,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45932.13541666666</v>
+        <v>45945.13541666666</v>
       </c>
       <c r="B119">
-        <v>12.738</v>
+        <v>0.017</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>5.728</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3552,13 +3849,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45932.14583333334</v>
+        <v>45945.14583333334</v>
       </c>
       <c r="B120">
-        <v>1.541</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0.125</v>
+        <v>5.577</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3575,13 +3872,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45932.15625</v>
+        <v>45945.15625</v>
       </c>
       <c r="B121">
-        <v>22.776</v>
+        <v>0.006</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>2.531</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3598,13 +3895,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45932.16666666666</v>
+        <v>45945.16666666666</v>
       </c>
       <c r="B122">
-        <v>10.996</v>
+        <v>0.004</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1.364</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3621,13 +3918,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45932.17708333334</v>
+        <v>45945.17708333334</v>
       </c>
       <c r="B123">
-        <v>8.347</v>
+        <v>0.142</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1.103</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3644,13 +3941,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45932.1875</v>
+        <v>45945.1875</v>
       </c>
       <c r="B124">
-        <v>9.102</v>
+        <v>1.054</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1.776</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3667,10 +3964,10 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45932.19791666666</v>
+        <v>45945.19791666666</v>
       </c>
       <c r="B125">
-        <v>4.434</v>
+        <v>10.054</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3690,13 +3987,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45932.20833333334</v>
+        <v>45945.20833333334</v>
       </c>
       <c r="B126">
-        <v>12.237</v>
+        <v>7.88</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1.144</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3713,13 +4010,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45932.21875</v>
+        <v>45945.21875</v>
       </c>
       <c r="B127">
-        <v>1.511</v>
+        <v>13.336</v>
       </c>
       <c r="C127">
-        <v>0.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3736,13 +4033,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45932.22916666666</v>
+        <v>45945.22916666666</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="C128">
-        <v>18.05</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3759,13 +4056,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45932.23958333334</v>
+        <v>45945.23958333334</v>
       </c>
       <c r="B129">
-        <v>0.333</v>
+        <v>26.512</v>
       </c>
       <c r="C129">
-        <v>3.134</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3782,10 +4079,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45932.25</v>
+        <v>45945.25</v>
       </c>
       <c r="B130">
-        <v>27.551</v>
+        <v>21.397</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3805,10 +4102,10 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45932.26041666666</v>
+        <v>45945.26041666666</v>
       </c>
       <c r="B131">
-        <v>41.72</v>
+        <v>33.731</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3828,16 +4125,16 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45932.27083333334</v>
+        <v>45945.27083333334</v>
       </c>
       <c r="B132">
-        <v>27.496</v>
+        <v>19.646</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>29.25</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3851,16 +4148,16 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45932.28125</v>
+        <v>45945.28125</v>
       </c>
       <c r="B133">
-        <v>27.566</v>
+        <v>17.528</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>29.25</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3874,16 +4171,16 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45932.29166666666</v>
+        <v>45945.29166666666</v>
       </c>
       <c r="B134">
-        <v>50.987</v>
+        <v>18.318</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>29.25</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3897,16 +4194,16 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45932.30208333334</v>
+        <v>45945.30208333334</v>
       </c>
       <c r="B135">
-        <v>47.114</v>
+        <v>36.985</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3920,16 +4217,16 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45932.3125</v>
+        <v>45945.3125</v>
       </c>
       <c r="B136">
-        <v>37.56</v>
+        <v>25.098</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>32</v>
+        <v>34.75</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3943,16 +4240,16 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45932.32291666666</v>
+        <v>45945.32291666666</v>
       </c>
       <c r="B137">
-        <v>18.966</v>
+        <v>9.935</v>
       </c>
       <c r="C137">
-        <v>0.021</v>
+        <v>0.489</v>
       </c>
       <c r="D137">
-        <v>50</v>
+        <v>37.25</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3966,16 +4263,16 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45932.33333333334</v>
+        <v>45945.33333333334</v>
       </c>
       <c r="B138">
-        <v>20.81</v>
+        <v>14.92</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D138">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3989,16 +4286,16 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45932.34375</v>
+        <v>45945.34375</v>
       </c>
       <c r="B139">
-        <v>10.298</v>
+        <v>3.227</v>
       </c>
       <c r="C139">
-        <v>0.001</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D139">
-        <v>41</v>
+        <v>37.5</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4012,16 +4309,16 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45932.35416666666</v>
+        <v>45945.35416666666</v>
       </c>
       <c r="B140">
-        <v>13.979</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>0.001</v>
+        <v>4.561</v>
       </c>
       <c r="D140">
-        <v>41.75</v>
+        <v>37.5</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4035,16 +4332,16 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45932.36458333334</v>
+        <v>45945.36458333334</v>
       </c>
       <c r="B141">
-        <v>0.522</v>
+        <v>4.211</v>
       </c>
       <c r="C141">
-        <v>0.268</v>
+        <v>0.895</v>
       </c>
       <c r="D141">
-        <v>41.75</v>
+        <v>25</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -4058,16 +4355,16 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45932.375</v>
+        <v>45945.375</v>
       </c>
       <c r="B142">
-        <v>0.887</v>
+        <v>1.295</v>
       </c>
       <c r="C142">
-        <v>0.176</v>
+        <v>0.065</v>
       </c>
       <c r="D142">
-        <v>50</v>
+        <v>24.5</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -4081,16 +4378,16 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45932.38541666666</v>
+        <v>45945.38541666666</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>0.861</v>
       </c>
       <c r="C143">
-        <v>8.837999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="D143">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -4104,16 +4401,16 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45932.39583333334</v>
+        <v>45945.39583333334</v>
       </c>
       <c r="B144">
-        <v>0.026</v>
+        <v>4.871</v>
       </c>
       <c r="C144">
-        <v>5.754</v>
+        <v>0.23</v>
       </c>
       <c r="D144">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -4127,16 +4424,16 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45932.40625</v>
+        <v>45945.40625</v>
       </c>
       <c r="B145">
-        <v>0.226</v>
+        <v>0.695</v>
       </c>
       <c r="C145">
-        <v>0.9419999999999999</v>
+        <v>0.133</v>
       </c>
       <c r="D145">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -4150,25 +4447,2486 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45932.42708333334</v>
+        <v>45945.41666666666</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="D146">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45945.42708333334</v>
+      </c>
+      <c r="B147">
+        <v>1.301</v>
+      </c>
+      <c r="C147">
+        <v>0.111</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>45945.4375</v>
+      </c>
+      <c r="B148">
+        <v>0.09</v>
+      </c>
+      <c r="C148">
+        <v>6.531</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>43</v>
+      </c>
+      <c r="G148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>45945.44791666666</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>25.277</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>12.715</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>45945.46875</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>6.764</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>45945.47916666666</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>20.807</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>47</v>
+      </c>
+      <c r="G152" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>45945.48958333334</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>20.556</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>48</v>
+      </c>
+      <c r="G153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>45945.5</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>10.79</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>45945.51041666666</v>
+      </c>
+      <c r="B155">
+        <v>0.154</v>
+      </c>
+      <c r="C155">
+        <v>0.193</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>45945.52083333334</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>11.428</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>45945.53125</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>4.947</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>52</v>
+      </c>
+      <c r="G157" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>45945.54166666666</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>2.008</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>53</v>
+      </c>
+      <c r="G158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>45945.55208333334</v>
+      </c>
+      <c r="B159">
+        <v>3.521</v>
+      </c>
+      <c r="C159">
+        <v>0.401</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>54</v>
+      </c>
+      <c r="G159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>45945.5625</v>
+      </c>
+      <c r="B160">
+        <v>5.175</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>45945.57291666666</v>
+      </c>
+      <c r="B161">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>56</v>
+      </c>
+      <c r="G161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>45945.58333333334</v>
+      </c>
+      <c r="B162">
+        <v>3.457</v>
+      </c>
+      <c r="C162">
+        <v>0.099</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>57</v>
+      </c>
+      <c r="G162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>45945.59375</v>
+      </c>
+      <c r="B163">
+        <v>2.013</v>
+      </c>
+      <c r="C163">
+        <v>0.3</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>58</v>
+      </c>
+      <c r="G163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>45945.60416666666</v>
+      </c>
+      <c r="B164">
+        <v>8.853999999999999</v>
+      </c>
+      <c r="C164">
+        <v>0.587</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>59</v>
+      </c>
+      <c r="G164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>45945.61458333334</v>
+      </c>
+      <c r="B165">
+        <v>6.434</v>
+      </c>
+      <c r="C165">
+        <v>0.326</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>60</v>
+      </c>
+      <c r="G165" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>45945.625</v>
+      </c>
+      <c r="B166">
+        <v>0.065</v>
+      </c>
+      <c r="C166">
+        <v>0.962</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>61</v>
+      </c>
+      <c r="G166" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>45945.63541666666</v>
+      </c>
+      <c r="B167">
+        <v>0.709</v>
+      </c>
+      <c r="C167">
+        <v>0.024</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>62</v>
+      </c>
+      <c r="G167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>45945.64583333334</v>
+      </c>
+      <c r="B168">
+        <v>0.317</v>
+      </c>
+      <c r="C168">
+        <v>0.186</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>63</v>
+      </c>
+      <c r="G168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>45945.65625</v>
+      </c>
+      <c r="B169">
+        <v>1.508</v>
+      </c>
+      <c r="C169">
+        <v>0.545</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>64</v>
+      </c>
+      <c r="G169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>45945.66666666666</v>
+      </c>
+      <c r="B170">
+        <v>3.83</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>65</v>
+      </c>
+      <c r="G170" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>45945.67708333334</v>
+      </c>
+      <c r="B171">
+        <v>15.505</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>66</v>
+      </c>
+      <c r="G171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>45945.6875</v>
+      </c>
+      <c r="B172">
+        <v>28.661</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>67</v>
+      </c>
+      <c r="G172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>45945.69791666666</v>
+      </c>
+      <c r="B173">
+        <v>49.182</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>68</v>
+      </c>
+      <c r="G173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>45945.70833333334</v>
+      </c>
+      <c r="B174">
+        <v>17.441</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>69</v>
+      </c>
+      <c r="G174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>45945.71875</v>
+      </c>
+      <c r="B175">
+        <v>19.615</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>25</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>70</v>
+      </c>
+      <c r="G175" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>45945.72916666666</v>
+      </c>
+      <c r="B176">
+        <v>14.538</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>25</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>71</v>
+      </c>
+      <c r="G176" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>45945.73958333334</v>
+      </c>
+      <c r="B177">
+        <v>1.26</v>
+      </c>
+      <c r="C177">
+        <v>0.034</v>
+      </c>
+      <c r="D177">
+        <v>50</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>72</v>
+      </c>
+      <c r="G177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>45945.75</v>
+      </c>
+      <c r="B178">
+        <v>0.038</v>
+      </c>
+      <c r="C178">
+        <v>5.626</v>
+      </c>
+      <c r="D178">
+        <v>40.75</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>73</v>
+      </c>
+      <c r="G178" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>45945.76041666666</v>
+      </c>
+      <c r="B179">
+        <v>0.01</v>
+      </c>
+      <c r="C179">
+        <v>0.388</v>
+      </c>
+      <c r="D179">
+        <v>42</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>74</v>
+      </c>
+      <c r="G179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>45945.77083333334</v>
+      </c>
+      <c r="B180">
+        <v>0.061</v>
+      </c>
+      <c r="C180">
+        <v>1.223</v>
+      </c>
+      <c r="D180">
+        <v>35.75</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>75</v>
+      </c>
+      <c r="G180" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>45945.78125</v>
+      </c>
+      <c r="B181">
+        <v>0.184</v>
+      </c>
+      <c r="C181">
+        <v>0.52</v>
+      </c>
+      <c r="D181">
+        <v>35.75</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>76</v>
+      </c>
+      <c r="G181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>45945.79166666666</v>
+      </c>
+      <c r="B182">
+        <v>39.567</v>
+      </c>
+      <c r="C182">
+        <v>0.074</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>77</v>
+      </c>
+      <c r="G182" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>45945.80208333334</v>
+      </c>
+      <c r="B183">
+        <v>48.215</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>78</v>
+      </c>
+      <c r="G183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>45945.8125</v>
+      </c>
+      <c r="B184">
+        <v>21.305</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>35</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>79</v>
+      </c>
+      <c r="G184" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>45945.82291666666</v>
+      </c>
+      <c r="B185">
+        <v>8.037000000000001</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>35</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>45945.83333333334</v>
+      </c>
+      <c r="B186">
+        <v>8.755000000000001</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>36</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>81</v>
+      </c>
+      <c r="G186" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>45945.84375</v>
+      </c>
+      <c r="B187">
+        <v>12.381</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>36</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>82</v>
+      </c>
+      <c r="G187" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>45945.85416666666</v>
+      </c>
+      <c r="B188">
+        <v>10.412</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>36</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>83</v>
+      </c>
+      <c r="G188" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>45945.86458333334</v>
+      </c>
+      <c r="B189">
+        <v>2.213</v>
+      </c>
+      <c r="C189">
+        <v>0.788</v>
+      </c>
+      <c r="D189">
+        <v>36</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>84</v>
+      </c>
+      <c r="G189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>45945.875</v>
+      </c>
+      <c r="B190">
+        <v>0.668</v>
+      </c>
+      <c r="C190">
+        <v>4.095</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>85</v>
+      </c>
+      <c r="G190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>45945.88541666666</v>
+      </c>
+      <c r="B191">
+        <v>0.03</v>
+      </c>
+      <c r="C191">
+        <v>4.29</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>86</v>
+      </c>
+      <c r="G191" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>45945.89583333334</v>
+      </c>
+      <c r="B192">
+        <v>0.007</v>
+      </c>
+      <c r="C192">
+        <v>3.159</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>87</v>
+      </c>
+      <c r="G192" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>45945.90625</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>5.597</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>88</v>
+      </c>
+      <c r="G193" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>45945.91666666666</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>5.513</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>89</v>
+      </c>
+      <c r="G194" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>45945.92708333334</v>
+      </c>
+      <c r="B195">
+        <v>0.016</v>
+      </c>
+      <c r="C195">
+        <v>2.127</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>90</v>
+      </c>
+      <c r="G195" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>45945.9375</v>
+      </c>
+      <c r="B196">
+        <v>0.047</v>
+      </c>
+      <c r="C196">
+        <v>0.277</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>91</v>
+      </c>
+      <c r="G196" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>45945.94791666666</v>
+      </c>
+      <c r="B197">
+        <v>0.013</v>
+      </c>
+      <c r="C197">
+        <v>2.117</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>92</v>
+      </c>
+      <c r="G197" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>45945.95833333334</v>
+      </c>
+      <c r="B198">
+        <v>3.514</v>
+      </c>
+      <c r="C198">
+        <v>1.062</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>93</v>
+      </c>
+      <c r="G198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>45945.96875</v>
+      </c>
+      <c r="B199">
+        <v>1.512</v>
+      </c>
+      <c r="C199">
+        <v>0.339</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>94</v>
+      </c>
+      <c r="G199" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>45945.97916666666</v>
+      </c>
+      <c r="B200">
+        <v>15.612</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>95</v>
+      </c>
+      <c r="G200" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>45945.98958333334</v>
+      </c>
+      <c r="B201">
+        <v>5.636</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>96</v>
+      </c>
+      <c r="G201" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B202">
+        <v>4.294</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B203">
+        <v>4.294</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
+        <v>45946.01041666666</v>
+      </c>
+      <c r="B204">
+        <v>8.061</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
+        <v>45946.01041666666</v>
+      </c>
+      <c r="B205">
+        <v>8.061</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
+        <v>45946.02083333334</v>
+      </c>
+      <c r="B206">
+        <v>10.042</v>
+      </c>
+      <c r="C206">
+        <v>0.082</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>3</v>
+      </c>
+      <c r="G206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
+        <v>45946.02083333334</v>
+      </c>
+      <c r="B207">
+        <v>10.042</v>
+      </c>
+      <c r="C207">
+        <v>0.082</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>3</v>
+      </c>
+      <c r="G207" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
+        <v>45946.03125</v>
+      </c>
+      <c r="B208">
+        <v>0.265</v>
+      </c>
+      <c r="C208">
+        <v>0.172</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
+        <v>45946.03125</v>
+      </c>
+      <c r="B209">
+        <v>0.265</v>
+      </c>
+      <c r="C209">
+        <v>0.172</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
+        <v>45946.04166666666</v>
+      </c>
+      <c r="B210">
+        <v>1.181</v>
+      </c>
+      <c r="C210">
+        <v>0.038</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>45946.04166666666</v>
+      </c>
+      <c r="B211">
+        <v>1.181</v>
+      </c>
+      <c r="C211">
+        <v>0.038</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+      <c r="G211" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
+        <v>45946.05208333334</v>
+      </c>
+      <c r="B212">
+        <v>0.044</v>
+      </c>
+      <c r="C212">
+        <v>0.121</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>6</v>
+      </c>
+      <c r="G212" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
+        <v>45946.05208333334</v>
+      </c>
+      <c r="B213">
+        <v>0.044</v>
+      </c>
+      <c r="C213">
+        <v>0.121</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>6</v>
+      </c>
+      <c r="G213" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
+        <v>45946.0625</v>
+      </c>
+      <c r="B214">
+        <v>0.581</v>
+      </c>
+      <c r="C214">
+        <v>0.005</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>7</v>
+      </c>
+      <c r="G214" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
+        <v>45946.0625</v>
+      </c>
+      <c r="B215">
+        <v>0.581</v>
+      </c>
+      <c r="C215">
+        <v>0.005</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>7</v>
+      </c>
+      <c r="G215" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
+        <v>45946.07291666666</v>
+      </c>
+      <c r="B216">
+        <v>7.729</v>
+      </c>
+      <c r="C216">
+        <v>0.002</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
+        <v>45946.07291666666</v>
+      </c>
+      <c r="B217">
+        <v>7.729</v>
+      </c>
+      <c r="C217">
+        <v>0.002</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>45946.08333333334</v>
+      </c>
+      <c r="B218">
+        <v>6.371</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>9</v>
+      </c>
+      <c r="G218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>45946.09375</v>
+      </c>
+      <c r="B219">
+        <v>4.455</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
+        <v>45946.10416666666</v>
+      </c>
+      <c r="B220">
+        <v>12.041</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>11</v>
+      </c>
+      <c r="G220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
+        <v>45946.11458333334</v>
+      </c>
+      <c r="B221">
+        <v>24.495</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
+        <v>45946.125</v>
+      </c>
+      <c r="B222">
+        <v>12.488</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
+        <v>45946.13541666666</v>
+      </c>
+      <c r="B223">
+        <v>12.155</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
+        <v>45946.14583333334</v>
+      </c>
+      <c r="B224">
+        <v>0.241</v>
+      </c>
+      <c r="C224">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="2">
+        <v>45946.15625</v>
+      </c>
+      <c r="B225">
+        <v>0.697</v>
+      </c>
+      <c r="C225">
+        <v>0.013</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>16</v>
+      </c>
+      <c r="G225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="2">
+        <v>45946.16666666666</v>
+      </c>
+      <c r="B226">
+        <v>7.404</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>17</v>
+      </c>
+      <c r="G226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
+        <v>45946.17708333334</v>
+      </c>
+      <c r="B227">
+        <v>1.757</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>18</v>
+      </c>
+      <c r="G227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
+        <v>45946.1875</v>
+      </c>
+      <c r="B228">
+        <v>4.181</v>
+      </c>
+      <c r="C228">
+        <v>0.061</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>19</v>
+      </c>
+      <c r="G228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
+        <v>45946.19791666666</v>
+      </c>
+      <c r="B229">
+        <v>19.752</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
+        <v>45946.20833333334</v>
+      </c>
+      <c r="B230">
+        <v>0.268</v>
+      </c>
+      <c r="C230">
+        <v>6.541</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>21</v>
+      </c>
+      <c r="G230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="2">
+        <v>45946.21875</v>
+      </c>
+      <c r="B231">
+        <v>5.549</v>
+      </c>
+      <c r="C231">
+        <v>0.031</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>22</v>
+      </c>
+      <c r="G231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
+        <v>45946.22916666666</v>
+      </c>
+      <c r="B232">
+        <v>22.88</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>23</v>
+      </c>
+      <c r="G232" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
+        <v>45946.23958333334</v>
+      </c>
+      <c r="B233">
+        <v>35.384</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="2">
+        <v>45946.25</v>
+      </c>
+      <c r="B234">
+        <v>24.536</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>25</v>
+      </c>
+      <c r="G234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="2">
+        <v>45946.26041666666</v>
+      </c>
+      <c r="B235">
+        <v>17.596</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>25</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>26</v>
+      </c>
+      <c r="G235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="2">
+        <v>45946.27083333334</v>
+      </c>
+      <c r="B236">
+        <v>33.705</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>25</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>27</v>
+      </c>
+      <c r="G236" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="2">
+        <v>45946.28125</v>
+      </c>
+      <c r="B237">
+        <v>28.829</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>37.5</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>28</v>
+      </c>
+      <c r="G237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>45946.29166666666</v>
+      </c>
+      <c r="B238">
+        <v>45.418</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>32.5</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>29</v>
+      </c>
+      <c r="G238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2">
+        <v>45946.30208333334</v>
+      </c>
+      <c r="B239">
+        <v>24.334</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>70</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="2">
+        <v>45946.3125</v>
+      </c>
+      <c r="B240">
+        <v>33.457</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>70</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>31</v>
+      </c>
+      <c r="G240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="2">
+        <v>45946.32291666666</v>
+      </c>
+      <c r="B241">
+        <v>4.742</v>
+      </c>
+      <c r="C241">
+        <v>0.049</v>
+      </c>
+      <c r="D241">
+        <v>87.5</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>32</v>
+      </c>
+      <c r="G241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="2">
+        <v>45946.33333333334</v>
+      </c>
+      <c r="B242">
+        <v>22.619</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>87.5</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>33</v>
+      </c>
+      <c r="G242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="2">
+        <v>45946.34375</v>
+      </c>
+      <c r="B243">
+        <v>4.225</v>
+      </c>
+      <c r="C243">
+        <v>0.713</v>
+      </c>
+      <c r="D243">
+        <v>100</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>34</v>
+      </c>
+      <c r="G243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="2">
+        <v>45946.35416666666</v>
+      </c>
+      <c r="B244">
+        <v>3.138</v>
+      </c>
+      <c r="C244">
+        <v>1.725</v>
+      </c>
+      <c r="D244">
+        <v>77.5</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>35</v>
+      </c>
+      <c r="G244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="2">
+        <v>45946.36458333334</v>
+      </c>
+      <c r="B245">
+        <v>4.254</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>75</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>36</v>
+      </c>
+      <c r="G245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="2">
+        <v>45946.375</v>
+      </c>
+      <c r="B246">
+        <v>32.628</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>68</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>37</v>
+      </c>
+      <c r="G246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="2">
+        <v>45946.38541666666</v>
+      </c>
+      <c r="B247">
+        <v>51.995</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>37.5</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>38</v>
+      </c>
+      <c r="G247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="2">
+        <v>45946.39583333334</v>
+      </c>
+      <c r="B248">
+        <v>62.728</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>39</v>
+      </c>
+      <c r="G248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="2">
+        <v>45946.40625</v>
+      </c>
+      <c r="B249">
+        <v>21.34</v>
+      </c>
+      <c r="C249">
+        <v>0.329</v>
+      </c>
+      <c r="D249">
+        <v>100</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>40</v>
+      </c>
+      <c r="G249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="2">
+        <v>45946.41666666666</v>
+      </c>
+      <c r="B250">
+        <v>1.885</v>
+      </c>
+      <c r="C250">
+        <v>0.767</v>
+      </c>
+      <c r="D250">
+        <v>125</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>41</v>
+      </c>
+      <c r="G250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="2">
+        <v>45946.42708333334</v>
+      </c>
+      <c r="B251">
+        <v>0.488</v>
+      </c>
+      <c r="C251">
+        <v>2.022</v>
+      </c>
+      <c r="D251">
+        <v>137.5</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>42</v>
+      </c>
+      <c r="G251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="2">
+        <v>45946.4375</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>137.5</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>43</v>
+      </c>
+      <c r="G252" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="2">
+        <v>45946.44791666666</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>112.5</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>44</v>
+      </c>
+      <c r="G253" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,385 +37,388 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.10.20251</t>
-  </si>
-  <si>
-    <t>23.10.20252</t>
-  </si>
-  <si>
-    <t>23.10.20253</t>
-  </si>
-  <si>
-    <t>23.10.20254</t>
-  </si>
-  <si>
-    <t>23.10.20255</t>
-  </si>
-  <si>
-    <t>23.10.20256</t>
-  </si>
-  <si>
-    <t>23.10.20257</t>
-  </si>
-  <si>
-    <t>23.10.20258</t>
-  </si>
-  <si>
-    <t>23.10.20259</t>
-  </si>
-  <si>
-    <t>23.10.202510</t>
-  </si>
-  <si>
-    <t>23.10.202511</t>
-  </si>
-  <si>
-    <t>23.10.202512</t>
-  </si>
-  <si>
-    <t>23.10.202513</t>
-  </si>
-  <si>
-    <t>23.10.202514</t>
-  </si>
-  <si>
-    <t>23.10.202515</t>
-  </si>
-  <si>
-    <t>23.10.202516</t>
-  </si>
-  <si>
-    <t>23.10.202517</t>
-  </si>
-  <si>
-    <t>23.10.202518</t>
-  </si>
-  <si>
-    <t>23.10.202519</t>
-  </si>
-  <si>
-    <t>23.10.202520</t>
-  </si>
-  <si>
-    <t>23.10.202521</t>
-  </si>
-  <si>
-    <t>23.10.202522</t>
-  </si>
-  <si>
-    <t>23.10.202523</t>
-  </si>
-  <si>
-    <t>23.10.202524</t>
-  </si>
-  <si>
-    <t>23.10.202525</t>
-  </si>
-  <si>
-    <t>23.10.202526</t>
-  </si>
-  <si>
-    <t>23.10.202527</t>
-  </si>
-  <si>
-    <t>23.10.202528</t>
-  </si>
-  <si>
-    <t>23.10.202529</t>
-  </si>
-  <si>
-    <t>23.10.202530</t>
-  </si>
-  <si>
-    <t>23.10.202531</t>
-  </si>
-  <si>
-    <t>23.10.202532</t>
-  </si>
-  <si>
-    <t>23.10.202533</t>
-  </si>
-  <si>
-    <t>23.10.202534</t>
-  </si>
-  <si>
-    <t>23.10.202535</t>
-  </si>
-  <si>
-    <t>23.10.202536</t>
-  </si>
-  <si>
-    <t>23.10.202537</t>
-  </si>
-  <si>
-    <t>23.10.202538</t>
-  </si>
-  <si>
-    <t>23.10.202539</t>
-  </si>
-  <si>
-    <t>23.10.202540</t>
-  </si>
-  <si>
-    <t>23.10.202541</t>
-  </si>
-  <si>
-    <t>23.10.202542</t>
-  </si>
-  <si>
-    <t>23.10.202543</t>
-  </si>
-  <si>
-    <t>23.10.202544</t>
-  </si>
-  <si>
-    <t>23.10.202545</t>
-  </si>
-  <si>
-    <t>23.10.202546</t>
-  </si>
-  <si>
-    <t>23.10.202547</t>
-  </si>
-  <si>
-    <t>23.10.202548</t>
-  </si>
-  <si>
-    <t>23.10.202549</t>
-  </si>
-  <si>
-    <t>23.10.202550</t>
-  </si>
-  <si>
-    <t>23.10.202551</t>
-  </si>
-  <si>
-    <t>23.10.202552</t>
-  </si>
-  <si>
-    <t>23.10.202553</t>
-  </si>
-  <si>
-    <t>23.10.202554</t>
-  </si>
-  <si>
-    <t>23.10.202555</t>
-  </si>
-  <si>
-    <t>23.10.202556</t>
-  </si>
-  <si>
-    <t>23.10.202557</t>
-  </si>
-  <si>
-    <t>23.10.202558</t>
-  </si>
-  <si>
-    <t>23.10.202559</t>
-  </si>
-  <si>
-    <t>23.10.202560</t>
-  </si>
-  <si>
-    <t>23.10.202561</t>
-  </si>
-  <si>
-    <t>23.10.202562</t>
-  </si>
-  <si>
-    <t>23.10.202563</t>
-  </si>
-  <si>
-    <t>23.10.202564</t>
-  </si>
-  <si>
-    <t>23.10.202565</t>
-  </si>
-  <si>
-    <t>23.10.202566</t>
-  </si>
-  <si>
-    <t>23.10.202567</t>
-  </si>
-  <si>
-    <t>23.10.202568</t>
-  </si>
-  <si>
-    <t>23.10.202569</t>
-  </si>
-  <si>
-    <t>23.10.202570</t>
-  </si>
-  <si>
-    <t>23.10.202571</t>
-  </si>
-  <si>
-    <t>23.10.202572</t>
-  </si>
-  <si>
-    <t>23.10.202573</t>
-  </si>
-  <si>
-    <t>23.10.202574</t>
-  </si>
-  <si>
-    <t>23.10.202575</t>
-  </si>
-  <si>
-    <t>23.10.202576</t>
-  </si>
-  <si>
-    <t>23.10.202577</t>
-  </si>
-  <si>
-    <t>23.10.202578</t>
-  </si>
-  <si>
-    <t>23.10.202579</t>
-  </si>
-  <si>
-    <t>23.10.202580</t>
-  </si>
-  <si>
-    <t>23.10.202581</t>
-  </si>
-  <si>
-    <t>23.10.202582</t>
-  </si>
-  <si>
-    <t>23.10.202583</t>
-  </si>
-  <si>
-    <t>23.10.202584</t>
-  </si>
-  <si>
-    <t>23.10.202585</t>
-  </si>
-  <si>
-    <t>23.10.202586</t>
-  </si>
-  <si>
-    <t>23.10.202587</t>
-  </si>
-  <si>
-    <t>23.10.202588</t>
-  </si>
-  <si>
-    <t>23.10.202589</t>
-  </si>
-  <si>
-    <t>23.10.202590</t>
-  </si>
-  <si>
-    <t>23.10.202591</t>
-  </si>
-  <si>
-    <t>23.10.202592</t>
-  </si>
-  <si>
-    <t>23.10.202593</t>
-  </si>
-  <si>
-    <t>23.10.202594</t>
-  </si>
-  <si>
-    <t>23.10.202595</t>
-  </si>
-  <si>
-    <t>23.10.202596</t>
-  </si>
-  <si>
-    <t>24.10.20251</t>
-  </si>
-  <si>
-    <t>24.10.20252</t>
-  </si>
-  <si>
-    <t>24.10.20253</t>
-  </si>
-  <si>
-    <t>24.10.20254</t>
-  </si>
-  <si>
-    <t>24.10.20255</t>
-  </si>
-  <si>
-    <t>24.10.20256</t>
-  </si>
-  <si>
-    <t>24.10.20257</t>
-  </si>
-  <si>
-    <t>24.10.20258</t>
-  </si>
-  <si>
-    <t>24.10.20259</t>
-  </si>
-  <si>
-    <t>24.10.202510</t>
-  </si>
-  <si>
-    <t>24.10.202511</t>
-  </si>
-  <si>
-    <t>24.10.202512</t>
-  </si>
-  <si>
-    <t>24.10.202513</t>
-  </si>
-  <si>
-    <t>24.10.202514</t>
-  </si>
-  <si>
-    <t>24.10.202515</t>
-  </si>
-  <si>
-    <t>24.10.202516</t>
-  </si>
-  <si>
-    <t>24.10.202517</t>
-  </si>
-  <si>
-    <t>24.10.202518</t>
-  </si>
-  <si>
-    <t>24.10.202519</t>
-  </si>
-  <si>
-    <t>24.10.202520</t>
-  </si>
-  <si>
-    <t>24.10.202521</t>
-  </si>
-  <si>
-    <t>24.10.202522</t>
-  </si>
-  <si>
-    <t>24.10.202523</t>
-  </si>
-  <si>
-    <t>24.10.202524</t>
-  </si>
-  <si>
-    <t>24.10.202525</t>
-  </si>
-  <si>
-    <t>24.10.202526</t>
-  </si>
-  <si>
-    <t>24.10.202527</t>
-  </si>
-  <si>
-    <t>24.10.202528</t>
-  </si>
-  <si>
-    <t>24.10.202529</t>
-  </si>
-  <si>
-    <t>24.10.202530</t>
-  </si>
-  <si>
-    <t>24.10.202531</t>
+    <t>07.11.20251</t>
+  </si>
+  <si>
+    <t>07.11.20252</t>
+  </si>
+  <si>
+    <t>07.11.20253</t>
+  </si>
+  <si>
+    <t>07.11.20254</t>
+  </si>
+  <si>
+    <t>07.11.20255</t>
+  </si>
+  <si>
+    <t>07.11.20256</t>
+  </si>
+  <si>
+    <t>07.11.20257</t>
+  </si>
+  <si>
+    <t>07.11.20258</t>
+  </si>
+  <si>
+    <t>07.11.20259</t>
+  </si>
+  <si>
+    <t>07.11.202510</t>
+  </si>
+  <si>
+    <t>07.11.202511</t>
+  </si>
+  <si>
+    <t>07.11.202512</t>
+  </si>
+  <si>
+    <t>07.11.202513</t>
+  </si>
+  <si>
+    <t>07.11.202514</t>
+  </si>
+  <si>
+    <t>07.11.202515</t>
+  </si>
+  <si>
+    <t>07.11.202516</t>
+  </si>
+  <si>
+    <t>07.11.202517</t>
+  </si>
+  <si>
+    <t>07.11.202518</t>
+  </si>
+  <si>
+    <t>07.11.202519</t>
+  </si>
+  <si>
+    <t>07.11.202520</t>
+  </si>
+  <si>
+    <t>07.11.202521</t>
+  </si>
+  <si>
+    <t>07.11.202522</t>
+  </si>
+  <si>
+    <t>07.11.202523</t>
+  </si>
+  <si>
+    <t>07.11.202524</t>
+  </si>
+  <si>
+    <t>07.11.202525</t>
+  </si>
+  <si>
+    <t>07.11.202526</t>
+  </si>
+  <si>
+    <t>07.11.202527</t>
+  </si>
+  <si>
+    <t>07.11.202528</t>
+  </si>
+  <si>
+    <t>07.11.202529</t>
+  </si>
+  <si>
+    <t>07.11.202530</t>
+  </si>
+  <si>
+    <t>07.11.202531</t>
+  </si>
+  <si>
+    <t>07.11.202532</t>
+  </si>
+  <si>
+    <t>07.11.202533</t>
+  </si>
+  <si>
+    <t>07.11.202534</t>
+  </si>
+  <si>
+    <t>07.11.202535</t>
+  </si>
+  <si>
+    <t>07.11.202536</t>
+  </si>
+  <si>
+    <t>07.11.202537</t>
+  </si>
+  <si>
+    <t>07.11.202538</t>
+  </si>
+  <si>
+    <t>07.11.202539</t>
+  </si>
+  <si>
+    <t>07.11.202540</t>
+  </si>
+  <si>
+    <t>07.11.202541</t>
+  </si>
+  <si>
+    <t>07.11.202542</t>
+  </si>
+  <si>
+    <t>07.11.202543</t>
+  </si>
+  <si>
+    <t>07.11.202544</t>
+  </si>
+  <si>
+    <t>07.11.202545</t>
+  </si>
+  <si>
+    <t>07.11.202546</t>
+  </si>
+  <si>
+    <t>07.11.202547</t>
+  </si>
+  <si>
+    <t>07.11.202548</t>
+  </si>
+  <si>
+    <t>07.11.202549</t>
+  </si>
+  <si>
+    <t>07.11.202550</t>
+  </si>
+  <si>
+    <t>07.11.202551</t>
+  </si>
+  <si>
+    <t>07.11.202552</t>
+  </si>
+  <si>
+    <t>07.11.202553</t>
+  </si>
+  <si>
+    <t>07.11.202554</t>
+  </si>
+  <si>
+    <t>07.11.202555</t>
+  </si>
+  <si>
+    <t>07.11.202556</t>
+  </si>
+  <si>
+    <t>07.11.202557</t>
+  </si>
+  <si>
+    <t>07.11.202558</t>
+  </si>
+  <si>
+    <t>07.11.202559</t>
+  </si>
+  <si>
+    <t>07.11.202560</t>
+  </si>
+  <si>
+    <t>07.11.202561</t>
+  </si>
+  <si>
+    <t>07.11.202562</t>
+  </si>
+  <si>
+    <t>07.11.202563</t>
+  </si>
+  <si>
+    <t>07.11.202564</t>
+  </si>
+  <si>
+    <t>07.11.202565</t>
+  </si>
+  <si>
+    <t>07.11.202566</t>
+  </si>
+  <si>
+    <t>07.11.202567</t>
+  </si>
+  <si>
+    <t>07.11.202568</t>
+  </si>
+  <si>
+    <t>07.11.202569</t>
+  </si>
+  <si>
+    <t>07.11.202570</t>
+  </si>
+  <si>
+    <t>07.11.202571</t>
+  </si>
+  <si>
+    <t>07.11.202572</t>
+  </si>
+  <si>
+    <t>07.11.202573</t>
+  </si>
+  <si>
+    <t>07.11.202574</t>
+  </si>
+  <si>
+    <t>07.11.202575</t>
+  </si>
+  <si>
+    <t>07.11.202576</t>
+  </si>
+  <si>
+    <t>07.11.202577</t>
+  </si>
+  <si>
+    <t>07.11.202578</t>
+  </si>
+  <si>
+    <t>07.11.202579</t>
+  </si>
+  <si>
+    <t>07.11.202580</t>
+  </si>
+  <si>
+    <t>07.11.202581</t>
+  </si>
+  <si>
+    <t>07.11.202582</t>
+  </si>
+  <si>
+    <t>07.11.202583</t>
+  </si>
+  <si>
+    <t>07.11.202584</t>
+  </si>
+  <si>
+    <t>07.11.202585</t>
+  </si>
+  <si>
+    <t>07.11.202586</t>
+  </si>
+  <si>
+    <t>07.11.202587</t>
+  </si>
+  <si>
+    <t>07.11.202588</t>
+  </si>
+  <si>
+    <t>07.11.202589</t>
+  </si>
+  <si>
+    <t>07.11.202590</t>
+  </si>
+  <si>
+    <t>07.11.202591</t>
+  </si>
+  <si>
+    <t>07.11.202592</t>
+  </si>
+  <si>
+    <t>07.11.202593</t>
+  </si>
+  <si>
+    <t>07.11.202594</t>
+  </si>
+  <si>
+    <t>07.11.202595</t>
+  </si>
+  <si>
+    <t>07.11.202596</t>
+  </si>
+  <si>
+    <t>08.11.20251</t>
+  </si>
+  <si>
+    <t>08.11.20252</t>
+  </si>
+  <si>
+    <t>08.11.20253</t>
+  </si>
+  <si>
+    <t>08.11.20254</t>
+  </si>
+  <si>
+    <t>08.11.20255</t>
+  </si>
+  <si>
+    <t>08.11.20256</t>
+  </si>
+  <si>
+    <t>08.11.20257</t>
+  </si>
+  <si>
+    <t>08.11.20258</t>
+  </si>
+  <si>
+    <t>08.11.20259</t>
+  </si>
+  <si>
+    <t>08.11.202510</t>
+  </si>
+  <si>
+    <t>08.11.202511</t>
+  </si>
+  <si>
+    <t>08.11.202512</t>
+  </si>
+  <si>
+    <t>08.11.202513</t>
+  </si>
+  <si>
+    <t>08.11.202514</t>
+  </si>
+  <si>
+    <t>08.11.202515</t>
+  </si>
+  <si>
+    <t>08.11.202516</t>
+  </si>
+  <si>
+    <t>08.11.202517</t>
+  </si>
+  <si>
+    <t>08.11.202518</t>
+  </si>
+  <si>
+    <t>08.11.202519</t>
+  </si>
+  <si>
+    <t>08.11.202520</t>
+  </si>
+  <si>
+    <t>08.11.202521</t>
+  </si>
+  <si>
+    <t>08.11.202522</t>
+  </si>
+  <si>
+    <t>08.11.202523</t>
+  </si>
+  <si>
+    <t>08.11.202524</t>
+  </si>
+  <si>
+    <t>08.11.202525</t>
+  </si>
+  <si>
+    <t>08.11.202526</t>
+  </si>
+  <si>
+    <t>08.11.202527</t>
+  </si>
+  <si>
+    <t>08.11.202528</t>
+  </si>
+  <si>
+    <t>08.11.202529</t>
+  </si>
+  <si>
+    <t>08.11.202530</t>
+  </si>
+  <si>
+    <t>08.11.202531</t>
+  </si>
+  <si>
+    <t>08.11.202532</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,13 +811,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45953</v>
+        <v>45968</v>
       </c>
       <c r="B2">
-        <v>32.805</v>
+        <v>0.021</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6.352</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -831,13 +834,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45953.01041666666</v>
+        <v>45968.01041666666</v>
       </c>
       <c r="B3">
-        <v>18.086</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7.932</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -854,13 +857,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45953.02083333334</v>
+        <v>45968.02083333334</v>
       </c>
       <c r="B4">
-        <v>16.643</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.062</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -877,13 +880,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45953.03125</v>
+        <v>45968.03125</v>
       </c>
       <c r="B5">
-        <v>21.539</v>
+        <v>0.141</v>
       </c>
       <c r="C5">
-        <v>0.205</v>
+        <v>0.403</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -900,13 +903,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45953.04166666666</v>
+        <v>45968.04166666666</v>
       </c>
       <c r="B6">
-        <v>8.038</v>
+        <v>0.012</v>
       </c>
       <c r="C6">
-        <v>0.003</v>
+        <v>6.061</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -923,13 +926,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45953.05208333334</v>
+        <v>45968.05208333334</v>
       </c>
       <c r="B7">
-        <v>1.377</v>
+        <v>0.079</v>
       </c>
       <c r="C7">
-        <v>0.003</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -946,13 +949,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45953.0625</v>
+        <v>45968.0625</v>
       </c>
       <c r="B8">
-        <v>7.805</v>
+        <v>0.355</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -969,13 +972,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45953.07291666666</v>
+        <v>45968.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.516</v>
+        <v>9.042</v>
       </c>
       <c r="C9">
-        <v>2.221</v>
+        <v>0.026</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -992,13 +995,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45953.08333333334</v>
+        <v>45968.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>49.178</v>
       </c>
       <c r="C10">
-        <v>4.14</v>
+        <v>0.043</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1015,13 +1018,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45953.09375</v>
+        <v>45968.09375</v>
       </c>
       <c r="B11">
-        <v>0.44</v>
+        <v>31.99</v>
       </c>
       <c r="C11">
-        <v>0.631</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1038,16 +1041,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45953.10416666666</v>
+        <v>45968.10416666666</v>
       </c>
       <c r="B12">
-        <v>4.469</v>
+        <v>28.874</v>
       </c>
       <c r="C12">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,16 +1064,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45953.11458333334</v>
+        <v>45968.11458333334</v>
       </c>
       <c r="B13">
-        <v>1.855</v>
+        <v>48.752</v>
       </c>
       <c r="C13">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1084,16 +1087,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45953.125</v>
+        <v>45968.125</v>
       </c>
       <c r="B14">
-        <v>8.535</v>
+        <v>56.082</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1107,16 +1110,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45953.13541666666</v>
+        <v>45968.13541666666</v>
       </c>
       <c r="B15">
-        <v>7.566</v>
+        <v>46.84</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1130,16 +1133,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45953.14583333334</v>
+        <v>45968.14583333334</v>
       </c>
       <c r="B16">
-        <v>13.427</v>
+        <v>65.66</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1153,16 +1156,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45953.15625</v>
+        <v>45968.15625</v>
       </c>
       <c r="B17">
-        <v>17.799</v>
+        <v>51.304</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>68.75</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1176,16 +1179,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45953.16666666666</v>
+        <v>45968.16666666666</v>
       </c>
       <c r="B18">
-        <v>17.671</v>
+        <v>4.727</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>68.75</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1199,16 +1202,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45953.17708333334</v>
+        <v>45968.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.418</v>
+        <v>4.698</v>
       </c>
       <c r="C19">
-        <v>0.104</v>
+        <v>0.013</v>
       </c>
       <c r="D19">
-        <v>29.5</v>
+        <v>68.75</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1222,16 +1225,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45953.1875</v>
+        <v>45968.1875</v>
       </c>
       <c r="B20">
-        <v>1.042</v>
+        <v>1.832</v>
       </c>
       <c r="C20">
-        <v>0.315</v>
+        <v>1.258</v>
       </c>
       <c r="D20">
-        <v>47.5</v>
+        <v>68.75</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1245,16 +1248,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45953.19791666666</v>
+        <v>45968.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.903</v>
+        <v>10.957</v>
       </c>
       <c r="D21">
-        <v>47.5</v>
+        <v>68.75</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1268,16 +1271,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45953.20833333334</v>
+        <v>45968.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.358</v>
+        <v>14.449</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>68.75</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1291,16 +1294,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45953.21875</v>
+        <v>45968.21875</v>
       </c>
       <c r="B23">
-        <v>29.054</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.006</v>
+        <v>10.869</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1314,16 +1317,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45953.22916666666</v>
+        <v>45968.22916666666</v>
       </c>
       <c r="B24">
-        <v>35.191</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4.642</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1337,16 +1340,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45953.23958333334</v>
+        <v>45968.23958333334</v>
       </c>
       <c r="B25">
-        <v>37.353</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>11.869</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1360,16 +1363,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45953.25</v>
+        <v>45968.25</v>
       </c>
       <c r="B26">
-        <v>23.619</v>
+        <v>0.237</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.632</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1383,16 +1386,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45953.26041666666</v>
+        <v>45968.26041666666</v>
       </c>
       <c r="B27">
-        <v>36.868</v>
+        <v>0.869</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="D27">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1406,16 +1409,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45953.27083333334</v>
+        <v>45968.27083333334</v>
       </c>
       <c r="B28">
-        <v>23.975</v>
+        <v>16.874</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1429,16 +1432,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45953.28125</v>
+        <v>45968.28125</v>
       </c>
       <c r="B29">
-        <v>18.323</v>
+        <v>11.375</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1452,16 +1455,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45953.29166666666</v>
+        <v>45968.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.755</v>
+        <v>3.639</v>
       </c>
       <c r="C30">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1475,16 +1478,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45953.30208333334</v>
+        <v>45968.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.111</v>
+        <v>0.337</v>
       </c>
       <c r="C31">
-        <v>0.133</v>
+        <v>0.028</v>
       </c>
       <c r="D31">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1498,16 +1501,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45953.3125</v>
+        <v>45968.3125</v>
       </c>
       <c r="B32">
-        <v>2.186</v>
+        <v>0.116</v>
       </c>
       <c r="C32">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="D32">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1521,16 +1524,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45953.32291666666</v>
+        <v>45968.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.175</v>
+        <v>0.207</v>
       </c>
       <c r="C33">
-        <v>2.038</v>
+        <v>0.833</v>
       </c>
       <c r="D33">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1544,16 +1547,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45953.33333333334</v>
+        <v>45968.33333333334</v>
       </c>
       <c r="B34">
-        <v>22.713</v>
+        <v>0.001</v>
       </c>
       <c r="C34">
-        <v>0.156</v>
+        <v>1.55</v>
       </c>
       <c r="D34">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1567,16 +1570,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45953.34375</v>
+        <v>45968.34375</v>
       </c>
       <c r="B35">
-        <v>38.753</v>
+        <v>0.304</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.761</v>
       </c>
       <c r="D35">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1590,16 +1593,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45953.35416666666</v>
+        <v>45968.35416666666</v>
       </c>
       <c r="B36">
-        <v>32.298</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>13.843</v>
       </c>
       <c r="D36">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1613,16 +1616,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45953.36458333334</v>
+        <v>45968.36458333334</v>
       </c>
       <c r="B37">
-        <v>26.506</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>7.807</v>
       </c>
       <c r="D37">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1636,16 +1639,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45953.375</v>
+        <v>45968.375</v>
       </c>
       <c r="B38">
-        <v>55.293</v>
+        <v>9.134</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.593</v>
       </c>
       <c r="D38">
-        <v>57.5</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1659,16 +1662,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45953.38541666666</v>
+        <v>45968.38541666666</v>
       </c>
       <c r="B39">
-        <v>8.726000000000001</v>
+        <v>5.505</v>
       </c>
       <c r="C39">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1682,16 +1685,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45953.39583333334</v>
+        <v>45968.39583333334</v>
       </c>
       <c r="B40">
-        <v>0.08799999999999999</v>
+        <v>1.355</v>
       </c>
       <c r="C40">
-        <v>0.276</v>
+        <v>0.102</v>
       </c>
       <c r="D40">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1705,16 +1708,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45953.40625</v>
+        <v>45968.40625</v>
       </c>
       <c r="B41">
-        <v>12.059</v>
+        <v>3.423</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1728,16 +1731,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45953.41666666666</v>
+        <v>45968.41666666666</v>
       </c>
       <c r="B42">
-        <v>8.481999999999999</v>
+        <v>6.963</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1751,16 +1754,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45953.42708333334</v>
+        <v>45968.42708333334</v>
       </c>
       <c r="B43">
-        <v>8.294</v>
+        <v>0.502</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1774,16 +1777,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45953.4375</v>
+        <v>45968.4375</v>
       </c>
       <c r="B44">
-        <v>5.626</v>
+        <v>4.852</v>
       </c>
       <c r="C44">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1797,16 +1800,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45953.44791666666</v>
+        <v>45968.44791666666</v>
       </c>
       <c r="B45">
-        <v>9.156000000000001</v>
+        <v>0.841</v>
       </c>
       <c r="C45">
-        <v>0.268</v>
+        <v>0.052</v>
       </c>
       <c r="D45">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1820,16 +1823,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45953.45833333334</v>
+        <v>45968.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.058</v>
+        <v>16.462</v>
       </c>
       <c r="C46">
-        <v>0.204</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>58.75</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1843,16 +1846,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45953.46875</v>
+        <v>45968.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>21.882</v>
       </c>
       <c r="C47">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>58.75</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1866,16 +1869,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45953.47916666666</v>
+        <v>45968.47916666666</v>
       </c>
       <c r="B48">
-        <v>13.965</v>
+        <v>31.621</v>
       </c>
       <c r="C48">
-        <v>0.331</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1889,16 +1892,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45953.48958333334</v>
+        <v>45968.48958333334</v>
       </c>
       <c r="B49">
-        <v>10.933</v>
+        <v>33.451</v>
       </c>
       <c r="C49">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1912,13 +1915,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45953.5</v>
+        <v>45968.5</v>
       </c>
       <c r="B50">
-        <v>0.855</v>
+        <v>27.599</v>
       </c>
       <c r="C50">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1935,16 +1938,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45953.51041666666</v>
+        <v>45968.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>18.368</v>
       </c>
       <c r="C51">
-        <v>11.898</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1958,16 +1961,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45953.52083333334</v>
+        <v>45968.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>34.479</v>
       </c>
       <c r="C52">
-        <v>21.081</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1981,16 +1984,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45953.53125</v>
+        <v>45968.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>15.172</v>
       </c>
       <c r="C53">
-        <v>36.359</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2004,19 +2007,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45953.54166666666</v>
+        <v>45968.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C54">
-        <v>10.653</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E54">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -2027,19 +2030,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45953.55208333334</v>
+        <v>45968.55208333334</v>
       </c>
       <c r="B55">
-        <v>0.032</v>
+        <v>0.407</v>
       </c>
       <c r="C55">
-        <v>0.5</v>
+        <v>0.082</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E55">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -2050,19 +2053,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45953.5625</v>
+        <v>45968.5625</v>
       </c>
       <c r="B56">
-        <v>0.01</v>
+        <v>0.044</v>
       </c>
       <c r="C56">
-        <v>3.136</v>
+        <v>0.172</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E56">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -2073,19 +2076,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45953.57291666666</v>
+        <v>45968.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="C57">
-        <v>12.772</v>
+        <v>0.331</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -2096,19 +2099,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45953.58333333334</v>
+        <v>45968.58333333334</v>
       </c>
       <c r="B58">
-        <v>8.645</v>
+        <v>0.216</v>
       </c>
       <c r="C58">
-        <v>5.554</v>
+        <v>0.391</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -2119,19 +2122,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45953.59375</v>
+        <v>45968.59375</v>
       </c>
       <c r="B59">
-        <v>18.254</v>
+        <v>0.171</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -2142,16 +2145,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45953.60416666666</v>
+        <v>45968.60416666666</v>
       </c>
       <c r="B60">
-        <v>1.095</v>
+        <v>0.367</v>
       </c>
       <c r="C60">
-        <v>0.017</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2165,16 +2168,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45953.61458333334</v>
+        <v>45968.61458333334</v>
       </c>
       <c r="B61">
-        <v>0.07199999999999999</v>
+        <v>1.789</v>
       </c>
       <c r="C61">
-        <v>0.212</v>
+        <v>0.044</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2188,16 +2191,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45953.625</v>
+        <v>45968.625</v>
       </c>
       <c r="B62">
-        <v>3.827</v>
+        <v>1.108</v>
       </c>
       <c r="C62">
-        <v>0.151</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2211,16 +2214,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45953.63541666666</v>
+        <v>45968.63541666666</v>
       </c>
       <c r="B63">
-        <v>9.050000000000001</v>
+        <v>0.237</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.215</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2234,16 +2237,16 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45953.64583333334</v>
+        <v>45968.64583333334</v>
       </c>
       <c r="B64">
-        <v>0.5679999999999999</v>
+        <v>1.233</v>
       </c>
       <c r="C64">
-        <v>0.005</v>
+        <v>0.03</v>
       </c>
       <c r="D64">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2257,16 +2260,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45953.65625</v>
+        <v>45968.65625</v>
       </c>
       <c r="B65">
-        <v>5.114</v>
+        <v>14.904</v>
       </c>
       <c r="C65">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2280,16 +2283,16 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45953.66666666666</v>
+        <v>45968.66666666666</v>
       </c>
       <c r="B66">
-        <v>1.968</v>
+        <v>3.611</v>
       </c>
       <c r="C66">
-        <v>0.023</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D66">
-        <v>1.75</v>
+        <v>25</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2303,16 +2306,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45953.67708333334</v>
+        <v>45968.67708333334</v>
       </c>
       <c r="B67">
-        <v>11.501</v>
+        <v>27.608</v>
       </c>
       <c r="C67">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2326,16 +2329,16 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45953.6875</v>
+        <v>45968.6875</v>
       </c>
       <c r="B68">
-        <v>7.885</v>
+        <v>34.854</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2349,16 +2352,16 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45953.69791666666</v>
+        <v>45968.69791666666</v>
       </c>
       <c r="B69">
-        <v>5.153</v>
+        <v>9.164999999999999</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2372,16 +2375,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45953.70833333334</v>
+        <v>45968.70833333334</v>
       </c>
       <c r="B70">
-        <v>5.862</v>
+        <v>6.122</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2395,16 +2398,16 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45953.71875</v>
+        <v>45968.71875</v>
       </c>
       <c r="B71">
-        <v>5.865</v>
+        <v>9.689</v>
       </c>
       <c r="C71">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>37.5</v>
+        <v>59.75</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2418,16 +2421,16 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45953.72916666666</v>
+        <v>45968.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.157</v>
+        <v>0.994</v>
       </c>
       <c r="C72">
-        <v>0.082</v>
+        <v>0.048</v>
       </c>
       <c r="D72">
-        <v>37.5</v>
+        <v>46</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2441,16 +2444,16 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45953.73958333334</v>
+        <v>45968.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.417</v>
+        <v>0.012</v>
       </c>
       <c r="C73">
-        <v>0.105</v>
+        <v>5.168</v>
       </c>
       <c r="D73">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2464,16 +2467,16 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45953.75</v>
+        <v>45968.75</v>
       </c>
       <c r="B74">
-        <v>5.809</v>
+        <v>0.002</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>3.213</v>
       </c>
       <c r="D74">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2487,13 +2490,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45953.76041666666</v>
+        <v>45968.76041666666</v>
       </c>
       <c r="B75">
-        <v>1.249</v>
+        <v>0.344</v>
       </c>
       <c r="C75">
-        <v>0.003</v>
+        <v>0.12</v>
       </c>
       <c r="D75">
         <v>12.5</v>
@@ -2510,16 +2513,16 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45953.77083333334</v>
+        <v>45968.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.298</v>
+        <v>0.279</v>
       </c>
       <c r="C76">
-        <v>0.16</v>
+        <v>0.174</v>
       </c>
       <c r="D76">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2533,16 +2536,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45953.78125</v>
+        <v>45968.78125</v>
       </c>
       <c r="B77">
-        <v>0.262</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C77">
-        <v>1.113</v>
+        <v>7.401</v>
       </c>
       <c r="D77">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2556,16 +2559,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45953.79166666666</v>
+        <v>45968.79166666666</v>
       </c>
       <c r="B78">
-        <v>1.519</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.026</v>
+        <v>29.84</v>
       </c>
       <c r="D78">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2579,13 +2582,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45953.80208333334</v>
+        <v>45968.80208333334</v>
       </c>
       <c r="B79">
-        <v>18.69</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>18.645</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2602,19 +2605,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45953.8125</v>
+        <v>45968.8125</v>
       </c>
       <c r="B80">
-        <v>18.993</v>
+        <v>0.12</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>2.119</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2625,10 +2628,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45953.82291666666</v>
+        <v>45968.82291666666</v>
       </c>
       <c r="B81">
-        <v>11.415</v>
+        <v>17.438</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2637,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -2648,19 +2651,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45953.83333333334</v>
+        <v>45968.83333333334</v>
       </c>
       <c r="B82">
-        <v>0.288</v>
+        <v>11.075</v>
       </c>
       <c r="C82">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -2671,19 +2674,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45953.84375</v>
+        <v>45968.84375</v>
       </c>
       <c r="B83">
-        <v>3.329</v>
+        <v>29.47</v>
       </c>
       <c r="C83">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -2694,19 +2697,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45953.85416666666</v>
+        <v>45968.85416666666</v>
       </c>
       <c r="B84">
-        <v>3.683</v>
+        <v>18.152</v>
       </c>
       <c r="C84">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -2717,13 +2720,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45953.86458333334</v>
+        <v>45968.86458333334</v>
       </c>
       <c r="B85">
-        <v>0.374</v>
+        <v>6.319</v>
       </c>
       <c r="C85">
-        <v>0.024</v>
+        <v>0.89</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2740,13 +2743,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45953.875</v>
+        <v>45968.875</v>
       </c>
       <c r="B86">
-        <v>6.745</v>
+        <v>0.091</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2763,13 +2766,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45953.88541666666</v>
+        <v>45968.88541666666</v>
       </c>
       <c r="B87">
-        <v>12.916</v>
+        <v>0.229</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>3.626</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2786,13 +2789,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45953.89583333334</v>
+        <v>45968.89583333334</v>
       </c>
       <c r="B88">
-        <v>19.003</v>
+        <v>0.068</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>2.771</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2809,13 +2812,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45953.90625</v>
+        <v>45968.90625</v>
       </c>
       <c r="B89">
-        <v>7.104</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>3.739</v>
+        <v>13.071</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2832,13 +2835,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45953.91666666666</v>
+        <v>45968.91666666666</v>
       </c>
       <c r="B90">
-        <v>6.057</v>
+        <v>0.005</v>
       </c>
       <c r="C90">
-        <v>2.853</v>
+        <v>8.099</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2855,13 +2858,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45953.92708333334</v>
+        <v>45968.92708333334</v>
       </c>
       <c r="B91">
-        <v>4.166</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.013</v>
+        <v>18.521</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2878,13 +2881,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45953.9375</v>
+        <v>45968.9375</v>
       </c>
       <c r="B92">
-        <v>0.8139999999999999</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0.005</v>
+        <v>12.509</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2901,13 +2904,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45953.94791666666</v>
+        <v>45968.94791666666</v>
       </c>
       <c r="B93">
-        <v>4.635</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.385</v>
+        <v>21.561</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2924,13 +2927,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45953.95833333334</v>
+        <v>45968.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>3.731</v>
+        <v>7.635</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2947,13 +2950,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45953.96875</v>
+        <v>45968.95833333334</v>
       </c>
       <c r="B95">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>1.979</v>
+        <v>7.635</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2962,21 +2965,21 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45953.97916666666</v>
+        <v>45968.96875</v>
       </c>
       <c r="B96">
-        <v>5.047</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>14.273</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2985,21 +2988,21 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45953.98958333334</v>
+        <v>45968.96875</v>
       </c>
       <c r="B97">
-        <v>9.308999999999999</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0.999</v>
+        <v>14.273</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3008,21 +3011,21 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45954</v>
+        <v>45968.97916666666</v>
       </c>
       <c r="B98">
-        <v>1.041</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0.726</v>
+        <v>28.288</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3031,21 +3034,21 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="G98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45954</v>
+        <v>45968.97916666666</v>
       </c>
       <c r="B99">
-        <v>1.041</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0.726</v>
+        <v>28.288</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3054,21 +3057,21 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="G99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45954.01041666666</v>
+        <v>45968.98958333334</v>
       </c>
       <c r="B100">
-        <v>1.099</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0.08400000000000001</v>
+        <v>14.07</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3077,21 +3080,21 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="G100" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45954.01041666666</v>
+        <v>45968.98958333334</v>
       </c>
       <c r="B101">
-        <v>1.099</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0.08400000000000001</v>
+        <v>14.07</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3100,21 +3103,21 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="G101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45954.02083333334</v>
+        <v>45969</v>
       </c>
       <c r="B102">
-        <v>0.47</v>
+        <v>0.02</v>
       </c>
       <c r="C102">
-        <v>0.014</v>
+        <v>0.973</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3123,21 +3126,21 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45954.02083333334</v>
+        <v>45969</v>
       </c>
       <c r="B103">
-        <v>0.47</v>
+        <v>0.02</v>
       </c>
       <c r="C103">
-        <v>0.014</v>
+        <v>0.973</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3146,18 +3149,18 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45954.03125</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B104">
-        <v>6.547</v>
+        <v>4.61</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3169,18 +3172,18 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45954.03125</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B105">
-        <v>6.547</v>
+        <v>4.61</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3192,18 +3195,18 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B106">
-        <v>20.711</v>
+        <v>18.718</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3215,18 +3218,18 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B107">
-        <v>20.711</v>
+        <v>18.718</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3238,18 +3241,18 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.03125</v>
       </c>
       <c r="B108">
-        <v>15.548</v>
+        <v>4.113</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3261,18 +3264,18 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.03125</v>
       </c>
       <c r="B109">
-        <v>15.548</v>
+        <v>4.113</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3284,18 +3287,18 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45954.0625</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B110">
-        <v>20.846</v>
+        <v>4.226</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3307,18 +3310,18 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G110" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45954.0625</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B111">
-        <v>20.846</v>
+        <v>10.28</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3330,18 +3333,18 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.0625</v>
       </c>
       <c r="B112">
-        <v>7.318</v>
+        <v>14.03</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3353,21 +3356,21 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B113">
-        <v>7.318</v>
+        <v>2.203</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3384,13 +3387,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B114">
-        <v>4.039</v>
+        <v>0.049</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>2.551</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3407,13 +3410,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B115">
-        <v>12.086</v>
+        <v>0.004</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>9.612</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3430,16 +3433,16 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B116">
-        <v>14.027</v>
+        <v>5.52</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3453,16 +3456,16 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B117">
-        <v>0.279</v>
+        <v>0.418</v>
       </c>
       <c r="C117">
-        <v>0.052</v>
+        <v>0.068</v>
       </c>
       <c r="D117">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3476,16 +3479,16 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B118">
-        <v>0.103</v>
+        <v>0.003</v>
       </c>
       <c r="C118">
-        <v>0.192</v>
+        <v>2.616</v>
       </c>
       <c r="D118">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3499,16 +3502,16 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B119">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0.668</v>
+        <v>17.735</v>
       </c>
       <c r="D119">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3522,16 +3525,16 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1.922</v>
+        <v>22.151</v>
       </c>
       <c r="D120">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3545,16 +3548,16 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>10.086</v>
+        <v>18.841</v>
       </c>
       <c r="D121">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3568,16 +3571,16 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>9.271000000000001</v>
+        <v>8.746</v>
       </c>
       <c r="D122">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -3591,16 +3594,16 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>4.914</v>
+        <v>6.225</v>
       </c>
       <c r="D123">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -3614,16 +3617,16 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>13.714</v>
+        <v>29.115</v>
       </c>
       <c r="D124">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3637,13 +3640,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>2.192</v>
+        <v>12.432</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3660,13 +3663,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B126">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>2.504</v>
+        <v>9.771000000000001</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3683,13 +3686,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B127">
-        <v>8.624000000000001</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>2.752</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3706,13 +3709,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B128">
-        <v>19.428</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>17.118</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3729,16 +3732,16 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B129">
-        <v>0.576</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>5.37</v>
+        <v>51.757</v>
       </c>
       <c r="D129">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3752,16 +3755,16 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B130">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>1.858</v>
+        <v>33.27</v>
       </c>
       <c r="D130">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3775,16 +3778,16 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B131">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>2.574</v>
+        <v>70.443</v>
       </c>
       <c r="D131">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3798,19 +3801,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B132">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>2.891</v>
+        <v>30.52</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F132">
         <v>27</v>
@@ -3821,19 +3824,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B133">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>0.8149999999999999</v>
+        <v>15.779</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F133">
         <v>28</v>
@@ -3844,19 +3847,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B134">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>2.443</v>
+        <v>46.907</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>36.75</v>
       </c>
       <c r="F134">
         <v>29</v>
@@ -3867,19 +3870,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B135">
-        <v>0.21</v>
+        <v>0.028</v>
       </c>
       <c r="C135">
-        <v>0.723</v>
+        <v>5.283</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F135">
         <v>30</v>
@@ -3890,25 +3893,48 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45954.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>14.428</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F136">
         <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45969.32291666666</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>75</v>
+      </c>
+      <c r="F137">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,294 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>07.11.20251</t>
-  </si>
-  <si>
-    <t>07.11.20252</t>
-  </si>
-  <si>
-    <t>07.11.20253</t>
-  </si>
-  <si>
-    <t>07.11.20254</t>
-  </si>
-  <si>
-    <t>07.11.20255</t>
-  </si>
-  <si>
-    <t>07.11.20256</t>
-  </si>
-  <si>
-    <t>07.11.20257</t>
-  </si>
-  <si>
-    <t>07.11.20258</t>
-  </si>
-  <si>
-    <t>07.11.20259</t>
-  </si>
-  <si>
-    <t>07.11.202510</t>
-  </si>
-  <si>
-    <t>07.11.202511</t>
-  </si>
-  <si>
-    <t>07.11.202512</t>
-  </si>
-  <si>
-    <t>07.11.202513</t>
-  </si>
-  <si>
-    <t>07.11.202514</t>
-  </si>
-  <si>
-    <t>07.11.202515</t>
-  </si>
-  <si>
-    <t>07.11.202516</t>
-  </si>
-  <si>
-    <t>07.11.202517</t>
-  </si>
-  <si>
-    <t>07.11.202518</t>
-  </si>
-  <si>
-    <t>07.11.202519</t>
-  </si>
-  <si>
-    <t>07.11.202520</t>
-  </si>
-  <si>
-    <t>07.11.202521</t>
-  </si>
-  <si>
-    <t>07.11.202522</t>
-  </si>
-  <si>
-    <t>07.11.202523</t>
-  </si>
-  <si>
-    <t>07.11.202524</t>
-  </si>
-  <si>
-    <t>07.11.202525</t>
-  </si>
-  <si>
-    <t>07.11.202526</t>
-  </si>
-  <si>
-    <t>07.11.202527</t>
-  </si>
-  <si>
-    <t>07.11.202528</t>
-  </si>
-  <si>
-    <t>07.11.202529</t>
-  </si>
-  <si>
-    <t>07.11.202530</t>
-  </si>
-  <si>
-    <t>07.11.202531</t>
-  </si>
-  <si>
-    <t>07.11.202532</t>
-  </si>
-  <si>
-    <t>07.11.202533</t>
-  </si>
-  <si>
-    <t>07.11.202534</t>
-  </si>
-  <si>
-    <t>07.11.202535</t>
-  </si>
-  <si>
-    <t>07.11.202536</t>
-  </si>
-  <si>
-    <t>07.11.202537</t>
-  </si>
-  <si>
-    <t>07.11.202538</t>
-  </si>
-  <si>
-    <t>07.11.202539</t>
-  </si>
-  <si>
-    <t>07.11.202540</t>
-  </si>
-  <si>
-    <t>07.11.202541</t>
-  </si>
-  <si>
-    <t>07.11.202542</t>
-  </si>
-  <si>
-    <t>07.11.202543</t>
-  </si>
-  <si>
-    <t>07.11.202544</t>
-  </si>
-  <si>
-    <t>07.11.202545</t>
-  </si>
-  <si>
-    <t>07.11.202546</t>
-  </si>
-  <si>
-    <t>07.11.202547</t>
-  </si>
-  <si>
-    <t>07.11.202548</t>
-  </si>
-  <si>
-    <t>07.11.202549</t>
-  </si>
-  <si>
-    <t>07.11.202550</t>
-  </si>
-  <si>
-    <t>07.11.202551</t>
-  </si>
-  <si>
-    <t>07.11.202552</t>
-  </si>
-  <si>
-    <t>07.11.202553</t>
-  </si>
-  <si>
-    <t>07.11.202554</t>
-  </si>
-  <si>
-    <t>07.11.202555</t>
-  </si>
-  <si>
-    <t>07.11.202556</t>
-  </si>
-  <si>
-    <t>07.11.202557</t>
-  </si>
-  <si>
-    <t>07.11.202558</t>
-  </si>
-  <si>
-    <t>07.11.202559</t>
-  </si>
-  <si>
-    <t>07.11.202560</t>
-  </si>
-  <si>
-    <t>07.11.202561</t>
-  </si>
-  <si>
-    <t>07.11.202562</t>
-  </si>
-  <si>
-    <t>07.11.202563</t>
-  </si>
-  <si>
-    <t>07.11.202564</t>
-  </si>
-  <si>
-    <t>07.11.202565</t>
-  </si>
-  <si>
-    <t>07.11.202566</t>
-  </si>
-  <si>
-    <t>07.11.202567</t>
-  </si>
-  <si>
-    <t>07.11.202568</t>
-  </si>
-  <si>
-    <t>07.11.202569</t>
-  </si>
-  <si>
-    <t>07.11.202570</t>
-  </si>
-  <si>
-    <t>07.11.202571</t>
-  </si>
-  <si>
-    <t>07.11.202572</t>
-  </si>
-  <si>
-    <t>07.11.202573</t>
-  </si>
-  <si>
-    <t>07.11.202574</t>
-  </si>
-  <si>
-    <t>07.11.202575</t>
-  </si>
-  <si>
-    <t>07.11.202576</t>
-  </si>
-  <si>
-    <t>07.11.202577</t>
-  </si>
-  <si>
-    <t>07.11.202578</t>
-  </si>
-  <si>
-    <t>07.11.202579</t>
-  </si>
-  <si>
-    <t>07.11.202580</t>
-  </si>
-  <si>
-    <t>07.11.202581</t>
-  </si>
-  <si>
-    <t>07.11.202582</t>
-  </si>
-  <si>
-    <t>07.11.202583</t>
-  </si>
-  <si>
-    <t>07.11.202584</t>
-  </si>
-  <si>
-    <t>07.11.202585</t>
-  </si>
-  <si>
-    <t>07.11.202586</t>
-  </si>
-  <si>
-    <t>07.11.202587</t>
-  </si>
-  <si>
-    <t>07.11.202588</t>
-  </si>
-  <si>
-    <t>07.11.202589</t>
-  </si>
-  <si>
-    <t>07.11.202590</t>
-  </si>
-  <si>
-    <t>07.11.202591</t>
-  </si>
-  <si>
-    <t>07.11.202592</t>
-  </si>
-  <si>
-    <t>07.11.202593</t>
-  </si>
-  <si>
-    <t>07.11.202594</t>
-  </si>
-  <si>
-    <t>07.11.202595</t>
-  </si>
-  <si>
-    <t>07.11.202596</t>
-  </si>
-  <si>
     <t>08.11.20251</t>
   </si>
   <si>
@@ -419,6 +131,291 @@
   </si>
   <si>
     <t>08.11.202532</t>
+  </si>
+  <si>
+    <t>08.11.202533</t>
+  </si>
+  <si>
+    <t>08.11.202534</t>
+  </si>
+  <si>
+    <t>08.11.202535</t>
+  </si>
+  <si>
+    <t>08.11.202536</t>
+  </si>
+  <si>
+    <t>08.11.202537</t>
+  </si>
+  <si>
+    <t>08.11.202538</t>
+  </si>
+  <si>
+    <t>08.11.202539</t>
+  </si>
+  <si>
+    <t>08.11.202540</t>
+  </si>
+  <si>
+    <t>08.11.202541</t>
+  </si>
+  <si>
+    <t>08.11.202542</t>
+  </si>
+  <si>
+    <t>08.11.202543</t>
+  </si>
+  <si>
+    <t>08.11.202544</t>
+  </si>
+  <si>
+    <t>08.11.202545</t>
+  </si>
+  <si>
+    <t>08.11.202546</t>
+  </si>
+  <si>
+    <t>08.11.202547</t>
+  </si>
+  <si>
+    <t>08.11.202548</t>
+  </si>
+  <si>
+    <t>08.11.202549</t>
+  </si>
+  <si>
+    <t>08.11.202550</t>
+  </si>
+  <si>
+    <t>08.11.202551</t>
+  </si>
+  <si>
+    <t>08.11.202552</t>
+  </si>
+  <si>
+    <t>08.11.202553</t>
+  </si>
+  <si>
+    <t>08.11.202554</t>
+  </si>
+  <si>
+    <t>08.11.202555</t>
+  </si>
+  <si>
+    <t>08.11.202556</t>
+  </si>
+  <si>
+    <t>08.11.202557</t>
+  </si>
+  <si>
+    <t>08.11.202558</t>
+  </si>
+  <si>
+    <t>08.11.202559</t>
+  </si>
+  <si>
+    <t>08.11.202560</t>
+  </si>
+  <si>
+    <t>08.11.202561</t>
+  </si>
+  <si>
+    <t>08.11.202562</t>
+  </si>
+  <si>
+    <t>08.11.202563</t>
+  </si>
+  <si>
+    <t>08.11.202564</t>
+  </si>
+  <si>
+    <t>08.11.202565</t>
+  </si>
+  <si>
+    <t>08.11.202566</t>
+  </si>
+  <si>
+    <t>08.11.202567</t>
+  </si>
+  <si>
+    <t>08.11.202568</t>
+  </si>
+  <si>
+    <t>08.11.202569</t>
+  </si>
+  <si>
+    <t>08.11.202570</t>
+  </si>
+  <si>
+    <t>08.11.202571</t>
+  </si>
+  <si>
+    <t>08.11.202572</t>
+  </si>
+  <si>
+    <t>08.11.202573</t>
+  </si>
+  <si>
+    <t>08.11.202574</t>
+  </si>
+  <si>
+    <t>08.11.202575</t>
+  </si>
+  <si>
+    <t>08.11.202576</t>
+  </si>
+  <si>
+    <t>08.11.202577</t>
+  </si>
+  <si>
+    <t>08.11.202578</t>
+  </si>
+  <si>
+    <t>08.11.202579</t>
+  </si>
+  <si>
+    <t>08.11.202580</t>
+  </si>
+  <si>
+    <t>08.11.202581</t>
+  </si>
+  <si>
+    <t>08.11.202582</t>
+  </si>
+  <si>
+    <t>08.11.202583</t>
+  </si>
+  <si>
+    <t>08.11.202584</t>
+  </si>
+  <si>
+    <t>08.11.202585</t>
+  </si>
+  <si>
+    <t>08.11.202586</t>
+  </si>
+  <si>
+    <t>08.11.202587</t>
+  </si>
+  <si>
+    <t>08.11.202588</t>
+  </si>
+  <si>
+    <t>08.11.202589</t>
+  </si>
+  <si>
+    <t>08.11.202590</t>
+  </si>
+  <si>
+    <t>08.11.202591</t>
+  </si>
+  <si>
+    <t>08.11.202592</t>
+  </si>
+  <si>
+    <t>08.11.202593</t>
+  </si>
+  <si>
+    <t>08.11.202594</t>
+  </si>
+  <si>
+    <t>08.11.202595</t>
+  </si>
+  <si>
+    <t>08.11.202596</t>
+  </si>
+  <si>
+    <t>09.11.20251</t>
+  </si>
+  <si>
+    <t>09.11.20252</t>
+  </si>
+  <si>
+    <t>09.11.20253</t>
+  </si>
+  <si>
+    <t>09.11.20254</t>
+  </si>
+  <si>
+    <t>09.11.20255</t>
+  </si>
+  <si>
+    <t>09.11.20256</t>
+  </si>
+  <si>
+    <t>09.11.20257</t>
+  </si>
+  <si>
+    <t>09.11.20258</t>
+  </si>
+  <si>
+    <t>09.11.20259</t>
+  </si>
+  <si>
+    <t>09.11.202510</t>
+  </si>
+  <si>
+    <t>09.11.202511</t>
+  </si>
+  <si>
+    <t>09.11.202512</t>
+  </si>
+  <si>
+    <t>09.11.202513</t>
+  </si>
+  <si>
+    <t>09.11.202514</t>
+  </si>
+  <si>
+    <t>09.11.202515</t>
+  </si>
+  <si>
+    <t>09.11.202516</t>
+  </si>
+  <si>
+    <t>09.11.202517</t>
+  </si>
+  <si>
+    <t>09.11.202518</t>
+  </si>
+  <si>
+    <t>09.11.202519</t>
+  </si>
+  <si>
+    <t>09.11.202520</t>
+  </si>
+  <si>
+    <t>09.11.202521</t>
+  </si>
+  <si>
+    <t>09.11.202522</t>
+  </si>
+  <si>
+    <t>09.11.202523</t>
+  </si>
+  <si>
+    <t>09.11.202524</t>
+  </si>
+  <si>
+    <t>09.11.202525</t>
+  </si>
+  <si>
+    <t>09.11.202526</t>
+  </si>
+  <si>
+    <t>09.11.202527</t>
+  </si>
+  <si>
+    <t>09.11.202528</t>
+  </si>
+  <si>
+    <t>09.11.202529</t>
+  </si>
+  <si>
+    <t>09.11.202530</t>
+  </si>
+  <si>
+    <t>09.11.202531</t>
   </si>
 </sst>
 </file>
@@ -780,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,13 +808,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B2">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="C2">
-        <v>6.352</v>
+        <v>0.973</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -834,13 +831,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45968.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4.61</v>
       </c>
       <c r="C3">
-        <v>7.932</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -857,13 +854,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45968.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.08699999999999999</v>
+        <v>18.718</v>
       </c>
       <c r="C4">
-        <v>2.062</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -880,13 +877,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45968.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B5">
-        <v>0.141</v>
+        <v>4.113</v>
       </c>
       <c r="C5">
-        <v>0.403</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -903,13 +900,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45968.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.012</v>
+        <v>4.226</v>
       </c>
       <c r="C6">
-        <v>6.061</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -926,13 +923,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45968.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.079</v>
+        <v>10.28</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -949,13 +946,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45968.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B8">
-        <v>0.355</v>
+        <v>14.03</v>
       </c>
       <c r="C8">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -972,13 +969,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45968.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B9">
-        <v>9.042</v>
+        <v>2.203</v>
       </c>
       <c r="C9">
-        <v>0.026</v>
+        <v>0.051</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -995,13 +992,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45968.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B10">
-        <v>49.178</v>
+        <v>0.049</v>
       </c>
       <c r="C10">
-        <v>0.043</v>
+        <v>2.551</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1018,13 +1015,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45968.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B11">
-        <v>31.99</v>
+        <v>0.004</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>9.612</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1041,16 +1038,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45968.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B12">
-        <v>28.874</v>
+        <v>5.52</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,16 +1061,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45968.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B13">
-        <v>48.752</v>
+        <v>0.418</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="D13">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1087,16 +1084,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45968.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B14">
-        <v>56.082</v>
+        <v>0.003</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.616</v>
       </c>
       <c r="D14">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1110,16 +1107,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45968.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B15">
-        <v>46.84</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>17.735</v>
       </c>
       <c r="D15">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1133,16 +1130,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45968.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B16">
-        <v>65.66</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>22.151</v>
       </c>
       <c r="D16">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1156,16 +1153,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45968.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B17">
-        <v>51.304</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>18.841</v>
       </c>
       <c r="D17">
-        <v>68.75</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1179,16 +1176,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45968.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B18">
-        <v>4.727</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>8.746</v>
       </c>
       <c r="D18">
-        <v>68.75</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1202,16 +1199,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45968.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B19">
-        <v>4.698</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.013</v>
+        <v>6.225</v>
       </c>
       <c r="D19">
-        <v>68.75</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1225,16 +1222,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45968.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B20">
-        <v>1.832</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.258</v>
+        <v>29.115</v>
       </c>
       <c r="D20">
-        <v>68.75</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1248,16 +1245,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45968.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.957</v>
+        <v>12.432</v>
       </c>
       <c r="D21">
-        <v>68.75</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1271,16 +1268,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45968.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.449</v>
+        <v>9.771000000000001</v>
       </c>
       <c r="D22">
-        <v>68.75</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1294,16 +1291,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45968.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.869</v>
+        <v>2.752</v>
       </c>
       <c r="D23">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1317,16 +1314,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45968.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.642</v>
+        <v>17.118</v>
       </c>
       <c r="D24">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1340,16 +1337,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45968.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.869</v>
+        <v>51.757</v>
       </c>
       <c r="D25">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1363,13 +1360,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45968.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B26">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.632</v>
+        <v>33.27</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1386,13 +1383,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45968.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.869</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.074</v>
+        <v>70.443</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1409,19 +1406,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45968.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B28">
-        <v>16.874</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>30.52</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1432,19 +1429,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45968.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B29">
-        <v>11.375</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>15.779</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1455,19 +1452,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45968.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B30">
-        <v>3.639</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>46.907</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>36.75</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1478,19 +1475,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45968.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.337</v>
+        <v>0.028</v>
       </c>
       <c r="C31">
-        <v>0.028</v>
+        <v>5.283</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1501,19 +1498,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45968.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B32">
-        <v>0.116</v>
+        <v>1.271</v>
       </c>
       <c r="C32">
-        <v>0.21</v>
+        <v>2.351</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1524,19 +1521,19 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45968.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.207</v>
+        <v>1.211</v>
       </c>
       <c r="C33">
-        <v>0.833</v>
+        <v>0.206</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1547,19 +1544,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45968.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.001</v>
+        <v>23.99</v>
       </c>
       <c r="C34">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1570,19 +1567,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45968.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B35">
-        <v>0.304</v>
+        <v>40.485</v>
       </c>
       <c r="C35">
-        <v>0.761</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1593,19 +1590,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45968.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4.302</v>
       </c>
       <c r="C36">
-        <v>13.843</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1616,19 +1613,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45968.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1.243</v>
       </c>
       <c r="C37">
-        <v>7.807</v>
+        <v>0.021</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1639,19 +1636,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45968.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B38">
-        <v>9.134</v>
+        <v>54.265</v>
       </c>
       <c r="C38">
-        <v>0.593</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1662,10 +1659,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45968.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B39">
-        <v>5.505</v>
+        <v>36.682</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1685,13 +1682,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45968.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B40">
-        <v>1.355</v>
+        <v>18.054</v>
       </c>
       <c r="C40">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1708,13 +1705,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45968.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B41">
-        <v>3.423</v>
+        <v>10.122</v>
       </c>
       <c r="C41">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1731,13 +1728,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45968.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B42">
-        <v>6.963</v>
+        <v>0.979</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>4.009</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1754,13 +1751,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45968.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.502</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.047</v>
+        <v>6.773</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1777,13 +1774,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45968.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B44">
-        <v>4.852</v>
+        <v>0.233</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1800,13 +1797,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45968.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B45">
-        <v>0.841</v>
+        <v>2.51</v>
       </c>
       <c r="C45">
-        <v>0.052</v>
+        <v>0.924</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1823,13 +1820,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45968.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B46">
-        <v>16.462</v>
+        <v>0.015</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>4.985</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1846,13 +1843,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45968.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B47">
-        <v>21.882</v>
+        <v>0.034</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2.362</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1869,10 +1866,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45968.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B48">
-        <v>31.621</v>
+        <v>1.745</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1881,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1892,19 +1889,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45968.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B49">
-        <v>33.451</v>
+        <v>3.854</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1915,19 +1912,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45968.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B50">
-        <v>27.599</v>
+        <v>1.028</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1938,19 +1935,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45968.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B51">
-        <v>18.368</v>
+        <v>0.371</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.788</v>
       </c>
       <c r="D51">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1961,19 +1958,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45968.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B52">
-        <v>34.479</v>
+        <v>9.449</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -1984,19 +1981,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45968.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B53">
-        <v>15.172</v>
+        <v>11.067</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2007,16 +2004,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45968.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.14</v>
+        <v>17.334</v>
       </c>
       <c r="C54">
-        <v>0.6820000000000001</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2030,16 +2027,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45968.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B55">
-        <v>0.407</v>
+        <v>3.166</v>
       </c>
       <c r="C55">
-        <v>0.082</v>
+        <v>0.01</v>
       </c>
       <c r="D55">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2053,16 +2050,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45968.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B56">
-        <v>0.044</v>
+        <v>16.291</v>
       </c>
       <c r="C56">
-        <v>0.172</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2076,16 +2073,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45968.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B57">
-        <v>0.26</v>
+        <v>20.056</v>
       </c>
       <c r="C57">
-        <v>0.331</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2099,16 +2096,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45968.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B58">
-        <v>0.216</v>
+        <v>8.955</v>
       </c>
       <c r="C58">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2122,16 +2119,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45968.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B59">
-        <v>0.171</v>
+        <v>1.294</v>
       </c>
       <c r="C59">
-        <v>0.128</v>
+        <v>0.164</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2145,16 +2142,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45968.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.367</v>
+        <v>0.224</v>
       </c>
       <c r="C60">
-        <v>0.08599999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2168,16 +2165,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45968.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B61">
-        <v>1.789</v>
+        <v>0.212</v>
       </c>
       <c r="C61">
-        <v>0.044</v>
+        <v>0.257</v>
       </c>
       <c r="D61">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2191,16 +2188,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45968.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B62">
-        <v>1.108</v>
+        <v>0.008</v>
       </c>
       <c r="C62">
-        <v>0.08799999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2214,16 +2211,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45968.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.237</v>
+        <v>0.029</v>
       </c>
       <c r="C63">
-        <v>0.215</v>
+        <v>1.051</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2237,16 +2234,16 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45968.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B64">
-        <v>1.233</v>
+        <v>0.382</v>
       </c>
       <c r="C64">
-        <v>0.03</v>
+        <v>0.206</v>
       </c>
       <c r="D64">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2260,19 +2257,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45968.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B65">
-        <v>14.904</v>
+        <v>2.203</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -2283,19 +2280,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45968.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B66">
-        <v>3.611</v>
+        <v>1.302</v>
       </c>
       <c r="C66">
-        <v>0.008999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F66">
         <v>65</v>
@@ -2306,16 +2303,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45968.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B67">
-        <v>27.608</v>
+        <v>0.01</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.953</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2329,16 +2326,16 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45968.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B68">
-        <v>34.854</v>
+        <v>0.11</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="D68">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2352,19 +2349,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45968.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B69">
-        <v>9.164999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="D69">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -2375,19 +2372,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45968.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B70">
-        <v>6.122</v>
+        <v>0.161</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.287</v>
       </c>
       <c r="D70">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2398,19 +2395,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45968.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B71">
-        <v>9.689</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="D71">
-        <v>59.75</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2421,19 +2418,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45968.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.994</v>
+        <v>0.224</v>
       </c>
       <c r="C72">
-        <v>0.048</v>
+        <v>0.204</v>
       </c>
       <c r="D72">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2444,19 +2441,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45968.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.012</v>
+        <v>0.223</v>
       </c>
       <c r="C73">
-        <v>5.168</v>
+        <v>1.507</v>
       </c>
       <c r="D73">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>96.75</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2467,19 +2464,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45968.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B74">
-        <v>0.002</v>
+        <v>1.067</v>
       </c>
       <c r="C74">
-        <v>3.213</v>
+        <v>0.213</v>
       </c>
       <c r="D74">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F74">
         <v>73</v>
@@ -2490,19 +2487,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45968.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.344</v>
+        <v>0.058</v>
       </c>
       <c r="C75">
-        <v>0.12</v>
+        <v>1.317</v>
       </c>
       <c r="D75">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>76.75</v>
       </c>
       <c r="F75">
         <v>74</v>
@@ -2513,19 +2510,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45968.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.279</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0.174</v>
+        <v>12.385</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>76.75</v>
       </c>
       <c r="F76">
         <v>75</v>
@@ -2536,19 +2533,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45968.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B77">
-        <v>0.07099999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="C77">
-        <v>7.401</v>
+        <v>1.851</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="F77">
         <v>76</v>
@@ -2559,19 +2556,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45968.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>14.508</v>
       </c>
       <c r="C78">
-        <v>29.84</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F78">
         <v>77</v>
@@ -2582,19 +2579,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45968.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>13.756</v>
       </c>
       <c r="C79">
-        <v>18.645</v>
+        <v>0.016</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -2605,19 +2602,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45968.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B80">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>2.119</v>
+        <v>17.853</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2628,19 +2625,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45968.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B81">
-        <v>17.438</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>12.754</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -2651,19 +2648,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45968.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B82">
-        <v>11.075</v>
+        <v>0.015</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>9.489000000000001</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -2674,19 +2671,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45968.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B83">
-        <v>29.47</v>
+        <v>0.076</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>4.792</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -2697,19 +2694,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45968.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B84">
-        <v>18.152</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>14.939</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -2720,19 +2717,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45968.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B85">
-        <v>6.319</v>
+        <v>0.026</v>
       </c>
       <c r="C85">
-        <v>0.89</v>
+        <v>1.157</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -2743,19 +2740,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45968.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B86">
-        <v>0.091</v>
+        <v>5.248</v>
       </c>
       <c r="C86">
-        <v>0.68</v>
+        <v>0.002</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F86">
         <v>85</v>
@@ -2766,19 +2763,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45968.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B87">
-        <v>0.229</v>
+        <v>3.666</v>
       </c>
       <c r="C87">
-        <v>3.626</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F87">
         <v>86</v>
@@ -2789,19 +2786,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45968.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B88">
-        <v>0.068</v>
+        <v>15.02</v>
       </c>
       <c r="C88">
-        <v>2.771</v>
+        <v>0.047</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F88">
         <v>87</v>
@@ -2812,19 +2809,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45968.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>34.935</v>
       </c>
       <c r="C89">
-        <v>13.071</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F89">
         <v>88</v>
@@ -2835,19 +2832,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45968.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B90">
-        <v>0.005</v>
+        <v>19.182</v>
       </c>
       <c r="C90">
-        <v>8.099</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F90">
         <v>89</v>
@@ -2858,19 +2855,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45968.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.608</v>
       </c>
       <c r="C91">
-        <v>18.521</v>
+        <v>0.038</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F91">
         <v>90</v>
@@ -2881,19 +2878,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45968.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>9.257999999999999</v>
       </c>
       <c r="C92">
-        <v>12.509</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F92">
         <v>91</v>
@@ -2904,13 +2901,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45968.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1.462</v>
       </c>
       <c r="C93">
-        <v>21.561</v>
+        <v>4.137</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2927,13 +2924,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>7.635</v>
+        <v>19.972</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2950,13 +2947,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>7.635</v>
+        <v>19.972</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2973,13 +2970,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>14.273</v>
+        <v>34.616</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2996,13 +2993,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>14.273</v>
+        <v>34.616</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3019,13 +3016,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>28.288</v>
+        <v>23.372</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3042,13 +3039,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>28.288</v>
+        <v>23.372</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3065,19 +3062,19 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>14.07</v>
+        <v>27.159</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F100">
         <v>96</v>
@@ -3088,19 +3085,19 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>14.07</v>
+        <v>27.159</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F101">
         <v>96</v>
@@ -3111,19 +3108,19 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B102">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0.973</v>
+        <v>16.407</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3134,19 +3131,19 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B103">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0.973</v>
+        <v>16.407</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3157,19 +3154,19 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B104">
-        <v>4.61</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>8.215</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -3180,19 +3177,19 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B105">
-        <v>4.61</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>8.215</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -3203,19 +3200,19 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B106">
-        <v>18.718</v>
+        <v>3.508</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.209</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F106">
         <v>3</v>
@@ -3226,19 +3223,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B107">
-        <v>18.718</v>
+        <v>3.508</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.209</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F107">
         <v>3</v>
@@ -3249,19 +3246,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B108">
-        <v>4.113</v>
+        <v>0.334</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.144</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F108">
         <v>4</v>
@@ -3272,19 +3269,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B109">
-        <v>4.113</v>
+        <v>0.334</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.144</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F109">
         <v>4</v>
@@ -3295,19 +3292,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B110">
-        <v>4.226</v>
+        <v>0.042</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2.576</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -3318,13 +3315,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B111">
-        <v>10.28</v>
+        <v>0.027</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.468</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3341,13 +3338,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B112">
-        <v>14.03</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>3.042</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3364,13 +3361,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B113">
-        <v>2.203</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.051</v>
+        <v>12.484</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3387,13 +3384,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B114">
-        <v>0.049</v>
+        <v>0.117</v>
       </c>
       <c r="C114">
-        <v>2.551</v>
+        <v>3.434</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3410,13 +3407,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B115">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>9.612</v>
+        <v>1.415</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3433,13 +3430,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B116">
-        <v>5.52</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>11.864</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3456,13 +3453,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B117">
-        <v>0.418</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0.068</v>
+        <v>9.255000000000001</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3479,13 +3476,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B118">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>2.616</v>
+        <v>8.294</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3502,13 +3499,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>17.735</v>
+        <v>6.21</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3525,13 +3522,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>22.151</v>
+        <v>2.507</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3548,13 +3545,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C121">
-        <v>18.841</v>
+        <v>0.41</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3571,13 +3568,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C122">
-        <v>8.746</v>
+        <v>0.741</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3594,13 +3591,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C123">
-        <v>6.225</v>
+        <v>0.252</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3617,13 +3614,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="C124">
-        <v>29.115</v>
+        <v>4.966</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3640,13 +3637,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>12.432</v>
+        <v>20.001</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3663,13 +3660,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="C126">
-        <v>9.771000000000001</v>
+        <v>3.626</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3686,13 +3683,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="C127">
-        <v>2.752</v>
+        <v>1.122</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3709,13 +3706,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C128">
-        <v>17.118</v>
+        <v>7.185</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3732,13 +3729,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C129">
-        <v>51.757</v>
+        <v>5.678</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3755,13 +3752,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="C130">
-        <v>33.27</v>
+        <v>0.4</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3778,13 +3775,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C131">
-        <v>70.443</v>
+        <v>5.006</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3801,19 +3798,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>30.52</v>
+        <v>23.052</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>27</v>
@@ -3824,19 +3821,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C133">
-        <v>15.779</v>
+        <v>7.354</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F133">
         <v>28</v>
@@ -3847,19 +3844,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>46.907</v>
+        <v>13.182</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>36.75</v>
+        <v>25</v>
       </c>
       <c r="F134">
         <v>29</v>
@@ -3870,19 +3867,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
       <c r="B135">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>5.283</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F135">
         <v>30</v>
@@ -3893,7 +3890,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45969.3125</v>
+        <v>45970.3125</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3905,36 +3902,13 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F136">
         <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="2">
-        <v>45969.32291666666</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>75</v>
-      </c>
-      <c r="F137">
-        <v>32</v>
-      </c>
-      <c r="G137" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="251">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,385 +37,736 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.11.20251</t>
-  </si>
-  <si>
-    <t>08.11.20252</t>
-  </si>
-  <si>
-    <t>08.11.20253</t>
-  </si>
-  <si>
-    <t>08.11.20254</t>
-  </si>
-  <si>
-    <t>08.11.20255</t>
-  </si>
-  <si>
-    <t>08.11.20256</t>
-  </si>
-  <si>
-    <t>08.11.20257</t>
-  </si>
-  <si>
-    <t>08.11.20258</t>
-  </si>
-  <si>
-    <t>08.11.20259</t>
-  </si>
-  <si>
-    <t>08.11.202510</t>
-  </si>
-  <si>
-    <t>08.11.202511</t>
-  </si>
-  <si>
-    <t>08.11.202512</t>
-  </si>
-  <si>
-    <t>08.11.202513</t>
-  </si>
-  <si>
-    <t>08.11.202514</t>
-  </si>
-  <si>
-    <t>08.11.202515</t>
-  </si>
-  <si>
-    <t>08.11.202516</t>
-  </si>
-  <si>
-    <t>08.11.202517</t>
-  </si>
-  <si>
-    <t>08.11.202518</t>
-  </si>
-  <si>
-    <t>08.11.202519</t>
-  </si>
-  <si>
-    <t>08.11.202520</t>
-  </si>
-  <si>
-    <t>08.11.202521</t>
-  </si>
-  <si>
-    <t>08.11.202522</t>
-  </si>
-  <si>
-    <t>08.11.202523</t>
-  </si>
-  <si>
-    <t>08.11.202524</t>
-  </si>
-  <si>
-    <t>08.11.202525</t>
-  </si>
-  <si>
-    <t>08.11.202526</t>
-  </si>
-  <si>
-    <t>08.11.202527</t>
-  </si>
-  <si>
-    <t>08.11.202528</t>
-  </si>
-  <si>
-    <t>08.11.202529</t>
-  </si>
-  <si>
-    <t>08.11.202530</t>
-  </si>
-  <si>
-    <t>08.11.202531</t>
-  </si>
-  <si>
-    <t>08.11.202532</t>
-  </si>
-  <si>
-    <t>08.11.202533</t>
-  </si>
-  <si>
-    <t>08.11.202534</t>
-  </si>
-  <si>
-    <t>08.11.202535</t>
-  </si>
-  <si>
-    <t>08.11.202536</t>
-  </si>
-  <si>
-    <t>08.11.202537</t>
-  </si>
-  <si>
-    <t>08.11.202538</t>
-  </si>
-  <si>
-    <t>08.11.202539</t>
-  </si>
-  <si>
-    <t>08.11.202540</t>
-  </si>
-  <si>
-    <t>08.11.202541</t>
-  </si>
-  <si>
-    <t>08.11.202542</t>
-  </si>
-  <si>
-    <t>08.11.202543</t>
-  </si>
-  <si>
-    <t>08.11.202544</t>
-  </si>
-  <si>
-    <t>08.11.202545</t>
-  </si>
-  <si>
-    <t>08.11.202546</t>
-  </si>
-  <si>
-    <t>08.11.202547</t>
-  </si>
-  <si>
-    <t>08.11.202548</t>
-  </si>
-  <si>
-    <t>08.11.202549</t>
-  </si>
-  <si>
-    <t>08.11.202550</t>
-  </si>
-  <si>
-    <t>08.11.202551</t>
-  </si>
-  <si>
-    <t>08.11.202552</t>
-  </si>
-  <si>
-    <t>08.11.202553</t>
-  </si>
-  <si>
-    <t>08.11.202554</t>
-  </si>
-  <si>
-    <t>08.11.202555</t>
-  </si>
-  <si>
-    <t>08.11.202556</t>
-  </si>
-  <si>
-    <t>08.11.202557</t>
-  </si>
-  <si>
-    <t>08.11.202558</t>
-  </si>
-  <si>
-    <t>08.11.202559</t>
-  </si>
-  <si>
-    <t>08.11.202560</t>
-  </si>
-  <si>
-    <t>08.11.202561</t>
-  </si>
-  <si>
-    <t>08.11.202562</t>
-  </si>
-  <si>
-    <t>08.11.202563</t>
-  </si>
-  <si>
-    <t>08.11.202564</t>
-  </si>
-  <si>
-    <t>08.11.202565</t>
-  </si>
-  <si>
-    <t>08.11.202566</t>
-  </si>
-  <si>
-    <t>08.11.202567</t>
-  </si>
-  <si>
-    <t>08.11.202568</t>
-  </si>
-  <si>
-    <t>08.11.202569</t>
-  </si>
-  <si>
-    <t>08.11.202570</t>
-  </si>
-  <si>
-    <t>08.11.202571</t>
-  </si>
-  <si>
-    <t>08.11.202572</t>
-  </si>
-  <si>
-    <t>08.11.202573</t>
-  </si>
-  <si>
-    <t>08.11.202574</t>
-  </si>
-  <si>
-    <t>08.11.202575</t>
-  </si>
-  <si>
-    <t>08.11.202576</t>
-  </si>
-  <si>
-    <t>08.11.202577</t>
-  </si>
-  <si>
-    <t>08.11.202578</t>
-  </si>
-  <si>
-    <t>08.11.202579</t>
-  </si>
-  <si>
-    <t>08.11.202580</t>
-  </si>
-  <si>
-    <t>08.11.202581</t>
-  </si>
-  <si>
-    <t>08.11.202582</t>
-  </si>
-  <si>
-    <t>08.11.202583</t>
-  </si>
-  <si>
-    <t>08.11.202584</t>
-  </si>
-  <si>
-    <t>08.11.202585</t>
-  </si>
-  <si>
-    <t>08.11.202586</t>
-  </si>
-  <si>
-    <t>08.11.202587</t>
-  </si>
-  <si>
-    <t>08.11.202588</t>
-  </si>
-  <si>
-    <t>08.11.202589</t>
-  </si>
-  <si>
-    <t>08.11.202590</t>
-  </si>
-  <si>
-    <t>08.11.202591</t>
-  </si>
-  <si>
-    <t>08.11.202592</t>
-  </si>
-  <si>
-    <t>08.11.202593</t>
-  </si>
-  <si>
-    <t>08.11.202594</t>
-  </si>
-  <si>
-    <t>08.11.202595</t>
-  </si>
-  <si>
-    <t>08.11.202596</t>
-  </si>
-  <si>
-    <t>09.11.20251</t>
-  </si>
-  <si>
-    <t>09.11.20252</t>
-  </si>
-  <si>
-    <t>09.11.20253</t>
-  </si>
-  <si>
-    <t>09.11.20254</t>
-  </si>
-  <si>
-    <t>09.11.20255</t>
-  </si>
-  <si>
-    <t>09.11.20256</t>
-  </si>
-  <si>
-    <t>09.11.20257</t>
-  </si>
-  <si>
-    <t>09.11.20258</t>
-  </si>
-  <si>
-    <t>09.11.20259</t>
-  </si>
-  <si>
-    <t>09.11.202510</t>
-  </si>
-  <si>
-    <t>09.11.202511</t>
-  </si>
-  <si>
-    <t>09.11.202512</t>
-  </si>
-  <si>
-    <t>09.11.202513</t>
-  </si>
-  <si>
-    <t>09.11.202514</t>
-  </si>
-  <si>
-    <t>09.11.202515</t>
-  </si>
-  <si>
-    <t>09.11.202516</t>
-  </si>
-  <si>
-    <t>09.11.202517</t>
-  </si>
-  <si>
-    <t>09.11.202518</t>
-  </si>
-  <si>
-    <t>09.11.202519</t>
-  </si>
-  <si>
-    <t>09.11.202520</t>
-  </si>
-  <si>
-    <t>09.11.202521</t>
-  </si>
-  <si>
-    <t>09.11.202522</t>
-  </si>
-  <si>
-    <t>09.11.202523</t>
-  </si>
-  <si>
-    <t>09.11.202524</t>
-  </si>
-  <si>
-    <t>09.11.202525</t>
-  </si>
-  <si>
-    <t>09.11.202526</t>
-  </si>
-  <si>
-    <t>09.11.202527</t>
-  </si>
-  <si>
-    <t>09.11.202528</t>
-  </si>
-  <si>
-    <t>09.11.202529</t>
-  </si>
-  <si>
-    <t>09.11.202530</t>
-  </si>
-  <si>
-    <t>09.11.202531</t>
+    <t>11.11.20251</t>
+  </si>
+  <si>
+    <t>11.11.20252</t>
+  </si>
+  <si>
+    <t>11.11.20253</t>
+  </si>
+  <si>
+    <t>11.11.20254</t>
+  </si>
+  <si>
+    <t>11.11.20255</t>
+  </si>
+  <si>
+    <t>11.11.20256</t>
+  </si>
+  <si>
+    <t>11.11.20257</t>
+  </si>
+  <si>
+    <t>11.11.20258</t>
+  </si>
+  <si>
+    <t>11.11.20259</t>
+  </si>
+  <si>
+    <t>11.11.202510</t>
+  </si>
+  <si>
+    <t>11.11.202511</t>
+  </si>
+  <si>
+    <t>11.11.202512</t>
+  </si>
+  <si>
+    <t>11.11.202513</t>
+  </si>
+  <si>
+    <t>11.11.202514</t>
+  </si>
+  <si>
+    <t>11.11.202515</t>
+  </si>
+  <si>
+    <t>11.11.202516</t>
+  </si>
+  <si>
+    <t>11.11.202517</t>
+  </si>
+  <si>
+    <t>11.11.202518</t>
+  </si>
+  <si>
+    <t>11.11.202519</t>
+  </si>
+  <si>
+    <t>11.11.202520</t>
+  </si>
+  <si>
+    <t>11.11.202521</t>
+  </si>
+  <si>
+    <t>11.11.202522</t>
+  </si>
+  <si>
+    <t>11.11.202523</t>
+  </si>
+  <si>
+    <t>11.11.202524</t>
+  </si>
+  <si>
+    <t>11.11.202525</t>
+  </si>
+  <si>
+    <t>11.11.202526</t>
+  </si>
+  <si>
+    <t>11.11.202527</t>
+  </si>
+  <si>
+    <t>11.11.202528</t>
+  </si>
+  <si>
+    <t>11.11.202529</t>
+  </si>
+  <si>
+    <t>11.11.202530</t>
+  </si>
+  <si>
+    <t>11.11.202531</t>
+  </si>
+  <si>
+    <t>11.11.202532</t>
+  </si>
+  <si>
+    <t>11.11.202533</t>
+  </si>
+  <si>
+    <t>11.11.202534</t>
+  </si>
+  <si>
+    <t>11.11.202535</t>
+  </si>
+  <si>
+    <t>11.11.202536</t>
+  </si>
+  <si>
+    <t>11.11.202537</t>
+  </si>
+  <si>
+    <t>11.11.202538</t>
+  </si>
+  <si>
+    <t>11.11.202539</t>
+  </si>
+  <si>
+    <t>11.11.202540</t>
+  </si>
+  <si>
+    <t>11.11.202541</t>
+  </si>
+  <si>
+    <t>11.11.202542</t>
+  </si>
+  <si>
+    <t>11.11.202543</t>
+  </si>
+  <si>
+    <t>11.11.202544</t>
+  </si>
+  <si>
+    <t>11.11.202545</t>
+  </si>
+  <si>
+    <t>11.11.202546</t>
+  </si>
+  <si>
+    <t>11.11.202547</t>
+  </si>
+  <si>
+    <t>11.11.202548</t>
+  </si>
+  <si>
+    <t>11.11.202549</t>
+  </si>
+  <si>
+    <t>11.11.202550</t>
+  </si>
+  <si>
+    <t>11.11.202551</t>
+  </si>
+  <si>
+    <t>11.11.202552</t>
+  </si>
+  <si>
+    <t>11.11.202553</t>
+  </si>
+  <si>
+    <t>11.11.202554</t>
+  </si>
+  <si>
+    <t>11.11.202555</t>
+  </si>
+  <si>
+    <t>11.11.202556</t>
+  </si>
+  <si>
+    <t>11.11.202557</t>
+  </si>
+  <si>
+    <t>11.11.202558</t>
+  </si>
+  <si>
+    <t>11.11.202559</t>
+  </si>
+  <si>
+    <t>11.11.202560</t>
+  </si>
+  <si>
+    <t>11.11.202561</t>
+  </si>
+  <si>
+    <t>11.11.202562</t>
+  </si>
+  <si>
+    <t>11.11.202563</t>
+  </si>
+  <si>
+    <t>11.11.202564</t>
+  </si>
+  <si>
+    <t>11.11.202565</t>
+  </si>
+  <si>
+    <t>11.11.202566</t>
+  </si>
+  <si>
+    <t>11.11.202567</t>
+  </si>
+  <si>
+    <t>11.11.202568</t>
+  </si>
+  <si>
+    <t>11.11.202569</t>
+  </si>
+  <si>
+    <t>11.11.202570</t>
+  </si>
+  <si>
+    <t>11.11.202571</t>
+  </si>
+  <si>
+    <t>11.11.202572</t>
+  </si>
+  <si>
+    <t>11.11.202573</t>
+  </si>
+  <si>
+    <t>11.11.202574</t>
+  </si>
+  <si>
+    <t>11.11.202575</t>
+  </si>
+  <si>
+    <t>11.11.202576</t>
+  </si>
+  <si>
+    <t>11.11.202577</t>
+  </si>
+  <si>
+    <t>11.11.202578</t>
+  </si>
+  <si>
+    <t>11.11.202579</t>
+  </si>
+  <si>
+    <t>11.11.202580</t>
+  </si>
+  <si>
+    <t>11.11.202581</t>
+  </si>
+  <si>
+    <t>11.11.202582</t>
+  </si>
+  <si>
+    <t>11.11.202583</t>
+  </si>
+  <si>
+    <t>11.11.202584</t>
+  </si>
+  <si>
+    <t>11.11.202585</t>
+  </si>
+  <si>
+    <t>11.11.202586</t>
+  </si>
+  <si>
+    <t>11.11.202587</t>
+  </si>
+  <si>
+    <t>11.11.202588</t>
+  </si>
+  <si>
+    <t>11.11.202589</t>
+  </si>
+  <si>
+    <t>11.11.202590</t>
+  </si>
+  <si>
+    <t>11.11.202591</t>
+  </si>
+  <si>
+    <t>11.11.202592</t>
+  </si>
+  <si>
+    <t>11.11.202593</t>
+  </si>
+  <si>
+    <t>11.11.202594</t>
+  </si>
+  <si>
+    <t>11.11.202595</t>
+  </si>
+  <si>
+    <t>11.11.202596</t>
+  </si>
+  <si>
+    <t>12.11.20251</t>
+  </si>
+  <si>
+    <t>12.11.20252</t>
+  </si>
+  <si>
+    <t>12.11.20253</t>
+  </si>
+  <si>
+    <t>12.11.20254</t>
+  </si>
+  <si>
+    <t>12.11.20255</t>
+  </si>
+  <si>
+    <t>12.11.20256</t>
+  </si>
+  <si>
+    <t>12.11.20257</t>
+  </si>
+  <si>
+    <t>12.11.20258</t>
+  </si>
+  <si>
+    <t>12.11.20259</t>
+  </si>
+  <si>
+    <t>12.11.202510</t>
+  </si>
+  <si>
+    <t>12.11.202511</t>
+  </si>
+  <si>
+    <t>12.11.202512</t>
+  </si>
+  <si>
+    <t>12.11.202513</t>
+  </si>
+  <si>
+    <t>12.11.202514</t>
+  </si>
+  <si>
+    <t>12.11.202515</t>
+  </si>
+  <si>
+    <t>12.11.202516</t>
+  </si>
+  <si>
+    <t>12.11.202517</t>
+  </si>
+  <si>
+    <t>12.11.202518</t>
+  </si>
+  <si>
+    <t>12.11.202519</t>
+  </si>
+  <si>
+    <t>12.11.202520</t>
+  </si>
+  <si>
+    <t>12.11.202521</t>
+  </si>
+  <si>
+    <t>12.11.202522</t>
+  </si>
+  <si>
+    <t>12.11.202523</t>
+  </si>
+  <si>
+    <t>12.11.202524</t>
+  </si>
+  <si>
+    <t>12.11.202525</t>
+  </si>
+  <si>
+    <t>12.11.202526</t>
+  </si>
+  <si>
+    <t>12.11.202527</t>
+  </si>
+  <si>
+    <t>12.11.202528</t>
+  </si>
+  <si>
+    <t>12.11.202529</t>
+  </si>
+  <si>
+    <t>12.11.202530</t>
+  </si>
+  <si>
+    <t>12.11.202531</t>
+  </si>
+  <si>
+    <t>12.11.202532</t>
+  </si>
+  <si>
+    <t>12.11.202533</t>
+  </si>
+  <si>
+    <t>12.11.202534</t>
+  </si>
+  <si>
+    <t>12.11.202535</t>
+  </si>
+  <si>
+    <t>12.11.202536</t>
+  </si>
+  <si>
+    <t>12.11.202537</t>
+  </si>
+  <si>
+    <t>12.11.202538</t>
+  </si>
+  <si>
+    <t>12.11.202539</t>
+  </si>
+  <si>
+    <t>12.11.202540</t>
+  </si>
+  <si>
+    <t>12.11.202541</t>
+  </si>
+  <si>
+    <t>12.11.202542</t>
+  </si>
+  <si>
+    <t>12.11.202543</t>
+  </si>
+  <si>
+    <t>12.11.202544</t>
+  </si>
+  <si>
+    <t>12.11.202545</t>
+  </si>
+  <si>
+    <t>12.11.202546</t>
+  </si>
+  <si>
+    <t>12.11.202547</t>
+  </si>
+  <si>
+    <t>12.11.202548</t>
+  </si>
+  <si>
+    <t>12.11.202549</t>
+  </si>
+  <si>
+    <t>12.11.202550</t>
+  </si>
+  <si>
+    <t>12.11.202551</t>
+  </si>
+  <si>
+    <t>12.11.202552</t>
+  </si>
+  <si>
+    <t>12.11.202553</t>
+  </si>
+  <si>
+    <t>12.11.202554</t>
+  </si>
+  <si>
+    <t>12.11.202555</t>
+  </si>
+  <si>
+    <t>12.11.202556</t>
+  </si>
+  <si>
+    <t>12.11.202557</t>
+  </si>
+  <si>
+    <t>12.11.202558</t>
+  </si>
+  <si>
+    <t>12.11.202559</t>
+  </si>
+  <si>
+    <t>12.11.202560</t>
+  </si>
+  <si>
+    <t>12.11.202561</t>
+  </si>
+  <si>
+    <t>12.11.202562</t>
+  </si>
+  <si>
+    <t>12.11.202563</t>
+  </si>
+  <si>
+    <t>12.11.202564</t>
+  </si>
+  <si>
+    <t>12.11.202565</t>
+  </si>
+  <si>
+    <t>12.11.202566</t>
+  </si>
+  <si>
+    <t>12.11.202567</t>
+  </si>
+  <si>
+    <t>12.11.202568</t>
+  </si>
+  <si>
+    <t>12.11.202569</t>
+  </si>
+  <si>
+    <t>12.11.202570</t>
+  </si>
+  <si>
+    <t>12.11.202571</t>
+  </si>
+  <si>
+    <t>12.11.202572</t>
+  </si>
+  <si>
+    <t>12.11.202573</t>
+  </si>
+  <si>
+    <t>12.11.202574</t>
+  </si>
+  <si>
+    <t>12.11.202575</t>
+  </si>
+  <si>
+    <t>12.11.202576</t>
+  </si>
+  <si>
+    <t>12.11.202577</t>
+  </si>
+  <si>
+    <t>12.11.202578</t>
+  </si>
+  <si>
+    <t>12.11.202579</t>
+  </si>
+  <si>
+    <t>12.11.202580</t>
+  </si>
+  <si>
+    <t>12.11.202581</t>
+  </si>
+  <si>
+    <t>12.11.202582</t>
+  </si>
+  <si>
+    <t>12.11.202583</t>
+  </si>
+  <si>
+    <t>12.11.202584</t>
+  </si>
+  <si>
+    <t>12.11.202585</t>
+  </si>
+  <si>
+    <t>12.11.202586</t>
+  </si>
+  <si>
+    <t>12.11.202587</t>
+  </si>
+  <si>
+    <t>12.11.202588</t>
+  </si>
+  <si>
+    <t>12.11.202589</t>
+  </si>
+  <si>
+    <t>12.11.202590</t>
+  </si>
+  <si>
+    <t>12.11.202591</t>
+  </si>
+  <si>
+    <t>12.11.202592</t>
+  </si>
+  <si>
+    <t>12.11.202593</t>
+  </si>
+  <si>
+    <t>12.11.202594</t>
+  </si>
+  <si>
+    <t>12.11.202595</t>
+  </si>
+  <si>
+    <t>12.11.202596</t>
+  </si>
+  <si>
+    <t>13.11.20251</t>
+  </si>
+  <si>
+    <t>13.11.20252</t>
+  </si>
+  <si>
+    <t>13.11.20253</t>
+  </si>
+  <si>
+    <t>13.11.20254</t>
+  </si>
+  <si>
+    <t>13.11.20255</t>
+  </si>
+  <si>
+    <t>13.11.20256</t>
+  </si>
+  <si>
+    <t>13.11.20257</t>
+  </si>
+  <si>
+    <t>13.11.20258</t>
+  </si>
+  <si>
+    <t>13.11.20259</t>
+  </si>
+  <si>
+    <t>13.11.202510</t>
+  </si>
+  <si>
+    <t>13.11.202511</t>
+  </si>
+  <si>
+    <t>13.11.202512</t>
+  </si>
+  <si>
+    <t>13.11.202513</t>
+  </si>
+  <si>
+    <t>13.11.202514</t>
+  </si>
+  <si>
+    <t>13.11.202515</t>
+  </si>
+  <si>
+    <t>13.11.202516</t>
+  </si>
+  <si>
+    <t>13.11.202517</t>
+  </si>
+  <si>
+    <t>13.11.202518</t>
+  </si>
+  <si>
+    <t>13.11.202519</t>
+  </si>
+  <si>
+    <t>13.11.202520</t>
+  </si>
+  <si>
+    <t>13.11.202521</t>
+  </si>
+  <si>
+    <t>13.11.202522</t>
+  </si>
+  <si>
+    <t>13.11.202523</t>
+  </si>
+  <si>
+    <t>13.11.202524</t>
+  </si>
+  <si>
+    <t>13.11.202525</t>
+  </si>
+  <si>
+    <t>13.11.202526</t>
+  </si>
+  <si>
+    <t>13.11.202527</t>
+  </si>
+  <si>
+    <t>13.11.202528</t>
+  </si>
+  <si>
+    <t>13.11.202529</t>
+  </si>
+  <si>
+    <t>13.11.202530</t>
+  </si>
+  <si>
+    <t>13.11.202531</t>
+  </si>
+  <si>
+    <t>13.11.202532</t>
+  </si>
+  <si>
+    <t>13.11.202533</t>
+  </si>
+  <si>
+    <t>13.11.202534</t>
+  </si>
+  <si>
+    <t>13.11.202535</t>
+  </si>
+  <si>
+    <t>13.11.202536</t>
+  </si>
+  <si>
+    <t>13.11.202537</t>
+  </si>
+  <si>
+    <t>13.11.202538</t>
+  </si>
+  <si>
+    <t>13.11.202539</t>
+  </si>
+  <si>
+    <t>13.11.202540</t>
+  </si>
+  <si>
+    <t>13.11.202541</t>
+  </si>
+  <si>
+    <t>13.11.202542</t>
+  </si>
+  <si>
+    <t>13.11.202543</t>
+  </si>
+  <si>
+    <t>13.11.202544</t>
+  </si>
+  <si>
+    <t>13.11.202545</t>
+  </si>
+  <si>
+    <t>13.11.202546</t>
+  </si>
+  <si>
+    <t>13.11.202547</t>
+  </si>
+  <si>
+    <t>13.11.202548</t>
+  </si>
+  <si>
+    <t>13.11.202549</t>
+  </si>
+  <si>
+    <t>13.11.202550</t>
+  </si>
+  <si>
+    <t>13.11.202551</t>
+  </si>
+  <si>
+    <t>13.11.202553</t>
   </si>
 </sst>
 </file>
@@ -777,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,16 +1159,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>17.976</v>
       </c>
       <c r="C2">
-        <v>0.973</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -831,16 +1182,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45969.01041666666</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B3">
-        <v>4.61</v>
+        <v>2.656</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>36.75</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -854,16 +1205,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45969.02083333334</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B4">
-        <v>18.718</v>
+        <v>9.032999999999999</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -877,16 +1228,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45969.03125</v>
+        <v>45972.03125</v>
       </c>
       <c r="B5">
-        <v>4.113</v>
+        <v>4.559</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.291</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,16 +1251,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45969.04166666666</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B6">
-        <v>4.226</v>
+        <v>0.043</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.511</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -923,13 +1274,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45969.05208333334</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B7">
-        <v>10.28</v>
+        <v>0.298</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -946,13 +1297,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45969.0625</v>
+        <v>45972.0625</v>
       </c>
       <c r="B8">
-        <v>14.03</v>
+        <v>5.846</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -969,13 +1320,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45969.07291666666</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B9">
-        <v>2.203</v>
+        <v>0.329</v>
       </c>
       <c r="C9">
-        <v>0.051</v>
+        <v>0.161</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -992,13 +1343,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45969.08333333334</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.049</v>
+        <v>0.232</v>
       </c>
       <c r="C10">
-        <v>2.551</v>
+        <v>0.152</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1015,13 +1366,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45969.09375</v>
+        <v>45972.09375</v>
       </c>
       <c r="B11">
-        <v>0.004</v>
+        <v>0.441</v>
       </c>
       <c r="C11">
-        <v>9.612</v>
+        <v>0.225</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1038,13 +1389,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45969.10416666666</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B12">
-        <v>5.52</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>12.768</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1061,13 +1412,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45969.11458333334</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.418</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.068</v>
+        <v>15.608</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1084,13 +1435,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45969.125</v>
+        <v>45972.125</v>
       </c>
       <c r="B14">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.616</v>
+        <v>5.502</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1107,13 +1458,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45969.13541666666</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>17.735</v>
+        <v>6.709</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1130,13 +1481,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45969.14583333334</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C16">
-        <v>22.151</v>
+        <v>0.917</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1153,13 +1504,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45969.15625</v>
+        <v>45972.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="C17">
-        <v>18.841</v>
+        <v>5.424</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1176,13 +1527,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45969.16666666666</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="C18">
-        <v>8.746</v>
+        <v>6.573</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1199,13 +1550,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45969.17708333334</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C19">
-        <v>6.225</v>
+        <v>0.339</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1222,13 +1573,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45969.1875</v>
+        <v>45972.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="C20">
-        <v>29.115</v>
+        <v>0.136</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1245,13 +1596,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45969.19791666666</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.197</v>
       </c>
       <c r="C21">
-        <v>12.432</v>
+        <v>0.262</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1268,13 +1619,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45969.20833333334</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.728</v>
       </c>
       <c r="C22">
-        <v>9.771000000000001</v>
+        <v>0.213</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1291,13 +1642,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45969.21875</v>
+        <v>45972.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.207</v>
       </c>
       <c r="C23">
-        <v>2.752</v>
+        <v>2.826</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1314,13 +1665,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45969.22916666666</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C24">
-        <v>17.118</v>
+        <v>4.8</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1337,13 +1688,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45969.23958333334</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>51.757</v>
+        <v>16.342</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1360,13 +1711,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45969.25</v>
+        <v>45972.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>33.27</v>
+        <v>16.215</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1383,13 +1734,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45969.26041666666</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="C27">
-        <v>70.443</v>
+        <v>1.421</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1406,19 +1757,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45969.27083333334</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>30.52</v>
+        <v>37.904</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1429,19 +1780,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45969.28125</v>
+        <v>45972.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="C29">
-        <v>15.779</v>
+        <v>6.226</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1452,19 +1803,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45969.29166666666</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="C30">
-        <v>46.907</v>
+        <v>0.51</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>36.75</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1475,19 +1826,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45969.30208333334</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.028</v>
+        <v>0.043</v>
       </c>
       <c r="C31">
-        <v>5.283</v>
+        <v>7.918</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1498,19 +1849,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45969.3125</v>
+        <v>45972.3125</v>
       </c>
       <c r="B32">
-        <v>1.271</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>2.351</v>
+        <v>8.509</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1521,19 +1872,19 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45969.32291666666</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B33">
-        <v>1.211</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.206</v>
+        <v>38.99</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1544,19 +1895,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45969.33333333334</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B34">
-        <v>23.99</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>16.676</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1567,19 +1918,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45969.34375</v>
+        <v>45972.34375</v>
       </c>
       <c r="B35">
-        <v>40.485</v>
+        <v>0.013</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1.797</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1590,19 +1941,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45969.35416666666</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B36">
-        <v>4.302</v>
+        <v>0.005</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2.834</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1613,19 +1964,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45969.36458333334</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B37">
-        <v>1.243</v>
+        <v>0.024</v>
       </c>
       <c r="C37">
-        <v>0.021</v>
+        <v>2.832</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1636,19 +1987,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45969.375</v>
+        <v>45972.375</v>
       </c>
       <c r="B38">
-        <v>54.265</v>
+        <v>0.639</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.456</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1659,13 +2010,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45969.38541666666</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B39">
-        <v>36.682</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>4.257</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1682,13 +2033,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45969.39583333334</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B40">
-        <v>18.054</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>7.504</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1705,13 +2056,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45969.40625</v>
+        <v>45972.40625</v>
       </c>
       <c r="B41">
-        <v>10.122</v>
+        <v>0.013</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4.498</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1728,13 +2079,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45969.41666666666</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B42">
-        <v>0.979</v>
+        <v>0.049</v>
       </c>
       <c r="C42">
-        <v>4.009</v>
+        <v>1.889</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1751,19 +2102,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45969.42708333334</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.597</v>
       </c>
       <c r="C43">
-        <v>6.773</v>
+        <v>0.081</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1774,19 +2125,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45969.4375</v>
+        <v>45972.4375</v>
       </c>
       <c r="B44">
-        <v>0.233</v>
+        <v>0.05</v>
       </c>
       <c r="C44">
-        <v>0.183</v>
+        <v>2.398</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1797,19 +2148,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45969.44791666666</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B45">
-        <v>2.51</v>
+        <v>0.633</v>
       </c>
       <c r="C45">
-        <v>0.924</v>
+        <v>0.772</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1820,13 +2171,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45969.45833333334</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.015</v>
+        <v>0.328</v>
       </c>
       <c r="C46">
-        <v>4.985</v>
+        <v>0.272</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1843,13 +2194,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45969.46875</v>
+        <v>45972.46875</v>
       </c>
       <c r="B47">
-        <v>0.034</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C47">
-        <v>2.362</v>
+        <v>6.736</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1866,19 +2217,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45969.47916666666</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B48">
-        <v>1.745</v>
+        <v>1.683</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1889,19 +2240,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45969.48958333334</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B49">
-        <v>3.854</v>
+        <v>3.302</v>
       </c>
       <c r="C49">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1912,19 +2263,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45969.5</v>
+        <v>45972.5</v>
       </c>
       <c r="B50">
-        <v>1.028</v>
+        <v>1.642</v>
       </c>
       <c r="C50">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1935,19 +2286,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45969.51041666666</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.371</v>
+        <v>12.459</v>
       </c>
       <c r="C51">
-        <v>0.788</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1958,10 +2309,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45969.52083333334</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B52">
-        <v>9.449</v>
+        <v>39.756</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1970,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -1981,10 +2332,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45969.53125</v>
+        <v>45972.53125</v>
       </c>
       <c r="B53">
-        <v>11.067</v>
+        <v>49.613</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1993,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -2004,16 +2355,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45969.54166666666</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B54">
-        <v>17.334</v>
+        <v>4.537</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2027,16 +2378,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45969.55208333334</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B55">
-        <v>3.166</v>
+        <v>1.829</v>
       </c>
       <c r="C55">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2050,16 +2401,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45969.5625</v>
+        <v>45972.5625</v>
       </c>
       <c r="B56">
-        <v>16.291</v>
+        <v>9.718</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2073,16 +2424,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45969.57291666666</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B57">
-        <v>20.056</v>
+        <v>8.760999999999999</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1.097</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2096,13 +2447,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45969.58333333334</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B58">
-        <v>8.955</v>
+        <v>0.004</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>11.58</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2119,13 +2470,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45969.59375</v>
+        <v>45972.59375</v>
       </c>
       <c r="B59">
-        <v>1.294</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.164</v>
+        <v>11.731</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2142,13 +2493,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45969.60416666666</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.224</v>
+        <v>1.812</v>
       </c>
       <c r="C60">
-        <v>0.08699999999999999</v>
+        <v>0.896</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2165,13 +2516,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45969.61458333334</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B61">
-        <v>0.212</v>
+        <v>6.649</v>
       </c>
       <c r="C61">
-        <v>0.257</v>
+        <v>0.02</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2188,13 +2539,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45969.625</v>
+        <v>45972.625</v>
       </c>
       <c r="B62">
-        <v>0.008</v>
+        <v>11.879</v>
       </c>
       <c r="C62">
-        <v>0.5580000000000001</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2211,13 +2562,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45969.63541666666</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.029</v>
+        <v>15.55</v>
       </c>
       <c r="C63">
-        <v>1.051</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2234,13 +2585,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45969.64583333334</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B64">
-        <v>0.382</v>
+        <v>2.597</v>
       </c>
       <c r="C64">
-        <v>0.206</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2257,19 +2608,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45969.65625</v>
+        <v>45972.65625</v>
       </c>
       <c r="B65">
-        <v>2.203</v>
+        <v>39.268</v>
       </c>
       <c r="C65">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -2280,19 +2631,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45969.66666666666</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B66">
-        <v>1.302</v>
+        <v>40.088</v>
       </c>
       <c r="C66">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>65</v>
@@ -2303,13 +2654,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45969.67708333334</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.01</v>
+        <v>63.624</v>
       </c>
       <c r="C67">
-        <v>0.953</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2326,13 +2677,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45969.6875</v>
+        <v>45972.6875</v>
       </c>
       <c r="B68">
-        <v>0.11</v>
+        <v>84.16</v>
       </c>
       <c r="C68">
-        <v>0.257</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2349,19 +2700,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45969.69791666666</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B69">
-        <v>1.22</v>
+        <v>83.699</v>
       </c>
       <c r="C69">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -2372,19 +2723,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45969.70833333334</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B70">
-        <v>0.161</v>
+        <v>16.285</v>
       </c>
       <c r="C70">
-        <v>0.287</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>91.25</v>
       </c>
       <c r="E70">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -2395,19 +2746,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45969.71875</v>
+        <v>45972.71875</v>
       </c>
       <c r="B71">
-        <v>0.08799999999999999</v>
+        <v>9.223000000000001</v>
       </c>
       <c r="C71">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>91.25</v>
       </c>
       <c r="E71">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -2418,19 +2769,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45969.72916666666</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.224</v>
+        <v>6.564</v>
       </c>
       <c r="C72">
-        <v>0.204</v>
+        <v>0.312</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>88.25</v>
       </c>
       <c r="E72">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -2441,19 +2792,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45969.73958333334</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.223</v>
+        <v>2.09</v>
       </c>
       <c r="C73">
-        <v>1.507</v>
+        <v>0.098</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>88.25</v>
       </c>
       <c r="E73">
-        <v>96.75</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2464,19 +2815,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45969.75</v>
+        <v>45972.75</v>
       </c>
       <c r="B74">
-        <v>1.067</v>
+        <v>0.013</v>
       </c>
       <c r="C74">
-        <v>0.213</v>
+        <v>3.774</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>91.5</v>
       </c>
       <c r="E74">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>73</v>
@@ -2487,19 +2838,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45969.76041666666</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>1.317</v>
+        <v>3.584</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>88.25</v>
       </c>
       <c r="E75">
-        <v>76.75</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>74</v>
@@ -2510,19 +2861,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45969.77083333334</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="C76">
-        <v>12.385</v>
+        <v>6.152</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E76">
-        <v>76.75</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>75</v>
@@ -2533,19 +2884,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45969.78125</v>
+        <v>45972.78125</v>
       </c>
       <c r="B77">
-        <v>0.002</v>
+        <v>0.101</v>
       </c>
       <c r="C77">
-        <v>1.851</v>
+        <v>0.662</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E77">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>76</v>
@@ -2556,19 +2907,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45969.79166666666</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B78">
-        <v>14.508</v>
+        <v>0.249</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E78">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>77</v>
@@ -2579,19 +2930,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45969.80208333334</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B79">
-        <v>13.756</v>
+        <v>39.835</v>
       </c>
       <c r="C79">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -2602,19 +2953,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45969.8125</v>
+        <v>45972.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>50.234</v>
       </c>
       <c r="C80">
-        <v>17.853</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2625,19 +2976,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45969.82291666666</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>48.259</v>
       </c>
       <c r="C81">
-        <v>12.754</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -2648,19 +2999,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45969.83333333334</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B82">
-        <v>0.015</v>
+        <v>49.309</v>
       </c>
       <c r="C82">
-        <v>9.489000000000001</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -2671,19 +3022,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45969.84375</v>
+        <v>45972.84375</v>
       </c>
       <c r="B83">
-        <v>0.076</v>
+        <v>20.534</v>
       </c>
       <c r="C83">
-        <v>4.792</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E83">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -2694,19 +3045,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45969.85416666666</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.922</v>
       </c>
       <c r="C84">
-        <v>14.939</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -2717,19 +3068,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45969.86458333334</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B85">
-        <v>0.026</v>
+        <v>0.237</v>
       </c>
       <c r="C85">
-        <v>1.157</v>
+        <v>0.109</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -2740,19 +3091,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45969.875</v>
+        <v>45972.875</v>
       </c>
       <c r="B86">
-        <v>5.248</v>
+        <v>24.603</v>
       </c>
       <c r="C86">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>85</v>
@@ -2763,19 +3114,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45969.88541666666</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B87">
-        <v>3.666</v>
+        <v>2.295</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.171</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>86</v>
@@ -2786,19 +3137,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45969.89583333334</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B88">
-        <v>15.02</v>
+        <v>3.121</v>
       </c>
       <c r="C88">
-        <v>0.047</v>
+        <v>0.028</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>87</v>
@@ -2809,19 +3160,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45969.90625</v>
+        <v>45972.90625</v>
       </c>
       <c r="B89">
-        <v>34.935</v>
+        <v>0.03</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>5.148</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>88</v>
@@ -2832,19 +3183,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45969.91666666666</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B90">
-        <v>19.182</v>
+        <v>6.805</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1.988</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>89</v>
@@ -2855,19 +3206,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45969.92708333334</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B91">
-        <v>0.608</v>
+        <v>0.111</v>
       </c>
       <c r="C91">
-        <v>0.038</v>
+        <v>0.66</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>90</v>
@@ -2878,19 +3229,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45969.9375</v>
+        <v>45972.9375</v>
       </c>
       <c r="B92">
-        <v>9.257999999999999</v>
+        <v>8.542999999999999</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>91</v>
@@ -2901,13 +3252,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45969.94791666666</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B93">
-        <v>1.462</v>
+        <v>2.53</v>
       </c>
       <c r="C93">
-        <v>4.137</v>
+        <v>1.894</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2924,13 +3275,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="C94">
-        <v>19.972</v>
+        <v>0.985</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2947,13 +3298,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="C95">
-        <v>19.972</v>
+        <v>0.985</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2970,13 +3321,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.619</v>
       </c>
       <c r="C96">
-        <v>34.616</v>
+        <v>0.061</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2993,13 +3344,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.619</v>
       </c>
       <c r="C97">
-        <v>34.616</v>
+        <v>0.061</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3016,13 +3367,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="C98">
-        <v>23.372</v>
+        <v>0.002</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3039,13 +3390,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="C99">
-        <v>23.372</v>
+        <v>0.002</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3062,19 +3413,19 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="C100">
-        <v>27.159</v>
+        <v>3.93</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>96</v>
@@ -3085,19 +3436,19 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="C101">
-        <v>27.159</v>
+        <v>3.93</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>96</v>
@@ -3108,19 +3459,19 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>16.407</v>
+        <v>22.804</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3131,19 +3482,19 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>16.407</v>
+        <v>22.804</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3154,19 +3505,19 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45970.01041666666</v>
+        <v>45973.01041666666</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>8.215</v>
+        <v>11.862</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -3177,19 +3528,19 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45970.01041666666</v>
+        <v>45973.01041666666</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>8.215</v>
+        <v>11.862</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -3200,19 +3551,19 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45970.02083333334</v>
+        <v>45973.02083333334</v>
       </c>
       <c r="B106">
-        <v>3.508</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0.209</v>
+        <v>16.987</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>3</v>
@@ -3223,19 +3574,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45970.02083333334</v>
+        <v>45973.02083333334</v>
       </c>
       <c r="B107">
-        <v>3.508</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.209</v>
+        <v>16.987</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>3</v>
@@ -3246,19 +3597,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45970.03125</v>
+        <v>45973.03125</v>
       </c>
       <c r="B108">
-        <v>0.334</v>
+        <v>0.081</v>
       </c>
       <c r="C108">
-        <v>0.144</v>
+        <v>0.784</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>4</v>
@@ -3269,19 +3620,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45970.03125</v>
+        <v>45973.03125</v>
       </c>
       <c r="B109">
-        <v>0.334</v>
+        <v>0.081</v>
       </c>
       <c r="C109">
-        <v>0.144</v>
+        <v>0.784</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>4</v>
@@ -3292,19 +3643,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45970.04166666666</v>
+        <v>45973.04166666666</v>
       </c>
       <c r="B110">
-        <v>0.042</v>
+        <v>0.005</v>
       </c>
       <c r="C110">
-        <v>2.576</v>
+        <v>1.729</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -3315,13 +3666,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45970.05208333334</v>
+        <v>45973.05208333334</v>
       </c>
       <c r="B111">
-        <v>0.027</v>
+        <v>0.038</v>
       </c>
       <c r="C111">
-        <v>0.468</v>
+        <v>0.419</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3338,13 +3689,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45970.0625</v>
+        <v>45973.0625</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="C112">
-        <v>3.042</v>
+        <v>0.279</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3361,13 +3712,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45970.07291666666</v>
+        <v>45973.07291666666</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="C113">
-        <v>12.484</v>
+        <v>0.739</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3384,13 +3735,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45970.08333333334</v>
+        <v>45973.08333333334</v>
       </c>
       <c r="B114">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="C114">
-        <v>3.434</v>
+        <v>0.591</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3407,13 +3758,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45970.09375</v>
+        <v>45973.09375</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="C115">
-        <v>1.415</v>
+        <v>0.901</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3430,13 +3781,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45970.10416666666</v>
+        <v>45973.10416666666</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="C116">
-        <v>11.864</v>
+        <v>0.915</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3453,13 +3804,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45970.11458333334</v>
+        <v>45973.11458333334</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="C117">
-        <v>9.255000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3476,13 +3827,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45970.125</v>
+        <v>45973.125</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C118">
-        <v>8.294</v>
+        <v>4.164</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3499,13 +3850,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45970.13541666666</v>
+        <v>45973.13541666666</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>6.21</v>
+        <v>24.95</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3522,13 +3873,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45970.14583333334</v>
+        <v>45973.14583333334</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>2.507</v>
+        <v>6.376</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3545,13 +3896,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45970.15625</v>
+        <v>45973.15625</v>
       </c>
       <c r="B121">
-        <v>0.07099999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="C121">
-        <v>0.41</v>
+        <v>2.677</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3568,10 +3919,10 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45970.16666666666</v>
+        <v>45973.16666666666</v>
       </c>
       <c r="B122">
-        <v>0.07199999999999999</v>
+        <v>0.054</v>
       </c>
       <c r="C122">
         <v>0.741</v>
@@ -3591,13 +3942,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45970.17708333334</v>
+        <v>45973.17708333334</v>
       </c>
       <c r="B123">
-        <v>0.07000000000000001</v>
+        <v>3.306</v>
       </c>
       <c r="C123">
-        <v>0.252</v>
+        <v>2.091</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3614,13 +3965,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45970.1875</v>
+        <v>45973.1875</v>
       </c>
       <c r="B124">
-        <v>0.038</v>
+        <v>7.859</v>
       </c>
       <c r="C124">
-        <v>4.966</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3637,13 +3988,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45970.19791666666</v>
+        <v>45973.19791666666</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>4.241</v>
       </c>
       <c r="C125">
-        <v>20.001</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3660,13 +4011,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45970.20833333334</v>
+        <v>45973.20833333334</v>
       </c>
       <c r="B126">
-        <v>0.018</v>
+        <v>5.08</v>
       </c>
       <c r="C126">
-        <v>3.626</v>
+        <v>0.092</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3683,13 +4034,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45970.21875</v>
+        <v>45973.21875</v>
       </c>
       <c r="B127">
-        <v>0.065</v>
+        <v>7.428</v>
       </c>
       <c r="C127">
-        <v>1.122</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3706,13 +4057,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45970.22916666666</v>
+        <v>45973.22916666666</v>
       </c>
       <c r="B128">
-        <v>0.005</v>
+        <v>10.252</v>
       </c>
       <c r="C128">
-        <v>7.185</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3729,13 +4080,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45970.23958333334</v>
+        <v>45973.23958333334</v>
       </c>
       <c r="B129">
-        <v>0.003</v>
+        <v>15.276</v>
       </c>
       <c r="C129">
-        <v>5.678</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3752,13 +4103,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45970.25</v>
+        <v>45973.25</v>
       </c>
       <c r="B130">
-        <v>0.065</v>
+        <v>6.445</v>
       </c>
       <c r="C130">
-        <v>0.4</v>
+        <v>0.017</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3775,13 +4126,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45970.26041666666</v>
+        <v>45973.26041666666</v>
       </c>
       <c r="B131">
-        <v>0.004</v>
+        <v>9.404</v>
       </c>
       <c r="C131">
-        <v>5.006</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3798,13 +4149,13 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45970.27083333334</v>
+        <v>45973.27083333334</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>12.973</v>
       </c>
       <c r="C132">
-        <v>23.052</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3821,19 +4172,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45970.28125</v>
+        <v>45973.28125</v>
       </c>
       <c r="B133">
-        <v>0.01</v>
+        <v>3.076</v>
       </c>
       <c r="C133">
-        <v>7.354</v>
+        <v>3.512</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>28</v>
@@ -3844,19 +4195,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45970.29166666666</v>
+        <v>45973.29166666666</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="C134">
-        <v>13.182</v>
+        <v>3.119</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>29</v>
@@ -3867,19 +4218,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45970.30208333334</v>
+        <v>45973.30208333334</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>3.959</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>30</v>
@@ -3890,25 +4241,2900 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45970.3125</v>
+        <v>45973.3125</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2.919</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45973.32291666666</v>
+      </c>
+      <c r="B137">
+        <v>0.384</v>
+      </c>
+      <c r="C137">
+        <v>0.116</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>45973.33333333334</v>
+      </c>
+      <c r="B138">
+        <v>18.596</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>45973.34375</v>
+      </c>
+      <c r="B139">
+        <v>27.261</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>45973.35416666666</v>
+      </c>
+      <c r="B140">
+        <v>43.836</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>45973.36458333334</v>
+      </c>
+      <c r="B141">
+        <v>24.248</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>45973.375</v>
+      </c>
+      <c r="B142">
+        <v>13.75</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>45973.38541666666</v>
+      </c>
+      <c r="B143">
+        <v>22.851</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45973.39583333334</v>
+      </c>
+      <c r="B144">
+        <v>11.585</v>
+      </c>
+      <c r="C144">
+        <v>0.005</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45973.40625</v>
+      </c>
+      <c r="B145">
+        <v>0.139</v>
+      </c>
+      <c r="C145">
+        <v>0.669</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45973.41666666666</v>
+      </c>
+      <c r="B146">
+        <v>1.438</v>
+      </c>
+      <c r="C146">
+        <v>0.014</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>41</v>
+      </c>
+      <c r="G146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45973.42708333334</v>
+      </c>
+      <c r="B147">
+        <v>3.362</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>45973.4375</v>
+      </c>
+      <c r="B148">
+        <v>22.891</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>43</v>
+      </c>
+      <c r="G148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>45973.44791666666</v>
+      </c>
+      <c r="B149">
+        <v>19.848</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>45973.45833333334</v>
+      </c>
+      <c r="B150">
+        <v>45.919</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>45973.46875</v>
+      </c>
+      <c r="B151">
+        <v>52.382</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>45973.47916666666</v>
+      </c>
+      <c r="B152">
+        <v>59.461</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>47</v>
+      </c>
+      <c r="G152" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>45973.48958333334</v>
+      </c>
+      <c r="B153">
+        <v>67.5</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>48</v>
+      </c>
+      <c r="G153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>45973.5</v>
+      </c>
+      <c r="B154">
+        <v>34.727</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>37.5</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>45973.51041666666</v>
+      </c>
+      <c r="B155">
+        <v>13.237</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>37.5</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>45973.52083333334</v>
+      </c>
+      <c r="B156">
+        <v>12.033</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>24.25</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>45973.53125</v>
+      </c>
+      <c r="B157">
+        <v>0.243</v>
+      </c>
+      <c r="C157">
+        <v>0.25</v>
+      </c>
+      <c r="D157">
+        <v>24.25</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>52</v>
+      </c>
+      <c r="G157" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>45973.54166666666</v>
+      </c>
+      <c r="B158">
+        <v>0.094</v>
+      </c>
+      <c r="C158">
+        <v>0.373</v>
+      </c>
+      <c r="D158">
+        <v>37.5</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>53</v>
+      </c>
+      <c r="G158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>45973.55208333334</v>
+      </c>
+      <c r="B159">
+        <v>0.284</v>
+      </c>
+      <c r="C159">
+        <v>0.077</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>54</v>
+      </c>
+      <c r="G159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>45973.5625</v>
+      </c>
+      <c r="B160">
+        <v>0.344</v>
+      </c>
+      <c r="C160">
+        <v>0.041</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>45973.57291666666</v>
+      </c>
+      <c r="B161">
+        <v>0.161</v>
+      </c>
+      <c r="C161">
+        <v>0.255</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>56</v>
+      </c>
+      <c r="G161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>45973.58333333334</v>
+      </c>
+      <c r="B162">
+        <v>0.147</v>
+      </c>
+      <c r="C162">
+        <v>2.06</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>57</v>
+      </c>
+      <c r="G162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>45973.59375</v>
+      </c>
+      <c r="B163">
+        <v>0.213</v>
+      </c>
+      <c r="C163">
+        <v>0.099</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>58</v>
+      </c>
+      <c r="G163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>45973.60416666666</v>
+      </c>
+      <c r="B164">
+        <v>0.029</v>
+      </c>
+      <c r="C164">
+        <v>0.208</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>59</v>
+      </c>
+      <c r="G164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>45973.61458333334</v>
+      </c>
+      <c r="B165">
+        <v>0.186</v>
+      </c>
+      <c r="C165">
+        <v>0.131</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>60</v>
+      </c>
+      <c r="G165" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>45973.625</v>
+      </c>
+      <c r="B166">
+        <v>3.962</v>
+      </c>
+      <c r="C166">
+        <v>0.031</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>61</v>
+      </c>
+      <c r="G166" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>45973.63541666666</v>
+      </c>
+      <c r="B167">
+        <v>0.848</v>
+      </c>
+      <c r="C167">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>62</v>
+      </c>
+      <c r="G167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>45973.64583333334</v>
+      </c>
+      <c r="B168">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="C168">
+        <v>0.266</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>63</v>
+      </c>
+      <c r="G168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>45973.65625</v>
+      </c>
+      <c r="B169">
+        <v>8.659000000000001</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>64</v>
+      </c>
+      <c r="G169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>45973.66666666666</v>
+      </c>
+      <c r="B170">
+        <v>2.703</v>
+      </c>
+      <c r="C170">
+        <v>0.005</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>65</v>
+      </c>
+      <c r="G170" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>45973.67708333334</v>
+      </c>
+      <c r="B171">
+        <v>0.28</v>
+      </c>
+      <c r="C171">
+        <v>0.006</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>66</v>
+      </c>
+      <c r="G171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>45973.6875</v>
+      </c>
+      <c r="B172">
+        <v>0.105</v>
+      </c>
+      <c r="C172">
+        <v>0.304</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>67</v>
+      </c>
+      <c r="G172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>45973.69791666666</v>
+      </c>
+      <c r="B173">
+        <v>0.242</v>
+      </c>
+      <c r="C173">
+        <v>0.134</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>68</v>
+      </c>
+      <c r="G173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>45973.70833333334</v>
+      </c>
+      <c r="B174">
+        <v>0.101</v>
+      </c>
+      <c r="C174">
+        <v>0.283</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>69</v>
+      </c>
+      <c r="G174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>45973.71875</v>
+      </c>
+      <c r="B175">
+        <v>0.103</v>
+      </c>
+      <c r="C175">
+        <v>0.247</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>70</v>
+      </c>
+      <c r="G175" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>45973.72916666666</v>
+      </c>
+      <c r="B176">
+        <v>0.048</v>
+      </c>
+      <c r="C176">
+        <v>2.919</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>71</v>
+      </c>
+      <c r="G176" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>45973.73958333334</v>
+      </c>
+      <c r="B177">
+        <v>0.001</v>
+      </c>
+      <c r="C177">
+        <v>4.738</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>20</v>
+      </c>
+      <c r="F177">
+        <v>72</v>
+      </c>
+      <c r="G177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>45973.75</v>
+      </c>
+      <c r="B178">
+        <v>0.111</v>
+      </c>
+      <c r="C178">
+        <v>1.532</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>20</v>
+      </c>
+      <c r="F178">
+        <v>73</v>
+      </c>
+      <c r="G178" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>45973.76041666666</v>
+      </c>
+      <c r="B179">
+        <v>0.285</v>
+      </c>
+      <c r="C179">
+        <v>0.079</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>20</v>
+      </c>
+      <c r="F179">
+        <v>74</v>
+      </c>
+      <c r="G179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>45973.77083333334</v>
+      </c>
+      <c r="B180">
+        <v>0.309</v>
+      </c>
+      <c r="C180">
+        <v>0.081</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>20</v>
+      </c>
+      <c r="F180">
+        <v>75</v>
+      </c>
+      <c r="G180" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>45973.78125</v>
+      </c>
+      <c r="B181">
+        <v>12.379</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>20</v>
+      </c>
+      <c r="F181">
+        <v>76</v>
+      </c>
+      <c r="G181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>45973.79166666666</v>
+      </c>
+      <c r="B182">
+        <v>0.744</v>
+      </c>
+      <c r="C182">
+        <v>0.128</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>77</v>
+      </c>
+      <c r="G182" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>45973.80208333334</v>
+      </c>
+      <c r="B183">
+        <v>0.271</v>
+      </c>
+      <c r="C183">
+        <v>0.121</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>78</v>
+      </c>
+      <c r="G183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>45973.8125</v>
+      </c>
+      <c r="B184">
+        <v>0.109</v>
+      </c>
+      <c r="C184">
+        <v>0.639</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>79</v>
+      </c>
+      <c r="G184" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>45973.82291666666</v>
+      </c>
+      <c r="B185">
+        <v>0.002</v>
+      </c>
+      <c r="C185">
+        <v>5.004</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>45973.83333333334</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>11.771</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>81</v>
+      </c>
+      <c r="G186" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>45973.84375</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>34.601</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>82</v>
+      </c>
+      <c r="G187" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>45973.85416666666</v>
+      </c>
+      <c r="B188">
+        <v>0.006</v>
+      </c>
+      <c r="C188">
+        <v>4.325</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>25</v>
+      </c>
+      <c r="F188">
+        <v>83</v>
+      </c>
+      <c r="G188" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>45973.86458333334</v>
+      </c>
+      <c r="B189">
+        <v>1.325</v>
+      </c>
+      <c r="C189">
+        <v>0.344</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>25</v>
+      </c>
+      <c r="F189">
+        <v>84</v>
+      </c>
+      <c r="G189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>45973.875</v>
+      </c>
+      <c r="B190">
+        <v>0.164</v>
+      </c>
+      <c r="C190">
+        <v>0.617</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>85</v>
+      </c>
+      <c r="G190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>45973.88541666666</v>
+      </c>
+      <c r="B191">
+        <v>0.022</v>
+      </c>
+      <c r="C191">
+        <v>3.695</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>86</v>
+      </c>
+      <c r="G191" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>45973.89583333334</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>4.481</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>87</v>
+      </c>
+      <c r="G192" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>45973.90625</v>
+      </c>
+      <c r="B193">
+        <v>0.004</v>
+      </c>
+      <c r="C193">
+        <v>8.839</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>88</v>
+      </c>
+      <c r="G193" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>45973.91666666666</v>
+      </c>
+      <c r="B194">
+        <v>0.849</v>
+      </c>
+      <c r="C194">
+        <v>2.664</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>89</v>
+      </c>
+      <c r="G194" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>45973.92708333334</v>
+      </c>
+      <c r="B195">
+        <v>0.132</v>
+      </c>
+      <c r="C195">
+        <v>3.976</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>90</v>
+      </c>
+      <c r="G195" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>45973.9375</v>
+      </c>
+      <c r="B196">
+        <v>0.102</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>91</v>
+      </c>
+      <c r="G196" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>45973.94791666666</v>
+      </c>
+      <c r="B197">
+        <v>0.067</v>
+      </c>
+      <c r="C197">
+        <v>3.459</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>92</v>
+      </c>
+      <c r="G197" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>45973.95833333334</v>
+      </c>
+      <c r="B198">
+        <v>0.241</v>
+      </c>
+      <c r="C198">
+        <v>3.982</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>25</v>
+      </c>
+      <c r="F198">
+        <v>93</v>
+      </c>
+      <c r="G198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>45973.95833333334</v>
+      </c>
+      <c r="B199">
+        <v>0.241</v>
+      </c>
+      <c r="C199">
+        <v>3.982</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>25</v>
+      </c>
+      <c r="F199">
+        <v>93</v>
+      </c>
+      <c r="G199" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>45973.96875</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>10.973</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>25</v>
+      </c>
+      <c r="F200">
+        <v>94</v>
+      </c>
+      <c r="G200" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>45973.96875</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>10.973</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>25</v>
+      </c>
+      <c r="F201">
+        <v>94</v>
+      </c>
+      <c r="G201" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>45973.97916666666</v>
+      </c>
+      <c r="B202">
+        <v>0.108</v>
+      </c>
+      <c r="C202">
+        <v>4.369</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>25</v>
+      </c>
+      <c r="F202">
+        <v>95</v>
+      </c>
+      <c r="G202" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
+        <v>45973.97916666666</v>
+      </c>
+      <c r="B203">
+        <v>0.108</v>
+      </c>
+      <c r="C203">
+        <v>4.369</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>25</v>
+      </c>
+      <c r="F203">
+        <v>95</v>
+      </c>
+      <c r="G203" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
+        <v>45973.98958333334</v>
+      </c>
+      <c r="B204">
+        <v>0.033</v>
+      </c>
+      <c r="C204">
+        <v>5.807</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>25</v>
+      </c>
+      <c r="F204">
+        <v>96</v>
+      </c>
+      <c r="G204" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
+        <v>45973.98958333334</v>
+      </c>
+      <c r="B205">
+        <v>0.033</v>
+      </c>
+      <c r="C205">
+        <v>5.807</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>25</v>
+      </c>
+      <c r="F205">
+        <v>96</v>
+      </c>
+      <c r="G205" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>10.351</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>10.351</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
+        <v>45974.01041666666</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>1.798</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="G208" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
+        <v>45974.01041666666</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1.798</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>2</v>
+      </c>
+      <c r="G209" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
+        <v>45974.02083333334</v>
+      </c>
+      <c r="B210">
+        <v>0.224</v>
+      </c>
+      <c r="C210">
+        <v>0.219</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>3</v>
+      </c>
+      <c r="G210" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>45974.02083333334</v>
+      </c>
+      <c r="B211">
+        <v>0.224</v>
+      </c>
+      <c r="C211">
+        <v>0.219</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>3</v>
+      </c>
+      <c r="G211" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
+        <v>45974.03125</v>
+      </c>
+      <c r="B212">
+        <v>0.622</v>
+      </c>
+      <c r="C212">
+        <v>2.579</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>4</v>
+      </c>
+      <c r="G212" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
+        <v>45974.03125</v>
+      </c>
+      <c r="B213">
+        <v>0.622</v>
+      </c>
+      <c r="C213">
+        <v>2.579</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
+      </c>
+      <c r="G213" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
+        <v>45974.04166666666</v>
+      </c>
+      <c r="B214">
+        <v>2.837</v>
+      </c>
+      <c r="C214">
+        <v>1.35</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>5</v>
+      </c>
+      <c r="G214" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
+        <v>45974.05208333334</v>
+      </c>
+      <c r="B215">
+        <v>2.987</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>6</v>
+      </c>
+      <c r="G215" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
+        <v>45974.0625</v>
+      </c>
+      <c r="B216">
+        <v>7.913</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>7</v>
+      </c>
+      <c r="G216" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
+        <v>45974.07291666666</v>
+      </c>
+      <c r="B217">
+        <v>0.341</v>
+      </c>
+      <c r="C217">
+        <v>0.097</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>45974.08333333334</v>
+      </c>
+      <c r="B218">
+        <v>1.732</v>
+      </c>
+      <c r="C218">
+        <v>0.001</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>9</v>
+      </c>
+      <c r="G218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>45974.09375</v>
+      </c>
+      <c r="B219">
+        <v>0.744</v>
+      </c>
+      <c r="C219">
+        <v>0.51</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
+        <v>45974.10416666666</v>
+      </c>
+      <c r="B220">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="C220">
+        <v>0.104</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>11</v>
+      </c>
+      <c r="G220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
+        <v>45974.11458333334</v>
+      </c>
+      <c r="B221">
+        <v>3.229</v>
+      </c>
+      <c r="C221">
+        <v>0.004</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
+        <v>45974.125</v>
+      </c>
+      <c r="B222">
+        <v>0.16</v>
+      </c>
+      <c r="C222">
+        <v>0.488</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
+        <v>45974.13541666666</v>
+      </c>
+      <c r="B223">
+        <v>0.018</v>
+      </c>
+      <c r="C223">
+        <v>0.311</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
+        <v>45974.14583333334</v>
+      </c>
+      <c r="B224">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C224">
+        <v>1.676</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="2">
+        <v>45974.15625</v>
+      </c>
+      <c r="B225">
+        <v>2.64</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>16</v>
+      </c>
+      <c r="G225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="2">
+        <v>45974.16666666666</v>
+      </c>
+      <c r="B226">
+        <v>0.374</v>
+      </c>
+      <c r="C226">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>17</v>
+      </c>
+      <c r="G226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
+        <v>45974.17708333334</v>
+      </c>
+      <c r="B227">
+        <v>3.852</v>
+      </c>
+      <c r="C227">
+        <v>0.057</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>18</v>
+      </c>
+      <c r="G227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
+        <v>45974.1875</v>
+      </c>
+      <c r="B228">
+        <v>3.649</v>
+      </c>
+      <c r="C228">
+        <v>0.012</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>19</v>
+      </c>
+      <c r="G228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
+        <v>45974.19791666666</v>
+      </c>
+      <c r="B229">
+        <v>9.842000000000001</v>
+      </c>
+      <c r="C229">
+        <v>0.02</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
+        <v>45974.20833333334</v>
+      </c>
+      <c r="B230">
+        <v>2.141</v>
+      </c>
+      <c r="C230">
+        <v>0.008</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>21</v>
+      </c>
+      <c r="G230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="2">
+        <v>45974.21875</v>
+      </c>
+      <c r="B231">
+        <v>2.584</v>
+      </c>
+      <c r="C231">
+        <v>0.022</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>22</v>
+      </c>
+      <c r="G231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
+        <v>45974.22916666666</v>
+      </c>
+      <c r="B232">
+        <v>2.564</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>23</v>
+      </c>
+      <c r="G232" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
+        <v>45974.23958333334</v>
+      </c>
+      <c r="B233">
+        <v>2.998</v>
+      </c>
+      <c r="C233">
+        <v>0.012</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="2">
+        <v>45974.25</v>
+      </c>
+      <c r="B234">
+        <v>7.17</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>25</v>
+      </c>
+      <c r="G234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="2">
+        <v>45974.26041666666</v>
+      </c>
+      <c r="B235">
+        <v>3.474</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>26</v>
+      </c>
+      <c r="G235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="2">
+        <v>45974.27083333334</v>
+      </c>
+      <c r="B236">
+        <v>2.015</v>
+      </c>
+      <c r="C236">
+        <v>0.06</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>27</v>
+      </c>
+      <c r="G236" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="2">
+        <v>45974.28125</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>11.155</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>28</v>
+      </c>
+      <c r="G237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>45974.29166666666</v>
+      </c>
+      <c r="B238">
+        <v>0.089</v>
+      </c>
+      <c r="C238">
+        <v>3.375</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>29</v>
+      </c>
+      <c r="G238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2">
+        <v>45974.30208333334</v>
+      </c>
+      <c r="B239">
+        <v>0.025</v>
+      </c>
+      <c r="C239">
+        <v>2.663</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="2">
+        <v>45974.3125</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>16.712</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>31</v>
+      </c>
+      <c r="G240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="2">
+        <v>45974.32291666666</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>29.584</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>32</v>
+      </c>
+      <c r="G241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="2">
+        <v>45974.33333333334</v>
+      </c>
+      <c r="B242">
+        <v>0.01</v>
+      </c>
+      <c r="C242">
+        <v>5.36</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>33</v>
+      </c>
+      <c r="G242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="2">
+        <v>45974.34375</v>
+      </c>
+      <c r="B243">
+        <v>0.806</v>
+      </c>
+      <c r="C243">
+        <v>0.074</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>34</v>
+      </c>
+      <c r="G243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="2">
+        <v>45974.35416666666</v>
+      </c>
+      <c r="B244">
+        <v>1.001</v>
+      </c>
+      <c r="C244">
+        <v>0.926</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>35</v>
+      </c>
+      <c r="G244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="2">
+        <v>45974.36458333334</v>
+      </c>
+      <c r="B245">
+        <v>0.509</v>
+      </c>
+      <c r="C245">
+        <v>0.974</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>36</v>
+      </c>
+      <c r="G245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="2">
+        <v>45974.375</v>
+      </c>
+      <c r="B246">
+        <v>42.322</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>37</v>
+      </c>
+      <c r="G246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="2">
+        <v>45974.38541666666</v>
+      </c>
+      <c r="B247">
+        <v>43.654</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>38</v>
+      </c>
+      <c r="G247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="2">
+        <v>45974.39583333334</v>
+      </c>
+      <c r="B248">
+        <v>38.713</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>39</v>
+      </c>
+      <c r="G248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="2">
+        <v>45974.40625</v>
+      </c>
+      <c r="B249">
+        <v>21.416</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>40</v>
+      </c>
+      <c r="G249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="2">
+        <v>45974.41666666666</v>
+      </c>
+      <c r="B250">
+        <v>8.26</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>25</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>41</v>
+      </c>
+      <c r="G250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="2">
+        <v>45974.42708333334</v>
+      </c>
+      <c r="B251">
+        <v>28.456</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>25</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>42</v>
+      </c>
+      <c r="G251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="2">
+        <v>45974.4375</v>
+      </c>
+      <c r="B252">
+        <v>21.126</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>44.5</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>43</v>
+      </c>
+      <c r="G252" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="2">
+        <v>45974.44791666666</v>
+      </c>
+      <c r="B253">
+        <v>15.79</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>44.5</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>44</v>
+      </c>
+      <c r="G253" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="2">
+        <v>45974.45833333334</v>
+      </c>
+      <c r="B254">
+        <v>0.763</v>
+      </c>
+      <c r="C254">
+        <v>0.078</v>
+      </c>
+      <c r="D254">
+        <v>33.5</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>45</v>
+      </c>
+      <c r="G254" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="2">
+        <v>45974.46875</v>
+      </c>
+      <c r="B255">
+        <v>0.554</v>
+      </c>
+      <c r="C255">
+        <v>0.061</v>
+      </c>
+      <c r="D255">
+        <v>33.5</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>46</v>
+      </c>
+      <c r="G255" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="2">
+        <v>45974.47916666666</v>
+      </c>
+      <c r="B256">
+        <v>8.025</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>33.5</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>47</v>
+      </c>
+      <c r="G256" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="2">
+        <v>45974.48958333334</v>
+      </c>
+      <c r="B257">
+        <v>0.286</v>
+      </c>
+      <c r="C257">
+        <v>0.36</v>
+      </c>
+      <c r="D257">
+        <v>34.25</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>48</v>
+      </c>
+      <c r="G257" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="2">
+        <v>45974.5</v>
+      </c>
+      <c r="B258">
+        <v>0.015</v>
+      </c>
+      <c r="C258">
+        <v>1.698</v>
+      </c>
+      <c r="D258">
+        <v>25</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>49</v>
+      </c>
+      <c r="G258" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="2">
+        <v>45974.51041666666</v>
+      </c>
+      <c r="B259">
+        <v>0.075</v>
+      </c>
+      <c r="C259">
+        <v>0.499</v>
+      </c>
+      <c r="D259">
+        <v>25</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>50</v>
+      </c>
+      <c r="G259" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="2">
+        <v>45974.52083333334</v>
+      </c>
+      <c r="B260">
+        <v>0.053</v>
+      </c>
+      <c r="C260">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>51</v>
+      </c>
+      <c r="G260" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="2">
+        <v>45974.54166666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>25</v>
+      </c>
+      <c r="F261">
+        <v>53</v>
+      </c>
+      <c r="G261" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="199">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -37,382 +37,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.11.20251</t>
-  </si>
-  <si>
-    <t>20.11.20252</t>
-  </si>
-  <si>
-    <t>20.11.20253</t>
-  </si>
-  <si>
-    <t>20.11.20254</t>
-  </si>
-  <si>
-    <t>20.11.20255</t>
-  </si>
-  <si>
-    <t>20.11.20256</t>
-  </si>
-  <si>
-    <t>20.11.20257</t>
-  </si>
-  <si>
-    <t>20.11.20258</t>
-  </si>
-  <si>
-    <t>20.11.20259</t>
-  </si>
-  <si>
-    <t>20.11.202510</t>
-  </si>
-  <si>
-    <t>20.11.202511</t>
-  </si>
-  <si>
-    <t>20.11.202512</t>
-  </si>
-  <si>
-    <t>20.11.202513</t>
-  </si>
-  <si>
-    <t>20.11.202514</t>
-  </si>
-  <si>
-    <t>20.11.202515</t>
-  </si>
-  <si>
-    <t>20.11.202516</t>
-  </si>
-  <si>
-    <t>20.11.202517</t>
-  </si>
-  <si>
-    <t>20.11.202518</t>
-  </si>
-  <si>
-    <t>20.11.202519</t>
-  </si>
-  <si>
-    <t>20.11.202520</t>
-  </si>
-  <si>
-    <t>20.11.202521</t>
-  </si>
-  <si>
-    <t>20.11.202522</t>
-  </si>
-  <si>
-    <t>20.11.202523</t>
-  </si>
-  <si>
-    <t>20.11.202524</t>
-  </si>
-  <si>
-    <t>20.11.202525</t>
-  </si>
-  <si>
-    <t>20.11.202526</t>
-  </si>
-  <si>
-    <t>20.11.202527</t>
-  </si>
-  <si>
-    <t>20.11.202528</t>
-  </si>
-  <si>
-    <t>20.11.202529</t>
-  </si>
-  <si>
-    <t>20.11.202530</t>
-  </si>
-  <si>
-    <t>20.11.202531</t>
-  </si>
-  <si>
-    <t>20.11.202532</t>
-  </si>
-  <si>
-    <t>20.11.202533</t>
-  </si>
-  <si>
-    <t>20.11.202534</t>
-  </si>
-  <si>
-    <t>20.11.202535</t>
-  </si>
-  <si>
-    <t>20.11.202536</t>
-  </si>
-  <si>
-    <t>20.11.202537</t>
-  </si>
-  <si>
-    <t>20.11.202538</t>
-  </si>
-  <si>
-    <t>20.11.202539</t>
-  </si>
-  <si>
-    <t>20.11.202540</t>
-  </si>
-  <si>
-    <t>20.11.202541</t>
-  </si>
-  <si>
-    <t>20.11.202542</t>
-  </si>
-  <si>
-    <t>20.11.202543</t>
-  </si>
-  <si>
-    <t>20.11.202544</t>
-  </si>
-  <si>
-    <t>20.11.202545</t>
-  </si>
-  <si>
-    <t>20.11.202546</t>
-  </si>
-  <si>
-    <t>20.11.202547</t>
-  </si>
-  <si>
-    <t>20.11.202548</t>
-  </si>
-  <si>
-    <t>20.11.202549</t>
-  </si>
-  <si>
-    <t>20.11.202550</t>
-  </si>
-  <si>
-    <t>20.11.202551</t>
-  </si>
-  <si>
-    <t>20.11.202552</t>
-  </si>
-  <si>
-    <t>20.11.202553</t>
-  </si>
-  <si>
-    <t>20.11.202554</t>
-  </si>
-  <si>
-    <t>20.11.202555</t>
-  </si>
-  <si>
-    <t>20.11.202556</t>
-  </si>
-  <si>
-    <t>20.11.202557</t>
-  </si>
-  <si>
-    <t>20.11.202558</t>
-  </si>
-  <si>
-    <t>20.11.202559</t>
-  </si>
-  <si>
-    <t>20.11.202560</t>
-  </si>
-  <si>
-    <t>20.11.202561</t>
-  </si>
-  <si>
-    <t>20.11.202562</t>
-  </si>
-  <si>
-    <t>20.11.202563</t>
-  </si>
-  <si>
-    <t>20.11.202564</t>
-  </si>
-  <si>
-    <t>20.11.202565</t>
-  </si>
-  <si>
-    <t>20.11.202566</t>
-  </si>
-  <si>
-    <t>20.11.202567</t>
-  </si>
-  <si>
-    <t>20.11.202568</t>
-  </si>
-  <si>
-    <t>20.11.202569</t>
-  </si>
-  <si>
-    <t>20.11.202570</t>
-  </si>
-  <si>
-    <t>20.11.202571</t>
-  </si>
-  <si>
-    <t>20.11.202572</t>
-  </si>
-  <si>
-    <t>20.11.202573</t>
-  </si>
-  <si>
-    <t>20.11.202574</t>
-  </si>
-  <si>
-    <t>20.11.202575</t>
-  </si>
-  <si>
-    <t>20.11.202576</t>
-  </si>
-  <si>
-    <t>20.11.202577</t>
-  </si>
-  <si>
-    <t>20.11.202578</t>
-  </si>
-  <si>
-    <t>20.11.202579</t>
-  </si>
-  <si>
-    <t>20.11.202580</t>
-  </si>
-  <si>
-    <t>20.11.202581</t>
-  </si>
-  <si>
-    <t>20.11.202582</t>
-  </si>
-  <si>
-    <t>20.11.202583</t>
-  </si>
-  <si>
-    <t>20.11.202584</t>
-  </si>
-  <si>
-    <t>20.11.202585</t>
-  </si>
-  <si>
-    <t>20.11.202586</t>
-  </si>
-  <si>
-    <t>20.11.202587</t>
-  </si>
-  <si>
-    <t>20.11.202588</t>
-  </si>
-  <si>
-    <t>20.11.202589</t>
-  </si>
-  <si>
-    <t>20.11.202590</t>
-  </si>
-  <si>
-    <t>20.11.202591</t>
-  </si>
-  <si>
-    <t>20.11.202592</t>
-  </si>
-  <si>
-    <t>20.11.202593</t>
-  </si>
-  <si>
-    <t>20.11.202594</t>
-  </si>
-  <si>
-    <t>20.11.202595</t>
-  </si>
-  <si>
-    <t>20.11.202596</t>
-  </si>
-  <si>
-    <t>21.11.20251</t>
-  </si>
-  <si>
-    <t>21.11.20252</t>
-  </si>
-  <si>
-    <t>21.11.20253</t>
-  </si>
-  <si>
-    <t>21.11.20254</t>
-  </si>
-  <si>
-    <t>21.11.20255</t>
-  </si>
-  <si>
-    <t>21.11.20256</t>
-  </si>
-  <si>
-    <t>21.11.20257</t>
-  </si>
-  <si>
-    <t>21.11.20258</t>
-  </si>
-  <si>
-    <t>21.11.20259</t>
-  </si>
-  <si>
-    <t>21.11.202510</t>
-  </si>
-  <si>
-    <t>21.11.202511</t>
-  </si>
-  <si>
-    <t>21.11.202512</t>
-  </si>
-  <si>
-    <t>21.11.202513</t>
-  </si>
-  <si>
-    <t>21.11.202514</t>
-  </si>
-  <si>
-    <t>21.11.202515</t>
-  </si>
-  <si>
-    <t>21.11.202516</t>
-  </si>
-  <si>
-    <t>21.11.202517</t>
-  </si>
-  <si>
-    <t>21.11.202518</t>
-  </si>
-  <si>
-    <t>21.11.202519</t>
-  </si>
-  <si>
-    <t>21.11.202520</t>
-  </si>
-  <si>
-    <t>21.11.202521</t>
-  </si>
-  <si>
-    <t>21.11.202522</t>
-  </si>
-  <si>
-    <t>21.11.202523</t>
-  </si>
-  <si>
-    <t>21.11.202524</t>
-  </si>
-  <si>
-    <t>21.11.202525</t>
-  </si>
-  <si>
-    <t>21.11.202526</t>
-  </si>
-  <si>
-    <t>21.11.202527</t>
-  </si>
-  <si>
-    <t>21.11.202528</t>
-  </si>
-  <si>
-    <t>21.11.202529</t>
-  </si>
-  <si>
-    <t>21.11.202530</t>
+    <t>23.11.20251</t>
+  </si>
+  <si>
+    <t>23.11.20252</t>
+  </si>
+  <si>
+    <t>23.11.20253</t>
+  </si>
+  <si>
+    <t>23.11.20254</t>
+  </si>
+  <si>
+    <t>23.11.20255</t>
+  </si>
+  <si>
+    <t>23.11.20256</t>
+  </si>
+  <si>
+    <t>23.11.20257</t>
+  </si>
+  <si>
+    <t>23.11.20258</t>
+  </si>
+  <si>
+    <t>23.11.20259</t>
+  </si>
+  <si>
+    <t>23.11.202510</t>
+  </si>
+  <si>
+    <t>23.11.202511</t>
+  </si>
+  <si>
+    <t>23.11.202512</t>
+  </si>
+  <si>
+    <t>23.11.202513</t>
+  </si>
+  <si>
+    <t>23.11.202514</t>
+  </si>
+  <si>
+    <t>23.11.202515</t>
+  </si>
+  <si>
+    <t>23.11.202516</t>
+  </si>
+  <si>
+    <t>23.11.202517</t>
+  </si>
+  <si>
+    <t>23.11.202518</t>
+  </si>
+  <si>
+    <t>23.11.202519</t>
+  </si>
+  <si>
+    <t>23.11.202520</t>
+  </si>
+  <si>
+    <t>23.11.202521</t>
+  </si>
+  <si>
+    <t>23.11.202522</t>
+  </si>
+  <si>
+    <t>23.11.202523</t>
+  </si>
+  <si>
+    <t>23.11.202524</t>
+  </si>
+  <si>
+    <t>23.11.202525</t>
+  </si>
+  <si>
+    <t>23.11.202526</t>
+  </si>
+  <si>
+    <t>23.11.202527</t>
+  </si>
+  <si>
+    <t>23.11.202528</t>
+  </si>
+  <si>
+    <t>23.11.202529</t>
+  </si>
+  <si>
+    <t>23.11.202530</t>
+  </si>
+  <si>
+    <t>23.11.202531</t>
+  </si>
+  <si>
+    <t>23.11.202532</t>
+  </si>
+  <si>
+    <t>23.11.202533</t>
+  </si>
+  <si>
+    <t>23.11.202534</t>
+  </si>
+  <si>
+    <t>23.11.202535</t>
+  </si>
+  <si>
+    <t>23.11.202536</t>
+  </si>
+  <si>
+    <t>23.11.202537</t>
+  </si>
+  <si>
+    <t>23.11.202538</t>
+  </si>
+  <si>
+    <t>23.11.202539</t>
+  </si>
+  <si>
+    <t>23.11.202540</t>
+  </si>
+  <si>
+    <t>23.11.202541</t>
+  </si>
+  <si>
+    <t>23.11.202542</t>
+  </si>
+  <si>
+    <t>23.11.202543</t>
+  </si>
+  <si>
+    <t>23.11.202544</t>
+  </si>
+  <si>
+    <t>23.11.202545</t>
+  </si>
+  <si>
+    <t>23.11.202546</t>
+  </si>
+  <si>
+    <t>23.11.202547</t>
+  </si>
+  <si>
+    <t>23.11.202548</t>
+  </si>
+  <si>
+    <t>23.11.202549</t>
+  </si>
+  <si>
+    <t>23.11.202550</t>
+  </si>
+  <si>
+    <t>23.11.202551</t>
+  </si>
+  <si>
+    <t>23.11.202552</t>
+  </si>
+  <si>
+    <t>23.11.202553</t>
+  </si>
+  <si>
+    <t>23.11.202554</t>
+  </si>
+  <si>
+    <t>23.11.202555</t>
+  </si>
+  <si>
+    <t>23.11.202556</t>
+  </si>
+  <si>
+    <t>23.11.202557</t>
+  </si>
+  <si>
+    <t>23.11.202558</t>
+  </si>
+  <si>
+    <t>23.11.202559</t>
+  </si>
+  <si>
+    <t>23.11.202560</t>
+  </si>
+  <si>
+    <t>23.11.202561</t>
+  </si>
+  <si>
+    <t>23.11.202562</t>
+  </si>
+  <si>
+    <t>23.11.202563</t>
+  </si>
+  <si>
+    <t>23.11.202564</t>
+  </si>
+  <si>
+    <t>23.11.202565</t>
+  </si>
+  <si>
+    <t>23.11.202566</t>
+  </si>
+  <si>
+    <t>23.11.202567</t>
+  </si>
+  <si>
+    <t>23.11.202568</t>
+  </si>
+  <si>
+    <t>23.11.202569</t>
+  </si>
+  <si>
+    <t>23.11.202570</t>
+  </si>
+  <si>
+    <t>23.11.202571</t>
+  </si>
+  <si>
+    <t>23.11.202572</t>
+  </si>
+  <si>
+    <t>23.11.202573</t>
+  </si>
+  <si>
+    <t>23.11.202574</t>
+  </si>
+  <si>
+    <t>23.11.202575</t>
+  </si>
+  <si>
+    <t>23.11.202576</t>
+  </si>
+  <si>
+    <t>23.11.202577</t>
+  </si>
+  <si>
+    <t>23.11.202578</t>
+  </si>
+  <si>
+    <t>23.11.202579</t>
+  </si>
+  <si>
+    <t>23.11.202580</t>
+  </si>
+  <si>
+    <t>23.11.202581</t>
+  </si>
+  <si>
+    <t>23.11.202582</t>
+  </si>
+  <si>
+    <t>23.11.202583</t>
+  </si>
+  <si>
+    <t>23.11.202584</t>
+  </si>
+  <si>
+    <t>23.11.202585</t>
+  </si>
+  <si>
+    <t>23.11.202586</t>
+  </si>
+  <si>
+    <t>23.11.202587</t>
+  </si>
+  <si>
+    <t>23.11.202588</t>
+  </si>
+  <si>
+    <t>23.11.202589</t>
+  </si>
+  <si>
+    <t>23.11.202590</t>
+  </si>
+  <si>
+    <t>23.11.202591</t>
+  </si>
+  <si>
+    <t>23.11.202592</t>
+  </si>
+  <si>
+    <t>23.11.202593</t>
+  </si>
+  <si>
+    <t>23.11.202594</t>
+  </si>
+  <si>
+    <t>23.11.202595</t>
+  </si>
+  <si>
+    <t>23.11.202596</t>
+  </si>
+  <si>
+    <t>24.11.20251</t>
+  </si>
+  <si>
+    <t>24.11.20252</t>
+  </si>
+  <si>
+    <t>24.11.20253</t>
+  </si>
+  <si>
+    <t>24.11.20254</t>
+  </si>
+  <si>
+    <t>24.11.20255</t>
+  </si>
+  <si>
+    <t>24.11.20256</t>
+  </si>
+  <si>
+    <t>24.11.20257</t>
+  </si>
+  <si>
+    <t>24.11.20258</t>
+  </si>
+  <si>
+    <t>24.11.20259</t>
+  </si>
+  <si>
+    <t>24.11.202510</t>
+  </si>
+  <si>
+    <t>24.11.202511</t>
+  </si>
+  <si>
+    <t>24.11.202512</t>
+  </si>
+  <si>
+    <t>24.11.202513</t>
+  </si>
+  <si>
+    <t>24.11.202514</t>
+  </si>
+  <si>
+    <t>24.11.202515</t>
+  </si>
+  <si>
+    <t>24.11.202516</t>
+  </si>
+  <si>
+    <t>24.11.202517</t>
+  </si>
+  <si>
+    <t>24.11.202518</t>
+  </si>
+  <si>
+    <t>24.11.202519</t>
+  </si>
+  <si>
+    <t>24.11.202520</t>
+  </si>
+  <si>
+    <t>24.11.202521</t>
+  </si>
+  <si>
+    <t>24.11.202522</t>
+  </si>
+  <si>
+    <t>24.11.202523</t>
+  </si>
+  <si>
+    <t>24.11.202524</t>
+  </si>
+  <si>
+    <t>24.11.202525</t>
+  </si>
+  <si>
+    <t>24.11.202526</t>
+  </si>
+  <si>
+    <t>24.11.202527</t>
+  </si>
+  <si>
+    <t>24.11.202528</t>
+  </si>
+  <si>
+    <t>24.11.202529</t>
+  </si>
+  <si>
+    <t>24.11.202530</t>
+  </si>
+  <si>
+    <t>24.11.202531</t>
+  </si>
+  <si>
+    <t>24.11.202532</t>
+  </si>
+  <si>
+    <t>24.11.202533</t>
+  </si>
+  <si>
+    <t>24.11.202534</t>
+  </si>
+  <si>
+    <t>24.11.202535</t>
+  </si>
+  <si>
+    <t>24.11.202536</t>
+  </si>
+  <si>
+    <t>24.11.202537</t>
+  </si>
+  <si>
+    <t>24.11.202538</t>
+  </si>
+  <si>
+    <t>24.11.202539</t>
+  </si>
+  <si>
+    <t>24.11.202540</t>
+  </si>
+  <si>
+    <t>24.11.202541</t>
+  </si>
+  <si>
+    <t>24.11.202542</t>
+  </si>
+  <si>
+    <t>24.11.202543</t>
+  </si>
+  <si>
+    <t>24.11.202544</t>
+  </si>
+  <si>
+    <t>24.11.202545</t>
+  </si>
+  <si>
+    <t>24.11.202546</t>
+  </si>
+  <si>
+    <t>24.11.202547</t>
+  </si>
+  <si>
+    <t>24.11.202548</t>
+  </si>
+  <si>
+    <t>24.11.202549</t>
+  </si>
+  <si>
+    <t>24.11.202550</t>
+  </si>
+  <si>
+    <t>24.11.202551</t>
+  </si>
+  <si>
+    <t>24.11.202552</t>
+  </si>
+  <si>
+    <t>24.11.202553</t>
+  </si>
+  <si>
+    <t>24.11.202554</t>
+  </si>
+  <si>
+    <t>24.11.202555</t>
+  </si>
+  <si>
+    <t>24.11.202556</t>
+  </si>
+  <si>
+    <t>24.11.202557</t>
+  </si>
+  <si>
+    <t>24.11.202558</t>
+  </si>
+  <si>
+    <t>24.11.202559</t>
+  </si>
+  <si>
+    <t>24.11.202560</t>
+  </si>
+  <si>
+    <t>24.11.202561</t>
+  </si>
+  <si>
+    <t>24.11.202562</t>
+  </si>
+  <si>
+    <t>24.11.202563</t>
+  </si>
+  <si>
+    <t>24.11.202564</t>
+  </si>
+  <si>
+    <t>24.11.202565</t>
+  </si>
+  <si>
+    <t>24.11.202566</t>
+  </si>
+  <si>
+    <t>24.11.202567</t>
+  </si>
+  <si>
+    <t>24.11.202568</t>
+  </si>
+  <si>
+    <t>24.11.202569</t>
+  </si>
+  <si>
+    <t>24.11.202570</t>
+  </si>
+  <si>
+    <t>24.11.202571</t>
+  </si>
+  <si>
+    <t>24.11.202572</t>
+  </si>
+  <si>
+    <t>24.11.202573</t>
+  </si>
+  <si>
+    <t>24.11.202574</t>
+  </si>
+  <si>
+    <t>24.11.202575</t>
+  </si>
+  <si>
+    <t>24.11.202576</t>
+  </si>
+  <si>
+    <t>24.11.202577</t>
+  </si>
+  <si>
+    <t>24.11.202578</t>
+  </si>
+  <si>
+    <t>24.11.202579</t>
+  </si>
+  <si>
+    <t>24.11.202580</t>
+  </si>
+  <si>
+    <t>24.11.202581</t>
+  </si>
+  <si>
+    <t>24.11.202582</t>
+  </si>
+  <si>
+    <t>24.11.202583</t>
+  </si>
+  <si>
+    <t>24.11.202584</t>
+  </si>
+  <si>
+    <t>24.11.202585</t>
+  </si>
+  <si>
+    <t>24.11.202586</t>
+  </si>
+  <si>
+    <t>24.11.202587</t>
+  </si>
+  <si>
+    <t>24.11.202588</t>
+  </si>
+  <si>
+    <t>24.11.202589</t>
+  </si>
+  <si>
+    <t>24.11.202590</t>
+  </si>
+  <si>
+    <t>24.11.202591</t>
+  </si>
+  <si>
+    <t>24.11.202592</t>
+  </si>
+  <si>
+    <t>24.11.202593</t>
+  </si>
+  <si>
+    <t>24.11.202594</t>
+  </si>
+  <si>
+    <t>24.11.202595</t>
+  </si>
+  <si>
+    <t>24.11.202596</t>
   </si>
 </sst>
 </file>
@@ -774,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,13 +1003,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45981</v>
+        <v>45984</v>
       </c>
       <c r="B2">
-        <v>6.143</v>
+        <v>27.553</v>
       </c>
       <c r="C2">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -828,10 +1026,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45981.01041666666</v>
+        <v>45984.01041666666</v>
       </c>
       <c r="B3">
-        <v>20.723</v>
+        <v>22.635</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -851,10 +1049,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45981.02083333334</v>
+        <v>45984.02083333334</v>
       </c>
       <c r="B4">
-        <v>15.817</v>
+        <v>50.217</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -874,13 +1072,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45981.03125</v>
+        <v>45984.03125</v>
       </c>
       <c r="B5">
-        <v>0.768</v>
+        <v>25.55</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -897,13 +1095,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45981.04166666666</v>
+        <v>45984.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.199</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -920,13 +1118,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45981.05208333334</v>
+        <v>45984.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.027</v>
+        <v>0.797</v>
       </c>
       <c r="C7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -943,13 +1141,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45981.0625</v>
+        <v>45984.0625</v>
       </c>
       <c r="B8">
-        <v>0.028</v>
+        <v>1.798</v>
       </c>
       <c r="C8">
-        <v>0.211</v>
+        <v>0.003</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -966,13 +1164,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45981.07291666666</v>
+        <v>45984.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.006</v>
+        <v>1.134</v>
       </c>
       <c r="C9">
-        <v>1.461</v>
+        <v>0.041</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -989,13 +1187,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45981.08333333334</v>
+        <v>45984.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.404</v>
+        <v>0.364</v>
       </c>
       <c r="C10">
-        <v>0.729</v>
+        <v>0.051</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1012,13 +1210,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45981.09375</v>
+        <v>45984.09375</v>
       </c>
       <c r="B11">
-        <v>3.923</v>
+        <v>0.136</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1035,13 +1233,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45981.10416666666</v>
+        <v>45984.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.289</v>
+        <v>0.867</v>
       </c>
       <c r="C12">
-        <v>0.079</v>
+        <v>0.029</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1058,13 +1256,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45981.11458333334</v>
+        <v>45984.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.23</v>
+        <v>0.623</v>
       </c>
       <c r="C13">
-        <v>0.076</v>
+        <v>0.003</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1081,13 +1279,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45981.125</v>
+        <v>45984.125</v>
       </c>
       <c r="B14">
-        <v>0.024</v>
+        <v>15.161</v>
       </c>
       <c r="C14">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1104,13 +1302,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45981.13541666666</v>
+        <v>45984.13541666666</v>
       </c>
       <c r="B15">
-        <v>3.962</v>
+        <v>23.373</v>
       </c>
       <c r="C15">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1127,10 +1325,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45981.14583333334</v>
+        <v>45984.14583333334</v>
       </c>
       <c r="B16">
-        <v>4.346</v>
+        <v>33.734</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1150,13 +1348,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45981.15625</v>
+        <v>45984.15625</v>
       </c>
       <c r="B17">
-        <v>2.812</v>
+        <v>39.019</v>
       </c>
       <c r="C17">
-        <v>0.636</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1173,13 +1371,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45981.16666666666</v>
+        <v>45984.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.048</v>
+        <v>31.471</v>
       </c>
       <c r="C18">
-        <v>2.999</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1196,13 +1394,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45981.17708333334</v>
+        <v>45984.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.928</v>
+        <v>26.759</v>
       </c>
       <c r="C19">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1219,13 +1417,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45981.1875</v>
+        <v>45984.1875</v>
       </c>
       <c r="B20">
-        <v>1.07</v>
+        <v>24.905</v>
       </c>
       <c r="C20">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1242,13 +1440,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45981.19791666666</v>
+        <v>45984.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.572</v>
+        <v>20.092</v>
       </c>
       <c r="C21">
-        <v>0.422</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1265,13 +1463,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45981.20833333334</v>
+        <v>45984.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.124</v>
+        <v>29.265</v>
       </c>
       <c r="C22">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1288,13 +1486,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45981.21875</v>
+        <v>45984.21875</v>
       </c>
       <c r="B23">
-        <v>0.08699999999999999</v>
+        <v>32.158</v>
       </c>
       <c r="C23">
-        <v>2.496</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1311,13 +1509,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45981.22916666666</v>
+        <v>45984.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>29.57</v>
       </c>
       <c r="C24">
-        <v>1.799</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1334,13 +1532,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45981.23958333334</v>
+        <v>45984.23958333334</v>
       </c>
       <c r="B25">
-        <v>2.951</v>
+        <v>21.016</v>
       </c>
       <c r="C25">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1357,13 +1555,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45981.25</v>
+        <v>45984.25</v>
       </c>
       <c r="B26">
-        <v>0.421</v>
+        <v>10.613</v>
       </c>
       <c r="C26">
-        <v>4.108</v>
+        <v>0.193</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1380,13 +1578,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45981.26041666666</v>
+        <v>45984.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.165</v>
+        <v>6.726</v>
       </c>
       <c r="C27">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1403,13 +1601,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45981.27083333334</v>
+        <v>45984.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.005</v>
+        <v>0.906</v>
       </c>
       <c r="C28">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1426,13 +1624,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45981.28125</v>
+        <v>45984.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>9.087</v>
       </c>
       <c r="C29">
-        <v>6.845</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1449,13 +1647,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45981.29166666666</v>
+        <v>45984.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5.893</v>
       </c>
       <c r="C30">
-        <v>3.302</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1472,13 +1670,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45981.30208333334</v>
+        <v>45984.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.004</v>
+        <v>14.458</v>
       </c>
       <c r="C31">
-        <v>5.836</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1495,13 +1693,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45981.3125</v>
+        <v>45984.3125</v>
       </c>
       <c r="B32">
-        <v>0.021</v>
+        <v>15.398</v>
       </c>
       <c r="C32">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1518,13 +1716,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45981.32291666666</v>
+        <v>45984.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.053</v>
+        <v>18.708</v>
       </c>
       <c r="C33">
-        <v>4.105</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1541,10 +1739,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45981.33333333334</v>
+        <v>45984.33333333334</v>
       </c>
       <c r="B34">
-        <v>6.3</v>
+        <v>27.428</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1564,13 +1762,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45981.34375</v>
+        <v>45984.34375</v>
       </c>
       <c r="B35">
-        <v>4.413</v>
+        <v>24.343</v>
       </c>
       <c r="C35">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1587,10 +1785,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45981.35416666666</v>
+        <v>45984.35416666666</v>
       </c>
       <c r="B36">
-        <v>3.701</v>
+        <v>29.608</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1610,13 +1808,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45981.36458333334</v>
+        <v>45984.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.026</v>
+        <v>22.671</v>
       </c>
       <c r="C37">
-        <v>5.18</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1633,16 +1831,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45981.375</v>
+        <v>45984.375</v>
       </c>
       <c r="B38">
-        <v>0.026</v>
+        <v>41.534</v>
       </c>
       <c r="C38">
-        <v>1.493</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1656,16 +1854,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45981.38541666666</v>
+        <v>45984.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.699</v>
+        <v>43.527</v>
       </c>
       <c r="C39">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1679,13 +1877,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45981.39583333334</v>
+        <v>45984.39583333334</v>
       </c>
       <c r="B40">
-        <v>5.222</v>
+        <v>38.81</v>
       </c>
       <c r="C40">
-        <v>0.466</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>25</v>
@@ -1702,13 +1900,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45981.40625</v>
+        <v>45984.40625</v>
       </c>
       <c r="B41">
-        <v>1.406</v>
+        <v>65.58</v>
       </c>
       <c r="C41">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>25</v>
@@ -1725,16 +1923,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45981.41666666666</v>
+        <v>45984.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>59.839</v>
       </c>
       <c r="C42">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1748,16 +1946,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45981.42708333334</v>
+        <v>45984.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>7.002</v>
       </c>
       <c r="C43">
-        <v>2.659</v>
+        <v>0.062</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1771,16 +1969,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45981.4375</v>
+        <v>45984.4375</v>
       </c>
       <c r="B44">
-        <v>4.309</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.066</v>
+        <v>3.549</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1794,16 +1992,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45981.44791666666</v>
+        <v>45984.44791666666</v>
       </c>
       <c r="B45">
-        <v>4.425</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.05</v>
+        <v>10.212</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1817,16 +2015,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45981.45833333334</v>
+        <v>45984.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.129</v>
+        <v>23.35</v>
       </c>
       <c r="C46">
-        <v>0.385</v>
+        <v>0.192</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1840,16 +2038,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45981.46875</v>
+        <v>45984.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>24.332</v>
       </c>
       <c r="C47">
-        <v>5.976</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1863,16 +2061,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45981.47916666666</v>
+        <v>45984.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>47.476</v>
       </c>
       <c r="C48">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1886,16 +2084,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45981.48958333334</v>
+        <v>45984.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>7.582</v>
       </c>
       <c r="C49">
-        <v>26.981</v>
+        <v>0.024</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>87.5</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1909,16 +2107,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45981.5</v>
+        <v>45984.5</v>
       </c>
       <c r="B50">
-        <v>0.918</v>
+        <v>21.699</v>
       </c>
       <c r="C50">
-        <v>5.296</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>87.25</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1932,16 +2130,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45981.51041666666</v>
+        <v>45984.51041666666</v>
       </c>
       <c r="B51">
-        <v>5.862</v>
+        <v>7.124</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>105.75</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1955,16 +2153,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45981.52083333334</v>
+        <v>45984.52083333334</v>
       </c>
       <c r="B52">
-        <v>18.21</v>
+        <v>3.293</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1.296</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>105.75</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1978,16 +2176,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45981.53125</v>
+        <v>45984.53125</v>
       </c>
       <c r="B53">
-        <v>20.198</v>
+        <v>0.062</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2.372</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>105.75</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2001,16 +2199,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45981.54166666666</v>
+        <v>45984.54166666666</v>
       </c>
       <c r="B54">
-        <v>16.956</v>
+        <v>3.168</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>105.25</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2024,16 +2222,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45981.55208333334</v>
+        <v>45984.55208333334</v>
       </c>
       <c r="B55">
-        <v>21.895</v>
+        <v>8.553000000000001</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>105.25</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2047,16 +2245,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45981.5625</v>
+        <v>45984.5625</v>
       </c>
       <c r="B56">
-        <v>35.804</v>
+        <v>2.006</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>105.25</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2070,16 +2268,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45981.57291666666</v>
+        <v>45984.57291666666</v>
       </c>
       <c r="B57">
-        <v>18.02</v>
+        <v>1.019</v>
       </c>
       <c r="C57">
-        <v>0.844</v>
+        <v>0.101</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>105.25</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2093,16 +2291,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45981.58333333334</v>
+        <v>45984.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="C58">
-        <v>11.483</v>
+        <v>1.38</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>98.5</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2116,16 +2314,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45981.59375</v>
+        <v>45984.59375</v>
       </c>
       <c r="B59">
-        <v>0.038</v>
+        <v>0.354</v>
       </c>
       <c r="C59">
-        <v>0.65</v>
+        <v>0.01</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2139,16 +2337,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45981.60416666666</v>
+        <v>45984.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.011</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C60">
-        <v>1.309</v>
+        <v>0.153</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2162,16 +2360,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45981.61458333334</v>
+        <v>45984.61458333334</v>
       </c>
       <c r="B61">
-        <v>0.43</v>
+        <v>0.961</v>
       </c>
       <c r="C61">
-        <v>0.07099999999999999</v>
+        <v>0.016</v>
       </c>
       <c r="D61">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2185,13 +2383,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45981.625</v>
+        <v>45984.625</v>
       </c>
       <c r="B62">
-        <v>0.427</v>
+        <v>0.167</v>
       </c>
       <c r="C62">
-        <v>0.181</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2208,13 +2406,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45981.63541666666</v>
+        <v>45984.63541666666</v>
       </c>
       <c r="B63">
-        <v>10.804</v>
+        <v>0.172</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2231,13 +2429,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45981.64583333334</v>
+        <v>45984.64583333334</v>
       </c>
       <c r="B64">
-        <v>5.234</v>
+        <v>0.061</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2254,13 +2452,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45981.65625</v>
+        <v>45984.65625</v>
       </c>
       <c r="B65">
-        <v>15.703</v>
+        <v>0.32</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2277,16 +2475,16 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45981.66666666666</v>
+        <v>45984.66666666666</v>
       </c>
       <c r="B66">
-        <v>16.605</v>
+        <v>0.077</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2300,16 +2498,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45981.67708333334</v>
+        <v>45984.67708333334</v>
       </c>
       <c r="B67">
-        <v>15.719</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>12.834</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2323,16 +2521,16 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45981.6875</v>
+        <v>45984.6875</v>
       </c>
       <c r="B68">
-        <v>11.932</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>14.595</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2346,16 +2544,16 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45981.69791666666</v>
+        <v>45984.69791666666</v>
       </c>
       <c r="B69">
-        <v>3.853</v>
+        <v>0.169</v>
       </c>
       <c r="C69">
-        <v>0.017</v>
+        <v>0.216</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2369,16 +2567,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45981.70833333334</v>
+        <v>45984.70833333334</v>
       </c>
       <c r="B70">
-        <v>2.691</v>
+        <v>0.157</v>
       </c>
       <c r="C70">
-        <v>0.011</v>
+        <v>0.251</v>
       </c>
       <c r="D70">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2392,16 +2590,16 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45981.71875</v>
+        <v>45984.71875</v>
       </c>
       <c r="B71">
-        <v>0.775</v>
+        <v>0.068</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="D71">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2415,16 +2613,16 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45981.72916666666</v>
+        <v>45984.72916666666</v>
       </c>
       <c r="B72">
-        <v>3.486</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>5.922</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2438,16 +2636,16 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45981.73958333334</v>
+        <v>45984.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.138</v>
+        <v>0.24</v>
       </c>
       <c r="C73">
-        <v>0.127</v>
+        <v>0.855</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2461,16 +2659,16 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45981.75</v>
+        <v>45984.75</v>
       </c>
       <c r="B74">
-        <v>1.042</v>
+        <v>0.352</v>
       </c>
       <c r="C74">
-        <v>0.042</v>
+        <v>0.383</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2484,16 +2682,16 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45981.76041666666</v>
+        <v>45984.76041666666</v>
       </c>
       <c r="B75">
-        <v>3.956</v>
+        <v>0.02</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>2.723</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2507,13 +2705,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45981.77083333334</v>
+        <v>45984.77083333334</v>
       </c>
       <c r="B76">
-        <v>31.076</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>15.73</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2530,19 +2728,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45981.78125</v>
+        <v>45984.78125</v>
       </c>
       <c r="B77">
-        <v>39.269</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>18.568</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F77">
         <v>76</v>
@@ -2553,19 +2751,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45981.79166666666</v>
+        <v>45984.79166666666</v>
       </c>
       <c r="B78">
-        <v>46.775</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1.195</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F78">
         <v>77</v>
@@ -2576,19 +2774,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45981.80208333334</v>
+        <v>45984.80208333334</v>
       </c>
       <c r="B79">
-        <v>70.71899999999999</v>
+        <v>0.038</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -2599,19 +2797,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45981.8125</v>
+        <v>45984.8125</v>
       </c>
       <c r="B80">
-        <v>43.356</v>
+        <v>0.094</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="D80">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2622,19 +2820,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45981.82291666666</v>
+        <v>45984.82291666666</v>
       </c>
       <c r="B81">
-        <v>9.308999999999999</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.118</v>
+        <v>3.532</v>
       </c>
       <c r="D81">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -2645,19 +2843,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45981.83333333334</v>
+        <v>45984.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="C82">
-        <v>5.484</v>
+        <v>0.699</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -2668,19 +2866,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45981.84375</v>
+        <v>45984.84375</v>
       </c>
       <c r="B83">
-        <v>0.082</v>
+        <v>19.48</v>
       </c>
       <c r="C83">
-        <v>4.142</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -2691,19 +2889,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45981.85416666666</v>
+        <v>45984.85416666666</v>
       </c>
       <c r="B84">
-        <v>0.169</v>
+        <v>25.547</v>
       </c>
       <c r="C84">
-        <v>1.614</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -2714,19 +2912,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45981.86458333334</v>
+        <v>45984.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>4.686</v>
       </c>
       <c r="C85">
-        <v>18.532</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -2737,19 +2935,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45981.875</v>
+        <v>45984.875</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>15.731</v>
       </c>
       <c r="C86">
-        <v>20.901</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F86">
         <v>85</v>
@@ -2760,19 +2958,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45981.88541666666</v>
+        <v>45984.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1.973</v>
       </c>
       <c r="C87">
-        <v>13.725</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F87">
         <v>86</v>
@@ -2783,13 +2981,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45981.89583333334</v>
+        <v>45984.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>23.234</v>
+        <v>15.447</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2806,19 +3004,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45981.90625</v>
+        <v>45984.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>23.143</v>
+        <v>33.128</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>88</v>
@@ -2829,19 +3027,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45981.91666666666</v>
+        <v>45984.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>31.591</v>
+        <v>7.496</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>89</v>
@@ -2852,19 +3050,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45981.92708333334</v>
+        <v>45984.92708333334</v>
       </c>
       <c r="B91">
-        <v>3.099</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>1.478</v>
+        <v>21.49</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>90</v>
@@ -2875,13 +3073,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45981.9375</v>
+        <v>45984.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>12.68</v>
+        <v>19.514</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2898,13 +3096,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45981.94791666666</v>
+        <v>45984.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>22.403</v>
+        <v>30.442</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2921,13 +3119,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45981.95833333334</v>
+        <v>45984.95833333334</v>
       </c>
       <c r="B94">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>3.17</v>
+        <v>21.568</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2944,13 +3142,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45981.95833333334</v>
+        <v>45984.95833333334</v>
       </c>
       <c r="B95">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>3.17</v>
+        <v>21.568</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2967,13 +3165,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45981.96875</v>
+        <v>45984.96875</v>
       </c>
       <c r="B96">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>1.674</v>
+        <v>27.817</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2990,13 +3188,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45981.96875</v>
+        <v>45984.96875</v>
       </c>
       <c r="B97">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>1.674</v>
+        <v>27.817</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3013,13 +3211,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45981.97916666666</v>
+        <v>45984.97916666666</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>11.408</v>
+        <v>39.056</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3036,13 +3234,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45981.97916666666</v>
+        <v>45984.97916666666</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>11.408</v>
+        <v>39.056</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3059,13 +3257,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45981.98958333334</v>
+        <v>45984.98958333334</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>11.038</v>
+        <v>20.67</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3082,13 +3280,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45981.98958333334</v>
+        <v>45984.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>11.038</v>
+        <v>20.67</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3105,13 +3303,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B102">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>8.209</v>
+        <v>1.529</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3128,13 +3326,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B103">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>8.209</v>
+        <v>1.529</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3151,13 +3349,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45982.01041666666</v>
+        <v>45985.01041666666</v>
       </c>
       <c r="B104">
-        <v>3.77</v>
+        <v>0.004</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.262</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3174,13 +3372,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45982.01041666666</v>
+        <v>45985.01041666666</v>
       </c>
       <c r="B105">
-        <v>3.77</v>
+        <v>0.004</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.262</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3197,13 +3395,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45982.02083333334</v>
+        <v>45985.02083333334</v>
       </c>
       <c r="B106">
-        <v>0.255</v>
+        <v>0.005</v>
       </c>
       <c r="C106">
-        <v>0.063</v>
+        <v>4.835</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3220,13 +3418,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45982.02083333334</v>
+        <v>45985.02083333334</v>
       </c>
       <c r="B107">
-        <v>0.255</v>
+        <v>0.005</v>
       </c>
       <c r="C107">
-        <v>0.063</v>
+        <v>4.835</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3243,13 +3441,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45982.03125</v>
+        <v>45985.03125</v>
       </c>
       <c r="B108">
-        <v>9.388</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>27.019</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3266,13 +3464,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45982.03125</v>
+        <v>45985.03125</v>
       </c>
       <c r="B109">
-        <v>9.388</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>27.019</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3289,19 +3487,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45982.04166666666</v>
+        <v>45985.04166666666</v>
       </c>
       <c r="B110">
-        <v>23.215</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>6.404</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -3312,19 +3510,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45982.05208333334</v>
+        <v>45985.05208333334</v>
       </c>
       <c r="B111">
-        <v>4.111</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>2.914</v>
       </c>
       <c r="D111">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F111">
         <v>6</v>
@@ -3335,19 +3533,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45982.0625</v>
+        <v>45985.0625</v>
       </c>
       <c r="B112">
-        <v>3.044</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.005</v>
+        <v>16.197</v>
       </c>
       <c r="D112">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F112">
         <v>7</v>
@@ -3358,19 +3556,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45982.07291666666</v>
+        <v>45985.07291666666</v>
       </c>
       <c r="B113">
-        <v>6.756</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.002</v>
+        <v>17.401</v>
       </c>
       <c r="D113">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F113">
         <v>8</v>
@@ -3381,19 +3579,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45982.08333333334</v>
+        <v>45985.08333333334</v>
       </c>
       <c r="B114">
-        <v>18.989</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>6.042</v>
       </c>
       <c r="D114">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F114">
         <v>9</v>
@@ -3404,19 +3602,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45982.09375</v>
+        <v>45985.09375</v>
       </c>
       <c r="B115">
-        <v>6.605</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>3.204</v>
       </c>
       <c r="D115">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -3427,19 +3625,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45982.10416666666</v>
+        <v>45985.10416666666</v>
       </c>
       <c r="B116">
-        <v>14.176</v>
+        <v>0.093</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1.711</v>
       </c>
       <c r="D116">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F116">
         <v>11</v>
@@ -3450,19 +3648,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45982.11458333334</v>
+        <v>45985.11458333334</v>
       </c>
       <c r="B117">
-        <v>15.961</v>
+        <v>1.572</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="D117">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F117">
         <v>12</v>
@@ -3473,19 +3671,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45982.125</v>
+        <v>45985.125</v>
       </c>
       <c r="B118">
-        <v>6.85</v>
+        <v>0.187</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="D118">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F118">
         <v>13</v>
@@ -3496,19 +3694,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45982.13541666666</v>
+        <v>45985.13541666666</v>
       </c>
       <c r="B119">
-        <v>0.415</v>
+        <v>4.812</v>
       </c>
       <c r="C119">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F119">
         <v>14</v>
@@ -3519,19 +3717,19 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45982.14583333334</v>
+        <v>45985.14583333334</v>
       </c>
       <c r="B120">
-        <v>4.993</v>
+        <v>8.26</v>
       </c>
       <c r="C120">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F120">
         <v>15</v>
@@ -3542,19 +3740,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45982.15625</v>
+        <v>45985.15625</v>
       </c>
       <c r="B121">
-        <v>0.694</v>
+        <v>19.621</v>
       </c>
       <c r="C121">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F121">
         <v>16</v>
@@ -3565,19 +3763,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45982.16666666666</v>
+        <v>45985.16666666666</v>
       </c>
       <c r="B122">
-        <v>1.822</v>
+        <v>1.177</v>
       </c>
       <c r="C122">
-        <v>0.048</v>
+        <v>0.01</v>
       </c>
       <c r="D122">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F122">
         <v>17</v>
@@ -3588,19 +3786,19 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45982.17708333334</v>
+        <v>45985.17708333334</v>
       </c>
       <c r="B123">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>0.488</v>
+        <v>1.815</v>
       </c>
       <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
         <v>37.5</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
       </c>
       <c r="F123">
         <v>18</v>
@@ -3611,19 +3809,19 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45982.1875</v>
+        <v>45985.1875</v>
       </c>
       <c r="B124">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>6.704</v>
+        <v>5.094</v>
       </c>
       <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
         <v>37.5</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
       </c>
       <c r="F124">
         <v>19</v>
@@ -3634,19 +3832,19 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45982.19791666666</v>
+        <v>45985.19791666666</v>
       </c>
       <c r="B125">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>3.358</v>
+        <v>9.202999999999999</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F125">
         <v>20</v>
@@ -3657,19 +3855,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45982.20833333334</v>
+        <v>45985.20833333334</v>
       </c>
       <c r="B126">
-        <v>5.773</v>
+        <v>0.004</v>
       </c>
       <c r="C126">
-        <v>0.02</v>
+        <v>12.261</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F126">
         <v>21</v>
@@ -3680,19 +3878,19 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45982.21875</v>
+        <v>45985.21875</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="C127">
-        <v>6.994</v>
+        <v>0.303</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F127">
         <v>22</v>
@@ -3703,19 +3901,19 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45982.22916666666</v>
+        <v>45985.22916666666</v>
       </c>
       <c r="B128">
-        <v>0.022</v>
+        <v>1.113</v>
       </c>
       <c r="C128">
-        <v>1.343</v>
+        <v>0.125</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F128">
         <v>23</v>
@@ -3726,19 +3924,19 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45982.23958333334</v>
+        <v>45985.23958333334</v>
       </c>
       <c r="B129">
-        <v>3.112</v>
+        <v>2.144</v>
       </c>
       <c r="C129">
-        <v>0.02</v>
+        <v>0.264</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F129">
         <v>24</v>
@@ -3749,19 +3947,19 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45982.25</v>
+        <v>45985.25</v>
       </c>
       <c r="B130">
-        <v>1.652</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>0.007</v>
+        <v>19.774</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F130">
         <v>25</v>
@@ -3772,19 +3970,19 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45982.26041666666</v>
+        <v>45985.26041666666</v>
       </c>
       <c r="B131">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>0.11</v>
+        <v>3.411</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F131">
         <v>26</v>
@@ -3795,19 +3993,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45982.27083333334</v>
+        <v>45985.27083333334</v>
       </c>
       <c r="B132">
-        <v>0.232</v>
+        <v>0.127</v>
       </c>
       <c r="C132">
-        <v>0.03</v>
+        <v>0.234</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F132">
         <v>27</v>
@@ -3818,19 +4016,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45982.28125</v>
+        <v>45985.28125</v>
       </c>
       <c r="B133">
-        <v>0.137</v>
+        <v>0.25</v>
       </c>
       <c r="C133">
-        <v>0.197</v>
+        <v>0.121</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F133">
         <v>28</v>
@@ -3841,19 +4039,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45982.29166666666</v>
+        <v>45985.29166666666</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>5.533</v>
       </c>
       <c r="C134">
-        <v>5.639</v>
+        <v>0.39</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F134">
         <v>29</v>
@@ -3864,25 +4062,1543 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45982.30208333334</v>
+        <v>45985.30208333334</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>14.108</v>
       </c>
       <c r="C135">
-        <v>5.38</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F135">
         <v>30</v>
       </c>
       <c r="G135" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>45985.3125</v>
+      </c>
+      <c r="B136">
+        <v>3.094</v>
+      </c>
+      <c r="C136">
+        <v>0.01</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45985.32291666666</v>
+      </c>
+      <c r="B137">
+        <v>0.124</v>
+      </c>
+      <c r="C137">
+        <v>0.21</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>32</v>
+      </c>
+      <c r="G137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>45985.33333333334</v>
+      </c>
+      <c r="B138">
+        <v>5.527</v>
+      </c>
+      <c r="C138">
+        <v>0.044</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>45985.34375</v>
+      </c>
+      <c r="B139">
+        <v>24.075</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>45985.35416666666</v>
+      </c>
+      <c r="B140">
+        <v>9.225</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>45985.36458333334</v>
+      </c>
+      <c r="B141">
+        <v>2.538</v>
+      </c>
+      <c r="C141">
+        <v>0.477</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>45985.375</v>
+      </c>
+      <c r="B142">
+        <v>8.121</v>
+      </c>
+      <c r="C142">
+        <v>0.545</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>45985.38541666666</v>
+      </c>
+      <c r="B143">
+        <v>1.358</v>
+      </c>
+      <c r="C143">
+        <v>6.571</v>
+      </c>
+      <c r="D143">
+        <v>25</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45985.39583333334</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>6.107</v>
+      </c>
+      <c r="D144">
+        <v>46.5</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45985.40625</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>15.118</v>
+      </c>
+      <c r="D145">
+        <v>46.5</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45985.41666666666</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>14.829</v>
+      </c>
+      <c r="D146">
+        <v>46.5</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>41</v>
+      </c>
+      <c r="G146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45985.42708333334</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>45.712</v>
+      </c>
+      <c r="D147">
+        <v>46.5</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>45985.4375</v>
+      </c>
+      <c r="B148">
+        <v>0.182</v>
+      </c>
+      <c r="C148">
+        <v>21.523</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>43</v>
+      </c>
+      <c r="G148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>45985.44791666666</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>24.387</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>45985.45833333334</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>27.978</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>45985.46875</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>29.651</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>45985.47916666666</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>49.847</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>47</v>
+      </c>
+      <c r="G152" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>45985.48958333334</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>46.676</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>48</v>
+      </c>
+      <c r="G153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>45985.5</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>9.67</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>31.75</v>
+      </c>
+      <c r="F154">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>45985.51041666666</v>
+      </c>
+      <c r="B155">
+        <v>1.881</v>
+      </c>
+      <c r="C155">
+        <v>4.293</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>31.75</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>45985.52083333334</v>
+      </c>
+      <c r="B156">
+        <v>4.272</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>32.75</v>
+      </c>
+      <c r="F156">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>45985.53125</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>35.25</v>
+      </c>
+      <c r="F157">
+        <v>52</v>
+      </c>
+      <c r="G157" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>45985.54166666666</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>25</v>
+      </c>
+      <c r="F158">
+        <v>53</v>
+      </c>
+      <c r="G158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>45985.55208333334</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>54</v>
+      </c>
+      <c r="G159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>45985.5625</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>45985.57291666666</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>56</v>
+      </c>
+      <c r="G161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>45985.58333333334</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>57</v>
+      </c>
+      <c r="G162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>45985.59375</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>58</v>
+      </c>
+      <c r="G163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>45985.60416666666</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>59</v>
+      </c>
+      <c r="G164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>45985.61458333334</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>60</v>
+      </c>
+      <c r="G165" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>45985.625</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>61</v>
+      </c>
+      <c r="G166" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>45985.63541666666</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>62</v>
+      </c>
+      <c r="G167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>45985.64583333334</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>63</v>
+      </c>
+      <c r="G168" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>45985.65625</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>64</v>
+      </c>
+      <c r="G169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>45985.66666666666</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>65</v>
+      </c>
+      <c r="G170" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>45985.67708333334</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>66</v>
+      </c>
+      <c r="G171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>45985.6875</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>67</v>
+      </c>
+      <c r="G172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>45985.69791666666</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>68</v>
+      </c>
+      <c r="G173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>45985.70833333334</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>69</v>
+      </c>
+      <c r="G174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>45985.71875</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>70</v>
+      </c>
+      <c r="G175" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>45985.72916666666</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>71</v>
+      </c>
+      <c r="G176" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>45985.73958333334</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>72</v>
+      </c>
+      <c r="G177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>45985.75</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>73</v>
+      </c>
+      <c r="G178" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>45985.76041666666</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>74</v>
+      </c>
+      <c r="G179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>45985.77083333334</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>75</v>
+      </c>
+      <c r="G180" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>45985.78125</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>76</v>
+      </c>
+      <c r="G181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>45985.79166666666</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>77</v>
+      </c>
+      <c r="G182" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>45985.80208333334</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>78</v>
+      </c>
+      <c r="G183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>45985.8125</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>79</v>
+      </c>
+      <c r="G184" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>45985.82291666666</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>45985.83333333334</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>81</v>
+      </c>
+      <c r="G186" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>45985.84375</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>82</v>
+      </c>
+      <c r="G187" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>45985.85416666666</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>83</v>
+      </c>
+      <c r="G188" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>45985.86458333334</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>84</v>
+      </c>
+      <c r="G189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>45985.875</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>85</v>
+      </c>
+      <c r="G190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>45985.88541666666</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>86</v>
+      </c>
+      <c r="G191" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>45985.89583333334</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>87</v>
+      </c>
+      <c r="G192" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>45985.90625</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>88</v>
+      </c>
+      <c r="G193" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>45985.91666666666</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>89</v>
+      </c>
+      <c r="G194" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>45985.92708333334</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>90</v>
+      </c>
+      <c r="G195" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>45985.9375</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>91</v>
+      </c>
+      <c r="G196" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>45985.94791666666</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>92</v>
+      </c>
+      <c r="G197" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>45985.95833333334</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>93</v>
+      </c>
+      <c r="G198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>45985.96875</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>94</v>
+      </c>
+      <c r="G199" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>45985.97916666666</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>95</v>
+      </c>
+      <c r="G200" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>45985.98958333334</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>96</v>
+      </c>
+      <c r="G201" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
+++ b/data_fetching/Entsoe/Balancing_Energy_Activation.xlsx
@@ -37,580 +37,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>30.12.20251</t>
-  </si>
-  <si>
-    <t>30.12.20252</t>
-  </si>
-  <si>
-    <t>30.12.20253</t>
-  </si>
-  <si>
-    <t>30.12.20254</t>
-  </si>
-  <si>
-    <t>30.12.20255</t>
-  </si>
-  <si>
-    <t>30.12.20256</t>
-  </si>
-  <si>
-    <t>30.12.20257</t>
-  </si>
-  <si>
-    <t>30.12.20258</t>
-  </si>
-  <si>
-    <t>30.12.20259</t>
-  </si>
-  <si>
-    <t>30.12.202510</t>
-  </si>
-  <si>
-    <t>30.12.202511</t>
-  </si>
-  <si>
-    <t>30.12.202512</t>
-  </si>
-  <si>
-    <t>30.12.202513</t>
-  </si>
-  <si>
-    <t>30.12.202514</t>
-  </si>
-  <si>
-    <t>30.12.202515</t>
-  </si>
-  <si>
-    <t>30.12.202516</t>
-  </si>
-  <si>
-    <t>30.12.202517</t>
-  </si>
-  <si>
-    <t>30.12.202518</t>
-  </si>
-  <si>
-    <t>30.12.202519</t>
-  </si>
-  <si>
-    <t>30.12.202520</t>
-  </si>
-  <si>
-    <t>30.12.202521</t>
-  </si>
-  <si>
-    <t>30.12.202522</t>
-  </si>
-  <si>
-    <t>30.12.202523</t>
-  </si>
-  <si>
-    <t>30.12.202524</t>
-  </si>
-  <si>
-    <t>30.12.202525</t>
-  </si>
-  <si>
-    <t>30.12.202526</t>
-  </si>
-  <si>
-    <t>30.12.202527</t>
-  </si>
-  <si>
-    <t>30.12.202528</t>
-  </si>
-  <si>
-    <t>30.12.202529</t>
-  </si>
-  <si>
-    <t>30.12.202530</t>
-  </si>
-  <si>
-    <t>30.12.202531</t>
-  </si>
-  <si>
-    <t>30.12.202532</t>
-  </si>
-  <si>
-    <t>30.12.202533</t>
-  </si>
-  <si>
-    <t>30.12.202534</t>
-  </si>
-  <si>
-    <t>30.12.202535</t>
-  </si>
-  <si>
-    <t>30.12.202536</t>
-  </si>
-  <si>
-    <t>30.12.202537</t>
-  </si>
-  <si>
-    <t>30.12.202538</t>
-  </si>
-  <si>
-    <t>30.12.202539</t>
-  </si>
-  <si>
-    <t>30.12.202540</t>
-  </si>
-  <si>
-    <t>30.12.202541</t>
-  </si>
-  <si>
-    <t>30.12.202542</t>
-  </si>
-  <si>
-    <t>30.12.202543</t>
-  </si>
-  <si>
-    <t>30.12.202544</t>
-  </si>
-  <si>
-    <t>30.12.202545</t>
-  </si>
-  <si>
-    <t>30.12.202546</t>
-  </si>
-  <si>
-    <t>30.12.202547</t>
-  </si>
-  <si>
-    <t>30.12.202548</t>
-  </si>
-  <si>
-    <t>30.12.202549</t>
-  </si>
-  <si>
-    <t>30.12.202550</t>
-  </si>
-  <si>
-    <t>30.12.202551</t>
-  </si>
-  <si>
-    <t>30.12.202552</t>
-  </si>
-  <si>
-    <t>30.12.202553</t>
-  </si>
-  <si>
-    <t>30.12.202554</t>
-  </si>
-  <si>
-    <t>30.12.202555</t>
-  </si>
-  <si>
-    <t>30.12.202556</t>
-  </si>
-  <si>
-    <t>30.12.202557</t>
-  </si>
-  <si>
-    <t>30.12.202558</t>
-  </si>
-  <si>
-    <t>30.12.202559</t>
-  </si>
-  <si>
-    <t>30.12.202560</t>
-  </si>
-  <si>
-    <t>30.12.202561</t>
-  </si>
-  <si>
-    <t>30.12.202562</t>
-  </si>
-  <si>
-    <t>30.12.202563</t>
-  </si>
-  <si>
-    <t>30.12.202564</t>
-  </si>
-  <si>
-    <t>30.12.202565</t>
-  </si>
-  <si>
-    <t>30.12.202566</t>
-  </si>
-  <si>
-    <t>30.12.202567</t>
-  </si>
-  <si>
-    <t>30.12.202568</t>
-  </si>
-  <si>
-    <t>30.12.202569</t>
-  </si>
-  <si>
-    <t>30.12.202570</t>
-  </si>
-  <si>
-    <t>30.12.202571</t>
-  </si>
-  <si>
-    <t>30.12.202572</t>
-  </si>
-  <si>
-    <t>30.12.202573</t>
-  </si>
-  <si>
-    <t>30.12.202574</t>
-  </si>
-  <si>
-    <t>30.12.202575</t>
-  </si>
-  <si>
-    <t>30.12.202576</t>
-  </si>
-  <si>
-    <t>30.12.202577</t>
-  </si>
-  <si>
-    <t>30.12.202578</t>
-  </si>
-  <si>
-    <t>30.12.202579</t>
-  </si>
-  <si>
-    <t>30.12.202580</t>
-  </si>
-  <si>
-    <t>30.12.202581</t>
-  </si>
-  <si>
-    <t>30.12.202582</t>
-  </si>
-  <si>
-    <t>30.12.202583</t>
-  </si>
-  <si>
-    <t>30.12.202584</t>
-  </si>
-  <si>
-    <t>30.12.202585</t>
-  </si>
-  <si>
-    <t>30.12.202586</t>
-  </si>
-  <si>
-    <t>30.12.202587</t>
-  </si>
-  <si>
-    <t>30.12.202588</t>
-  </si>
-  <si>
-    <t>30.12.202589</t>
-  </si>
-  <si>
-    <t>30.12.202590</t>
-  </si>
-  <si>
-    <t>30.12.202591</t>
-  </si>
-  <si>
-    <t>30.12.202592</t>
-  </si>
-  <si>
-    <t>30.12.202593</t>
-  </si>
-  <si>
-    <t>30.12.202594</t>
-  </si>
-  <si>
-    <t>30.12.202595</t>
-  </si>
-  <si>
-    <t>30.12.202596</t>
-  </si>
-  <si>
-    <t>31.12.20251</t>
-  </si>
-  <si>
-    <t>31.12.20252</t>
-  </si>
-  <si>
-    <t>31.12.20253</t>
-  </si>
-  <si>
-    <t>31.12.20254</t>
-  </si>
-  <si>
-    <t>31.12.20255</t>
-  </si>
-  <si>
-    <t>31.12.20256</t>
-  </si>
-  <si>
-    <t>31.12.20257</t>
-  </si>
-  <si>
-    <t>31.12.20258</t>
-  </si>
-  <si>
-    <t>31.12.20259</t>
-  </si>
-  <si>
-    <t>31.12.202510</t>
-  </si>
-  <si>
-    <t>31.12.202511</t>
-  </si>
-  <si>
-    <t>31.12.202512</t>
-  </si>
-  <si>
-    <t>31.12.202513</t>
-  </si>
-  <si>
-    <t>31.12.202514</t>
-  </si>
-  <si>
-    <t>31.12.202515</t>
-  </si>
-  <si>
-    <t>31.12.202516</t>
-  </si>
-  <si>
-    <t>31.12.202517</t>
-  </si>
-  <si>
-    <t>31.12.202518</t>
-  </si>
-  <si>
-    <t>31.12.202519</t>
-  </si>
-  <si>
-    <t>31.12.202520</t>
-  </si>
-  <si>
-    <t>31.12.202521</t>
-  </si>
-  <si>
-    <t>31.12.202522</t>
-  </si>
-  <si>
-    <t>31.12.202523</t>
-  </si>
-  <si>
-    <t>31.12.202524</t>
-  </si>
-  <si>
-    <t>31.12.202525</t>
-  </si>
-  <si>
-    <t>31.12.202526</t>
-  </si>
-  <si>
-    <t>31.12.202527</t>
-  </si>
-  <si>
-    <t>31.12.202528</t>
-  </si>
-  <si>
-    <t>31.12.202529</t>
-  </si>
-  <si>
-    <t>31.12.202530</t>
-  </si>
-  <si>
-    <t>31.12.202531</t>
-  </si>
-  <si>
-    <t>31.12.202532</t>
-  </si>
-  <si>
-    <t>31.12.202533</t>
-  </si>
-  <si>
-    <t>31.12.202534</t>
-  </si>
-  <si>
-    <t>31.12.202535</t>
-  </si>
-  <si>
-    <t>31.12.202536</t>
-  </si>
-  <si>
-    <t>31.12.202537</t>
-  </si>
-  <si>
-    <t>31.12.202538</t>
-  </si>
-  <si>
-    <t>31.12.202539</t>
-  </si>
-  <si>
-    <t>31.12.202540</t>
-  </si>
-  <si>
-    <t>31.12.202541</t>
-  </si>
-  <si>
-    <t>31.12.202542</t>
-  </si>
-  <si>
-    <t>31.12.202543</t>
-  </si>
-  <si>
-    <t>31.12.202544</t>
-  </si>
-  <si>
-    <t>31.12.202545</t>
-  </si>
-  <si>
-    <t>31.12.202546</t>
-  </si>
-  <si>
-    <t>31.12.202547</t>
-  </si>
-  <si>
-    <t>31.12.202548</t>
-  </si>
-  <si>
-    <t>31.12.202549</t>
-  </si>
-  <si>
-    <t>31.12.202550</t>
-  </si>
-  <si>
-    <t>31.12.202551</t>
-  </si>
-  <si>
-    <t>31.12.202552</t>
-  </si>
-  <si>
-    <t>31.12.202553</t>
-  </si>
-  <si>
-    <t>31.12.202554</t>
-  </si>
-  <si>
-    <t>31.12.202555</t>
-  </si>
-  <si>
-    <t>31.12.202556</t>
-  </si>
-  <si>
-    <t>31.12.202557</t>
-  </si>
-  <si>
-    <t>31.12.202558</t>
-  </si>
-  <si>
-    <t>31.12.202559</t>
-  </si>
-  <si>
-    <t>31.12.202560</t>
-  </si>
-  <si>
-    <t>31.12.202561</t>
-  </si>
-  <si>
-    <t>31.12.202562</t>
-  </si>
-  <si>
-    <t>31.12.202563</t>
-  </si>
-  <si>
-    <t>31.12.202564</t>
-  </si>
-  <si>
-    <t>31.12.202565</t>
-  </si>
-  <si>
-    <t>31.12.202566</t>
-  </si>
-  <si>
-    <t>31.12.202567</t>
-  </si>
-  <si>
-    <t>31.12.202568</t>
-  </si>
-  <si>
-    <t>31.12.202569</t>
-  </si>
-  <si>
-    <t>31.12.202570</t>
-  </si>
-  <si>
-    <t>31.12.202571</t>
-  </si>
-  <si>
-    <t>31.12.202572</t>
-  </si>
-  <si>
-    <t>31.12.202573</t>
-  </si>
-  <si>
-    <t>31.12.202574</t>
-  </si>
-  <si>
-    <t>31.12.202575</t>
-  </si>
-  <si>
-    <t>31.12.202576</t>
-  </si>
-  <si>
-    <t>31.12.202577</t>
-  </si>
-  <si>
-    <t>31.12.202578</t>
-  </si>
-  <si>
-    <t>31.12.202579</t>
-  </si>
-  <si>
-    <t>31.12.202580</t>
-  </si>
-  <si>
-    <t>31.12.202581</t>
-  </si>
-  <si>
-    <t>31.12.202582</t>
-  </si>
-  <si>
-    <t>31.12.202583</t>
-  </si>
-  <si>
-    <t>31.12.202584</t>
-  </si>
-  <si>
-    <t>31.12.202585</t>
-  </si>
-  <si>
-    <t>31.12.202586</t>
-  </si>
-  <si>
-    <t>31.12.202587</t>
-  </si>
-  <si>
-    <t>31.12.202588</t>
-  </si>
-  <si>
-    <t>31.12.202589</t>
-  </si>
-  <si>
-    <t>31.12.202590</t>
-  </si>
-  <si>
-    <t>31.12.202591</t>
-  </si>
-  <si>
-    <t>31.12.202592</t>
-  </si>
-  <si>
-    <t>31.12.202593</t>
-  </si>
-  <si>
-    <t>31.12.202594</t>
-  </si>
-  <si>
-    <t>31.12.202595</t>
-  </si>
-  <si>
-    <t>31.12.202596</t>
+    <t>21.01.20261</t>
+  </si>
+  <si>
+    <t>21.01.20262</t>
+  </si>
+  <si>
+    <t>21.01.20263</t>
+  </si>
+  <si>
+    <t>21.01.20264</t>
+  </si>
+  <si>
+    <t>21.01.20265</t>
+  </si>
+  <si>
+    <t>21.01.20266</t>
+  </si>
+  <si>
+    <t>21.01.20267</t>
+  </si>
+  <si>
+    <t>21.01.20268</t>
+  </si>
+  <si>
+    <t>21.01.20269</t>
+  </si>
+  <si>
+    <t>21.01.202610</t>
+  </si>
+  <si>
+    <t>21.01.202611</t>
+  </si>
+  <si>
+    <t>21.01.202612</t>
+  </si>
+  <si>
+    <t>21.01.202613</t>
+  </si>
+  <si>
+    <t>21.01.202614</t>
+  </si>
+  <si>
+    <t>21.01.202615</t>
+  </si>
+  <si>
+    <t>21.01.202616</t>
+  </si>
+  <si>
+    <t>21.01.202617</t>
+  </si>
+  <si>
+    <t>21.01.202618</t>
+  </si>
+  <si>
+    <t>21.01.202619</t>
+  </si>
+  <si>
+    <t>21.01.202620</t>
+  </si>
+  <si>
+    <t>21.01.202621</t>
+  </si>
+  <si>
+    <t>21.01.202622</t>
+  </si>
+  <si>
+    <t>21.01.202623</t>
+  </si>
+  <si>
+    <t>21.01.202624</t>
+  </si>
+  <si>
+    <t>21.01.202625</t>
+  </si>
+  <si>
+    <t>21.01.202626</t>
+  </si>
+  <si>
+    <t>21.01.202627</t>
+  </si>
+  <si>
+    <t>21.01.202628</t>
+  </si>
+  <si>
+    <t>21.01.202629</t>
+  </si>
+  <si>
+    <t>21.01.202630</t>
+  </si>
+  <si>
+    <t>21.01.202631</t>
+  </si>
+  <si>
+    <t>21.01.202632</t>
+  </si>
+  <si>
+    <t>21.01.202633</t>
+  </si>
+  <si>
+    <t>21.01.202634</t>
+  </si>
+  <si>
+    <t>21.01.202635</t>
+  </si>
+  <si>
+    <t>21.01.202636</t>
+  </si>
+  <si>
+    <t>21.01.202637</t>
+  </si>
+  <si>
+    <t>21.01.202638</t>
+  </si>
+  <si>
+    <t>21.01.202639</t>
+  </si>
+  <si>
+    <t>21.01.202640</t>
+  </si>
+  <si>
+    <t>21.01.202641</t>
+  </si>
+  <si>
+    <t>21.01.202642</t>
+  </si>
+  <si>
+    <t>21.01.202643</t>
+  </si>
+  <si>
+    <t>21.01.202644</t>
+  </si>
+  <si>
+    <t>21.01.202645</t>
+  </si>
+  <si>
+    <t>21.01.202646</t>
+  </si>
+  <si>
+    <t>21.01.202647</t>
+  </si>
+  <si>
+    <t>21.01.202648</t>
+  </si>
+  <si>
+    <t>21.01.202649</t>
+  </si>
+  <si>
+    <t>21.01.202650</t>
+  </si>
+  <si>
+    <t>21.01.202651</t>
+  </si>
+  <si>
+    <t>21.01.202652</t>
+  </si>
+  <si>
+    <t>21.01.202653</t>
+  </si>
+  <si>
+    <t>21.01.202654</t>
+  </si>
+  <si>
+    <t>21.01.202655</t>
+  </si>
+  <si>
+    <t>21.01.202656</t>
+  </si>
+  <si>
+    <t>21.01.202657</t>
+  </si>
+  <si>
+    <t>21.01.202658</t>
+  </si>
+  <si>
+    <t>21.01.202659</t>
+  </si>
+  <si>
+    <t>21.01.202660</t>
+  </si>
+  <si>
+    <t>21.01.202661</t>
+  </si>
+  <si>
+    <t>21.01.202662</t>
+  </si>
+  <si>
+    <t>21.01.202663</t>
+  </si>
+  <si>
+    <t>21.01.202664</t>
+  </si>
+  <si>
+    <t>21.01.202665</t>
+  </si>
+  <si>
+    <t>21.01.202666</t>
+  </si>
+  <si>
+    <t>21.01.202667</t>
+  </si>
+  <si>
+    <t>21.01.202668</t>
+  </si>
+  <si>
+    <t>21.01.202669</t>
+  </si>
+  <si>
+    <t>21.01.202670</t>
+  </si>
+  <si>
+    <t>21.01.202671</t>
+  </si>
+  <si>
+    <t>21.01.202672</t>
+  </si>
+  <si>
+    <t>21.01.202673</t>
+  </si>
+  <si>
+    <t>21.01.202674</t>
+  </si>
+  <si>
+    <t>21.01.202675</t>
+  </si>
+  <si>
+    <t>21.01.202676</t>
+  </si>
+  <si>
+    <t>21.01.202677</t>
+  </si>
+  <si>
+    <t>21.01.202678</t>
+  </si>
+  <si>
+    <t>21.01.202679</t>
+  </si>
+  <si>
+    <t>21.01.202680</t>
+  </si>
+  <si>
+    <t>21.01.202681</t>
+  </si>
+  <si>
+    <t>21.01.202682</t>
+  </si>
+  <si>
+    <t>21.01.202683</t>
+  </si>
+  <si>
+    <t>21.01.202684</t>
+  </si>
+  <si>
+    <t>21.01.202685</t>
+  </si>
+  <si>
+    <t>21.01.202686</t>
+  </si>
+  <si>
+    <t>21.01.202687</t>
+  </si>
+  <si>
+    <t>21.01.202688</t>
+  </si>
+  <si>
+    <t>21.01.202689</t>
+  </si>
+  <si>
+    <t>21.01.202690</t>
+  </si>
+  <si>
+    <t>21.01.202691</t>
+  </si>
+  <si>
+    <t>21.01.202692</t>
+  </si>
+  <si>
+    <t>21.01.202693</t>
+  </si>
+  <si>
+    <t>21.01.202694</t>
+  </si>
+  <si>
+    <t>21.01.202695</t>
+  </si>
+  <si>
+    <t>21.01.202696</t>
+  </si>
+  <si>
+    <t>22.01.20261</t>
+  </si>
+  <si>
+    <t>22.01.20262</t>
+  </si>
+  <si>
+    <t>22.01.20263</t>
+  </si>
+  <si>
+    <t>22.01.20264</t>
+  </si>
+  <si>
+    <t>22.01.20265</t>
+  </si>
+  <si>
+    <t>22.01.20266</t>
+  </si>
+  <si>
+    <t>22.01.20267</t>
+  </si>
+  <si>
+    <t>22.01.20268</t>
+  </si>
+  <si>
+    <t>22.01.20269</t>
+  </si>
+  <si>
+    <t>22.01.202610</t>
+  </si>
+  <si>
+    <t>22.01.202611</t>
+  </si>
+  <si>
+    <t>22.01.202612</t>
+  </si>
+  <si>
+    <t>22.01.202613</t>
+  </si>
+  <si>
+    <t>22.01.202614</t>
+  </si>
+  <si>
+    <t>22.01.202615</t>
+  </si>
+  <si>
+    <t>22.01.202616</t>
+  </si>
+  <si>
+    <t>22.01.202617</t>
+  </si>
+  <si>
+    <t>22.01.202618</t>
+  </si>
+  <si>
+    <t>22.01.202619</t>
+  </si>
+  <si>
+    <t>22.01.202620</t>
+  </si>
+  <si>
+    <t>22.01.202621</t>
+  </si>
+  <si>
+    <t>22.01.202622</t>
+  </si>
+  <si>
+    <t>22.01.202623</t>
+  </si>
+  <si>
+    <t>22.01.202624</t>
+  </si>
+  <si>
+    <t>22.01.202625</t>
+  </si>
+  <si>
+    <t>22.01.202626</t>
+  </si>
+  <si>
+    <t>22.01.202627</t>
+  </si>
+  <si>
+    <t>22.01.202628</t>
+  </si>
+  <si>
+    <t>22.01.202629</t>
+  </si>
+  <si>
+    <t>22.01.202630</t>
+  </si>
+  <si>
+    <t>22.01.202631</t>
+  </si>
+  <si>
+    <t>22.01.202632</t>
+  </si>
+  <si>
+    <t>22.01.202633</t>
+  </si>
+  <si>
+    <t>22.01.202634</t>
+  </si>
+  <si>
+    <t>22.01.202635</t>
+  </si>
+  <si>
+    <t>22.01.202636</t>
+  </si>
+  <si>
+    <t>22.01.202637</t>
+  </si>
+  <si>
+    <t>22.01.202638</t>
+  </si>
+  <si>
+    <t>22.01.202639</t>
+  </si>
+  <si>
+    <t>22.01.202640</t>
+  </si>
+  <si>
+    <t>22.01.202641</t>
+  </si>
+  <si>
+    <t>22.01.202642</t>
+  </si>
+  <si>
+    <t>22.01.202643</t>
+  </si>
+  <si>
+    <t>22.01.202644</t>
+  </si>
+  <si>
+    <t>22.01.202645</t>
+  </si>
+  <si>
+    <t>22.01.202646</t>
+  </si>
+  <si>
+    <t>22.01.202647</t>
+  </si>
+  <si>
+    <t>22.01.202648</t>
+  </si>
+  <si>
+    <t>22.01.202649</t>
+  </si>
+  <si>
+    <t>22.01.202650</t>
+  </si>
+  <si>
+    <t>22.01.202651</t>
+  </si>
+  <si>
+    <t>22.01.202652</t>
+  </si>
+  <si>
+    <t>22.01.202653</t>
+  </si>
+  <si>
+    <t>22.01.202654</t>
+  </si>
+  <si>
+    <t>22.01.202655</t>
+  </si>
+  <si>
+    <t>22.01.202656</t>
+  </si>
+  <si>
+    <t>22.01.202657</t>
+  </si>
+  <si>
+    <t>22.01.202658</t>
+  </si>
+  <si>
+    <t>22.01.202659</t>
+  </si>
+  <si>
+    <t>22.01.202660</t>
+  </si>
+  <si>
+    <t>22.01.202661</t>
+  </si>
+  <si>
+    <t>22.01.202662</t>
+  </si>
+  <si>
+    <t>22.01.202663</t>
+  </si>
+  <si>
+    <t>22.01.202664</t>
+  </si>
+  <si>
+    <t>22.01.202665</t>
+  </si>
+  <si>
+    <t>22.01.202666</t>
+  </si>
+  <si>
+    <t>22.01.202667</t>
+  </si>
+  <si>
+    <t>22.01.202668</t>
+  </si>
+  <si>
+    <t>22.01.202669</t>
+  </si>
+  <si>
+    <t>22.01.202670</t>
+  </si>
+  <si>
+    <t>22.01.202671</t>
+  </si>
+  <si>
+    <t>22.01.202672</t>
+  </si>
+  <si>
+    <t>22.01.202673</t>
+  </si>
+  <si>
+    <t>22.01.202674</t>
+  </si>
+  <si>
+    <t>22.01.202675</t>
+  </si>
+  <si>
+    <t>22.01.202676</t>
+  </si>
+  <si>
+    <t>22.01.202677</t>
+  </si>
+  <si>
+    <t>22.01.202678</t>
+  </si>
+  <si>
+    <t>22.01.202679</t>
+  </si>
+  <si>
+    <t>22.01.202680</t>
+  </si>
+  <si>
+    <t>22.01.202681</t>
+  </si>
+  <si>
+    <t>22.01.202682</t>
+  </si>
+  <si>
+    <t>22.01.202683</t>
+  </si>
+  <si>
+    <t>22.01.202684</t>
+  </si>
+  <si>
+    <t>22.01.202685</t>
+  </si>
+  <si>
+    <t>22.01.202686</t>
+  </si>
+  <si>
+    <t>22.01.202687</t>
+  </si>
+  <si>
+    <t>22.01.202688</t>
+  </si>
+  <si>
+    <t>22.01.202689</t>
+  </si>
+  <si>
+    <t>22.01.202690</t>
+  </si>
+  <si>
+    <t>22.01.202691</t>
+  </si>
+  <si>
+    <t>22.01.202692</t>
+  </si>
+  <si>
+    <t>22.01.202693</t>
+  </si>
+  <si>
+    <t>22.01.202694</t>
+  </si>
+  <si>
+    <t>22.01.202695</t>
+  </si>
+  <si>
+    <t>22.01.202696</t>
   </si>
 </sst>
 </file>
@@ -1003,16 +1003,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>46021</v>
+        <v>46043</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="C2">
-        <v>1.945</v>
+        <v>1.073</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>46021.01041666666</v>
+        <v>46043.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.972</v>
       </c>
       <c r="C3">
-        <v>14.821</v>
+        <v>0.08</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>46021.02083333334</v>
+        <v>46043.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7.46</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>0.08</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>46021.03125</v>
+        <v>46043.03125</v>
       </c>
       <c r="B5">
-        <v>0.035</v>
+        <v>2.494</v>
       </c>
       <c r="C5">
-        <v>1.459</v>
+        <v>0.073</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>46021.04166666666</v>
+        <v>46043.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>21.198</v>
       </c>
       <c r="C6">
-        <v>1.779</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>46021.05208333334</v>
+        <v>46043.05208333334</v>
       </c>
       <c r="B7">
-        <v>1.209</v>
+        <v>14.162</v>
       </c>
       <c r="C7">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1141,16 +1141,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>46021.0625</v>
+        <v>46043.0625</v>
       </c>
       <c r="B8">
-        <v>2.806</v>
+        <v>0.361</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>6.242</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1164,16 +1164,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>46021.07291666666</v>
+        <v>46043.07291666666</v>
       </c>
       <c r="B9">
-        <v>2.681</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.098</v>
+        <v>16.159</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1187,16 +1187,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>46021.08333333334</v>
+        <v>46043.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.04</v>
+        <v>0.924</v>
       </c>
       <c r="C10">
-        <v>0.325</v>
+        <v>1.005</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>46021.09375</v>
+        <v>46043.09375</v>
       </c>
       <c r="B11">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.488</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>46021.10416666666</v>
+        <v>46043.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.911</v>
+        <v>0.024</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.494</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1256,16 +1256,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>46021.11458333334</v>
+        <v>46043.11458333334</v>
       </c>
       <c r="B13">
-        <v>11.055</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4.635</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1279,16 +1279,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>46021.125</v>
+        <v>46043.125</v>
       </c>
       <c r="B14">
-        <v>1.583</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>6.39</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1302,16 +1302,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>46021.13541666666</v>
+        <v>46043.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.094</v>
+        <v>0.128</v>
       </c>
       <c r="C15">
-        <v>0.016</v>
+        <v>0.353</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,16 +1325,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>46021.14583333334</v>
+        <v>46043.14583333334</v>
       </c>
       <c r="B16">
-        <v>3.791</v>
+        <v>4.551</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.951</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>46021.15625</v>
+        <v>46043.15625</v>
       </c>
       <c r="B17">
-        <v>27.107</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,16 +1371,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>46021.16666666666</v>
+        <v>46043.16666666666</v>
       </c>
       <c r="B18">
-        <v>26.758</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>8.975</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,16 +1394,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>46021.17708333334</v>
+        <v>46043.17708333334</v>
       </c>
       <c r="B19">
-        <v>40.809</v>
+        <v>0.022</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>9.358000000000001</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>46021.1875</v>
+        <v>46043.1875</v>
       </c>
       <c r="B20">
-        <v>24.934</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.708</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1440,16 +1440,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>46021.19791666666</v>
+        <v>46043.19791666666</v>
       </c>
       <c r="B21">
-        <v>15.127</v>
+        <v>0.137</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1463,19 +1463,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>46021.20833333334</v>
+        <v>46043.20833333334</v>
       </c>
       <c r="B22">
-        <v>8.305999999999999</v>
+        <v>0.652</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>25</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1486,19 +1486,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>46021.21875</v>
+        <v>46043.21875</v>
       </c>
       <c r="B23">
-        <v>6.799</v>
+        <v>8.831</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>25</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -1509,19 +1509,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>46021.22916666666</v>
+        <v>46043.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.786</v>
+        <v>36.587</v>
       </c>
       <c r="C24">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>25</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1532,16 +1532,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>46021.23958333334</v>
+        <v>46043.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.204</v>
+        <v>55.501</v>
       </c>
       <c r="C25">
-        <v>0.726</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1555,16 +1555,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>46021.25</v>
+        <v>46043.25</v>
       </c>
       <c r="B26">
-        <v>0.041</v>
+        <v>40.372</v>
       </c>
       <c r="C26">
-        <v>4.819</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>46021.26041666666</v>
+        <v>46043.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.049</v>
+        <v>32.79</v>
       </c>
       <c r="C27">
-        <v>0.821</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>46021.27083333334</v>
+        <v>46043.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>9.127000000000001</v>
       </c>
       <c r="C28">
-        <v>3.62</v>
+        <v>0.014</v>
       </c>
       <c r="D28">
         <v>37.5</v>
@@ -1624,13 +1624,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>46021.28125</v>
+        <v>46043.28125</v>
       </c>
       <c r="B29">
-        <v>2.293</v>
+        <v>2.664</v>
       </c>
       <c r="C29">
-        <v>1.507</v>
+        <v>0.029</v>
       </c>
       <c r="D29">
         <v>37.5</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>46021.29166666666</v>
+        <v>46043.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.834</v>
+        <v>12.281</v>
       </c>
       <c r="C30">
-        <v>0.004</v>
+        <v>0.033</v>
       </c>
       <c r="D30">
         <v>37.5</v>
@@ -1670,13 +1670,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>46021.30208333334</v>
+        <v>46043.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.065</v>
+        <v>49.507</v>
       </c>
       <c r="C31">
-        <v>0.151</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>37.5</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>46021.3125</v>
+        <v>46043.3125</v>
       </c>
       <c r="B32">
-        <v>0.006</v>
+        <v>51.339</v>
       </c>
       <c r="C32">
-        <v>1.675</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>37.5</v>
@@ -1716,16 +1716,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>46021.32291666666</v>
+        <v>46043.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>44.961</v>
       </c>
       <c r="C33">
-        <v>15.917</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>46021.33333333334</v>
+        <v>46043.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>63.849</v>
       </c>
       <c r="C34">
-        <v>7.394</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1762,16 +1762,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>46021.34375</v>
+        <v>46043.34375</v>
       </c>
       <c r="B35">
-        <v>0.051</v>
+        <v>90.018</v>
       </c>
       <c r="C35">
-        <v>0.978</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1785,16 +1785,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>46021.35416666666</v>
+        <v>46043.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.477</v>
+        <v>72.93300000000001</v>
       </c>
       <c r="C36">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>46021.36458333334</v>
+        <v>46043.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.031</v>
+        <v>87.444</v>
       </c>
       <c r="C37">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>98.75</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1831,16 +1831,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>46021.375</v>
+        <v>46043.375</v>
       </c>
       <c r="B38">
-        <v>6.129</v>
+        <v>86.175</v>
       </c>
       <c r="C38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>97.75</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1854,16 +1854,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>46021.38541666666</v>
+        <v>46043.38541666666</v>
       </c>
       <c r="B39">
-        <v>4.514</v>
+        <v>86.175</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>162.5</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>46021.39583333334</v>
+        <v>46043.39583333334</v>
       </c>
       <c r="B40">
-        <v>0.012</v>
+        <v>85.383</v>
       </c>
       <c r="C40">
-        <v>7.563</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>212.5</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>46021.40625</v>
+        <v>46043.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>66.548</v>
       </c>
       <c r="C41">
-        <v>38.866</v>
+        <v>0.243</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>262.5</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1923,16 +1923,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>46021.41666666666</v>
+        <v>46043.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="C42">
-        <v>16.916</v>
+        <v>0.965</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>262.5</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>46021.42708333334</v>
+        <v>46043.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.024</v>
+        <v>10.97</v>
       </c>
       <c r="C43">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>205.25</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1969,16 +1969,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>46021.4375</v>
+        <v>46043.4375</v>
       </c>
       <c r="B44">
-        <v>0.021</v>
+        <v>0.996</v>
       </c>
       <c r="C44">
-        <v>1.39</v>
+        <v>0.107</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>205.25</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>46021.44791666666</v>
+        <v>46043.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="C45">
-        <v>7.625</v>
+        <v>0.585</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>205.25</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2015,16 +2015,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>46021.45833333334</v>
+        <v>46043.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.103</v>
+        <v>0.664</v>
       </c>
       <c r="C46">
-        <v>0.597</v>
+        <v>1.213</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>211.25</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2038,16 +2038,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>46021.46875</v>
+        <v>46043.46875</v>
       </c>
       <c r="B47">
-        <v>3.075</v>
+        <v>0.382</v>
       </c>
       <c r="C47">
-        <v>0.037</v>
+        <v>0.644</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>187.5</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2061,16 +2061,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>46021.47916666666</v>
+        <v>46043.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.058</v>
+        <v>22.012</v>
       </c>
       <c r="C48">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>139.75</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2084,16 +2084,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>46021.48958333334</v>
+        <v>46043.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.008999999999999999</v>
+        <v>11.647</v>
       </c>
       <c r="C49">
-        <v>1.135</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>139.75</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2107,16 +2107,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>46021.5</v>
+        <v>46043.5</v>
       </c>
       <c r="B50">
-        <v>0.058</v>
+        <v>9.632999999999999</v>
       </c>
       <c r="C50">
-        <v>1.826</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2130,16 +2130,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>46021.51041666666</v>
+        <v>46043.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.156</v>
+        <v>27.083</v>
       </c>
       <c r="C51">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2153,16 +2153,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>46021.52083333334</v>
+        <v>46043.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.022</v>
+        <v>28.985</v>
       </c>
       <c r="C52">
-        <v>1.622</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2176,16 +2176,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>46021.53125</v>
+        <v>46043.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>27.804</v>
       </c>
       <c r="C53">
-        <v>15.687</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>46021.54166666666</v>
+        <v>46043.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>56.87</v>
       </c>
       <c r="C54">
-        <v>28.771</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>142.25</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>46021.55208333334</v>
+        <v>46043.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>51.63</v>
       </c>
       <c r="C55">
-        <v>21.696</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2245,16 +2245,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>46021.5625</v>
+        <v>46043.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>10.736</v>
       </c>
       <c r="C56">
-        <v>17.688</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>209.75</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2268,16 +2268,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>46021.57291666666</v>
+        <v>46043.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="C57">
-        <v>6.59</v>
+        <v>0.429</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2291,16 +2291,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>46021.58333333334</v>
+        <v>46043.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="C58">
-        <v>8.098000000000001</v>
+        <v>12.204</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2314,16 +2314,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>46021.59375</v>
+        <v>46043.59375</v>
       </c>
       <c r="B59">
-        <v>5.825</v>
+        <v>0.867</v>
       </c>
       <c r="C59">
-        <v>2.208</v>
+        <v>0.06</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>46021.60416666666</v>
+        <v>46043.60416666666</v>
       </c>
       <c r="B60">
-        <v>36.643</v>
+        <v>0.124</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.315</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2360,16 +2360,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>46021.61458333334</v>
+        <v>46043.61458333334</v>
       </c>
       <c r="B61">
-        <v>62.911</v>
+        <v>12.186</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>46021.625</v>
+        <v>46043.625</v>
       </c>
       <c r="B62">
-        <v>35.304</v>
+        <v>2.83</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2406,16 +2406,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>46021.63541666666</v>
+        <v>46043.63541666666</v>
       </c>
       <c r="B63">
-        <v>63.581</v>
+        <v>0.225</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2429,16 +2429,16 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>46021.64583333334</v>
+        <v>46043.64583333334</v>
       </c>
       <c r="B64">
-        <v>62.824</v>
+        <v>0.036</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2452,16 +2452,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>46021.65625</v>
+        <v>46043.65625</v>
       </c>
       <c r="B65">
-        <v>52.616</v>
+        <v>0.475</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="D65">
-        <v>62.5</v>
+        <v>150</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2475,16 +2475,16 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>46021.66666666666</v>
+        <v>46043.66666666666</v>
       </c>
       <c r="B66">
-        <v>30.697</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>4.197</v>
       </c>
       <c r="D66">
-        <v>62.5</v>
+        <v>140.5</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2498,16 +2498,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>46021.67708333334</v>
+        <v>46043.67708333334</v>
       </c>
       <c r="B67">
-        <v>19.254</v>
+        <v>0.068</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="D67">
-        <v>62.5</v>
+        <v>148</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>46021.6875</v>
+        <v>46043.6875</v>
       </c>
       <c r="B68">
-        <v>59.978</v>
+        <v>0.486</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="D68">
-        <v>70</v>
+        <v>112.5</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2544,16 +2544,16 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>46021.69791666666</v>
+        <v>46043.69791666666</v>
       </c>
       <c r="B69">
-        <v>37.975</v>
+        <v>4.499</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2567,16 +2567,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>46021.70833333334</v>
+        <v>46043.70833333334</v>
       </c>
       <c r="B70">
-        <v>12.544</v>
+        <v>9.911</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>46021.71875</v>
+        <v>46043.71875</v>
       </c>
       <c r="B71">
-        <v>9.398</v>
+        <v>16.574</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>46021.72916666666</v>
+        <v>46043.72916666666</v>
       </c>
       <c r="B72">
-        <v>11.291</v>
+        <v>17.353</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>46021.73958333334</v>
+        <v>46043.73958333334</v>
       </c>
       <c r="B73">
-        <v>31.893</v>
+        <v>12.518</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2659,16 +2659,16 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>46021.75</v>
+        <v>46043.75</v>
       </c>
       <c r="B74">
-        <v>43.362</v>
+        <v>22.795</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>75</v>
+        <v>124.25</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2682,16 +2682,16 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>46021.76041666666</v>
+        <v>46043.76041666666</v>
       </c>
       <c r="B75">
-        <v>64.081</v>
+        <v>23.083</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>62.5</v>
+        <v>124.25</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2705,16 +2705,16 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>46021.77083333334</v>
+        <v>46043.77083333334</v>
       </c>
       <c r="B76">
-        <v>21.04</v>
+        <v>4.662</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="D76">
-        <v>87.5</v>
+        <v>124.25</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2728,16 +2728,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>46021.78125</v>
+        <v>46043.78125</v>
       </c>
       <c r="B77">
-        <v>27.568</v>
+        <v>0.222</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="D77">
-        <v>87.5</v>
+        <v>112.5</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>46021.79166666666</v>
+        <v>46043.79166666666</v>
       </c>
       <c r="B78">
-        <v>22.978</v>
+        <v>0.078</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="D78">
-        <v>87.5</v>
+        <v>112.5</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>46021.80208333334</v>
+        <v>46043.80208333334</v>
       </c>
       <c r="B79">
-        <v>1.885</v>
+        <v>0.254</v>
       </c>
       <c r="C79">
-        <v>0.03</v>
+        <v>0.199</v>
       </c>
       <c r="D79">
         <v>87.5</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>46021.8125</v>
+        <v>46043.8125</v>
       </c>
       <c r="B80">
-        <v>0.029</v>
+        <v>3.533</v>
       </c>
       <c r="C80">
-        <v>1.605</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2820,16 +2820,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>46021.82291666666</v>
+        <v>46043.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="C81">
-        <v>32.955</v>
+        <v>0.186</v>
       </c>
       <c r="D81">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>46021.83333333334</v>
+        <v>46043.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="C82">
-        <v>19.506</v>
+        <v>0.245</v>
       </c>
       <c r="D82">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2866,16 +2866,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>46021.84375</v>
+        <v>46043.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="C83">
-        <v>18.009</v>
+        <v>1.807</v>
       </c>
       <c r="D83">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2889,16 +2889,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>46021.85416666666</v>
+        <v>46043.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="C84">
-        <v>9.967000000000001</v>
+        <v>1.102</v>
       </c>
       <c r="D84">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2912,16 +2912,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>46021.86458333334</v>
+        <v>46043.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="C85">
-        <v>8.170999999999999</v>
+        <v>0.897</v>
       </c>
       <c r="D85">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>46021.875</v>
+        <v>46043.875</v>
       </c>
       <c r="B86">
-        <v>0.033</v>
+        <v>0.075</v>
       </c>
       <c r="C86">
-        <v>4.27</v>
+        <v>1.048</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>46021.88541666666</v>
+        <v>46043.88541666666</v>
       </c>
       <c r="B87">
-        <v>21.023</v>
+        <v>0.113</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.406</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>86</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>46021.89583333334</v>
+        <v>46043.89583333334</v>
       </c>
       <c r="B88">
-        <v>43.435</v>
+        <v>0.1</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.301</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>87</v>
@@ -3004,13 +3004,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>46021.90625</v>
+        <v>46043.90625</v>
       </c>
       <c r="B89">
-        <v>31.364</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>20.363</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>46021.91666666666</v>
+        <v>46043.91666666666</v>
       </c>
       <c r="B90">
-        <v>16.803</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>11.547</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>46021.92708333334</v>
+        <v>46043.92708333334</v>
       </c>
       <c r="B91">
-        <v>40.954</v>
+        <v>0.079</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.842</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>46021.9375</v>
+        <v>46043.9375</v>
       </c>
       <c r="B92">
-        <v>23.685</v>
+        <v>0.048</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.827</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3096,16 +3096,16 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>46021.94791666666</v>
+        <v>46043.94791666666</v>
       </c>
       <c r="B93">
-        <v>0.921</v>
+        <v>0.041</v>
       </c>
       <c r="C93">
-        <v>11.969</v>
+        <v>4.238</v>
       </c>
       <c r="D93">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3119,16 +3119,16 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>46021.95833333334</v>
+        <v>46043.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>2.137</v>
       </c>
       <c r="C94">
-        <v>9.297000000000001</v>
+        <v>2.153</v>
       </c>
       <c r="D94">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3142,16 +3142,16 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>46021.95833333334</v>
+        <v>46043.95833333334</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>2.137</v>
       </c>
       <c r="C95">
-        <v>9.297000000000001</v>
+        <v>2.153</v>
       </c>
       <c r="D95">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3165,16 +3165,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>46021.96875</v>
+        <v>46043.96875</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1.382</v>
       </c>
       <c r="C96">
-        <v>32.101</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3188,16 +3188,16 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>46021.96875</v>
+        <v>46043.96875</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1.382</v>
       </c>
       <c r="C97">
-        <v>32.101</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3211,16 +3211,16 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>46021.97916666666</v>
+        <v>46043.97916666666</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="C98">
-        <v>12.313</v>
+        <v>0.311</v>
       </c>
       <c r="D98">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3234,16 +3234,16 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>46021.97916666666</v>
+        <v>46043.97916666666</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="C99">
-        <v>12.313</v>
+        <v>0.311</v>
       </c>
       <c r="D99">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>46021.98958333334</v>
+        <v>46043.98958333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>4.102</v>
       </c>
       <c r="C100">
-        <v>13.708</v>
+        <v>0.004</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3280,13 +3280,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>46021.98958333334</v>
+        <v>46043.98958333334</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>4.102</v>
       </c>
       <c r="C101">
-        <v>13.708</v>
+        <v>0.004</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B102">
-        <v>0.063</v>
+        <v>9.685</v>
       </c>
       <c r="C102">
-        <v>3.889</v>
+        <v>0.05</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3326,13 +3326,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
       <c r="B103">
-        <v>0.063</v>
+        <v>9.685</v>
       </c>
       <c r="C103">
-        <v>3.889</v>
+        <v>0.05</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3349,13 +3349,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>46022.01041666666</v>
+        <v>46044.01041666666</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1.417</v>
       </c>
       <c r="C104">
-        <v>3.754</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3372,13 +3372,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>46022.01041666666</v>
+        <v>46044.01041666666</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1.417</v>
       </c>
       <c r="C105">
-        <v>3.754</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3395,13 +3395,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>46022.02083333334</v>
+        <v>46044.02083333334</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>0.479</v>
       </c>
       <c r="C106">
-        <v>10.626</v>
+        <v>0.048</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3418,13 +3418,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>46022.02083333334</v>
+        <v>46044.02083333334</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>0.479</v>
       </c>
       <c r="C107">
-        <v>10.626</v>
+        <v>0.048</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>46022.03125</v>
+        <v>46044.03125</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1.062</v>
       </c>
       <c r="C108">
-        <v>28.5</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>46022.03125</v>
+        <v>46044.03125</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1.062</v>
       </c>
       <c r="C109">
-        <v>28.5</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3487,13 +3487,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>46022.04166666666</v>
+        <v>46044.04166666666</v>
       </c>
       <c r="B110">
-        <v>0.008999999999999999</v>
+        <v>42.787</v>
       </c>
       <c r="C110">
-        <v>5.085</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>46022.05208333334</v>
+        <v>46044.05208333334</v>
       </c>
       <c r="B111">
-        <v>0.14</v>
+        <v>21.262</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>6</v>
@@ -3533,19 +3533,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>46022.0625</v>
+        <v>46044.0625</v>
       </c>
       <c r="B112">
-        <v>0.063</v>
+        <v>5.016</v>
       </c>
       <c r="C112">
-        <v>1.199</v>
+        <v>0.005</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>7</v>
@@ -3556,19 +3556,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>46022.07291666666</v>
+        <v>46044.07291666666</v>
       </c>
       <c r="B113">
-        <v>1.26</v>
+        <v>0.335</v>
       </c>
       <c r="C113">
-        <v>0.112</v>
+        <v>0.132</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>8</v>
@@ -3579,19 +3579,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>46022.08333333334</v>
+        <v>46044.08333333334</v>
       </c>
       <c r="B114">
-        <v>11.217</v>
+        <v>0.638</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>9</v>
@@ -3602,19 +3602,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>46022.09375</v>
+        <v>46044.09375</v>
       </c>
       <c r="B115">
-        <v>9.67</v>
+        <v>0.003</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>2.674</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -3625,19 +3625,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>46022.10416666666</v>
+        <v>46044.10416666666</v>
       </c>
       <c r="B116">
-        <v>6.211</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>19.858</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>11</v>
@@ -3648,13 +3648,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>46022.11458333334</v>
+        <v>46044.11458333334</v>
       </c>
       <c r="B117">
-        <v>2.107</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>30.452</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3671,16 +3671,16 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>46022.125</v>
+        <v>46044.125</v>
       </c>
       <c r="B118">
-        <v>22.754</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>32.063</v>
       </c>
       <c r="D118">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3694,19 +3694,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>46022.13541666666</v>
+        <v>46044.13541666666</v>
       </c>
       <c r="B119">
-        <v>1.996</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0.015</v>
+        <v>34.445</v>
       </c>
       <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
         <v>25</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
       </c>
       <c r="F119">
         <v>14</v>
@@ -3717,19 +3717,19 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>46022.14583333334</v>
+        <v>46044.14583333334</v>
       </c>
       <c r="B120">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0.163</v>
+        <v>32.498</v>
       </c>
       <c r="D120">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F120">
         <v>15</v>
@@ -3740,19 +3740,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>46022.15625</v>
+        <v>46044.15625</v>
       </c>
       <c r="B121">
-        <v>14.269</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>26.527</v>
       </c>
       <c r="D121">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F121">
         <v>16</v>
@@ -3763,19 +3763,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>46022.16666666666</v>
+        <v>46044.16666666666</v>
       </c>
       <c r="B122">
-        <v>2.632</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0.025</v>
+        <v>52.399</v>
       </c>
       <c r="D122">
-        <v>61.25</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F122">
         <v>17</v>
@@ -3786,19 +3786,19 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>46022.17708333334</v>
+        <v>46044.17708333334</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>1.486</v>
+        <v>21.946</v>
       </c>
       <c r="D123">
-        <v>58.75</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F123">
         <v>18</v>
@@ -3809,19 +3809,19 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>46022.1875</v>
+        <v>46044.1875</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>2.779</v>
+        <v>32.085</v>
       </c>
       <c r="D124">
-        <v>58.75</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>46.25</v>
       </c>
       <c r="F124">
         <v>19</v>
@@ -3832,19 +3832,19 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>46022.19791666666</v>
+        <v>46044.19791666666</v>
       </c>
       <c r="B125">
-        <v>0.375</v>
+        <v>0.039</v>
       </c>
       <c r="C125">
-        <v>0.177</v>
+        <v>9.528</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>46.25</v>
       </c>
       <c r="F125">
         <v>20</v>
@@ -3855,19 +3855,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>46022.20833333334</v>
+        <v>46044.20833333334</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>12.621</v>
       </c>
       <c r="C126">
-        <v>2.791</v>
+        <v>0.118</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>46.25</v>
       </c>
       <c r="F126">
         <v>21</v>
@@ -3878,19 +3878,19 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>46022.21875</v>
+        <v>46044.21875</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>17.01</v>
       </c>
       <c r="C127">
-        <v>19.386</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>46.25</v>
       </c>
       <c r="F127">
         <v>22</v>
@@ -3901,19 +3901,19 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>46022.22916666666</v>
+        <v>46044.22916666666</v>
       </c>
       <c r="B128">
-        <v>0.007</v>
+        <v>24.628</v>
       </c>
       <c r="C128">
-        <v>6.366</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>25</v>
+        <v>40.75</v>
       </c>
       <c r="F128">
         <v>23</v>
@@ -3924,19 +3924,19 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>46022.23958333334</v>
+        <v>46044.23958333334</v>
       </c>
       <c r="B129">
-        <v>0.154</v>
+        <v>14.686</v>
       </c>
       <c r="C129">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>24</v>
@@ -3947,13 +3947,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>46022.25</v>
+        <v>46044.25</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C130">
-        <v>15.119</v>
+        <v>23.034</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3970,13 +3970,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>46022.26041666666</v>
+        <v>46044.26041666666</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="C131">
-        <v>14.748</v>
+        <v>1.029</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3993,19 +3993,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>46022.27083333334</v>
+        <v>46044.27083333334</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="C132">
-        <v>20.404</v>
+        <v>0.104</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>27</v>
@@ -4016,19 +4016,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>46022.28125</v>
+        <v>46044.28125</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="C133">
-        <v>0.578</v>
+        <v>0.12</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>41.75</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>28</v>
@@ -4039,19 +4039,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>46022.29166666666</v>
+        <v>46044.29166666666</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="C134">
-        <v>24.391</v>
+        <v>0.338</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>29</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>46022.30208333334</v>
+        <v>46044.30208333334</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="C135">
-        <v>6.68</v>
+        <v>0.027</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>45.25</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>30</v>
@@ -4085,19 +4085,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>46022.3125</v>
+        <v>46044.3125</v>
       </c>
       <c r="B136">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>4.087</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>45.25</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>31</v>
@@ -4108,19 +4108,19 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>46022.32291666666</v>
+        <v>46044.32291666666</v>
       </c>
       <c r="B137">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E137">
-        <v>45.25</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>32</v>
@@ -4131,19 +4131,19 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>46022.33333333334</v>
+        <v>46044.33333333334</v>
       </c>
       <c r="B138">
-        <v>0.248</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>1.275</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>33</v>
@@ -4154,19 +4154,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>46022.34375</v>
+        <v>46044.34375</v>
       </c>
       <c r="B139">
-        <v>0.277</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>34</v>
@@ -4177,19 +4177,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>46022.35416666666</v>
+        <v>46044.35416666666</v>
       </c>
       <c r="B140">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>35</v>
@@ -4200,19 +4200,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>46022.36458333334</v>
+        <v>46044.36458333334</v>
       </c>
       <c r="B141">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>36</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>46022.375</v>
+        <v>46044.375</v>
       </c>
       <c r="B142">
-        <v>15.248</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>37</v>
@@ -4246,19 +4246,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>46022.38541666666</v>
+        <v>46044.38541666666</v>
       </c>
       <c r="B143">
-        <v>3.393</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>0.994</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>38</v>
@@ -4269,19 +4269,19 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>46022.39583333334</v>
+        <v>46044.39583333334</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>6.673</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <v>39</v>
@@ -4292,19 +4292,19 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>46022.40625</v>
+        <v>46044.40625</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>14.493</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>40</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>46022.41666666666</v>
+        <v>46044.41666666666</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>41</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>46022.42708333334</v>
+        <v>46044.42708333334</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>42</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>46022.4375</v>
+        <v>46044.4375</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>46022.44791666666</v>
+        <v>46044.44791666666</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>46022.45833333334</v>
+        <v>46044.45833333334</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>46022.46875</v>
+        <v>46044.46875</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>46022.47916666666</v>
+        <v>46044.47916666666</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>46022.48958333334</v>
+        <v>46044.48958333334</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>46022.5</v>
+        <v>46044.5</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>46022.51041666666</v>
+        <v>46044.51041666666</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>46022.52083333334</v>
+        <v>46044.52083333334</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>46022.53125</v>
+        <v>46044.53125</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>46022.54166666666</v>
+        <v>46044.54166666666</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>46022.55208333334</v>
+        <v>46044.55208333334</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>46022.5625</v>
+        <v>46044.5625</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>46022.57291666666</v>
+        <v>46044.57291666666</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>46022.58333333334</v>
+        <v>46044.58333333334</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>46022.59375</v>
+        <v>46044.59375</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>46022.60416666666</v>
+        <v>46044.60416666666</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>46022.61458333334</v>
+        <v>46044.61458333334</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>46022.625</v>
+        <v>46044.625</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>46022.63541666666</v>
+        <v>46044.63541666666</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>46022.64583333334</v>
+        <v>46044.64583333334</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>46022.65625</v>
+        <v>46044.65625</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>46022.66666666666</v>
+        <v>46044.66666666666</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
-        <v>46022.67708333334</v>
+        <v>46044.67708333334</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
-        <v>46022.6875</v>
+        <v>46044.6875</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
-        <v>46022.69791666666</v>
+        <v>46044.69791666666</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
-        <v>46022.70833333334</v>
+        <v>46044.70833333334</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
-        <v>46022.71875</v>
+        <v>46044.71875</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>46022.72916666666</v>
+        <v>46044.72916666666</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2">
-        <v>46022.73958333334</v>
+        <v>46044.73958333334</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
-        <v>46022.75</v>
+        <v>46044.75</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
-        <v>46022.76041666666</v>
+        <v>46044.76041666666</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
-        <v>46022.77083333334</v>
+        <v>46044.77083333334</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2">
-        <v>46022.78125</v>
+        <v>46044.78125</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
-        <v>46022.79166666666</v>
+        <v>46044.79166666666</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
-        <v>46022.80208333334</v>
+        <v>46044.80208333334</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2">
-        <v>46022.8125</v>
+        <v>46044.8125</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2">
-        <v>46022.82291666666</v>
+        <v>46044.82291666666</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2">
-        <v>46022.83333333334</v>
+        <v>46044.83333333334</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2">
-        <v>46022.84375</v>
+        <v>46044.84375</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="2">
-        <v>46022.85416666666</v>
+        <v>46044.85416666666</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="2">
-        <v>46022.86458333334</v>
+        <v>46044.86458333334</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="2">
-        <v>46022.875</v>
+        <v>46044.875</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2">
-        <v>46022.88541666666</v>
+        <v>46044.88541666666</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="2">
-        <v>46022.89583333334</v>
+        <v>46044.89583333334</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2">
-        <v>46022.90625</v>
+        <v>46044.90625</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2">
-        <v>46022.91666666666</v>
+        <v>46044.91666666666</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="2">
-        <v>46022.92708333334</v>
+        <v>46044.92708333334</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="2">
-        <v>46022.9375</v>
+        <v>46044.9375</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="2">
-        <v>46022.94791666666</v>
+        <v>46044.94791666666</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -